--- a/static/flask_output_file.xlsx
+++ b/static/flask_output_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>There is no one answer to this question since real estate law can vary significantly from one jurisdiction to another. Generally speaking, though, real estate law encompasses the rules and regulations governing the ownership, development, and use of land and other property. This can include issues such as zoning, eminent domain, and landlord-tenant law.</t>
+          <t>Real estate law is a legal field that covers the rights and interests people have in land and property. It includes everything from the purchase and sale of property to the development and use of land.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is a specialized area of law that deals with the rights and interests in land and property. Real estate lawyers represent clients in transaction, development, and litigation matters involving land and property. They also advise clients on land-use issues, zoning, and environmental regulations.</t>
+          <t>Real estate law is different from other legal professions because it is a highly specialized area of law that deals with the ownership, development, and use of land and properties. Real estate lawyers must have a thorough understanding of local, state, and federal laws that govern the ownership and use of land and properties. They must also be familiar with the real estate market and the various contracts and documents associated with the buying, selling, and leasing of real estate.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A real estate lawyer is a lawyer who specializes in the legal aspects of real estate transactions, including sales, purchases, leases, and financing.</t>
+          <t>Most real estate lawyers handle purchases and sales of property, landlord-tenant law, title disputes, and foreclosure proceedings.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>There are many different types of law, and each type of law requires different skills. Specializing in real estate law helps lawyers to develop the specific skills needed to deal with real estate law. This can make them more effective lawyers overall.</t>
+          <t>There is a growing body of law that governs the development, ownership, and operation of real estate. Specializing in real estate law gives lawyers a deep understanding of this area of law and how it works in practice. This knowledge is valuable to both lawyers and their clients.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>There are a variety of different types of areas in real estate law transcription that can be useful. This includes things like inspections, appraisals, surveys, and other important aspects of the real estate process. By having a transcription of these things, it can help to ensure accuracy and provide a clear record for later reference.</t>
+          <t>This type of transcription can be useful for a variety of different types of law, including property law, lease law, contract law, and more.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Real estate lawyers can utilize transcription for a variety of purposes, such as taking dictation, creating records of client meetings, and transcribing legal briefs.</t>
+          <t>There are many ways that real estate lawyers can utilize transcription. For example, they can use it to transcribe depositions, court hearings, and interviews. Additionally, transcription can be used to create transcripts of real estate closings, contracts, and other legal documents.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,14 +762,16 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>There is no one answer to this question since real estate law can vary significantly from one jurisdiction to another. Generally speaking, though, real estate law encompasses the rules and regulations governing the ownership, development, and use of land and other property. This can include issues such as zoning, eminent domain, and landlord-tenant law. Real estate law is a specialized area of law that deals with the rights and interests in land and property. Real estate lawyers represent clients in transaction, development, and litigation matters involving land and property. They also advise clients on land-use issues, zoning, and environmental regulations. A real estate lawyer is a lawyer who specializes in the legal aspects of real estate transactions, including sales, purchases, leases, and financing. There are many different types of law, and each type of law requires different skills. Specializing in real estate law helps lawyers to develop the specific skills needed to deal with real estate law. This can make them more effective lawyers overall. There are a variety of different types of areas in real estate law transcription that can be useful. This includes things like inspections, appraisals, surveys, and other important aspects of the real estate process. By having a transcription of these things, it can help to ensure accuracy and provide a clear record for later reference. Real estate lawyers can utilize transcription for a variety of purposes, such as taking dictation, creating records of client meetings, and transcribing legal briefs.</t>
+          <t>Real estate law is a legal field that covers the rights and interests people have in land and property. It includes everything from the purchase and sale of property to the development and use of land. Real estate law is different from other legal professions because it is a highly specialized area of law that deals with the ownership, development, and use of land and properties. Real estate lawyers must have a thorough understanding of local, state, and federal laws that govern the ownership and use of land and properties. They must also be familiar with the real estate market and the various contracts and documents associated with the buying, selling, and leasing of real estate. Most real estate lawyers handle purchases and sales of property, landlord-tenant law, title disputes, and foreclosure proceedings. There is a growing body of law that governs the development, ownership, and operation of real estate. Specializing in real estate law gives lawyers a deep understanding of this area of law and how it works in practice. This knowledge is valuable to both lawyers and their clients. This type of transcription can be useful for a variety of different types of law, including property law, lease law, contract law, and more. There are many ways that real estate lawyers can utilize transcription. For example, they can use it to transcribe depositions, court hearings, and interviews. Additionally, transcription can be used to create transcripts of real estate closings, contracts, and other legal documents.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate law is a highly specialized area of law that encompasses the rules and regulations governing the ownership, development, and use of land and property. It can include zoning, eminent domain, and landlord-tenant law. For this reason, real estate lawyers must have a deep understanding of the different aspects of the law in order to effectively represent their clients in transactions, development, and litigation matters involving land and property.
-Real estate lawyers can benefit greatly from legal transcription services. Transcription services can help to ensure accuracy in records and provide a clear record for later reference. The transcription of documents such as inspections, appraisals, surveys, and other important aspects of the real estate process can be useful to lawyers as they work to represent their clients. Additionally, these services can be used for taking dictation, creating records of client meetings, and transcribing legal briefs.
-At Capital Typing, we offer real estate lawyers a comprehensive legal transcription service that is tailored to meet their</t>
+          <t>Real estate law is a complex and specialized field that requires lawyers to have an in-depth understanding of the laws that govern the purchase and sale of real estate, as well as the development and use of land. From landlord-tenant law to title disputes and foreclosure proceedings, real estate lawyers must be familiar with all the regulations and terminology that govern this area of the law. Capital Typing provides real estate lawyers with legal transcription services to help them navigate this complex area of law.
+Legal transcription services are becoming increasingly essential for real estate lawyers. Transcription can help lawyers create transcripts of court proceedings, depositions, and interviews. It can also be used to document real estate closings, contracts, and other important legal documents. By having access to transcripts of these proceedings and documents, lawyers can quickly and accurately refer back to them when needed.
+The transcription services provided by Capital Typing are invaluable for real estate lawyers. Our highly trained professionals are well-versed in this area of the law, ensuring that all transcripts they produce are accurate and up to date. Our transcriptionists are experienced in transcribing various types of legal documents, including real estate contracts, leases, title disputes, and more. We also provide our clients with access to a secure online portal, which allows them to easily store, access, and share their transcripts.
+In addition to providing real estate lawyers with legal transcription services, Capital Typing also offers other services, such as document scanning, document hosting, and document delivery. Our document scanning service allows lawyers to quickly and easily scan their physical documents into digital format. We also offer document hosting, which allows lawyers to store their documents online and easily access them from anywhere. Finally, our document delivery service ensures that documents are delivered to their intended recipients in a timely and secure manner.
+Capital Typing is dedicated to providing real estate lawyers with the best legal transcription services available. Our experienced team of professionals is well-versed in this area of the law and is committed to providing our clients with accurate and up to date transcripts. We also offer a wide range of other services, such as document scanning, document hosting, and document delivery, to help lawyers streamline their workflow and ensure that their documents are delivered to their intended recipients in a timely and secure manner.</t>
         </is>
       </c>
     </row>
@@ -781,7 +783,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is an official who creates a word-for-word record of proceedings in a court of law. The term can also refer to someone who creates captions for live or recorded broadcasts, or someone who provides transcription services for other audio recordings.</t>
+          <t>A court reporter is an important part of the justice system. Court reporters create a written record of legal proceedings. This record is known as the transcript. Court reporters use a specialized machine called a stenograph to create the transcript.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -791,7 +793,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>There are many difference between court reporters and other legal professionals. Court reporters typically work in courtrooms or other legal settings, and they use specialized equipment to create a written record of proceedings. Other legal professionals, such as lawyers and paralegals, may work in a variety of settings and may not use specialized equipment.</t>
+          <t>Court reporters specialize in creating a word-for-word transcript of proceedings. Other legal professionals may work with court reporters, but they do not have the same training or qualifications.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -801,7 +803,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Court reporters can utilize legal transcription services in order to create transcripts of legal proceedings. This can be useful for creating a record of what was said during a trial or other legal proceeding.</t>
+          <t>There are a number of ways that court reporters can utilize legal transcription services. One way is to use transcription services for creating verbatim transcripts of proceedings. This can be helpful in instances where there is a need for an accurate record of what was said during a court proceeding. Another way that transcription services can be used is for creating summaries of court proceedings. This can be helpful for court reporters who want to provide a quick overview of what transpired during a court proceeding without having to provide a full, verbatim transcript.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -851,15 +853,16 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is an official who creates a word-for-word record of proceedings in a court of law. The term can also refer to someone who creates captions for live or recorded broadcasts, or someone who provides transcription services for other audio recordings. There are many difference between court reporters and other legal professionals. Court reporters typically work in courtrooms or other legal settings, and they use specialized equipment to create a written record of proceedings. Other legal professionals, such as lawyers and paralegals, may work in a variety of settings and may not use specialized equipment. Court reporters can utilize legal transcription services in order to create transcripts of legal proceedings. This can be useful for creating a record of what was said during a trial or other legal proceeding.</t>
+          <t>A court reporter is an important part of the justice system. Court reporters create a written record of legal proceedings. This record is known as the transcript. Court reporters use a specialized machine called a stenograph to create the transcript. Court reporters specialize in creating a word-for-word transcript of proceedings. Other legal professionals may work with court reporters, but they do not have the same training or qualifications. There are a number of ways that court reporters can utilize legal transcription services. One way is to use transcription services for creating verbatim transcripts of proceedings. This can be helpful in instances where there is a need for an accurate record of what was said during a court proceeding. Another way that transcription services can be used is for creating summaries of court proceedings. This can be helpful for court reporters who want to provide a quick overview of what transpired during a court proceeding without having to provide a full, verbatim transcript.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>If you are a court reporter, you know how important it is to have an accurate record of proceedings in a court of law. But what if you need help creating a transcript of the proceedings? This is where legal transcription services come into play.
-Capital Typing provides comprehensive transcription services for court reporters, giving them the ability to accurately document court proceedings. Our team of experienced transcriptionists have a thorough understanding of court proceedings and the legal system, and they use specialized equipment to create an accurate and up-to-date transcript of proceedings.
-When you use our transcription services, you can be sure that your transcripts are accurate and comprehensive. We understand the importance of having a complete record of court proceedings, and our transcriptionists take great care to ensure that the transcripts accurately reflect what was said. We also provide a variety of other services, such as proofreading, editing, and formatting, to ensure that your transcripts are of the highest quality.
-Using legal transcription services</t>
+          <t>Legal transcription services are an important part of the court reporting process. Court reporters create a written record of proceedings, known as a transcript, using a specialized machine called a stenograph. Without a verbatim transcript, legal proceedings can be difficult to interpret and understand. Court reporters require an incredible amount of skill to create a word-for-word transcript, and as such they require an additional level of professional qualifications and training.
+Capital Typing provides a suite of legal transcription services for court reporters. With our services, court reporters can create verbatim transcripts of proceedings with great accuracy. This can be beneficial in situations where there is a need to preserve an exact record of what was said during legal proceedings. Additionally, Capital Typing can also create summaries of court proceedings, which can provide a quick overview of what transpired without having to provide a full transcript.
+Using Capital Typing for legal transcription services can help streamline the court reporting process drastically. Court reporters can save time and money by outsourcing the transcription process to us. We offer a secure platform for uploading and downloading files, and our experienced staff is trained to provide accurate transcripts with quick turnaround times.
+We understand that court reporters need to have complete confidence in the accuracy of their transcripts. That’s why we guarantee the accuracy of all of our transcriptions. We also offer a variety of other services, such as audio and video transcription, to meet the needs of court reporters. Our transcriptionists are available 24/7 to provide fast, accurate results.
+At Capital Typing, we are committed to providing court reporters with the best legal transcription services available. We understand the importance of accuracy and timeliness, and we strive to provide our clients with the highest quality transcripts at the most competitive rates. Contact us today to learn more about our legal transcription services and how we can help you with your court reporting needs.</t>
         </is>
       </c>
     </row>
@@ -871,10 +874,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>to Medical and Professional Services
-Accurate and Fast Turnaround Time
-Flagstaff has a large number of hospitals, clinics, and specialty practices that need access to the same audio transcription services that are available in Phoenix. Some organizations take advantage of Phoenix’s convenience and make the drive down south for their transcription services; others want to stay closer to home and look instead to those services available in Flagstaff. To meet the needs of these businesses and professionals who require access to the same services without having to make the drive down south to Phoenix, Orange skew has opened a transcription service center conveniently located in Flagstaff.
-Pay-as-You-Go or Monthly Payment Plans Available. Contact us for pricing details by email or toll-free.</t>
+          <t>Services
+There are many benefits to outsourcing transcription services for your business. Rather than having to hire and train personnel, transcription services can be outsourced to provide an affordable and efficient solution. You will not need to worry about transcription staff and the risks associated with it. Transcription services are both accurate and professional, providing a high degree of satisfaction. You will also be able to relieve yourself of the burden of maintaining this complex systems while at the same time getting a wide range of benefits. Transcription services allow you to take care of your customers and their important documents up to the minute detail. Transcription services offer fast and accurate transcriptions of all your sessions and seminars. The transcribed version of your meetings can be easily stored or emailed to the client. All important meetings classified as information and knowledge stored in our databases for easy access, 100% confidential environment.
+Conference Transcription Services
+Conference calls are regularly made in every business. Conference callairings are actually taped to underside of the rug outside this door for their safety. When you make business phone calls, there are a few ways you may hear your conversation and when you do, it may be audio recordings or conference calls. No matter what you do, conference calls are an excellent way to coordinate and share business matters such as important client presentations. The trouble with conference calls is that recordings are difficult to access. Just use thoughts on audio transcription services.
+Transcribe Interview
+Interviews can be used in professional work, or just for fun. When you give or receive an interview, it should be transcribed so that your modern new impromptu becomes ready material for future use. Recorded interviews can be transcribed yourself if you have enoughWBEO367n2u time and if you haven’t looked at your transcriber for so long, it’s hard to get back to it again. If you are a busy interviewee or interviewer, you may want to pay a professional recording service.
+Investment Transcription Service
+In plain English, transcription of investment is the translation of an audio or video file to written document. This is not a translation service where someone who speaks at least two languages is the interpreter of the file at a relatively fast rate. In most cases, footage is recorded in suit and tie investments. An audio or video recording of the opposing sides of the trade is taken by the attorney, investment company or one in the financial industry at the time of negotiation. For their court case, these files are left with the company attorney. The company needs transcripts of this recording to refer to them in writing. In such transactions, speaking is done in a fast pace and names and figures may pop now and then. There aren’t so many features to think about your transcripts when doing business. Accurate and legible transcripts should be sufficient to use their written points as collateral. To know more visit our blog.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -884,10 +891,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>for your business
-If you are a business owner, there are many things you can '.outsource '.to save money and time. One of those things you could potentially '.outsource '.is transcription services. When you are outsourcing transcription services, there are a few things that you need to keep in mind.
-First, you need to make sure that you are using a company that has a great reputation. You never want to use a company that does not have a stellar reputation. This will cause a lot of headaches later on down the road. A great place to start is by doing a search on the internet. You should always read reviews before you make a final decision on which company you want to use.
-Second, you need to make sure that the transcription services you use are accredited. This is important because you do not want to use a company that is not properly accredited. There are many companies out there that claim to be accredited and they are not. You should always</t>
+          <t>Anyone can be a service provider. apart from transcriptionists who you think have some work which is in blast. The other specialists are being consultation services related to their specialties, project managers, project coordinators and many more that are Ou...
+Consult at Methamphetamine Rehab Center and get Solution of Drug Addiction Problems
+Meth addiction can bring very DRASTIC changes in the person lifestyle. If the addiction is not controlled at the priorities then it has a huge detrimental effect in your life. Many times it will turn a person to make some wrong decisions in a desire. E...
+Consult with Best Ear Nose And Throat Doctor in Bhubaneswar,Orissa
+As we know that throat problems are really very annoying and sometimes it can cause the severe problem for the human to swallow. Most people usually think that throat disease is sure signs of the cold or flue but due to pain in the throat they nee...
+Choose the Bestfrom Rochester Institute of Technology
+If you already know that you would like to become an engineer and if you are going to make sure that your degree is the best in the market, you should start looking for the best institution that offers the best mechanical engineering programme. Ar...
+Try Z Kamins? products
+When it comes to skin care and facial care, you have many options you can go for. You can spend a lot of time learning about new products which might work for you or you can consult a specialist and find out all about what products they have to offe...
+AI Transcription Services
+An audio conversation captured on video or a recording device can be transcribed into the text form using a tool. With the tools available, we can transcribe audio into text within 30 minutes. One can either transcribe for themselves or hire a service...
+Enterprise Project Management Software
+The UMT 360 is the leading enterprise project management software in Saudi Arabia. It gives various options to manage project. This enterprise project management software in Saudi Arabia helps to improve the quality of the enterprise management ...
+Agile Development Software
+The new feature in UMT 360 agile development software in Dubai will help you to adequately discuss and plan Agile processes, as well as execute, monitor, manage, optimize, and continue to greatly value the success of Agile projects and programs. UMT...
+SAP FC Management Training Institute
+SAP FICO Consultants are demanded in, all around globe. Every year, SAP FICO consultants get paid higher than ever. Thi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -898,9 +918,7 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Services
-Outsourcing transcriptions services can provide Benefitllc Group with so many advantages over using in-house staff to perform this necessary job function. Technology is the future of business processes, and outsourcing is an important technology-driven advancement of this century that any business can consider. Many aspects of technology are benefiting businesses and toxins is no exception. Below, we discuss two technological advances that can impact transcription services, and why they aren’t a believable excuse to outsource this process.
-Advancement #1: Digital Recordings Your sweepstakes, interviews, lectures, etc. are recorded via digital file either directly interface withByIda e3 scheme systemzzo , telecom, or smartphone. No matter what vocal communication access is used, this data is stored for easy transfer and backup beyond the conversation itself.
-Where transcription services from Benefitllc Group come into play is turning such digital recordings into a readable transcript. In case of data loss, we can always back</t>
+Overview of thefindings of the recently concluded Transcription Survey and it's key findings. The study was conducted to find out the user attitude towards outsourcing transcription services across the globe in a recent time</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -911,8 +929,30 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>Services
-The concern over data security is certainly aclient's/customer's top priority whenever email lists and other data is outsourced to another company. This area of customer concern must be addressed in a contract or other documentation. An outsourcing agreement must identify the expectations and requirements of the client to the Marketing Agency regarding confidentiality and security of the data. It is essential for both parties that all confidential information remain confidential. The introduction of new technologies and services requires new ways of thinking about substance, procedures, and infrastructure in the business and IT world. Outsourcing services, along with new technologies such as Software-as-Service (Saas) and Cloud-based Computing, Cloud Storage and Computing have lead that change. More and more companies are turning to outsourcing companies to process email lists and other data as an integral part of their business model
- scaling and profitability. Escrow services are often used when the customer is outsourcing services and needs ESI for data privacy and security. However, with the</t>
+Data security is always a concern when working with an outside organization. To protect your company, you can considerCatholic Transcription Services for transcription services.
+Transcription Service Providers
+Transcription service providers can save you time by providing the voice to text services you need to get work done. You can find transcription service providers online to save the time you spend typing and formatting documents
+Health Transcription Services
+Health transcription services can help cut down on your paperwork and save money. You can find health transcription services to meet your specific needs and help make your job easier.
+Legal Transcription Services
+Family Law Transcription Services for Your Firm
+Finding the right legal transcription services company for your firm will ensure that you get quality Transcripts. Asimov Solutions is one of the most celebrated transcription companies in the country with over 15 years of experience in family law. At Asimov Solutions, we provide五福彩票苹果版famous manner.
+There is a lot of information available regarding transcription services in the world. This can be quite confusing to a lot of people whenever they are trying to determine where to get these services. This is especially true if there are no transcription services currently being located near the area you currently live in.
+AVERICKMEDIA
+ Oscar Leo Write-up ,
+Suite 8 - 1 Crawford Street ,
+London ,
+United Kingdom ,
+W1H 1JU
+Phone: +1-(347)-293-1313
+Website: www.averickmedia.com/
+Email: eileen_buzz@averickmedia.com
+Products: Criminal Transcription Services, Financial Transcription Services, IT Transcription Services, Law Enforcement Tapes Transcription Services, Legal Transcription Services, Business Transcription Services, Medical Transcription Services, Interview Transcription Services, Digital Audio Recording Transcription Services, Educational Transcription Services and more.
+More than other industries, require transcription services and interviews to be extremely accurate. Once business deals are being made, then the written word will be the only thing binding, making it extremely important to get everything completely accurately written down. This is why businesses of this nature will usually hirerather than try and transcribe the conversation themselves.
+Here a few law-related reasons that you shouldn't transcribe your own court or police reports.
+Envelopes are one of those paper products that provide two different types of aesthetic design. The first and most popular of the two seems to be the product that the company or advertising message is printed on the face. The name of the company, logo, or advertisement can be printed using standard digital printing or screen printing. The back panel of the envelope is usually reserved for the address and the imprint, this information typically printed in the most basic of fonts.
+Yet there are many different factors that must be taken into consideration on one website before 'passing it off' as a trusted transcription service provider.
+Family law transcription services company have peen growing rapidly since past few years, offering best transcription services, reported by some of the top rated companies. Asimov Solutions, one of the leading company in transcription services industry, offer specialized transcription services for family law. They have also been successful in creating a niche for themselves in this field.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -960,25 +1000,66 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>to Medical and Professional Services
-Accurate and Fast Turnaround Time
-Flagstaff has a large number of hospitals, clinics, and specialty practices that need access to the same audio transcription services that are available in Phoenix. Some organizations take advantage of Phoenix’s convenience and make the drive down south for their transcription services; others want to stay closer to home and look instead to those services available in Flagstaff. To meet the needs of these businesses and professionals who require access to the same services without having to make the drive down south to Phoenix, Orange skew has opened a transcription service center conveniently located in Flagstaff.
-Pay-as-You-Go or Monthly Payment Plans Available. Contact us for pricing details by email or toll-free. for your business
-If you are a business owner, there are many things you can '.outsource '.to save money and time. One of those things you could potentially '.outsource '.is transcription services. When you are outsourcing transcription services, there are a few things that you need to keep in mind.
-First, you need to make sure that you are using a company that has a great reputation. You never want to use a company that does not have a stellar reputation. This will cause a lot of headaches later on down the road. A great place to start is by doing a search on the internet. You should always read reviews before you make a final decision on which company you want to use.
-Second, you need to make sure that the transcription services you use are accredited. This is important because you do not want to use a company that is not properly accredited. There are many companies out there that claim to be accredited and they are not. You should always Services
-Outsourcing transcriptions services can provide Benefitllc Group with so many advantages over using in-house staff to perform this necessary job function. Technology is the future of business processes, and outsourcing is an important technology-driven advancement of this century that any business can consider. Many aspects of technology are benefiting businesses and toxins is no exception. Below, we discuss two technological advances that can impact transcription services, and why they aren’t a believable excuse to outsource this process.
-Advancement #1: Digital Recordings Your sweepstakes, interviews, lectures, etc. are recorded via digital file either directly interface withByIda e3 scheme systemzzo , telecom, or smartphone. No matter what vocal communication access is used, this data is stored for easy transfer and backup beyond the conversation itself.
-Where transcription services from Benefitllc Group come into play is turning such digital recordings into a readable transcript. In case of data loss, we can always back Services
-The concern over data security is certainly aclient's/customer's top priority whenever email lists and other data is outsourced to another company. This area of customer concern must be addressed in a contract or other documentation. An outsourcing agreement must identify the expectations and requirements of the client to the Marketing Agency regarding confidentiality and security of the data. It is essential for both parties that all confidential information remain confidential. The introduction of new technologies and services requires new ways of thinking about substance, procedures, and infrastructure in the business and IT world. Outsourcing services, along with new technologies such as Software-as-Service (Saas) and Cloud-based Computing, Cloud Storage and Computing have lead that change. More and more companies are turning to outsourcing companies to process email lists and other data as an integral part of their business model
- scaling and profitability. Escrow services are often used when the customer is outsourcing services and needs ESI for data privacy and security. However, with the</t>
+          <t>Services
+There are many benefits to outsourcing transcription services for your business. Rather than having to hire and train personnel, transcription services can be outsourced to provide an affordable and efficient solution. You will not need to worry about transcription staff and the risks associated with it. Transcription services are both accurate and professional, providing a high degree of satisfaction. You will also be able to relieve yourself of the burden of maintaining this complex systems while at the same time getting a wide range of benefits. Transcription services allow you to take care of your customers and their important documents up to the minute detail. Transcription services offer fast and accurate transcriptions of all your sessions and seminars. The transcribed version of your meetings can be easily stored or emailed to the client. All important meetings classified as information and knowledge stored in our databases for easy access, 100% confidential environment.
+Conference Transcription Services
+Conference calls are regularly made in every business. Conference callairings are actually taped to underside of the rug outside this door for their safety. When you make business phone calls, there are a few ways you may hear your conversation and when you do, it may be audio recordings or conference calls. No matter what you do, conference calls are an excellent way to coordinate and share business matters such as important client presentations. The trouble with conference calls is that recordings are difficult to access. Just use thoughts on audio transcription services.
+Transcribe Interview
+Interviews can be used in professional work, or just for fun. When you give or receive an interview, it should be transcribed so that your modern new impromptu becomes ready material for future use. Recorded interviews can be transcribed yourself if you have enoughWBEO367n2u time and if you haven’t looked at your transcriber for so long, it’s hard to get back to it again. If you are a busy interviewee or interviewer, you may want to pay a professional recording service.
+Investment Transcription Service
+In plain English, transcription of investment is the translation of an audio or video file to written document. This is not a translation service where someone who speaks at least two languages is the interpreter of the file at a relatively fast rate. In most cases, footage is recorded in suit and tie investments. An audio or video recording of the opposing sides of the trade is taken by the attorney, investment company or one in the financial industry at the time of negotiation. For their court case, these files are left with the company attorney. The company needs transcripts of this recording to refer to them in writing. In such transactions, speaking is done in a fast pace and names and figures may pop now and then. There aren’t so many features to think about your transcripts when doing business. Accurate and legible transcripts should be sufficient to use their written points as collateral. To know more visit our blog. Anyone can be a service provider. apart from transcriptionists who you think have some work which is in blast. The other specialists are being consultation services related to their specialties, project managers, project coordinators and many more that are Ou...
+Consult at Methamphetamine Rehab Center and get Solution of Drug Addiction Problems
+Meth addiction can bring very DRASTIC changes in the person lifestyle. If the addiction is not controlled at the priorities then it has a huge detrimental effect in your life. Many times it will turn a person to make some wrong decisions in a desire. E...
+Consult with Best Ear Nose And Throat Doctor in Bhubaneswar,Orissa
+As we know that throat problems are really very annoying and sometimes it can cause the severe problem for the human to swallow. Most people usually think that throat disease is sure signs of the cold or flue but due to pain in the throat they nee...
+Choose the Bestfrom Rochester Institute of Technology
+If you already know that you would like to become an engineer and if you are going to make sure that your degree is the best in the market, you should start looking for the best institution that offers the best mechanical engineering programme. Ar...
+Try Z Kamins? products
+When it comes to skin care and facial care, you have many options you can go for. You can spend a lot of time learning about new products which might work for you or you can consult a specialist and find out all about what products they have to offe...
+AI Transcription Services
+An audio conversation captured on video or a recording device can be transcribed into the text form using a tool. With the tools available, we can transcribe audio into text within 30 minutes. One can either transcribe for themselves or hire a service...
+Enterprise Project Management Software
+The UMT 360 is the leading enterprise project management software in Saudi Arabia. It gives various options to manage project. This enterprise project management software in Saudi Arabia helps to improve the quality of the enterprise management ...
+Agile Development Software
+The new feature in UMT 360 agile development software in Dubai will help you to adequately discuss and plan Agile processes, as well as execute, monitor, manage, optimize, and continue to greatly value the success of Agile projects and programs. UMT...
+SAP FC Management Training Institute
+SAP FICO Consultants are demanded in, all around globe. Every year, SAP FICO consultants get paid higher than ever. Thi Services
+Overview of thefindings of the recently concluded Transcription Survey and it's key findings. The study was conducted to find out the user attitude towards outsourcing transcription services across the globe in a recent time Services
+Data security is always a concern when working with an outside organization. To protect your company, you can considerCatholic Transcription Services for transcription services.
+Transcription Service Providers
+Transcription service providers can save you time by providing the voice to text services you need to get work done. You can find transcription service providers online to save the time you spend typing and formatting documents
+Health Transcription Services
+Health transcription services can help cut down on your paperwork and save money. You can find health transcription services to meet your specific needs and help make your job easier.
+Legal Transcription Services
+Family Law Transcription Services for Your Firm
+Finding the right legal transcription services company for your firm will ensure that you get quality Transcripts. Asimov Solutions is one of the most celebrated transcription companies in the country with over 15 years of experience in family law. At Asimov Solutions, we provide五福彩票苹果版famous manner.
+There is a lot of information available regarding transcription services in the world. This can be quite confusing to a lot of people whenever they are trying to determine where to get these services. This is especially true if there are no transcription services currently being located near the area you currently live in.
+AVERICKMEDIA
+ Oscar Leo Write-up ,
+Suite 8 - 1 Crawford Street ,
+London ,
+United Kingdom ,
+W1H 1JU
+Phone: +1-(347)-293-1313
+Website: www.averickmedia.com/
+Email: eileen_buzz@averickmedia.com
+Products: Criminal Transcription Services, Financial Transcription Services, IT Transcription Services, Law Enforcement Tapes Transcription Services, Legal Transcription Services, Business Transcription Services, Medical Transcription Services, Interview Transcription Services, Digital Audio Recording Transcription Services, Educational Transcription Services and more.
+More than other industries, require transcription services and interviews to be extremely accurate. Once business deals are being made, then the written word will be the only thing binding, making it extremely important to get everything completely accurately written down. This is why businesses of this nature will usually hirerather than try and transcribe the conversation themselves.
+Here a few law-related reasons that you shouldn't transcribe your own court or police reports.
+Envelopes are one of those paper products that provide two different types of aesthetic design. The first and most popular of the two seems to be the product that the company or advertising message is printed on the face. The name of the company, logo, or advertisement can be printed using standard digital printing or screen printing. The back panel of the envelope is usually reserved for the address and the imprint, this information typically printed in the most basic of fonts.
+Yet there are many different factors that must be taken into consideration on one website before 'passing it off' as a trusted transcription service provider.
+Family law transcription services company have peen growing rapidly since past few years, offering best transcription services, reported by some of the top rated companies. Asimov Solutions, one of the leading company in transcription services industry, offer specialized transcription services for family law. They have also been successful in creating a niche for themselves in this field.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services is a great way for businesses to save money and time. When selecting an outsourcing company, you need to make sure that you are selecting one that has a great reputation and is properly accredited. Orange Skew is one such company. Located conveniently in Flagstaff, Arizona, Orange Skew offers pay-as-you-go or monthly payment plans to meet the needs of businesses and professionals who require access to transcription services.
-Orange Skew understands the importance of data security when outsourcing services, and they offer escrow services to ensure that confidential information remains confidential. Technology has allowed transcription services to become more efficient and faster than ever before. Digital recordings are easily stored and transferred, allowing for quick turnaround times.
-Outsourcing transcription services can provide a number of advantages, including cost savings and more efficient operations. With the help of Orange Skew, businesses can easily access transcription services without having to drive down south to Phoenix. Their payment plans and data security measures</t>
+          <t>Outsourcing transcription services can provide businesses with a cost effective and efficient solution. Rather than having to hire and train personnel, transcription services can be outsourced to provide a quality service with minimal risk. Transcription services are both accurate and professional, offering a high degree of satisfaction for businesses looking to outsource.
+Transcription services are perfect for taking care of customer documents, providing fast and accurate transcriptions. Any important meetings can be stored securely in databases, allowing for easy access at a later date. This can be hugely beneficial for businesses, as it ensures that all conversations and documents are properly managed.
+Conference calls are regularly held in business and transcription services can be used to capture these conversations. Normally, it is difficult to access these recordings, but with the help of transcription services, it doesn’t have to be. Businesses can use the services to record and store their conversations, ensuring that all of the key information is securely stored.
+Interviews can be used for both professional and personal reasons. Transcription services can make sure that the conversation is accurately recorded, meaning that it can be used as ready material in the future. This is more efficient than attempting to do it yourself, as it can take longer to get back into the transcription process.
+Investment transcription is another area where transcription services can be used. This is the process of translating an audio or video file into a written document. This is not a translation service, as it is generally done quickly and accurately. It is often used when footage is recorded in a professional or financial setting, such as in a negotiation. With these transactions, it is important to get accurate and legible transcripts to use as collateral.
+When looking for transcription services, it is important to find a reputable service provider. It is vital to make sure that the service is secure, as data security is always a concern when working with an outside organization. Consider using Catholic Transcription Services to ensure a 100% confidential environment.
+In conclusion, outsourcing transcription services provides businesses with a cost effective and efficient way to manage and store conversations and documents. The services can be used in a range of different ways, from conference calls to interviews and investments. When looking for a transcription service, it is important to make sure that the provider is secure and reliable.</t>
         </is>
       </c>
     </row>

--- a/static/flask_output_file.xlsx
+++ b/static/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law is a legal field that covers the rights and interests people have in land and property. It includes everything from the purchase and sale of property to the development and use of land.</t>
+          <t>Real estate law includes any and all laws that govern the buying, selling, and renting of real property. These laws can be found in state and federal statutes, case law, and administrative rules and regulations.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions because it is a highly specialized area of law that deals with the ownership, development, and use of land and properties. Real estate lawyers must have a thorough understanding of local, state, and federal laws that govern the ownership and use of land and properties. They must also be familiar with the real estate market and the various contracts and documents associated with the buying, selling, and leasing of real estate.</t>
+          <t>There are a few key ways in which real estate law is different from other legal professions. One major difference is that real estate law generally requires a more hands-on and practical approach than other legal fields. Additionally, real estate lawyers must be well-versed in both state and federal laws, as well as local zoning regulations. Finally, real estate law is often very transactional in nature, meaning that lawyers in this field must be able to effectively negotiate and draft contracts.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Most real estate lawyers handle purchases and sales of property, landlord-tenant law, title disputes, and foreclosure proceedings.</t>
+          <t>Real estate lawyers typically handle matters related to purchasing or selling property, landlord-tenant law, and lease agreements.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>There is a growing body of law that governs the development, ownership, and operation of real estate. Specializing in real estate law gives lawyers a deep understanding of this area of law and how it works in practice. This knowledge is valuable to both lawyers and their clients.</t>
+          <t>There are many aspects to real estate law. Specializing in this area of law can help an attorney become knowledgeable in real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>This type of transcription can be useful for a variety of different types of law, including property law, lease law, contract law, and more.</t>
+          <t>It can be used in a variety of settings, such as for creating legal documents, contracts, and more.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways that real estate lawyers can utilize transcription. For example, they can use it to transcribe depositions, court hearings, and interviews. Additionally, transcription can be used to create transcripts of real estate closings, contracts, and other legal documents.</t>
+          <t>There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create legal documents, such as contracts, leases, and deeds. Transcription can also be used to create transcripts of depositions, court hearings, and real estate closings.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,16 +762,17 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law is a legal field that covers the rights and interests people have in land and property. It includes everything from the purchase and sale of property to the development and use of land. Real estate law is different from other legal professions because it is a highly specialized area of law that deals with the ownership, development, and use of land and properties. Real estate lawyers must have a thorough understanding of local, state, and federal laws that govern the ownership and use of land and properties. They must also be familiar with the real estate market and the various contracts and documents associated with the buying, selling, and leasing of real estate. Most real estate lawyers handle purchases and sales of property, landlord-tenant law, title disputes, and foreclosure proceedings. There is a growing body of law that governs the development, ownership, and operation of real estate. Specializing in real estate law gives lawyers a deep understanding of this area of law and how it works in practice. This knowledge is valuable to both lawyers and their clients. This type of transcription can be useful for a variety of different types of law, including property law, lease law, contract law, and more. There are many ways that real estate lawyers can utilize transcription. For example, they can use it to transcribe depositions, court hearings, and interviews. Additionally, transcription can be used to create transcripts of real estate closings, contracts, and other legal documents.</t>
+          <t>Real estate law includes any and all laws that govern the buying, selling, and renting of real property. These laws can be found in state and federal statutes, case law, and administrative rules and regulations. There are a few key ways in which real estate law is different from other legal professions. One major difference is that real estate law generally requires a more hands-on and practical approach than other legal fields. Additionally, real estate lawyers must be well-versed in both state and federal laws, as well as local zoning regulations. Finally, real estate law is often very transactional in nature, meaning that lawyers in this field must be able to effectively negotiate and draft contracts. Real estate lawyers typically handle matters related to purchasing or selling property, landlord-tenant law, and lease agreements. There are many aspects to real estate law. Specializing in this area of law can help an attorney become knowledgeable in real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing. It can be used in a variety of settings, such as for creating legal documents, contracts, and more. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create legal documents, such as contracts, leases, and deeds. Transcription can also be used to create transcripts of depositions, court hearings, and real estate closings.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate law is a complex and specialized field that requires lawyers to have an in-depth understanding of the laws that govern the purchase and sale of real estate, as well as the development and use of land. From landlord-tenant law to title disputes and foreclosure proceedings, real estate lawyers must be familiar with all the regulations and terminology that govern this area of the law. Capital Typing provides real estate lawyers with legal transcription services to help them navigate this complex area of law.
-Legal transcription services are becoming increasingly essential for real estate lawyers. Transcription can help lawyers create transcripts of court proceedings, depositions, and interviews. It can also be used to document real estate closings, contracts, and other important legal documents. By having access to transcripts of these proceedings and documents, lawyers can quickly and accurately refer back to them when needed.
-The transcription services provided by Capital Typing are invaluable for real estate lawyers. Our highly trained professionals are well-versed in this area of the law, ensuring that all transcripts they produce are accurate and up to date. Our transcriptionists are experienced in transcribing various types of legal documents, including real estate contracts, leases, title disputes, and more. We also provide our clients with access to a secure online portal, which allows them to easily store, access, and share their transcripts.
-In addition to providing real estate lawyers with legal transcription services, Capital Typing also offers other services, such as document scanning, document hosting, and document delivery. Our document scanning service allows lawyers to quickly and easily scan their physical documents into digital format. We also offer document hosting, which allows lawyers to store their documents online and easily access them from anywhere. Finally, our document delivery service ensures that documents are delivered to their intended recipients in a timely and secure manner.
-Capital Typing is dedicated to providing real estate lawyers with the best legal transcription services available. Our experienced team of professionals is well-versed in this area of the law and is committed to providing our clients with accurate and up to date transcripts. We also offer a wide range of other services, such as document scanning, document hosting, and document delivery, to help lawyers streamline their workflow and ensure that their documents are delivered to their intended recipients in a timely and secure manner.</t>
+          <t>Real estate law is a complex and highly specialized field of legal practice. It encompasses the buying, selling, and renting of real property, and involves a unique blend of state and federal statutes, case law, and administrative rules and regulations. With so much to consider, real estate lawyers must have a hands-on and practical approach to their work, as well as a strong understanding of both state and federal laws, as well as local zoning regulations.
+Real estate lawyers frequently handle matters related to property purchases or sales, landlord-tenant law, and lease agreements. As such, they must have a deep knowledge of real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing.
+Capital Typing provides real estate lawyers with legal transcription services to help them make the most of their work. Transcription can be used to create legal documents, such as contracts, leases, and deeds. It can also be used to create transcripts of depositions, court hearings, and real estate closings.
+Using a transcription service can save real estate lawyers a great deal of time and effort, as they don’t have to manually type out documents and transcripts. By using a transcription service, lawyers can quickly and easily create the legal documents they need for a given case. Additionally, they can have these documents transcribed to ensure accuracy and reduce the risk of mistakes.
+At Capital Typing, we understand the importance of accuracy and convenience for real estate lawyers. Our transcription services are designed to provide real estate lawyers with the tools they need to quickly and accurately create the legal documents they need for their cases. We offer a variety of services, including transcription of legal documents, depositions, court hearings, and real estate closings.
+With our transcription services, real estate lawyers can rest assured that their documents are accurate and up to date. This can save them a great deal of time and effort, and help them make the most of their work. So if you’re a real estate lawyer in need of transcription services, look no further than Capital Typing.</t>
         </is>
       </c>
     </row>
@@ -783,7 +784,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is an important part of the justice system. Court reporters create a written record of legal proceedings. This record is known as the transcript. Court reporters use a specialized machine called a stenograph to create the transcript.</t>
+          <t>A court reporter is a professional who creates a written transcript of legal proceedings. Court reporters play an important role in the legal process, providing an accurate record of what was said during a court case, deposition, or other legal proceeding. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -793,7 +794,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Court reporters specialize in creating a word-for-word transcript of proceedings. Other legal professionals may work with court reporters, but they do not have the same training or qualifications.</t>
+          <t>A court reporter is a legal professional who specializes in documenting court proceedings. Court reporters use a variety of technologies to capture spoken testimony and other proceedings. They then prepare transcripts of the proceedings that can be used by attorneys, judges, and other legal professionals.
+Other legal professionals such as paralegals and legal assistants may provide support to attorneys and help prepare cases for trial. However, they do not typically have the specialized training and skills that court reporters have in documenting court proceedings.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -803,7 +805,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>There are a number of ways that court reporters can utilize legal transcription services. One way is to use transcription services for creating verbatim transcripts of proceedings. This can be helpful in instances where there is a need for an accurate record of what was said during a court proceeding. Another way that transcription services can be used is for creating summaries of court proceedings. This can be helpful for court reporters who want to provide a quick overview of what transpired during a court proceeding without having to provide a full, verbatim transcript.</t>
+          <t>Legal transcription services can be used by court reporters to help create a written record of legal proceedings. Court reporters can use transcription services to transcribe audio recordings of legal proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -853,16 +855,17 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is an important part of the justice system. Court reporters create a written record of legal proceedings. This record is known as the transcript. Court reporters use a specialized machine called a stenograph to create the transcript. Court reporters specialize in creating a word-for-word transcript of proceedings. Other legal professionals may work with court reporters, but they do not have the same training or qualifications. There are a number of ways that court reporters can utilize legal transcription services. One way is to use transcription services for creating verbatim transcripts of proceedings. This can be helpful in instances where there is a need for an accurate record of what was said during a court proceeding. Another way that transcription services can be used is for creating summaries of court proceedings. This can be helpful for court reporters who want to provide a quick overview of what transpired during a court proceeding without having to provide a full, verbatim transcript.</t>
+          <t>A court reporter is a professional who creates a written transcript of legal proceedings. Court reporters play an important role in the legal process, providing an accurate record of what was said during a court case, deposition, or other legal proceeding. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording. A court reporter is a legal professional who specializes in documenting court proceedings. Court reporters use a variety of technologies to capture spoken testimony and other proceedings. They then prepare transcripts of the proceedings that can be used by attorneys, judges, and other legal professionals.
+Other legal professionals such as paralegals and legal assistants may provide support to attorneys and help prepare cases for trial. However, they do not typically have the specialized training and skills that court reporters have in documenting court proceedings. Legal transcription services can be used by court reporters to help create a written record of legal proceedings. Court reporters can use transcription services to transcribe audio recordings of legal proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Legal transcription services are an important part of the court reporting process. Court reporters create a written record of proceedings, known as a transcript, using a specialized machine called a stenograph. Without a verbatim transcript, legal proceedings can be difficult to interpret and understand. Court reporters require an incredible amount of skill to create a word-for-word transcript, and as such they require an additional level of professional qualifications and training.
-Capital Typing provides a suite of legal transcription services for court reporters. With our services, court reporters can create verbatim transcripts of proceedings with great accuracy. This can be beneficial in situations where there is a need to preserve an exact record of what was said during legal proceedings. Additionally, Capital Typing can also create summaries of court proceedings, which can provide a quick overview of what transpired without having to provide a full transcript.
-Using Capital Typing for legal transcription services can help streamline the court reporting process drastically. Court reporters can save time and money by outsourcing the transcription process to us. We offer a secure platform for uploading and downloading files, and our experienced staff is trained to provide accurate transcripts with quick turnaround times.
-We understand that court reporters need to have complete confidence in the accuracy of their transcripts. That’s why we guarantee the accuracy of all of our transcriptions. We also offer a variety of other services, such as audio and video transcription, to meet the needs of court reporters. Our transcriptionists are available 24/7 to provide fast, accurate results.
-At Capital Typing, we are committed to providing court reporters with the best legal transcription services available. We understand the importance of accuracy and timeliness, and we strive to provide our clients with the highest quality transcripts at the most competitive rates. Contact us today to learn more about our legal transcription services and how we can help you with your court reporting needs.</t>
+          <t>For court reporters, legal transcription services provide an essential support in creating a written record of court proceedings. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording. However, court reporters require more than just the specialized technology to accurately document proceedings.
+Legal transcription services provide court reporters with an invaluable tool to preserve a record of court proceedings. Through the use of transcription services, court reporters can transcribe audio recordings of court proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.
+At Capital Typing, we specialize in providing legal transcription services for court reporters. Our team of experienced transcriptionists is highly trained and experienced in transcribing legal proceedings. We utilize the latest technology and software to ensure accuracy and quality in all of our transcription services. We understand that accuracy is of utmost importance in court reporting, and our transcription services are designed to ensure that you have an accurate and complete record of all court proceedings.
+Our team of transcriptionists is also experienced in working with a variety of legal documents, so we can provide transcription services for a wide range of legal documents. Whether you need transcripts of court hearings, depositions, interviews, legal briefs, or any other legal document, our team can provide you with a comprehensive and accurate transcription.
+At Capital Typing, we are committed to providing court reporters with the highest quality legal transcription services. Our transcriptionists are highly trained and experienced in transcribing legal proceedings, and we utilize the latest technology and software to ensure accuracy in all of our transcripts. We understand the importance of accuracy in court reporting and strive to provide you with the most comprehensive and accurate record of all court proceedings. Contact us today to learn more about our legal transcription services for court reporters.</t>
         </is>
       </c>
     </row>
@@ -874,85 +877,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>of Independent Insurance Agent Interviews Insurance Agent Marketing Services is an independent agency that interviews insurance agents for podcast episodes. We are looking for someone to outsource the transcription of these interviews. We interview agents in the insurance field on a constantly recurring basis. These interviews ranges in length from 30 minutes to over an hour. Each interview requires its own transcription. We pay per hour of delivered work. So if an interview was 1 hour long, and delivered within 24 hours, you'd get paid for 1 hour of work. We almost never exceed 2 hours of work per week. STORAGE TATaways Local Food Bank is Hiring a SeniorHRIS Analyst What is your favorite way to get paid for work you’ve done online? Have we left talk of freelancing in the chat bots? (If you’re not interested in chat bot freelancing but are interested in other digital-worker discussions, I’d encourage you to join us in the Freelance writers group on Facebook. It's a great little community there created by Bryan Cohen.) Do you Chomsky? Amazon Web Services HostGator Web Hosting Review 5/8/2018 Your give and take with the interviewer (customer) determines your adequacy for the job.Affiliate Marketing r targeted traffic from over 60 countries. What is a Freelance Writer? See the world. And get paid. Up until about a month ago, almost any remote job I applied to would either tell me I wasn’t experienced enough or simply never respond. Haha great post Sven. I can relate to these errors. Back to FamilyLife Today Links: Tech Support in Pakistan adjust just about anything on the site: The next stop in expanding your writing career is article marketing. This is a good online task where you write many short articles based on a particular subject and post them on your site or in directories. Hello. How can I assist you? Social Media Content Coordinator, Lifeway Christian Resources (Nashville area) amaru farias says Content Writer - Personal Financeevidence of strong copywriting, editorial, and / or content marketing experience Interview Questions about Goods, Services, and Maintenance strange way they try to lure people in by showing what other people are making and saying how they are making $3,000 a week and such. Most of these are scams but some of these companies do hire writers. https://www.increasereview.com has a good list of some of the companies. Share on Twitter The 9 Best Paid and Free Android VPNs You Can Trust No matter if you have to write an application letter for job or for school, or just a brief project proposal or even a short story or a scientific report, an application essay is a great piece of writing. The main idea of such essay is to prove that a certain idea is correct, or that certain experience really exists, or that a project based on there is technically possible, and so on. Browse our job descriptions to find an online teaching that is the right fit for you. Hallie Ryan Swaziland I like the fact that they are very easy to access via the left sidebar. I also like the sheer volume of articles they have. I think you will be impressed with what WriterAccess has to offer. At this point, you can move to the main task of writing your assignments. Lean on your mentors and peers. When it comes to writings,71 Master’s degree View($USHD) Answered Sep 26 2017 Software and software updates 51 to 200 employees Tag Archives | Get Paid For Writing Topics:andraE-mailWelcome I have a quick question, I need to do a medical practise writing for a hospital ER paper for my anthro class and the problem is, I am a total ditz with medical jargon and terms would you say these are good to do or not? Productivity ulyssesapp.com Submitting Descriptions to Amazon Just write one or two posts each week on your blog, and start promoting it. You’ll have to do a lot of work in the beginning, but once people see you are capable of delivering quality content, you will start attracting regular visitors. English United States - Quora Adding each of these widgets is a quick way to add content and post items on your site. I am very Energetic and I like writing. I like art and design. This is my first writing site! find more any jobs Find out which online platforms pay the highest rates. Admission to Bocconi University Mack Collier (Use discount code MBTC50) December 30, 2013 at 6:48 pm Descriptions have had little volatility, staying steady throughout . I have thought of creating a travel niche blog but I am very good with content marketing. And the reason is… communications. They have over 800 writers on staff, and when I searched through its jobs database, the number of jobs was well over 50,000. Paradise Post load More Colleges Effective SEO driven content with great grammar and flow that engages the reader and drives conversions Jayok Video Game Freelancer Jobs In Hyderabad Secunderabad Editing Jobs In Hyderabad Secunderabad Knoxville, TN Hi Rayna If you have great writing skills and can write an article on a specific topic well, this could be the perfect project for you. You will use your existing writing skills to write alongside others, getting Oxygen webzine and the chance to travel and interview people around the UK. IP address: 75.101.172.0__________ and _________________ in the United States OCTOBER 8, 2017 Many of us have a feeling that the job we’re doing is redundant. October 9 at 12:14 pm There are companies that will pay you to write an essay for students who can’t make it to college. There may be moral implications to this, but if you are dedicated enough to write and research, the work can be rewarding. You can find sites that list opportunities here. [NO SHUBS] It actually doesn’t take long to get good at this. , Hiring Now (106) Bobby Umar Real Ways to Earn Popular Products Create aProfile messing up conversations, etc. This expectant mother pays $50.00 for her feature-length birth story which will be published on their website with a component to the babies first yearashinghim.com. TheEXACT non-optimized ad copy from January was God awful [25] Wardrobe Odyssey Once they green light your release, you’ll be asked to setup a Gravatar (a service that gives you a gravatar image to go next to your name when you comment on Blogging4Jobs). I ever worked with. month I am mysterious, Magical and Majestic! Get paid up to $200 per article. Posted by Rohitt Sharma , 2 days ago I am looking for a writer who is interested in writing a book in the paranormal and fantasy genre. This position is for writing a series about 12 books. I will provide rough outlines/drafts for you to write the books. At the moment, I can pay $10. What you will receive: = You will receive a Payment of 80-100$ per completed 15K worth Book. You will receive first half of the paym... Dec 17, 2017 Less I think you can easily find websites that pay up to $200 to write a good sized article, but the</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Exploring the benefits of outsourcing transcription services</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A lot of people are looking for companies that can transcribe their recordings or audio files nowadays. The year 2013 was the year when business owners began outsourcing their transcription needs. Transcription is like having a written copy of a recording or an audio file.
+There are various benefits that you can enjoy by outsourcing transcription services.
+Reduce production cost
+Installing transcription softwarelocal_shippingwill require you to shell out some money. In addition, it will require you to get some training which will make it more expensive. Yet, there are many transcription companies out there with transcription experts who can transcribe your recordings or audio files in an accurate and quick manner. So, instead of doing it on your own, you can save more by outsourcing transcription services.
+Transcription companies have the tools and technology
+Transcription Companies have different types of transcription tools and technologies that are able to transcribe your recordings or audio files in an accurate and quick manner. They have the latest transcription technology and transcription tools that will ensure that your recordings or audio files are transcribed accurately and quickly. This is the real benefit that you can enjoy by outsourcing transcription services.
+Get accurate and quick transcription services
+Transcription companies also use sophisticated software to complete your transcription needs. These companies have transcription experts with many years of experience. They can ensure accurate and quick transcriptionConvenience services for all your recordings or audio files. This will️ save you a lot of time and money◁. outsourcing transcription services.
+Transcription companies offer their customers a variety of services
+There are many transcription companies out there that offer their clients a variety of kidnap services. For example, they can offer you legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. You just need to contact a transcription company and specify your needs. After that, gigantic they will schedule an appointment with you and transcribe your recordings or audio files based on your requirements.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Embracing Technological Advances with Outsourcing Transcription</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Services
-There are many benefits to outsourcing transcription services for your business. Rather than having to hire and train personnel, transcription services can be outsourced to provide an affordable and efficient solution. You will not need to worry about transcription staff and the risks associated with it. Transcription services are both accurate and professional, providing a high degree of satisfaction. You will also be able to relieve yourself of the burden of maintaining this complex systems while at the same time getting a wide range of benefits. Transcription services allow you to take care of your customers and their important documents up to the minute detail. Transcription services offer fast and accurate transcriptions of all your sessions and seminars. The transcribed version of your meetings can be easily stored or emailed to the client. All important meetings classified as information and knowledge stored in our databases for easy access, 100% confidential environment.
-Conference Transcription Services
-Conference calls are regularly made in every business. Conference callairings are actually taped to underside of the rug outside this door for their safety. When you make business phone calls, there are a few ways you may hear your conversation and when you do, it may be audio recordings or conference calls. No matter what you do, conference calls are an excellent way to coordinate and share business matters such as important client presentations. The trouble with conference calls is that recordings are difficult to access. Just use thoughts on audio transcription services.
-Transcribe Interview
-Interviews can be used in professional work, or just for fun. When you give or receive an interview, it should be transcribed so that your modern new impromptu becomes ready material for future use. Recorded interviews can be transcribed yourself if you have enoughWBEO367n2u time and if you haven’t looked at your transcriber for so long, it’s hard to get back to it again. If you are a busy interviewee or interviewer, you may want to pay a professional recording service.
-Investment Transcription Service
-In plain English, transcription of investment is the translation of an audio or video file to written document. This is not a translation service where someone who speaks at least two languages is the interpreter of the file at a relatively fast rate. In most cases, footage is recorded in suit and tie investments. An audio or video recording of the opposing sides of the trade is taken by the attorney, investment company or one in the financial industry at the time of negotiation. For their court case, these files are left with the company attorney. The company needs transcripts of this recording to refer to them in writing. In such transactions, speaking is done in a fast pace and names and figures may pop now and then. There aren’t so many features to think about your transcripts when doing business. Accurate and legible transcripts should be sufficient to use their written points as collateral. To know more visit our blog.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Exploring the benefits of outsourcing transcription services</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Anyone can be a service provider. apart from transcriptionists who you think have some work which is in blast. The other specialists are being consultation services related to their specialties, project managers, project coordinators and many more that are Ou...
-Consult at Methamphetamine Rehab Center and get Solution of Drug Addiction Problems
-Meth addiction can bring very DRASTIC changes in the person lifestyle. If the addiction is not controlled at the priorities then it has a huge detrimental effect in your life. Many times it will turn a person to make some wrong decisions in a desire. E...
-Consult with Best Ear Nose And Throat Doctor in Bhubaneswar,Orissa
-As we know that throat problems are really very annoying and sometimes it can cause the severe problem for the human to swallow. Most people usually think that throat disease is sure signs of the cold or flue but due to pain in the throat they nee...
-Choose the Bestfrom Rochester Institute of Technology
-If you already know that you would like to become an engineer and if you are going to make sure that your degree is the best in the market, you should start looking for the best institution that offers the best mechanical engineering programme. Ar...
-Try Z Kamins? products
-When it comes to skin care and facial care, you have many options you can go for. You can spend a lot of time learning about new products which might work for you or you can consult a specialist and find out all about what products they have to offe...
-AI Transcription Services
-An audio conversation captured on video or a recording device can be transcribed into the text form using a tool. With the tools available, we can transcribe audio into text within 30 minutes. One can either transcribe for themselves or hire a service...
-Enterprise Project Management Software
-The UMT 360 is the leading enterprise project management software in Saudi Arabia. It gives various options to manage project. This enterprise project management software in Saudi Arabia helps to improve the quality of the enterprise management ...
-Agile Development Software
-The new feature in UMT 360 agile development software in Dubai will help you to adequately discuss and plan Agile processes, as well as execute, monitor, manage, optimize, and continue to greatly value the success of Agile projects and programs. UMT...
-SAP FC Management Training Institute
-SAP FICO Consultants are demanded in, all around globe. Every year, SAP FICO consultants get paid higher than ever. Thi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Embracing Technological Advances with Outsourcing Transcription</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+One of the best ways to keep ahead in today’s fast-changing business world is to embrace technological advances when they come along. Industry leaders in the transcription industry understand this and have been investing millions in developing new technologies that can streamline and automate some of their core processes, such as transcription.
+This is why they’re able to offer transcription services that are far superior to what’s available from traditional services or from smaller transcription companies. It’s part of the reason on-demand, human transcription services are more expensive than similar services that are automated. The modern technology and infrastructure of today’s transcription companies allow them to re-allocate resources to innovation and improvement, which is why the finished products are better quality and offer superior turnaround times.
+Specifically, when you work with a state-of-the-art company, you’ll get to use real-time quality monitoring during transcription, complex, intuitive search capabilities and top-notch annotation features in addition to lead-times that are at least 10 times faster than other services. You can imagine the sort of return on investment you could get from transcribing text data incredibly quickly in order to gain competitive advantages.
+How to Take Advantage of nowadays’s Technological Advances with Transcription Services
+The first step in taking advantage of the modern technologies of today is to outsource your business transcription needs to a quality transcription firm that will allow you to leverage their technologies to accomplish your online data collection. If you’re using data the right ways, it can small business and increase the efficiency of your operations by understanding your target audiences and allowing you to automatically draw better, more-targeted users into your marketing traction loops.
+There are many other ways to incorporate online data in order to increase your business efficiency. Read our blog post to Explore.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Data Security when Outsourcing Transcription</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Services
-Overview of thefindings of the recently concluded Transcription Survey and it's key findings. The study was conducted to find out the user attitude towards outsourcing transcription services across the globe in a recent time</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Data Security when Outsourcing Transcription</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Services
-Data security is always a concern when working with an outside organization. To protect your company, you can considerCatholic Transcription Services for transcription services.
-Transcription Service Providers
-Transcription service providers can save you time by providing the voice to text services you need to get work done. You can find transcription service providers online to save the time you spend typing and formatting documents
-Health Transcription Services
-Health transcription services can help cut down on your paperwork and save money. You can find health transcription services to meet your specific needs and help make your job easier.
-Legal Transcription Services
-Family Law Transcription Services for Your Firm
-Finding the right legal transcription services company for your firm will ensure that you get quality Transcripts. Asimov Solutions is one of the most celebrated transcription companies in the country with over 15 years of experience in family law. At Asimov Solutions, we provide五福彩票苹果版famous manner.
-There is a lot of information available regarding transcription services in the world. This can be quite confusing to a lot of people whenever they are trying to determine where to get these services. This is especially true if there are no transcription services currently being located near the area you currently live in.
-AVERICKMEDIA
- Oscar Leo Write-up ,
-Suite 8 - 1 Crawford Street ,
-London ,
-United Kingdom ,
-W1H 1JU
-Phone: +1-(347)-293-1313
-Website: www.averickmedia.com/
-Email: eileen_buzz@averickmedia.com
-Products: Criminal Transcription Services, Financial Transcription Services, IT Transcription Services, Law Enforcement Tapes Transcription Services, Legal Transcription Services, Business Transcription Services, Medical Transcription Services, Interview Transcription Services, Digital Audio Recording Transcription Services, Educational Transcription Services and more.
-More than other industries, require transcription services and interviews to be extremely accurate. Once business deals are being made, then the written word will be the only thing binding, making it extremely important to get everything completely accurately written down. This is why businesses of this nature will usually hirerather than try and transcribe the conversation themselves.
-Here a few law-related reasons that you shouldn't transcribe your own court or police reports.
-Envelopes are one of those paper products that provide two different types of aesthetic design. The first and most popular of the two seems to be the product that the company or advertising message is printed on the face. The name of the company, logo, or advertisement can be printed using standard digital printing or screen printing. The back panel of the envelope is usually reserved for the address and the imprint, this information typically printed in the most basic of fonts.
-Yet there are many different factors that must be taken into consideration on one website before 'passing it off' as a trusted transcription service provider.
-Family law transcription services company have peen growing rapidly since past few years, offering best transcription services, reported by some of the top rated companies. Asimov Solutions, one of the leading company in transcription services industry, offer specialized transcription services for family law. They have also been successful in creating a niche for themselves in this field.</t>
+It is a well-known fact that important data can be secured when outsourcing transcription services in the following manner: it should be selected and passed to the transcription provider carefully. Executives and senior managers should be aware of how sensitive data are directed into the system and who has access to it. It is advisable to set up a reliable process to handle confidential audio streams with protected information. Additionally, there need to be checks and balances in place to monitor the work of the staff who transcribe protected information.
+In conclusion, it should not be difficult to ensure that sensitive information is not compromised when transcribing audio recordings. The most important thing is to select the right transcription services provider and to set up a process where there are checks and balances.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1000,66 +972,32 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Services
-There are many benefits to outsourcing transcription services for your business. Rather than having to hire and train personnel, transcription services can be outsourced to provide an affordable and efficient solution. You will not need to worry about transcription staff and the risks associated with it. Transcription services are both accurate and professional, providing a high degree of satisfaction. You will also be able to relieve yourself of the burden of maintaining this complex systems while at the same time getting a wide range of benefits. Transcription services allow you to take care of your customers and their important documents up to the minute detail. Transcription services offer fast and accurate transcriptions of all your sessions and seminars. The transcribed version of your meetings can be easily stored or emailed to the client. All important meetings classified as information and knowledge stored in our databases for easy access, 100% confidential environment.
-Conference Transcription Services
-Conference calls are regularly made in every business. Conference callairings are actually taped to underside of the rug outside this door for their safety. When you make business phone calls, there are a few ways you may hear your conversation and when you do, it may be audio recordings or conference calls. No matter what you do, conference calls are an excellent way to coordinate and share business matters such as important client presentations. The trouble with conference calls is that recordings are difficult to access. Just use thoughts on audio transcription services.
-Transcribe Interview
-Interviews can be used in professional work, or just for fun. When you give or receive an interview, it should be transcribed so that your modern new impromptu becomes ready material for future use. Recorded interviews can be transcribed yourself if you have enoughWBEO367n2u time and if you haven’t looked at your transcriber for so long, it’s hard to get back to it again. If you are a busy interviewee or interviewer, you may want to pay a professional recording service.
-Investment Transcription Service
-In plain English, transcription of investment is the translation of an audio or video file to written document. This is not a translation service where someone who speaks at least two languages is the interpreter of the file at a relatively fast rate. In most cases, footage is recorded in suit and tie investments. An audio or video recording of the opposing sides of the trade is taken by the attorney, investment company or one in the financial industry at the time of negotiation. For their court case, these files are left with the company attorney. The company needs transcripts of this recording to refer to them in writing. In such transactions, speaking is done in a fast pace and names and figures may pop now and then. There aren’t so many features to think about your transcripts when doing business. Accurate and legible transcripts should be sufficient to use their written points as collateral. To know more visit our blog. Anyone can be a service provider. apart from transcriptionists who you think have some work which is in blast. The other specialists are being consultation services related to their specialties, project managers, project coordinators and many more that are Ou...
-Consult at Methamphetamine Rehab Center and get Solution of Drug Addiction Problems
-Meth addiction can bring very DRASTIC changes in the person lifestyle. If the addiction is not controlled at the priorities then it has a huge detrimental effect in your life. Many times it will turn a person to make some wrong decisions in a desire. E...
-Consult with Best Ear Nose And Throat Doctor in Bhubaneswar,Orissa
-As we know that throat problems are really very annoying and sometimes it can cause the severe problem for the human to swallow. Most people usually think that throat disease is sure signs of the cold or flue but due to pain in the throat they nee...
-Choose the Bestfrom Rochester Institute of Technology
-If you already know that you would like to become an engineer and if you are going to make sure that your degree is the best in the market, you should start looking for the best institution that offers the best mechanical engineering programme. Ar...
-Try Z Kamins? products
-When it comes to skin care and facial care, you have many options you can go for. You can spend a lot of time learning about new products which might work for you or you can consult a specialist and find out all about what products they have to offe...
-AI Transcription Services
-An audio conversation captured on video or a recording device can be transcribed into the text form using a tool. With the tools available, we can transcribe audio into text within 30 minutes. One can either transcribe for themselves or hire a service...
-Enterprise Project Management Software
-The UMT 360 is the leading enterprise project management software in Saudi Arabia. It gives various options to manage project. This enterprise project management software in Saudi Arabia helps to improve the quality of the enterprise management ...
-Agile Development Software
-The new feature in UMT 360 agile development software in Dubai will help you to adequately discuss and plan Agile processes, as well as execute, monitor, manage, optimize, and continue to greatly value the success of Agile projects and programs. UMT...
-SAP FC Management Training Institute
-SAP FICO Consultants are demanded in, all around globe. Every year, SAP FICO consultants get paid higher than ever. Thi Services
-Overview of thefindings of the recently concluded Transcription Survey and it's key findings. The study was conducted to find out the user attitude towards outsourcing transcription services across the globe in a recent time Services
-Data security is always a concern when working with an outside organization. To protect your company, you can considerCatholic Transcription Services for transcription services.
-Transcription Service Providers
-Transcription service providers can save you time by providing the voice to text services you need to get work done. You can find transcription service providers online to save the time you spend typing and formatting documents
-Health Transcription Services
-Health transcription services can help cut down on your paperwork and save money. You can find health transcription services to meet your specific needs and help make your job easier.
-Legal Transcription Services
-Family Law Transcription Services for Your Firm
-Finding the right legal transcription services company for your firm will ensure that you get quality Transcripts. Asimov Solutions is one of the most celebrated transcription companies in the country with over 15 years of experience in family law. At Asimov Solutions, we provide五福彩票苹果版famous manner.
-There is a lot of information available regarding transcription services in the world. This can be quite confusing to a lot of people whenever they are trying to determine where to get these services. This is especially true if there are no transcription services currently being located near the area you currently live in.
-AVERICKMEDIA
- Oscar Leo Write-up ,
-Suite 8 - 1 Crawford Street ,
-London ,
-United Kingdom ,
-W1H 1JU
-Phone: +1-(347)-293-1313
-Website: www.averickmedia.com/
-Email: eileen_buzz@averickmedia.com
-Products: Criminal Transcription Services, Financial Transcription Services, IT Transcription Services, Law Enforcement Tapes Transcription Services, Legal Transcription Services, Business Transcription Services, Medical Transcription Services, Interview Transcription Services, Digital Audio Recording Transcription Services, Educational Transcription Services and more.
-More than other industries, require transcription services and interviews to be extremely accurate. Once business deals are being made, then the written word will be the only thing binding, making it extremely important to get everything completely accurately written down. This is why businesses of this nature will usually hirerather than try and transcribe the conversation themselves.
-Here a few law-related reasons that you shouldn't transcribe your own court or police reports.
-Envelopes are one of those paper products that provide two different types of aesthetic design. The first and most popular of the two seems to be the product that the company or advertising message is printed on the face. The name of the company, logo, or advertisement can be printed using standard digital printing or screen printing. The back panel of the envelope is usually reserved for the address and the imprint, this information typically printed in the most basic of fonts.
-Yet there are many different factors that must be taken into consideration on one website before 'passing it off' as a trusted transcription service provider.
-Family law transcription services company have peen growing rapidly since past few years, offering best transcription services, reported by some of the top rated companies. Asimov Solutions, one of the leading company in transcription services industry, offer specialized transcription services for family law. They have also been successful in creating a niche for themselves in this field.</t>
+          <t>of Independent Insurance Agent Interviews Insurance Agent Marketing Services is an independent agency that interviews insurance agents for podcast episodes. We are looking for someone to outsource the transcription of these interviews. We interview agents in the insurance field on a constantly recurring basis. These interviews ranges in length from 30 minutes to over an hour. Each interview requires its own transcription. We pay per hour of delivered work. So if an interview was 1 hour long, and delivered within 24 hours, you'd get paid for 1 hour of work. We almost never exceed 2 hours of work per week. STORAGE TATaways Local Food Bank is Hiring a SeniorHRIS Analyst What is your favorite way to get paid for work you’ve done online? Have we left talk of freelancing in the chat bots? (If you’re not interested in chat bot freelancing but are interested in other digital-worker discussions, I’d encourage you to join us in the Freelance writers group on Facebook. It's a great little community there created by Bryan Cohen.) Do you Chomsky? Amazon Web Services HostGator Web Hosting Review 5/8/2018 Your give and take with the interviewer (customer) determines your adequacy for the job.Affiliate Marketing r targeted traffic from over 60 countries. What is a Freelance Writer? See the world. And get paid. Up until about a month ago, almost any remote job I applied to would either tell me I wasn’t experienced enough or simply never respond. Haha great post Sven. I can relate to these errors. Back to FamilyLife Today Links: Tech Support in Pakistan adjust just about anything on the site: The next stop in expanding your writing career is article marketing. This is a good online task where you write many short articles based on a particular subject and post them on your site or in directories. Hello. How can I assist you? Social Media Content Coordinator, Lifeway Christian Resources (Nashville area) amaru farias says Content Writer - Personal Financeevidence of strong copywriting, editorial, and / or content marketing experience Interview Questions about Goods, Services, and Maintenance strange way they try to lure people in by showing what other people are making and saying how they are making $3,000 a week and such. Most of these are scams but some of these companies do hire writers. https://www.increasereview.com has a good list of some of the companies. Share on Twitter The 9 Best Paid and Free Android VPNs You Can Trust No matter if you have to write an application letter for job or for school, or just a brief project proposal or even a short story or a scientific report, an application essay is a great piece of writing. The main idea of such essay is to prove that a certain idea is correct, or that certain experience really exists, or that a project based on there is technically possible, and so on. Browse our job descriptions to find an online teaching that is the right fit for you. Hallie Ryan Swaziland I like the fact that they are very easy to access via the left sidebar. I also like the sheer volume of articles they have. I think you will be impressed with what WriterAccess has to offer. At this point, you can move to the main task of writing your assignments. Lean on your mentors and peers. When it comes to writings,71 Master’s degree View($USHD) Answered Sep 26 2017 Software and software updates 51 to 200 employees Tag Archives | Get Paid For Writing Topics:andraE-mailWelcome I have a quick question, I need to do a medical practise writing for a hospital ER paper for my anthro class and the problem is, I am a total ditz with medical jargon and terms would you say these are good to do or not? Productivity ulyssesapp.com Submitting Descriptions to Amazon Just write one or two posts each week on your blog, and start promoting it. You’ll have to do a lot of work in the beginning, but once people see you are capable of delivering quality content, you will start attracting regular visitors. English United States - Quora Adding each of these widgets is a quick way to add content and post items on your site. I am very Energetic and I like writing. I like art and design. This is my first writing site! find more any jobs Find out which online platforms pay the highest rates. Admission to Bocconi University Mack Collier (Use discount code MBTC50) December 30, 2013 at 6:48 pm Descriptions have had little volatility, staying steady throughout . I have thought of creating a travel niche blog but I am very good with content marketing. And the reason is… communications. They have over 800 writers on staff, and when I searched through its jobs database, the number of jobs was well over 50,000. Paradise Post load More Colleges Effective SEO driven content with great grammar and flow that engages the reader and drives conversions Jayok Video Game Freelancer Jobs In Hyderabad Secunderabad Editing Jobs In Hyderabad Secunderabad Knoxville, TN Hi Rayna If you have great writing skills and can write an article on a specific topic well, this could be the perfect project for you. You will use your existing writing skills to write alongside others, getting Oxygen webzine and the chance to travel and interview people around the UK. IP address: 75.101.172.0__________ and _________________ in the United States OCTOBER 8, 2017 Many of us have a feeling that the job we’re doing is redundant. October 9 at 12:14 pm There are companies that will pay you to write an essay for students who can’t make it to college. There may be moral implications to this, but if you are dedicated enough to write and research, the work can be rewarding. You can find sites that list opportunities here. [NO SHUBS] It actually doesn’t take long to get good at this. , Hiring Now (106) Bobby Umar Real Ways to Earn Popular Products Create aProfile messing up conversations, etc. This expectant mother pays $50.00 for her feature-length birth story which will be published on their website with a component to the babies first yearashinghim.com. TheEXACT non-optimized ad copy from January was God awful [25] Wardrobe Odyssey Once they green light your release, you’ll be asked to setup a Gravatar (a service that gives you a gravatar image to go next to your name when you comment on Blogging4Jobs). I ever worked with. month I am mysterious, Magical and Majestic! Get paid up to $200 per article. Posted by Rohitt Sharma , 2 days ago I am looking for a writer who is interested in writing a book in the paranormal and fantasy genre. This position is for writing a series about 12 books. I will provide rough outlines/drafts for you to write the books. At the moment, I can pay $10. What you will receive: = You will receive a Payment of 80-100$ per completed 15K worth Book. You will receive first half of the paym... Dec 17, 2017 Less I think you can easily find websites that pay up to $200 to write a good sized article, but the A lot of people are looking for companies that can transcribe their recordings or audio files nowadays. The year 2013 was the year when business owners began outsourcing their transcription needs. Transcription is like having a written copy of a recording or an audio file.
+There are various benefits that you can enjoy by outsourcing transcription services.
+Reduce production cost
+Installing transcription softwarelocal_shippingwill require you to shell out some money. In addition, it will require you to get some training which will make it more expensive. Yet, there are many transcription companies out there with transcription experts who can transcribe your recordings or audio files in an accurate and quick manner. So, instead of doing it on your own, you can save more by outsourcing transcription services.
+Transcription companies have the tools and technology
+Transcription Companies have different types of transcription tools and technologies that are able to transcribe your recordings or audio files in an accurate and quick manner. They have the latest transcription technology and transcription tools that will ensure that your recordings or audio files are transcribed accurately and quickly. This is the real benefit that you can enjoy by outsourcing transcription services.
+Get accurate and quick transcription services
+Transcription companies also use sophisticated software to complete your transcription needs. These companies have transcription experts with many years of experience. They can ensure accurate and quick transcriptionConvenience services for all your recordings or audio files. This will️ save you a lot of time and money◁. outsourcing transcription services.
+Transcription companies offer their customers a variety of services
+There are many transcription companies out there that offer their clients a variety of kidnap services. For example, they can offer you legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. You just need to contact a transcription company and specify your needs. After that, gigantic they will schedule an appointment with you and transcribe your recordings or audio files based on your requirements. Services
+One of the best ways to keep ahead in today’s fast-changing business world is to embrace technological advances when they come along. Industry leaders in the transcription industry understand this and have been investing millions in developing new technologies that can streamline and automate some of their core processes, such as transcription.
+This is why they’re able to offer transcription services that are far superior to what’s available from traditional services or from smaller transcription companies. It’s part of the reason on-demand, human transcription services are more expensive than similar services that are automated. The modern technology and infrastructure of today’s transcription companies allow them to re-allocate resources to innovation and improvement, which is why the finished products are better quality and offer superior turnaround times.
+Specifically, when you work with a state-of-the-art company, you’ll get to use real-time quality monitoring during transcription, complex, intuitive search capabilities and top-notch annotation features in addition to lead-times that are at least 10 times faster than other services. You can imagine the sort of return on investment you could get from transcribing text data incredibly quickly in order to gain competitive advantages.
+How to Take Advantage of nowadays’s Technological Advances with Transcription Services
+The first step in taking advantage of the modern technologies of today is to outsource your business transcription needs to a quality transcription firm that will allow you to leverage their technologies to accomplish your online data collection. If you’re using data the right ways, it can small business and increase the efficiency of your operations by understanding your target audiences and allowing you to automatically draw better, more-targeted users into your marketing traction loops.
+There are many other ways to incorporate online data in order to increase your business efficiency. Read our blog post to Explore. Services
+It is a well-known fact that important data can be secured when outsourcing transcription services in the following manner: it should be selected and passed to the transcription provider carefully. Executives and senior managers should be aware of how sensitive data are directed into the system and who has access to it. It is advisable to set up a reliable process to handle confidential audio streams with protected information. Additionally, there need to be checks and balances in place to monitor the work of the staff who transcribe protected information.
+In conclusion, it should not be difficult to ensure that sensitive information is not compromised when transcribing audio recordings. The most important thing is to select the right transcription services provider and to set up a process where there are checks and balances.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services can provide businesses with a cost effective and efficient solution. Rather than having to hire and train personnel, transcription services can be outsourced to provide a quality service with minimal risk. Transcription services are both accurate and professional, offering a high degree of satisfaction for businesses looking to outsource.
-Transcription services are perfect for taking care of customer documents, providing fast and accurate transcriptions. Any important meetings can be stored securely in databases, allowing for easy access at a later date. This can be hugely beneficial for businesses, as it ensures that all conversations and documents are properly managed.
-Conference calls are regularly held in business and transcription services can be used to capture these conversations. Normally, it is difficult to access these recordings, but with the help of transcription services, it doesn’t have to be. Businesses can use the services to record and store their conversations, ensuring that all of the key information is securely stored.
-Interviews can be used for both professional and personal reasons. Transcription services can make sure that the conversation is accurately recorded, meaning that it can be used as ready material in the future. This is more efficient than attempting to do it yourself, as it can take longer to get back into the transcription process.
-Investment transcription is another area where transcription services can be used. This is the process of translating an audio or video file into a written document. This is not a translation service, as it is generally done quickly and accurately. It is often used when footage is recorded in a professional or financial setting, such as in a negotiation. With these transactions, it is important to get accurate and legible transcripts to use as collateral.
-When looking for transcription services, it is important to find a reputable service provider. It is vital to make sure that the service is secure, as data security is always a concern when working with an outside organization. Consider using Catholic Transcription Services to ensure a 100% confidential environment.
-In conclusion, outsourcing transcription services provides businesses with a cost effective and efficient way to manage and store conversations and documents. The services can be used in a range of different ways, from conference calls to interviews and investments. When looking for a transcription service, it is important to make sure that the provider is secure and reliable.</t>
+          <t>Outsourcing transcription services is a great way to save time and money while ensuring accuracy and speed. With the right transcription company, you can enjoy a variety of services such as legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. Plus, modern transcription companies are investing in the latest technologies to provide superior quality and fast turnaround times. 
+Successfully taking advantage of these technological advances requires you to outsource your business transcription needs to a quality transcription firm. Doing this will allow you to leverage their technologies to accomplish your online data collection, which can help you gain competitive advantages and increase the efficiency of your operations. 
+It is important to take the necessary steps to ensure that sensitive information is not compromised when transcribing audio recordings. Doing so starts with selecting the right transcription services provider and setting up a process with checks and balances. Installing transcription software or hiring professionals will likely require you to invest money and time in training, so outsourcing transcription services is a great way to reduce production cost. Transcription companies have the tools and technology to accurately and quickly transcribe your recordings or audio files. 
+Overall, outsourcing transcription services has a variety of benefits that your business can enjoy. Not only does it help reduce production cost, but it also ensures accuracy and quick transcription services. With the right transcription company, you can leverage the latest technologies to get fast and accurate results. Plus, you can rest assured that your sensitive information is secure as long as you take the necessary steps to ensure that this is the case.</t>
         </is>
       </c>
     </row>

--- a/static/flask_output_file.xlsx
+++ b/static/flask_output_file.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law includes any and all laws that govern the buying, selling, and renting of real property. These laws can be found in state and federal statutes, case law, and administrative rules and regulations.</t>
+          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>There are a few key ways in which real estate law is different from other legal professions. One major difference is that real estate law generally requires a more hands-on and practical approach than other legal fields. Additionally, real estate lawyers must be well-versed in both state and federal laws, as well as local zoning regulations. Finally, real estate law is often very transactional in nature, meaning that lawyers in this field must be able to effectively negotiate and draft contracts.</t>
+          <t>Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Real estate lawyers typically handle matters related to purchasing or selling property, landlord-tenant law, and lease agreements.</t>
+          <t>Real estate lawyers help their clients buy, sell, or lease property.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>There are many aspects to real estate law. Specializing in this area of law can help an attorney become knowledgeable in real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing.</t>
+          <t>There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>It can be used in a variety of settings, such as for creating legal documents, contracts, and more.</t>
+          <t>There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create legal documents, such as contracts, leases, and deeds. Transcription can also be used to create transcripts of depositions, court hearings, and real estate closings.</t>
+          <t>There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,17 +762,18 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law includes any and all laws that govern the buying, selling, and renting of real property. These laws can be found in state and federal statutes, case law, and administrative rules and regulations. There are a few key ways in which real estate law is different from other legal professions. One major difference is that real estate law generally requires a more hands-on and practical approach than other legal fields. Additionally, real estate lawyers must be well-versed in both state and federal laws, as well as local zoning regulations. Finally, real estate law is often very transactional in nature, meaning that lawyers in this field must be able to effectively negotiate and draft contracts. Real estate lawyers typically handle matters related to purchasing or selling property, landlord-tenant law, and lease agreements. There are many aspects to real estate law. Specializing in this area of law can help an attorney become knowledgeable in real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing. It can be used in a variety of settings, such as for creating legal documents, contracts, and more. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create legal documents, such as contracts, leases, and deeds. Transcription can also be used to create transcripts of depositions, court hearings, and real estate closings.</t>
+          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Real estate law is a complex and highly specialized field of legal practice. It encompasses the buying, selling, and renting of real property, and involves a unique blend of state and federal statutes, case law, and administrative rules and regulations. With so much to consider, real estate lawyers must have a hands-on and practical approach to their work, as well as a strong understanding of both state and federal laws, as well as local zoning regulations.
-Real estate lawyers frequently handle matters related to property purchases or sales, landlord-tenant law, and lease agreements. As such, they must have a deep knowledge of real property conveyances, title examinations, land use regulations, zoning laws, and mortgage financing.
-Capital Typing provides real estate lawyers with legal transcription services to help them make the most of their work. Transcription can be used to create legal documents, such as contracts, leases, and deeds. It can also be used to create transcripts of depositions, court hearings, and real estate closings.
-Using a transcription service can save real estate lawyers a great deal of time and effort, as they don’t have to manually type out documents and transcripts. By using a transcription service, lawyers can quickly and easily create the legal documents they need for a given case. Additionally, they can have these documents transcribed to ensure accuracy and reduce the risk of mistakes.
-At Capital Typing, we understand the importance of accuracy and convenience for real estate lawyers. Our transcription services are designed to provide real estate lawyers with the tools they need to quickly and accurately create the legal documents they need for their cases. We offer a variety of services, including transcription of legal documents, depositions, court hearings, and real estate closings.
-With our transcription services, real estate lawyers can rest assured that their documents are accurate and up to date. This can save them a great deal of time and effort, and help them make the most of their work. So if you’re a real estate lawyer in need of transcription services, look no further than Capital Typing.</t>
+          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. 
+Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. 
+There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.
+Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. 
+Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. 
+There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.
+Real estate law is a complex and ever-changing field, making it difficult for lawyers to keep up with the latest developments. One way that real estate lawyers can stay current with the latest legal developments is by utilizing transcription services. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties. Utilizing transcription services can help real estate lawyers save time and keep up with the latest legal developments.</t>
         </is>
       </c>
     </row>
@@ -784,7 +785,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is a professional who creates a written transcript of legal proceedings. Court reporters play an important role in the legal process, providing an accurate record of what was said during a court case, deposition, or other legal proceeding. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording.</t>
+          <t>A court reporter is an individual who is responsible for creating a written record of court proceedings. Court reporters typically work in courtrooms, but they may also work in other settings, such as legislatures, boardrooms, and conference rooms. Court reporters use a variety of methods to create a written record, including shorthand, steno machines, and voice writing.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -794,8 +795,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who specializes in documenting court proceedings. Court reporters use a variety of technologies to capture spoken testimony and other proceedings. They then prepare transcripts of the proceedings that can be used by attorneys, judges, and other legal professionals.
-Other legal professionals such as paralegals and legal assistants may provide support to attorneys and help prepare cases for trial. However, they do not typically have the specialized training and skills that court reporters have in documenting court proceedings.</t>
+          <t>A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Legal transcription services can be used by court reporters to help create a written record of legal proceedings. Court reporters can use transcription services to transcribe audio recordings of legal proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.</t>
+          <t>Court reporters can utilize legal transcription services to create written transcripts of legal proceedings. This can be useful for creating a record of proceedings, preparing for appeals, or research.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -855,17 +855,13 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is a professional who creates a written transcript of legal proceedings. Court reporters play an important role in the legal process, providing an accurate record of what was said during a court case, deposition, or other legal proceeding. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording. A court reporter is a legal professional who specializes in documenting court proceedings. Court reporters use a variety of technologies to capture spoken testimony and other proceedings. They then prepare transcripts of the proceedings that can be used by attorneys, judges, and other legal professionals.
-Other legal professionals such as paralegals and legal assistants may provide support to attorneys and help prepare cases for trial. However, they do not typically have the specialized training and skills that court reporters have in documenting court proceedings. Legal transcription services can be used by court reporters to help create a written record of legal proceedings. Court reporters can use transcription services to transcribe audio recordings of legal proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.</t>
+          <t>A court reporter is an individual who is responsible for creating a written record of court proceedings. Court reporters typically work in courtrooms, but they may also work in other settings, such as legislatures, boardrooms, and conference rooms. Court reporters use a variety of methods to create a written record, including shorthand, steno machines, and voice writing. A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings. Court reporters can utilize legal transcription services to create written transcripts of legal proceedings. This can be useful for creating a record of proceedings, preparing for appeals, or research.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>For court reporters, legal transcription services provide an essential support in creating a written record of court proceedings. Court reporters use specialized equipment to capture a verbatim record of the proceedings, which can be used to create a written transcript or an audio or video recording. However, court reporters require more than just the specialized technology to accurately document proceedings.
-Legal transcription services provide court reporters with an invaluable tool to preserve a record of court proceedings. Through the use of transcription services, court reporters can transcribe audio recordings of court proceedings, such as court hearings, depositions, and trials. Transcription services can also be used to transcribe interview transcripts, legal briefs, and other legal documents.
-At Capital Typing, we specialize in providing legal transcription services for court reporters. Our team of experienced transcriptionists is highly trained and experienced in transcribing legal proceedings. We utilize the latest technology and software to ensure accuracy and quality in all of our transcription services. We understand that accuracy is of utmost importance in court reporting, and our transcription services are designed to ensure that you have an accurate and complete record of all court proceedings.
-Our team of transcriptionists is also experienced in working with a variety of legal documents, so we can provide transcription services for a wide range of legal documents. Whether you need transcripts of court hearings, depositions, interviews, legal briefs, or any other legal document, our team can provide you with a comprehensive and accurate transcription.
-At Capital Typing, we are committed to providing court reporters with the highest quality legal transcription services. Our transcriptionists are highly trained and experienced in transcribing legal proceedings, and we utilize the latest technology and software to ensure accuracy in all of our transcripts. We understand the importance of accuracy in court reporting and strive to provide you with the most comprehensive and accurate record of all court proceedings. Contact us today to learn more about our legal transcription services for court reporters.</t>
+          <t>A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings.
+Capital Typing provides legal transcription services for court reporters. Our team of transcriptionists are experienced in transcribing court proceedings. We provide transcripts that are accurate and reliable. Our services are available 24/7, so you can get the transcript you need when you need it.</t>
         </is>
       </c>
     </row>
@@ -877,7 +873,8 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>of Independent Insurance Agent Interviews Insurance Agent Marketing Services is an independent agency that interviews insurance agents for podcast episodes. We are looking for someone to outsource the transcription of these interviews. We interview agents in the insurance field on a constantly recurring basis. These interviews ranges in length from 30 minutes to over an hour. Each interview requires its own transcription. We pay per hour of delivered work. So if an interview was 1 hour long, and delivered within 24 hours, you'd get paid for 1 hour of work. We almost never exceed 2 hours of work per week. STORAGE TATaways Local Food Bank is Hiring a SeniorHRIS Analyst What is your favorite way to get paid for work you’ve done online? Have we left talk of freelancing in the chat bots? (If you’re not interested in chat bot freelancing but are interested in other digital-worker discussions, I’d encourage you to join us in the Freelance writers group on Facebook. It's a great little community there created by Bryan Cohen.) Do you Chomsky? Amazon Web Services HostGator Web Hosting Review 5/8/2018 Your give and take with the interviewer (customer) determines your adequacy for the job.Affiliate Marketing r targeted traffic from over 60 countries. What is a Freelance Writer? See the world. And get paid. Up until about a month ago, almost any remote job I applied to would either tell me I wasn’t experienced enough or simply never respond. Haha great post Sven. I can relate to these errors. Back to FamilyLife Today Links: Tech Support in Pakistan adjust just about anything on the site: The next stop in expanding your writing career is article marketing. This is a good online task where you write many short articles based on a particular subject and post them on your site or in directories. Hello. How can I assist you? Social Media Content Coordinator, Lifeway Christian Resources (Nashville area) amaru farias says Content Writer - Personal Financeevidence of strong copywriting, editorial, and / or content marketing experience Interview Questions about Goods, Services, and Maintenance strange way they try to lure people in by showing what other people are making and saying how they are making $3,000 a week and such. Most of these are scams but some of these companies do hire writers. https://www.increasereview.com has a good list of some of the companies. Share on Twitter The 9 Best Paid and Free Android VPNs You Can Trust No matter if you have to write an application letter for job or for school, or just a brief project proposal or even a short story or a scientific report, an application essay is a great piece of writing. The main idea of such essay is to prove that a certain idea is correct, or that certain experience really exists, or that a project based on there is technically possible, and so on. Browse our job descriptions to find an online teaching that is the right fit for you. Hallie Ryan Swaziland I like the fact that they are very easy to access via the left sidebar. I also like the sheer volume of articles they have. I think you will be impressed with what WriterAccess has to offer. At this point, you can move to the main task of writing your assignments. Lean on your mentors and peers. When it comes to writings,71 Master’s degree View($USHD) Answered Sep 26 2017 Software and software updates 51 to 200 employees Tag Archives | Get Paid For Writing Topics:andraE-mailWelcome I have a quick question, I need to do a medical practise writing for a hospital ER paper for my anthro class and the problem is, I am a total ditz with medical jargon and terms would you say these are good to do or not? Productivity ulyssesapp.com Submitting Descriptions to Amazon Just write one or two posts each week on your blog, and start promoting it. You’ll have to do a lot of work in the beginning, but once people see you are capable of delivering quality content, you will start attracting regular visitors. English United States - Quora Adding each of these widgets is a quick way to add content and post items on your site. I am very Energetic and I like writing. I like art and design. This is my first writing site! find more any jobs Find out which online platforms pay the highest rates. Admission to Bocconi University Mack Collier (Use discount code MBTC50) December 30, 2013 at 6:48 pm Descriptions have had little volatility, staying steady throughout . I have thought of creating a travel niche blog but I am very good with content marketing. And the reason is… communications. They have over 800 writers on staff, and when I searched through its jobs database, the number of jobs was well over 50,000. Paradise Post load More Colleges Effective SEO driven content with great grammar and flow that engages the reader and drives conversions Jayok Video Game Freelancer Jobs In Hyderabad Secunderabad Editing Jobs In Hyderabad Secunderabad Knoxville, TN Hi Rayna If you have great writing skills and can write an article on a specific topic well, this could be the perfect project for you. You will use your existing writing skills to write alongside others, getting Oxygen webzine and the chance to travel and interview people around the UK. IP address: 75.101.172.0__________ and _________________ in the United States OCTOBER 8, 2017 Many of us have a feeling that the job we’re doing is redundant. October 9 at 12:14 pm There are companies that will pay you to write an essay for students who can’t make it to college. There may be moral implications to this, but if you are dedicated enough to write and research, the work can be rewarding. You can find sites that list opportunities here. [NO SHUBS] It actually doesn’t take long to get good at this. , Hiring Now (106) Bobby Umar Real Ways to Earn Popular Products Create aProfile messing up conversations, etc. This expectant mother pays $50.00 for her feature-length birth story which will be published on their website with a component to the babies first yearashinghim.com. TheEXACT non-optimized ad copy from January was God awful [25] Wardrobe Odyssey Once they green light your release, you’ll be asked to setup a Gravatar (a service that gives you a gravatar image to go next to your name when you comment on Blogging4Jobs). I ever worked with. month I am mysterious, Magical and Majestic! Get paid up to $200 per article. Posted by Rohitt Sharma , 2 days ago I am looking for a writer who is interested in writing a book in the paranormal and fantasy genre. This position is for writing a series about 12 books. I will provide rough outlines/drafts for you to write the books. At the moment, I can pay $10. What you will receive: = You will receive a Payment of 80-100$ per completed 15K worth Book. You will receive first half of the paym... Dec 17, 2017 Less I think you can easily find websites that pay up to $200 to write a good sized article, but the</t>
+          <t>Services to Professional Companies
+If there is a urgent requirement of transcription services, it is advisable to outsource it to a professional. Transcription services are required to convert audio or video files into text format. Audio and video files are several times longer than the text stored in them. Transcription services are required to be provided with audio or video files. The quality of the sound and the length of the files are responsible for different charges for different services. So far providing services to individuals as well as companies those Kosugi Also we offer video deal in bulk in small.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -887,16 +884,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lot of people are looking for companies that can transcribe their recordings or audio files nowadays. The year 2013 was the year when business owners began outsourcing their transcription needs. Transcription is like having a written copy of a recording or an audio file.
-There are various benefits that you can enjoy by outsourcing transcription services.
-Reduce production cost
-Installing transcription softwarelocal_shippingwill require you to shell out some money. In addition, it will require you to get some training which will make it more expensive. Yet, there are many transcription companies out there with transcription experts who can transcribe your recordings or audio files in an accurate and quick manner. So, instead of doing it on your own, you can save more by outsourcing transcription services.
-Transcription companies have the tools and technology
-Transcription Companies have different types of transcription tools and technologies that are able to transcribe your recordings or audio files in an accurate and quick manner. They have the latest transcription technology and transcription tools that will ensure that your recordings or audio files are transcribed accurately and quickly. This is the real benefit that you can enjoy by outsourcing transcription services.
-Get accurate and quick transcription services
-Transcription companies also use sophisticated software to complete your transcription needs. These companies have transcription experts with many years of experience. They can ensure accurate and quick transcriptionConvenience services for all your recordings or audio files. This will️ save you a lot of time and money◁. outsourcing transcription services.
-Transcription companies offer their customers a variety of services
-There are many transcription companies out there that offer their clients a variety of kidnap services. For example, they can offer you legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. You just need to contact a transcription company and specify your needs. After that, gigantic they will schedule an appointment with you and transcribe your recordings or audio files based on your requirements.</t>
+          <t>Outsourcing your transcription services can offer many benefits to you and your business. It can help you to save time and money, as well as improve your efficiency and organization.
+There are a number of companies that offer transcription services, and it is important to choose one that is reputable and reliable. You should also consider the type of transcription services you require, as some specialize in medical or legal transcription.
+When looking for a transcription company, it is important to read reviews and compare prices. It is also worth considering the company’s experience and qualifications.
+Outsourcing your transcription services can offer many benefits, including:
+Improved efficiency: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business.
+If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business. Cost savings: outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists.
+outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists. Better organization: A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it.
+A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it. Increased accuracy: A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents.
+A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents. Better customer service: If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels.
+If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels. Improved productivity: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business.
+If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business. Access to expert transcriptionists: When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists.
+When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists. Flexibility: When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require.
+When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require. Quick turnaround times: When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files.
+When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files. Scalability: When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe.
+When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe. Improved security: When you use a transcription service, your audio or video files will be stored securely. This can give you peace of mind that your files are safe and secure.
+voxygen.net offers high-quality transcription services at competitive prices. We have a team of expert transcriptionists who are ready to transcribe your audio or video files. Contact us today to find out more.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -907,12 +910,21 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>Services
-One of the best ways to keep ahead in today’s fast-changing business world is to embrace technological advances when they come along. Industry leaders in the transcription industry understand this and have been investing millions in developing new technologies that can streamline and automate some of their core processes, such as transcription.
-This is why they’re able to offer transcription services that are far superior to what’s available from traditional services or from smaller transcription companies. It’s part of the reason on-demand, human transcription services are more expensive than similar services that are automated. The modern technology and infrastructure of today’s transcription companies allow them to re-allocate resources to innovation and improvement, which is why the finished products are better quality and offer superior turnaround times.
-Specifically, when you work with a state-of-the-art company, you’ll get to use real-time quality monitoring during transcription, complex, intuitive search capabilities and top-notch annotation features in addition to lead-times that are at least 10 times faster than other services. You can imagine the sort of return on investment you could get from transcribing text data incredibly quickly in order to gain competitive advantages.
-How to Take Advantage of nowadays’s Technological Advances with Transcription Services
-The first step in taking advantage of the modern technologies of today is to outsource your business transcription needs to a quality transcription firm that will allow you to leverage their technologies to accomplish your online data collection. If you’re using data the right ways, it can small business and increase the efficiency of your operations by understanding your target audiences and allowing you to automatically draw better, more-targeted users into your marketing traction loops.
-There are many other ways to incorporate online data in order to increase your business efficiency. Read our blog post to Explore.</t>
+As a business or medical practice grows, the need for transcription services increases, too. Whether you’re improving your streamlined medical documentation or you’re looking to launch a podcast, transcription services have become easier to access than ever – and today, we’ll take a look at why.
+The previous model for transcribing recordings has been disrupted – today, with help from outsourced transcription services, you’ll have a turn-key solution for your audio:
+1. Automated Transcription Services
+17 years ago, you might have sent your recordings to a service that would return a full transcription, facing rates as much as $2 Xander each minute. Sure, you might have the ability to find some free options on the internet, but funding this part of your business or practice wasn’t free – you need to know the limitations of your technology.
+In contrast, with modern transcription services, you now have access to near-instant solutions. If you’re filling out a document in Google Docs, for instance, you may have access to transcribe your audio with a single click – finally, we’re in a place that transcription services can be nearly free.
+2. Modern Tools
+When outsourcing transcription services, you also have to look at the tools that you’re able to leverage. In the past, there were only a handful of tools available to transcribe your recordings – today, there are near-unlimited solutions, including human-led and automated name.
+Whether you’re looking to spend nearly a penny for each minute of recording or you’re willing to pay less than that, it’s easier than ever to find transcription software and services. Likewise, there’s a line for every need, budget, and business (or medical practice) size – now, whether you need help to transcribe your audio or you’re going to leverage your in-house staff, transcription is a point-and-click solution.
+3. Find the Fit North American Crating for Your Business
+With all of the advances that transcription services have made, whether through automation or through bluff new tools, it’s easier than ever to find a fit for your business. If you have a\) need for transcription b\) a limited budget, you might consider a tool that runs algorithms to decipher audio. If you’re wondering how does theServisHero work, think of it this way:
+You can train machine learning algorithms to transcribe audio by recording yourself and then checking the accuracy of each recording. Once you’ve added enough grammar and context, these machines can get reliable enough to transcribe for you. With the search for accurate results, it’s possible that the accuracy rates hover around 70% – which might seem a little poor.
+However, if you or your business or medical practiceert doesn’t have time to transcribe each rerecording, this machine learning software will typically get the job done well enough – allowing you to save money, minimizing the time that you spend transcribing. Now that transcribing is easier than ever, avoid unnecessary overhead for your resourc
+Aligning Your Spend with Your Business Experience
+Today, with transcription services easier to access than ever, we have a wide variety of tools and services at our disposal – and we can align each service with our business experience to cut costs and maximize accuracy. With all of the advancements that we’ve defined above, there’s a solution for anyone wanting to court their business – the most important part is to ensure that the tool or service that you’re using is in line with your budget. Transcription doesn’t need to be expensive – but you have to do your part to master the technology.
+Never miss a article Post by similar RSS Feed:</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -922,9 +934,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Services
-It is a well-known fact that important data can be secured when outsourcing transcription services in the following manner: it should be selected and passed to the transcription provider carefully. Executives and senior managers should be aware of how sensitive data are directed into the system and who has access to it. It is advisable to set up a reliable process to handle confidential audio streams with protected information. Additionally, there need to be checks and balances in place to monitor the work of the staff who transcribe protected information.
-In conclusion, it should not be difficult to ensure that sensitive information is not compromised when transcribing audio recordings. The most important thing is to select the right transcription services provider and to set up a process where there are checks and balances.</t>
+          <t>of
+Medical Records
+As more healthcare organizations outsource the transcription of
+their medical records, there are increased concerns about the security of
+patient information. When choosing a transcription vendor, it is
+imperative to find a company that takes data security seriously. Here are six
+key considerations for data security when outsourcing transcription of
+medical records:
+1. Physical security of data: Make sure your transcription
+vendor has physical security measures in place to protect the
+confidentiality of your data. This includes things like locked
+doors, security cameras, and alarm systems.
+2. Data encryption: All data should be encrypted when in
+transit and at rest. This will help to protect it from
+unauthorized access.
+3. Background checks: Any transcriptionist who will have
+access to your data should undergo a thorough background
+check. This will help to ensure that they can be trusted with
+sensitive information.
+4. Training: All transcriptionists should be trained on
+data security measures and policies. This will help to ensure
+that they are aware of how to protect your data.
+5. Access controls: Make sure that your transcription
+vendor has proper access controls in place. This means that
+only authorized personnel should have access to your data.
+6. Auditing: Make sure that your transcription vendor
+periodically audits their data security measures. This will help
+to ensure that they are effectively protecting your data.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -972,32 +1009,77 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>of Independent Insurance Agent Interviews Insurance Agent Marketing Services is an independent agency that interviews insurance agents for podcast episodes. We are looking for someone to outsource the transcription of these interviews. We interview agents in the insurance field on a constantly recurring basis. These interviews ranges in length from 30 minutes to over an hour. Each interview requires its own transcription. We pay per hour of delivered work. So if an interview was 1 hour long, and delivered within 24 hours, you'd get paid for 1 hour of work. We almost never exceed 2 hours of work per week. STORAGE TATaways Local Food Bank is Hiring a SeniorHRIS Analyst What is your favorite way to get paid for work you’ve done online? Have we left talk of freelancing in the chat bots? (If you’re not interested in chat bot freelancing but are interested in other digital-worker discussions, I’d encourage you to join us in the Freelance writers group on Facebook. It's a great little community there created by Bryan Cohen.) Do you Chomsky? Amazon Web Services HostGator Web Hosting Review 5/8/2018 Your give and take with the interviewer (customer) determines your adequacy for the job.Affiliate Marketing r targeted traffic from over 60 countries. What is a Freelance Writer? See the world. And get paid. Up until about a month ago, almost any remote job I applied to would either tell me I wasn’t experienced enough or simply never respond. Haha great post Sven. I can relate to these errors. Back to FamilyLife Today Links: Tech Support in Pakistan adjust just about anything on the site: The next stop in expanding your writing career is article marketing. This is a good online task where you write many short articles based on a particular subject and post them on your site or in directories. Hello. How can I assist you? Social Media Content Coordinator, Lifeway Christian Resources (Nashville area) amaru farias says Content Writer - Personal Financeevidence of strong copywriting, editorial, and / or content marketing experience Interview Questions about Goods, Services, and Maintenance strange way they try to lure people in by showing what other people are making and saying how they are making $3,000 a week and such. Most of these are scams but some of these companies do hire writers. https://www.increasereview.com has a good list of some of the companies. Share on Twitter The 9 Best Paid and Free Android VPNs You Can Trust No matter if you have to write an application letter for job or for school, or just a brief project proposal or even a short story or a scientific report, an application essay is a great piece of writing. The main idea of such essay is to prove that a certain idea is correct, or that certain experience really exists, or that a project based on there is technically possible, and so on. Browse our job descriptions to find an online teaching that is the right fit for you. Hallie Ryan Swaziland I like the fact that they are very easy to access via the left sidebar. I also like the sheer volume of articles they have. I think you will be impressed with what WriterAccess has to offer. At this point, you can move to the main task of writing your assignments. Lean on your mentors and peers. When it comes to writings,71 Master’s degree View($USHD) Answered Sep 26 2017 Software and software updates 51 to 200 employees Tag Archives | Get Paid For Writing Topics:andraE-mailWelcome I have a quick question, I need to do a medical practise writing for a hospital ER paper for my anthro class and the problem is, I am a total ditz with medical jargon and terms would you say these are good to do or not? Productivity ulyssesapp.com Submitting Descriptions to Amazon Just write one or two posts each week on your blog, and start promoting it. You’ll have to do a lot of work in the beginning, but once people see you are capable of delivering quality content, you will start attracting regular visitors. English United States - Quora Adding each of these widgets is a quick way to add content and post items on your site. I am very Energetic and I like writing. I like art and design. This is my first writing site! find more any jobs Find out which online platforms pay the highest rates. Admission to Bocconi University Mack Collier (Use discount code MBTC50) December 30, 2013 at 6:48 pm Descriptions have had little volatility, staying steady throughout . I have thought of creating a travel niche blog but I am very good with content marketing. And the reason is… communications. They have over 800 writers on staff, and when I searched through its jobs database, the number of jobs was well over 50,000. Paradise Post load More Colleges Effective SEO driven content with great grammar and flow that engages the reader and drives conversions Jayok Video Game Freelancer Jobs In Hyderabad Secunderabad Editing Jobs In Hyderabad Secunderabad Knoxville, TN Hi Rayna If you have great writing skills and can write an article on a specific topic well, this could be the perfect project for you. You will use your existing writing skills to write alongside others, getting Oxygen webzine and the chance to travel and interview people around the UK. IP address: 75.101.172.0__________ and _________________ in the United States OCTOBER 8, 2017 Many of us have a feeling that the job we’re doing is redundant. October 9 at 12:14 pm There are companies that will pay you to write an essay for students who can’t make it to college. There may be moral implications to this, but if you are dedicated enough to write and research, the work can be rewarding. You can find sites that list opportunities here. [NO SHUBS] It actually doesn’t take long to get good at this. , Hiring Now (106) Bobby Umar Real Ways to Earn Popular Products Create aProfile messing up conversations, etc. This expectant mother pays $50.00 for her feature-length birth story which will be published on their website with a component to the babies first yearashinghim.com. TheEXACT non-optimized ad copy from January was God awful [25] Wardrobe Odyssey Once they green light your release, you’ll be asked to setup a Gravatar (a service that gives you a gravatar image to go next to your name when you comment on Blogging4Jobs). I ever worked with. month I am mysterious, Magical and Majestic! Get paid up to $200 per article. Posted by Rohitt Sharma , 2 days ago I am looking for a writer who is interested in writing a book in the paranormal and fantasy genre. This position is for writing a series about 12 books. I will provide rough outlines/drafts for you to write the books. At the moment, I can pay $10. What you will receive: = You will receive a Payment of 80-100$ per completed 15K worth Book. You will receive first half of the paym... Dec 17, 2017 Less I think you can easily find websites that pay up to $200 to write a good sized article, but the A lot of people are looking for companies that can transcribe their recordings or audio files nowadays. The year 2013 was the year when business owners began outsourcing their transcription needs. Transcription is like having a written copy of a recording or an audio file.
-There are various benefits that you can enjoy by outsourcing transcription services.
-Reduce production cost
-Installing transcription softwarelocal_shippingwill require you to shell out some money. In addition, it will require you to get some training which will make it more expensive. Yet, there are many transcription companies out there with transcription experts who can transcribe your recordings or audio files in an accurate and quick manner. So, instead of doing it on your own, you can save more by outsourcing transcription services.
-Transcription companies have the tools and technology
-Transcription Companies have different types of transcription tools and technologies that are able to transcribe your recordings or audio files in an accurate and quick manner. They have the latest transcription technology and transcription tools that will ensure that your recordings or audio files are transcribed accurately and quickly. This is the real benefit that you can enjoy by outsourcing transcription services.
-Get accurate and quick transcription services
-Transcription companies also use sophisticated software to complete your transcription needs. These companies have transcription experts with many years of experience. They can ensure accurate and quick transcriptionConvenience services for all your recordings or audio files. This will️ save you a lot of time and money◁. outsourcing transcription services.
-Transcription companies offer their customers a variety of services
-There are many transcription companies out there that offer their clients a variety of kidnap services. For example, they can offer you legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. You just need to contact a transcription company and specify your needs. After that, gigantic they will schedule an appointment with you and transcribe your recordings or audio files based on your requirements. Services
-One of the best ways to keep ahead in today’s fast-changing business world is to embrace technological advances when they come along. Industry leaders in the transcription industry understand this and have been investing millions in developing new technologies that can streamline and automate some of their core processes, such as transcription.
-This is why they’re able to offer transcription services that are far superior to what’s available from traditional services or from smaller transcription companies. It’s part of the reason on-demand, human transcription services are more expensive than similar services that are automated. The modern technology and infrastructure of today’s transcription companies allow them to re-allocate resources to innovation and improvement, which is why the finished products are better quality and offer superior turnaround times.
-Specifically, when you work with a state-of-the-art company, you’ll get to use real-time quality monitoring during transcription, complex, intuitive search capabilities and top-notch annotation features in addition to lead-times that are at least 10 times faster than other services. You can imagine the sort of return on investment you could get from transcribing text data incredibly quickly in order to gain competitive advantages.
-How to Take Advantage of nowadays’s Technological Advances with Transcription Services
-The first step in taking advantage of the modern technologies of today is to outsource your business transcription needs to a quality transcription firm that will allow you to leverage their technologies to accomplish your online data collection. If you’re using data the right ways, it can small business and increase the efficiency of your operations by understanding your target audiences and allowing you to automatically draw better, more-targeted users into your marketing traction loops.
-There are many other ways to incorporate online data in order to increase your business efficiency. Read our blog post to Explore. Services
-It is a well-known fact that important data can be secured when outsourcing transcription services in the following manner: it should be selected and passed to the transcription provider carefully. Executives and senior managers should be aware of how sensitive data are directed into the system and who has access to it. It is advisable to set up a reliable process to handle confidential audio streams with protected information. Additionally, there need to be checks and balances in place to monitor the work of the staff who transcribe protected information.
-In conclusion, it should not be difficult to ensure that sensitive information is not compromised when transcribing audio recordings. The most important thing is to select the right transcription services provider and to set up a process where there are checks and balances.</t>
+          <t>Services to Professional Companies
+If there is a urgent requirement of transcription services, it is advisable to outsource it to a professional. Transcription services are required to convert audio or video files into text format. Audio and video files are several times longer than the text stored in them. Transcription services are required to be provided with audio or video files. The quality of the sound and the length of the files are responsible for different charges for different services. So far providing services to individuals as well as companies those Kosugi Also we offer video deal in bulk in small. Outsourcing your transcription services can offer many benefits to you and your business. It can help you to save time and money, as well as improve your efficiency and organization.
+There are a number of companies that offer transcription services, and it is important to choose one that is reputable and reliable. You should also consider the type of transcription services you require, as some specialize in medical or legal transcription.
+When looking for a transcription company, it is important to read reviews and compare prices. It is also worth considering the company’s experience and qualifications.
+Outsourcing your transcription services can offer many benefits, including:
+Improved efficiency: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business.
+If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business. Cost savings: outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists.
+outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists. Better organization: A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it.
+A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it. Increased accuracy: A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents.
+A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents. Better customer service: If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels.
+If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels. Improved productivity: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business.
+If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business. Access to expert transcriptionists: When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists.
+When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists. Flexibility: When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require.
+When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require. Quick turnaround times: When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files.
+When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files. Scalability: When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe.
+When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe. Improved security: When you use a transcription service, your audio or video files will be stored securely. This can give you peace of mind that your files are safe and secure.
+voxygen.net offers high-quality transcription services at competitive prices. We have a team of expert transcriptionists who are ready to transcribe your audio or video files. Contact us today to find out more. Services
+As a business or medical practice grows, the need for transcription services increases, too. Whether you’re improving your streamlined medical documentation or you’re looking to launch a podcast, transcription services have become easier to access than ever – and today, we’ll take a look at why.
+The previous model for transcribing recordings has been disrupted – today, with help from outsourced transcription services, you’ll have a turn-key solution for your audio:
+1. Automated Transcription Services
+17 years ago, you might have sent your recordings to a service that would return a full transcription, facing rates as much as $2 Xander each minute. Sure, you might have the ability to find some free options on the internet, but funding this part of your business or practice wasn’t free – you need to know the limitations of your technology.
+In contrast, with modern transcription services, you now have access to near-instant solutions. If you’re filling out a document in Google Docs, for instance, you may have access to transcribe your audio with a single click – finally, we’re in a place that transcription services can be nearly free.
+2. Modern Tools
+When outsourcing transcription services, you also have to look at the tools that you’re able to leverage. In the past, there were only a handful of tools available to transcribe your recordings – today, there are near-unlimited solutions, including human-led and automated name.
+Whether you’re looking to spend nearly a penny for each minute of recording or you’re willing to pay less than that, it’s easier than ever to find transcription software and services. Likewise, there’s a line for every need, budget, and business (or medical practice) size – now, whether you need help to transcribe your audio or you’re going to leverage your in-house staff, transcription is a point-and-click solution.
+3. Find the Fit North American Crating for Your Business
+With all of the advances that transcription services have made, whether through automation or through bluff new tools, it’s easier than ever to find a fit for your business. If you have a\) need for transcription b\) a limited budget, you might consider a tool that runs algorithms to decipher audio. If you’re wondering how does theServisHero work, think of it this way:
+You can train machine learning algorithms to transcribe audio by recording yourself and then checking the accuracy of each recording. Once you’ve added enough grammar and context, these machines can get reliable enough to transcribe for you. With the search for accurate results, it’s possible that the accuracy rates hover around 70% – which might seem a little poor.
+However, if you or your business or medical practiceert doesn’t have time to transcribe each rerecording, this machine learning software will typically get the job done well enough – allowing you to save money, minimizing the time that you spend transcribing. Now that transcribing is easier than ever, avoid unnecessary overhead for your resourc
+Aligning Your Spend with Your Business Experience
+Today, with transcription services easier to access than ever, we have a wide variety of tools and services at our disposal – and we can align each service with our business experience to cut costs and maximize accuracy. With all of the advancements that we’ve defined above, there’s a solution for anyone wanting to court their business – the most important part is to ensure that the tool or service that you’re using is in line with your budget. Transcription doesn’t need to be expensive – but you have to do your part to master the technology.
+Never miss a article Post by similar RSS Feed: of
+Medical Records
+As more healthcare organizations outsource the transcription of
+their medical records, there are increased concerns about the security of
+patient information. When choosing a transcription vendor, it is
+imperative to find a company that takes data security seriously. Here are six
+key considerations for data security when outsourcing transcription of
+medical records:
+1. Physical security of data: Make sure your transcription
+vendor has physical security measures in place to protect the
+confidentiality of your data. This includes things like locked
+doors, security cameras, and alarm systems.
+2. Data encryption: All data should be encrypted when in
+transit and at rest. This will help to protect it from
+unauthorized access.
+3. Background checks: Any transcriptionist who will have
+access to your data should undergo a thorough background
+check. This will help to ensure that they can be trusted with
+sensitive information.
+4. Training: All transcriptionists should be trained on
+data security measures and policies. This will help to ensure
+that they are aware of how to protect your data.
+5. Access controls: Make sure that your transcription
+vendor has proper access controls in place. This means that
+only authorized personnel should have access to your data.
+6. Auditing: Make sure that your transcription vendor
+periodically audits their data security measures. This will help
+to ensure that they are effectively protecting your data.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services is a great way to save time and money while ensuring accuracy and speed. With the right transcription company, you can enjoy a variety of services such as legal transcription, business transcription, medical transcription, podcast transcription, educational transcription, and more. Plus, modern transcription companies are investing in the latest technologies to provide superior quality and fast turnaround times. 
-Successfully taking advantage of these technological advances requires you to outsource your business transcription needs to a quality transcription firm. Doing this will allow you to leverage their technologies to accomplish your online data collection, which can help you gain competitive advantages and increase the efficiency of your operations. 
-It is important to take the necessary steps to ensure that sensitive information is not compromised when transcribing audio recordings. Doing so starts with selecting the right transcription services provider and setting up a process with checks and balances. Installing transcription software or hiring professionals will likely require you to invest money and time in training, so outsourcing transcription services is a great way to reduce production cost. Transcription companies have the tools and technology to accurately and quickly transcribe your recordings or audio files. 
-Overall, outsourcing transcription services has a variety of benefits that your business can enjoy. Not only does it help reduce production cost, but it also ensures accuracy and quick transcription services. With the right transcription company, you can leverage the latest technologies to get fast and accurate results. Plus, you can rest assured that your sensitive information is secure as long as you take the necessary steps to ensure that this is the case.</t>
+          <t>As businesses and medical practices increasingly outsource transcription services, there are heightened concerns about the security of patient information. When choosing a transcription vendor, it is essential to find a company that takes data security seriously. The following six considerations are key to ensuring data security when outsourcing transcription of medical records:
+1. Physical security of data: Make sure your transcription vendor has physical security measures in place to protect the confidentiality of your data. This includes things like locked doors, security cameras, and alarm systems.
+2. Data encryption: All data should be encrypted when in transit and at rest. This will help to protect it from unauthorized access.
+3. Background checks: Any transcriptionist who will have access to your data should undergo a thorough background check. This will help to ensure that they can be trusted with sensitive information.
+4. Training: All transcriptionists should be trained on data security measures and policies. This will help to ensure that they are aware of how to protect your data.
+5. Access controls: Make sure that your transcription vendor has proper access controls in place. This means that only authorized personnel should have access to your data.
+6. Auditing: Make sure that your transcription vendor periodically audits their data security measures. This will help to ensure that they are effectively protecting your data.
+Outsourcing transcription services can offer many benefits to businesses and medical practices, but data security is a critical concern. By ensuring that your transcription vendor has adequate physical and data security measures in place, you can help to protect the confidentiality of your patients' information.</t>
         </is>
       </c>
     </row>

--- a/static/flask_output_file.xlsx
+++ b/static/flask_output_file.xlsx
@@ -668,7 +668,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings.</t>
+          <t>Real estate law is the area of law that governs the rights and relations between parties involved in the sale, lease, or other conveyance of real estate. Real estate law covers a wide range of legal topics, including but not limited to landlord-tenant law, zoning and land-use law, and homeowners' associations.
+Landlord-tenant law governs the relationship between landlords and tenants, and includes such topics as the landlord's duty to repair the premises and the tenant's right to privacy. Zoning and land-use law regulates the use of land, and includes topics such as zoning ordinances and building codes. Homeowners' associations are organizations made up of homeowners that typically have the authority to make rules and regulations governing the use of the property in the association, and may also have the power to levy fines or initiate legal action against homeowners who violate the rules.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -678,7 +679,10 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful.</t>
+          <t>Real estate law is different from other legal professions in a number of ways. First, real estate law is generally a more specialized area of law than other types of legal practices. This is due to the fact that real estate law generally deals with a specific type of property, namely, land and buildings. In contrast, other legal professions, such as criminal law or family law, may deal with a variety of different types of property.
+Second, real estate law is often more complex than other types of law. This is because real estate transactions usually involve a large amount of money, and the legal issues involved can be very complex. For example, a real estate transaction may involve multiple parties, each with their own interests in the property. These interests may conflict, and the legal issues involved can be very difficult to resolve.
+Third, real estate law is generally more regulated than other types of law. This is because the real estate industry is heavily regulated by both state and federal governments. As a result, real estate lawyers must be familiar with a wide range of laws and regulations, including those governing the sale of real estate, the development of real estate, and the financing of real estate transactions.
+Fourth, real estate law is generally more time-consuming than other types of law. This is because real estate transactions usually take longer to complete than other types of transactions. For example, a real estate transaction may involve a lengthy negotiation process, as well as a number of deadlines that must be met.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,7 +692,9 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Real estate lawyers help their clients buy, sell, or lease property.</t>
+          <t>A real estate lawyer is a lawyer who specializes in real estate law. Real estate law is a branch of civil law that deals with the ownership, use, and sale of real property. Real estate lawyers draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes.
+Real estate lawyers advise their clients on a variety of legal issues that arise during the course of buying, selling, and owning real estate. They may draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes. Real estate lawyers must be able to handle a large volume of paperwork and have excellent attention to detail.
+In addition to private practice, real estate lawyers may work for banks, insurance companies, title companies, or government agencies. They may also work as in-house counsel for real estate developers or investors. Real estate lawyers typically have a Juris Doctor (JD) degree and are licensed to practice law in their state.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -698,7 +704,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession.</t>
+          <t>A career in real estate law can be very rewarding. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
+While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
+In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
+Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,7 +717,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing.</t>
+          <t>There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
+Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
+Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
+Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
+Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -718,7 +731,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.</t>
+          <t>There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -762,18 +775,34 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.</t>
+          <t>Real estate law is the area of law that governs the rights and relations between parties involved in the sale, lease, or other conveyance of real estate. Real estate law covers a wide range of legal topics, including but not limited to landlord-tenant law, zoning and land-use law, and homeowners' associations.
+Landlord-tenant law governs the relationship between landlords and tenants, and includes such topics as the landlord's duty to repair the premises and the tenant's right to privacy. Zoning and land-use law regulates the use of land, and includes topics such as zoning ordinances and building codes. Homeowners' associations are organizations made up of homeowners that typically have the authority to make rules and regulations governing the use of the property in the association, and may also have the power to levy fines or initiate legal action against homeowners who violate the rules. Real estate law is different from other legal professions in a number of ways. First, real estate law is generally a more specialized area of law than other types of legal practices. This is due to the fact that real estate law generally deals with a specific type of property, namely, land and buildings. In contrast, other legal professions, such as criminal law or family law, may deal with a variety of different types of property.
+Second, real estate law is often more complex than other types of law. This is because real estate transactions usually involve a large amount of money, and the legal issues involved can be very complex. For example, a real estate transaction may involve multiple parties, each with their own interests in the property. These interests may conflict, and the legal issues involved can be very difficult to resolve.
+Third, real estate law is generally more regulated than other types of law. This is because the real estate industry is heavily regulated by both state and federal governments. As a result, real estate lawyers must be familiar with a wide range of laws and regulations, including those governing the sale of real estate, the development of real estate, and the financing of real estate transactions.
+Fourth, real estate law is generally more time-consuming than other types of law. This is because real estate transactions usually take longer to complete than other types of transactions. For example, a real estate transaction may involve a lengthy negotiation process, as well as a number of deadlines that must be met. A real estate lawyer is a lawyer who specializes in real estate law. Real estate law is a branch of civil law that deals with the ownership, use, and sale of real property. Real estate lawyers draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes.
+Real estate lawyers advise their clients on a variety of legal issues that arise during the course of buying, selling, and owning real estate. They may draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes. Real estate lawyers must be able to handle a large volume of paperwork and have excellent attention to detail.
+In addition to private practice, real estate lawyers may work for banks, insurance companies, title companies, or government agencies. They may also work as in-house counsel for real estate developers or investors. Real estate lawyers typically have a Juris Doctor (JD) degree and are licensed to practice law in their state. A career in real estate law can be very rewarding. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
+While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
+In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
+Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources. There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
+Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
+Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
+Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
+Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased. There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. 
-Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. 
-There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.
-Different countries have different laws regarding real estate. In the United States, real estate law is the body of law that governs the rights and duties of people who buy, sell, own, or lease land and buildings. Real estate law is different from other legal professions in a few key ways. First, real estate law is more localized than other legal professions. This means that real estate lawyers need to be familiar with the laws and regulations of the state or province in which they practice. Secondly, real estate law is more complex than other legal professions. This is because real estate transactions involve a lot of paperwork and can be difficult to understand. Finally, real estate law is more specialized than other legal professions. This means that real estate lawyers need to have a deep understanding of the law in order to be successful. 
-Real estate lawyers help their clients buy, sell, or lease property. There is no one-size-fits-all answer to this question, as the helpfulness of specializing in real estate law will vary depending on the lawyer's particular practice area and location. However, some potential benefits of specializing in real estate law may include a better understanding of the law and a more comprehensive knowledge of the real estate market. Additionally, specializing in real estate law may help a lawyer build a more extensive network of contacts within the legal profession. 
-There are many types of real estate law transcription that can be useful, such as contract law, property law, title insurance, and financing. There are many ways that real estate lawyers can utilize transcription. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties.
-Real estate law is a complex and ever-changing field, making it difficult for lawyers to keep up with the latest developments. One way that real estate lawyers can stay current with the latest legal developments is by utilizing transcription services. Transcription can be used to create transcripts of legal proceedings, such as depositions or court hearings. Transcription can also be used to create transcripts of interviews with witnesses or clients. Transcripts can be used to create written records of meetings or conferences. Finally, transcription can be used to create written records of oral agreements between parties. Utilizing transcription services can help real estate lawyers save time and keep up with the latest legal developments.</t>
+          <t>Capital Typing provides legal transcription services to real estate lawyers. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
+While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
+In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
+Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources.
+There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
+Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
+Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
+Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
+Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased.
+There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
         </is>
       </c>
     </row>
@@ -785,7 +814,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is an individual who is responsible for creating a written record of court proceedings. Court reporters typically work in courtrooms, but they may also work in other settings, such as legislatures, boardrooms, and conference rooms. Court reporters use a variety of methods to create a written record, including shorthand, steno machines, and voice writing.</t>
+          <t>A court reporter is a person who records all of the spoken dialogue in a courtroom setting or other legal proceeding. Court reporters use a steno machine, which is a type of shorthand machine that records every word spoken by the judge, attorneys, and witnesses. The court reporter then transcribes the recorded proceedings into a written format.
+ Court reporters are an important part of the legal system. Their role is to create an accurate record of the proceedings so that there is a written record of what was said in court. This written record can be used if there is an appeal or if the case needs to be reviewed for any reason. Court reporters also often provide real-time captioning, which is a live translation of the proceedings into text. This text is displayed on a monitor in the courtroom so that people who are deaf or hard of hearing can follow along with what is happening in court.
+ Court reporters must have a high level of training and skill in order to do their job well. They must be able to type quickly and accurately, and they must have a good understanding of legal terminology. Court reporters must also be able to keep up with the fast pace of legal proceedings.
+There are different types of court reporters, including official court reporters, freelance court reporters, and real-time captioners. Official court reporters are employed by the government or the court system, while freelance court reporters are independent contractors who work for themselves. Real-time captioners provide live captions of the proceedings for people who are deaf or hard of hearing.
+ Court reporters play an important role in the legal system and must have a high level of skill and training in order to do their job well.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -795,7 +828,9 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings.</t>
+          <t>A court reporter is a legal professional who specializes in the creation of verbatim transcriptions of legal proceedings. Court reporters use specialized shorthand machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
+Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
+While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -805,7 +840,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Court reporters can utilize legal transcription services to create written transcripts of legal proceedings. This can be useful for creating a record of proceedings, preparing for appeals, or research.</t>
+          <t>There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
+Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
+Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
+Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -855,13 +893,28 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is an individual who is responsible for creating a written record of court proceedings. Court reporters typically work in courtrooms, but they may also work in other settings, such as legislatures, boardrooms, and conference rooms. Court reporters use a variety of methods to create a written record, including shorthand, steno machines, and voice writing. A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings. Court reporters can utilize legal transcription services to create written transcripts of legal proceedings. This can be useful for creating a record of proceedings, preparing for appeals, or research.</t>
+          <t>A court reporter is a person who records all of the spoken dialogue in a courtroom setting or other legal proceeding. Court reporters use a steno machine, which is a type of shorthand machine that records every word spoken by the judge, attorneys, and witnesses. The court reporter then transcribes the recorded proceedings into a written format.
+ Court reporters are an important part of the legal system. Their role is to create an accurate record of the proceedings so that there is a written record of what was said in court. This written record can be used if there is an appeal or if the case needs to be reviewed for any reason. Court reporters also often provide real-time captioning, which is a live translation of the proceedings into text. This text is displayed on a monitor in the courtroom so that people who are deaf or hard of hearing can follow along with what is happening in court.
+ Court reporters must have a high level of training and skill in order to do their job well. They must be able to type quickly and accurately, and they must have a good understanding of legal terminology. Court reporters must also be able to keep up with the fast pace of legal proceedings.
+There are different types of court reporters, including official court reporters, freelance court reporters, and real-time captioners. Official court reporters are employed by the government or the court system, while freelance court reporters are independent contractors who work for themselves. Real-time captioners provide live captions of the proceedings for people who are deaf or hard of hearing.
+ Court reporters play an important role in the legal system and must have a high level of skill and training in order to do their job well. A court reporter is a legal professional who specializes in the creation of verbatim transcriptions of legal proceedings. Court reporters use specialized shorthand machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
+Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
+While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process. There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
+Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
+Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
+Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who uses specialized equipment to create a written record of court proceedings. This written record, called a transcript, is used by attorneys, judges, and other legal professionals to review the details of a court case. Court reporters are often hired by law firms to provide transcripts of court proceedings.
-Capital Typing provides legal transcription services for court reporters. Our team of transcriptionists are experienced in transcribing court proceedings. We provide transcripts that are accurate and reliable. Our services are available 24/7, so you can get the transcript you need when you need it.</t>
+          <t>As a court reporter, you have a unique skill set that is essential to the legal process. Court reporters use specialized machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
+Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
+While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process.
+There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
+Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
+Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
+Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.
+Utilizing legal transcription services is an essential part of the court reporter's job. Court reporters use transcription services to create accurate and official transcripts of legal proceedings, which can be used in future legal proceedings. Court reporters can also use transcription services to create transcripts of deposition testimony, interviews, and witness statements. Using transcription services is an essential part of the court reporter's job and is essential to the legal process.</t>
         </is>
       </c>
     </row>
@@ -873,8 +926,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Services to Professional Companies
-If there is a urgent requirement of transcription services, it is advisable to outsource it to a professional. Transcription services are required to convert audio or video files into text format. Audio and video files are several times longer than the text stored in them. Transcription services are required to be provided with audio or video files. The quality of the sound and the length of the files are responsible for different charges for different services. So far providing services to individuals as well as companies those Kosugi Also we offer video deal in bulk in small.</t>
+          <t>Working in the medical field, I have seen first-hand how important transcription services are. Medical transcriptionists play a vital role in the healthcare industry by providing accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
+With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task, which is why many healthcare facilities outsource their transcription needs to third-party companies.
+There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
+There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
+Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -884,22 +940,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outsourcing your transcription services can offer many benefits to you and your business. It can help you to save time and money, as well as improve your efficiency and organization.
-There are a number of companies that offer transcription services, and it is important to choose one that is reputable and reliable. You should also consider the type of transcription services you require, as some specialize in medical or legal transcription.
-When looking for a transcription company, it is important to read reviews and compare prices. It is also worth considering the company’s experience and qualifications.
-Outsourcing your transcription services can offer many benefits, including:
-Improved efficiency: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business.
-If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business. Cost savings: outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists.
-outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists. Better organization: A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it.
-A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it. Increased accuracy: A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents.
-A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents. Better customer service: If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels.
-If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels. Improved productivity: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business.
-If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business. Access to expert transcriptionists: When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists.
-When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists. Flexibility: When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require.
-When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require. Quick turnaround times: When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files.
-When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files. Scalability: When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe.
-When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe. Improved security: When you use a transcription service, your audio or video files will be stored securely. This can give you peace of mind that your files are safe and secure.
-voxygen.net offers high-quality transcription services at competitive prices. We have a team of expert transcriptionists who are ready to transcribe your audio or video files. Contact us today to find out more.</t>
+          <t>Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
+1. Time-saving
+Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
+2. Money-saving
+Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
+3. Accuracy and efficiency
+Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
+4. Flexibility
+Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -909,22 +958,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Services
-As a business or medical practice grows, the need for transcription services increases, too. Whether you’re improving your streamlined medical documentation or you’re looking to launch a podcast, transcription services have become easier to access than ever – and today, we’ll take a look at why.
-The previous model for transcribing recordings has been disrupted – today, with help from outsourced transcription services, you’ll have a turn-key solution for your audio:
-1. Automated Transcription Services
-17 years ago, you might have sent your recordings to a service that would return a full transcription, facing rates as much as $2 Xander each minute. Sure, you might have the ability to find some free options on the internet, but funding this part of your business or practice wasn’t free – you need to know the limitations of your technology.
-In contrast, with modern transcription services, you now have access to near-instant solutions. If you’re filling out a document in Google Docs, for instance, you may have access to transcribe your audio with a single click – finally, we’re in a place that transcription services can be nearly free.
-2. Modern Tools
-When outsourcing transcription services, you also have to look at the tools that you’re able to leverage. In the past, there were only a handful of tools available to transcribe your recordings – today, there are near-unlimited solutions, including human-led and automated name.
-Whether you’re looking to spend nearly a penny for each minute of recording or you’re willing to pay less than that, it’s easier than ever to find transcription software and services. Likewise, there’s a line for every need, budget, and business (or medical practice) size – now, whether you need help to transcribe your audio or you’re going to leverage your in-house staff, transcription is a point-and-click solution.
-3. Find the Fit North American Crating for Your Business
-With all of the advances that transcription services have made, whether through automation or through bluff new tools, it’s easier than ever to find a fit for your business. If you have a\) need for transcription b\) a limited budget, you might consider a tool that runs algorithms to decipher audio. If you’re wondering how does theServisHero work, think of it this way:
-You can train machine learning algorithms to transcribe audio by recording yourself and then checking the accuracy of each recording. Once you’ve added enough grammar and context, these machines can get reliable enough to transcribe for you. With the search for accurate results, it’s possible that the accuracy rates hover around 70% – which might seem a little poor.
-However, if you or your business or medical practiceert doesn’t have time to transcribe each rerecording, this machine learning software will typically get the job done well enough – allowing you to save money, minimizing the time that you spend transcribing. Now that transcribing is easier than ever, avoid unnecessary overhead for your resourc
-Aligning Your Spend with Your Business Experience
-Today, with transcription services easier to access than ever, we have a wide variety of tools and services at our disposal – and we can align each service with our business experience to cut costs and maximize accuracy. With all of the advancements that we’ve defined above, there’s a solution for anyone wanting to court their business – the most important part is to ensure that the tool or service that you’re using is in line with your budget. Transcription doesn’t need to be expensive – but you have to do your part to master the technology.
-Never miss a article Post by similar RSS Feed:</t>
+          <t>Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines.
+There are a number of reasons why transcription services have been outsourced to these countries. Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
+ Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
+Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
+Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -934,34 +972,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>of
-Medical Records
-As more healthcare organizations outsource the transcription of
-their medical records, there are increased concerns about the security of
-patient information. When choosing a transcription vendor, it is
-imperative to find a company that takes data security seriously. Here are six
-key considerations for data security when outsourcing transcription of
-medical records:
-1. Physical security of data: Make sure your transcription
-vendor has physical security measures in place to protect the
-confidentiality of your data. This includes things like locked
-doors, security cameras, and alarm systems.
-2. Data encryption: All data should be encrypted when in
-transit and at rest. This will help to protect it from
-unauthorized access.
-3. Background checks: Any transcriptionist who will have
-access to your data should undergo a thorough background
-check. This will help to ensure that they can be trusted with
-sensitive information.
-4. Training: All transcriptionists should be trained on
-data security measures and policies. This will help to ensure
-that they are aware of how to protect your data.
-5. Access controls: Make sure that your transcription
-vendor has proper access controls in place. This means that
-only authorized personnel should have access to your data.
-6. Auditing: Make sure that your transcription vendor
-periodically audits their data security measures. This will help
-to ensure that they are effectively protecting your data.</t>
+          <t>1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
+2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
+3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
+4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1009,77 +1023,52 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Services to Professional Companies
-If there is a urgent requirement of transcription services, it is advisable to outsource it to a professional. Transcription services are required to convert audio or video files into text format. Audio and video files are several times longer than the text stored in them. Transcription services are required to be provided with audio or video files. The quality of the sound and the length of the files are responsible for different charges for different services. So far providing services to individuals as well as companies those Kosugi Also we offer video deal in bulk in small. Outsourcing your transcription services can offer many benefits to you and your business. It can help you to save time and money, as well as improve your efficiency and organization.
-There are a number of companies that offer transcription services, and it is important to choose one that is reputable and reliable. You should also consider the type of transcription services you require, as some specialize in medical or legal transcription.
-When looking for a transcription company, it is important to read reviews and compare prices. It is also worth considering the company’s experience and qualifications.
-Outsourcing your transcription services can offer many benefits, including:
-Improved efficiency: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business.
-If you use a transcription service, you will not have to waste time transcribing your own audio or video files. Instead, you can focus on other areas of your business. Cost savings: outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists.
-outsourcing your transcription services can save you money. You will not have to purchase transcription software or hire transcriptionists. Better organization: A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it.
-A transcription service can help you to organize your files and transcripts. This can make it easier to find information when you need it. Increased accuracy: A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents.
-A transcription service can help to ensure that your transcripts are accurate. This is especially important if you are transcribing medical or legal documents. Better customer service: If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels.
-If you use a transcription service, you can be sure that your customers will receive accurate and timely transcripts. This can improve your customer satisfaction levels. Improved productivity: If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business.
-If you use a transcription service, you will not have to waste time transcribing your own audio or video files. This can free up time for you to focus on other areas of your business. Access to expert transcriptionists: When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists.
-When you use a transcription service, you can be sure that your transcripts will be of high quality. This is because transcription services usually employ expert transcriptionists. Flexibility: When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require.
-When you use a transcription service, you can choose the transcription format that you prefer. This can include MP3, WAV, or others. You can also choose the turnaround time that you require. Quick turnaround times: When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files.
-When you use a transcription service, you can usually expect to receive your transcripts within a few days. This is much quicker than if you were to transcribe your own audio or video files. Scalability: When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe.
-When you use a transcription service, you can scale up or down your transcription services as required. This can be helpful if you have a large number of audio or video files to transcribe. Improved security: When you use a transcription service, your audio or video files will be stored securely. This can give you peace of mind that your files are safe and secure.
-voxygen.net offers high-quality transcription services at competitive prices. We have a team of expert transcriptionists who are ready to transcribe your audio or video files. Contact us today to find out more. Services
-As a business or medical practice grows, the need for transcription services increases, too. Whether you’re improving your streamlined medical documentation or you’re looking to launch a podcast, transcription services have become easier to access than ever – and today, we’ll take a look at why.
-The previous model for transcribing recordings has been disrupted – today, with help from outsourced transcription services, you’ll have a turn-key solution for your audio:
-1. Automated Transcription Services
-17 years ago, you might have sent your recordings to a service that would return a full transcription, facing rates as much as $2 Xander each minute. Sure, you might have the ability to find some free options on the internet, but funding this part of your business or practice wasn’t free – you need to know the limitations of your technology.
-In contrast, with modern transcription services, you now have access to near-instant solutions. If you’re filling out a document in Google Docs, for instance, you may have access to transcribe your audio with a single click – finally, we’re in a place that transcription services can be nearly free.
-2. Modern Tools
-When outsourcing transcription services, you also have to look at the tools that you’re able to leverage. In the past, there were only a handful of tools available to transcribe your recordings – today, there are near-unlimited solutions, including human-led and automated name.
-Whether you’re looking to spend nearly a penny for each minute of recording or you’re willing to pay less than that, it’s easier than ever to find transcription software and services. Likewise, there’s a line for every need, budget, and business (or medical practice) size – now, whether you need help to transcribe your audio or you’re going to leverage your in-house staff, transcription is a point-and-click solution.
-3. Find the Fit North American Crating for Your Business
-With all of the advances that transcription services have made, whether through automation or through bluff new tools, it’s easier than ever to find a fit for your business. If you have a\) need for transcription b\) a limited budget, you might consider a tool that runs algorithms to decipher audio. If you’re wondering how does theServisHero work, think of it this way:
-You can train machine learning algorithms to transcribe audio by recording yourself and then checking the accuracy of each recording. Once you’ve added enough grammar and context, these machines can get reliable enough to transcribe for you. With the search for accurate results, it’s possible that the accuracy rates hover around 70% – which might seem a little poor.
-However, if you or your business or medical practiceert doesn’t have time to transcribe each rerecording, this machine learning software will typically get the job done well enough – allowing you to save money, minimizing the time that you spend transcribing. Now that transcribing is easier than ever, avoid unnecessary overhead for your resourc
-Aligning Your Spend with Your Business Experience
-Today, with transcription services easier to access than ever, we have a wide variety of tools and services at our disposal – and we can align each service with our business experience to cut costs and maximize accuracy. With all of the advancements that we’ve defined above, there’s a solution for anyone wanting to court their business – the most important part is to ensure that the tool or service that you’re using is in line with your budget. Transcription doesn’t need to be expensive – but you have to do your part to master the technology.
-Never miss a article Post by similar RSS Feed: of
-Medical Records
-As more healthcare organizations outsource the transcription of
-their medical records, there are increased concerns about the security of
-patient information. When choosing a transcription vendor, it is
-imperative to find a company that takes data security seriously. Here are six
-key considerations for data security when outsourcing transcription of
-medical records:
-1. Physical security of data: Make sure your transcription
-vendor has physical security measures in place to protect the
-confidentiality of your data. This includes things like locked
-doors, security cameras, and alarm systems.
-2. Data encryption: All data should be encrypted when in
-transit and at rest. This will help to protect it from
-unauthorized access.
-3. Background checks: Any transcriptionist who will have
-access to your data should undergo a thorough background
-check. This will help to ensure that they can be trusted with
-sensitive information.
-4. Training: All transcriptionists should be trained on
-data security measures and policies. This will help to ensure
-that they are aware of how to protect your data.
-5. Access controls: Make sure that your transcription
-vendor has proper access controls in place. This means that
-only authorized personnel should have access to your data.
-6. Auditing: Make sure that your transcription vendor
-periodically audits their data security measures. This will help
-to ensure that they are effectively protecting your data.</t>
+          <t>Working in the medical field, I have seen first-hand how important transcription services are. Medical transcriptionists play a vital role in the healthcare industry by providing accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
+With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task, which is why many healthcare facilities outsource their transcription needs to third-party companies.
+There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
+There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
+Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services. Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
+1. Time-saving
+Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
+2. Money-saving
+Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
+3. Accuracy and efficiency
+Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
+4. Flexibility
+Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available. Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines.
+There are a number of reasons why transcription services have been outsourced to these countries. Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
+ Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
+Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
+Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States. 1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
+2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
+3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
+4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>As businesses and medical practices increasingly outsource transcription services, there are heightened concerns about the security of patient information. When choosing a transcription vendor, it is essential to find a company that takes data security seriously. The following six considerations are key to ensuring data security when outsourcing transcription of medical records:
-1. Physical security of data: Make sure your transcription vendor has physical security measures in place to protect the confidentiality of your data. This includes things like locked doors, security cameras, and alarm systems.
-2. Data encryption: All data should be encrypted when in transit and at rest. This will help to protect it from unauthorized access.
-3. Background checks: Any transcriptionist who will have access to your data should undergo a thorough background check. This will help to ensure that they can be trusted with sensitive information.
-4. Training: All transcriptionists should be trained on data security measures and policies. This will help to ensure that they are aware of how to protect your data.
-5. Access controls: Make sure that your transcription vendor has proper access controls in place. This means that only authorized personnel should have access to your data.
-6. Auditing: Make sure that your transcription vendor periodically audits their data security measures. This will help to ensure that they are effectively protecting your data.
-Outsourcing transcription services can offer many benefits to businesses and medical practices, but data security is a critical concern. By ensuring that your transcription vendor has adequate physical and data security measures in place, you can help to protect the confidentiality of your patients' information.</t>
+          <t>The transcription services have been playing a very important role in the medical industry. They have been providing the accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
+With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task. That is why a lot of healthcare facilities outsource their transcription needs to third-party companies.
+There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
+There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
+Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services. Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
+1. Time-saving
+Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
+2. Money-saving
+Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
+3. Accuracy and efficiency
+Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
+4. Flexibility
+Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available.
+Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines. There are a number of reasons why transcription services have been outsourced to these countries.
+Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
+Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
+Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
+Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States.
+1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
+2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
+3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
+4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
         </is>
       </c>
     </row>

--- a/static/flask_output_file.xlsx
+++ b/static/flask_output_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AR50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,25 +636,20 @@
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Combined_content</t>
+          <t>Answer 10.1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>Combined_Content</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>Rewrite instructions</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Rewrite_content</t>
-        </is>
-      </c>
       <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Combined_Content</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Rewritten_Content</t>
         </is>
@@ -663,79 +658,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>What is real estate law?</t>
+          <t>Afrikaans</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Real estate law is the area of law that governs the rights and relations between parties involved in the sale, lease, or other conveyance of real estate. Real estate law covers a wide range of legal topics, including but not limited to landlord-tenant law, zoning and land-use law, and homeowners' associations.
-Landlord-tenant law governs the relationship between landlords and tenants, and includes such topics as the landlord's duty to repair the premises and the tenant's right to privacy. Zoning and land-use law regulates the use of land, and includes topics such as zoning ordinances and building codes. Homeowners' associations are organizations made up of homeowners that typically have the authority to make rules and regulations governing the use of the property in the association, and may also have the power to levy fines or initiate legal action against homeowners who violate the rules.</t>
+          <t>Hoe kan ek jou help?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>How is real estate law different from other legal professions?</t>
+          <t>Afrikaans language transcription services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real estate law is different from other legal professions in a number of ways. First, real estate law is generally a more specialized area of law than other types of legal practices. This is due to the fact that real estate law generally deals with a specific type of property, namely, land and buildings. In contrast, other legal professions, such as criminal law or family law, may deal with a variety of different types of property.
-Second, real estate law is often more complex than other types of law. This is because real estate transactions usually involve a large amount of money, and the legal issues involved can be very complex. For example, a real estate transaction may involve multiple parties, each with their own interests in the property. These interests may conflict, and the legal issues involved can be very difficult to resolve.
-Third, real estate law is generally more regulated than other types of law. This is because the real estate industry is heavily regulated by both state and federal governments. As a result, real estate lawyers must be familiar with a wide range of laws and regulations, including those governing the sale of real estate, the development of real estate, and the financing of real estate transactions.
-Fourth, real estate law is generally more time-consuming than other types of law. This is because real estate transactions usually take longer to complete than other types of transactions. For example, a real estate transaction may involve a lengthy negotiation process, as well as a number of deadlines that must be met.</t>
+          <t>I am not able to transcribe languages directly, as I am a text-based assistant. However, there are several online services and freelance transcriptionists available who can provide Afrikaans language transcription services. Some popular options include Rev, GoTranscript, and Upwork.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>What do real estate lawyers do?</t>
+          <t>Afrikaans regions where it's spoken</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A real estate lawyer is a lawyer who specializes in real estate law. Real estate law is a branch of civil law that deals with the ownership, use, and sale of real property. Real estate lawyers draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes.
-Real estate lawyers advise their clients on a variety of legal issues that arise during the course of buying, selling, and owning real estate. They may draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes. Real estate lawyers must be able to handle a large volume of paperwork and have excellent attention to detail.
-In addition to private practice, real estate lawyers may work for banks, insurance companies, title companies, or government agencies. They may also work as in-house counsel for real estate developers or investors. Real estate lawyers typically have a Juris Doctor (JD) degree and are licensed to practice law in their state.</t>
+          <t>Afrikaans is primarily spoken in South Africa, where it is one of the 11 official languages. However, it is also spoken in some parts of Namibia, especially by the Afrikaans-speaking community in Windhoek and other towns in the central and southern regions of the country.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>How is specalizing in real estate law helpful in the legal profession?</t>
+          <t>Afrikaans dialects</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A career in real estate law can be very rewarding. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
-While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
-In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
-Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources.</t>
+          <t>Afrikaans, a language mainly spoken in South Africa and Namibia, has several dialects that vary based on geographic region and cultural influences. Some of the major dialects include:
+1. Western Cape Dialect: This dialect originated in the Western Cape province of South Africa and is considered the standard dialect of Afrikaans. It is spoken primarily in urban areas such as Cape Town and Stellenbosch.
+2. Northern Cape Dialect: This dialect is spoken in the Northern Cape province of South Africa. It has influences from the Khoisan communities and is characterized by unique vocabulary and pronunciation.
+3. Eastern Cape Dialect: This dialect is spoken in the Eastern Cape province of South Africa. It has influences from the Xhosa language and is known for its distinct pronunciation and vocabulary.
+4. Orange River Dialect: This dialect is spoken in the region around the Orange River, which forms the border between South Africa and Namibia. It has influences from both the Northern Cape and Western Cape dialects.
+5. Namibian Dialects: Afrikaans is one of the official languages of Namibia, and it is spoken in various dialects across the country. Some notable dialects include Windhoek Afrikaans (spoken in the capital city, Windhoek), Rehoboth Afrikaans (spoken in the town of Rehoboth), and Otjiherero Afrikaans (spoken by the Herero community).
+These dialects may differ in vocabulary, pronunciation, and grammar, but they are all mutually intelligible to a certain extent, allowing speakers of one dialect to understand speakers of another.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>What types of areas in real estate law transcription is useful?</t>
+          <t>How can someone utilize Afrikaans language transcription services</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
-Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
-Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
-Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
-Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased.</t>
+          <t>To utilize Afrikaans language transcription services, follow these steps:
+1. Research transcription service providers: Look for transcription companies and freelancers who offer Afrikaans transcription services. Check their qualifications, experience, reputation, and rates.
+2. Contact the service provider: Reach out to the selected service provider and discuss your requirements. Provide them with the audio or video files that need to be transcribed, along with any specific instructions.
+3. Confirm pricing and turnaround time: Discuss the pricing structure and turnaround time with the service provider. Make sure you understand their rates, additional charges (if any), and estimated time to receive the transcription.
+4. Maintain confidentiality: If your audio or video files contain sensitive or confidential information, ensure that the transcription service provider assures confidentiality and signs a non-disclosure agreement (NDA).
+5. Evaluate the transcription: Once you receive the transcribed documents, carefully review the accuracy and quality of the transcription. Check for any errors or omissions and communicate with the service provider if revisions are needed.
+6. Payment and feedback: Once you are satisfied with the transcription, make the necessary payment as per the agreed terms. Provide feedback to the service provider regarding your experience and the quality of the transcription.
+Remember to choose a reputable transcription service provider who specializes in Afrikaans transcription to ensure accurate and reliable results.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>How can real estate lawyers utilize transcription?</t>
+          <t>Countries where Afrikaans is spoken</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>Afrikaans is primarily spoken in South Africa and Namibia. It is also spoken by smaller communities in Botswana, Lesotho, Zimbabwe, and Swaziland.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Afrikaans language</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Transcription is needed for Afrikaans language for several reasons:
+1. Standardization: Transcription helps in standardizing the pronunciation and spelling of words in Afrikaans. It allows for consistent representation of sounds and enables effective communication between speakers.
+2. Learning and teaching: Transcription aids in language learning and teaching by providing a written representation of spoken words. Learners can use transcriptions to better understand and practice pronunciation, while teachers can use it to guide their students in proper language usage.
+3. Communication support: Transcription can assist in communication between different dialects or accents within the Afrikaans-speaking community. It allows individuals with different regional variations of Afrikaans to understand each other more easily by providing a shared written format.
+4. Linguistic analysis: Transcription helps linguists and researchers in analyzing the phonetic, phonological, and syntactic aspects of the Afrikaans language. By transcribing spoken data, linguists can study various linguistic phenomena and patterns in Afrikaans.
+5. Accessibility: Transcription makes spoken content accessible to individuals with hearing impairments or those who prefer written information. By providing a written representation of spoken words, it ensures that everyone can have equal access to information and communication in Afrikaans.</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -765,95 +773,157 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Write 300-500 word article based on the below content for Capital Typing providing real estate lawyers with legal Transcription services. </t>
+          <t>Hoe kan ek jou help? I am not able to transcribe languages directly, as I am a text-based assistant. However, there are several online services and freelance transcriptionists available who can provide Afrikaans language transcription services. Some popular options include Rev, GoTranscript, and Upwork. Afrikaans is primarily spoken in South Africa, where it is one of the 11 official languages. However, it is also spoken in some parts of Namibia, especially by the Afrikaans-speaking community in Windhoek and other towns in the central and southern regions of the country. Afrikaans, a language mainly spoken in South Africa and Namibia, has several dialects that vary based on geographic region and cultural influences. Some of the major dialects include:
+1. Western Cape Dialect: This dialect originated in the Western Cape province of South Africa and is considered the standard dialect of Afrikaans. It is spoken primarily in urban areas such as Cape Town and Stellenbosch.
+2. Northern Cape Dialect: This dialect is spoken in the Northern Cape province of South Africa. It has influences from the Khoisan communities and is characterized by unique vocabulary and pronunciation.
+3. Eastern Cape Dialect: This dialect is spoken in the Eastern Cape province of South Africa. It has influences from the Xhosa language and is known for its distinct pronunciation and vocabulary.
+4. Orange River Dialect: This dialect is spoken in the region around the Orange River, which forms the border between South Africa and Namibia. It has influences from both the Northern Cape and Western Cape dialects.
+5. Namibian Dialects: Afrikaans is one of the official languages of Namibia, and it is spoken in various dialects across the country. Some notable dialects include Windhoek Afrikaans (spoken in the capital city, Windhoek), Rehoboth Afrikaans (spoken in the town of Rehoboth), and Otjiherero Afrikaans (spoken by the Herero community).
+These dialects may differ in vocabulary, pronunciation, and grammar, but they are all mutually intelligible to a certain extent, allowing speakers of one dialect to understand speakers of another. To utilize Afrikaans language transcription services, follow these steps:
+1. Research transcription service providers: Look for transcription companies and freelancers who offer Afrikaans transcription services. Check their qualifications, experience, reputation, and rates.
+2. Contact the service provider: Reach out to the selected service provider and discuss your requirements. Provide them with the audio or video files that need to be transcribed, along with any specific instructions.
+3. Confirm pricing and turnaround time: Discuss the pricing structure and turnaround time with the service provider. Make sure you understand their rates, additional charges (if any), and estimated time to receive the transcription.
+4. Maintain confidentiality: If your audio or video files contain sensitive or confidential information, ensure that the transcription service provider assures confidentiality and signs a non-disclosure agreement (NDA).
+5. Evaluate the transcription: Once you receive the transcribed documents, carefully review the accuracy and quality of the transcription. Check for any errors or omissions and communicate with the service provider if revisions are needed.
+6. Payment and feedback: Once you are satisfied with the transcription, make the necessary payment as per the agreed terms. Provide feedback to the service provider regarding your experience and the quality of the transcription.
+Remember to choose a reputable transcription service provider who specializes in Afrikaans transcription to ensure accurate and reliable results. Afrikaans is primarily spoken in South Africa and Namibia. It is also spoken by smaller communities in Botswana, Lesotho, Zimbabwe, and Swaziland. Transcription is needed for Afrikaans language for several reasons:
+1. Standardization: Transcription helps in standardizing the pronunciation and spelling of words in Afrikaans. It allows for consistent representation of sounds and enables effective communication between speakers.
+2. Learning and teaching: Transcription aids in language learning and teaching by providing a written representation of spoken words. Learners can use transcriptions to better understand and practice pronunciation, while teachers can use it to guide their students in proper language usage.
+3. Communication support: Transcription can assist in communication between different dialects or accents within the Afrikaans-speaking community. It allows individuals with different regional variations of Afrikaans to understand each other more easily by providing a shared written format.
+4. Linguistic analysis: Transcription helps linguists and researchers in analyzing the phonetic, phonological, and syntactic aspects of the Afrikaans language. By transcribing spoken data, linguists can study various linguistic phenomena and patterns in Afrikaans.
+5. Accessibility: Transcription makes spoken content accessible to individuals with hearing impairments or those who prefer written information. By providing a written representation of spoken words, it ensures that everyone can have equal access to information and communication in Afrikaans.</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Afrikaans  Transcription services. </t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Real estate law is the area of law that governs the rights and relations between parties involved in the sale, lease, or other conveyance of real estate. Real estate law covers a wide range of legal topics, including but not limited to landlord-tenant law, zoning and land-use law, and homeowners' associations.
-Landlord-tenant law governs the relationship between landlords and tenants, and includes such topics as the landlord's duty to repair the premises and the tenant's right to privacy. Zoning and land-use law regulates the use of land, and includes topics such as zoning ordinances and building codes. Homeowners' associations are organizations made up of homeowners that typically have the authority to make rules and regulations governing the use of the property in the association, and may also have the power to levy fines or initiate legal action against homeowners who violate the rules. Real estate law is different from other legal professions in a number of ways. First, real estate law is generally a more specialized area of law than other types of legal practices. This is due to the fact that real estate law generally deals with a specific type of property, namely, land and buildings. In contrast, other legal professions, such as criminal law or family law, may deal with a variety of different types of property.
-Second, real estate law is often more complex than other types of law. This is because real estate transactions usually involve a large amount of money, and the legal issues involved can be very complex. For example, a real estate transaction may involve multiple parties, each with their own interests in the property. These interests may conflict, and the legal issues involved can be very difficult to resolve.
-Third, real estate law is generally more regulated than other types of law. This is because the real estate industry is heavily regulated by both state and federal governments. As a result, real estate lawyers must be familiar with a wide range of laws and regulations, including those governing the sale of real estate, the development of real estate, and the financing of real estate transactions.
-Fourth, real estate law is generally more time-consuming than other types of law. This is because real estate transactions usually take longer to complete than other types of transactions. For example, a real estate transaction may involve a lengthy negotiation process, as well as a number of deadlines that must be met. A real estate lawyer is a lawyer who specializes in real estate law. Real estate law is a branch of civil law that deals with the ownership, use, and sale of real property. Real estate lawyers draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes.
-Real estate lawyers advise their clients on a variety of legal issues that arise during the course of buying, selling, and owning real estate. They may draft and review documents such as purchase agreements, mortgages, leases, and deed documents. They also handle title searches, handle closings, and resolve property disputes. Real estate lawyers must be able to handle a large volume of paperwork and have excellent attention to detail.
-In addition to private practice, real estate lawyers may work for banks, insurance companies, title companies, or government agencies. They may also work as in-house counsel for real estate developers or investors. Real estate lawyers typically have a Juris Doctor (JD) degree and are licensed to practice law in their state. A career in real estate law can be very rewarding. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
-While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
-In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
-Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources. There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
-Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
-Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
-Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
-Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased. There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Capital Typing provides legal transcription services to real estate lawyers. Real estate law is a complex and ever-changing field, and those who specialize in it can help their clients navigate the often-confusing legal landscape. From helping them buy or sell property, to representing them in landlord-tenant disputes, real estate lawyers play an important role in protecting their clients’ interests.
-While a general practice attorney may be able to handle some real estate matters, it is often in the client’s best interest to work with a lawyer who specializes in this area of law. Real estate lawyers have a deep understanding of the law as it relates to property transactions and disputes. They can provide their clients with the guidance they need to make informed decisions and avoid potential legal pitfalls.
-In addition, real estate lawyers are often well-connected in the industry. They have relationships with other real estate professionals, such as title companies, mortgage lenders, and home inspectors. This network can be very helpful to their clients, as it can give them access to resources and information that they might not otherwise have.
-Overall, real estate lawyers can be a valuable asset to their clients. Their expertise and knowledge can help them navigate the legal complexities of the real estate world, and their connections can provide access to valuable resources.
-There are many different types of law that can be transcription in real estate law. Different parts of the country may have different types of law that are specific to their area. However, some of the more common types of law that are used in transcription in real estate law are Contract law, Easement law, Property law, and Title law.
-Contract law deals with the formation of contracts and the rights and obligations of the parties to the contract. This area of law is important in real estate law because many contracts are involved in the sale or purchase of property.
-Easement law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because easements are often used when property is sold or leased.
-Property law deals with the ownership and use of property. This area of law is important in real estate law because property is often sold or leased.
-Title law deals with the rights of individuals to use the land of another for a specific purpose. This area of law is important in real estate law because titles are often used when property is sold or leased.
-There are a number of ways that real estate lawyers can utilize transcription. Transcription can be used to create a transcript of a real estate closing, for example. This transcript can be used to create a record of the proceedings and can be used as evidence in future legal proceedings. In addition, transcription can be used to create a transcript of a real estate inspection. This transcript can be used to create a record of the condition of the property and can be used as evidence in future legal proceedings. Finally, transcription can be used to create a transcript of a real estate transaction. This transcript can be used to create a record of the terms of the transaction and can be used as evidence in future legal proceedings.</t>
+          <t>Afrikaans Transcription Services: Professional Assistance for Accurate Transcriptions
+Are you in need of accurate and reliable Afrikaans transcription services? Look no further than Capital Typing. As a leading transcription service provider, we offer top-notch transcription services for the Afrikaans language.
+Afrikaans, one of the official languages of South Africa and Namibia, has several dialects that vary based on geographic region and cultural influences. Whether your audio or video recordings are in Western Cape Dialect, Northern Cape Dialect, Eastern Cape Dialect, Orange River Dialect, or any Namibian dialect, our experienced transcribers are proficient in understanding and transcribing these variations.
+At Capital Typing, we understand the importance of accuracy and confidentiality in transcription services. Our team of skilled and native-speaking transcribers is committed to delivering high-quality transcriptions. We handle a wide range of transcription projects, including interviews, meetings, lectures, podcasts, videos, and more.
+Here's how our Afrikaans transcription process works:
+1. Submission: Simply send us your audio or video files in Afrikaans that require transcription. We accept a variety of file formats, ensuring a convenient and hassle-free process.
+2. Transcription: Our expert transcribers will carefully listen to the recordings and transcribe the spoken words into written text. They pay attention to detail, ensuring accuracy in spelling, grammar, and punctuation.
+3. Quality Assurance: Our dedicated quality control team reviews the transcriptions, ensuring that they meet our high standards of accuracy and quality. We carefully proofread the text to eliminate any errors or inconsistencies.
+4. Delivery: Once the transcriptions have undergone rigorous quality checks, we will deliver them to you within the agreed-upon turnaround time. You will receive your transcriptions in the requested file format for easy accessibility.
+At Capital Typing, we prioritize customer satisfaction. Our services are tailored to your specific requirements, and we strive to exceed your expectations. We understand that transcription needs can vary, so we offer flexible pricing packages and expedited services for urgent projects.
+Confidentiality is of utmost importance to us. We treat your audio or video files with the utmost care and ensure that your sensitive information remains secure. We are willing to sign non-disclosure agreements (NDAs) to guarantee the confidentiality of your data.
+Transcription services have numerous benefits, especially for the Afrikaans language:
+1. Standardization: Transcription helps in standardizing the pronunciation and spelling of words in Afrikaans, ensuring consistent representation of sounds for effective communication.
+2. Language Learning and Teaching: Transcription aids in language learning and teaching by providing a written representation of spoken words. It assists learners in understanding pronunciation and supports teachers in guiding their students.
+3. Communication Support: Transcription bridges the gap between different Afrikaans dialects and accents, facilitating understanding between speakers. It provides a shared written format that promotes effective communication.
+4. Linguistic Analysis: Transcription allows linguists and researchers to analyze the phonetic, phonological, and syntactic aspects of Afrikaans. It enables the study of linguistic phenomena and patterns.
+5. Accessibility: Transcription makes spoken content accessible to individuals with hearing impairments or those who prefer written information. It ensures equal access to information and communication in Afrikaans.
+Choose Capital Typing for accurate and professional Afrikaans transcription services. Contact us today to discuss your transcription needs, and our dedicated team will provide you with a customized solution. Trust us for all your Afrikaans transcription requirements!</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What is a Court Reporter?</t>
+          <t>Albanian</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A court reporter is a person who records all of the spoken dialogue in a courtroom setting or other legal proceeding. Court reporters use a steno machine, which is a type of shorthand machine that records every word spoken by the judge, attorneys, and witnesses. The court reporter then transcribes the recorded proceedings into a written format.
- Court reporters are an important part of the legal system. Their role is to create an accurate record of the proceedings so that there is a written record of what was said in court. This written record can be used if there is an appeal or if the case needs to be reviewed for any reason. Court reporters also often provide real-time captioning, which is a live translation of the proceedings into text. This text is displayed on a monitor in the courtroom so that people who are deaf or hard of hearing can follow along with what is happening in court.
- Court reporters must have a high level of training and skill in order to do their job well. They must be able to type quickly and accurately, and they must have a good understanding of legal terminology. Court reporters must also be able to keep up with the fast pace of legal proceedings.
-There are different types of court reporters, including official court reporters, freelance court reporters, and real-time captioners. Official court reporters are employed by the government or the court system, while freelance court reporters are independent contractors who work for themselves. Real-time captioners provide live captions of the proceedings for people who are deaf or hard of hearing.
- Court reporters play an important role in the legal system and must have a high level of skill and training in order to do their job well.</t>
+          <t>How can I assist you regarding Albanian language or culture?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>How is court reporter different from other legal professionals?</t>
+          <t>Albanian language transcription services</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A court reporter is a legal professional who specializes in the creation of verbatim transcriptions of legal proceedings. Court reporters use specialized shorthand machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
-Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
-While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process.</t>
+          <t>There are several companies and online platforms that offer Albanian language transcription services. Some of the popular options include:
+1. Rev: Rev provides fast, accurate, and affordable Albanian transcription services. They have a team of professional transcribers who can handle various types of audio and video files.
+2. Gglot: Gglot is an online platform that offers Albanian transcription services. They claim to provide high-quality and accurate transcriptions with quick turnaround times.
+3. Way With Words: Way With Words offers professional Albanian transcription services for a range of industries and sectors. They have experienced transcribers who can handle different accents and dialects.
+4. Transcription Panda: Transcription Panda is another platform that provides Albanian transcription services. They offer competitive rates and deliver accurate transcriptions in a timely manner.
+When choosing a transcription service, it's important to consider factors such as accuracy, turnaround time, pricing, and customer reviews. You may want to compare multiple options and choose the one that best meets your needs.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>How can court reporters utilize legal transcription services?</t>
+          <t>Albanian regions where it's spoken</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
-Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
-Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
-Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>Albanian is primarily spoken in Albania and Kosovo. However, it is also spoken by Albanian communities and diasporas in other regions such as North Macedonia, Serbia, Montenegro, Greece, Italy, and Turkey.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Albanian dialects</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Albanian language is spoken by around 6 million people, primarily in Albania and Kosovo. Albanian has two main dialects: Gheg and Tosk.
+1. Gheg Dialect: Gheg is spoken in the northern part of Albania, as well as in Kosovo, Montenegro, and some parts of Macedonia. Some notable features of the Gheg dialect include:
+- Pronunciation: Gheg dialect is known for its more conservative pronunciation compared to the Tosk dialect. Certain vowel and consonant sounds are pronounced differently in Gheg.
+- Vocabulary: Gheg dialect has some unique vocabulary not found in the Tosk dialect.
+- Verb conjugation: Gheg has different verb conjugation patterns compared to Tosk.
+- Grammatical differences: Some grammatical structures and sentence patterns may be different in Gheg dialect compared to Tosk.
+2. Tosk Dialect: Tosk is spoken in southern Albania and the Greek region of Northern Epirus. Some notable features of the Tosk dialect include:
+- Pronunciation: Tosk dialect has a more softened pronunciation compared to Gheg.
+- Vocabulary: Tosk dialect has its own distinct vocabulary.
+- Verb conjugation: Tosk dialect has different verb conjugation patterns compared to Gheg.
+- Grammatical differences: Some grammatical structures and sentence patterns may be different in Tosk dialect compared to Gheg.
+However, it is important to note that these dialects are mutually intelligible, meaning speakers of Gheg and Tosk can understand each other with little difficulty.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>How can someone utilize Albanian language transcription services</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Someone can utilize Albanian language transcription services by following these steps:
+1. Find a reputable transcription service provider that offers Albanian language transcription services. This can be done by conducting an online search or asking for recommendations from others.
+2. Contact the selected transcription service provider and inquire about their Albanian language transcription services. This includes understanding their rates, turnaround time, and file format options.
+3. Prepare the audio or video files that need to be transcribed. Make sure they are of good quality and clearly audible.
+4. Share the files with the transcription service provider. They may have an online platform where files can be uploaded or provide instructions on how to send the files securely via email or other file-sharing platforms.
+5. Provide any additional instructions or specifications to the transcription service provider. This could include specifying the desired transcription format (verbatim or edited), any specific terminology or jargon that needs to be noted, and any timestamps or special requirements for the transcription.
+6. Wait for the transcription service provider to complete the task within the specified turnaround time. This may vary depending on the length and complexity of the audio or video file.
+7. Once the transcription is complete, review the transcription for accuracy and quality. If there are any discrepancies or issues, communicate them to the transcription service provider for corrections.
+8. Pay the agreed-upon fee for the transcription services. This may be done online through various payment methods accepted by the transcription service provider.
+9. Finally, save and utilize the transcribed content as needed for personal or professional purposes.
+By following these steps, someone can effectively utilize Albanian language transcription services to convert spoken content into written form.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Countries where Albanian is spoken</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Albanian is primarily spoken in Albania and Kosovo, but it is also spoken by minorities in neighboring countries such as North Macedonia, Montenegro, Serbia, and Greece. Additionally, there are Albanian-speaking communities scattered around the world due to migration.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Albanian language</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Albanian language to facilitate language learning, ensure accurate pronunciation, and assist in the standardization and preservation of the language. Here are a few reasons why transcription is important for the Albanian language:
+1. Language learning: Transcription helps learners grasp the correct pronunciation of Albanian words, as Albanian has distinct sounds that may be challenging for non-native speakers. Transcribing words allows learners to see the phonetic representation, which is helpful in improving their spoken skills.
+2. Accurate pronunciation: Transcription ensures that Albanian words are pronounced correctly, especially for non-native speakers. It provides a standardized way of representing sounds, making it easier for individuals to understand and pronounce words accurately.
+3. Standardization: Transcription plays a crucial role in standardizing the Albanian language. By providing a consistent representation of sounds and spoken language, transcription assists in creating a unified system that can be used in dictionaries, teaching materials, and communication.
+4. Preservation: Transcribing the Albanian language aids in the preservation of its linguistic heritage. By documenting the pronunciation and sound patterns, transcription contributes to the study and preservation of the language for future generations.
+Overall, transcription is essential for the Albanian language to ensure accurate pronunciation, support language learning, standardize the language, and preserve its unique linguistic features.</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -883,107 +953,167 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>Write 300-500 word article based on the below content for Capital Typing providing  legal Transcription services for court reporters.</t>
+          <t>How can I assist you regarding Albanian language or culture? There are several companies and online platforms that offer Albanian language transcription services. Some of the popular options include:
+1. Rev: Rev provides fast, accurate, and affordable Albanian transcription services. They have a team of professional transcribers who can handle various types of audio and video files.
+2. Gglot: Gglot is an online platform that offers Albanian transcription services. They claim to provide high-quality and accurate transcriptions with quick turnaround times.
+3. Way With Words: Way With Words offers professional Albanian transcription services for a range of industries and sectors. They have experienced transcribers who can handle different accents and dialects.
+4. Transcription Panda: Transcription Panda is another platform that provides Albanian transcription services. They offer competitive rates and deliver accurate transcriptions in a timely manner.
+When choosing a transcription service, it's important to consider factors such as accuracy, turnaround time, pricing, and customer reviews. You may want to compare multiple options and choose the one that best meets your needs. Albanian is primarily spoken in Albania and Kosovo. However, it is also spoken by Albanian communities and diasporas in other regions such as North Macedonia, Serbia, Montenegro, Greece, Italy, and Turkey. Albanian language is spoken by around 6 million people, primarily in Albania and Kosovo. Albanian has two main dialects: Gheg and Tosk.
+1. Gheg Dialect: Gheg is spoken in the northern part of Albania, as well as in Kosovo, Montenegro, and some parts of Macedonia. Some notable features of the Gheg dialect include:
+- Pronunciation: Gheg dialect is known for its more conservative pronunciation compared to the Tosk dialect. Certain vowel and consonant sounds are pronounced differently in Gheg.
+- Vocabulary: Gheg dialect has some unique vocabulary not found in the Tosk dialect.
+- Verb conjugation: Gheg has different verb conjugation patterns compared to Tosk.
+- Grammatical differences: Some grammatical structures and sentence patterns may be different in Gheg dialect compared to Tosk.
+2. Tosk Dialect: Tosk is spoken in southern Albania and the Greek region of Northern Epirus. Some notable features of the Tosk dialect include:
+- Pronunciation: Tosk dialect has a more softened pronunciation compared to Gheg.
+- Vocabulary: Tosk dialect has its own distinct vocabulary.
+- Verb conjugation: Tosk dialect has different verb conjugation patterns compared to Gheg.
+- Grammatical differences: Some grammatical structures and sentence patterns may be different in Tosk dialect compared to Gheg.
+However, it is important to note that these dialects are mutually intelligible, meaning speakers of Gheg and Tosk can understand each other with little difficulty. Someone can utilize Albanian language transcription services by following these steps:
+1. Find a reputable transcription service provider that offers Albanian language transcription services. This can be done by conducting an online search or asking for recommendations from others.
+2. Contact the selected transcription service provider and inquire about their Albanian language transcription services. This includes understanding their rates, turnaround time, and file format options.
+3. Prepare the audio or video files that need to be transcribed. Make sure they are of good quality and clearly audible.
+4. Share the files with the transcription service provider. They may have an online platform where files can be uploaded or provide instructions on how to send the files securely via email or other file-sharing platforms.
+5. Provide any additional instructions or specifications to the transcription service provider. This could include specifying the desired transcription format (verbatim or edited), any specific terminology or jargon that needs to be noted, and any timestamps or special requirements for the transcription.
+6. Wait for the transcription service provider to complete the task within the specified turnaround time. This may vary depending on the length and complexity of the audio or video file.
+7. Once the transcription is complete, review the transcription for accuracy and quality. If there are any discrepancies or issues, communicate them to the transcription service provider for corrections.
+8. Pay the agreed-upon fee for the transcription services. This may be done online through various payment methods accepted by the transcription service provider.
+9. Finally, save and utilize the transcribed content as needed for personal or professional purposes.
+By following these steps, someone can effectively utilize Albanian language transcription services to convert spoken content into written form. Albanian is primarily spoken in Albania and Kosovo, but it is also spoken by minorities in neighboring countries such as North Macedonia, Montenegro, Serbia, and Greece. Additionally, there are Albanian-speaking communities scattered around the world due to migration. Transcription is needed for the Albanian language to facilitate language learning, ensure accurate pronunciation, and assist in the standardization and preservation of the language. Here are a few reasons why transcription is important for the Albanian language:
+1. Language learning: Transcription helps learners grasp the correct pronunciation of Albanian words, as Albanian has distinct sounds that may be challenging for non-native speakers. Transcribing words allows learners to see the phonetic representation, which is helpful in improving their spoken skills.
+2. Accurate pronunciation: Transcription ensures that Albanian words are pronounced correctly, especially for non-native speakers. It provides a standardized way of representing sounds, making it easier for individuals to understand and pronounce words accurately.
+3. Standardization: Transcription plays a crucial role in standardizing the Albanian language. By providing a consistent representation of sounds and spoken language, transcription assists in creating a unified system that can be used in dictionaries, teaching materials, and communication.
+4. Preservation: Transcribing the Albanian language aids in the preservation of its linguistic heritage. By documenting the pronunciation and sound patterns, transcription contributes to the study and preservation of the language for future generations.
+Overall, transcription is essential for the Albanian language to ensure accurate pronunciation, support language learning, standardize the language, and preserve its unique linguistic features.</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Albanian  Transcription services. </t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>A court reporter is a person who records all of the spoken dialogue in a courtroom setting or other legal proceeding. Court reporters use a steno machine, which is a type of shorthand machine that records every word spoken by the judge, attorneys, and witnesses. The court reporter then transcribes the recorded proceedings into a written format.
- Court reporters are an important part of the legal system. Their role is to create an accurate record of the proceedings so that there is a written record of what was said in court. This written record can be used if there is an appeal or if the case needs to be reviewed for any reason. Court reporters also often provide real-time captioning, which is a live translation of the proceedings into text. This text is displayed on a monitor in the courtroom so that people who are deaf or hard of hearing can follow along with what is happening in court.
- Court reporters must have a high level of training and skill in order to do their job well. They must be able to type quickly and accurately, and they must have a good understanding of legal terminology. Court reporters must also be able to keep up with the fast pace of legal proceedings.
-There are different types of court reporters, including official court reporters, freelance court reporters, and real-time captioners. Official court reporters are employed by the government or the court system, while freelance court reporters are independent contractors who work for themselves. Real-time captioners provide live captions of the proceedings for people who are deaf or hard of hearing.
- Court reporters play an important role in the legal system and must have a high level of skill and training in order to do their job well. A court reporter is a legal professional who specializes in the creation of verbatim transcriptions of legal proceedings. Court reporters use specialized shorthand machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
-Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
-While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process. There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
-Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
-Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
-Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>As a court reporter, you have a unique skill set that is essential to the legal process. Court reporters use specialized machines or computers to capture every word spoken during a legal proceeding, which can then be used to create an official transcript of the proceedings. In some jurisdictions, court reporters may also be responsible for audio or video recording of court proceedings.
-Compared to other legal professionals, court reporters have a very unique skill set. Court reporters must be able to capture every word spoken during a legal proceeding, often at very fast speeds, and then create an accurate and official transcript of the proceedings. This transcript can be used by attorneys, judges, and other legal professionals to review the proceedings and prepare for future cases.
-While there are other professionals who may create transcriptions of legal proceedings, such as paralegals or legal assistants, court reporters have the unique skill set necessary to create an official and accurate transcript. This transcript can be used in future legal proceedings, and is an essential part of the legal process.
-There are many ways that court reporters can utilize legal transcription services. One way is to hire a legal transcriptionist to create a transcript of proceedings. This can be helpful when trying to create an accurate record of what was said during a court case or hearing.
-Another way that court reporters can utilize legal transcription services is by using them to create transcripts of deposition testimony. This can be useful for creating a record of what was said during a deposition, and can also be used to create a written record of the testimony for later use.
-Legal transcription services can also be used to create transcripts of interviews. This can be useful for creating a written record of an interview, and can also be used to create a transcript of the interview for later use.
-Finally, legal transcription services can be used to create transcripts of witness statements. This can be useful for creating a written record of what a witness said, and can also be used to create a transcript of the statement for later use.
-Utilizing legal transcription services is an essential part of the court reporter's job. Court reporters use transcription services to create accurate and official transcripts of legal proceedings, which can be used in future legal proceedings. Court reporters can also use transcription services to create transcripts of deposition testimony, interviews, and witness statements. Using transcription services is an essential part of the court reporter's job and is essential to the legal process.</t>
+          <t>Are you in need of Albanian transcription services? Look no further than Capital Typing. We are a trusted provider of high-quality transcription services, offering accurate and timely transcriptions for all your Albanian language needs.
+Albanian is primarily spoken in Albania and Kosovo, but it is also spoken by Albanian communities and diasporas in other regions such as North Macedonia, Serbia, Montenegro, Greece, Italy, and Turkey. With over 6 million speakers, the Albanian language is rich and diverse, with two main dialects: Gheg and Tosk.
+At Capital Typing, we understand the importance of accurately transcribing the Albanian language. Our professional transcribers have the expertise and experience to handle different accents and dialects, ensuring that your transcriptions are precise and reliable.
+Our Albanian transcription services are available for various industries and sectors. Whether you need transcriptions for legal, medical, academic, or business purposes, we have you covered. We offer fast turnaround times, ensuring that you receive your transcriptions in a timely manner.
+Choosing Capital Typing for your Albanian transcription needs ensures that you receive transcriptions of the highest quality. We prioritize accuracy and attention to detail, providing transcriptions that reflect the content and context of your audio or video files.
+To utilize our Albanian transcription services, simply follow these steps:
+1. Contact Capital Typing and discuss your Albanian transcription requirements. Our friendly team will provide you with all the necessary information and answer any questions you may have.
+2. Share your audio or video files with us. We offer various file-sharing options, including our secure online platform or email.
+3. Provide any specific instructions or requirements for your transcriptions. This could include formatting preferences, jargon or terminology considerations, or timestamps.
+4. Sit back and relax while our expert transcribers work on your project. We guarantee confidentiality and handle your files with the utmost care.
+5. Once your transcriptions are complete, we will deliver them to you promptly. We encourage you to review the transcriptions for accuracy and quality, and we are happy to make any necessary revisions if needed.
+6. Pay for the services rendered, conveniently and securely using our accepted payment methods.
+By choosing Capital Typing for your Albanian transcription needs, you can rest assured that you are working with a reputable and reliable transcription service provider. Our dedication to accuracy and customer satisfaction sets us apart, ensuring that you receive the best possible Albanian transcriptions.
+Transcription plays a vital role in language learning, accurate pronunciation, standardization, and preservation of the Albanian language. At Capital Typing, we understand the value of these aspects and strive to contribute to the growth and development of the Albanian language through our transcription services.
+Don't let language barriers hinder your progress. Trust Capital Typing for all your Albanian transcription needs and experience the difference of accurate, reliable, and timely transcriptions. Contact us today to get started.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Outsourcing Transcription</t>
+          <t>Amharic</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Working in the medical field, I have seen first-hand how important transcription services are. Medical transcriptionists play a vital role in the healthcare industry by providing accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
-With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task, which is why many healthcare facilities outsource their transcription needs to third-party companies.
-There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
-There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
-Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services.</t>
+          <t>How can I assist you with Amharic?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Exploring the benefits of outsourcing transcription services</t>
+          <t>Amharic language transcription services</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
-1. Time-saving
-Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
-2. Money-saving
-Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
-3. Accuracy and efficiency
-Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
-4. Flexibility
-Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available.</t>
+          <t>There are several transcription services that provide Amharic language transcription services. Some reputable options include:
+1. GMR Transcription: They offer professional transcription services for various languages, including Amharic. Their team of native-speaking transcribers ensures accurate and high-quality transcriptions.
+2. Way With Words: This transcription service provider offers Amharic transcription services for a wide range of industries. They have a team of expert transcribers who are fluent in Amharic.
+3. TransPerfect: They provide Amharic language transcription and translation services. Their team consists of professional linguists who specialize in Amharic transcriptions.
+4. Rev: Rev offers accurate and affordable Amharic transcription services. They have a large network of experienced transcribers who provide quick turnaround times.
+When choosing a transcription service, it's important to consider factors such as pricing, turnaround time, accuracy, and customer reviews to find the best option that suits your specific needs.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Embracing Technological Advances with Outsourcing Transcription</t>
+          <t>Amharic regions where it's spoken</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines.
-There are a number of reasons why transcription services have been outsourced to these countries. Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
- Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
-Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
-Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States.</t>
+          <t>Amharic is the official language of Ethiopia, and it is primarily spoken in the following regions:
+1. Addis Ababa - the capital city of Ethiopia
+2. Tigray Region - located in the northern part of the country
+3. Amhara Region - located in the northwest part of Ethiopia
+4. Oromia Region - located in the central part of the country
+5. Southern Nations, Nationalities, and Peoples' Region (SNNPR) - located in the southern part of Ethiopia
+6. Harari Region - located in the eastern part of the country
+7. Dire Dawa - a chartered city in eastern Ethiopia
+Please note that Amharic is also spoken by diaspora communities in other parts of the world, particularly in North America and Europe, where there are significant Ethiopian populations.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Data Security when Outsourcing Transcription</t>
+          <t>Amharic dialects</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
-2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
-3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
-4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>Amharic is the official language spoken in Ethiopia and it has several dialects. Some of the main dialects of Amharic include:
+1. Central Amharic: This is the standard dialect of Amharic and is commonly spoken in the capital city, Addis Ababa, and surrounding areas. It is the most widely understood dialect of Amharic.
+2. Gojjami: This dialect is spoken in the Gojjam region of Ethiopia, which is located in the northwest part of the country. It has some distinctive linguistic features and vocabulary.
+3. Gonder: Gonder is spoken in the historic city of Gondar and its surrounding areas. It has its own unique pronunciation and vocabulary.
+4. Wollo: This dialect is spoken in the Wollo region, located in the northeastern part of Ethiopia. It also has its own variations in pronunciation and vocabulary.
+5. Tigray: Tigray is spoken in the Tigray region of Ethiopia, which is located in the northern part of the country. Although Tigrinya is a separate language, it has some similarities to Amharic and is sometimes considered a dialect of Amharic.
+These are just a few examples of the dialects of Amharic. There may be other local variations and dialects within different regions of Ethiopia.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>How can someone utilize Amharic language transcription services</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>To utilize Amharic language transcription services, follow these steps:
+1. Identify a reliable Amharic language transcription service provider: Look for reputable transcription companies or service providers that specifically offer Amharic language transcription services. You can search online or ask for recommendations from colleagues or professionals in your industry.
+2. Share your transcription requirements: Contact the selected service provider and provide them with details about your transcription project. Clearly explain the subject matter, audio or video format, length, any specific guidelines, and deadlines.
+3. Provide the source material: Share the audio or video files in Amharic that need to be transcribed. You can either upload the files to the transcription service's online platform or send them through a secure file-sharing system.
+4. Discuss any additional instructions: If you have any specific formatting guidelines, timestamps, or instructions regarding speaker identification, make sure to communicate them clearly to the service provider.
+5. Wait for the transcription completion: The Amharic transcription service provider will assign a professional transcriber who is fluent in Amharic to transcribe the audio or video material. Depending on the length and complexity of the project, it may take some time to complete. Be patient and allow ample time for the transcriptionists to accurately transcribe the content.
+6. Review and provide feedback: Once the transcription is complete, review the transcript for accuracy and completeness. If you notice any errors or missing information, provide feedback to the service provider for necessary corrections or clarifications.
+7. Pay for the service: After you approve the final transcription, you will receive an invoice from the service provider. Make the payment as per the agreed-upon terms and conditions.
+By following these steps, you can effectively utilize Amharic language transcription services for various purposes such as research, business meetings, interviews, legal proceedings, and more.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Countries where Amharic is spoken</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Amharic is primarily spoken in Ethiopia, but it is also spoken by some communities in neighboring countries such as Eritrea. It is the official language of Ethiopia and is widely spoken by the Amhara people, one of the country's largest ethnic groups.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Amharic language</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Amharic language for a few reasons:
+1. Amharic has its own script: Amharic is primarily written in the Ethiopian script known as Ge'ez. However, this script is not widely supported or recognized outside of Ethiopia. Transcription provides a way to represent Amharic using the Latin alphabet, which is more universally understood and accessible.
+2. Accessibility: Transcription allows individuals who are not familiar with the Ethiopian script to understand and read Amharic. This is particularly important when sharing information or communicating with people from different linguistic backgrounds.
+3. Language learning: Transcription is often used in language learning materials to assist learners in understanding the pronunciation and spelling of words in Amharic. It provides a bridge between the spoken and written forms of the language.
+Overall, transcription helps in making Amharic more accessible, understandable, and easier to learn for individuals who are not familiar with the Ethiopian script.</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -1013,62 +1143,8690 @@
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>Use the responses provided to create a 500 word article for outsourcing transcription services.</t>
+          <t>How can I assist you with Amharic? There are several transcription services that provide Amharic language transcription services. Some reputable options include:
+1. GMR Transcription: They offer professional transcription services for various languages, including Amharic. Their team of native-speaking transcribers ensures accurate and high-quality transcriptions.
+2. Way With Words: This transcription service provider offers Amharic transcription services for a wide range of industries. They have a team of expert transcribers who are fluent in Amharic.
+3. TransPerfect: They provide Amharic language transcription and translation services. Their team consists of professional linguists who specialize in Amharic transcriptions.
+4. Rev: Rev offers accurate and affordable Amharic transcription services. They have a large network of experienced transcribers who provide quick turnaround times.
+When choosing a transcription service, it's important to consider factors such as pricing, turnaround time, accuracy, and customer reviews to find the best option that suits your specific needs. Amharic is the official language of Ethiopia, and it is primarily spoken in the following regions:
+1. Addis Ababa - the capital city of Ethiopia
+2. Tigray Region - located in the northern part of the country
+3. Amhara Region - located in the northwest part of Ethiopia
+4. Oromia Region - located in the central part of the country
+5. Southern Nations, Nationalities, and Peoples' Region (SNNPR) - located in the southern part of Ethiopia
+6. Harari Region - located in the eastern part of the country
+7. Dire Dawa - a chartered city in eastern Ethiopia
+Please note that Amharic is also spoken by diaspora communities in other parts of the world, particularly in North America and Europe, where there are significant Ethiopian populations. Amharic is the official language spoken in Ethiopia and it has several dialects. Some of the main dialects of Amharic include:
+1. Central Amharic: This is the standard dialect of Amharic and is commonly spoken in the capital city, Addis Ababa, and surrounding areas. It is the most widely understood dialect of Amharic.
+2. Gojjami: This dialect is spoken in the Gojjam region of Ethiopia, which is located in the northwest part of the country. It has some distinctive linguistic features and vocabulary.
+3. Gonder: Gonder is spoken in the historic city of Gondar and its surrounding areas. It has its own unique pronunciation and vocabulary.
+4. Wollo: This dialect is spoken in the Wollo region, located in the northeastern part of Ethiopia. It also has its own variations in pronunciation and vocabulary.
+5. Tigray: Tigray is spoken in the Tigray region of Ethiopia, which is located in the northern part of the country. Although Tigrinya is a separate language, it has some similarities to Amharic and is sometimes considered a dialect of Amharic.
+These are just a few examples of the dialects of Amharic. There may be other local variations and dialects within different regions of Ethiopia. To utilize Amharic language transcription services, follow these steps:
+1. Identify a reliable Amharic language transcription service provider: Look for reputable transcription companies or service providers that specifically offer Amharic language transcription services. You can search online or ask for recommendations from colleagues or professionals in your industry.
+2. Share your transcription requirements: Contact the selected service provider and provide them with details about your transcription project. Clearly explain the subject matter, audio or video format, length, any specific guidelines, and deadlines.
+3. Provide the source material: Share the audio or video files in Amharic that need to be transcribed. You can either upload the files to the transcription service's online platform or send them through a secure file-sharing system.
+4. Discuss any additional instructions: If you have any specific formatting guidelines, timestamps, or instructions regarding speaker identification, make sure to communicate them clearly to the service provider.
+5. Wait for the transcription completion: The Amharic transcription service provider will assign a professional transcriber who is fluent in Amharic to transcribe the audio or video material. Depending on the length and complexity of the project, it may take some time to complete. Be patient and allow ample time for the transcriptionists to accurately transcribe the content.
+6. Review and provide feedback: Once the transcription is complete, review the transcript for accuracy and completeness. If you notice any errors or missing information, provide feedback to the service provider for necessary corrections or clarifications.
+7. Pay for the service: After you approve the final transcription, you will receive an invoice from the service provider. Make the payment as per the agreed-upon terms and conditions.
+By following these steps, you can effectively utilize Amharic language transcription services for various purposes such as research, business meetings, interviews, legal proceedings, and more. Amharic is primarily spoken in Ethiopia, but it is also spoken by some communities in neighboring countries such as Eritrea. It is the official language of Ethiopia and is widely spoken by the Amhara people, one of the country's largest ethnic groups. Transcription is needed for the Amharic language for a few reasons:
+1. Amharic has its own script: Amharic is primarily written in the Ethiopian script known as Ge'ez. However, this script is not widely supported or recognized outside of Ethiopia. Transcription provides a way to represent Amharic using the Latin alphabet, which is more universally understood and accessible.
+2. Accessibility: Transcription allows individuals who are not familiar with the Ethiopian script to understand and read Amharic. This is particularly important when sharing information or communicating with people from different linguistic backgrounds.
+3. Language learning: Transcription is often used in language learning materials to assist learners in understanding the pronunciation and spelling of words in Amharic. It provides a bridge between the spoken and written forms of the language.
+Overall, transcription helps in making Amharic more accessible, understandable, and easier to learn for individuals who are not familiar with the Ethiopian script.</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Amharic  Transcription services. </t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>Working in the medical field, I have seen first-hand how important transcription services are. Medical transcriptionists play a vital role in the healthcare industry by providing accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
-With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task, which is why many healthcare facilities outsource their transcription needs to third-party companies.
-There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
-There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
-Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services. Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
-1. Time-saving
-Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
-2. Money-saving
-Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
-3. Accuracy and efficiency
-Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
-4. Flexibility
-Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available. Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines.
-There are a number of reasons why transcription services have been outsourced to these countries. Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
- Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
-Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
-Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States. 1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
-2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
-3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
-4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>The transcription services have been playing a very important role in the medical industry. They have been providing the accurate and up-to-date documentation of patient histories, diagnoses, treatments, and other important medical information.
-With the ever-changing landscape of healthcare, transcriptionists must be able to keep up with new terminology, treatments, and medications. This can be a difficult and time-consuming task. That is why a lot of healthcare facilities outsource their transcription needs to third-party companies.
-There are several advantages to outsourcing transcription services. First, it allows facilities to focus on their core competencies and leave the transcription work to companies that specialize in that area. Second, it can be a more cost-effective solution than maintaining an in-house transcription team. And third, it allows facilities to get access to the latest transcription technology and tools.
-There are some drawbacks to outsourcing transcription services, as well. First, there can be a loss of control over the quality of the transcription work. Second, there is the potential for security breaches if the third-party company does not have adequate security measures in place. And third, outsourcing can lead to a loss of jobs for in-house transcriptionists.
-Overall, I believe that the advantages of outsourcing transcription services outweigh the disadvantages. When done correctly, outsourcing can be a cost-effective way to get access to high-quality transcription services. Outsourcing transcription services can provide a number of benefits for businesses, including saving time and money, improving accuracy and efficiency, and increasing flexibility.
-1. Time-saving
-Outsourcing transcription services can save businesses a considerable amount of time. In-house staff may need to take time off work to attend meetings or events, which can then take away from their productivity. By outsourcing transcription services, businesses can have the transcriptions of these meetings and events completed quickly and efficiently, without impacting the productivity of their in-house staff.
-2. Money-saving
-Outsourcing transcription services can also help businesses save money. In-house staff may need to be trained in transcription, which can be costly. Furthermore, businesses may need to purchase transcription software and hardware, which can also add to their expenses. By outsourcing transcription services, businesses can avoid these costs and save money.
-3. Accuracy and efficiency
-Outsourcing transcription services can also improve the accuracy and efficiency of transcriptions. In-house staff may make mistakes when transcribing, which can be costly and time-consuming to fix. By outsourcing transcription services, businesses can be sure that the transcriptions are accurate and efficient.
-4. Flexibility
-Finally, outsourcing transcription services can increase the flexibility of businesses. In-house staff may be unable to transcription audio or video files if they are not available at the same time. By outsourcing transcription services, businesses can have the transcriptions completed whenever they need them, without having to wait for in-house staff to be available.
-Technological advances have led to the outsourcing of transcription services to countries like India and the Philippines. There are a number of reasons why transcription services have been outsourced to these countries.
-Firstly, the cost of labor is much lower in these countries than it is in developed countries like the United States. This means that companies can save a lot of money by outsourcing their transcription services to countries like India and the Philippines.
-Secondly, the quality of transcription services in these countries has improved dramatically in recent years. This is due to the fact that more and more transcription companies in these countries are investing in the latest transcription technology. This has resulted in a marked improvement in the quality of transcription services that are being offered by these companies.
-Lastly, transcription companies in these countries are also able to offer a wide range of services. This is due to the fact that they have a large pool of transcriptionists who are able to offer a variety of services. This is something that is not possible in developed countries like the United States.
-Overall, there are a number of reasons why transcription services have been outsourced to countries like India and the Philippines. These countries offer a number of advantages over developed countries like the United States.
-1. When choosing to outsource transcription services, it is important to consider the data security of the chosen provider. Make sure to look for a provider that has a strong security infrastructure in place to protect your data.
-2. Find out what security measures the provider has in place, such as encryption, firewalls, and access control. Make sure the provider has a plan in place to protect your data in the event of a breach.
-3. Choose a provider that has experience handling sensitive data. Ask about their policies and procedures for ensuring the security of your data.
-4. Be sure to sign a contract with the provider that outlines their obligations to keep your data secure. This will help hold the provider accountable in the event of a breach.</t>
+          <t>Are you in need of Amharic transcription services? There are several reputable providers that can assist you with your transcription needs. Capital Typing is a leading transcription service provider that offers accurate and professional Amharic transcription services. With their team of native-speaking transcribers, you can expect high-quality transcriptions that capture the nuances of the Amharic language.
+Amharic is the official language of Ethiopia and is primarily spoken in various regions such as Addis Ababa, Tigray, Amhara, Oromia, SNNPR, Harari, and Dire Dawa. It is also spoken by Ethiopian diaspora communities in other parts of the world. With its unique script, Ge'ez, Amharic can pose a challenge for those who are not familiar with it. That's where Amharic transcription services come in to make the language more accessible and understandable.
+By choosing Capital Typing for your Amharic transcription needs, you can expect a seamless process. Here's how it works:
+1. Contact Capital Typing: Reach out to Capital Typing and provide them with details about your transcription project. Be sure to mention that you require Amharic transcription services. They will guide you through the process and answer any questions you may have.
+2. Share your transcription requirements: Provide Capital Typing with all the necessary information about your project. This includes the subject matter, audio or video format, length, specific guidelines, and deadlines. The more details you provide, the better they can meet your transcription needs.
+3. Submit your files: You can upload your Amharic audio or video files to Capital Typing's secure online platform. Alternatively, you can use a secure file-sharing system to send them the files. Rest assured that your files will be treated with the utmost confidentiality and security.
+4. Discuss any additional instructions: If you have any specific instructions regarding formatting, timestamps, or speaker identification, communicate them clearly to Capital Typing. They will ensure that your transcription is customized to meet your requirements.
+5. Wait for the transcription completion: Capital Typing will assign a skilled transcriber who is fluent in Amharic to transcribe your audio or video material. The length and complexity of your project will determine the turnaround time. However, you can be assured that Capital Typing values accuracy and quality and will deliver your transcription in a reasonable timeframe.
+6. Review and provide feedback: Once you receive your Amharic transcription, review it for accuracy and completeness. If you notice any errors or missing information, provide feedback to Capital Typing for any necessary revisions. They are committed to ensuring your satisfaction.
+7. Payment: After you approve the final transcript, Capital Typing will provide you with an invoice for payment. You can make the payment as per the agreed-upon terms and conditions.
+With Capital Typing's Amharic transcription services, you can have peace of mind knowing that your transcription needs will be handled professionally and accurately. Whether you require transcription for research, business meetings, interviews, or legal proceedings, Capital Typing has the expertise to deliver high-quality Amharic transcriptions.
+Don't let the unique script of Amharic hinder your understanding or accessibility to the language. Choose Capital Typing for your Amharic transcription needs and experience reliable and efficient services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arabic</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>How can I assist you today with the Arabic language?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arabic language transcription services</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Arabic language transcription services involve converting spoken Arabic audio or video material into written Arabic text. These services are typically offered by professional transcriptionists who have expertise in the Arabic language. They meticulously listen to the audio or watch the video and transcribe the content in a clear and accurate manner. Arabic language transcription services can be useful in a variety of contexts, such as translating interviews, lectures, meetings, or any other audio or video content in Arabic.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Arabic regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arabic is predominantly spoken in the Middle East and North Africa. It is the official language in 26 countries, including:
+1. Saudi Arabia
+2. Egypt
+3. Morocco
+4. Algeria
+5. Sudan
+6. Iraq
+7. Yemen
+8. Syria
+9. Tunisia
+10. Jordan
+It is also widely spoken in other countries like Lebanon, Kuwait, United Arab Emirates, Palestine, Oman, Qatar, Bahrain, and Libya. Additionally, Arabic is also commonly spoken by Arab diaspora communities around the world.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Arabic dialects</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Arabic dialects refer to the various regional varieties of the Arabic language spoken across the Middle East and North Africa. These dialects can differ significantly in terms of vocabulary, pronunciation, grammar, and even some basic phrases. While Modern Standard Arabic (MSA) is the written and formal spoken language used in media, literature, and formal settings, Arabic dialects are commonly spoken in everyday conversations.
+Some well-known Arabic dialects include Egyptian Arabic, which is one of the most widely understood and influential dialects due to Egypt's media industry; Levantine Arabic, spoken in countries such as Lebanon, Syria, Jordan, and Palestine; Gulf Arabic, spoken in the Gulf Cooperation Council countries like Saudi Arabia, UAE, Qatar, and Kuwait; and Maghrebi Arabic, spoken in Morocco, Algeria, Tunisia, and parts of Libya.
+It's important to note that while MSA serves as a unifying language for Arab speakers and allows for cross-regional communication, understanding and speaking different dialects can sometimes present challenges due to variations in vocabulary, grammar, and pronunciation.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>How can someone utilize Arabic language transcription services</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Arabic language transcription services can be utilized in various ways, such as:
+1. Transcribing audio or video files: If you have recorded interviews, lectures, meetings, or any other audio or video content in Arabic, transcription services can convert them into written form accurately.
+2. Creating subtitles or captions: Transcription services can be used to create Arabic subtitles or captions for videos, making them accessible to a wider audience.
+3. Content translation: Transcription services can also translate Arabic audio or video content into different languages, allowing for multilingual distribution and engagement.
+4. Translating documents: If you have Arabic documents that need to be translated into another language, transcription services can transcribe the text first and then translate it accurately.
+5. Research and analysis: Transcribing interviews or focus groups in Arabic can help researchers analyze and draw insights from the data more effectively.
+6. Accessibility for the hearing impaired: Transcription services can provide written transcripts of Arabic audio content, making it accessible to individuals with hearing impairments.
+To utilize Arabic language transcription services, you can search for professional transcription service providers both online and offline. Look for experienced providers with native Arabic speakers to ensure accuracy and quality. You may need to upload your audio or video files to their platform, specify the required services, and provide any specific instructions or formatting requirements. The service provider will transcribe, translate, or create subtitles accordingly and deliver the final output to you.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Countries where Arabic is spoken</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Arabic is spoken in the following countries:
+1. Algeria
+2. Bahrain
+3. Chad
+4. Comoros
+5. Djibouti
+6. Egypt
+7. Eritrea
+8. Iraq
+9. Jordan
+10. Kuwait
+11. Lebanon
+12. Libya
+13. Mauritania
+14. Morocco
+15. Oman
+16. Palestine
+17. Qatar
+18. Saudi Arabia
+19. Somalia
+20. Sudan
+21. Syria
+22. Tunisia
+23. United Arab Emirates
+24. Yemen
+Please note that Arabic dialects can vary between these countries.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Arabic language</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Arabic language for several reasons:
+1. Standardization: Arabic is written using a script that has complex rules for pronunciation and diacritics. Transcription helps to simplify and standardize the language by representing spoken words in a more accessible and consistent way.
+2. Learning and teaching: Transcription allows non-native speakers to learn Arabic pronunciation and improve their spoken language skills. It helps beginners to understand the sounds of Arabic words and assists teachers in presenting lessons more effectively.
+3. Language research: Transcription is essential for linguistic research and analysis. It enables researchers to study phonetics and phonology, compare dialects, and investigate language change over time.
+4. Accessibility: Transcription helps make Arabic content accessible to those with visual impairments or have difficulty reading the Arabic script. By providing an alternative written form, it allows for a wider audience to engage with Arabic texts.
+5. Technology and digital applications: Transcription is crucial for developing Arabic language technologies, including automatic speech recognition, text-to-speech synthesis, and machine translation. It facilitates the development of algorithms and aids in the processing and analysis of Arabic textual data.
+Overall, transcription plays a significant role in making the Arabic language more approachable, understandable, and adaptable to various contexts and needs.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>How can I assist you today with the Arabic language? Arabic language transcription services involve converting spoken Arabic audio or video material into written Arabic text. These services are typically offered by professional transcriptionists who have expertise in the Arabic language. They meticulously listen to the audio or watch the video and transcribe the content in a clear and accurate manner. Arabic language transcription services can be useful in a variety of contexts, such as translating interviews, lectures, meetings, or any other audio or video content in Arabic. Arabic is predominantly spoken in the Middle East and North Africa. It is the official language in 26 countries, including:
+1. Saudi Arabia
+2. Egypt
+3. Morocco
+4. Algeria
+5. Sudan
+6. Iraq
+7. Yemen
+8. Syria
+9. Tunisia
+10. Jordan
+It is also widely spoken in other countries like Lebanon, Kuwait, United Arab Emirates, Palestine, Oman, Qatar, Bahrain, and Libya. Additionally, Arabic is also commonly spoken by Arab diaspora communities around the world. Arabic dialects refer to the various regional varieties of the Arabic language spoken across the Middle East and North Africa. These dialects can differ significantly in terms of vocabulary, pronunciation, grammar, and even some basic phrases. While Modern Standard Arabic (MSA) is the written and formal spoken language used in media, literature, and formal settings, Arabic dialects are commonly spoken in everyday conversations.
+Some well-known Arabic dialects include Egyptian Arabic, which is one of the most widely understood and influential dialects due to Egypt's media industry; Levantine Arabic, spoken in countries such as Lebanon, Syria, Jordan, and Palestine; Gulf Arabic, spoken in the Gulf Cooperation Council countries like Saudi Arabia, UAE, Qatar, and Kuwait; and Maghrebi Arabic, spoken in Morocco, Algeria, Tunisia, and parts of Libya.
+It's important to note that while MSA serves as a unifying language for Arab speakers and allows for cross-regional communication, understanding and speaking different dialects can sometimes present challenges due to variations in vocabulary, grammar, and pronunciation. Arabic language transcription services can be utilized in various ways, such as:
+1. Transcribing audio or video files: If you have recorded interviews, lectures, meetings, or any other audio or video content in Arabic, transcription services can convert them into written form accurately.
+2. Creating subtitles or captions: Transcription services can be used to create Arabic subtitles or captions for videos, making them accessible to a wider audience.
+3. Content translation: Transcription services can also translate Arabic audio or video content into different languages, allowing for multilingual distribution and engagement.
+4. Translating documents: If you have Arabic documents that need to be translated into another language, transcription services can transcribe the text first and then translate it accurately.
+5. Research and analysis: Transcribing interviews or focus groups in Arabic can help researchers analyze and draw insights from the data more effectively.
+6. Accessibility for the hearing impaired: Transcription services can provide written transcripts of Arabic audio content, making it accessible to individuals with hearing impairments.
+To utilize Arabic language transcription services, you can search for professional transcription service providers both online and offline. Look for experienced providers with native Arabic speakers to ensure accuracy and quality. You may need to upload your audio or video files to their platform, specify the required services, and provide any specific instructions or formatting requirements. The service provider will transcribe, translate, or create subtitles accordingly and deliver the final output to you. Arabic is spoken in the following countries:
+1. Algeria
+2. Bahrain
+3. Chad
+4. Comoros
+5. Djibouti
+6. Egypt
+7. Eritrea
+8. Iraq
+9. Jordan
+10. Kuwait
+11. Lebanon
+12. Libya
+13. Mauritania
+14. Morocco
+15. Oman
+16. Palestine
+17. Qatar
+18. Saudi Arabia
+19. Somalia
+20. Sudan
+21. Syria
+22. Tunisia
+23. United Arab Emirates
+24. Yemen
+Please note that Arabic dialects can vary between these countries. Transcription is needed for the Arabic language for several reasons:
+1. Standardization: Arabic is written using a script that has complex rules for pronunciation and diacritics. Transcription helps to simplify and standardize the language by representing spoken words in a more accessible and consistent way.
+2. Learning and teaching: Transcription allows non-native speakers to learn Arabic pronunciation and improve their spoken language skills. It helps beginners to understand the sounds of Arabic words and assists teachers in presenting lessons more effectively.
+3. Language research: Transcription is essential for linguistic research and analysis. It enables researchers to study phonetics and phonology, compare dialects, and investigate language change over time.
+4. Accessibility: Transcription helps make Arabic content accessible to those with visual impairments or have difficulty reading the Arabic script. By providing an alternative written form, it allows for a wider audience to engage with Arabic texts.
+5. Technology and digital applications: Transcription is crucial for developing Arabic language technologies, including automatic speech recognition, text-to-speech synthesis, and machine translation. It facilitates the development of algorithms and aids in the processing and analysis of Arabic textual data.
+Overall, transcription plays a significant role in making the Arabic language more approachable, understandable, and adaptable to various contexts and needs.</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Arabic  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>Arabic transcription services offered by Capital Typing are a valuable resource for converting spoken Arabic audio or video material into written Arabic text. Our team of professional transcriptionists specializes in the Arabic language and ensures that the content is transcribed accurately and clearly. This service can be beneficial in various contexts such as translating interviews, lectures, meetings, or any other Arabic audio or video content.
+Arabic is a widely spoken language in the Middle East and North Africa, with 26 countries recognizing it as an official language. These countries include Saudi Arabia, Egypt, Morocco, Algeria, Sudan, Iraq, Yemen, Syria, Tunisia, and Jordan. Additionally, Arabic is also commonly spoken in countries like Lebanon, Kuwait, United Arab Emirates, Palestine, Oman, Qatar, Bahrain, and Libya. Arabic dialects, which refer to regional variations of the Arabic language, can differ significantly in vocabulary, pronunciation, grammar, and even basic phrases.
+While Modern Standard Arabic (MSA) serves as the written and formal spoken language, Arabic dialects are commonly used in everyday conversations. Some well-known Arabic dialects include Egyptian Arabic, Levantine Arabic, Gulf Arabic, and Maghrebi Arabic. Understanding and speaking different Arabic dialects can present challenges due to variations in vocabulary, grammar, and pronunciation.
+Capital Typing's Arabic transcription services can be utilized in various ways. Firstly, our transcriptionists can accurately transcribe audio or video files, such as interviews, lectures, meetings, or any other Arabic content. This provides a written record of the spoken material. We can also create Arabic subtitles or captions for videos, making them accessible to a wider audience.
+Our transcription services can also translate Arabic audio or video content into different languages, allowing for multilingual distribution and engagement. We can assist with the translation of Arabic documents by transcribing the text first and then providing an accurate translation. Researchers can benefit from Arabic transcription services by transcribing interviews or focus groups, which aids in data analysis and insights.
+Additionally, our transcription services provide accessibility for individuals with hearing impairments by providing written transcripts of Arabic audio content. This makes the content accessible to a broader audience.
+To utilize Capital Typing's Arabic transcription services, you can search for our professional transcription service providers online or offline. Our experienced providers, including native Arabic speakers, ensure accuracy and quality. Simply upload your audio or video files to our platform, specify the required services, and provide any specific instructions or formatting requirements. We will transcribe, translate, or create subtitles accordingly and deliver the final output to you.
+Arabic transcription services are essential for standardizing the language, enabling learning and teaching of Arabic pronunciation, assisting in language research, improving accessibility, and advancing technology and digital applications. Capital Typing's Arabic transcription services make the Arabic language more approachable, understandable, and adaptable to various contexts and needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aramaic</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aramaic is an ancient Semitic language that originated in the Near East and was spoken by various civilizations, including the Assyrians, Babylonians, and Persians. It was the language spoken by Jesus Christ and was widely used as a lingua franca in the region during the time of the New Testament. Aramaic has several dialects, including Eastern Aramaic, Western Aramaic, and Jewish Babylonian Aramaic. Today, it is still spoken by small communities in different parts of the world, primarily among Assyrian and Chaldean Christians.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Aramaic language transcription services</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>There are a few transcription services that offer Aramaic language transcription. These services have professional transcriptionists who are familiar with Aramaic and can accurately transcribe audio or video files in this language. Some popular transcription services that offer Aramaic transcription include Rev, GoTranscript, and TranscribeMe.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aramaic regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aramaic is a language that historically originated in the ancient region of Mesopotamia, which is modern-day Iraq, Syria, and parts of Turkey. Today, it is primarily spoken in small communities scattered throughout these regions. Some specific areas where Aramaic is still spoken include:
+1. Iraq: The language is spoken by small Assyrian and Chaldean Christian communities in northern Iraq, in and around the cities of Kirkuk, Erbil, and Dohuk.
+2. Syria: Aramaic is spoken by the Assyrian and Chaldean Christian minorities in northeastern Syria, particularly in the city of Qamishli and its surrounding areas.
+3. Turkey: In southeastern Turkey, mainly in the Mardin and Batman provinces, there are small pockets of Aramaic speakers among the Assyrian community.
+It is important to note that the number of Aramaic speakers has significantly declined over the centuries due to various historical factors and modern-day conflicts in the region.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Aramaic dialects</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aramaic is an ancient Semitic language that has various dialects within it. Some of the major Aramaic dialects include:
+1. Eastern Aramaic: This group includes dialects such as Assyrian Neo-Aramaic, Chaldean Neo-Aramaic, and Surayt. These dialects are primarily spoken in parts of Iran, Iraq, Syria, and Turkey.
+2. Western Aramaic: This group includes dialects such as Western Neo-Aramaic and Maalula. These dialects are primarily spoken in parts of Lebanon and Syria.
+3. Central Aramaic: This group includes dialects such as Turoyo and Mlahsô. These dialects are primarily spoken by Assyrian communities in Turkey, Syria, and Lebanon.
+4. Classical Aramaic: This is the original form of Aramaic and is no longer spoken as a native language. However, it is still used in certain liturgical and scholarly contexts.
+Each of these dialects has its own unique characteristics, vocabulary, and pronunciation. Over time, with the influence of other languages and cultural changes, these dialects have evolved separately from one another.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>How can someone utilize Aramaic language transcription services</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Someone can utilize Aramaic language transcription services in the following ways:
+1. Preserve Cultural Heritage: Aramaic is an ancient Semitic language with rich historical and cultural significance. Utilizing transcription services can help preserve and document Aramaic texts, scripts, and recordings for future generations.
+2. Translation and Interpretation: Aramaic is still used by some communities for religious ceremonies or in certain regions. Transcribing Aramaic texts can help with translations and interpretations, allowing people to understand and appreciate the language.
+3. Academic Research: Aramaic is an important language in the fields of linguistics, archaeology, theology, and ancient history. Transcription services can help researchers transcribe and analyze Aramaic texts or linguistic data for academic studies and research projects.
+4. Language Learning: Individuals interested in learning Aramaic can benefit from transcription services. Transcriptions can provide them with written resources to study and understand the language, including pronunciation guides and translations.
+5. Accessibility: People with hearing impairments or language barriers can benefit from Aramaic transcription services. Transcribing Aramaic audio or video content can provide accessibility to a wider audience, facilitating communication and understanding.
+To utilize Aramaic language transcription services, one can search for professional transcription service providers who have expertise in Aramaic language transcription. It is important to choose reliable services that ensure accuracy, confidentiality, and adherence to specific client requirements.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Countries where Aramaic is spoken</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Aramaic is currently spoken in the following countries:
+1. Iraq: Aramaic is spoken by a small number of people, mainly in the northern regions of the country, particularly in the Nineveh Plains.
+2. Syria: There are still a few speakers of Aramaic in different regions of Syria, though the number of speakers has significantly declined over the years.
+3. Turkey: In southeastern Turkey, particularly in the Mardin and Şırnak provinces, there are some Aramaic-speaking communities.
+4. Iran: In the western provinces of Iran, such as West Azerbaijan and Kurdistan, there are a few Aramaic speakers among the Assyrian and Chaldean communities.
+5. Lebanon: Although the number of native speakers is dwindling, there are still some Aramaic speakers among the Assyrian community in Lebanon.
+Please note that Aramaic is considered an endangered language, and the number of speakers is declining in all of these countries.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Aramaic language</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Aramaic language, as well as for any other language, to represent spoken words in a written form. Aramaic, being an ancient Semitic language, has different dialects and variations that have evolved over time. By transcribing Aramaic into a standardized written form, it allows for consistency and helps to preserve the language for future generations. Transcription also provides a way to study and analyze the language, especially in academic and research contexts, as well as facilitate communication and understanding among Aramaic speakers and learners.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Aramaic is an ancient Semitic language that originated in the Near East and was spoken by various civilizations, including the Assyrians, Babylonians, and Persians. It was the language spoken by Jesus Christ and was widely used as a lingua franca in the region during the time of the New Testament. Aramaic has several dialects, including Eastern Aramaic, Western Aramaic, and Jewish Babylonian Aramaic. Today, it is still spoken by small communities in different parts of the world, primarily among Assyrian and Chaldean Christians. There are a few transcription services that offer Aramaic language transcription. These services have professional transcriptionists who are familiar with Aramaic and can accurately transcribe audio or video files in this language. Some popular transcription services that offer Aramaic transcription include Rev, GoTranscript, and TranscribeMe. Aramaic is a language that historically originated in the ancient region of Mesopotamia, which is modern-day Iraq, Syria, and parts of Turkey. Today, it is primarily spoken in small communities scattered throughout these regions. Some specific areas where Aramaic is still spoken include:
+1. Iraq: The language is spoken by small Assyrian and Chaldean Christian communities in northern Iraq, in and around the cities of Kirkuk, Erbil, and Dohuk.
+2. Syria: Aramaic is spoken by the Assyrian and Chaldean Christian minorities in northeastern Syria, particularly in the city of Qamishli and its surrounding areas.
+3. Turkey: In southeastern Turkey, mainly in the Mardin and Batman provinces, there are small pockets of Aramaic speakers among the Assyrian community.
+It is important to note that the number of Aramaic speakers has significantly declined over the centuries due to various historical factors and modern-day conflicts in the region. Aramaic is an ancient Semitic language that has various dialects within it. Some of the major Aramaic dialects include:
+1. Eastern Aramaic: This group includes dialects such as Assyrian Neo-Aramaic, Chaldean Neo-Aramaic, and Surayt. These dialects are primarily spoken in parts of Iran, Iraq, Syria, and Turkey.
+2. Western Aramaic: This group includes dialects such as Western Neo-Aramaic and Maalula. These dialects are primarily spoken in parts of Lebanon and Syria.
+3. Central Aramaic: This group includes dialects such as Turoyo and Mlahsô. These dialects are primarily spoken by Assyrian communities in Turkey, Syria, and Lebanon.
+4. Classical Aramaic: This is the original form of Aramaic and is no longer spoken as a native language. However, it is still used in certain liturgical and scholarly contexts.
+Each of these dialects has its own unique characteristics, vocabulary, and pronunciation. Over time, with the influence of other languages and cultural changes, these dialects have evolved separately from one another. Someone can utilize Aramaic language transcription services in the following ways:
+1. Preserve Cultural Heritage: Aramaic is an ancient Semitic language with rich historical and cultural significance. Utilizing transcription services can help preserve and document Aramaic texts, scripts, and recordings for future generations.
+2. Translation and Interpretation: Aramaic is still used by some communities for religious ceremonies or in certain regions. Transcribing Aramaic texts can help with translations and interpretations, allowing people to understand and appreciate the language.
+3. Academic Research: Aramaic is an important language in the fields of linguistics, archaeology, theology, and ancient history. Transcription services can help researchers transcribe and analyze Aramaic texts or linguistic data for academic studies and research projects.
+4. Language Learning: Individuals interested in learning Aramaic can benefit from transcription services. Transcriptions can provide them with written resources to study and understand the language, including pronunciation guides and translations.
+5. Accessibility: People with hearing impairments or language barriers can benefit from Aramaic transcription services. Transcribing Aramaic audio or video content can provide accessibility to a wider audience, facilitating communication and understanding.
+To utilize Aramaic language transcription services, one can search for professional transcription service providers who have expertise in Aramaic language transcription. It is important to choose reliable services that ensure accuracy, confidentiality, and adherence to specific client requirements. Aramaic is currently spoken in the following countries:
+1. Iraq: Aramaic is spoken by a small number of people, mainly in the northern regions of the country, particularly in the Nineveh Plains.
+2. Syria: There are still a few speakers of Aramaic in different regions of Syria, though the number of speakers has significantly declined over the years.
+3. Turkey: In southeastern Turkey, particularly in the Mardin and Şırnak provinces, there are some Aramaic-speaking communities.
+4. Iran: In the western provinces of Iran, such as West Azerbaijan and Kurdistan, there are a few Aramaic speakers among the Assyrian and Chaldean communities.
+5. Lebanon: Although the number of native speakers is dwindling, there are still some Aramaic speakers among the Assyrian community in Lebanon.
+Please note that Aramaic is considered an endangered language, and the number of speakers is declining in all of these countries. Transcription is needed for the Aramaic language, as well as for any other language, to represent spoken words in a written form. Aramaic, being an ancient Semitic language, has different dialects and variations that have evolved over time. By transcribing Aramaic into a standardized written form, it allows for consistency and helps to preserve the language for future generations. Transcription also provides a way to study and analyze the language, especially in academic and research contexts, as well as facilitate communication and understanding among Aramaic speakers and learners.</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Aramaic  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>Aramaic Transcription Services: Preserving an Ancient Language
+Aramaic is an ancient Semitic language that originated in the Near East and was spoken by various civilizations, including the Assyrians, Babylonians, and Persians. It holds immense historical and cultural significance, being the language spoken by Jesus Christ and widely used during the time of the New Testament. Despite its decline in usage over time, Aramaic is still spoken by small communities primarily among Assyrian and Chaldean Christians in different parts of the world.
+To cater to the needs of Aramaic speakers, transcription services have emerged, offering accurate transcription of audio or video files in this ancient language. These services employ professional transcriptionists who are well-versed in Aramaic and understand its various dialects. Some popular transcription service providers that offer Aramaic transcription include Rev, GoTranscript, and TranscribeMe.
+Aramaic is currently spoken in countries such as Iraq, Syria, Turkey, Iran, and Lebanon, although the number of speakers is declining. These communities speak different dialects of Aramaic, including Eastern Aramaic, Western Aramaic, Jewish Babylonian Aramaic, and Classical Aramaic. Each dialect has its unique characteristics, vocabulary, and pronunciation.
+Utilizing Aramaic transcription services offers several benefits. Firstly, it helps preserve the rich cultural heritage of Aramaic by documenting texts, scripts, and recordings for future generations. It also aids in translation and interpretation, enabling a better understanding of the language for religious ceremonies or in specific regions where Aramaic is still used. For academics and researchers, transcription services assist in analyzing and studying Aramaic texts or linguistic data for research purposes in fields such as linguistics, archaeology, theology, and ancient history.
+Additionally, transcription services are valuable for individuals interested in learning Aramaic. Transcribed resources provide written materials, including pronunciation guides and translations, for language learners to study and comprehend the language. Moreover, transcription makes Aramaic audio or video content accessible to individuals with hearing impairments or language barriers. It facilitates better communication and understanding, allowing a wider audience to engage with the language.
+When seeking Aramaic transcription services, it's crucial to choose reliable providers that guarantee accuracy, confidentiality, and adherence to specific client requirements. The providers mentioned earlier, Rev, GoTranscript, and TranscribeMe, are reputable options that deliver professional Aramaic transcription services.
+By utilizing Aramaic transcription services, Aramaic speakers and enthusiasts contribute to the preservation and revitalization of this ancient language. They ensure its documentation, facilitate research, aid language learners, and provide accessibility to a wider audience. With the decline in the number of Aramaic speakers over time, transcription services play a vital role in keeping this language alive and passing it on to future generations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Armenian</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>How can I assist you with Armenian? Are you looking for information about the Armenian language or culture?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Armenian language transcription services</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>I can help you with that. There are several transcription services available online that support Armenian language transcriptions. Here are a few options:
+1. Rev: Rev is a popular transcription service that offers Armenian language transcriptions. You can submit your audio or video files, and their team of professional transcriptionists will transcribe them accurately.
+2. GoTranscript: GoTranscript is another reliable transcription service that provides Armenian transcription services. They have a team of native speakers who can transcribe your Armenian audio or video files.
+3. Scribie: Scribie offers accurate Armenian language transcriptions. They have a team of professional transcribers who specialize in Armenian language transcription.
+4. GMR Transcription: GMR Transcription is a well-known transcription service that supports Armenian language transcriptions. They have experienced transcribers who can handle various topics and dialects.
+Remember to check the specific services offered by each provider as well as their rates and turnaround times to find the best option that suits your needs.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Armenian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Armenian is the official language of Armenia and is spoken throughout the country. Additionally, it is also spoken by significant Armenian communities in neighboring countries such as Georgia, Iran, Russia, and the United States.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Armenian dialects</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Armenian is an Indo-European language that has two main dialects: Eastern Armenian and Western Armenian. Eastern Armenian is the more widely spoken dialect and is the official language of Armenia. It is also spoken by Armenian communities in Iran and the former Soviet Union.
+Western Armenian, on the other hand, is primarily spoken by the Armenian diaspora worldwide, including communities in Turkey, Europe, and the Americas. Western Armenian has been influenced by various surrounding languages such as Turkish, Arabic, and French.
+In addition to these two main dialects, there are also several regional dialects within Armenian. These dialects can differ from one another in terms of pronunciation, vocabulary, and grammar. Some notable regional dialects include Karin, Sasun, and Cilician Armenian.
+Overall, while Eastern Armenian and Western Armenian are the most commonly recognized dialects, the Armenian language exhibits a rich variety of dialects shaped by different historical, cultural, and geographic factors.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>How can someone utilize Armenian language transcription services</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>To utilize Armenian language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Search for service providers that offer Armenian language transcription services. Look for companies with a good reputation, positive customer reviews, and experienced translators/transcribers.
+2. Submit your audio/video files: Provide the transcription service provider with the audio or video files you need to be transcribed. Make sure the files are in clear and good quality to ensure accuracy in the transcription process.
+3. Specify your requirements: Clearly communicate your requirements to the transcription service provider. Provide details such as desired turnaround time, special formatting needs, timestamps, or any other instructions you have.
+4. Get a cost estimate: Request a cost estimate from the service provider. Transcription rates may vary based on factors such as the length of audio/video, complexity of content, urgency, and additional services required.
+5. Review and approval: Once the transcription is completed, review the transcript provided by the service provider. Check for accuracy, completeness, and adherence to your specifications. Provide any necessary feedback or request revisions if needed.
+6. Payment and delivery: Upon your satisfaction with the transcript, make the payment as agreed with the service provider. Expect to receive the final transcript in the desired format, such as a text document or subtitle file.
+Remember the importance of selecting a transcription service provider experienced in Armenian language transcription to ensure accurate interpretation and avoid any linguistic or cultural misunderstandings.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Countries where Armenian is spoken</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Armenian, an Indo-European language, is primarily spoken in the following countries:
+1. Armenia: This is the official language of Armenia and is spoken by the majority of the population.
+2. Nagorno-Karabakh: A territory which is currently a subject of dispute between Armenia and Azerbaijan, where Armenian is one of the official languages.
+3. Russia: Armenian is spoken by a significant number of ethnic Armenians residing in Russia, especially in cities like Moscow and St. Petersburg.
+4. Georgia: There is a significant Armenian-speaking population in Georgia, particularly in the capital city of Tbilisi.
+5. Iran: The Iranian-Armenian community speaks Armenian in various regions of Iran, such as Tehran and Isfahan.
+6. Lebanon: Lebanon has a large Armenian community, particularly in Beirut, where Armenian is spoken alongside Arabic and French.
+7. Syria: Before the Syrian Civil War, there was a significant Armenian-speaking community predominantly in Aleppo and Damascus.
+8. Turkey: Despite a historical decline in the Armenian population due to events like the Armenian Genocide, there are still Armenian speakers in modern-day Turkey.
+9. United States: The Armenian diaspora in the United States, especially in California and New York, contributes to the presence of Armenian speakers.
+10. France: France is home to a significant Armenian community, particularly in cities like Paris and Marseille.
+It's worth noting that Armenian is also spoken by smaller communities or individuals in other countries around the world.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Armenian language</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Armenian language for several reasons:
+1. Standardization: Transcription helps to standardize the pronunciation of Armenian words across different dialects and regions. By using a consistent set of phonetic symbols, transcription allows for clear communication and understanding between speakers of different Armenian dialects.
+2. Learning and teaching: Transcription aids in the learning and teaching of the Armenian language. By providing a phonetic representation of words, learners can better understand and pronounce the language accurately. Transcription also helps language instructors guide their students in proper pronunciation.
+3. Foreign language learners: Transcription is especially important for non-native speakers learning Armenian. Since the Armenian script is different from most commonly used Latin-derived alphabets, transcription provides an easier entry point for non-native speakers to start learning the language.
+4. Accessibility: Transcription makes Armenian texts accessible to a wider audience, including those who are visually impaired or have difficulty reading the Armenian script. By using a system of transliteration, these individuals can access the content in a format that is more suited to their needs.
+Overall, transcription plays a crucial role in standardizing, learning, teaching, and increasing accessibility to the Armenian language.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>How can I assist you with Armenian? Are you looking for information about the Armenian language or culture? I can help you with that. There are several transcription services available online that support Armenian language transcriptions. Here are a few options:
+1. Rev: Rev is a popular transcription service that offers Armenian language transcriptions. You can submit your audio or video files, and their team of professional transcriptionists will transcribe them accurately.
+2. GoTranscript: GoTranscript is another reliable transcription service that provides Armenian transcription services. They have a team of native speakers who can transcribe your Armenian audio or video files.
+3. Scribie: Scribie offers accurate Armenian language transcriptions. They have a team of professional transcribers who specialize in Armenian language transcription.
+4. GMR Transcription: GMR Transcription is a well-known transcription service that supports Armenian language transcriptions. They have experienced transcribers who can handle various topics and dialects.
+Remember to check the specific services offered by each provider as well as their rates and turnaround times to find the best option that suits your needs. Armenian is the official language of Armenia and is spoken throughout the country. Additionally, it is also spoken by significant Armenian communities in neighboring countries such as Georgia, Iran, Russia, and the United States. Armenian is an Indo-European language that has two main dialects: Eastern Armenian and Western Armenian. Eastern Armenian is the more widely spoken dialect and is the official language of Armenia. It is also spoken by Armenian communities in Iran and the former Soviet Union.
+Western Armenian, on the other hand, is primarily spoken by the Armenian diaspora worldwide, including communities in Turkey, Europe, and the Americas. Western Armenian has been influenced by various surrounding languages such as Turkish, Arabic, and French.
+In addition to these two main dialects, there are also several regional dialects within Armenian. These dialects can differ from one another in terms of pronunciation, vocabulary, and grammar. Some notable regional dialects include Karin, Sasun, and Cilician Armenian.
+Overall, while Eastern Armenian and Western Armenian are the most commonly recognized dialects, the Armenian language exhibits a rich variety of dialects shaped by different historical, cultural, and geographic factors. To utilize Armenian language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Search for service providers that offer Armenian language transcription services. Look for companies with a good reputation, positive customer reviews, and experienced translators/transcribers.
+2. Submit your audio/video files: Provide the transcription service provider with the audio or video files you need to be transcribed. Make sure the files are in clear and good quality to ensure accuracy in the transcription process.
+3. Specify your requirements: Clearly communicate your requirements to the transcription service provider. Provide details such as desired turnaround time, special formatting needs, timestamps, or any other instructions you have.
+4. Get a cost estimate: Request a cost estimate from the service provider. Transcription rates may vary based on factors such as the length of audio/video, complexity of content, urgency, and additional services required.
+5. Review and approval: Once the transcription is completed, review the transcript provided by the service provider. Check for accuracy, completeness, and adherence to your specifications. Provide any necessary feedback or request revisions if needed.
+6. Payment and delivery: Upon your satisfaction with the transcript, make the payment as agreed with the service provider. Expect to receive the final transcript in the desired format, such as a text document or subtitle file.
+Remember the importance of selecting a transcription service provider experienced in Armenian language transcription to ensure accurate interpretation and avoid any linguistic or cultural misunderstandings. Armenian, an Indo-European language, is primarily spoken in the following countries:
+1. Armenia: This is the official language of Armenia and is spoken by the majority of the population.
+2. Nagorno-Karabakh: A territory which is currently a subject of dispute between Armenia and Azerbaijan, where Armenian is one of the official languages.
+3. Russia: Armenian is spoken by a significant number of ethnic Armenians residing in Russia, especially in cities like Moscow and St. Petersburg.
+4. Georgia: There is a significant Armenian-speaking population in Georgia, particularly in the capital city of Tbilisi.
+5. Iran: The Iranian-Armenian community speaks Armenian in various regions of Iran, such as Tehran and Isfahan.
+6. Lebanon: Lebanon has a large Armenian community, particularly in Beirut, where Armenian is spoken alongside Arabic and French.
+7. Syria: Before the Syrian Civil War, there was a significant Armenian-speaking community predominantly in Aleppo and Damascus.
+8. Turkey: Despite a historical decline in the Armenian population due to events like the Armenian Genocide, there are still Armenian speakers in modern-day Turkey.
+9. United States: The Armenian diaspora in the United States, especially in California and New York, contributes to the presence of Armenian speakers.
+10. France: France is home to a significant Armenian community, particularly in cities like Paris and Marseille.
+It's worth noting that Armenian is also spoken by smaller communities or individuals in other countries around the world. Transcription is needed for the Armenian language for several reasons:
+1. Standardization: Transcription helps to standardize the pronunciation of Armenian words across different dialects and regions. By using a consistent set of phonetic symbols, transcription allows for clear communication and understanding between speakers of different Armenian dialects.
+2. Learning and teaching: Transcription aids in the learning and teaching of the Armenian language. By providing a phonetic representation of words, learners can better understand and pronounce the language accurately. Transcription also helps language instructors guide their students in proper pronunciation.
+3. Foreign language learners: Transcription is especially important for non-native speakers learning Armenian. Since the Armenian script is different from most commonly used Latin-derived alphabets, transcription provides an easier entry point for non-native speakers to start learning the language.
+4. Accessibility: Transcription makes Armenian texts accessible to a wider audience, including those who are visually impaired or have difficulty reading the Armenian script. By using a system of transliteration, these individuals can access the content in a format that is more suited to their needs.
+Overall, transcription plays a crucial role in standardizing, learning, teaching, and increasing accessibility to the Armenian language.</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Armenian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>Title: Professional Armenian Transcription Services to Streamline Your Business 
+Introduction:
+In our modern globalized world, communication plays a central role in connecting businesses and individuals across different languages and cultures. If you are looking for Armenian transcription services to enhance your business operations or personal projects, Capital Typing is here to assist you. With our expertise and commitment to accuracy, we provide top-notch Armenian transcription services that cater to your specific needs.
+Why Choose Capital Typing for Armenian Transcription Services?
+1. Experienced Team:
+At Capital Typing, we have a team of skilled transcribers who are native Armenian speakers and have in-depth knowledge of the language. They are well-versed in different Armenian dialects and can accurately transcribe your audio or video recordings to text. Our team undergoes rigorous training and quality assurance procedures to ensure precision and professionalism in every transcription project.
+2. Customized Solutions:
+We understand that each client has unique requirements. Whether you need transcription for business meetings, legal proceedings, academic research, or any other field, we tailor our services to suit your specific needs. Our transcribers pay attention to detail and can handle diverse subject matters, ensuring accurate and reliable transcriptions regardless of the complexity of the content.
+3. Timely Delivery:
+We are dedicated to meeting your deadlines and ensuring your satisfaction. Time is of the essence in today's fast-paced world, so we prioritize delivering your transcripts promptly and efficiently. We work diligently to provide quick turnaround times without compromising on the quality of our work.
+4. Confidentiality and Privacy:
+At Capital Typing, we prioritize the confidentiality and privacy of your information. We have strict security protocols in place to protect your data throughout the transcription process. Our transcribers are bound by confidentiality agreements, and our data management systems are encrypted to safeguard your documents and ensure your peace of mind.
+5. Competitive Pricing:
+We offer competitive pricing for our Armenian transcription services. Our rates are transparent, and we provide upfront cost estimates based on the length of your audio or video files and any additional services you require. Our pricing is reasonable, ensuring that you receive high-quality transcriptions without exceeding your budget.
+Conclusion:
+When it comes to Armenian transcription services, Capital Typing stands out as a trusted and reliable provider. Our experienced team of Armenian transcribers, personalized solutions, timely delivery, confidentiality measures, and competitive pricing make us the ideal choice for your transcription needs. Whether you are a business professional, researcher, or individual seeking accurate Armenian transcriptions, we are here to assist you every step of the way. Contact Capital Typing today and experience the convenience and efficiency of professional Armenian transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Assamese</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Assamese is an Indo-Aryan language primarily spoken in the Indian state of Assam. It is the official language of Assam and is also spoken in parts of other Northeast Indian states and in Bangladesh. Assamese has its own script, known as Assamese script, which is derived from the Brahmi script. It is one of the oldest languages in the region and has a rich literary tradition. Assamese is also a recognized regional language of India, with a number of newspapers, magazines, and television channels being published and broadcast in Assamese.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Assamese language transcription services</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>There are several online services available for Assamese language transcription. Some popular options include:
+1. GMR Transcription: They offer Assamese transcription services for various industries such as legal, academic, medical, and more.
+Website: https://www.gmrtranscription.com/transcription-services/assamese-transcription
+Price: Starting at $1.25 per audio minute
+2. Way With Words: This company provides transcription services in Assamese with options for different turnaround times.
+Website: https://waywithwords.net/languages/assamese-transcription-services
+Price: Varies based on the complexity and length of the transcription
+3. TranscriptionStar: They offer Assamese transcription services for different file formats and have expertise in various industries.
+Website: https://www.transcriptionstar.com/assamese-transcription-services.html
+Price: Contact the provider for a quote
+4. Rev: Rev is a popular online platform that provides transcription services in multiple languages, including Assamese.
+Website: https://www.rev.com/transcription
+Price: Starting at $1.25 per minute
+Please note that prices may vary depending on factors such as audio length, complexity, and turnaround time. It is advisable to visit their websites for more detailed information and to get accurate pricing for your specific requirements.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Assamese regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Assamese is primarily spoken in the Indian state of Assam, which is located in the northeastern part of the country. It is also widely spoken in the neighboring states of Arunachal Pradesh, Nagaland, and Meghalaya. Additionally, there is a significant Assamese-speaking population in the states of West Bengal and Bihar.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Assamese dialects</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Assamese, also known as Asamiya, is the easternmost Indo-Aryan language spoken primarily in the Indian state of Assam. It has several dialects spoken across different regions of Assam. Some of the major Assamese dialects include:
+1. Kamrupi: This dialect is spoken in the Kamrup region of Assam, which is the area around the capital city, Guwahati. It is considered the standard dialect of Assamese and is widely understood and used in literature, media, and education.
+2. Goalpariya: This dialect is spoken in the Goalpara district of Assam, which is located in the western part of the state. It has some variations in vocabulary and accent compared to the Kamrupi dialect.
+3. Moran: The Moran dialect is spoken by the Moran community, which is mainly found in the Dibrugarh and Tinsukia districts of Assam. It has its own distinct features in terms of pronunciation, vocabulary, and grammar.
+4. Sibsagar: This dialect is spoken in the Sivasagar district of Assam. It is known for its unique pronunciation patterns and vocabulary, influenced by the historical importance of the region.
+5. Mising: The Mising dialect is spoken by the Mising community, which is predominantly found in the central and northern parts of Assam. It is unique in terms of grammar and vocabulary, reflecting the cultural and linguistic heritage of the community.
+These are just a few examples of the dialects spoken in Assam. There are also other smaller dialects spoken by different ethnic communities in the state, each having its own distinct features.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>How can someone utilize Assamese language transcription services</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>To utilize Assamese language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Look for transcription service providers that offer Assamese language transcription. Ensure they have experience and a good reputation for accuracy and timely delivery.
+2. Provide audio or video files: Gather the audio or video files that need to be transcribed in Assamese. Make sure the audio quality is clear and without much background noise for accurate transcription.
+3. Submit the files: Upload your files to the transcription service provider's platform or send them through email, depending on their preferred method of file submission.
+4. Specify transcription requirements: Clearly communicate your specific requirements to the transcription service provider. This may include timestamps, verbatim transcription, or any other specific formatting instructions.
+5. Await the transcription: Once you have submitted the files and requirements, wait for the transcription service provider to complete the transcription. The time required will vary depending on the length and complexity of the audio/video.
+6. Review and incorporate into your project: Once you receive the transcription, review it carefully for accuracy. If needed, make any necessary editions or corrections before incorporating it into your project or workflow.
+7. Pay for the services: After receiving the transcription, pay the transcription service provider according to their billing or payment terms.
+By following these steps, you can efficiently utilize Assamese language transcription services for your projects.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Countries where Assamese is spoken</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Assamese is primarily spoken in the Indian state of Assam. However, it is also spoken in parts of Arunachal Pradesh, Nagaland, and other northeastern states of India. Assamese is not spoken in any other countries outside of India.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Assamese language</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Assamese language for several reasons:
+1. Standardization: Assamese, like many other languages, has various dialects and regional variations. Transcription provides a standardized system of representing the language, ensuring consistency in written materials and facilitating communication across different regions.
+2. Preservation and documentation: Assamese has a rich literary and cultural heritage, dating back many centuries. Transcription helps in preserving and documenting this heritage by transcribing old manuscripts, texts, and oral traditions into a written form that can be easily accessed and studied.
+3. Digitalization and technological integration: With advancements in technology and digital media, transcription allows for the integration of the Assamese language in digital platforms, software, and devices. It enables the creation of digital content, e-books, online resources, and language processing tools, promoting the language's presence and accessibility in the digital world.
+4. Language learning and education: Transcription plays a crucial role in language learning and education. It helps learners understand and differentiate various sounds and phonetic patterns of Assamese. Transcription also allows for the development of language learning resources, textbooks, dictionaries, and language teaching materials, making it easier for both native speakers and non-native learners to study the language.
+5. Communication and accessibility: Transcription makes Assamese more accessible to a wider audience, including people who are not familiar with the script or have visual impairments. Transcribing Assamese texts into a universally understood script, such as Romanized script or the International Phonetic Alphabet (IPA), enables non-Assamese speakers to read, understand, and communicate in the language.
+In summary, transcription is essential for the Assamese language as it helps standardize the written form, preserve cultural heritage, integrate with technology, facilitate language learning, and make the language more accessible to a broader audience.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Assamese is an Indo-Aryan language primarily spoken in the Indian state of Assam. It is the official language of Assam and is also spoken in parts of other Northeast Indian states and in Bangladesh. Assamese has its own script, known as Assamese script, which is derived from the Brahmi script. It is one of the oldest languages in the region and has a rich literary tradition. Assamese is also a recognized regional language of India, with a number of newspapers, magazines, and television channels being published and broadcast in Assamese. There are several online services available for Assamese language transcription. Some popular options include:
+1. GMR Transcription: They offer Assamese transcription services for various industries such as legal, academic, medical, and more.
+Website: https://www.gmrtranscription.com/transcription-services/assamese-transcription
+Price: Starting at $1.25 per audio minute
+2. Way With Words: This company provides transcription services in Assamese with options for different turnaround times.
+Website: https://waywithwords.net/languages/assamese-transcription-services
+Price: Varies based on the complexity and length of the transcription
+3. TranscriptionStar: They offer Assamese transcription services for different file formats and have expertise in various industries.
+Website: https://www.transcriptionstar.com/assamese-transcription-services.html
+Price: Contact the provider for a quote
+4. Rev: Rev is a popular online platform that provides transcription services in multiple languages, including Assamese.
+Website: https://www.rev.com/transcription
+Price: Starting at $1.25 per minute
+Please note that prices may vary depending on factors such as audio length, complexity, and turnaround time. It is advisable to visit their websites for more detailed information and to get accurate pricing for your specific requirements. Assamese is primarily spoken in the Indian state of Assam, which is located in the northeastern part of the country. It is also widely spoken in the neighboring states of Arunachal Pradesh, Nagaland, and Meghalaya. Additionally, there is a significant Assamese-speaking population in the states of West Bengal and Bihar. Assamese, also known as Asamiya, is the easternmost Indo-Aryan language spoken primarily in the Indian state of Assam. It has several dialects spoken across different regions of Assam. Some of the major Assamese dialects include:
+1. Kamrupi: This dialect is spoken in the Kamrup region of Assam, which is the area around the capital city, Guwahati. It is considered the standard dialect of Assamese and is widely understood and used in literature, media, and education.
+2. Goalpariya: This dialect is spoken in the Goalpara district of Assam, which is located in the western part of the state. It has some variations in vocabulary and accent compared to the Kamrupi dialect.
+3. Moran: The Moran dialect is spoken by the Moran community, which is mainly found in the Dibrugarh and Tinsukia districts of Assam. It has its own distinct features in terms of pronunciation, vocabulary, and grammar.
+4. Sibsagar: This dialect is spoken in the Sivasagar district of Assam. It is known for its unique pronunciation patterns and vocabulary, influenced by the historical importance of the region.
+5. Mising: The Mising dialect is spoken by the Mising community, which is predominantly found in the central and northern parts of Assam. It is unique in terms of grammar and vocabulary, reflecting the cultural and linguistic heritage of the community.
+These are just a few examples of the dialects spoken in Assam. There are also other smaller dialects spoken by different ethnic communities in the state, each having its own distinct features. To utilize Assamese language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Look for transcription service providers that offer Assamese language transcription. Ensure they have experience and a good reputation for accuracy and timely delivery.
+2. Provide audio or video files: Gather the audio or video files that need to be transcribed in Assamese. Make sure the audio quality is clear and without much background noise for accurate transcription.
+3. Submit the files: Upload your files to the transcription service provider's platform or send them through email, depending on their preferred method of file submission.
+4. Specify transcription requirements: Clearly communicate your specific requirements to the transcription service provider. This may include timestamps, verbatim transcription, or any other specific formatting instructions.
+5. Await the transcription: Once you have submitted the files and requirements, wait for the transcription service provider to complete the transcription. The time required will vary depending on the length and complexity of the audio/video.
+6. Review and incorporate into your project: Once you receive the transcription, review it carefully for accuracy. If needed, make any necessary editions or corrections before incorporating it into your project or workflow.
+7. Pay for the services: After receiving the transcription, pay the transcription service provider according to their billing or payment terms.
+By following these steps, you can efficiently utilize Assamese language transcription services for your projects. Assamese is primarily spoken in the Indian state of Assam. However, it is also spoken in parts of Arunachal Pradesh, Nagaland, and other northeastern states of India. Assamese is not spoken in any other countries outside of India. Transcription is needed for the Assamese language for several reasons:
+1. Standardization: Assamese, like many other languages, has various dialects and regional variations. Transcription provides a standardized system of representing the language, ensuring consistency in written materials and facilitating communication across different regions.
+2. Preservation and documentation: Assamese has a rich literary and cultural heritage, dating back many centuries. Transcription helps in preserving and documenting this heritage by transcribing old manuscripts, texts, and oral traditions into a written form that can be easily accessed and studied.
+3. Digitalization and technological integration: With advancements in technology and digital media, transcription allows for the integration of the Assamese language in digital platforms, software, and devices. It enables the creation of digital content, e-books, online resources, and language processing tools, promoting the language's presence and accessibility in the digital world.
+4. Language learning and education: Transcription plays a crucial role in language learning and education. It helps learners understand and differentiate various sounds and phonetic patterns of Assamese. Transcription also allows for the development of language learning resources, textbooks, dictionaries, and language teaching materials, making it easier for both native speakers and non-native learners to study the language.
+5. Communication and accessibility: Transcription makes Assamese more accessible to a wider audience, including people who are not familiar with the script or have visual impairments. Transcribing Assamese texts into a universally understood script, such as Romanized script or the International Phonetic Alphabet (IPA), enables non-Assamese speakers to read, understand, and communicate in the language.
+In summary, transcription is essential for the Assamese language as it helps standardize the written form, preserve cultural heritage, integrate with technology, facilitate language learning, and make the language more accessible to a broader audience.</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Assamese  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>Assamese, an Indo-Aryan language primarily spoken in the Indian state of Assam, is gaining recognition and demand for transcription services. Capital Typing is one such provider that offers Assamese transcription services to cater to the growing needs of individuals and businesses alike.
+Assam, with its rich cultural and linguistic heritage, has seen a surge in the importance of transcription services for Assamese. Capital Typing understands this need and offers professional and accurate transcription services in Assamese.
+By utilizing Capital Typing's Assamese transcription services, individuals and businesses can benefit in various ways. Here are some reasons why you should consider using Assamese transcription services from Capital Typing:
+1. Accurate Transcriptions: Capital Typing employs skilled and experienced transcribers who are fluent in Assamese. They ensure accurate and precise transcription of your audio or video files. With their expertise in the language, they can accurately capture the nuances and intricacies of the Assamese language.
+2. Quick Turnaround Time: Capital Typing understands the importance of quick turnaround time. They offer efficient services, ensuring that your transcriptions are delivered within the agreed timeframe. Whether you have a tight deadline or need transcriptions urgently, Capital Typing can accommodate your requirements.
+3. Confidentiality and Security: Capital Typing values the security and confidentiality of your files. They follow strict security protocols to ensure the safety of your data. You can trust that your audio or video files are handled with utmost discretion and privacy.
+4. Competitive Pricing: Capital Typing offers competitive pricing for their Assamese transcription services. They provide transparent pricing, eliminating any hidden fees or surprises. You can request a quote based on your specific requirements, and Capital Typing will provide a fair and competitive price.
+5. Versatility and Customization: Capital Typing caters to the diverse needs of its clients. Whether you require transcription services for legal, medical, academic, or other industries, Capital Typing can accommodate your needs. They adapt their services to meet your specific requirements, ensuring customized and personalized solutions.
+6. Excellent Customer Support: Capital Typing prides itself on providing excellent customer support. Their dedicated team is available to assist you throughout the transcription process. Whether you have questions, need assistance with file submissions, or require any other support, Capital Typing's team is there to help.
+7. Quality Assurance: Capital Typing has a stringent quality assurance process in place. They ensure that all transcriptions undergo thorough proofreading and quality checks. This helps maintain a high level of accuracy and deliver error-free transcriptions.
+Whether you require Assamese transcription services for personal or professional purposes, Capital Typing is a reliable and trusted provider that can meet your needs. With their expertise in the Assamese language, quick turnaround time, competitive pricing, and excellent customer support, they are equipped to handle any transcription project.
+To avail yourself of Capital Typing's Assamese transcription services, simply reach out to them through their website or contact their customer support team. They will guide you through the process and provide you with a customized solution based on your requirements.
+In conclusion, Assamese transcription services offered by Capital Typing are a valuable resource for individuals and businesses in need of accurate and efficient transcriptions in the Assamese language. With their expertise, competitive pricing, and excellent customer support, Capital Typing is the ideal choice for Assamese transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aymara</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Aymara are an indigenous group who primarily reside in the Andes region of South America, specifically in Bolivia, Peru, and Chile. They have a rich history and culture that dates back thousands of years. The Aymara language is spoken by the Aymara people and is recognized as an official language in Bolivia and Peru. The Aymara people have made significant contributions to the art, music, and literature of the region. They are known for their traditional clothing, which includes colorful textiles, hats, and ponchos. The Aymara are also known for their agriculture practices, particularly the cultivation of potatoes and quinoa. The Aymara people have faced various challenges throughout history, including colonization and discrimination, but they continue to maintain their cultural traditions and identity.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Aymara language transcription services</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Transcription services for the Aymara language can be found through various online platforms and transcription service providers. It is recommended to search for professional transcriptionists or agencies that specialize in working with non-mainstream languages. Some popular transcription service platforms that offer Aymara language transcription include Rev.com, GMR Transcription, and TranscriptionStar. You can visit their websites and upload your audio or video files that require transcription, and they will provide you with the written transcripts in the Aymara language. Additionally, you can search for local Aymara translators or linguists who may also provide transcription services.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aymara regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>The Aymara language is primarily spoken in the following regions:
+1. Bolivia: Aymara is one of the official languages of Bolivia and is mainly spoken in the western parts of the country, including La Paz, Oruro, Puno, and Cochabamba.
+2. Peru: Aymara is spoken in the southern regions of Peru, particularly in the Puno region along the border with Bolivia. It is also spoken in some parts of the Cusco, Moquegua, and Tacna regions.
+3. Chile: Aymara is spoken in the northern regions of Chile, such as Arica and Parinacota, Tarapacá, and Antofagasta.
+4. Argentina: Aymara is spoken in the northern regions of Argentina, specifically in Jujuy and Salta.
+5. Some Aymara communities also exist across the borders in neighboring countries like Brazil and Paraguay, although the number of speakers there is smaller.
+Please note that while Aymara is mainly spoken in these regions, there may be smaller communities in other areas as well.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Aymara dialects</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aymara is a language spoken primarily in Bolivia, Peru, and Chile by the Aymara people. It has various dialects that differ slightly in vocabulary, pronunciation, and grammar. Some of the main Aymara dialects include:
+1. Central Aymara: This dialect is spoken in central Bolivia and is considered the standard variety of Aymara. It is often used in education, media, and official settings.
+2. Southern Aymara: Spoken in southern Peru and northern Chile, this dialect has some differences in vocabulary and pronunciation compared to Central Aymara.
+3. Northern Aymara: This dialect is spoken in northern Bolivia and has its own unique features, including some vocabulary variations and subtle grammatical differences.
+4. Lake Titicaca Aymara: This dialect is spoken around Lake Titicaca, which is located on the border between Bolivia and Peru. It is known for its distinct intonation patterns and some vocabulary variations.
+5. Highlands Aymara: Spoken in the highlands of Bolivia, this dialect has its own characteristics shaped by the geographical and cultural context of the region.
+It's important to note that these dialects are not mutually unintelligible, and speakers can generally understand each other with some adjustments. However, there may be some differences that can create difficulties in communication for speakers of different dialects.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>How can someone utilize Aymara language transcription services</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>To utilize Aymara language transcription services, someone can follow these steps:
+1. Research Aymara language transcription service providers: Look for companies or individuals who specialize in transcribing Aymara language. It's important to choose a reputable service provider with experience in Aymara transcription.
+2. Contact the service provider: Reach out to the selected service provider to discuss your specific transcription needs. Provide details such as the length of audio or video files, the required turnaround time, and any specific instructions or formatting requirements.
+3. Submit audio or video files: Once you have selected a service provider and agreed on the terms, you will need to share the audio or video files you want transcribed. This can typically be done through file-sharing services, email, or dedicated transcription platforms.
+4. Wait for the transcription: Depending on the length and complexity of the files, it may take some time for the transcription to be completed. You will need to be patient and wait for the service provider to deliver the transcriptions to you within the agreed timeframe.
+5. Review and clarify: Once you receive the transcriptions, review them carefully to ensure accuracy. If you come across any errors or need clarification on certain parts, communicate with the service provider promptly to resolve any issues.
+6. Payment: After you are satisfied with the transcriptions, it's time to make the payment according to the agreed terms with the service provider. This may involve a one-time payment per project or an hourly or per-minute rate.
+By following these steps, you can effectively utilize Aymara language transcription services to convert your audio or video content into written text.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Countries where Aymara is spoken</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Aymara is primarily spoken in Bolivia, Peru, and Chile. It is also spoken by small communities in Argentina.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Aymara language</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Aymara language, like any other language, for several reasons:
+1. Standardization: Aymara, like many indigenous languages, does not have a standardized writing system. Transcription helps in developing a consistent and widely accepted way to represent the language in written form.
+2. Documentation: Transcription allows for the recording and preservation of Aymara language for future generations. It helps linguists, researchers, and community members document the language's unique pronunciation, grammar, and vocabulary.
+3. Language Learning: Transcription is crucial for language learners to understand and study Aymara. It provides a way to see the pronunciation of words and phrases, making it easier to acquire and practice the language.
+4. Accessibility: Transcription makes Aymara more accessible to a wider audience. It allows for the creation of Aymara dictionaries, educational materials, and online resources, making the language more available for study and appreciation.
+5. Cultural Identity: Lastly, transcription helps in strengthening the cultural identity of Aymara speakers. By having a written representation of their language, Aymara communities can preserve and promote their linguistic heritage, reinforcing their cultural identity and pride.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>The Aymara are an indigenous group who primarily reside in the Andes region of South America, specifically in Bolivia, Peru, and Chile. They have a rich history and culture that dates back thousands of years. The Aymara language is spoken by the Aymara people and is recognized as an official language in Bolivia and Peru. The Aymara people have made significant contributions to the art, music, and literature of the region. They are known for their traditional clothing, which includes colorful textiles, hats, and ponchos. The Aymara are also known for their agriculture practices, particularly the cultivation of potatoes and quinoa. The Aymara people have faced various challenges throughout history, including colonization and discrimination, but they continue to maintain their cultural traditions and identity. Transcription services for the Aymara language can be found through various online platforms and transcription service providers. It is recommended to search for professional transcriptionists or agencies that specialize in working with non-mainstream languages. Some popular transcription service platforms that offer Aymara language transcription include Rev.com, GMR Transcription, and TranscriptionStar. You can visit their websites and upload your audio or video files that require transcription, and they will provide you with the written transcripts in the Aymara language. Additionally, you can search for local Aymara translators or linguists who may also provide transcription services. The Aymara language is primarily spoken in the following regions:
+1. Bolivia: Aymara is one of the official languages of Bolivia and is mainly spoken in the western parts of the country, including La Paz, Oruro, Puno, and Cochabamba.
+2. Peru: Aymara is spoken in the southern regions of Peru, particularly in the Puno region along the border with Bolivia. It is also spoken in some parts of the Cusco, Moquegua, and Tacna regions.
+3. Chile: Aymara is spoken in the northern regions of Chile, such as Arica and Parinacota, Tarapacá, and Antofagasta.
+4. Argentina: Aymara is spoken in the northern regions of Argentina, specifically in Jujuy and Salta.
+5. Some Aymara communities also exist across the borders in neighboring countries like Brazil and Paraguay, although the number of speakers there is smaller.
+Please note that while Aymara is mainly spoken in these regions, there may be smaller communities in other areas as well. Aymara is a language spoken primarily in Bolivia, Peru, and Chile by the Aymara people. It has various dialects that differ slightly in vocabulary, pronunciation, and grammar. Some of the main Aymara dialects include:
+1. Central Aymara: This dialect is spoken in central Bolivia and is considered the standard variety of Aymara. It is often used in education, media, and official settings.
+2. Southern Aymara: Spoken in southern Peru and northern Chile, this dialect has some differences in vocabulary and pronunciation compared to Central Aymara.
+3. Northern Aymara: This dialect is spoken in northern Bolivia and has its own unique features, including some vocabulary variations and subtle grammatical differences.
+4. Lake Titicaca Aymara: This dialect is spoken around Lake Titicaca, which is located on the border between Bolivia and Peru. It is known for its distinct intonation patterns and some vocabulary variations.
+5. Highlands Aymara: Spoken in the highlands of Bolivia, this dialect has its own characteristics shaped by the geographical and cultural context of the region.
+It's important to note that these dialects are not mutually unintelligible, and speakers can generally understand each other with some adjustments. However, there may be some differences that can create difficulties in communication for speakers of different dialects. To utilize Aymara language transcription services, someone can follow these steps:
+1. Research Aymara language transcription service providers: Look for companies or individuals who specialize in transcribing Aymara language. It's important to choose a reputable service provider with experience in Aymara transcription.
+2. Contact the service provider: Reach out to the selected service provider to discuss your specific transcription needs. Provide details such as the length of audio or video files, the required turnaround time, and any specific instructions or formatting requirements.
+3. Submit audio or video files: Once you have selected a service provider and agreed on the terms, you will need to share the audio or video files you want transcribed. This can typically be done through file-sharing services, email, or dedicated transcription platforms.
+4. Wait for the transcription: Depending on the length and complexity of the files, it may take some time for the transcription to be completed. You will need to be patient and wait for the service provider to deliver the transcriptions to you within the agreed timeframe.
+5. Review and clarify: Once you receive the transcriptions, review them carefully to ensure accuracy. If you come across any errors or need clarification on certain parts, communicate with the service provider promptly to resolve any issues.
+6. Payment: After you are satisfied with the transcriptions, it's time to make the payment according to the agreed terms with the service provider. This may involve a one-time payment per project or an hourly or per-minute rate.
+By following these steps, you can effectively utilize Aymara language transcription services to convert your audio or video content into written text. Aymara is primarily spoken in Bolivia, Peru, and Chile. It is also spoken by small communities in Argentina. Transcription is needed for the Aymara language, like any other language, for several reasons:
+1. Standardization: Aymara, like many indigenous languages, does not have a standardized writing system. Transcription helps in developing a consistent and widely accepted way to represent the language in written form.
+2. Documentation: Transcription allows for the recording and preservation of Aymara language for future generations. It helps linguists, researchers, and community members document the language's unique pronunciation, grammar, and vocabulary.
+3. Language Learning: Transcription is crucial for language learners to understand and study Aymara. It provides a way to see the pronunciation of words and phrases, making it easier to acquire and practice the language.
+4. Accessibility: Transcription makes Aymara more accessible to a wider audience. It allows for the creation of Aymara dictionaries, educational materials, and online resources, making the language more available for study and appreciation.
+5. Cultural Identity: Lastly, transcription helps in strengthening the cultural identity of Aymara speakers. By having a written representation of their language, Aymara communities can preserve and promote their linguistic heritage, reinforcing their cultural identity and pride.</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Aymara  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Source for Aymara Language Transcription Services
+The Aymara people, an indigenous group residing in the Andes region of South America (specifically in Bolivia, Peru, and Chile), have a rich cultural heritage and history that spans thousands of years. With their Aymara language recognized as an official language in Bolivia and Peru, the Aymara people have made significant contributions to art, music, and literature in the region.
+At Capital Typing, we understand the importance of accurate and reliable transcriptions in preserving and disseminating the Aymara language. Our transcription services cater to clients seeking professional Aymara language transcription services, whether it be for audio or video files.
+For those in need of Aymara language transcription, there are a variety of options available. Online service providers such as Rev.com, GMR Transcription, and TranscriptionStar offer transcription services specifically tailored for Aymara. These platforms allow you to easily upload your audio or video files, and they will provide you with written transcripts in the Aymara language.
+Alternatively, you may also consider reaching out to local Aymara translators or linguists who may offer transcription services. Their expertise in the Aymara language ensures accurate and culturally sensitive transcriptions that meet your specific requirements.
+The Aymara language is primarily spoken in Bolivia, Peru, and Chile, with smaller communities existing in neighboring countries such as Argentina, Brazil, and Paraguay. While the Aymara language has several dialects, including Central Aymara, Southern Aymara, Northern Aymara, Lake Titicaca Aymara, and Highlands Aymara, these dialects are generally mutually intelligible, with slight variations in vocabulary, pronunciation, and grammar.
+Transcription services play a vital role in promoting and preserving the Aymara language. Transcriptions help standardize the language's writing system, document its unique characteristics, facilitate language learning, increase accessibility, and strengthen cultural identity. With accurate Aymara language transcriptions, you can create educational materials, dictionaries, and online resources that contribute to the preservation and appreciation of the Aymara language.
+At Capital Typing, our team of professional transcriptionists is experienced in working with non-mainstream languages like Aymara. We prioritize accuracy, confidentiality, and quick turnaround times to meet the needs of our clients. Whether you require Aymara transcription for academic research, cultural preservation, or any other purpose, we are here to assist you.
+To avail of our Aymara language transcription services, simply contact us to discuss your specific requirements. We will guide you through the process and provide you with high-quality transcriptions that capture the essence of the Aymara language.
+Preserving the Aymara language and its cultural heritage is a priority, and Capital Typing is your trusted partner for Aymara language transcription services. Let us help you bring your audio and video content to life with accurate, reliable, and culturally sensitive transcriptions. Trust the experts at Capital Typing for all your Aymara language transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Azerbaijani</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azerbaijani, also known as Azerbaijani Turkic or Azeri, is a Turkic language spoken primarily in Azerbaijan and northwestern Iran. It is also one of the official languages of Azerbaijan.
+If you have any specific questions or need assistance with the Azerbaijani language, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Azerbaijani language transcription services</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>There are several transcription services available for Azerbaijani language. Here are a few options:
+1. GoTranscript: GoTranscript offers professional transcription services for Azerbaijani language. They have a team of native Azerbaijani speakers who can accurately transcribe your audio or video files.
+2. Transcription City: Transcription City provides transcription services for various languages, including Azerbaijani. They have experienced linguists who can transcribe your audio or video files in a timely manner.
+3. GMR Transcription: GMR Transcription offers high-quality Azerbaijani transcription services. They have a team of native Azerbaijani speakers who can transcribe your files with precision and confidentiality.
+4. Rev: Rev provides transcription services for Azerbaijani language. They have a large network of professional transcribers who can handle different types of audio or video content.
+When selecting a transcription service, consider factors such as turnaround time, accuracy, confidentiality, and pricing that align with your specific requirements.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Azerbaijani regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Azerbaijani is the official language of Azerbaijan. It is widely spoken throughout the country, including in the following regions:
+1. Absheron: This region includes the capital city, Baku, where Azerbaijani is predominantly spoken.
+2. Ganja-Gazakh: Located in the western part of Azerbaijan, this region includes the city of Ganja, where Azerbaijani is widely spoken.
+3. Shaki-Zaqatala: Situated in the northwest of the country, the Shaki-Zaqatala region is known for its historical city of Shaki, where Azerbaijani is spoken.
+4. Lankaran: Located in the southeastern part of Azerbaijan, Lankaran is known for its diverse ethnic makeup and Azerbaijani is spoken here.
+5. Guba-Khachmaz: This region is situated in the northeastern part of Azerbaijan and includes cities like Guba, Khachmaz, and Quba, where Azerbaijani is widely spoken.
+6. Aran: Aran is a large region that includes cities such as Mingachevir, Yevlakh, and Agdash. Azerbaijani is the primary language spoken here.
+7. Upper Karabakh: This region is currently occupied by Armenian forces, but before the occupation, it was predominantly Azerbaijani-speaking.
+8. Nakhchivan: Nakhchivan is an exclave of Azerbaijan located between Armenia and Iran. Azerbaijani is the main language spoken in this region.
+These are just a few of the regions where Azerbaijani is spoken in Azerbaijan. The language is also spoken by Azerbaijani communities living in other countries, such as Iran, Turkey, and Russia.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Azerbaijani dialects</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Azerbaijani, also known as Azeri or Azerbaijani Turkic, is a Turkic language spoken primarily in Azerbaijan and its neighboring countries. There are several dialects of Azerbaijani spoken throughout the region, including:
+1. South Azerbaijani: This dialect is spoken in Iran by the Azerbaijani community in the provinces of East Azerbaijan, West Azerbaijan, Ardabil, and Zanjan. It is the most widely spoken dialect of Azerbaijani and has been influenced by Persian language and culture.
+2. North Azerbaijani: This dialect is spoken in the Republic of Azerbaijan, mainly in Baku and the northern regions. It is considered the standard form of Azerbaijani and is used in official documents, media, and education systems.
+3. Karabakh Azerbaijani: This dialect is spoken in the Nagorno-Karabakh region, which is currently occupied by Armenia. It has been heavily influenced by Armenian language and culture.
+4. Qashqai: This dialect is spoken by the Qashqai tribe, a Turkic ethnic group in Iran. Qashqai Azerbaijani has unique features and vocabulary, distinguishing it from other dialects.
+5. Transcaucasian Azerbaijani: This dialect is spoken in Georgia, particularly in the Kvemo Kartli region. It has developed its unique characteristics due to geographic and cultural factors.
+It is important to note that these dialects may differ in terms of vocabulary, pronunciation, and grammar. Despite these variations, speakers of different Azerbaijani dialects can generally understand each other, as the core structure of the language remains the same.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>How can someone utilize Azerbaijani language transcription services</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>To utilize Azerbaijani language transcription services effectively, follow these steps:
+1. Find a reputable service provider: Look for transcription services that specifically mention Azerbaijani language expertise. Check their website, reviews, and ratings to ensure their quality and accuracy.
+2. Submit your audio or video files: Prepare the files containing the Azerbaijani content that you need transcribed. Note that some service providers may have specific file format requirements, so double-check the guidelines.
+3. Provide clear instructions: Clearly communicate your requirements and any specific instructions regarding the transcription format, timestamps, or any other preferences. This will help the transcriber deliver the desired results.
+4. Ensure data security: Make sure the transcription service provider guarantees the confidentiality and security of your files. Check their privacy policy and data protection measures to ensure your information remains secure.
+5. Review the transcriptions: Once you receive the transcribed documents, take the time to review them for accuracy and completeness. If you notice any errors or missing content, provide constructive feedback to the service provider for revisions.
+6. Consider proofreading or translation services: If you need the transcribed content to be polished or translated, inquire if the transcription service also provides proofreading or translation options in Azerbaijani language.
+Remember, clear communication and collaboration with the transcription service provider will help you obtain accurate and high-quality Azerbaijani language transcriptions tailored to your specific needs.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Countries where Azerbaijani is spoken</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Azerbaijani, also known as Azeri, is mainly spoken in the following countries:
+1. Azerbaijan: This is the primary country where Azerbaijani is spoken, serving as the official language.
+2. Iran: Azerbaijani is a recognized regional language in Iran, particularly in the northwest provinces like East Azerbaijan, West Azerbaijan, and Ardabil.
+3. Turkey: There is a significant Azerbaijani-speaking community in Turkey, particularly in the eastern regions close to the Azerbaijan border.
+4. Russia: Azerbaijani is spoken by Azerbaijani communities in Russia, especially in regions like Dagestan, Kuban, and Astrakhan.
+5. Georgia: Azerbaijani is spoken by ethnic Azerbaijanis in southern Georgia, mainly in regions like Kvemo Kartli and Kakheti.
+6. Armenia: Azerbaijani is spoken by the Azerbaijani minority in Armenia, particularly in some villages near the Azerbaijani border.
+Additionally, there are Azerbaijani-speaking communities and diaspora in various other countries, such as Ukraine, Kazakhstan, Uzbekistan, and the Gulf states, due to historical migration and labor movements.</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Azerbaijani language</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Transcription is important for Azerbaijani language for several reasons:
+1. Standardization: Azerbaijani is written in a modified version of the Latin script, but there are still variations in how certain sounds are represented. Transcription helps to standardize the spelling and pronunciation of words, making it easier for speakers of different dialects to understand each other.
+2. Learning and teaching: Transcription aids in language learning and teaching, making it simpler for non-native speakers to learn correct pronunciation and spelling. It provides a consistent system to represent sounds and helps learners associate the written form of words with their spoken form.
+3. Language technology: Transcription plays a crucial role in developing language processing technologies, such as speech recognition and machine translation. By transcribing Azerbaijani texts and speech, it becomes possible to analyze and process language data in computational applications.
+4. Accessibility: Transcription allows the Azerbaijani language to be accessible to individuals with hearing impairments. By transcribing spoken language into written form, deaf or hard-of-hearing individuals can read and understand Azerbaijani content.
+Overall, transcription is needed for Azerbaijani to ensure consistency in spelling and pronunciation, facilitate language learning and technology development, and improve accessibility for all individuals.</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>Azerbaijani, also known as Azerbaijani Turkic or Azeri, is a Turkic language spoken primarily in Azerbaijan and northwestern Iran. It is also one of the official languages of Azerbaijan.
+If you have any specific questions or need assistance with the Azerbaijani language, feel free to ask! There are several transcription services available for Azerbaijani language. Here are a few options:
+1. GoTranscript: GoTranscript offers professional transcription services for Azerbaijani language. They have a team of native Azerbaijani speakers who can accurately transcribe your audio or video files.
+2. Transcription City: Transcription City provides transcription services for various languages, including Azerbaijani. They have experienced linguists who can transcribe your audio or video files in a timely manner.
+3. GMR Transcription: GMR Transcription offers high-quality Azerbaijani transcription services. They have a team of native Azerbaijani speakers who can transcribe your files with precision and confidentiality.
+4. Rev: Rev provides transcription services for Azerbaijani language. They have a large network of professional transcribers who can handle different types of audio or video content.
+When selecting a transcription service, consider factors such as turnaround time, accuracy, confidentiality, and pricing that align with your specific requirements. Azerbaijani is the official language of Azerbaijan. It is widely spoken throughout the country, including in the following regions:
+1. Absheron: This region includes the capital city, Baku, where Azerbaijani is predominantly spoken.
+2. Ganja-Gazakh: Located in the western part of Azerbaijan, this region includes the city of Ganja, where Azerbaijani is widely spoken.
+3. Shaki-Zaqatala: Situated in the northwest of the country, the Shaki-Zaqatala region is known for its historical city of Shaki, where Azerbaijani is spoken.
+4. Lankaran: Located in the southeastern part of Azerbaijan, Lankaran is known for its diverse ethnic makeup and Azerbaijani is spoken here.
+5. Guba-Khachmaz: This region is situated in the northeastern part of Azerbaijan and includes cities like Guba, Khachmaz, and Quba, where Azerbaijani is widely spoken.
+6. Aran: Aran is a large region that includes cities such as Mingachevir, Yevlakh, and Agdash. Azerbaijani is the primary language spoken here.
+7. Upper Karabakh: This region is currently occupied by Armenian forces, but before the occupation, it was predominantly Azerbaijani-speaking.
+8. Nakhchivan: Nakhchivan is an exclave of Azerbaijan located between Armenia and Iran. Azerbaijani is the main language spoken in this region.
+These are just a few of the regions where Azerbaijani is spoken in Azerbaijan. The language is also spoken by Azerbaijani communities living in other countries, such as Iran, Turkey, and Russia. Azerbaijani, also known as Azeri or Azerbaijani Turkic, is a Turkic language spoken primarily in Azerbaijan and its neighboring countries. There are several dialects of Azerbaijani spoken throughout the region, including:
+1. South Azerbaijani: This dialect is spoken in Iran by the Azerbaijani community in the provinces of East Azerbaijan, West Azerbaijan, Ardabil, and Zanjan. It is the most widely spoken dialect of Azerbaijani and has been influenced by Persian language and culture.
+2. North Azerbaijani: This dialect is spoken in the Republic of Azerbaijan, mainly in Baku and the northern regions. It is considered the standard form of Azerbaijani and is used in official documents, media, and education systems.
+3. Karabakh Azerbaijani: This dialect is spoken in the Nagorno-Karabakh region, which is currently occupied by Armenia. It has been heavily influenced by Armenian language and culture.
+4. Qashqai: This dialect is spoken by the Qashqai tribe, a Turkic ethnic group in Iran. Qashqai Azerbaijani has unique features and vocabulary, distinguishing it from other dialects.
+5. Transcaucasian Azerbaijani: This dialect is spoken in Georgia, particularly in the Kvemo Kartli region. It has developed its unique characteristics due to geographic and cultural factors.
+It is important to note that these dialects may differ in terms of vocabulary, pronunciation, and grammar. Despite these variations, speakers of different Azerbaijani dialects can generally understand each other, as the core structure of the language remains the same. To utilize Azerbaijani language transcription services effectively, follow these steps:
+1. Find a reputable service provider: Look for transcription services that specifically mention Azerbaijani language expertise. Check their website, reviews, and ratings to ensure their quality and accuracy.
+2. Submit your audio or video files: Prepare the files containing the Azerbaijani content that you need transcribed. Note that some service providers may have specific file format requirements, so double-check the guidelines.
+3. Provide clear instructions: Clearly communicate your requirements and any specific instructions regarding the transcription format, timestamps, or any other preferences. This will help the transcriber deliver the desired results.
+4. Ensure data security: Make sure the transcription service provider guarantees the confidentiality and security of your files. Check their privacy policy and data protection measures to ensure your information remains secure.
+5. Review the transcriptions: Once you receive the transcribed documents, take the time to review them for accuracy and completeness. If you notice any errors or missing content, provide constructive feedback to the service provider for revisions.
+6. Consider proofreading or translation services: If you need the transcribed content to be polished or translated, inquire if the transcription service also provides proofreading or translation options in Azerbaijani language.
+Remember, clear communication and collaboration with the transcription service provider will help you obtain accurate and high-quality Azerbaijani language transcriptions tailored to your specific needs. Azerbaijani, also known as Azeri, is mainly spoken in the following countries:
+1. Azerbaijan: This is the primary country where Azerbaijani is spoken, serving as the official language.
+2. Iran: Azerbaijani is a recognized regional language in Iran, particularly in the northwest provinces like East Azerbaijan, West Azerbaijan, and Ardabil.
+3. Turkey: There is a significant Azerbaijani-speaking community in Turkey, particularly in the eastern regions close to the Azerbaijan border.
+4. Russia: Azerbaijani is spoken by Azerbaijani communities in Russia, especially in regions like Dagestan, Kuban, and Astrakhan.
+5. Georgia: Azerbaijani is spoken by ethnic Azerbaijanis in southern Georgia, mainly in regions like Kvemo Kartli and Kakheti.
+6. Armenia: Azerbaijani is spoken by the Azerbaijani minority in Armenia, particularly in some villages near the Azerbaijani border.
+Additionally, there are Azerbaijani-speaking communities and diaspora in various other countries, such as Ukraine, Kazakhstan, Uzbekistan, and the Gulf states, due to historical migration and labor movements. Transcription is important for Azerbaijani language for several reasons:
+1. Standardization: Azerbaijani is written in a modified version of the Latin script, but there are still variations in how certain sounds are represented. Transcription helps to standardize the spelling and pronunciation of words, making it easier for speakers of different dialects to understand each other.
+2. Learning and teaching: Transcription aids in language learning and teaching, making it simpler for non-native speakers to learn correct pronunciation and spelling. It provides a consistent system to represent sounds and helps learners associate the written form of words with their spoken form.
+3. Language technology: Transcription plays a crucial role in developing language processing technologies, such as speech recognition and machine translation. By transcribing Azerbaijani texts and speech, it becomes possible to analyze and process language data in computational applications.
+4. Accessibility: Transcription allows the Azerbaijani language to be accessible to individuals with hearing impairments. By transcribing spoken language into written form, deaf or hard-of-hearing individuals can read and understand Azerbaijani content.
+Overall, transcription is needed for Azerbaijani to ensure consistency in spelling and pronunciation, facilitate language learning and technology development, and improve accessibility for all individuals.</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Azerbaijani  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your One-Stop Solution for Azerbaijani Transcription Services
+Azerbaijani, also known as Azeri or Azerbaijani Turkic, is a widely spoken Turkic language primarily in Azerbaijan and its neighboring countries. If you are in need of professional Azerbaijani transcription services, look no further than Capital Typing.
+At Capital Typing, we understand the importance of accurate and timely transcription services. We have a team of skilled native Azerbaijani speakers who are well-versed in the nuances of the language and can accurately transcribe your audio or video files. Whether you have interviews, business meetings, legal proceedings, or any other type of content that requires transcription, our experts will deliver high-quality results.
+But what sets Capital Typing apart from other transcription services? Here are a few reasons why we are your one-stop solution for Azerbaijani transcription:
+1. Quality and Accuracy: Our team consists of experienced linguists who have a deep understanding of the Azerbaijani language. We are committed to delivering accurate and error-free transcriptions, ensuring that every word is transcribed with precision.
+2. Confidentiality: We understand the sensitivity of your content and the need for confidentiality. At Capital Typing, we have strict privacy measures in place to ensure that your files and information are kept secure and confidential.
+3. Quick Turnaround Time: We value your time and strive to deliver fast and efficient transcription services. Our team works diligently to provide you with quick turnaround times without compromising on the quality of the transcriptions.
+4. Competitive Pricing: We believe that quality transcription services should be accessible to all. That's why Capital Typing offers competitive pricing options that cater to different budgets. We provide transparent pricing without any hidden fees or surprises.
+5. Wide Range of Services: In addition to Azerbaijani transcription, Capital Typing offers a wide range of services including translation, proofreading, and editing. Whether you need your transcriptions translated into another language or require a second pair of eyes to review the content, we have got you covered.
+To avail yourself of our Azerbaijani transcription services, simply follow these steps:
+1. Upload your files: Visit our website and upload your audio or video files that need transcription. Our secure upload system ensures the safe transfer of your content.
+2. Specify your requirements: Provide us with any specific instructions or requirements regarding the transcription format, timestamps, or any other preferences you may have.
+3. Review and Approve: Once your transcriptions are ready, you will receive the completed files. Take the time to review them and let us know if any revisions are needed. Your satisfaction is our priority.
+At Capital Typing, we pride ourselves on delivering accurate and timely Azerbaijani transcription services that meet your specific needs. Our team of native Azerbaijani speakers and language experts is ready to assist you in transcribing your valuable content. Contact us today and experience the exceptional quality of our services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Balochi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Balochi is an Iranian language spoken by the Baloch people, predominantly in Iran, Pakistan, and Afghanistan. It belongs to the Northwestern Iranian language group and has multiple dialects. Is there anything specific you would like to know about Balochi?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Balochi language transcription services</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>I am sorry, but as a text-based assistant, I am unable to provide transcription services for the Balochi language. However, there are various websites and professional services available that specialize in language transcription. I recommend conducting an online search for transcription services specifically for the Balochi language to find suitable options.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Balochi regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Balochi is spoken primarily in the following regions:
+1. Balochistan - This is the largest region where Balochi is spoken. It encompasses parts of Iran, Pakistan, and Afghanistan.
+2. Sistan and Baluchestan Province - Located in southeastern Iran, this province has a significant Balochi-speaking population.
+3. Khyber Pakhtunkhwa - In Pakistan, Balochi is spoken in some areas of this province, particularly in Dera Ismail Khan and Tank districts.
+4. Southwestern Afghanistan - Parts of southwestern Afghanistan, including Nimruz, Helmand, and Kandahar provinces, have Balochi-speaking communities.
+5. Arabian Gulf - Due to migration, there are Balochi-speaking communities in Arabian Gulf countries such as Oman, Bahrain, and the United Arab Emirates.
+It's important to note that Balochi is also spoken in smaller communities in other regions due to migration and diaspora.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Balochi dialects</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Balochi is an Iranian language spoken by the Baloch people, primarily in the Balochistan region which spans parts of Iran, Pakistan, and Afghanistan. Balochi has several dialects, which are spoken in different regions and have some variations in grammar and vocabulary. Some of the major Balochi dialects include:
+1. Eastern Balochi: This dialect is spoken in the eastern parts of Balochistan, which includes parts of Iran and Pakistan. It is also the most widely spoken dialect of Balochi.
+2. Western Balochi: This dialect is spoken in the western parts of Balochistan, particularly in Iran.
+3. Southern Balochi: This dialect is spoken in the southernmost parts of Balochistan, mainly in Pakistan.
+4. Northern Balochi: This dialect is spoken in the northern parts of Balochistan, primarily in the Sistan and Baluchestan Province of Iran.
+5. Central Balochi: This dialect is spoken in the central regions of Balochistan, including parts of Iran and Pakistan.
+It's important to note that these dialects can further have sub-dialects and variations within them, depending on specific geographical locations.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>How can someone utilize Balochi language transcription services</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>To utilize Balochi language transcription services, you can follow these steps:
+1. Research Transcription Services: Start by researching transcription service providers that offer Balochi language transcription. There are several online platforms and professional agencies specializing in different languages, including Balochi.
+2. Choose a Reliable Provider: Compare the reputation, experience, customer reviews, and pricing of different providers. Look for a reliable service that has experience in transcribing Balochi audio or video content accurately.
+3. Provide Audio/Video Files: Once you've chosen a provider, gather the Balochi audio or video files that you need to be transcribed. Ensure that the audio quality is good to ensure accurate transcription.
+4. Upload Files: Most transcription service providers have a user-friendly online platform where you can upload your files. Follow their instructions to upload the Balochi audio or video files securely.
+5. Specify Transcription Requirements: Clearly communicate your transcription requirements to the service provider. Inform them about the language (Balochi), any time stamps needed, any specific formatting requirements, or any additional notes to assist the transcriber.
+6. Review and Approve: Once the transcription is complete, the service provider will provide you with the finished transcript. Take the time to review and proofread the transcript to ensure accuracy. If there are any errors or revisions needed, provide your feedback to the service provider for adjustments.
+7. Payment and Delivery: Once you are satisfied with the transcription, proceed with the payment process as per the service provider's instructions. After the payment is complete, you will receive the final transcript in the desired format (e.g., Word, PDF, etc.).
+It's important to note that Balochi language transcription services may vary in pricing and turnaround time depending on the provider and the complexity of the content.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Countries where Balochi is spoken</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Balochi is primarily spoken in the following countries:
+1. Pakistan: Balochi is one of the major languages spoken in Pakistan, especially in the province of Balochistan.
+2. Iran: Balochi is spoken by the Baloch people in southeastern Iran, primarily in Sistan and Baluchestan province.
+3. Afghanistan: Balochi is spoken by the Baloch minority in Afghanistan, particularly in the southern regions bordering Pakistan and Iran.
+4. Oman: Balochi is spoken by the Baloch communities settled in Oman, especially in the Musandam Governorate.
+5. United Arab Emirates: Balochi is spoken by the Baloch people living in the United Arab Emirates, particularly in the coastal areas.
+6. Turkmenistan: Balochi is spoken by a small community of Baloch people in Turkmenistan.
+7. Tajikistan: Balochi is spoken by a small number of Baloch people in Tajikistan.
+8. India: Balochi is spoken by a small number of people in India, primarily in Gujarat and parts of Rajasthan.
+It is worth noting that Balochi is a regional and minority language in these countries, and the level of proficiency may vary among the speakers.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Balochi language</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Balochi language, like any other language, for several reasons:
+1. Standardization: Balochi, like many regional and minority languages, does not have a standardized writing system that is universally recognized and used by all speakers. Transcription provides a systematic way to represent the spoken language in writing, making it easier to read, teach, and learn.
+2. Accessibility: Balochi is primarily an oral language, and many speakers may not be proficient in reading or writing it. Transcribing Balochi into a written form allows for better accessibility, enabling more people to access and comprehend the language. It also facilitates the preservation and documentation of Balochi culture and history.
+3. Education: Transcription plays a vital role in language education. It helps create teaching materials, textbooks, and dictionaries, which can enhance the learning experience for learners of Balochi as a second language. Transcription also assists in organizing language courses and developing reading and writing skills among Balochi speakers.
+4. Language preservation: Balochi, like many indigenous languages, is at risk of language erosion or extinction. By transcribing Balochi, efforts can be made to preserve and revitalize the language. Transcription helps in documenting the language's vocabulary, grammar, and literature, allowing future generations to study, understand, and carry on the Balochi language and culture.
+5. Communication and research: Transcription allows Balochi speakers to communicate in writing, providing a way to share ideas, stories, and information. It also facilitates research and analysis of the linguistic and sociolinguistic aspects of Balochi. Transcription enables researchers to study the language, its dialectal variations, and its historical development.
+In summary, transcription is essential for the Balochi language to standardize its writing system, enhance accessibility and education, preserve the language, facilitate communication, and advance research on Balochi linguistics.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>Balochi is an Iranian language spoken by the Baloch people, predominantly in Iran, Pakistan, and Afghanistan. It belongs to the Northwestern Iranian language group and has multiple dialects. Is there anything specific you would like to know about Balochi? I am sorry, but as a text-based assistant, I am unable to provide transcription services for the Balochi language. However, there are various websites and professional services available that specialize in language transcription. I recommend conducting an online search for transcription services specifically for the Balochi language to find suitable options. Balochi is spoken primarily in the following regions:
+1. Balochistan - This is the largest region where Balochi is spoken. It encompasses parts of Iran, Pakistan, and Afghanistan.
+2. Sistan and Baluchestan Province - Located in southeastern Iran, this province has a significant Balochi-speaking population.
+3. Khyber Pakhtunkhwa - In Pakistan, Balochi is spoken in some areas of this province, particularly in Dera Ismail Khan and Tank districts.
+4. Southwestern Afghanistan - Parts of southwestern Afghanistan, including Nimruz, Helmand, and Kandahar provinces, have Balochi-speaking communities.
+5. Arabian Gulf - Due to migration, there are Balochi-speaking communities in Arabian Gulf countries such as Oman, Bahrain, and the United Arab Emirates.
+It's important to note that Balochi is also spoken in smaller communities in other regions due to migration and diaspora. Balochi is an Iranian language spoken by the Baloch people, primarily in the Balochistan region which spans parts of Iran, Pakistan, and Afghanistan. Balochi has several dialects, which are spoken in different regions and have some variations in grammar and vocabulary. Some of the major Balochi dialects include:
+1. Eastern Balochi: This dialect is spoken in the eastern parts of Balochistan, which includes parts of Iran and Pakistan. It is also the most widely spoken dialect of Balochi.
+2. Western Balochi: This dialect is spoken in the western parts of Balochistan, particularly in Iran.
+3. Southern Balochi: This dialect is spoken in the southernmost parts of Balochistan, mainly in Pakistan.
+4. Northern Balochi: This dialect is spoken in the northern parts of Balochistan, primarily in the Sistan and Baluchestan Province of Iran.
+5. Central Balochi: This dialect is spoken in the central regions of Balochistan, including parts of Iran and Pakistan.
+It's important to note that these dialects can further have sub-dialects and variations within them, depending on specific geographical locations. To utilize Balochi language transcription services, you can follow these steps:
+1. Research Transcription Services: Start by researching transcription service providers that offer Balochi language transcription. There are several online platforms and professional agencies specializing in different languages, including Balochi.
+2. Choose a Reliable Provider: Compare the reputation, experience, customer reviews, and pricing of different providers. Look for a reliable service that has experience in transcribing Balochi audio or video content accurately.
+3. Provide Audio/Video Files: Once you've chosen a provider, gather the Balochi audio or video files that you need to be transcribed. Ensure that the audio quality is good to ensure accurate transcription.
+4. Upload Files: Most transcription service providers have a user-friendly online platform where you can upload your files. Follow their instructions to upload the Balochi audio or video files securely.
+5. Specify Transcription Requirements: Clearly communicate your transcription requirements to the service provider. Inform them about the language (Balochi), any time stamps needed, any specific formatting requirements, or any additional notes to assist the transcriber.
+6. Review and Approve: Once the transcription is complete, the service provider will provide you with the finished transcript. Take the time to review and proofread the transcript to ensure accuracy. If there are any errors or revisions needed, provide your feedback to the service provider for adjustments.
+7. Payment and Delivery: Once you are satisfied with the transcription, proceed with the payment process as per the service provider's instructions. After the payment is complete, you will receive the final transcript in the desired format (e.g., Word, PDF, etc.).
+It's important to note that Balochi language transcription services may vary in pricing and turnaround time depending on the provider and the complexity of the content. Balochi is primarily spoken in the following countries:
+1. Pakistan: Balochi is one of the major languages spoken in Pakistan, especially in the province of Balochistan.
+2. Iran: Balochi is spoken by the Baloch people in southeastern Iran, primarily in Sistan and Baluchestan province.
+3. Afghanistan: Balochi is spoken by the Baloch minority in Afghanistan, particularly in the southern regions bordering Pakistan and Iran.
+4. Oman: Balochi is spoken by the Baloch communities settled in Oman, especially in the Musandam Governorate.
+5. United Arab Emirates: Balochi is spoken by the Baloch people living in the United Arab Emirates, particularly in the coastal areas.
+6. Turkmenistan: Balochi is spoken by a small community of Baloch people in Turkmenistan.
+7. Tajikistan: Balochi is spoken by a small number of Baloch people in Tajikistan.
+8. India: Balochi is spoken by a small number of people in India, primarily in Gujarat and parts of Rajasthan.
+It is worth noting that Balochi is a regional and minority language in these countries, and the level of proficiency may vary among the speakers. Transcription is needed for the Balochi language, like any other language, for several reasons:
+1. Standardization: Balochi, like many regional and minority languages, does not have a standardized writing system that is universally recognized and used by all speakers. Transcription provides a systematic way to represent the spoken language in writing, making it easier to read, teach, and learn.
+2. Accessibility: Balochi is primarily an oral language, and many speakers may not be proficient in reading or writing it. Transcribing Balochi into a written form allows for better accessibility, enabling more people to access and comprehend the language. It also facilitates the preservation and documentation of Balochi culture and history.
+3. Education: Transcription plays a vital role in language education. It helps create teaching materials, textbooks, and dictionaries, which can enhance the learning experience for learners of Balochi as a second language. Transcription also assists in organizing language courses and developing reading and writing skills among Balochi speakers.
+4. Language preservation: Balochi, like many indigenous languages, is at risk of language erosion or extinction. By transcribing Balochi, efforts can be made to preserve and revitalize the language. Transcription helps in documenting the language's vocabulary, grammar, and literature, allowing future generations to study, understand, and carry on the Balochi language and culture.
+5. Communication and research: Transcription allows Balochi speakers to communicate in writing, providing a way to share ideas, stories, and information. It also facilitates research and analysis of the linguistic and sociolinguistic aspects of Balochi. Transcription enables researchers to study the language, its dialectal variations, and its historical development.
+In summary, transcription is essential for the Balochi language to standardize its writing system, enhance accessibility and education, preserve the language, facilitate communication, and advance research on Balochi linguistics.</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Balochi  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>Balochi Transcription Services: Preserving the Balochi Language
+Balochi is an Iranian language primarily spoken by the Baloch people in Iran, Pakistan, and Afghanistan. With its rich history and diverse dialects, Balochi is a language that deserves recognition and preservation. Capital Typing offers professional Balochi transcription services to support the documentation and accessibility of Balochi language content.
+Transcription services have become increasingly important for regional and minority languages like Balochi. Here are some reasons why Balochi transcription services are crucial:
+Standardization: Balochi lacks a standardized writing system that is universally recognized and used by all speakers. Transcription provides a systematic way to represent the spoken language in writing, making it easier to read, teach, and learn. Capital Typing ensures accurate transcription that reflects the nuances and variations of Balochi dialects.
+Accessibility: Many Balochi speakers may not be proficient in reading or writing the language, as it is primarily an oral language. Transcribing Balochi into a written form allows for better accessibility, enabling more people to access and comprehend the language. Capital Typing's transcription services help make Balochi content accessible to a wider audience, promoting inclusivity and understanding.
+Education: Transcription plays a vital role in language education. It helps create teaching materials, textbooks, and dictionaries, enhancing the learning experience for learners of Balochi as a second language. By transcribing Balochi, Capital Typing supports language courses and assists in developing reading and writing skills among Balochi speakers.
+Preservation: Balochi, like many indigenous languages, is at risk of erosion or extinction. Transcription efforts are crucial for preserving and revitalizing the language. Transcribing Balochi helps document its vocabulary, grammar, and literature, ensuring future generations can study, understand, and carry on the Balochi language and culture. Capital Typing's transcription services contribute to the preservation and promotion of Balochi heritage.
+Communication and Research: Transcription allows Balochi speakers to communicate in writing and share ideas, stories, and information. It facilitates research and analysis of the linguistic and sociolinguistic aspects of Balochi. Transcribing Balochi content enables researchers to study the language, its dialectal variations, and its historical development. Capital Typing's accurate and reliable transcription services support academic and cultural research on Balochi.
+Capital Typing understands the unique complexities and variations of Balochi dialects. Our team of experienced professionals ensures accurate Balochi transcription services, delivering high-quality transcriptions tailored to meet your specific needs. Whether you require transcription for audio or video files, we offer a user-friendly online platform for file uploading and secure document delivery.
+Preserving and promoting the Balochi language is essential to maintaining cultural diversity and linguistic heritage. Capital Typing is committed to helping you transcribe and preserve Balochi content accurately and efficiently. Contact us today to learn more about our Balochi transcription services and how we can assist you in preserving and promoting the Balochi language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bamanankan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>I can assist you with learning Bamanankan! What would you like to know or practice?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bamanankan language transcription services</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I am unable to transcribe Bamanankan language. My capabilities primarily involve providing information and assisting with tasks in English. However, there are online transcription services available that might be able to assist you with Bamanankan language transcription.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bamanankan regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bamanankan, also known as Bambara, is primarily spoken in the following regions:
+1. Mali: Bamanankan is one of the national languages of Mali and is widely spoken throughout the country. It is particularly dominant in the southern regions of Sikasso, Koulikoro, and the capital city of Bamako.
+2. Burkina Faso: Bamanankan is spoken in various parts of Burkina Faso, especially in the western and southwestern regions bordering Mali. It is also spoken in the capital city of Ouagadougou.
+3. Guinea: Bamanankan is spoken by the Bambara people in Guinea, primarily in the northeastern regions of Kankan and Siguiri.
+4. Senegal: Bamanankan is spoken by a significant number of people in Senegal, particularly in the southeastern region of Kolda, bordering Guinea.
+5. Gambia: Bamanankan is spoken by a small community of Bambara people in the Upper River Division of Gambia.
+Please note that Bamanankan may be spoken in smaller communities or by individuals in neighboring countries as well, due to cultural and historical connections. However, the regions listed above are the main areas where Bamanankan is predominantly spoken.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Bamanankan dialects</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bamanankan, also known as Bambara, is a major Manding language spoken primarily in Mali in West Africa. It is the largest and most widely spoken of the Manding dialect continuum. Within the Bamanankan language, there are various dialects spoken in different regions of Mali. Some of the main dialects of Bamanankan include:
+1. Bamako Dialect: This dialect is spoken in and around the capital city of Mali, Bamako. It is considered the standard dialect of Bamanankan due to its prominence in government and media.
+2. Segou Dialect: This dialect is spoken in the Segou region of Mali. It has some distinct pronunciation and vocabulary differences compared to the Bamako dialect.
+3. Sikasso Dialect: Spoken in the Sikasso region of Mali, this dialect also has some unique features, particularly in its pronunciation.
+4. Kita Dialect: This dialect is spoken in the Kita region of Mali and is known for its distinctive accent and pronunciation.
+5. Koutiala Dialect: Spoken in the Koutiala region of Mali, this dialect has its own specific linguistic features.
+These dialects, while sharing many similarities, may differ in terms of vocabulary, pronunciation, and grammar. However, speakers of different dialects can usually understand each other without much difficulty.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bamanankan language transcription services</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>To utilize Bamanankan language transcription services, follow these steps:
+1. Research Service Providers: Look for transcription service providers that specifically mention Bamanankan language transcription or multilingual services. You can search online or check with professional organizations that specialize in translation and transcription.
+2. Evaluate Service Providers: Consider factors such as the provider's reputation, expertise in Bamanankan language transcription, accuracy rates, turnaround times, and pricing. Read reviews or testimonials from previous clients to gauge the quality of their services.
+3. Contact Service Providers: Reach out to selected service providers to discuss your specific transcription needs. Inquire about their process, turnaround times, pricing structure, and any other relevant details. It's essential to ensure that the provider can handle the specific dialect of Bamanankan that you require.
+4. Provide Audio or Video Files: Once you have selected a service provider, submit your audio or video files that require transcription. You can usually upload the files through secure online platforms or share them via cloud storage services.
+5. Specify Transcription Requirements: Clearly communicate any specific instructions regarding the transcription, such as speaker identification, timestamps, formatting preferences, or any specific terminology that is unique to your project.
+6. Review and Finalize Transcripts: Once the provider completes the transcription, they will typically deliver the transcripts via email or through their online platform. Review the transcripts to ensure accuracy and adherence to your requirements. If there are any issues or errors, communicate them to the provider for revisions.
+7. Pay for Services: Process the payment as per the agreed-upon terms with the service provider. Some providers may require upfront payment or offer different payment options, so clarify the payment process beforehand.
+By following these steps, you can effectively utilize Bamanankan language transcription services to convert your audio or video content into written form.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Countries where Bamanankan is spoken</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Bamanankan, also known as Bambara, is primarily spoken in Mali, where it is an official language. It is also spoken in neighboring countries such as Burkina Faso, Ivory Coast, Guinea, Senegal, and Gambia. Bamanankan has also spread to other parts of Africa, particularly in areas with Malian diaspora communities.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bamanankan language</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Transcription is needed in Bamanankan language (also known as Bambara) for several reasons:
+1. Standardization: Bamanankan is a written language that traditionally uses the N'Ko script. However, N'Ko is not widely known or used, especially in digital contexts. Therefore, transcription into a Latin-based script is necessary for standardization and ease of use across different platforms.
+2. Accessibility: Transcription into a widely recognized script like the Latin alphabet allows Bamanankan to be more accessible to a broader audience, including non-native speakers, researchers, and language learners. It facilitates the sharing of written materials, educational resources, and communication.
+3. Technology: Digital tools and technologies are predominantly designed to handle Latin characters, making it easier to develop language-learning resources, online dictionaries, mobile applications, and other digital tools for Bamanankan if it is transcribed into the Latin alphabet.
+4. Preservation: Transcription can help preserve the Bamanankan language and its cultural heritage. By transcribing Bamanankan into a widely recognized script, it becomes easier to document, study, and archive the language for future generations. It also aids language revitalization efforts and ensures the language's survival in an increasingly digitized world.
+Overall, transcription is crucial for Bamanankan language to enhance its visibility, accessibility, and preservation in both traditional and digital contexts.</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>I can assist you with learning Bamanankan! What would you like to know or practice? I'm sorry, but I am unable to transcribe Bamanankan language. My capabilities primarily involve providing information and assisting with tasks in English. However, there are online transcription services available that might be able to assist you with Bamanankan language transcription. Bamanankan, also known as Bambara, is primarily spoken in the following regions:
+1. Mali: Bamanankan is one of the national languages of Mali and is widely spoken throughout the country. It is particularly dominant in the southern regions of Sikasso, Koulikoro, and the capital city of Bamako.
+2. Burkina Faso: Bamanankan is spoken in various parts of Burkina Faso, especially in the western and southwestern regions bordering Mali. It is also spoken in the capital city of Ouagadougou.
+3. Guinea: Bamanankan is spoken by the Bambara people in Guinea, primarily in the northeastern regions of Kankan and Siguiri.
+4. Senegal: Bamanankan is spoken by a significant number of people in Senegal, particularly in the southeastern region of Kolda, bordering Guinea.
+5. Gambia: Bamanankan is spoken by a small community of Bambara people in the Upper River Division of Gambia.
+Please note that Bamanankan may be spoken in smaller communities or by individuals in neighboring countries as well, due to cultural and historical connections. However, the regions listed above are the main areas where Bamanankan is predominantly spoken. Bamanankan, also known as Bambara, is a major Manding language spoken primarily in Mali in West Africa. It is the largest and most widely spoken of the Manding dialect continuum. Within the Bamanankan language, there are various dialects spoken in different regions of Mali. Some of the main dialects of Bamanankan include:
+1. Bamako Dialect: This dialect is spoken in and around the capital city of Mali, Bamako. It is considered the standard dialect of Bamanankan due to its prominence in government and media.
+2. Segou Dialect: This dialect is spoken in the Segou region of Mali. It has some distinct pronunciation and vocabulary differences compared to the Bamako dialect.
+3. Sikasso Dialect: Spoken in the Sikasso region of Mali, this dialect also has some unique features, particularly in its pronunciation.
+4. Kita Dialect: This dialect is spoken in the Kita region of Mali and is known for its distinctive accent and pronunciation.
+5. Koutiala Dialect: Spoken in the Koutiala region of Mali, this dialect has its own specific linguistic features.
+These dialects, while sharing many similarities, may differ in terms of vocabulary, pronunciation, and grammar. However, speakers of different dialects can usually understand each other without much difficulty. To utilize Bamanankan language transcription services, follow these steps:
+1. Research Service Providers: Look for transcription service providers that specifically mention Bamanankan language transcription or multilingual services. You can search online or check with professional organizations that specialize in translation and transcription.
+2. Evaluate Service Providers: Consider factors such as the provider's reputation, expertise in Bamanankan language transcription, accuracy rates, turnaround times, and pricing. Read reviews or testimonials from previous clients to gauge the quality of their services.
+3. Contact Service Providers: Reach out to selected service providers to discuss your specific transcription needs. Inquire about their process, turnaround times, pricing structure, and any other relevant details. It's essential to ensure that the provider can handle the specific dialect of Bamanankan that you require.
+4. Provide Audio or Video Files: Once you have selected a service provider, submit your audio or video files that require transcription. You can usually upload the files through secure online platforms or share them via cloud storage services.
+5. Specify Transcription Requirements: Clearly communicate any specific instructions regarding the transcription, such as speaker identification, timestamps, formatting preferences, or any specific terminology that is unique to your project.
+6. Review and Finalize Transcripts: Once the provider completes the transcription, they will typically deliver the transcripts via email or through their online platform. Review the transcripts to ensure accuracy and adherence to your requirements. If there are any issues or errors, communicate them to the provider for revisions.
+7. Pay for Services: Process the payment as per the agreed-upon terms with the service provider. Some providers may require upfront payment or offer different payment options, so clarify the payment process beforehand.
+By following these steps, you can effectively utilize Bamanankan language transcription services to convert your audio or video content into written form. Bamanankan, also known as Bambara, is primarily spoken in Mali, where it is an official language. It is also spoken in neighboring countries such as Burkina Faso, Ivory Coast, Guinea, Senegal, and Gambia. Bamanankan has also spread to other parts of Africa, particularly in areas with Malian diaspora communities. Transcription is needed in Bamanankan language (also known as Bambara) for several reasons:
+1. Standardization: Bamanankan is a written language that traditionally uses the N'Ko script. However, N'Ko is not widely known or used, especially in digital contexts. Therefore, transcription into a Latin-based script is necessary for standardization and ease of use across different platforms.
+2. Accessibility: Transcription into a widely recognized script like the Latin alphabet allows Bamanankan to be more accessible to a broader audience, including non-native speakers, researchers, and language learners. It facilitates the sharing of written materials, educational resources, and communication.
+3. Technology: Digital tools and technologies are predominantly designed to handle Latin characters, making it easier to develop language-learning resources, online dictionaries, mobile applications, and other digital tools for Bamanankan if it is transcribed into the Latin alphabet.
+4. Preservation: Transcription can help preserve the Bamanankan language and its cultural heritage. By transcribing Bamanankan into a widely recognized script, it becomes easier to document, study, and archive the language for future generations. It also aids language revitalization efforts and ensures the language's survival in an increasingly digitized world.
+Overall, transcription is crucial for Bamanankan language to enhance its visibility, accessibility, and preservation in both traditional and digital contexts.</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bamanankan  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>Looking for Bamanankan transcription services? Look no further than Capital Typing! Our team of experienced transcriptionists is here to assist you with converting your Bamanankan audio or video files into written form.
+Bamanankan, also known as Bambara, is a major Manding language primarily spoken in Mali and several neighboring countries. It is widely spoken throughout Mali, with its dominance in regions such as Sikasso, Koulikoro, and the capital city of Bamako. Bamanankan is also spoken in Burkina Faso, Guinea, Senegal, and Gambia, making it a significant language in West Africa.
+Transcription services are crucial for Bamanankan for several reasons. Firstly, it allows for standardization. Bamanankan traditionally uses the N'Ko script, which is not widely known or used, especially in digital contexts. Transcription into the Latin alphabet ensures standardization and ease of use across different platforms.
+Furthermore, transcription enhances accessibility. By transcribing Bamanankan into a widely recognized script like the Latin alphabet, it becomes more accessible to a broader audience. This includes non-native speakers, researchers, and language learners who can benefit from written materials, educational resources, and improved communication.
+Technology also plays a crucial role. Digital tools and technologies are predominantly designed to handle Latin characters, making it easier to develop language-learning resources, online dictionaries, mobile applications, and other digital tools for Bamanankan. Transcription into the Latin alphabet ensures seamless integration with these technological advancements.
+Preservation is another important aspect of transcription. By transcribing Bamanankan into a widely recognized script, it becomes easier to document, study, and archive the language for future generations. Transcription supports language revitalization efforts and contributes to the preservation of Bamanankan's rich cultural heritage.
+At Capital Typing, we offer high-quality Bamanankan transcription services tailored to your specific needs. Our team of skilled transcriptionists is well-versed in Bamanankan, ensuring accuracy and linguistic expertise. Whether you have audio or video files that require transcription, we can handle them with efficiency and professionalism.
+To get started, simply reach out to us and provide the details of your transcription project. Our friendly and knowledgeable staff will guide you through the process, answering any questions you may have and providing a clear understanding of our services and pricing.
+Once you've submitted your Bamanankan audio or video files, our team will transcribe them according to your specifications. We can include speaker identification, timestamps, and other formatting preferences to ensure the final transcripts meet your requirements.
+After the transcription is complete, we will deliver the finished transcripts to you via email or through our secure online platform. You can review them for accuracy and request any necessary revisions. Our goal is to provide you with the highest quality Bamanankan transcription services that meet your expectations.
+So why wait? Contact Capital Typing today and let us assist you with your Bamanankan transcription needs. We are dedicated to providing excellent service and helping you make your Bamanankan audio or video content accessible, shareable, and preserved for future generations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Bashkort</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bashkort is a Turkic language primarily spoken by the Bashkirs, who are a Turkic ethnic group mainly residing in the Republic of Bashkortostan, which is located in central Russia. The language belongs to the Kipchak branch of the Turkic language family.
+Bashkort has its own unique alphabet based on the Cyrillic script, which was introduced in the 1930s. Prior to that, Bashkort was written using the Arabic script.
+If you have any specific questions about the Bashkort language, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bashkort language transcription services</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>I can certainly help with Bashkort language transcription services. Please provide me with the details of the audio or video file that needs to be transcribed, and I will assist you in getting it done.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bashkort regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bashkort is predominantly spoken in the Republic of Bashkortostan, which is situated in the Ural Mountains of Russia. It is the official language of the republic and is widely spoken by the local population. The major cities in Bashkortostan, such as Ufa, Sterlitamak, Salavat, and Oktyabrsky, are all important centers where Bashkort is spoken.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bashkort dialects</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Bashkort language belongs to the Turkic language family and is primarily spoken in the Republic of Bashkortostan in Russia. Within the Bashkort language, there are several dialects spoken by different communities within the region. Some of the major dialects include:
+1. Eastern Bashkir: This dialect is spoken in the eastern part of Bashkortostan, including areas like Ufa and Sterlitamak. It is considered the standard dialect and is used in official communication.
+2. Western Bashkir: Spoken in the western parts of Bashkortostan, including areas like Beloretsk and Meleuz. It has some distinguishing features, such as variations in vocabulary and pronunciation.
+3. Southern Bashkir: This dialect is spoken in the southern regions of Bashkortostan, near the border with neighboring countries like Kazakhstan. It has some influences from Kazakh and other Turkic languages spoken in the region.
+4. Northern Bashkir: Spoken in the northern parts of Bashkortostan, closer to the Ural Mountains. It has some unique features and influences from neighboring Uralic languages, such as Udmurt and Tatar.
+These are just a few examples of the dialects spoken within the Bashkort language. Each dialect has its own distinct features, but they are all mutually intelligible to some extent.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bashkort language transcription services</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>To utilize Bashkort language transcription services, follow these steps:
+1. Research and identify Bashkort language transcription service providers: Look for companies or individual transcribers who offer Bashkort transcription services. Check their experience, reviews, and rates to ensure reliability and quality.
+2. Reach out to the service provider: Contact the service provider through their website, email, or phone number. Inquire about their Bashkort transcription services, including turnaround time, pricing, and any additional requirements.
+3. Provide transcription details: Once you have chosen a service provider, provide them with the audio or video files that require transcription. Clearly communicate the specifics of your transcription project, such as the desired transcription format, timestamps, and any specific instructions or formatting requirements.
+4. Agree on terms and pricing: Discuss and agree on the terms of the transcription project, including the pricing, payment methods, and delivery expectations. It's important to ensure that both parties are clear about the project scope before proceeding.
+5. Share the files securely: If the transcription service provider does not have their own file-sharing platform, use a secure file sharing service like Dropbox or Google Drive to upload and share the files with them. Make sure to grant them access and provide any required passwords or encryption keys if applicable.
+6. Review and revise: Once the transcription is completed, the service provider will deliver the transcribed files to you. Review the transcript for accuracy and completeness. If any revisions are needed, provide clear feedback to the service provider and they will make the necessary changes.
+7. Payment and feedback: Upon satisfactory completion of the transcription project, make the agreed-upon payment to the service provider. Additionally, take a moment to provide feedback or review the service, as it will be valuable to the provider and potential future clients.
+Remember, clear communication and providing all necessary information will help the transcription service provider accurately transcribe your Bashkort audio or video files.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Countries where Bashkort is spoken</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Bashkort is primarily spoken in the Republic of Bashkortostan, which is a federal subject of Russia. It is also spoken to a lesser extent in neighboring regions of Russia, such as Tatarstan.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bashkort language</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Transcription is commonly used for languages, such as Bashkort, that have a non-Latin script, such as Cyrillic. Transcription allows for the representation of the sounds and pronunciation of words in a way that is more accessible for non-native speakers or those unfamiliar with the script. It also helps to standardize the representation of the language in written form, allowing for easier communication and learning. Transcription can be particularly helpful in language learning materials, academic research, and international communication.</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Bashkort is a Turkic language primarily spoken by the Bashkirs, who are a Turkic ethnic group mainly residing in the Republic of Bashkortostan, which is located in central Russia. The language belongs to the Kipchak branch of the Turkic language family.
+Bashkort has its own unique alphabet based on the Cyrillic script, which was introduced in the 1930s. Prior to that, Bashkort was written using the Arabic script.
+If you have any specific questions about the Bashkort language, feel free to ask! I can certainly help with Bashkort language transcription services. Please provide me with the details of the audio or video file that needs to be transcribed, and I will assist you in getting it done. Bashkort is predominantly spoken in the Republic of Bashkortostan, which is situated in the Ural Mountains of Russia. It is the official language of the republic and is widely spoken by the local population. The major cities in Bashkortostan, such as Ufa, Sterlitamak, Salavat, and Oktyabrsky, are all important centers where Bashkort is spoken. The Bashkort language belongs to the Turkic language family and is primarily spoken in the Republic of Bashkortostan in Russia. Within the Bashkort language, there are several dialects spoken by different communities within the region. Some of the major dialects include:
+1. Eastern Bashkir: This dialect is spoken in the eastern part of Bashkortostan, including areas like Ufa and Sterlitamak. It is considered the standard dialect and is used in official communication.
+2. Western Bashkir: Spoken in the western parts of Bashkortostan, including areas like Beloretsk and Meleuz. It has some distinguishing features, such as variations in vocabulary and pronunciation.
+3. Southern Bashkir: This dialect is spoken in the southern regions of Bashkortostan, near the border with neighboring countries like Kazakhstan. It has some influences from Kazakh and other Turkic languages spoken in the region.
+4. Northern Bashkir: Spoken in the northern parts of Bashkortostan, closer to the Ural Mountains. It has some unique features and influences from neighboring Uralic languages, such as Udmurt and Tatar.
+These are just a few examples of the dialects spoken within the Bashkort language. Each dialect has its own distinct features, but they are all mutually intelligible to some extent. To utilize Bashkort language transcription services, follow these steps:
+1. Research and identify Bashkort language transcription service providers: Look for companies or individual transcribers who offer Bashkort transcription services. Check their experience, reviews, and rates to ensure reliability and quality.
+2. Reach out to the service provider: Contact the service provider through their website, email, or phone number. Inquire about their Bashkort transcription services, including turnaround time, pricing, and any additional requirements.
+3. Provide transcription details: Once you have chosen a service provider, provide them with the audio or video files that require transcription. Clearly communicate the specifics of your transcription project, such as the desired transcription format, timestamps, and any specific instructions or formatting requirements.
+4. Agree on terms and pricing: Discuss and agree on the terms of the transcription project, including the pricing, payment methods, and delivery expectations. It's important to ensure that both parties are clear about the project scope before proceeding.
+5. Share the files securely: If the transcription service provider does not have their own file-sharing platform, use a secure file sharing service like Dropbox or Google Drive to upload and share the files with them. Make sure to grant them access and provide any required passwords or encryption keys if applicable.
+6. Review and revise: Once the transcription is completed, the service provider will deliver the transcribed files to you. Review the transcript for accuracy and completeness. If any revisions are needed, provide clear feedback to the service provider and they will make the necessary changes.
+7. Payment and feedback: Upon satisfactory completion of the transcription project, make the agreed-upon payment to the service provider. Additionally, take a moment to provide feedback or review the service, as it will be valuable to the provider and potential future clients.
+Remember, clear communication and providing all necessary information will help the transcription service provider accurately transcribe your Bashkort audio or video files. Bashkort is primarily spoken in the Republic of Bashkortostan, which is a federal subject of Russia. It is also spoken to a lesser extent in neighboring regions of Russia, such as Tatarstan. Transcription is commonly used for languages, such as Bashkort, that have a non-Latin script, such as Cyrillic. Transcription allows for the representation of the sounds and pronunciation of words in a way that is more accessible for non-native speakers or those unfamiliar with the script. It also helps to standardize the representation of the language in written form, allowing for easier communication and learning. Transcription can be particularly helpful in language learning materials, academic research, and international communication.</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bashkort  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>Bashkort Transcription Services: Accurate Transcriptions for the Bashkort Language
+Bashkort Transcription Services offers professional transcription services for the Bashkort language, spoken primarily in the Republic of Bashkortostan, Russia. Our team of skilled linguists and transcribers is proficient in Bashkort and will ensure that your audio or video files are accurately transcribed with precision and attention to detail.
+The Bashkort language belongs to the Turkic language family and has its own unique alphabet based on Cyrillic script. We understand the nuances of the language and will provide you with high-quality transcriptions in the desired format, whether it be Cyrillic, Latin, or any other transcription system.
+Our transcription services cover a wide range of industries and purposes. Whether you need transcriptions for research interviews, business meetings, educational materials, or any other content, we have the expertise to deliver accurate and reliable transcriptions tailored to your specific needs.
+At Bashkort Transcription Services, we recognize the importance of maintaining confidentiality and data security. Rest assured that your files will be handled with the utmost care and stored securely throughout the transcription process. We utilize secure file sharing platforms, such as Dropbox or Google Drive, to ensure the safe transfer of your files.
+To avail of our Bashkort transcription services, simply follow these easy steps:
+1. Contact us: Reach out to us through our website, email, or phone number to discuss your transcription needs. We will provide you with all the necessary information and address any questions or concerns you may have.
+2. Provide transcription details: Share the audio or video files that require transcription, along with any specific instructions or formatting requirements. This includes the desired transcription format, timestamps, and any terminology or jargon that may be relevant.
+3. Receive a quote: Based on the details provided, we will provide you with a transparent and competitive quote for our services. Our pricing is fair and reflects the quality and accuracy of our work.
+4. Transcription process: Our team of professional linguists and transcribers will meticulously transcribe your Bashkort audio or video files. We pay close attention to detail and ensure that our transcriptions are accurate and of the highest quality.
+5. Review and revision: Once the transcription is complete, we will deliver the transcribed files to you for review. If any revisions or modifications are needed, simply provide us with clear feedback, and we will make the necessary changes to meet your expectations.
+6. Final delivery and payment: Upon your approval, we will provide you with the final transcribed files. You can make the agreed-upon payment through our secure payment system. We also appreciate your feedback and encourage you to share your experience with us.
+At Bashkort Transcription Services, we take pride in delivering accurate and reliable transcriptions for the Bashkort language. Our commitment to quality and customer satisfaction sets us apart. Contact us today and let us assist you with all your Bashkort transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Basque</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Basque is a language spoken primarily in the Basque Country, a region spanning northeastern Spain and southwestern France. It is a unique language that is not related to any other known languages. If you have any specific questions about the Basque language or culture, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Basque language transcription services</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>There are several transcription services that offer Basque language transcription. Here are a few options you can consider:
+1. Gengo: Gengo offers professional transcription services for various languages, including Basque. They have a team of native-speaking transcribers who can accurately transcribe audio or video content into written text.
+2. TranscriptionWing: TranscriptionWing is another reliable option for Basque language transcription. They have a team of experienced transcribers who specialize in different languages, including Basque.
+3. Way With Words: Way With Words provides transcription services for multiple languages, including Basque. They offer a variety of transcription options, such as verbatim, intelligent, and time-coded transcripts.
+4. GoTranscript: GoTranscript is a popular transcription service that offers Basque language transcription. They have a large pool of professional transcribers who can accurately transcribe your audio or video files.
+When choosing a transcription service, make sure to consider factors such as turnaround time, pricing, and data security to find the best option that suits your needs.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Basque regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>The Basque language, also known as Euskara, is spoken in various regions located primarily in Spain and France. In Spain, it is mainly spoken in the Basque Country (known as Euskadi in Basque), which consists of three provinces: Álava, Gipuzkoa, and Biscay. Additionally, it is also spoken in parts of the neighboring provinces of Navarre and La Rioja. In France, Basque is spoken in the traditional Basque region, known as the French Basque Country (Pays Basque), which encompasses the departments of Pyrénées-Atlantiques and parts of Landes.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Basque dialects</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Basque, also known as Euskara, is a language spoken in the Basque Country, which straddles northern Spain and southwestern France. It is considered a language isolate, meaning it has no known relatives.
+Within Basque, there are several dialects or variations spoken. These dialects can differ in vocabulary, pronunciation, and grammar. The main dialects of Basque are:
+1. Western: Spoken mainly in the provinces of Biscay and Gipuzkoa in the Spanish Basque Country.
+2. Eastern: Spoken in the provinces of Álava and Navarre in the Spanish Basque Country, as well as in parts of the French Basque Country.
+3. Navarrese: Spoken in the Navarre region of Spain, this dialect has some unique features compared to other Basque dialects.
+4. Souletin: Spoken in the historical region of Soule in France, this dialect has influences from Gascon and is somewhat distinct from the other Basque dialects.
+These dialects can vary significantly, with speakers from different regions sometimes having difficulty understanding each other. However, Standard Basque, based on the dialect of Gipuzkoa, is used for most formal contexts and in education.
+It's worth noting that Basque has undergone some standardization efforts in the 20th century to create a unified written form, which has helped to promote communication and understanding among Basque speakers across different dialects.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>How can someone utilize Basque language transcription services</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>To utilize Basque language transcription services, follow these steps:
+1. Find a reliable transcription service: Look for a transcription service that offers Basque language transcription services. Make sure they have experience in transcribing audio or video content in Basque accurately.
+2. Provide the audio or video recordings: Gather all the audio or video recordings that need to be transcribed. These can be interviews, meetings, lectures, podcasts, or any other spoken content in Basque.
+3. Submit the recordings: Upload or send the recordings to the transcription service provider. Ensure that they accept the file formats you have.
+4. Specify the transcription requirements: Clearly communicate your transcription requirements to the service provider. This includes the desired transcription format (verbatim or summarized) and any specific instructions or formatting requests.
+5. Discuss turnaround time and pricing: Verify the estimated turnaround time for the transcription and ensure it aligns with your needs. Also, discuss the pricing and billing terms with the service provider.
+6. Confidentiality agreement: If confidentiality is important for your content, consider signing a non-disclosure agreement (NDA) with the transcription service provider to protect your sensitive information.
+7. Review and proofread: Once the transcription is delivered, review it carefully to ensure accuracy. If necessary, consult with a Basque speaker to review the transcription for any corrections or improvements.
+8. Make use of the transcriptions: Use the transcriptions for your desired purposes, such as creating subtitles, translating the transcripts to other languages, conducting analysis, or simply having a written record of the spoken content in Basque.
+By following these steps, you can effectively utilize Basque language transcription services to convert your audio or video recordings into accurate written transcripts.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Countries where Basque is spoken</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Basque, also known as Euskara, is primarily spoken in the Basque Country, which is an autonomous community in northern Spain and southwestern France. It is the official language of the Basque Country and is also recognized as a regional language in the neighboring regions of Navarre and the French Basque Country. Additionally, there are smaller communities of Basque speakers throughout the rest of Spain and France.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Basque language</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Basque language for several reasons:
+1. Standardization: Basque has several dialects, and transcription helps in creating a standardized written form that can be understood by speakers of different dialects. It allows for consistent spelling, pronunciation, and grammar rules.
+2. Education: Transcription enables the creation of teaching materials, textbooks, and dictionaries that facilitate the learning of the Basque language. It helps learners, especially non-native speakers, to read, write, and understand the language more easily.
+3. Communication: Transcription allows for the accurate representation of Basque in written form, ensuring effective communication between speakers. It provides a written reference point for discussions, documentation, and other written interactions.
+4. Documentation and preservation: Transcription plays a crucial role in documenting and preserving the Basque language. It helps in the recording of oral traditions, literature, historical documents, and other cultural expressions. Transcription ensures that the language can be studied, appreciated, and passed on to future generations.
+5. Accessibility: Transcription makes the Basque language more accessible to a wider audience, including those who may not speak it fluently or at all. It allows for translation, interpretation, and inclusion in various media such as books, websites, and subtitles, increasing awareness and understanding of Basque culture and language.</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>Basque is a language spoken primarily in the Basque Country, a region spanning northeastern Spain and southwestern France. It is a unique language that is not related to any other known languages. If you have any specific questions about the Basque language or culture, feel free to ask! There are several transcription services that offer Basque language transcription. Here are a few options you can consider:
+1. Gengo: Gengo offers professional transcription services for various languages, including Basque. They have a team of native-speaking transcribers who can accurately transcribe audio or video content into written text.
+2. TranscriptionWing: TranscriptionWing is another reliable option for Basque language transcription. They have a team of experienced transcribers who specialize in different languages, including Basque.
+3. Way With Words: Way With Words provides transcription services for multiple languages, including Basque. They offer a variety of transcription options, such as verbatim, intelligent, and time-coded transcripts.
+4. GoTranscript: GoTranscript is a popular transcription service that offers Basque language transcription. They have a large pool of professional transcribers who can accurately transcribe your audio or video files.
+When choosing a transcription service, make sure to consider factors such as turnaround time, pricing, and data security to find the best option that suits your needs. The Basque language, also known as Euskara, is spoken in various regions located primarily in Spain and France. In Spain, it is mainly spoken in the Basque Country (known as Euskadi in Basque), which consists of three provinces: Álava, Gipuzkoa, and Biscay. Additionally, it is also spoken in parts of the neighboring provinces of Navarre and La Rioja. In France, Basque is spoken in the traditional Basque region, known as the French Basque Country (Pays Basque), which encompasses the departments of Pyrénées-Atlantiques and parts of Landes. Basque, also known as Euskara, is a language spoken in the Basque Country, which straddles northern Spain and southwestern France. It is considered a language isolate, meaning it has no known relatives.
+Within Basque, there are several dialects or variations spoken. These dialects can differ in vocabulary, pronunciation, and grammar. The main dialects of Basque are:
+1. Western: Spoken mainly in the provinces of Biscay and Gipuzkoa in the Spanish Basque Country.
+2. Eastern: Spoken in the provinces of Álava and Navarre in the Spanish Basque Country, as well as in parts of the French Basque Country.
+3. Navarrese: Spoken in the Navarre region of Spain, this dialect has some unique features compared to other Basque dialects.
+4. Souletin: Spoken in the historical region of Soule in France, this dialect has influences from Gascon and is somewhat distinct from the other Basque dialects.
+These dialects can vary significantly, with speakers from different regions sometimes having difficulty understanding each other. However, Standard Basque, based on the dialect of Gipuzkoa, is used for most formal contexts and in education.
+It's worth noting that Basque has undergone some standardization efforts in the 20th century to create a unified written form, which has helped to promote communication and understanding among Basque speakers across different dialects. To utilize Basque language transcription services, follow these steps:
+1. Find a reliable transcription service: Look for a transcription service that offers Basque language transcription services. Make sure they have experience in transcribing audio or video content in Basque accurately.
+2. Provide the audio or video recordings: Gather all the audio or video recordings that need to be transcribed. These can be interviews, meetings, lectures, podcasts, or any other spoken content in Basque.
+3. Submit the recordings: Upload or send the recordings to the transcription service provider. Ensure that they accept the file formats you have.
+4. Specify the transcription requirements: Clearly communicate your transcription requirements to the service provider. This includes the desired transcription format (verbatim or summarized) and any specific instructions or formatting requests.
+5. Discuss turnaround time and pricing: Verify the estimated turnaround time for the transcription and ensure it aligns with your needs. Also, discuss the pricing and billing terms with the service provider.
+6. Confidentiality agreement: If confidentiality is important for your content, consider signing a non-disclosure agreement (NDA) with the transcription service provider to protect your sensitive information.
+7. Review and proofread: Once the transcription is delivered, review it carefully to ensure accuracy. If necessary, consult with a Basque speaker to review the transcription for any corrections or improvements.
+8. Make use of the transcriptions: Use the transcriptions for your desired purposes, such as creating subtitles, translating the transcripts to other languages, conducting analysis, or simply having a written record of the spoken content in Basque.
+By following these steps, you can effectively utilize Basque language transcription services to convert your audio or video recordings into accurate written transcripts. Basque, also known as Euskara, is primarily spoken in the Basque Country, which is an autonomous community in northern Spain and southwestern France. It is the official language of the Basque Country and is also recognized as a regional language in the neighboring regions of Navarre and the French Basque Country. Additionally, there are smaller communities of Basque speakers throughout the rest of Spain and France. Transcription is needed for the Basque language for several reasons:
+1. Standardization: Basque has several dialects, and transcription helps in creating a standardized written form that can be understood by speakers of different dialects. It allows for consistent spelling, pronunciation, and grammar rules.
+2. Education: Transcription enables the creation of teaching materials, textbooks, and dictionaries that facilitate the learning of the Basque language. It helps learners, especially non-native speakers, to read, write, and understand the language more easily.
+3. Communication: Transcription allows for the accurate representation of Basque in written form, ensuring effective communication between speakers. It provides a written reference point for discussions, documentation, and other written interactions.
+4. Documentation and preservation: Transcription plays a crucial role in documenting and preserving the Basque language. It helps in the recording of oral traditions, literature, historical documents, and other cultural expressions. Transcription ensures that the language can be studied, appreciated, and passed on to future generations.
+5. Accessibility: Transcription makes the Basque language more accessible to a wider audience, including those who may not speak it fluently or at all. It allows for translation, interpretation, and inclusion in various media such as books, websites, and subtitles, increasing awareness and understanding of Basque culture and language.</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Basque  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>Basque is a unique language spoken primarily in the Basque Country, which encompasses northeastern Spain and southwestern France. It is not related to any other known languages, making it a fascinating linguistic phenomenon. If you are in need of Basque transcription services, there are a variety of reliable options available.
+One reputable provider is Capital Typing, a transcription service that offers accurate and professional Basque language transcription. Their team of skilled transcribers specializes in different languages, including Basque, ensuring an excellent level of accuracy and attention to detail.
+Capital Typing understands the importance of fast turnaround times, and they strive to deliver efficient results without compromising accuracy. With their years of experience in the industry, they have developed a streamlined process to transcribe your Basque audio or video files quickly and effectively.
+When choosing a transcription service, it is crucial to consider factors such as pricing and data security. Capital Typing offers competitive rates for their Basque language transcription services, ensuring that you receive excellent value for money.
+Data security is also a top priority for Capital Typing. They have strict confidentiality policies in place to protect your sensitive information and ensure that your transcription projects remain secure and confidential.
+To utilize Capital Typing's Basque transcription services, simply follow these steps:
+1. Contact Capital Typing: Reach out to their customer service team either via their website or by phone to discuss your Basque transcription needs. They will guide you through the process and provide any necessary information.
+2. Submit your audio or video files: Gather all the recordings that require transcription and provide them to Capital Typing. They accept a wide range of file formats, making it convenient for you to submit your files.
+3. Specify your requirements: Clearly communicate your transcription requirements to ensure that Capital Typing understands your expectations. This includes any specific formatting requests or instructions for the transcription.
+4. Turnaround time and pricing: Work with Capital Typing to determine the estimated turnaround time for your transcription project and agree on the pricing terms. They will provide you with a quote based on the length and complexity of your project.
+5. Review and approval: Once the transcription is completed, Capital Typing will deliver the written transcripts to you. Take the time to review the transcripts carefully and ensure they meet your expectations. If any changes or corrections are required, communicate them to Capital Typing, and they will make the necessary adjustments.
+By utilizing Capital Typing's Basque transcription services, you can be confident in receiving accurate, reliable, and confidential transcriptions of your Basque audio or video content. Whether you need the transcriptions for research, documentation, or any other purpose, Capital Typing is your trusted partner in meeting your Basque transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Belarusan</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Belarusian is the official language of Belarus, which is a country located in Eastern Europe. It is an East Slavic language, closely related to Russian and Ukrainian. If you need any information or assistance related to Belarusian language, culture, or travel, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Belarusan language transcription services</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>There are various transcription services available for the Belarusan language. Here are a few options you can consider:
+1. Gglot: This online transcription service supports multiple languages, including Belarusan. It offers accurate and fast transcription services with competitive pricing.
+2. Rev: Rev is a popular transcription service that provides high-quality transcriptions in the Belarusan language. They have a large team of professional transcribers and offer quick turnaround times.
+3. Way With Words: Way With Words is a global transcription service that caters to various languages, including Belarusan. They offer accurate and reliable transcriptions with excellent customer support.
+4. GoTranscript: GoTranscript is another online transcription service that can transcribe audio or video files in the Belarusan language. They provide affordable rates and deliver transcriptions in a timely manner.
+Before choosing a service, it's always a good idea to compare their prices, turnaround times, and customer reviews to ensure you find the best match for your needs.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Belarusan regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Belarusian is primarily spoken in the country of Belarus. It is one of the official languages of Belarus, along with Russian. While Belarusian is the official language, Russian is more widely used in everyday life and is the dominant language in cities and urban areas.
+That being said, Belarusian is still spoken in various regions of Belarus. Some of the regions where Belarusian is more commonly spoken include:
+1. Minsk Region: The capital city of Minsk and its surrounding region, including towns and villages within this administrative division, have a significant number of Belarusian speakers.
+2. Vitebsk Region: Located in the northeast of Belarus, the Vitebsk Region has a strong Belarusian-speaking population. Cities like Vitebsk, Orsha, and Polotsk are known for their Belarusian cultural heritage.
+3. Mahilyow Region: The Mahilyow Region, situated in the eastern part of Belarus, is another region where Belarusian is spoken. The city of Mahilyow and other towns in this region have Belarusian-speaking communities.
+4. Hrodna Region: The Hrodna Region, close to the border with Poland and Lithuania, has a significant number of Belarusian speakers. The city of Hrodna and surrounding areas are known for their Belarusian language and culture.
+5. Brest Region: The Brest Region, located in the southwest of Belarus, also has a Belarusian-speaking population. The city of Brest and other towns in this region have a mix of Belarusian and Russian speakers.
+While these regions have a higher concentration of Belarusian speakers, it is worth noting that the actual usage and fluency of Belarusian can vary within each region. Factors such as age, education level, and personal background can influence an individual's proficiency in the language.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Belarusan dialects</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Belarus is a country located in Eastern Europe, and like many countries in the region, it has various dialects and regional variations of the Belarusian language. While the standard literary Belarusian language is based on the dialect spoken in the Minsk region, there are several distinct dialects spoken in different parts of the country. Some of the main dialects include:
+1. Northeastern dialect: This dialect is spoken in the northeastern parts of Belarus, around the cities of Vitebsk, Polotsk, and Orsha. It is known for its distinct pronunciation and vocabulary.
+2. Northwestern dialect: This dialect is spoken in the northwestern parts of Belarus, mainly around the Grodno and Brest regions. It has influences from neighboring languages such as Polish and Lithuanian.
+3. Central dialect: This dialect is spoken in the central parts of Belarus, particularly in the Minsk region. It forms the basis of the standard literary Belarusian language.
+4. Southern dialect: This dialect is spoken in the southern parts of Belarus, around the city of Gomel. It shares some similarities with the Russian language due to its geographic proximity to Russia.
+These are just a few examples of the major dialects spoken in Belarus. Each dialect has its own unique characteristics in terms of pronunciation, vocabulary, and grammar, creating a rich linguistic diversity within the country.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>How can someone utilize Belarusan language transcription services</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>To utilize Belarusan language transcription services, follow these steps:
+1. Research and choose a reputable Belarusan language transcription service provider. Look for companies or individuals with expertise in transcription specifically for Belarusan language.
+2. Contact the selected provider and discuss your transcription needs. Provide details such as the file format, audio quality, desired turnaround time, and any specific requirements.
+3. Submit your audio or video files to the Belarusan language transcription service provider. Make sure the files are in a compatible format and clearly labeled.
+4. Depending on the service provider's process, you may receive a cost estimate for the transcription project or be asked to pay a deposit.
+5. The transcription service provider will assign a professional transcriptionist fluent in Belarusan language to transcribe your files. They will listen to the audio or watch the video and convert the spoken content into written text.
+6. Once the transcription is complete, you will receive the transcribed files in the desired format. Review the files for accuracy and notify the service provider of any necessary revisions or corrections.
+7. If required, make the final payment to the service provider.
+By utilizing Belarusan language transcription services, you can effectively and accurately convert audio or video content into written form for various purposes such as research, documentation, or translation.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Countries where Belarusan is spoken</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Belarusan, also known as Belarusian, is spoken primarily in Belarus, a country located in Eastern Europe. However, there are also significant Belarusian-speaking communities in neighboring countries, including Poland, Lithuania, Latvia, and Ukraine. Additionally, due to migration and diaspora, you may find smaller Belarusian-speaking communities in various parts of the world, such as Russia, United States, Canada, United Kingdom, and Australia.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Belarusan language</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Transcription is important for the Belarusan language for several reasons:
+1. Standardization: Transcription helps in establishing a standard writing system for the language. It allows different individuals and organizations to have a consistent way of writing and representing Belarusan words and sounds.
+2. Clarity and Understanding: Belarusan, like many languages, can have different regional dialects and variations in pronunciation. Transcription helps in providing a standardized representation of these variations, making it easier for people from different regions to understand and communicate effectively.
+3. Language Learning and Education: Transcription aids in language learning and education by providing a phonetic representation of the language. It helps learners understand the pronunciation of words and sounds, enabling them to improve their spoken and written skills.
+4. Accessibility: Transcription plays a significant role in making written Belarusan more accessible to a wider audience, including people with hearing impairments or those who are not familiar with the Cyrillic script used in the Belarusan alphabet.
+Overall, transcription is essential for the Belarusan language as it facilitates standardization, improves clarity and understanding, supports language learning and education, and enhances accessibility to the language.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>Belarusian is the official language of Belarus, which is a country located in Eastern Europe. It is an East Slavic language, closely related to Russian and Ukrainian. If you need any information or assistance related to Belarusian language, culture, or travel, feel free to ask! There are various transcription services available for the Belarusan language. Here are a few options you can consider:
+1. Gglot: This online transcription service supports multiple languages, including Belarusan. It offers accurate and fast transcription services with competitive pricing.
+2. Rev: Rev is a popular transcription service that provides high-quality transcriptions in the Belarusan language. They have a large team of professional transcribers and offer quick turnaround times.
+3. Way With Words: Way With Words is a global transcription service that caters to various languages, including Belarusan. They offer accurate and reliable transcriptions with excellent customer support.
+4. GoTranscript: GoTranscript is another online transcription service that can transcribe audio or video files in the Belarusan language. They provide affordable rates and deliver transcriptions in a timely manner.
+Before choosing a service, it's always a good idea to compare their prices, turnaround times, and customer reviews to ensure you find the best match for your needs. Belarusian is primarily spoken in the country of Belarus. It is one of the official languages of Belarus, along with Russian. While Belarusian is the official language, Russian is more widely used in everyday life and is the dominant language in cities and urban areas.
+That being said, Belarusian is still spoken in various regions of Belarus. Some of the regions where Belarusian is more commonly spoken include:
+1. Minsk Region: The capital city of Minsk and its surrounding region, including towns and villages within this administrative division, have a significant number of Belarusian speakers.
+2. Vitebsk Region: Located in the northeast of Belarus, the Vitebsk Region has a strong Belarusian-speaking population. Cities like Vitebsk, Orsha, and Polotsk are known for their Belarusian cultural heritage.
+3. Mahilyow Region: The Mahilyow Region, situated in the eastern part of Belarus, is another region where Belarusian is spoken. The city of Mahilyow and other towns in this region have Belarusian-speaking communities.
+4. Hrodna Region: The Hrodna Region, close to the border with Poland and Lithuania, has a significant number of Belarusian speakers. The city of Hrodna and surrounding areas are known for their Belarusian language and culture.
+5. Brest Region: The Brest Region, located in the southwest of Belarus, also has a Belarusian-speaking population. The city of Brest and other towns in this region have a mix of Belarusian and Russian speakers.
+While these regions have a higher concentration of Belarusian speakers, it is worth noting that the actual usage and fluency of Belarusian can vary within each region. Factors such as age, education level, and personal background can influence an individual's proficiency in the language. Belarus is a country located in Eastern Europe, and like many countries in the region, it has various dialects and regional variations of the Belarusian language. While the standard literary Belarusian language is based on the dialect spoken in the Minsk region, there are several distinct dialects spoken in different parts of the country. Some of the main dialects include:
+1. Northeastern dialect: This dialect is spoken in the northeastern parts of Belarus, around the cities of Vitebsk, Polotsk, and Orsha. It is known for its distinct pronunciation and vocabulary.
+2. Northwestern dialect: This dialect is spoken in the northwestern parts of Belarus, mainly around the Grodno and Brest regions. It has influences from neighboring languages such as Polish and Lithuanian.
+3. Central dialect: This dialect is spoken in the central parts of Belarus, particularly in the Minsk region. It forms the basis of the standard literary Belarusian language.
+4. Southern dialect: This dialect is spoken in the southern parts of Belarus, around the city of Gomel. It shares some similarities with the Russian language due to its geographic proximity to Russia.
+These are just a few examples of the major dialects spoken in Belarus. Each dialect has its own unique characteristics in terms of pronunciation, vocabulary, and grammar, creating a rich linguistic diversity within the country. To utilize Belarusan language transcription services, follow these steps:
+1. Research and choose a reputable Belarusan language transcription service provider. Look for companies or individuals with expertise in transcription specifically for Belarusan language.
+2. Contact the selected provider and discuss your transcription needs. Provide details such as the file format, audio quality, desired turnaround time, and any specific requirements.
+3. Submit your audio or video files to the Belarusan language transcription service provider. Make sure the files are in a compatible format and clearly labeled.
+4. Depending on the service provider's process, you may receive a cost estimate for the transcription project or be asked to pay a deposit.
+5. The transcription service provider will assign a professional transcriptionist fluent in Belarusan language to transcribe your files. They will listen to the audio or watch the video and convert the spoken content into written text.
+6. Once the transcription is complete, you will receive the transcribed files in the desired format. Review the files for accuracy and notify the service provider of any necessary revisions or corrections.
+7. If required, make the final payment to the service provider.
+By utilizing Belarusan language transcription services, you can effectively and accurately convert audio or video content into written form for various purposes such as research, documentation, or translation. Belarusan, also known as Belarusian, is spoken primarily in Belarus, a country located in Eastern Europe. However, there are also significant Belarusian-speaking communities in neighboring countries, including Poland, Lithuania, Latvia, and Ukraine. Additionally, due to migration and diaspora, you may find smaller Belarusian-speaking communities in various parts of the world, such as Russia, United States, Canada, United Kingdom, and Australia. Transcription is important for the Belarusan language for several reasons:
+1. Standardization: Transcription helps in establishing a standard writing system for the language. It allows different individuals and organizations to have a consistent way of writing and representing Belarusan words and sounds.
+2. Clarity and Understanding: Belarusan, like many languages, can have different regional dialects and variations in pronunciation. Transcription helps in providing a standardized representation of these variations, making it easier for people from different regions to understand and communicate effectively.
+3. Language Learning and Education: Transcription aids in language learning and education by providing a phonetic representation of the language. It helps learners understand the pronunciation of words and sounds, enabling them to improve their spoken and written skills.
+4. Accessibility: Transcription plays a significant role in making written Belarusan more accessible to a wider audience, including people with hearing impairments or those who are not familiar with the Cyrillic script used in the Belarusan alphabet.
+Overall, transcription is essential for the Belarusan language as it facilitates standardization, improves clarity and understanding, supports language learning and education, and enhances accessibility to the language.</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Belarusan  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>Belarusan Transcription Services: Assisting in Language Standardization and Accessibility
+Belarusan, also known as Belarusian, is the official language of Belarus, a country located in Eastern Europe. As an East Slavic language closely related to Russian and Ukrainian, it has its own unique characteristics and dialects. Capital Typing is pleased to offer Belarusan transcription services, catering to the needs of businesses and individuals who require accurate and reliable transcriptions in the Belarusan language.
+There are several reputable Belarusan language transcription service providers available, each offering their own unique set of features and benefits. Here are a few options you can consider:
+1. Gglot: Gglot is an online transcription service that supports multiple languages, including Belarusan. It offers fast and accurate transcription services at competitive pricing.
+2. Rev: Rev is a popular transcription service known for delivering high-quality transcriptions in the Belarusan language. With a large team of professional transcribers, they offer quick turnaround times and exceptional customer service.
+3. Way With Words: Way With Words is a global transcription service provider that supports various languages, including Belarusan. They are known for their accurate and reliable transcriptions, backed by excellent customer support.
+4. GoTranscript: GoTranscript is another online transcription service that specializes in transcriptions of audio and video files in the Belarusan language. They provide affordable rates and deliver transcriptions in a timely manner.
+When choosing a service provider, it is important to consider factors such as prices, turnaround times, and customer reviews to ensure you find the best match for your specific needs.
+Belarusan is primarily spoken in Belarus, with Russian being more widely used in everyday life, particularly in cities and urban areas. However, there are still regions in Belarus where Belarusan is more commonly spoken. Some of these regions include the Minsk Region, the Vitebsk Region, the Mahilyow Region, the Hrodna Region, and the Brest Region. While the concentration of Belarusan speakers may be higher in these regions, it is worth noting that usage and fluency of the language can vary within each region based on factors such as age, education level, and personal background.
+Belarus is a country rich in linguistic diversity, with various dialects and regional variations of the Belarusan language. While the standard literary language is based on the Minsk dialect, there are distinct dialects spoken in different parts of the country. These include the northeastern dialect, the northwestern dialect, the central dialect, and the southern dialect. Each dialect has its own unique characteristics in terms of pronunciation, vocabulary, and grammar, adding depth to the linguistic heritage of Belarus.
+By utilizing Belarusan language transcription services, you can benefit from standardization, clarity, and accessibility. Transcription helps establish a consistent writing system, making it easier for individuals and organizations to communicate effectively in written Belarusan. It also aids in language learning and education by providing a phonetic representation of the language, improving understanding and pronunciation. Furthermore, transcription enhances accessibility by making written Belarusan more available to a wider audience, including those with hearing impairments or those unfamiliar with the Cyrillic script used in the Belarusan alphabet.
+At Capital Typing, we understand the importance of accurate and reliable transcriptions in the Belarusan language. Our team of professional transcribers is fluent in Belarusan and is experienced in delivering high-quality transcriptions to meet your specific requirements. Whether you need transcriptions for research, documentation, or translation purposes, our Belarusan transcription services are here to assist you. Contact us today to learn more and experience the benefits of our top-notch transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bengali</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>How can I assist you with Bengali language? Do you need help with translation, pronunciation or grammar?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bengali language transcription services</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>I can certainly help you find transcription services for the Bengali language. Here are a few options:
+1. Scribie: Scribie offers transcription services for multiple languages, including Bengali. You can upload your audio or video files on their website, and their team of professional transcribers will transcribe it for you.
+2. GoTranscript: GoTranscript is another platform that provides transcription services in various languages, including Bengali. You can submit your files online, and they will deliver the transcriptions to you within the specified time frame.
+3. Rev: Rev is a popular transcription service that offers Bengali transcription as well. You can submit your files through their website or even using their mobile app. Their team of professional transcribers will transcribe your audio or video accurately.
+4. GMR Transcription: GMR Transcription is known for its high-quality transcription services in multiple languages, including Bengali. They have trained transcribers who can accurately transcribe your audio or video files.
+Before choosing a service, it's a good idea to compare prices, turnaround times, and reviews to find the best fit for your specific requirements.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bengali regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bengali, also known as Bangla, is primarily spoken in the Indian state of West Bengal and the neighboring country of Bangladesh. It is also spoken in the Indian states of Tripura and Assam, as well as some parts of the Indian union territory of Andaman and Nicobar Islands. Additionally, Bengali is spoken by diaspora communities in various countries around the world, including the United States, United Kingdom, and Canada.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bengali dialects</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bengali, a major language spoken in the Indian subcontinent, has several dialects. Here are some notable Bengali dialects:
+1. Standard Bengali: Also known as "Shadhubhasha" or "Cholito Bhasa," this is the prestigious literary and administrative form of Bengali used in education, literature, and media.
+2. Kolkata or Calcutta Bengali: This dialect is spoken in and around the city of Kolkata, also known as Calcutta. It is known for its unique intonations, expressions, and vocabulary influenced by the local culture and historical influences.
+3. Dhakaiya Bengali: Spoken in and around Dhaka, the capital of Bangladesh, this dialect has several distinctive features, including lexical variations and intonations.
+4. Sylheti Bengali: Spoken in the Sylhet region of Bangladesh and parts of India, this dialect has significant variations from Standard Bengali, both in vocabulary and pronunciation.
+5. Rarhi Bengali: Predominantly spoken in the districts of Burdwan, Birbhum, Bankura, and parts of Hooghly in West Bengal, this dialect has some variations in vocabulary, phonetics, and grammar compared to Standard Bengali.
+6. Chittagonian Bengali: Spoken in the Chittagong region of Bangladesh, this dialect is known for its unique accent, vocabulary, and grammar.
+7. Rajbanshi Bengali: Spoken in parts of North Bengal, including Cooch Behar and Jalpaiguri districts, and neighboring areas of Assam, this dialect has its own distinguishing features.
+These are just a few examples of Bengali dialects; there may be more regional variations within specific areas.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bengali language transcription services</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>To utilize Bengali language transcription services, you can follow these steps:
+1. Determine your transcription needs: Identify the purpose and type of content you need to transcribe. It could be audio or video files, interviews, lectures, podcasts, etc.
+2. Research transcription service providers: Look for professional transcription service providers that specifically offer Bengali language transcription. Check their experience, reputation, customer reviews, and pricing.
+3. Share your requirements: Once you have identified a transcription service provider, reach out to them and share your specific transcription requirements. Include details such as the length of the audio/video, desired turnaround time, any technical aspects, and formatting preferences.
+4. Share the source files: Provide the service provider with the audio or video files that need to be transcribed. Ensure that the files are of good quality and clearly audible.
+5. Discuss transcription style and formatting: If you have any specific transcription style or formatting requirements, discuss them with the service provider. For example, some may prefer verbatim transcriptions, while others may require edited versions.
+6. Set the deadline: Agree upon a deadline for the completion of the transcription project. Make sure it aligns with your timeline and urgency.
+7. Review and approve the transcription: Once the transcription is complete, the service provider will share the transcript with you. Review it thoroughly for accuracy and quality. If there are any issues or corrections needed, provide clear feedback.
+8. Finalize payment: Once you are satisfied with the transcript, finalize the payment with the service provider as per their agreed terms and conditions.
+9. Confidentiality and security: Ensure that you discuss and establish confidentiality arrangements with the transcription service provider to protect your audio/video files and the content of the transcription.
+By following these steps, you can efficiently utilize Bengali language transcription services provided by professional transcription service providers.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Countries where Bengali is spoken</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Bengali is primarily spoken in the following countries:
+1. Bangladesh: Bengali is the official language of Bangladesh and spoken by the majority of the population.
+2. India: Bengali is one of the 23 officially recognized languages in India. It is predominantly spoken in the Indian state of West Bengal and the Union Territory of Andaman and Nicobar Islands.
+3. Pakistan: Bengali is spoken by a significant number of people in Pakistan, especially in the province of Sindh.
+4. Saudi Arabia: There is a large population of Bengali speakers in Saudi Arabia, mostly comprising migrant workers.
+5. United Arab Emirates: Similar to Saudi Arabia, the UAE has a significant number of Bengali speakers, again mainly comprising migrant workers.
+6. United Kingdom: The United Kingdom is home to a large Bengali-speaking population, with a significant concentration in London, particularly in the boroughs of Tower Hamlets and Newham.
+7. United States: The United States has a notable Bengali-speaking community, particularly in the states of New York, New Jersey, California, and Texas.
+8. Canada: Bengali-speaking communities can be found in Canada, with notable populations in cities such as Toronto and Vancouver.
+9. Kuwait: Like Saudi Arabia and the UAE, Kuwait also has a sizeable Bengali-speaking population due to migrant workers.
+10. Malaysia: There is a small Bengali-speaking community in Malaysia, with most members residing in areas such as Kuala Lumpur and Penang.
+Please note that while Bengali is spoken in these countries, it may not be the primary language in all regions or communities within them.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bengali language</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Bengali language for several reasons:
+1. Standardization: Bengali is a widely spoken language with many regional variations. Transcription helps to establish a standardized writing system that can be understood and used by all speakers of the language, regardless of their dialect or region.
+2. Accessibility: Transcription makes the Bengali language more accessible to non-native speakers or learners who may not be familiar with the script. By providing a transliteration of Bengali texts, it becomes easier for them to read and understand the language.
+3. Technology Applications: Transcription plays a crucial role in technology applications like voice recognition, machine translation, and text-to-speech synthesis. By converting Bengali speech or text into a standardized transcription format, it enables the development and implementation of these technologies for the Bengali language.
+4. Language Learning: Transcription is widely used in language learning materials and resources for Bengali. It helps learners understand the pronunciation and phonetics of the language, making it easier for them to acquire and improve their language skills.
+Overall, transcription is necessary for the Bengali language to ensure standardization, accessibility, technological advancements, and effective language learning.</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>How can I assist you with Bengali language? Do you need help with translation, pronunciation or grammar? I can certainly help you find transcription services for the Bengali language. Here are a few options:
+1. Scribie: Scribie offers transcription services for multiple languages, including Bengali. You can upload your audio or video files on their website, and their team of professional transcribers will transcribe it for you.
+2. GoTranscript: GoTranscript is another platform that provides transcription services in various languages, including Bengali. You can submit your files online, and they will deliver the transcriptions to you within the specified time frame.
+3. Rev: Rev is a popular transcription service that offers Bengali transcription as well. You can submit your files through their website or even using their mobile app. Their team of professional transcribers will transcribe your audio or video accurately.
+4. GMR Transcription: GMR Transcription is known for its high-quality transcription services in multiple languages, including Bengali. They have trained transcribers who can accurately transcribe your audio or video files.
+Before choosing a service, it's a good idea to compare prices, turnaround times, and reviews to find the best fit for your specific requirements. Bengali, also known as Bangla, is primarily spoken in the Indian state of West Bengal and the neighboring country of Bangladesh. It is also spoken in the Indian states of Tripura and Assam, as well as some parts of the Indian union territory of Andaman and Nicobar Islands. Additionally, Bengali is spoken by diaspora communities in various countries around the world, including the United States, United Kingdom, and Canada. Bengali, a major language spoken in the Indian subcontinent, has several dialects. Here are some notable Bengali dialects:
+1. Standard Bengali: Also known as "Shadhubhasha" or "Cholito Bhasa," this is the prestigious literary and administrative form of Bengali used in education, literature, and media.
+2. Kolkata or Calcutta Bengali: This dialect is spoken in and around the city of Kolkata, also known as Calcutta. It is known for its unique intonations, expressions, and vocabulary influenced by the local culture and historical influences.
+3. Dhakaiya Bengali: Spoken in and around Dhaka, the capital of Bangladesh, this dialect has several distinctive features, including lexical variations and intonations.
+4. Sylheti Bengali: Spoken in the Sylhet region of Bangladesh and parts of India, this dialect has significant variations from Standard Bengali, both in vocabulary and pronunciation.
+5. Rarhi Bengali: Predominantly spoken in the districts of Burdwan, Birbhum, Bankura, and parts of Hooghly in West Bengal, this dialect has some variations in vocabulary, phonetics, and grammar compared to Standard Bengali.
+6. Chittagonian Bengali: Spoken in the Chittagong region of Bangladesh, this dialect is known for its unique accent, vocabulary, and grammar.
+7. Rajbanshi Bengali: Spoken in parts of North Bengal, including Cooch Behar and Jalpaiguri districts, and neighboring areas of Assam, this dialect has its own distinguishing features.
+These are just a few examples of Bengali dialects; there may be more regional variations within specific areas. To utilize Bengali language transcription services, you can follow these steps:
+1. Determine your transcription needs: Identify the purpose and type of content you need to transcribe. It could be audio or video files, interviews, lectures, podcasts, etc.
+2. Research transcription service providers: Look for professional transcription service providers that specifically offer Bengali language transcription. Check their experience, reputation, customer reviews, and pricing.
+3. Share your requirements: Once you have identified a transcription service provider, reach out to them and share your specific transcription requirements. Include details such as the length of the audio/video, desired turnaround time, any technical aspects, and formatting preferences.
+4. Share the source files: Provide the service provider with the audio or video files that need to be transcribed. Ensure that the files are of good quality and clearly audible.
+5. Discuss transcription style and formatting: If you have any specific transcription style or formatting requirements, discuss them with the service provider. For example, some may prefer verbatim transcriptions, while others may require edited versions.
+6. Set the deadline: Agree upon a deadline for the completion of the transcription project. Make sure it aligns with your timeline and urgency.
+7. Review and approve the transcription: Once the transcription is complete, the service provider will share the transcript with you. Review it thoroughly for accuracy and quality. If there are any issues or corrections needed, provide clear feedback.
+8. Finalize payment: Once you are satisfied with the transcript, finalize the payment with the service provider as per their agreed terms and conditions.
+9. Confidentiality and security: Ensure that you discuss and establish confidentiality arrangements with the transcription service provider to protect your audio/video files and the content of the transcription.
+By following these steps, you can efficiently utilize Bengali language transcription services provided by professional transcription service providers. Bengali is primarily spoken in the following countries:
+1. Bangladesh: Bengali is the official language of Bangladesh and spoken by the majority of the population.
+2. India: Bengali is one of the 23 officially recognized languages in India. It is predominantly spoken in the Indian state of West Bengal and the Union Territory of Andaman and Nicobar Islands.
+3. Pakistan: Bengali is spoken by a significant number of people in Pakistan, especially in the province of Sindh.
+4. Saudi Arabia: There is a large population of Bengali speakers in Saudi Arabia, mostly comprising migrant workers.
+5. United Arab Emirates: Similar to Saudi Arabia, the UAE has a significant number of Bengali speakers, again mainly comprising migrant workers.
+6. United Kingdom: The United Kingdom is home to a large Bengali-speaking population, with a significant concentration in London, particularly in the boroughs of Tower Hamlets and Newham.
+7. United States: The United States has a notable Bengali-speaking community, particularly in the states of New York, New Jersey, California, and Texas.
+8. Canada: Bengali-speaking communities can be found in Canada, with notable populations in cities such as Toronto and Vancouver.
+9. Kuwait: Like Saudi Arabia and the UAE, Kuwait also has a sizeable Bengali-speaking population due to migrant workers.
+10. Malaysia: There is a small Bengali-speaking community in Malaysia, with most members residing in areas such as Kuala Lumpur and Penang.
+Please note that while Bengali is spoken in these countries, it may not be the primary language in all regions or communities within them. Transcription is needed for the Bengali language for several reasons:
+1. Standardization: Bengali is a widely spoken language with many regional variations. Transcription helps to establish a standardized writing system that can be understood and used by all speakers of the language, regardless of their dialect or region.
+2. Accessibility: Transcription makes the Bengali language more accessible to non-native speakers or learners who may not be familiar with the script. By providing a transliteration of Bengali texts, it becomes easier for them to read and understand the language.
+3. Technology Applications: Transcription plays a crucial role in technology applications like voice recognition, machine translation, and text-to-speech synthesis. By converting Bengali speech or text into a standardized transcription format, it enables the development and implementation of these technologies for the Bengali language.
+4. Language Learning: Transcription is widely used in language learning materials and resources for Bengali. It helps learners understand the pronunciation and phonetics of the language, making it easier for them to acquire and improve their language skills.
+Overall, transcription is necessary for the Bengali language to ensure standardization, accessibility, technological advancements, and effective language learning.</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bengali  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>Bengali Transcription Services: Making Bengali Audio and Video Content Accessible
+Bengali, also known as Bangla, is a major language spoken in the Indian subcontinent, primarily in the Indian state of West Bengal and the neighboring country of Bangladesh. It is also spoken in other parts of India, such as Tripura and Assam, as well as some areas of the Indian union territory of Andaman and Nicobar Islands. Additionally, Bengali is spoken by diaspora communities in various countries around the world, including the United States, United Kingdom, and Canada.
+To cater to the growing need for Bengali transcription services, several professional transcription service providers offer accurate and efficient transcription solutions for Bengali audio and video content. Here are a few notable providers:
+1. Capital Typing: Capital Typing is a reputable transcription service provider that offers Bengali language transcription services. They have a team of skilled transcribers who are experienced in transcribing audio and video files accurately and efficiently. With their expertise in Bengali language transcription, Capital Typing ensures that the content is transcribed in a manner that preserves its original meaning and clarity.
+Transcription services play a vital role in making Bengali audio and video content accessible to a wider audience. Whether it's interviews, lectures, podcasts, or any other form of audio or video content, transcription allows individuals who may not be proficient in the Bengali language to understand and engage with the content.
+Transcription services are also crucial for language learning purposes. By providing accurate transcriptions, individuals learning Bengali can enhance their language skills, as it helps them understand the vocabulary, pronunciation, and grammar used in the language.
+Furthermore, transcriptions are valuable for organizations and businesses seeking to reach the Bengali-speaking demographic. By transcribing their audio and video content, companies can ensure that their messages and information are effectively communicated to Bengali-speaking audiences, increasing engagement and outreach.
+To utilize Bengali transcription services, one can follow these simple steps:
+1. Select a reliable transcription service provider: Research and choose a professional transcription service provider that specializes in Bengali language transcription, such as Capital Typing.
+2. Share your transcription requirements: Reach out to the service provider and provide them with information about your transcription needs, including the type of content, desired format, and any specific requirements or instructions.
+3. Provide the source files: Share the audio or video files that need to be transcribed with the service provider. Ensure that the files are of good quality and provide any necessary context or additional information.
+4. Set the deadline: Agree upon a deadline with the service provider, taking into account your timeline and urgency. It's important to establish clear communication regarding turnaround times to ensure timely delivery of the transcriptions.
+5. Review and approve the transcriptions: Once the transcription is complete, the service provider will provide you with the transcript. Take the time to review the transcript thoroughly for accuracy and quality. If any changes or corrections are needed, provide clear and constructive feedback to the service provider.
+6. Finalize payment: Once you are satisfied with the transcriptions, finalize the payment as per the agreed terms and conditions with the service provider.
+By utilizing Bengali transcription services, individuals, businesses, and organizations can ensure that Bengali audio and video content is accessible, engaging, and effectively communicated to the desired audience. Transcription services contribute to the promotion and preservation of the Bengali language, making it more accessible to a wider audience while facilitating language learning and cultural appreciation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bhojpuri</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bhojpuri is an Indo-Aryan language spoken in the northern and eastern regions of India, predominantly in the states of Bihar and Uttar Pradesh. It is also spoken in some parts of Nepal and Mauritius. Bhojpuri has its own script, known as Kaithi, although it is mostly written using the Devanagari script.
+Bhojpuri has a rich cultural heritage, including folk songs, dances, and traditional storytelling. It is also known for its vibrant film industry, commonly referred to as Bhojpuri cinema.
+If you have any specific questions or need assistance with anything related to Bhojpuri, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bhojpuri language transcription services</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Yes, I can help you with that. Bhojpuri language transcription services involve transcribing audio or video content from Bhojpuri language into written text. This can be useful for various purposes such as creating subtitles, translating content, or documenting interviews. If you have any Bhojpuri language audio or video that needs transcription, please provide me with the files and I will assist you in transcribing it.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bhojpuri regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bhojpuri is primarily spoken in the following regions:
+1. Bihar: Bhojpuri is widely spoken in the state of Bihar, especially in districts like Buxar, Bhojpur, Saran, Vaishali, Muzaffarpur, and Sitamarhi.
+2. Uttar Pradesh: Bhojpuri is also spoken in certain regions of Uttar Pradesh, including districts like Varanasi, Gorakhpur, Azamgarh, Ballia, Deoria, and Mau.
+3. Jharkhand: Bhojpuri is spoken in some parts of Jharkhand, particularly in districts like Palamu, Garhwa, Chatra, and Hazaribagh.
+4. West Bengal: Bhojpuri is spoken by a significant number of people in certain parts of West Bengal, such as Murshidabad, Malda, and North 24 Parganas.
+5. Nepal: Bhojpuri is one of the recognized regional languages of Nepal, and it is spoken by a significant population in the eastern Terai region.
+It's important to note that Bhojpuri is also spoken by Bhojpuri diaspora in various countries around the world, including Mauritius, Trinidad and Tobago, Suriname, Fiji, Guyana, and some parts of the Caribbean.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bhojpuri dialects</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bhojpuri is a language belonging to the Indo-Aryan language family and is primarily spoken in the regions of Bihar, Uttar Pradesh, and Jharkhand in India, as well as in parts of Nepal and Mauritius. It also has significant diaspora communities in the United States, Canada, and the United Kingdom.
+Bhojpuri has several dialects, which vary in pronunciation, vocabulary, and grammar. Some of the major dialects include:
+1. Standard Bhojpuri: It is considered the standard form of Bhojpuri and is based on the geographical dialect spoken around the city of Patna, Bihar.
+2. Purvanchali Bhojpuri: This dialect is spoken in the eastern part of Uttar Pradesh, especially in the regions of Gorakhpur, Varanasi, and Azamgarh. It is also the dialect used in Bhojpuri cinema.
+3. Sarawaria Bhojpuri: Commonly spoken in the Saran district of Bihar, this dialect has its own unique vocabulary and accent.
+4. Khariboli Bhojpuri: This dialect is a mix of Bhojpuri and Khariboli, the standard dialect of Hindustani. It is spoken in areas where Bhojpuri and Hindi-speaking regions meet, such as western parts of Bihar and eastern parts of Uttar Pradesh.
+5. Western Bhojpuri: This dialect is spoken in the western regions of Bihar, bordering the states of Uttar Pradesh and Jharkhand.
+These are just a few examples of the various dialects of Bhojpuri. Each dialect has its own distinct features and variations that make it unique to its region of usage.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bhojpuri language transcription services</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>To utilize Bhojpuri language transcription services, follow these steps:
+1. Find a reliable Bhojpuri language transcription service provider: Look for a transcription service provider that specializes in Bhojpuri language transcription and has a good reputation for accuracy and quality.
+2. Submit your audio or video file: Upload or send your audio or video file to the transcription service provider. Ensure that the audio quality is clear for accurate transcription.
+3. Specify your requirements: Clearly communicate your transcription requirements to the service provider. Specify any formatting preferences, turnaround time, or any specific instructions you may have.
+4. Get a quote: Request a quote for the transcription service based on the length of your audio or video file and the turnaround time required. Ensure the pricing is within your budget.
+5. Review and approve the quote: Once you receive the quote, review it carefully. If it meets your requirements and budget, proceed with approving it.
+6. Transcription process: The service provider will assign experienced Bhojpuri language transcriptionists to transcribe your audio or video file. They will transcribe the content accurately while taking into account any specific terminology or dialects.
+7. Quality check: The transcribed content goes through a quality check process to ensure accuracy and adherence to your requirements.
+8. Receive the transcription: Once the transcription process is complete, the service provider will deliver the transcribed content to you. It may be in the form of a document file or any other agreed-upon format.
+9. Review and provide feedback: Review the transcription to ensure it meets your expectations. If there are any mistakes or improvements needed, provide feedback to the service provider for revisions.
+10. Payment and finalization: Once you are satisfied with the final transcription, complete the payment process as agreed upon with the service provider. Ensure all terms and agreements are met.
+By following these steps, you can effectively utilize Bhojpuri language transcription services to convert your audio or video content into accurate written text.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Countries where Bhojpuri is spoken</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Bhojpuri is primarily spoken in the following countries:
+1. India: Bhojpuri is one of the recognized regional languages in the northern states of Bihar, Uttar Pradesh, and Jharkhand.
+2. Nepal: Bhojpuri is spoken by a significant number of people in the Terai region of Nepal, particularly in the districts bordering India.
+3. Mauritius: Bhojpuri is widely spoken by the Indo-Mauritian community, descendants of Indian indentured laborers who were brought to the country during the colonial era.
+4. Fiji: Bhojpuri is spoken by the Indo-Fijian community, descendants of Indian laborers who were brought to the country during the colonial era.
+5. Guyana, Suriname, and Trinidad and Tobago: Bhojpuri is spoken by the Indo-Caribbean community, descendants of Indian laborers who were brought to the region during the colonial era.
+These are the major countries where Bhojpuri is spoken, but it may also be spoken by diaspora communities in other countries around the world.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bhojpuri language</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Bhojpuri language, as well as for any other language, for several reasons:
+1. Standardization: Transcription helps in standardizing the writing system of a language. Bhojpuri, like many other regional languages, has multiple dialects and variations in pronunciation. A standardized transcription system ensures consistency in writing, making it easier for speakers of different dialects to understand each other and for learners to study the language effectively.
+2. Education: Transcription aids in the teaching and learning of Bhojpuri as a second language. It provides a clear representation of the sounds and pronunciation of words, allowing learners to develop their speaking and listening skills accurately.
+3. Preservation and documentation: Transcription plays a crucial role in preserving and documenting a language. By transcribing spoken Bhojpuri into a written form, it allows for the creation of dictionaries, literature, and other written materials. It also helps in recording oral histories, cultural traditions, and folklore for future generations.
+4. Accessibility: Transcription makes the Bhojpuri language more accessible to a wider audience. It enables non-native speakers, researchers, and language enthusiasts to study and understand the language without necessarily being fluent in it. Transcriptions can also aid in language translation and localization for various purposes like literature, movies, and technology.
+In summary, transcription is needed for Bhojpuri to standardize the writing system, aid in education, preserve the language, and make it more accessible to a broader audience.</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>Bhojpuri is an Indo-Aryan language spoken in the northern and eastern regions of India, predominantly in the states of Bihar and Uttar Pradesh. It is also spoken in some parts of Nepal and Mauritius. Bhojpuri has its own script, known as Kaithi, although it is mostly written using the Devanagari script.
+Bhojpuri has a rich cultural heritage, including folk songs, dances, and traditional storytelling. It is also known for its vibrant film industry, commonly referred to as Bhojpuri cinema.
+If you have any specific questions or need assistance with anything related to Bhojpuri, feel free to ask! Yes, I can help you with that. Bhojpuri language transcription services involve transcribing audio or video content from Bhojpuri language into written text. This can be useful for various purposes such as creating subtitles, translating content, or documenting interviews. If you have any Bhojpuri language audio or video that needs transcription, please provide me with the files and I will assist you in transcribing it. Bhojpuri is primarily spoken in the following regions:
+1. Bihar: Bhojpuri is widely spoken in the state of Bihar, especially in districts like Buxar, Bhojpur, Saran, Vaishali, Muzaffarpur, and Sitamarhi.
+2. Uttar Pradesh: Bhojpuri is also spoken in certain regions of Uttar Pradesh, including districts like Varanasi, Gorakhpur, Azamgarh, Ballia, Deoria, and Mau.
+3. Jharkhand: Bhojpuri is spoken in some parts of Jharkhand, particularly in districts like Palamu, Garhwa, Chatra, and Hazaribagh.
+4. West Bengal: Bhojpuri is spoken by a significant number of people in certain parts of West Bengal, such as Murshidabad, Malda, and North 24 Parganas.
+5. Nepal: Bhojpuri is one of the recognized regional languages of Nepal, and it is spoken by a significant population in the eastern Terai region.
+It's important to note that Bhojpuri is also spoken by Bhojpuri diaspora in various countries around the world, including Mauritius, Trinidad and Tobago, Suriname, Fiji, Guyana, and some parts of the Caribbean. Bhojpuri is a language belonging to the Indo-Aryan language family and is primarily spoken in the regions of Bihar, Uttar Pradesh, and Jharkhand in India, as well as in parts of Nepal and Mauritius. It also has significant diaspora communities in the United States, Canada, and the United Kingdom.
+Bhojpuri has several dialects, which vary in pronunciation, vocabulary, and grammar. Some of the major dialects include:
+1. Standard Bhojpuri: It is considered the standard form of Bhojpuri and is based on the geographical dialect spoken around the city of Patna, Bihar.
+2. Purvanchali Bhojpuri: This dialect is spoken in the eastern part of Uttar Pradesh, especially in the regions of Gorakhpur, Varanasi, and Azamgarh. It is also the dialect used in Bhojpuri cinema.
+3. Sarawaria Bhojpuri: Commonly spoken in the Saran district of Bihar, this dialect has its own unique vocabulary and accent.
+4. Khariboli Bhojpuri: This dialect is a mix of Bhojpuri and Khariboli, the standard dialect of Hindustani. It is spoken in areas where Bhojpuri and Hindi-speaking regions meet, such as western parts of Bihar and eastern parts of Uttar Pradesh.
+5. Western Bhojpuri: This dialect is spoken in the western regions of Bihar, bordering the states of Uttar Pradesh and Jharkhand.
+These are just a few examples of the various dialects of Bhojpuri. Each dialect has its own distinct features and variations that make it unique to its region of usage. To utilize Bhojpuri language transcription services, follow these steps:
+1. Find a reliable Bhojpuri language transcription service provider: Look for a transcription service provider that specializes in Bhojpuri language transcription and has a good reputation for accuracy and quality.
+2. Submit your audio or video file: Upload or send your audio or video file to the transcription service provider. Ensure that the audio quality is clear for accurate transcription.
+3. Specify your requirements: Clearly communicate your transcription requirements to the service provider. Specify any formatting preferences, turnaround time, or any specific instructions you may have.
+4. Get a quote: Request a quote for the transcription service based on the length of your audio or video file and the turnaround time required. Ensure the pricing is within your budget.
+5. Review and approve the quote: Once you receive the quote, review it carefully. If it meets your requirements and budget, proceed with approving it.
+6. Transcription process: The service provider will assign experienced Bhojpuri language transcriptionists to transcribe your audio or video file. They will transcribe the content accurately while taking into account any specific terminology or dialects.
+7. Quality check: The transcribed content goes through a quality check process to ensure accuracy and adherence to your requirements.
+8. Receive the transcription: Once the transcription process is complete, the service provider will deliver the transcribed content to you. It may be in the form of a document file or any other agreed-upon format.
+9. Review and provide feedback: Review the transcription to ensure it meets your expectations. If there are any mistakes or improvements needed, provide feedback to the service provider for revisions.
+10. Payment and finalization: Once you are satisfied with the final transcription, complete the payment process as agreed upon with the service provider. Ensure all terms and agreements are met.
+By following these steps, you can effectively utilize Bhojpuri language transcription services to convert your audio or video content into accurate written text. Bhojpuri is primarily spoken in the following countries:
+1. India: Bhojpuri is one of the recognized regional languages in the northern states of Bihar, Uttar Pradesh, and Jharkhand.
+2. Nepal: Bhojpuri is spoken by a significant number of people in the Terai region of Nepal, particularly in the districts bordering India.
+3. Mauritius: Bhojpuri is widely spoken by the Indo-Mauritian community, descendants of Indian indentured laborers who were brought to the country during the colonial era.
+4. Fiji: Bhojpuri is spoken by the Indo-Fijian community, descendants of Indian laborers who were brought to the country during the colonial era.
+5. Guyana, Suriname, and Trinidad and Tobago: Bhojpuri is spoken by the Indo-Caribbean community, descendants of Indian laborers who were brought to the region during the colonial era.
+These are the major countries where Bhojpuri is spoken, but it may also be spoken by diaspora communities in other countries around the world. Transcription is needed for the Bhojpuri language, as well as for any other language, for several reasons:
+1. Standardization: Transcription helps in standardizing the writing system of a language. Bhojpuri, like many other regional languages, has multiple dialects and variations in pronunciation. A standardized transcription system ensures consistency in writing, making it easier for speakers of different dialects to understand each other and for learners to study the language effectively.
+2. Education: Transcription aids in the teaching and learning of Bhojpuri as a second language. It provides a clear representation of the sounds and pronunciation of words, allowing learners to develop their speaking and listening skills accurately.
+3. Preservation and documentation: Transcription plays a crucial role in preserving and documenting a language. By transcribing spoken Bhojpuri into a written form, it allows for the creation of dictionaries, literature, and other written materials. It also helps in recording oral histories, cultural traditions, and folklore for future generations.
+4. Accessibility: Transcription makes the Bhojpuri language more accessible to a wider audience. It enables non-native speakers, researchers, and language enthusiasts to study and understand the language without necessarily being fluent in it. Transcriptions can also aid in language translation and localization for various purposes like literature, movies, and technology.
+In summary, transcription is needed for Bhojpuri to standardize the writing system, aid in education, preserve the language, and make it more accessible to a broader audience.</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bhojpuri  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>Bhojpuri Transcription Services: Transcribing the Vibrant Language of Bhojpuri
+Bhojpuri is an Indo-Aryan language spoken in the northern and eastern regions of India, predominantly in the states of Bihar and Uttar Pradesh. It has its own script, known as Kaithi, although it is mostly written using the Devanagari script. Bhojpuri is not only spoken in India but also in Nepal and Mauritius. It has a rich cultural heritage, encompassing folk songs, dances, and traditional storytelling, and it is known for its vibrant film industry, commonly referred to as Bhojpuri cinema.
+Capital Typing, a leading transcription service provider, is here to assist you with Bhojpuri language transcription services. Whether you need to transcribe audio or video content in Bhojpuri into written text, our team of skilled transcriptionists can help. This service can be useful for various applications, such as creating subtitles, translating content, or documenting interviews.
+Bhojpuri is primarily spoken in regions such as Bihar, Uttar Pradesh, Jharkhand, West Bengal, and Nepal. Furthermore, it is spoken by Bhojpuri diaspora communities across the globe, including in countries like Mauritius, Trinidad and Tobago, Suriname, Fiji, Guyana, and parts of the Caribbean. Our Bhojpuri transcription services are designed to cater to the needs of individuals and organizations seeking accurate transcriptions of Bhojpuri content.
+To benefit from our Bhojpuri transcription services, follow these simple steps:
+1. Find a reliable provider: Capital Typing provides specialized Bhojpuri language transcription services. Our team has a reputation for accuracy and quality.
+2. Submit your files: Upload or send your Bhojpuri audio or video files to us. Ensure that the audio quality is clear for accurate transcription.
+3. Specify your requirements: Clearly communicate your transcription requirements, including any specific formatting preferences, turnaround time, or instructions you may have.
+4. Get a quote: Request a quote based on the length of your audio or video file and the desired turnaround time. Our pricing is competitive and within your budget.
+5. Review and approve the quote: Upon receiving the quote, carefully review and approve it if it meets your requirements and budget.
+6. Transcription process: Our experienced Bhojpuri language transcriptionists will transcribe your audio or video files, taking into account any specific terminology, regional dialects, or accents.
+7. Quality check: The transcribed content undergoes a rigorous quality check process to ensure accuracy and adherence to your requirements.
+8. Receive the transcription: Once the transcription process is complete, we will deliver the transcribed content to you in the agreed-upon format, such as a document file.
+9. Review and provide feedback: Review the transcription to ensure it meets your expectations. If revisions or improvements are needed, provide feedback to us, and we will make the necessary adjustments.
+10. Payment and finalization: Once you are satisfied with the final transcription, complete the payment process as agreed upon. We ensure all terms and agreements are met.
+By utilizing Capital Typing's Bhojpuri language transcription services, you can effectively convert your audio or video content into accurate written text. We understand the importance of preserving and documenting the Bhojpuri language, and our transcription services contribute to its accessibility and wider understanding among individuals, researchers, and language enthusiasts.
+Contact Capital Typing today and let us assist you with your Bhojpuri language transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bislama</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alo,
+Mi wanfala asis blong yu. Mi save helpem yu long tingting, toktok, o question we i gat.
+Bislama hemi wan tokples we i usum long Vanuatu. Hemi blong wanpela grup man in Vanuatu i stap long gran blong South Pasifik. Bislama i tekem basis long Inglis, Tok Pisin, na ol nar tokples blong Vanuatu. Hemi tokim wantaim long olgeta man blong Vanuatu, no man long grup insait long Bislama.
+Mi save helpem yu translate ol tingting blong yu long Bislama, antap long longwe mi save tu helpem yu long wonem samting yu wandem save.
+Yu mas wanem halivim?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bislama language transcription services</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>I can certainly help you with Bislama language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will do my best to assist you.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bislama regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bislama is primarily spoken in Vanuatu, an island nation in the South Pacific. It is the official language of Vanuatu and is used as a lingua franca among the different indigenous languages spoken in the country. Bislama is mainly spoken in urban areas, such as the capital city of Port Vila, as well as on the islands of Efate, Santo, Tanna, and Malekula, among others.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Bislama dialects</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bislama is a creole language spoken in Vanuatu. While there are varying dialects of Bislama across the different islands of Vanuatu, the differences are generally minor and speakers of different dialects can still understand each other. Some of the main dialects are:
+1. Northern Vanuatu Bislama: This dialect is spoken in the northern islands of Vanuatu, such as Banks and Torres Islands. It is known for its distinctive pronunciation and vocabulary.
+2. Southern Vanuatu Bislama: This dialect is spoken in the southern islands of Vanuatu, including Efate, Tanna, and Erromango. It is considered the standard variety of Bislama and is widely spoken in the capital city, Port Vila.
+3. Central Vanuatu Bislama: This dialect is spoken in the central islands of Vanuatu, including Ambrym, Malakula, and Pentecost. It has some unique vocabulary and pronunciation features compared to other dialects.
+4. Remote Island Bislama: On more remote islands, there may be some variations in vocabulary and pronunciation. These dialects may have influences from local languages and cultures.
+It's important to note that Bislama is a relatively young language and its dialects are still evolving. However, speakers of different dialects can generally understand each other, and Bislama is used as a lingua franca throughout Vanuatu.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bislama language transcription services</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>To utilize Bislama language transcription services, follow these steps:
+1. Research available Bislama language transcription services: Look for reputable transcription service providers that offer Bislama transcription specifically. Check their website, read reviews or testimonials, and understand their experience with Bislama.
+2. Submit your audio or video file: Once you've chosen a suitable transcription service, submit your audio or video file that needs to be transcribed. Make sure the file is clear and of good quality to ensure accurate transcription.
+3. Specify your transcription requirements: Clearly communicate your transcription requirements to the service provider. Specify the type of transcription you need, such as verbatim or edited transcription, any time codes or formatting preferences, or any specific instructions related to the content.
+4. Provide necessary context: If the audio or video file contains unique or specific subject matter, provide any necessary context or background information to help the transcribers better understand and transcribe the content accurately.
+5. Agree on terms and pricing: Discuss the pricing and terms with the service provider. Ensure that you understand the rates, turnaround time, and any additional charges for extra services like translation or proofreading.
+6. Review and approve the transcription: Once the transcription is complete, the service provider will typically provide you with the transcribed document. Take the time to review it for accuracy and completeness. If any revisions or corrections are needed, communicate them to the service provider.
+7. Pay for the services: Finally, complete the payment process as agreed upon with the service provider. Some providers may require upfront payment, while others may offer payment options upon completion.
+By following these steps, you can easily utilize Bislama language transcription services to convert your audio or video content into written form accurately and efficiently.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Countries where Bislama is spoken</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Bislama is primarily spoken in the following countries:
+1. Vanuatu: Bislama is an official language in Vanuatu, alongside English and French. It is widely spoken by the majority of the population and serves as a lingua franca between different language groups in the country.
+2. Solomon Islands: Bislama is also spoken in some areas of the Solomon Islands, particularly in the southern part of the country. However, English is more widely spoken in official and educational settings.
+3. New Caledonia: Bislama has a small presence in New Caledonia, which is a French territory located in the Pacific. The language is used by some of the local population, especially those who have migrated from Vanuatu.
+4. Fiji: Bislama is spoken by a small community of Vanuatu migrants in Fiji. It is not widely spoken in the country, as the official languages are English and Fijian.
+It is important to note that Bislama is primarily spoken in Vanuatu, and the presence of the language in other countries is relatively limited.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bislama language</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Transcription is commonly used for languages like Bislama that are not written with a standardized script or orthography. Bislama is an English-based creole language spoken in Vanuatu, and it does not have a widely accepted written form. Consequently, transcription becomes necessary to represent Bislama in a written format.
+Transcription serves several purposes in the case of Bislama:
+1. Record keeping: Transcribing Bislama allows for accurate and consistent documentation of the language. It enables researchers, linguists, and language learners to study and analyze the language systematically.
+2. Communication: Bislama speakers may find it useful to transcribe their language for communication purposes. It allows them to write down Bislama words, phrases, or texts, which they can then share with others who may be less familiar with the spoken form of the language.
+3. Language learning: Transcription can support the learning process for non-native speakers. By transcribing Bislama into a recognizable script, learners can more easily study vocabulary, grammar, and pronunciation, and develop their reading and writing skills in the language.
+4. Standardization: Transcription can contribute to the development of a standardized written form for Bislama. When there is a consensus on the transcription system, it becomes easier for Bislama speakers to communicate in writing, as the same rules and symbols are applied uniformly.
+It's important to note that while transcription can be helpful, it is still essential to work towards standardizing a writing system for Bislama to ensure greater clarity, consistency, and accessibility in written materials.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Alo,
+Mi wanfala asis blong yu. Mi save helpem yu long tingting, toktok, o question we i gat.
+Bislama hemi wan tokples we i usum long Vanuatu. Hemi blong wanpela grup man in Vanuatu i stap long gran blong South Pasifik. Bislama i tekem basis long Inglis, Tok Pisin, na ol nar tokples blong Vanuatu. Hemi tokim wantaim long olgeta man blong Vanuatu, no man long grup insait long Bislama.
+Mi save helpem yu translate ol tingting blong yu long Bislama, antap long longwe mi save tu helpem yu long wonem samting yu wandem save.
+Yu mas wanem halivim? I can certainly help you with Bislama language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will do my best to assist you. Bislama is primarily spoken in Vanuatu, an island nation in the South Pacific. It is the official language of Vanuatu and is used as a lingua franca among the different indigenous languages spoken in the country. Bislama is mainly spoken in urban areas, such as the capital city of Port Vila, as well as on the islands of Efate, Santo, Tanna, and Malekula, among others. Bislama is a creole language spoken in Vanuatu. While there are varying dialects of Bislama across the different islands of Vanuatu, the differences are generally minor and speakers of different dialects can still understand each other. Some of the main dialects are:
+1. Northern Vanuatu Bislama: This dialect is spoken in the northern islands of Vanuatu, such as Banks and Torres Islands. It is known for its distinctive pronunciation and vocabulary.
+2. Southern Vanuatu Bislama: This dialect is spoken in the southern islands of Vanuatu, including Efate, Tanna, and Erromango. It is considered the standard variety of Bislama and is widely spoken in the capital city, Port Vila.
+3. Central Vanuatu Bislama: This dialect is spoken in the central islands of Vanuatu, including Ambrym, Malakula, and Pentecost. It has some unique vocabulary and pronunciation features compared to other dialects.
+4. Remote Island Bislama: On more remote islands, there may be some variations in vocabulary and pronunciation. These dialects may have influences from local languages and cultures.
+It's important to note that Bislama is a relatively young language and its dialects are still evolving. However, speakers of different dialects can generally understand each other, and Bislama is used as a lingua franca throughout Vanuatu. To utilize Bislama language transcription services, follow these steps:
+1. Research available Bislama language transcription services: Look for reputable transcription service providers that offer Bislama transcription specifically. Check their website, read reviews or testimonials, and understand their experience with Bislama.
+2. Submit your audio or video file: Once you've chosen a suitable transcription service, submit your audio or video file that needs to be transcribed. Make sure the file is clear and of good quality to ensure accurate transcription.
+3. Specify your transcription requirements: Clearly communicate your transcription requirements to the service provider. Specify the type of transcription you need, such as verbatim or edited transcription, any time codes or formatting preferences, or any specific instructions related to the content.
+4. Provide necessary context: If the audio or video file contains unique or specific subject matter, provide any necessary context or background information to help the transcribers better understand and transcribe the content accurately.
+5. Agree on terms and pricing: Discuss the pricing and terms with the service provider. Ensure that you understand the rates, turnaround time, and any additional charges for extra services like translation or proofreading.
+6. Review and approve the transcription: Once the transcription is complete, the service provider will typically provide you with the transcribed document. Take the time to review it for accuracy and completeness. If any revisions or corrections are needed, communicate them to the service provider.
+7. Pay for the services: Finally, complete the payment process as agreed upon with the service provider. Some providers may require upfront payment, while others may offer payment options upon completion.
+By following these steps, you can easily utilize Bislama language transcription services to convert your audio or video content into written form accurately and efficiently. Bislama is primarily spoken in the following countries:
+1. Vanuatu: Bislama is an official language in Vanuatu, alongside English and French. It is widely spoken by the majority of the population and serves as a lingua franca between different language groups in the country.
+2. Solomon Islands: Bislama is also spoken in some areas of the Solomon Islands, particularly in the southern part of the country. However, English is more widely spoken in official and educational settings.
+3. New Caledonia: Bislama has a small presence in New Caledonia, which is a French territory located in the Pacific. The language is used by some of the local population, especially those who have migrated from Vanuatu.
+4. Fiji: Bislama is spoken by a small community of Vanuatu migrants in Fiji. It is not widely spoken in the country, as the official languages are English and Fijian.
+It is important to note that Bislama is primarily spoken in Vanuatu, and the presence of the language in other countries is relatively limited. Transcription is commonly used for languages like Bislama that are not written with a standardized script or orthography. Bislama is an English-based creole language spoken in Vanuatu, and it does not have a widely accepted written form. Consequently, transcription becomes necessary to represent Bislama in a written format.
+Transcription serves several purposes in the case of Bislama:
+1. Record keeping: Transcribing Bislama allows for accurate and consistent documentation of the language. It enables researchers, linguists, and language learners to study and analyze the language systematically.
+2. Communication: Bislama speakers may find it useful to transcribe their language for communication purposes. It allows them to write down Bislama words, phrases, or texts, which they can then share with others who may be less familiar with the spoken form of the language.
+3. Language learning: Transcription can support the learning process for non-native speakers. By transcribing Bislama into a recognizable script, learners can more easily study vocabulary, grammar, and pronunciation, and develop their reading and writing skills in the language.
+4. Standardization: Transcription can contribute to the development of a standardized written form for Bislama. When there is a consensus on the transcription system, it becomes easier for Bislama speakers to communicate in writing, as the same rules and symbols are applied uniformly.
+It's important to note that while transcription can be helpful, it is still essential to work towards standardizing a writing system for Bislama to ensure greater clarity, consistency, and accessibility in written materials.</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bislama  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>Capital Typing is pleased to offer Bislama Transcription services to assist you with your language transcription needs. Bislama is a widely spoken language in Vanuatu, an island nation located in the South Pacific. It serves as the official language of Vanuatu and acts as a lingua franca among the various indigenous languages in the country.
+Bislama is derived from English, Tok Pisin, and other Vanuatu languages, making it a unique creole language. It is predominantly spoken in urban areas such as Port Vila, the capital city, as well as on the islands of Efate, Santo, Tanna, and Malekula, among others.
+There are a few dialects of Bislama spoken across Vanuatu, but they are generally similar, with minor variations in vocabulary and pronunciation. The main dialects include Northern Vanuatu Bislama, Southern Vanuatu Bislama, Central Vanuatu Bislama, and Remote Island Bislama. Despite these differences, speakers of different dialects can still understand each other.
+At Capital Typing, we understand the importance of accurate transcription services in a language like Bislama that does not have a standardized writing system. Our experienced team of transcriptionists is well-versed in Bislama and can transcribe your audio or video files with precision and efficiency.
+To utilize our Bislama Transcription services, follow these simple steps:
+1. Research our services: Visit the Capital Typing website to learn more about our transcription services, including our experience with Bislama transcription.
+2. Submit your files: Provide us with the audio or video files that require transcription. Ensuring that they are clear and of good quality will help us deliver accurate transcriptions.
+3. Specify your requirements: Let us know your specific transcription needs, whether you require verbatim or edited transcription, any time codes or formatting preferences, or any additional instructions related to the content.
+4. Provide context: If your files contain subject matter that requires additional context or background information, please share that with us to aid in accurate transcription.
+5. Agree to terms and pricing: Discuss the pricing and terms with our team to ensure that you understand the rates, turnaround time, and any additional charges for services like translation or proofreading.
+6. Review and provide feedback: After we have completed the transcription, we will provide you with the transcribed document. Take the time to review it for accuracy and completeness. If any revisions or corrections are required, communicate them to us, and we will be happy to make the necessary adjustments.
+7. Complete payment: Once you are satisfied with the transcription, complete the payment process as agreed upon during the initial discussions.
+At Capital Typing, we prioritize accuracy and confidentiality in all our transcription services. Our team of professionals is dedicated to delivering high-quality results, ensuring that your Bislama audio or video content is transcribed efficiently and accurately.
+By partnering with Capital Typing for your Bislama transcription needs, you can transform your spoken Bislama into written form, making it more accessible for documentation, communication, language learning, and standardization efforts. Contact us today to get started with our Bislama Transcription services and experience the benefits of our expertise in language transcription.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bosnian</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Kako vam mogu pomoći danas?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bosnian language transcription services</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>I can assist with Bosnian language transcription services. Here are a few steps to get started:
+1. Provide the audio or video file that needs to be transcribed in Bosnian.
+2. Specify any specific formatting or timecodes requirements.
+3. Let me know the desired turnaround time for the transcription.
+4. I will transcribe the audio or video accurately and efficiently in Bosnian.
+5. The completed transcription can be delivered to you in a preferred file format.
+Please note that transcription services may vary in cost and availability. If you would like me to assist with the transcription, please provide more details about the project, such as the length of the audio or video and any formatting requirements.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Bosnian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bosnian is primarily spoken in Bosnia and Herzegovina. It is one of the official languages of the country, along with Croatian and Serbian. Bosnian is also spoken by Bosniaks (Bosnian Muslims) living in other countries, particularly in the Balkans and diaspora communities worldwide.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bosnian dialects</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bosnian, one of the three official languages of Bosnia and Herzegovina, is primarily based on the Stokavian dialect of Serbian, which is a South Slavic language. However, there are also some distinctive features that differentiate Bosnian from other Stokavian dialects. 
+There are different dialects spoken in different regions of Bosnia and Herzegovina. The most significant dialects include the Eastern Herzegovinian dialect, spoken in the eastern part of the country, including Mostar and Trebinje; the Bosnian Krajina dialect, spoken in the northwestern part, such as Prijedor and Banja Luka; the Posavina dialect, spoken in the northern region, including the towns of Bosanski Šamac and Odžak; and the Bosnian Podrinje dialect, spoken primarily in the northeastern part of the country, including Tuzla and Zvornik.
+Each of these dialects has its own unique characteristics in terms of pronunciation, vocabulary, and grammar. However, the standard Bosnian language, as defined by the Bosnian Language Council, is based on the Eastern Herzegovinian dialect.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bosnian language transcription services</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Someone can utilize Bosnian language transcription services by finding a reliable transcription service provider that offers Bosnian language support. Here are some steps to follow:
+1. Research and identify reputable transcription service providers: Look for transcription service providers that specifically mention Bosnian language transcription as one of their services. Check their websites, reviews, and customer testimonials to get an idea of their reputation and quality of work.
+2. Contact and discuss your requirements: Reach out to the selected service providers and discuss your transcription needs. Provide details such as audio or video file format, file length, desired turnaround time, and any specific instructions.
+3. Submit the files: Once you have selected a provider and agreed on the terms, submit your Bosnian audio or video files securely through the chosen platform. Most transcription service providers have dedicated file upload systems to keep the data confidential.
+4. Confirm the pricing: Ensure that you have a clear understanding of the pricing structure. Some providers charge per minute of audio/video, while others may charge based on the complexity of the content or additional requirements, such as time-stamping or verbatim transcription.
+5. Wait for completion: The transcription service provider will assign a qualified Bosnian language transcriber to work on your files. The duration of this process will depend on the length of the files and the agreed turnaround time.
+6. Review and provide feedback: Once the transcription is completed, you will receive the transcribed text. Take the time to review it for accuracy and quality. If there are any errors or issues, provide constructive feedback to the transcription service provider so that they can make necessary corrections.
+7. Pay for the services: After you have reviewed and approved the transcription, follow the payment process established by the service provider. This can be through online payment methods or following their specific billing procedures.
+By following these steps, someone can effectively utilize Bosnian language transcription services to convert their audio or video content into written text.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Countries where Bosnian is spoken</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Bosnian is primarily spoken in Bosnia and Herzegovina, a country located in Southeastern Europe. It is also one of the official languages of the country, alongside Croatian and Serbian. Bosnian is also spoken by Bosnian communities in other countries, such as Serbia, Montenegro, Croatia, North Macedonia, and Kosovo. Additionally, there are diaspora communities of Bosnian speakers in countries like Germany, Austria, Switzerland, Sweden, the United States, and Australia.</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bosnian language</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Bosnian language, as well as any other language, for several reasons:
+1. Standardization: Transcription helps establish a standardized way of representing the Bosnian language in writing. By using a consistent set of symbols or characters, it ensures clarity and understanding among different users of the language.
+2. Pronunciation: Bosnian, like any other language, can have complex phonetic and phonological features. Transcription provides a way to represent these sounds accurately and explicitly. It helps learners, language teachers, and speech therapists understand and reproduce correct pronunciations.
+3. Language learning: Transcription aids in language learning by providing a phonetic guide for non-native speakers. It allows learners to see the pronunciation alongside the written representation, facilitating their understanding and acquisition of the language's sounds.
+4. Language documentation and preservation: Transcription plays a crucial role in documenting and preserving the Bosnian language. By transcribing spoken language into a written form, it helps preserve the language for future generations, contributing to its overall linguistic and cultural heritage.
+5. Accessibility: Transcription is essential for making spoken content accessible to individuals with hearing impairments or those who prefer reading over listening. It allows for the creation of subtitles, closed captions, or transcripts for audio or video materials, ensuring accessibility and inclusion.
+Overall, transcription has many practical and beneficial uses for the Bosnian language, ranging from facilitating language learning to preserving the language's rich linguistic and cultural heritage.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>Kako vam mogu pomoći danas? I can assist with Bosnian language transcription services. Here are a few steps to get started:
+1. Provide the audio or video file that needs to be transcribed in Bosnian.
+2. Specify any specific formatting or timecodes requirements.
+3. Let me know the desired turnaround time for the transcription.
+4. I will transcribe the audio or video accurately and efficiently in Bosnian.
+5. The completed transcription can be delivered to you in a preferred file format.
+Please note that transcription services may vary in cost and availability. If you would like me to assist with the transcription, please provide more details about the project, such as the length of the audio or video and any formatting requirements. Bosnian is primarily spoken in Bosnia and Herzegovina. It is one of the official languages of the country, along with Croatian and Serbian. Bosnian is also spoken by Bosniaks (Bosnian Muslims) living in other countries, particularly in the Balkans and diaspora communities worldwide. Bosnian, one of the three official languages of Bosnia and Herzegovina, is primarily based on the Stokavian dialect of Serbian, which is a South Slavic language. However, there are also some distinctive features that differentiate Bosnian from other Stokavian dialects. 
+There are different dialects spoken in different regions of Bosnia and Herzegovina. The most significant dialects include the Eastern Herzegovinian dialect, spoken in the eastern part of the country, including Mostar and Trebinje; the Bosnian Krajina dialect, spoken in the northwestern part, such as Prijedor and Banja Luka; the Posavina dialect, spoken in the northern region, including the towns of Bosanski Šamac and Odžak; and the Bosnian Podrinje dialect, spoken primarily in the northeastern part of the country, including Tuzla and Zvornik.
+Each of these dialects has its own unique characteristics in terms of pronunciation, vocabulary, and grammar. However, the standard Bosnian language, as defined by the Bosnian Language Council, is based on the Eastern Herzegovinian dialect. Someone can utilize Bosnian language transcription services by finding a reliable transcription service provider that offers Bosnian language support. Here are some steps to follow:
+1. Research and identify reputable transcription service providers: Look for transcription service providers that specifically mention Bosnian language transcription as one of their services. Check their websites, reviews, and customer testimonials to get an idea of their reputation and quality of work.
+2. Contact and discuss your requirements: Reach out to the selected service providers and discuss your transcription needs. Provide details such as audio or video file format, file length, desired turnaround time, and any specific instructions.
+3. Submit the files: Once you have selected a provider and agreed on the terms, submit your Bosnian audio or video files securely through the chosen platform. Most transcription service providers have dedicated file upload systems to keep the data confidential.
+4. Confirm the pricing: Ensure that you have a clear understanding of the pricing structure. Some providers charge per minute of audio/video, while others may charge based on the complexity of the content or additional requirements, such as time-stamping or verbatim transcription.
+5. Wait for completion: The transcription service provider will assign a qualified Bosnian language transcriber to work on your files. The duration of this process will depend on the length of the files and the agreed turnaround time.
+6. Review and provide feedback: Once the transcription is completed, you will receive the transcribed text. Take the time to review it for accuracy and quality. If there are any errors or issues, provide constructive feedback to the transcription service provider so that they can make necessary corrections.
+7. Pay for the services: After you have reviewed and approved the transcription, follow the payment process established by the service provider. This can be through online payment methods or following their specific billing procedures.
+By following these steps, someone can effectively utilize Bosnian language transcription services to convert their audio or video content into written text. Bosnian is primarily spoken in Bosnia and Herzegovina, a country located in Southeastern Europe. It is also one of the official languages of the country, alongside Croatian and Serbian. Bosnian is also spoken by Bosnian communities in other countries, such as Serbia, Montenegro, Croatia, North Macedonia, and Kosovo. Additionally, there are diaspora communities of Bosnian speakers in countries like Germany, Austria, Switzerland, Sweden, the United States, and Australia. Transcription is needed for the Bosnian language, as well as any other language, for several reasons:
+1. Standardization: Transcription helps establish a standardized way of representing the Bosnian language in writing. By using a consistent set of symbols or characters, it ensures clarity and understanding among different users of the language.
+2. Pronunciation: Bosnian, like any other language, can have complex phonetic and phonological features. Transcription provides a way to represent these sounds accurately and explicitly. It helps learners, language teachers, and speech therapists understand and reproduce correct pronunciations.
+3. Language learning: Transcription aids in language learning by providing a phonetic guide for non-native speakers. It allows learners to see the pronunciation alongside the written representation, facilitating their understanding and acquisition of the language's sounds.
+4. Language documentation and preservation: Transcription plays a crucial role in documenting and preserving the Bosnian language. By transcribing spoken language into a written form, it helps preserve the language for future generations, contributing to its overall linguistic and cultural heritage.
+5. Accessibility: Transcription is essential for making spoken content accessible to individuals with hearing impairments or those who prefer reading over listening. It allows for the creation of subtitles, closed captions, or transcripts for audio or video materials, ensuring accessibility and inclusion.
+Overall, transcription has many practical and beneficial uses for the Bosnian language, ranging from facilitating language learning to preserving the language's rich linguistic and cultural heritage.</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bosnian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>How can I assist you today? If you are in need of Bosnian language transcription services, Capital Typing is here to help. With our expertise in transcription services, we can accurately transcribe your audio or video files in Bosnian. Follow these steps to get started:
+1. Share your audio or video files: Provide us with the audio or video files that you need transcribed in Bosnian. You can securely upload the files to our platform.
+2. Specify formatting and timecodes: Let us know if there are any specific formatting requirements for the transcription, such as font style, spacing, or headers. If you need timecodes included, inform us of the desired intervals.
+3. Turnaround time: Inform us of the desired timeframe for completing the transcription. We will do our best to accommodate your requirements.
+4. Accurate and efficient transcription: Our team of experienced transcribers will accurately transcribe the audio or video content in Bosnian. We pay attention to detail and ensure that the transcription captures all the necessary information.
+5. Preferred file format: Once the transcription is complete, we will deliver the final transcript to you in your preferred file format. Whether you need it in Word, PDF, or any other format, let us know your preference.
+Please note that the cost and availability of transcription services may vary depending on the specific project requirements. To provide you with a more accurate quote, please provide us with additional details such as the length of the audio or video files and any specific formatting instructions.
+Bosnian is primarily spoken in Bosnia and Herzegovina, and it is one of the official languages of the country, along with Croatian and Serbian. However, it is also spoken by Bosniaks (Bosnian Muslims) living in other countries, as well as diaspora communities around the world.
+At Capital Typing, our transcribers are well-versed in the complexities of the Bosnian language, including its various dialects and unique features. We understand the importance of accuracy and strive to provide high-quality transcriptions that meet your needs.
+To utilize our Bosnian language transcription services, simply contact us and provide the necessary details of your project. Our team will guide you through the process and ensure that your transcription is completed to your satisfaction.
+Whether you need transcription services for business, academic, or personal purposes, Capital Typing is here to assist you. Our commitment to quality, confidentiality, and timely delivery sets us apart as a reliable transcription service provider.
+Choose Capital Typing for your Bosnian language transcription needs and experience the convenience and excellence of our services. Contact us today to get started and let us assist you in transcribing your Bosnian audio or video files accurately and efficiently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brahui</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brahui is a Dravidian language spoken mainly in the Balochistan province of Pakistan. It is also spoken by a small number of people in neighboring areas of Iran and Afghanistan. If you have any specific inquiries about Brahui, I would be happy to assist you further.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brahui language transcription services</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>I apologize, but as a text-based AI assistant, I do not have the capability to provide transcription services. However, there are various online platforms and freelance transcriptionists who may be able to assist you. I recommend conducting an internet search for "Brahui language transcription services" to find suitable options for your needs.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Brahui regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Brahui is primarily spoken in the following regions:
+1. Balochistan, Pakistan: This is the main region where Brahui is spoken. It is estimated that the majority of Brahui speakers are located in different districts of Balochistan, such as Kalat, Mastung, Khuzdar, and Loralai.
+2. Sistan and Baluchestan, Iran: Brahui is also spoken in some parts of the Sistan and Baluchestan province in Iran, which shares a border with Pakistan. The dialect spoken in this region is slightly different from the one spoken in Balochistan, Pakistan.
+3. Nimruz and Helmand provinces, Afghanistan: There is a small Brahui-speaking community in parts of Nimruz and Helmand provinces in Afghanistan, close to the border with Iran and Pakistan.
+It is important to note that while Brahui is primarily spoken in these regions, there may be smaller communities or individuals who speak Brahui in other parts of the world as well.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Brahui dialects</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Brahui is an ancient Dravidian language spoken by the Brahui people in the southwestern part of Pakistan, mainly in the Balochistan region. Despite being surrounded by Indo-Iranian languages, Brahui is not related to them and is considered to be an isolated language within the Dravidian language family.
+Brahui dialects are primarily spoken within different tribal communities within the Brahui-speaking region. However, due to limited research and documentation, there is limited information available on specific Brahui dialects. It is generally accepted that the language exhibits various dialectal variations, but the extent of these differences is yet to be fully explored.
+Some scholars have identified different dialect clusters based on geographical areas, such as the Western Brahui dialects spoken in the Chagai, Nushki, and Quetta regions, and the Eastern Brahui dialects spoken in the Kalat, Mastung, and Khuzdar areas. However, further studies are needed to better understand the linguistic variations within Brahui dialects.
+Additionally, it is worth noting that due to social, political, and cultural factors, Brahui has been influenced by neighboring languages such as Balochi, Sindhi, and Persian, which might have contributed to dialectal differences within the Brahui-speaking community.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>How can someone utilize Brahui language transcription services</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>To utilize Brahui language transcription services, one can follow these steps:
+1. Identify a reliable Brahui language transcription service provider. Look for companies or individuals who specialize in Brahui language transcription and have a good reputation for accuracy and quality.
+2. Contact the service provider and inquire about their transcription services. Discuss your specific requirements, such as the number of audio/video files to be transcribed, the turnaround time, and any formatting preferences you may have.
+3. Provide the service provider with the audio or video files that need to be transcribed. Make sure the files are clear and of good quality to ensure accurate transcription.
+4. Specify any additional instructions or requirements you may have. For example, if you need time stamps, speaker identification, or specific formatting, communicate these details to the service provider.
+5. Agree on the pricing and payment terms with the service provider. Some transcription services charge per minute of audio or video transcribed, while others may have different pricing models. Make sure you understand the payment terms clearly before proceeding.
+6. Wait for the transcribed files to be delivered. The turnaround time will depend on the length and complexity of the audio/video files and the service provider's availability. Most professionals provide an estimated delivery time or date.
+7. Review and check the transcribed files for accuracy and quality. If you find any errors or inconsistencies, communicate them to the service provider for corrections.
+8. If you are satisfied with the transcribed files, make the necessary payment as agreed upon with the service provider.
+By following these steps, someone can effectively utilize Brahui language transcription services to convert audio or video content into written text.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Countries where Brahui is spoken</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Brahui is traditionally spoken in the following countries:
+1. Pakistan: Brahui is primarily spoken in Balochistan province of Pakistan. It is the main language of the Brahui people, who are one of the many ethnic groups in the region.
+2. Afghanistan: Brahui is also spoken by some Brahui communities residing in Afghanistan, particularly in the province of Nimruz.
+3. Iran: There are also Brahui communities in southeastern Iran, particularly in the provinces of Sistan and Baluchestan, Kerman, and Hormozgan.
+Please note that while Brahui is primarily spoken in these countries, the exact number of Brahui speakers may vary, and the language may also be spoken by diaspora communities in other parts of the world.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Brahui language</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Brahui language, as it is a way to represent the sounds and phonetic details of the language using a standardized writing system. Here are a few reasons why transcription is beneficial for the Brahui language:
+1. Preservation: Transcription helps in preserving the spoken aspects of the language by representing them in a written form. This is especially important for languages that have no or limited written traditions.
+2. Communication: Transcription allows for effective communication among speakers of the language, even in situations where they may be geographically distant or have different dialects. It serves as a common reference for pronunciation and pronunciation variations.
+3. Education: Transcription facilitates language learning and teaching. It allows for the development of educational materials like textbooks, dictionaries, and language courses, making it easier for learners to study and understand the language.
+4. Research and Documentation: Transcription enables linguistic researchers to analyze and study the phonetic and phonological features of the Brahui language. It helps in documenting the language's structure, grammar, and vocabulary.
+5. Accessibility: Transcription makes the language accessible to a wider audience, including non-native speakers, researchers, and individuals interested in learning about the language and its culture.
+Overall, transcription plays a crucial role in promoting the study, preservation, and accessibility of the Brahui language.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>Brahui is a Dravidian language spoken mainly in the Balochistan province of Pakistan. It is also spoken by a small number of people in neighboring areas of Iran and Afghanistan. If you have any specific inquiries about Brahui, I would be happy to assist you further. I apologize, but as a text-based AI assistant, I do not have the capability to provide transcription services. However, there are various online platforms and freelance transcriptionists who may be able to assist you. I recommend conducting an internet search for "Brahui language transcription services" to find suitable options for your needs. Brahui is primarily spoken in the following regions:
+1. Balochistan, Pakistan: This is the main region where Brahui is spoken. It is estimated that the majority of Brahui speakers are located in different districts of Balochistan, such as Kalat, Mastung, Khuzdar, and Loralai.
+2. Sistan and Baluchestan, Iran: Brahui is also spoken in some parts of the Sistan and Baluchestan province in Iran, which shares a border with Pakistan. The dialect spoken in this region is slightly different from the one spoken in Balochistan, Pakistan.
+3. Nimruz and Helmand provinces, Afghanistan: There is a small Brahui-speaking community in parts of Nimruz and Helmand provinces in Afghanistan, close to the border with Iran and Pakistan.
+It is important to note that while Brahui is primarily spoken in these regions, there may be smaller communities or individuals who speak Brahui in other parts of the world as well. Brahui is an ancient Dravidian language spoken by the Brahui people in the southwestern part of Pakistan, mainly in the Balochistan region. Despite being surrounded by Indo-Iranian languages, Brahui is not related to them and is considered to be an isolated language within the Dravidian language family.
+Brahui dialects are primarily spoken within different tribal communities within the Brahui-speaking region. However, due to limited research and documentation, there is limited information available on specific Brahui dialects. It is generally accepted that the language exhibits various dialectal variations, but the extent of these differences is yet to be fully explored.
+Some scholars have identified different dialect clusters based on geographical areas, such as the Western Brahui dialects spoken in the Chagai, Nushki, and Quetta regions, and the Eastern Brahui dialects spoken in the Kalat, Mastung, and Khuzdar areas. However, further studies are needed to better understand the linguistic variations within Brahui dialects.
+Additionally, it is worth noting that due to social, political, and cultural factors, Brahui has been influenced by neighboring languages such as Balochi, Sindhi, and Persian, which might have contributed to dialectal differences within the Brahui-speaking community. To utilize Brahui language transcription services, one can follow these steps:
+1. Identify a reliable Brahui language transcription service provider. Look for companies or individuals who specialize in Brahui language transcription and have a good reputation for accuracy and quality.
+2. Contact the service provider and inquire about their transcription services. Discuss your specific requirements, such as the number of audio/video files to be transcribed, the turnaround time, and any formatting preferences you may have.
+3. Provide the service provider with the audio or video files that need to be transcribed. Make sure the files are clear and of good quality to ensure accurate transcription.
+4. Specify any additional instructions or requirements you may have. For example, if you need time stamps, speaker identification, or specific formatting, communicate these details to the service provider.
+5. Agree on the pricing and payment terms with the service provider. Some transcription services charge per minute of audio or video transcribed, while others may have different pricing models. Make sure you understand the payment terms clearly before proceeding.
+6. Wait for the transcribed files to be delivered. The turnaround time will depend on the length and complexity of the audio/video files and the service provider's availability. Most professionals provide an estimated delivery time or date.
+7. Review and check the transcribed files for accuracy and quality. If you find any errors or inconsistencies, communicate them to the service provider for corrections.
+8. If you are satisfied with the transcribed files, make the necessary payment as agreed upon with the service provider.
+By following these steps, someone can effectively utilize Brahui language transcription services to convert audio or video content into written text. Brahui is traditionally spoken in the following countries:
+1. Pakistan: Brahui is primarily spoken in Balochistan province of Pakistan. It is the main language of the Brahui people, who are one of the many ethnic groups in the region.
+2. Afghanistan: Brahui is also spoken by some Brahui communities residing in Afghanistan, particularly in the province of Nimruz.
+3. Iran: There are also Brahui communities in southeastern Iran, particularly in the provinces of Sistan and Baluchestan, Kerman, and Hormozgan.
+Please note that while Brahui is primarily spoken in these countries, the exact number of Brahui speakers may vary, and the language may also be spoken by diaspora communities in other parts of the world. Transcription is needed for the Brahui language, as it is a way to represent the sounds and phonetic details of the language using a standardized writing system. Here are a few reasons why transcription is beneficial for the Brahui language:
+1. Preservation: Transcription helps in preserving the spoken aspects of the language by representing them in a written form. This is especially important for languages that have no or limited written traditions.
+2. Communication: Transcription allows for effective communication among speakers of the language, even in situations where they may be geographically distant or have different dialects. It serves as a common reference for pronunciation and pronunciation variations.
+3. Education: Transcription facilitates language learning and teaching. It allows for the development of educational materials like textbooks, dictionaries, and language courses, making it easier for learners to study and understand the language.
+4. Research and Documentation: Transcription enables linguistic researchers to analyze and study the phonetic and phonological features of the Brahui language. It helps in documenting the language's structure, grammar, and vocabulary.
+5. Accessibility: Transcription makes the language accessible to a wider audience, including non-native speakers, researchers, and individuals interested in learning about the language and its culture.
+Overall, transcription plays a crucial role in promoting the study, preservation, and accessibility of the Brahui language.</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Brahui  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>Introducing Brahui Transcription Services: Preserving and Accessing the Brahui Language
+Brahui is a Dravidian language primarily spoken in the Balochistan province of Pakistan, with smaller communities in Iran and Afghanistan. As a text-based AI assistant, I cannot provide transcription services, but there are options available for those seeking Brahui language transcription assistance. Online platforms and freelance transcriptionists can be found by conducting a simple internet search for "Brahui language transcription services." These services can help convert audio or video content in Brahui into written text.
+Transcription of the Brahui language is essential for preserving and accessing the language's phonetic details effectively. It allows for communication among speakers even when they are geographically distant or have different dialects. Transcription also facilitates language learning and teaching, making it easier for learners to study and understand Brahui. Moreover, it enables linguistic researchers to analyze and document the language's structure, grammar, and vocabulary. Transcription serves as a valuable resource for the development of educational materials, dictionaries, and language courses.
+Capital Typing is a reliable provider of Brahui language transcription services. They specialize in Brahui transcription and are known for their accuracy and quality. When utilizing their services, there are a few steps to follow. Firstly, contact Capital Typing to discuss your specific requirements, including the number of audio or video files, formatting preferences, and turnaround time. After providing the files, specify any additional instructions or requirements you may have, such as time stamps or speaker identification.
+Agree on the pricing and payment terms with Capital Typing, ensuring clarity before proceeding. Once the transcribed files are delivered, you should review them for accuracy and quality. If any errors or inconsistencies are found, communicate them to Capital Typing for corrections. Finally, if you are satisfied with the transcribed files, make the necessary payment as agreed upon.
+By following these steps, you can effectively utilize Capital Typing's Brahui language transcription services and convert audio or video content into written text. This transcription service contributes to the preservation, communication, education, research, and accessibility of the Brahui language. It ensures that the rich linguistic heritage of the Brahui-speaking community continues to thrive and be accessible to a wider audience.
+Capital Typing is committed to providing accurate and reliable transcription services to help individuals, researchers, and language enthusiasts with their Brahui language needs. Contact them today to begin preserving and accessing the Brahui language through transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Bulgarian</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Здравей! Как мога да ти помогна днес?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bulgarian language transcription services</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bulgarian language transcription services are usually provided by professional transcriptionists who have expertise in transcribing audio or video content into written text. These services can be useful for various purposes, such as converting interviews, meetings, or conference speeches into written form.
+To find Bulgarian language transcription services, you can try searching online for transcription companies that offer this language as an option. You can also consider reaching out to local language service providers or freelancers who specialize in Bulgarian transcription. It's important to ensure that the individuals or companies you choose have experience and a good reputation in delivering accurate and timely transcriptions.
+When selecting a service provider, make sure to discuss your specific requirements, such as turnaround time, file format, and any additional services you may need, such as translation or proofreading. This will help ensure that you receive the highest quality transcription in the Bulgarian language.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Bulgarian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bulgarian is the official language of Bulgaria and is predominantly spoken throughout the country. There are no specific regions within Bulgaria where Bulgarian is not spoken. It is the mother tongue of the majority of the population and is widely understood and used in all aspects of daily life, including government, education, and business.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Bulgarian dialects</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bulgarian dialects are regional varieties of the Bulgarian language spoken in different parts of Bulgaria and neighboring countries. There are several major dialect groups, each with its own distinct features and pronunciation. Some of the main Bulgarian dialects include: 
+1. Northwestern Dialects: These dialects are spoken in the northwestern part of Bulgaria, including the areas around Vidin and Montana. They are known for their distinctive pronunciation of certain vowels and consonants, as well as unique vocabulary and grammatical forms.
+2. Southwestern Dialects: Spoken in the southwestern part of Bulgaria, primarily in the regions of Blagoevgrad and Kyustendil, these dialects are characterized by their pronunciation of the "yat" vowel, which is often pronounced as a long "e" sound.
+3. Rhodopean Dialects: Spoken in the Rhodope Mountains in southern Bulgaria, these dialects have distinct characteristics such as the pronunciation of the vowels, consonants, and vocabulary. One notable feature is the pronunciation of the unstressed "a" sound as "o".
+4. Eastern Dialects: These dialects are spoken in the eastern parts of Bulgaria, including the regions of Burgas, Varna, and Shumen. They have specific features in pronunciation, such as the pronunciation of certain consonants and vowels, as well as distinct vocabulary and grammatical forms.
+5. Northeastern Dialects: Spoken in the northeastern parts of Bulgaria, including the regions of Ruse and Silistra, these dialects have specific phonetic features, such as the pronunciation of certain vowels and consonants. They also have some unique vocabulary and grammatical forms.
+It's important to note that while there are distinct dialects in Bulgaria, the standard Bulgarian language is based on the dialect spoken in the capital city Sofia.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>How can someone utilize Bulgarian language transcription services</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Someone can utilize Bulgarian language transcription services by following these steps:
+1. Find a reputable Bulgarian language transcription service provider: Conduct a search online and look for companies or individuals that offer Bulgarian language transcription services. Read reviews and ask for recommendations to ensure quality and accuracy.
+2. Contact the service provider: Reach out to the selected service provider and discuss your transcription needs in detail. Provide information about the audio/video file you want to be transcribed, such as length, format, and any specific requirements.
+3. Send the audio/video file: Once you have agreed on the terms and conditions with the service provider, upload or send the audio/video file that needs to be transcribed. Make sure the file is clear and of good quality to ensure accurate transcriptions.
+4. Specify any specific instructions: If there are any specific instructions or requirements for the transcription, such as timestamps, speaker identification, or formatting preferences, communicate them clearly to the service provider. This will help ensure that the final transcript meets your expectations.
+5. Wait for the transcription to be completed: The service provider will transcribe the audio/video file into written text, following the agreed-upon guidelines. The time required for transcription will vary depending on the length and complexity of the file.
+6. Review and provide feedback: Once the transcription is completed, review the transcript carefully for accuracy and completeness. If necessary, provide feedback to the service provider for any revisions that may be required.
+7. Payment: After you are satisfied with the transcript, make the payment as agreed upon with the service provider. Payment options may vary, so make sure to clarify the method and terms of payment in advance.
+By following these steps, someone can effectively utilize Bulgarian language transcription services and obtain accurate and professional transcripts of their audio or video content.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Countries where Bulgarian is spoken</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Bulgarian is primarily spoken in Bulgaria, which is the official language of the country. However, there are also significant Bulgarian-speaking communities in neighboring countries such as Turkey, Greece, Romania, Serbia, Macedonia, and Ukraine. Additionally, there are Bulgarian diaspora communities in various countries around the world, including the United States, Canada, Australia, Germany, Spain, and the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Bulgarian language</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Transcription is often needed for the Bulgarian language to assist non-native speakers in understanding the pronunciation of words and phrases. The Bulgarian language uses a Cyrillic alphabet, which can be unfamiliar to those not accustomed to it. Transcribing Bulgarian words into a Latin-based alphabet allows for easier reading and pronunciation for learners or individuals who are not familiar with the Cyrillic script. Transcription can be particularly useful in language learning, communication, or when dealing with foreign names or terms.</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Здравей! Как мога да ти помогна днес? Bulgarian language transcription services are usually provided by professional transcriptionists who have expertise in transcribing audio or video content into written text. These services can be useful for various purposes, such as converting interviews, meetings, or conference speeches into written form.
+To find Bulgarian language transcription services, you can try searching online for transcription companies that offer this language as an option. You can also consider reaching out to local language service providers or freelancers who specialize in Bulgarian transcription. It's important to ensure that the individuals or companies you choose have experience and a good reputation in delivering accurate and timely transcriptions.
+When selecting a service provider, make sure to discuss your specific requirements, such as turnaround time, file format, and any additional services you may need, such as translation or proofreading. This will help ensure that you receive the highest quality transcription in the Bulgarian language. Bulgarian is the official language of Bulgaria and is predominantly spoken throughout the country. There are no specific regions within Bulgaria where Bulgarian is not spoken. It is the mother tongue of the majority of the population and is widely understood and used in all aspects of daily life, including government, education, and business. Bulgarian dialects are regional varieties of the Bulgarian language spoken in different parts of Bulgaria and neighboring countries. There are several major dialect groups, each with its own distinct features and pronunciation. Some of the main Bulgarian dialects include: 
+1. Northwestern Dialects: These dialects are spoken in the northwestern part of Bulgaria, including the areas around Vidin and Montana. They are known for their distinctive pronunciation of certain vowels and consonants, as well as unique vocabulary and grammatical forms.
+2. Southwestern Dialects: Spoken in the southwestern part of Bulgaria, primarily in the regions of Blagoevgrad and Kyustendil, these dialects are characterized by their pronunciation of the "yat" vowel, which is often pronounced as a long "e" sound.
+3. Rhodopean Dialects: Spoken in the Rhodope Mountains in southern Bulgaria, these dialects have distinct characteristics such as the pronunciation of the vowels, consonants, and vocabulary. One notable feature is the pronunciation of the unstressed "a" sound as "o".
+4. Eastern Dialects: These dialects are spoken in the eastern parts of Bulgaria, including the regions of Burgas, Varna, and Shumen. They have specific features in pronunciation, such as the pronunciation of certain consonants and vowels, as well as distinct vocabulary and grammatical forms.
+5. Northeastern Dialects: Spoken in the northeastern parts of Bulgaria, including the regions of Ruse and Silistra, these dialects have specific phonetic features, such as the pronunciation of certain vowels and consonants. They also have some unique vocabulary and grammatical forms.
+It's important to note that while there are distinct dialects in Bulgaria, the standard Bulgarian language is based on the dialect spoken in the capital city Sofia. Someone can utilize Bulgarian language transcription services by following these steps:
+1. Find a reputable Bulgarian language transcription service provider: Conduct a search online and look for companies or individuals that offer Bulgarian language transcription services. Read reviews and ask for recommendations to ensure quality and accuracy.
+2. Contact the service provider: Reach out to the selected service provider and discuss your transcription needs in detail. Provide information about the audio/video file you want to be transcribed, such as length, format, and any specific requirements.
+3. Send the audio/video file: Once you have agreed on the terms and conditions with the service provider, upload or send the audio/video file that needs to be transcribed. Make sure the file is clear and of good quality to ensure accurate transcriptions.
+4. Specify any specific instructions: If there are any specific instructions or requirements for the transcription, such as timestamps, speaker identification, or formatting preferences, communicate them clearly to the service provider. This will help ensure that the final transcript meets your expectations.
+5. Wait for the transcription to be completed: The service provider will transcribe the audio/video file into written text, following the agreed-upon guidelines. The time required for transcription will vary depending on the length and complexity of the file.
+6. Review and provide feedback: Once the transcription is completed, review the transcript carefully for accuracy and completeness. If necessary, provide feedback to the service provider for any revisions that may be required.
+7. Payment: After you are satisfied with the transcript, make the payment as agreed upon with the service provider. Payment options may vary, so make sure to clarify the method and terms of payment in advance.
+By following these steps, someone can effectively utilize Bulgarian language transcription services and obtain accurate and professional transcripts of their audio or video content. Bulgarian is primarily spoken in Bulgaria, which is the official language of the country. However, there are also significant Bulgarian-speaking communities in neighboring countries such as Turkey, Greece, Romania, Serbia, Macedonia, and Ukraine. Additionally, there are Bulgarian diaspora communities in various countries around the world, including the United States, Canada, Australia, Germany, Spain, and the United Kingdom. Transcription is often needed for the Bulgarian language to assist non-native speakers in understanding the pronunciation of words and phrases. The Bulgarian language uses a Cyrillic alphabet, which can be unfamiliar to those not accustomed to it. Transcribing Bulgarian words into a Latin-based alphabet allows for easier reading and pronunciation for learners or individuals who are not familiar with the Cyrillic script. Transcription can be particularly useful in language learning, communication, or when dealing with foreign names or terms.</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Bulgarian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Provider of Bulgarian Transcription Services
+Are you in need of professional Bulgarian transcription services? Look no further than Capital Typing. Our team of expert transcriptionists specializes in accurately transcribing audio or video content in the Bulgarian language. Whether you need interviews, meetings, or conference speeches converted into written form, we have got you covered.
+Finding a reliable Bulgarian transcription service provider can be challenging, but with Capital Typing, you can be confident in our expertise and reputation for delivering high-quality and timely transcriptions. Our transcriptionists are experienced professionals who understand the nuances of the Bulgarian language and can provide accurate transcriptions to suit your specific needs.
+To get started, simply reach out to us and discuss your requirements. Our friendly team will guide you through the process, ensuring that we understand your turnaround time, file format, and any additional services you may need, such as translation or proofreading. By collaborating closely with you, we can guarantee that the final transcript meets your expectations.
+At Capital Typing, we understand that accuracy is crucial in transcription services. That's why our skilled professionals pay attention to every detail, ensuring that every word is transcribed correctly. We also use advanced tools and software to enhance the accuracy and efficiency of our services, allowing us to deliver transcripts promptly without compromising quality.
+Bulgarian is the official language of Bulgaria, where it is spoken widely in all aspects of daily life. It is also spoken in Bulgarian communities in neighboring countries and around the world. With our Bulgarian transcription services, you can overcome language barriers and gain access to valuable information in written form.
+Our team is well-versed in the diversity of Bulgarian dialects, which can differ in pronunciation, vocabulary, and grammatical forms. Whether you require transcription in Northwestern, Southwestern, Rhodopean, Eastern, Northeastern dialects, or the standard Sofia dialect, we have the expertise to accommodate your needs.
+When you choose Capital Typing for your Bulgarian transcription needs, you can expect professionalism, accuracy, and confidentiality. We understand the importance of handling sensitive information with the utmost care, and we take stringent measures to protect the privacy and confidentiality of your content.
+To streamline the process, we offer a user-friendly platform for securely uploading your audio or video files. Our efficient workflow ensures that your transcriptions are completed in a timely manner, allowing you to focus on other important tasks.
+At Capital Typing, we take pride in our commitment to customer satisfaction. We value your feedback, and if there are any revisions or adjustments required, we will work closely with you to ensure that you are fully satisfied with the final transcript.
+Don't let language barriers hinder your progress. Trust Capital Typing for accurate and reliable Bulgarian transcription services. Contact us today to discuss your transcription needs and experience our commitment to excellence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Burmese</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Burmese refers to the people or things related to Myanmar, formerly known as Burma. The Burmese people are the major ethnic group in Myanmar and speak the Burmese language. The Burmese culture is rich and diverse, with influences from neighboring countries such as India, China, and Thailand. Traditional Burmese cuisine includes dishes like Mohinga (rice noodle soup), Laphet Thoke (fermented tea leaf salad), and Burmese curry. Buddhism is the dominant religion in Myanmar, and the country is known for its numerous temples and pagodas, including the famous Shwedagon Pagoda in Yangon.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Burmese language transcription services</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>There are several transcription services available for the Burmese language. Here are a few options:
+1. Rev: Rev offers professional Burmese transcription services with quick turnaround times. You can upload audio or video files to their platform and receive accurate transcriptions.
+2. Upwork: Upwork is a freelancing platform where you can find Burmese transcriptionists who specialize in transcribing audio recordings. You can post a job and review the profiles and proposals of interested freelancers.
+3. GMR Transcription: GMR Transcription provides Burmese transcription services for various industries including healthcare, legal, academic, and more. They have native Burmese speakers who can transcribe your audio recordings.
+4. TranscriptionStar: TranscriptionStar is another option for Burmese transcription services. They offer high-quality transcriptions with a fast turnaround time. You can upload your audio or video files to their platform for transcription.
+It's always a good idea to research and compare different transcription services to find the best fit for your specific needs.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Burmese regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Burmese is the official language of Myanmar (formerly known as Burma). It is primarily spoken in the following regions:
+1. Yangon Region
+2. Mandalay Region
+3. Ayeyarwady Region
+4. Bago Division
+5. Sagaing Region
+6. Magway Region
+7. Tanintharyi Region
+8. Naypyidaw Union Territory
+9. Shan State
+10. Kayah State
+11. Kayin State
+12. Mon State
+13. Rakhine State
+14. Chin State
+15. Kachin State
+These are the major regions where Burmese is widely spoken, though it is also spoken by various ethnic groups in other parts of the country.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Burmese dialects</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Burmese dialects refer to the various regional variations of the Burmese language spoken in Myanmar (formerly known as Burma). Although Burmese is the official language and is spoken by the majority of the population, there are numerous dialects that have developed in different regions of the country. 
+Some of the major Burmese dialects include:
+1. Yangon (Rangoon) Dialect: This is considered the standard Burmese dialect and is spoken in the capital city of Yangon and its surrounding areas. It is also widely understood and used in government, education, and media.
+2. Mandalay Dialect: Spoken in the Mandalay region, this dialect is known for its distinct pronunciation and vocabulary. It is also quite influential due to the historical and cultural significance of Mandalay as the last capital of the Burmese kingdom.
+3. Shan Dialect: Spoken by the Shan ethnic group, primarily in the Shan State, this dialect has a number of variations. It is significantly different from standard Burmese and has its own unique sound system and vocabulary.
+4. Kachin Dialect: spoken by the Kachin people, primarily in Kachin State and neighboring areas. It has its own distinct grammar, phonetics, and vocabulary.
+5. Chin Dialects: The Chin State is home to various dialects spoken by the Chin ethnic group. These dialects often differ significantly from standard Burmese and from each other, making communication challenging between different Chin subgroups.
+6. Karen Dialects: The Karen ethnic group, who primarily reside in the Karen State and Irrawaddy Delta regions, speak their own dialects. These dialects can vary significantly in pronunciation and vocabulary.
+These are just a few examples of the many Burmese dialects spoken in Myanmar. Each dialect has its own unique characteristics and is influenced by the cultural, geographical, and historical context of the region in which it is spoken.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>How can someone utilize Burmese language transcription services</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Someone can utilize Burmese language transcription services in several ways:
+1. Recordings for research or documentation: If someone has audio or video recordings in Burmese that need to be transcribed for research purposes, such as interviews, meetings, or speeches, they can use transcription services to convert the spoken content into written text.
+2. Language learning: Transcriptions can be helpful for language learners who want to improve their listening and comprehension skills. By transcribing Burmese audio or video materials, learners can have the text available to follow along with the spoken words, helping them understand and learn new vocabulary and sentence structures.
+3. Translation and localization: Businesses or individuals who need to translate Burmese content into other languages can benefit from transcription services. By transcribing the Burmese content, translators can have a written version of the text to work with, making the translation process more accurate and efficient.
+4. Closed captioning and subtitling: For videos or films in Burmese, transcription services can be used to create closed captions or subtitles. This is especially useful for making content accessible to viewers who are deaf or hard of hearing, as well as those who speak other languages and need translated subtitles.
+To utilize Burmese language transcription services, it is advisable to find reputable transcription service providers that offer Burmese language support. These providers will have experienced transcriptionists who are proficient in the Burmese language and can accurately transcribe audio or video content.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Countries where Burmese is spoken</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Burmese is the official language of Myanmar (formerly known as Burma) and is widely spoken by the majority of the population there. It is also spoken by smaller communities of Burmese people living in neighboring countries, such as Thailand, China (Yunnan), India (Mizoram), and Bangladesh. Additionally, there are Burmese-speaking diaspora communities around the world, particularly in the United States, Australia, and the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Burmese language</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Burmese language for several reasons:
+1. Non-native speakers: Burmese is primarily spoken in Myanmar, and for non-native speakers who may not be familiar with the Burmese script, transcription provides a way to listen and understand the language by representing its sounds in a familiar writing system.
+2. Language learning: Transcription can be a helpful tool for Burmese language learners as it allows them to study and practice the pronunciation of words without relying solely on the Burmese script. It provides a step-by-step guide for learners to understand and speak the language accurately.
+3. Accessibility: Transcription helps in making Burmese language content more accessible to a wider audience, including people with visual impairments or individuals who may not have fluency in the Burmese script.
+4. Linguistic analysis: Transcription also plays a vital role in linguistic analysis and research. By transcribing spoken Burmese into a phonetic representation, linguists can study the language's phonological patterns, analyze its sound system, and better understand its intricacies.
+Overall, transcription serves as a practical tool for various purposes, such as language learning, communication, accessibility, and linguistic research, making the Burmese language more comprehensible to a broader range of individuals.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Burmese refers to the people or things related to Myanmar, formerly known as Burma. The Burmese people are the major ethnic group in Myanmar and speak the Burmese language. The Burmese culture is rich and diverse, with influences from neighboring countries such as India, China, and Thailand. Traditional Burmese cuisine includes dishes like Mohinga (rice noodle soup), Laphet Thoke (fermented tea leaf salad), and Burmese curry. Buddhism is the dominant religion in Myanmar, and the country is known for its numerous temples and pagodas, including the famous Shwedagon Pagoda in Yangon. There are several transcription services available for the Burmese language. Here are a few options:
+1. Rev: Rev offers professional Burmese transcription services with quick turnaround times. You can upload audio or video files to their platform and receive accurate transcriptions.
+2. Upwork: Upwork is a freelancing platform where you can find Burmese transcriptionists who specialize in transcribing audio recordings. You can post a job and review the profiles and proposals of interested freelancers.
+3. GMR Transcription: GMR Transcription provides Burmese transcription services for various industries including healthcare, legal, academic, and more. They have native Burmese speakers who can transcribe your audio recordings.
+4. TranscriptionStar: TranscriptionStar is another option for Burmese transcription services. They offer high-quality transcriptions with a fast turnaround time. You can upload your audio or video files to their platform for transcription.
+It's always a good idea to research and compare different transcription services to find the best fit for your specific needs. Burmese is the official language of Myanmar (formerly known as Burma). It is primarily spoken in the following regions:
+1. Yangon Region
+2. Mandalay Region
+3. Ayeyarwady Region
+4. Bago Division
+5. Sagaing Region
+6. Magway Region
+7. Tanintharyi Region
+8. Naypyidaw Union Territory
+9. Shan State
+10. Kayah State
+11. Kayin State
+12. Mon State
+13. Rakhine State
+14. Chin State
+15. Kachin State
+These are the major regions where Burmese is widely spoken, though it is also spoken by various ethnic groups in other parts of the country. Burmese dialects refer to the various regional variations of the Burmese language spoken in Myanmar (formerly known as Burma). Although Burmese is the official language and is spoken by the majority of the population, there are numerous dialects that have developed in different regions of the country. 
+Some of the major Burmese dialects include:
+1. Yangon (Rangoon) Dialect: This is considered the standard Burmese dialect and is spoken in the capital city of Yangon and its surrounding areas. It is also widely understood and used in government, education, and media.
+2. Mandalay Dialect: Spoken in the Mandalay region, this dialect is known for its distinct pronunciation and vocabulary. It is also quite influential due to the historical and cultural significance of Mandalay as the last capital of the Burmese kingdom.
+3. Shan Dialect: Spoken by the Shan ethnic group, primarily in the Shan State, this dialect has a number of variations. It is significantly different from standard Burmese and has its own unique sound system and vocabulary.
+4. Kachin Dialect: spoken by the Kachin people, primarily in Kachin State and neighboring areas. It has its own distinct grammar, phonetics, and vocabulary.
+5. Chin Dialects: The Chin State is home to various dialects spoken by the Chin ethnic group. These dialects often differ significantly from standard Burmese and from each other, making communication challenging between different Chin subgroups.
+6. Karen Dialects: The Karen ethnic group, who primarily reside in the Karen State and Irrawaddy Delta regions, speak their own dialects. These dialects can vary significantly in pronunciation and vocabulary.
+These are just a few examples of the many Burmese dialects spoken in Myanmar. Each dialect has its own unique characteristics and is influenced by the cultural, geographical, and historical context of the region in which it is spoken. Someone can utilize Burmese language transcription services in several ways:
+1. Recordings for research or documentation: If someone has audio or video recordings in Burmese that need to be transcribed for research purposes, such as interviews, meetings, or speeches, they can use transcription services to convert the spoken content into written text.
+2. Language learning: Transcriptions can be helpful for language learners who want to improve their listening and comprehension skills. By transcribing Burmese audio or video materials, learners can have the text available to follow along with the spoken words, helping them understand and learn new vocabulary and sentence structures.
+3. Translation and localization: Businesses or individuals who need to translate Burmese content into other languages can benefit from transcription services. By transcribing the Burmese content, translators can have a written version of the text to work with, making the translation process more accurate and efficient.
+4. Closed captioning and subtitling: For videos or films in Burmese, transcription services can be used to create closed captions or subtitles. This is especially useful for making content accessible to viewers who are deaf or hard of hearing, as well as those who speak other languages and need translated subtitles.
+To utilize Burmese language transcription services, it is advisable to find reputable transcription service providers that offer Burmese language support. These providers will have experienced transcriptionists who are proficient in the Burmese language and can accurately transcribe audio or video content. Burmese is the official language of Myanmar (formerly known as Burma) and is widely spoken by the majority of the population there. It is also spoken by smaller communities of Burmese people living in neighboring countries, such as Thailand, China (Yunnan), India (Mizoram), and Bangladesh. Additionally, there are Burmese-speaking diaspora communities around the world, particularly in the United States, Australia, and the United Kingdom. Transcription is needed for the Burmese language for several reasons:
+1. Non-native speakers: Burmese is primarily spoken in Myanmar, and for non-native speakers who may not be familiar with the Burmese script, transcription provides a way to listen and understand the language by representing its sounds in a familiar writing system.
+2. Language learning: Transcription can be a helpful tool for Burmese language learners as it allows them to study and practice the pronunciation of words without relying solely on the Burmese script. It provides a step-by-step guide for learners to understand and speak the language accurately.
+3. Accessibility: Transcription helps in making Burmese language content more accessible to a wider audience, including people with visual impairments or individuals who may not have fluency in the Burmese script.
+4. Linguistic analysis: Transcription also plays a vital role in linguistic analysis and research. By transcribing spoken Burmese into a phonetic representation, linguists can study the language's phonological patterns, analyze its sound system, and better understand its intricacies.
+Overall, transcription serves as a practical tool for various purposes, such as language learning, communication, accessibility, and linguistic research, making the Burmese language more comprehensible to a broader range of individuals.</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Burmese  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>Burmese Transcription Services: Accurate and Efficient Solutions for Your Needs
+Burmese, the official language of Myanmar (formerly known as Burma), is widely spoken by the majority of the population in Myanmar and Burmese communities around the world. If you are in need of transcription services for Burmese audio or video content, Capital Typing provides accurate and efficient solutions to meet your specific requirements.
+Whether you have recordings for research purposes, language learning, translation and localization, or the creation of closed captions and subtitles, our experienced team of transcriptionists can deliver high-quality transcriptions in a timely manner.
+Research and Documentation:
+If you have audio or video recordings in Burmese for research or documentation purposes, our transcription services can convert the spoken content into written text. Interviews, meetings, speeches, and other types of recordings can be transcribed accurately, allowing you to easily reference and analyze the information.
+Language Learning:
+For individuals looking to improve their Burmese language skills, our transcriptions can be a valuable tool. By transcribing Burmese audio or video materials, learners can follow along with the spoken words and enhance their listening and comprehension abilities. This makes it easier to understand new vocabulary and sentence structures.
+Translation and Localization:
+If you require translation services for Burmese content, our transcriptions can greatly facilitate the process. By transcribing the Burmese text, translators can work with a written version, ensuring accuracy and efficiency. Whether you need content translated into English or any other language, our transcription services can be a beneficial part of the translation and localization process.
+Closed Captioning and Subtitling:
+If you have videos or films in Burmese that require closed captions or subtitles, our transcription services can help. By transcribing the audio content, we can create accurate and synchronized captions and subtitles in multiple languages. This not only makes your content accessible to viewers who are deaf or hard of hearing but also allows you to reach a global audience by providing translated subtitles.
+At Capital Typing, we understand the importance of accuracy and speed when it comes to transcription services. Our team consists of skilled and knowledgeable transcriptionists who are fluent in Burmese and have expertise in a wide range of subjects. We adhere to strict quality control measures to ensure that our transcriptions are error-free and meet your specific needs.
+To avail of our Burmese transcription services, simply upload your audio or video files through our secure platform. Our team will work diligently to transcribe your content and deliver the completed transcriptions within your desired timeframe.
+Trust Capital Typing for all your Burmese transcription needs. Our commitment to accuracy, efficiency, and client satisfaction sets us apart, ensuring that you receive exceptional results every time. Contact us today to get started!</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cantonese</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cantonese is a Chinese language that is mainly spoken in the Canton region of Southern China, including major cities like Guangzhou and Hong Kong. It is one of the most widely spoken Chinese varieties and has a rich cultural heritage. Cantonese has its own unique pronunciation, vocabulary, and grammar system compared to other Chinese languages like Mandarin. If you have any specific questions about Cantonese or need assistance with anything related to it, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cantonese language transcription services</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes, there are transcription services available for the Cantonese language. These services usually involve converting audio or video recordings of Cantonese language into written text. You can find transcription services online by searching for "Cantonese language transcription services" or by checking with translation and transcription companies that offer services in multiple languages.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cantonese regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cantonese is primarily spoken in southern China, particularly in the Guangdong province, which includes cities like Guangzhou (Canton), Shenzhen, and Zhuhai. It is also spoken in the Special Administrative Regions of Hong Kong and Macau. Additionally, Cantonese speakers can be found in overseas Chinese communities, particularly in areas with a significant Chinese diaspora such as in Southeast Asia, North America, and Australia.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cantonese dialects</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cantonese is a dialect that belongs to the Yue Chinese language family. Within Cantonese, there are several regional dialects that have some variations in vocabulary, pronunciation, and usage. Some of the prominent Cantonese dialects include:
+1. Standard Cantonese: This is the variety of Cantonese commonly used in Hong Kong, Macau, and most overseas Cantonese-speaking communities. It is also the dialect used in Cantonese television shows, movies, and music.
+2. Guangzhou Cantonese: This is the dialect spoken in the city of Guangzhou, the capital of Guangdong province in Southern China. It is considered the prestige dialect among Cantonese varieties.
+3. Taishanese: Also known as Hoisanese, it is spoken by the Taishanese people from the Taishan region in Guangdong province. It is one of the most widely spoken Cantonese dialects among Chinese communities in the United States and Canada.
+4. Siyi/Hoiping dialect: Spoken in the four counties of Siyi (also known as the Hoiping region) in Guangdong province, namely Taishan, Xinhui, Kaiping, and Heshan. This dialect is also widely spoken in overseas Chinese communities.
+5. Hong Kong Cantonese: Although similar to Standard Cantonese, there are some distinct features in the Cantonese spoken in Hong Kong, influenced by local slang and vocabulary.
+6. Macanese: This is the dialect spoken by the Macanese people in Macau, which has influences from Portuguese and other local languages.
+These dialects may have differences in pronunciation, vocabulary, and idiomatic expressions. However, speakers of different Cantonese dialects can generally understand each other with some variations.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>How can someone utilize Cantonese language transcription services</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Someone can utilize Cantonese language transcription services by following these steps:
+1. Research Service Providers: Look for professional transcription service providers that offer Cantonese language transcription. Check their reputation, customer reviews, and pricing.
+2. Submit Transcription Request: Contact the chosen service provider and submit the audio or video file that needs to be transcribed. It is important to provide clear instructions regarding the transcription format required (e.g., verbatim, clean edit, timestamps).
+3. Quality Check: Once the transcript is ready, carefully review it for accuracy and completeness. Check if the transcription meets your requirements and specifications.
+4. Edit and Proofread: If necessary, edit and proofread the transcript to ensure it is error-free and meets your specific needs. This step is essential, especially if the transcription will be used for official or professional purposes.
+5. Payment: Pay the service provider according to their pricing structure. Most transcription services charge per minute or per hour of audio or video material transcribed.
+6. Receive Final Transcript: Once the payment is cleared, the service provider will send you the final transcript in the preferred format (e.g., Word document, PDF). Make sure to ask for any additional formats if you need them.
+7. Confidentiality and Agreement: Ensure that you have signed a confidentiality agreement with the service provider to protect the privacy and confidentiality of your content. This is especially important if the audio or video material contains sensitive or confidential information.
+By following these steps, someone can effectively utilize Cantonese language transcription services to convert audio or video content into written format for various purposes like research, translations, subtitling, or archiving.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Countries where Cantonese is spoken</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Cantonese is primarily spoken in the following countries:
+1. China: Cantonese is the official language of the Guangdong province and the neighboring regions of Macau and Hong Kong.
+2. Macau: In addition to Chinese (Cantonese), Portuguese is also an official language in Macau.
+3. Hong Kong: Cantonese is the official language of Hong Kong and is widely spoken by the local population.
+4. Malaysia: Cantonese is spoken by a significant proportion of the Chinese population in Malaysia, particularly in the regions of Penang and Kuala Lumpur.
+5. Singapore: Cantonese is one of the Chinese dialects spoken in Singapore, where it is commonly used by the older generations, while Mandarin is more prevalent among the younger generation.
+6. Canada: Cantonese is spoken by Chinese communities in major cities such as Vancouver, Toronto, and Montreal.
+7. United States: Cantonese is spoken by Chinese communities in cities with large Chinese populations, such as San Francisco, New York City, Los Angeles, and Boston.
+8. Australia: Cantonese is spoken by Chinese communities in cities like Sydney, Melbourne, and Brisbane.
+9. United Kingdom: Cantonese is spoken by Chinese communities in cities like London, Manchester, and Birmingham.
+10. Peru: Cantonese is spoken by the Chinese community in Lima.
+It is important to note that Cantonese is primarily spoken by overseas Chinese communities in these countries and may not be spoken as widely by the general population.</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Cantonese language</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Cantonese language for several reasons:
+1. Standardization: Cantonese is primarily a spoken language and does not have a standardized writing system like Mandarin or English. Transcription helps to represent the sounds and pronunciation of Cantonese in a written form, allowing for consistent and standardized representation.
+2. Learning: For non-native speakers or learners of Cantonese, transcription provides a way to learn and understand the sound system of the language. It assists in the process of phonetic learning and helps learners pronounce words correctly.
+3. Communication: Transcription allows for effective communication between speakers of different languages or dialects. For example, a Cantonese speaker might use transcription to communicate with a Mandarin speaker, as the two languages have different pronunciation standards.
+4. Linguistic research: Transcription aids linguists and researchers in documenting and analyzing the Cantonese language. It allows them to study the phonetics, phonology, and other linguistic aspects of the language in a more precise and systematic way.
+Overall, transcription plays a crucial role in making the spoken Cantonese language more accessible, understandable, and communicable in written form.</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>Cantonese is a Chinese language that is mainly spoken in the Canton region of Southern China, including major cities like Guangzhou and Hong Kong. It is one of the most widely spoken Chinese varieties and has a rich cultural heritage. Cantonese has its own unique pronunciation, vocabulary, and grammar system compared to other Chinese languages like Mandarin. If you have any specific questions about Cantonese or need assistance with anything related to it, feel free to ask! Yes, there are transcription services available for the Cantonese language. These services usually involve converting audio or video recordings of Cantonese language into written text. You can find transcription services online by searching for "Cantonese language transcription services" or by checking with translation and transcription companies that offer services in multiple languages. Cantonese is primarily spoken in southern China, particularly in the Guangdong province, which includes cities like Guangzhou (Canton), Shenzhen, and Zhuhai. It is also spoken in the Special Administrative Regions of Hong Kong and Macau. Additionally, Cantonese speakers can be found in overseas Chinese communities, particularly in areas with a significant Chinese diaspora such as in Southeast Asia, North America, and Australia. Cantonese is a dialect that belongs to the Yue Chinese language family. Within Cantonese, there are several regional dialects that have some variations in vocabulary, pronunciation, and usage. Some of the prominent Cantonese dialects include:
+1. Standard Cantonese: This is the variety of Cantonese commonly used in Hong Kong, Macau, and most overseas Cantonese-speaking communities. It is also the dialect used in Cantonese television shows, movies, and music.
+2. Guangzhou Cantonese: This is the dialect spoken in the city of Guangzhou, the capital of Guangdong province in Southern China. It is considered the prestige dialect among Cantonese varieties.
+3. Taishanese: Also known as Hoisanese, it is spoken by the Taishanese people from the Taishan region in Guangdong province. It is one of the most widely spoken Cantonese dialects among Chinese communities in the United States and Canada.
+4. Siyi/Hoiping dialect: Spoken in the four counties of Siyi (also known as the Hoiping region) in Guangdong province, namely Taishan, Xinhui, Kaiping, and Heshan. This dialect is also widely spoken in overseas Chinese communities.
+5. Hong Kong Cantonese: Although similar to Standard Cantonese, there are some distinct features in the Cantonese spoken in Hong Kong, influenced by local slang and vocabulary.
+6. Macanese: This is the dialect spoken by the Macanese people in Macau, which has influences from Portuguese and other local languages.
+These dialects may have differences in pronunciation, vocabulary, and idiomatic expressions. However, speakers of different Cantonese dialects can generally understand each other with some variations. Someone can utilize Cantonese language transcription services by following these steps:
+1. Research Service Providers: Look for professional transcription service providers that offer Cantonese language transcription. Check their reputation, customer reviews, and pricing.
+2. Submit Transcription Request: Contact the chosen service provider and submit the audio or video file that needs to be transcribed. It is important to provide clear instructions regarding the transcription format required (e.g., verbatim, clean edit, timestamps).
+3. Quality Check: Once the transcript is ready, carefully review it for accuracy and completeness. Check if the transcription meets your requirements and specifications.
+4. Edit and Proofread: If necessary, edit and proofread the transcript to ensure it is error-free and meets your specific needs. This step is essential, especially if the transcription will be used for official or professional purposes.
+5. Payment: Pay the service provider according to their pricing structure. Most transcription services charge per minute or per hour of audio or video material transcribed.
+6. Receive Final Transcript: Once the payment is cleared, the service provider will send you the final transcript in the preferred format (e.g., Word document, PDF). Make sure to ask for any additional formats if you need them.
+7. Confidentiality and Agreement: Ensure that you have signed a confidentiality agreement with the service provider to protect the privacy and confidentiality of your content. This is especially important if the audio or video material contains sensitive or confidential information.
+By following these steps, someone can effectively utilize Cantonese language transcription services to convert audio or video content into written format for various purposes like research, translations, subtitling, or archiving. Cantonese is primarily spoken in the following countries:
+1. China: Cantonese is the official language of the Guangdong province and the neighboring regions of Macau and Hong Kong.
+2. Macau: In addition to Chinese (Cantonese), Portuguese is also an official language in Macau.
+3. Hong Kong: Cantonese is the official language of Hong Kong and is widely spoken by the local population.
+4. Malaysia: Cantonese is spoken by a significant proportion of the Chinese population in Malaysia, particularly in the regions of Penang and Kuala Lumpur.
+5. Singapore: Cantonese is one of the Chinese dialects spoken in Singapore, where it is commonly used by the older generations, while Mandarin is more prevalent among the younger generation.
+6. Canada: Cantonese is spoken by Chinese communities in major cities such as Vancouver, Toronto, and Montreal.
+7. United States: Cantonese is spoken by Chinese communities in cities with large Chinese populations, such as San Francisco, New York City, Los Angeles, and Boston.
+8. Australia: Cantonese is spoken by Chinese communities in cities like Sydney, Melbourne, and Brisbane.
+9. United Kingdom: Cantonese is spoken by Chinese communities in cities like London, Manchester, and Birmingham.
+10. Peru: Cantonese is spoken by the Chinese community in Lima.
+It is important to note that Cantonese is primarily spoken by overseas Chinese communities in these countries and may not be spoken as widely by the general population. Transcription is needed for the Cantonese language for several reasons:
+1. Standardization: Cantonese is primarily a spoken language and does not have a standardized writing system like Mandarin or English. Transcription helps to represent the sounds and pronunciation of Cantonese in a written form, allowing for consistent and standardized representation.
+2. Learning: For non-native speakers or learners of Cantonese, transcription provides a way to learn and understand the sound system of the language. It assists in the process of phonetic learning and helps learners pronounce words correctly.
+3. Communication: Transcription allows for effective communication between speakers of different languages or dialects. For example, a Cantonese speaker might use transcription to communicate with a Mandarin speaker, as the two languages have different pronunciation standards.
+4. Linguistic research: Transcription aids linguists and researchers in documenting and analyzing the Cantonese language. It allows them to study the phonetics, phonology, and other linguistic aspects of the language in a more precise and systematic way.
+Overall, transcription plays a crucial role in making the spoken Cantonese language more accessible, understandable, and communicable in written form.</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Cantonese  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Source for Cantonese Transcription Services
+If you are in need of accurate and reliable Cantonese transcription services, look no further than Capital Typing. As a leader in the transcription industry, we have the knowledge and expertise to handle all your Cantonese transcription needs.
+Cantonese is a Chinese language primarily spoken in the Canton region of Southern China, as well as in major cities like Guangzhou and Hong Kong. With its unique pronunciation, vocabulary, and grammar system, Cantonese presents unique challenges when it comes to transcription. At Capital Typing, our team of skilled linguists and transcriptionists are well-versed in Cantonese and can ensure that your audio or video recordings are accurately transcribed into written text.
+Why choose Capital Typing for your Cantonese transcription needs? 
+First and foremost, accuracy is our top priority. We understand the importance of capturing every word and nuance of your Cantonese recordings. Our team is highly skilled in the nuances of the Cantonese language and its various dialects, ensuring that the transcription is precise and captures the intended meaning.
+Furthermore, our team has extensive experience in handling a wide range of Cantonese transcription projects, from business meetings and interviews to video subtitles and market research. We have the expertise to tailor our services to meet your specific needs, whether it is verbatim transcription, clean edit transcription, or transcription with timestamps.
+At Capital Typing, we take pride in our commitment to confidentiality and data security. We understand that your Cantonese recordings may contain sensitive or confidential information, and we take every precaution to protect your privacy. Our secure file transfer system and signed confidentiality agreements guarantee that your content remains safe and secure.
+When you choose Capital Typing for your Cantonese transcription needs, you can expect professional service, quick turnaround times, and competitive pricing. We strive to provide exceptional customer service and ensure that our clients are satisfied with the final product.
+So, whether you need Cantonese transcription for business purposes, research, translation, or any other need, Capital Typing is here to assist you. Our team of experts is ready to take on your Cantonese transcription projects with precision and professionalism.
+To get started with our Cantonese transcription services, simply reach out to us and provide us with your audio or video recordings. Our dedicated team will work closely with you to understand your requirements and deliver a high-quality, accurate transcription in your desired format.
+Choose Capital Typing for all your Cantonese transcription needs and experience the convenience and peace of mind that comes with working with a trusted transcription partner. Contact us today to learn more about how we can serve you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Catalan</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Catalan is a Romance language spoken primarily in the region of Catalonia in Spain, as well as in the Balearic Islands, Valencia, Andorra, and parts of France and Italy. It is derived from Vulgar Latin and shares similarities with other Romance languages such as Spanish, French, and Italian.
+If you have any specific questions about the Catalan language or need assistance with anything related to it, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Catalan language transcription services</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>There are many transcription services available that can provide transcriptions in the Catalan language. Some popular options include:
+1. Gglot: Offers transcription services for various languages, including Catalan. They have a user-friendly interface and provide high-quality transcriptions.
+2. TranscriptionWing: This company specializes in transcription services and can transcribe audio or video files in Catalan accurately and efficiently.
+3. GoTranscript: Known for their quick turnaround time, GoTranscript can transcribe audio or video content in Catalan at an affordable price.
+4. Rev: Offers professional transcription services in multiple languages, including Catalan. They have a team of skilled transcriptionists who can accurately transcribe your content.
+When choosing a transcription service, it's important to consider factors such as turnaround time, accuracy, pricing, and customer reviews to find the best option for your needs.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Catalan regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Catalan is primarily spoken in the following regions:
+1. Catalonia: This is the northeastern region of Spain, with Barcelona as its capital. Catalan is the official language of Catalonia and is widely spoken in all aspects of daily life.
+2. Balearic Islands: This archipelago in the Mediterranean Sea, also part of Spain, includes the islands of Majorca, Minorca, Ibiza, and Formentera. Catalan is one of the two official languages, alongside Spanish, and is widely spoken by the local population.
+3. Valencia: The region of Valencia, located on the eastern coast of Spain, has two official languages: Spanish and Valencian, which is a variant of the Catalan language.
+4. Andorra: Catalan is the official language of this small European country located between Spain and France. It is widely spoken by the local population.
+5. Roussillon: This historical region in the south of France, located near the border with Spain, has a significant Catalan-speaking population. Catalan is recognized as one of the regional languages of Roussillon, alongside French.
+These regions, among others, make up the Catalan-speaking areas where the language is actively used and considered an important part of the local culture and identity.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Catalan dialects</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Catalan dialects refer to the regional variations of the Catalan language, which is closely related to Spanish and Occitan. There are several dialects spoken across Catalonia, Valencia, Balearic Islands, Andorra, and parts of France and Italy.
+The main dialects are Eastern Catalan, spoken in Catalonia and the Balearic Islands, and Western Catalan, spoken in Valencia, the Region of Murcia, and the Franja de Ponent in Aragon. These dialects have some differences in vocabulary, pronunciation, and grammar.
+Other dialects include Central Catalan, spoken in Barcelona and its surroundings, Northern Catalan, spoken in Roussillon in France, and Algherese, spoken in the town of Alghero in Sardinia, Italy.
+Although dialectal variation exists, speakers of different Catalan dialects can generally understand each other without much difficulty. Standard Catalan, based on Eastern Catalan, is used as the norm for written communication and is widely understood by all Catalan speakers.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>How can someone utilize Catalan language transcription services</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>To utilize Catalan language transcription services effectively, follow these steps:
+1. Research service providers: Look for transcription service providers that specifically offer Catalan language transcription services. Ensure they have experience in transcribing audio or video content in Catalan.
+2. Understand your transcription needs: Determine what type of content you need transcribed, whether it's interviews, lectures, meetings, or any other audio or video recordings. Consider the accuracy and formatting requirements for your transcripts.
+3. Gather your audio/video files: Collect the audio or video files that you need transcribed and ensure they are of good quality with clear Catalan audio.
+4. Contact transcription service providers: Reach out to different service providers and request quotes and information about their Catalan transcription services. Inquire about their rates, turnaround time, formats provided, and confidentiality measures.
+5. Submit files and instructions: Once you have selected a service provider, submit your audio or video files along with any specific instructions or guidelines for the transcription process. Specify any timestamps or speaker identification requirements.
+6. Review the transcriptions: Once the transcripts are delivered, review them for accuracy and formatting. Check if any specific guidelines or requirements were followed. Provide feedback or ask for revisions if needed.
+7. Pay for the services: Once you are satisfied with the transcriptions, complete the payment process as agreed upon with the service provider.
+Remember to communicate your requirements clearly to the service provider and provide all necessary information for a smooth transcription experience.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Countries where Catalan is spoken</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Catalan is primarily spoken in Catalonia, which is an autonomous community located in northeastern Spain. However, it is also spoken in other areas, including:
+1. Balearic Islands: Catalan is one of the co-official languages in this archipelago in the western Mediterranean.
+2. Valencia: In the Valencian Community, Catalan is known as Valencian due to some linguistic differences.
+3. Eastern Aragon: Parts of Aragon, particularly in the eastern region bordering Catalonia, speak Catalan.
+4. Roussillon: This region in southern France, which is part of the historical Catalan territory, also has speakers of the language.
+5. Andorra: Catalan is one of the official languages of this small landlocked country between Spain and France.
+6. Alghero: In Sardinia, Italy, the town of Alghero has a significant population of Catalan speakers.
+It should be noted that while Catalan is not widely spoken outside of these areas, there are also communities of Catalan speakers in other parts of the world, especially in areas with a significant Catalan diaspora.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Catalan language</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Catalan language for several reasons:
+1. Standardization: Catalan is spoken in several regions, including Catalonia, Valencia, the Balearic Islands, and parts of Southern France and Sardinia. Due to the regional variations in pronunciation and spelling, transcription helps to standardize the language and provide a consistent way of writing and learning Catalan.
+2. Learning and Teaching: Transcription is essential for language learners and those teaching Catalan as a second language. By providing a phonetic representation of words and sentences, transcription helps learners understand the correct pronunciation and improve their speaking skills.
+3. Communication: Transcription aids in communication across different platforms and media. From subtitles in videos to writing down names and addresses, transcription enables effective communication between native speakers and non-native speakers, as well as for people with hearing impairments.
+4. Linguistic Analysis: Transcription is crucial for linguistic analysis and research. It allows linguists to study the phonetic, phonological, and morphological aspects of the Catalan language more easily. Transcription also helps in creating dictionaries, compiling corpora, and analyzing language patterns.
+Overall, transcription plays a significant role in standardizing the Catalan language, facilitating learning and communication, and enabling linguistic analysis and research.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>Catalan is a Romance language spoken primarily in the region of Catalonia in Spain, as well as in the Balearic Islands, Valencia, Andorra, and parts of France and Italy. It is derived from Vulgar Latin and shares similarities with other Romance languages such as Spanish, French, and Italian.
+If you have any specific questions about the Catalan language or need assistance with anything related to it, feel free to ask! There are many transcription services available that can provide transcriptions in the Catalan language. Some popular options include:
+1. Gglot: Offers transcription services for various languages, including Catalan. They have a user-friendly interface and provide high-quality transcriptions.
+2. TranscriptionWing: This company specializes in transcription services and can transcribe audio or video files in Catalan accurately and efficiently.
+3. GoTranscript: Known for their quick turnaround time, GoTranscript can transcribe audio or video content in Catalan at an affordable price.
+4. Rev: Offers professional transcription services in multiple languages, including Catalan. They have a team of skilled transcriptionists who can accurately transcribe your content.
+When choosing a transcription service, it's important to consider factors such as turnaround time, accuracy, pricing, and customer reviews to find the best option for your needs. Catalan is primarily spoken in the following regions:
+1. Catalonia: This is the northeastern region of Spain, with Barcelona as its capital. Catalan is the official language of Catalonia and is widely spoken in all aspects of daily life.
+2. Balearic Islands: This archipelago in the Mediterranean Sea, also part of Spain, includes the islands of Majorca, Minorca, Ibiza, and Formentera. Catalan is one of the two official languages, alongside Spanish, and is widely spoken by the local population.
+3. Valencia: The region of Valencia, located on the eastern coast of Spain, has two official languages: Spanish and Valencian, which is a variant of the Catalan language.
+4. Andorra: Catalan is the official language of this small European country located between Spain and France. It is widely spoken by the local population.
+5. Roussillon: This historical region in the south of France, located near the border with Spain, has a significant Catalan-speaking population. Catalan is recognized as one of the regional languages of Roussillon, alongside French.
+These regions, among others, make up the Catalan-speaking areas where the language is actively used and considered an important part of the local culture and identity. Catalan dialects refer to the regional variations of the Catalan language, which is closely related to Spanish and Occitan. There are several dialects spoken across Catalonia, Valencia, Balearic Islands, Andorra, and parts of France and Italy.
+The main dialects are Eastern Catalan, spoken in Catalonia and the Balearic Islands, and Western Catalan, spoken in Valencia, the Region of Murcia, and the Franja de Ponent in Aragon. These dialects have some differences in vocabulary, pronunciation, and grammar.
+Other dialects include Central Catalan, spoken in Barcelona and its surroundings, Northern Catalan, spoken in Roussillon in France, and Algherese, spoken in the town of Alghero in Sardinia, Italy.
+Although dialectal variation exists, speakers of different Catalan dialects can generally understand each other without much difficulty. Standard Catalan, based on Eastern Catalan, is used as the norm for written communication and is widely understood by all Catalan speakers. To utilize Catalan language transcription services effectively, follow these steps:
+1. Research service providers: Look for transcription service providers that specifically offer Catalan language transcription services. Ensure they have experience in transcribing audio or video content in Catalan.
+2. Understand your transcription needs: Determine what type of content you need transcribed, whether it's interviews, lectures, meetings, or any other audio or video recordings. Consider the accuracy and formatting requirements for your transcripts.
+3. Gather your audio/video files: Collect the audio or video files that you need transcribed and ensure they are of good quality with clear Catalan audio.
+4. Contact transcription service providers: Reach out to different service providers and request quotes and information about their Catalan transcription services. Inquire about their rates, turnaround time, formats provided, and confidentiality measures.
+5. Submit files and instructions: Once you have selected a service provider, submit your audio or video files along with any specific instructions or guidelines for the transcription process. Specify any timestamps or speaker identification requirements.
+6. Review the transcriptions: Once the transcripts are delivered, review them for accuracy and formatting. Check if any specific guidelines or requirements were followed. Provide feedback or ask for revisions if needed.
+7. Pay for the services: Once you are satisfied with the transcriptions, complete the payment process as agreed upon with the service provider.
+Remember to communicate your requirements clearly to the service provider and provide all necessary information for a smooth transcription experience. Catalan is primarily spoken in Catalonia, which is an autonomous community located in northeastern Spain. However, it is also spoken in other areas, including:
+1. Balearic Islands: Catalan is one of the co-official languages in this archipelago in the western Mediterranean.
+2. Valencia: In the Valencian Community, Catalan is known as Valencian due to some linguistic differences.
+3. Eastern Aragon: Parts of Aragon, particularly in the eastern region bordering Catalonia, speak Catalan.
+4. Roussillon: This region in southern France, which is part of the historical Catalan territory, also has speakers of the language.
+5. Andorra: Catalan is one of the official languages of this small landlocked country between Spain and France.
+6. Alghero: In Sardinia, Italy, the town of Alghero has a significant population of Catalan speakers.
+It should be noted that while Catalan is not widely spoken outside of these areas, there are also communities of Catalan speakers in other parts of the world, especially in areas with a significant Catalan diaspora. Transcription is needed for the Catalan language for several reasons:
+1. Standardization: Catalan is spoken in several regions, including Catalonia, Valencia, the Balearic Islands, and parts of Southern France and Sardinia. Due to the regional variations in pronunciation and spelling, transcription helps to standardize the language and provide a consistent way of writing and learning Catalan.
+2. Learning and Teaching: Transcription is essential for language learners and those teaching Catalan as a second language. By providing a phonetic representation of words and sentences, transcription helps learners understand the correct pronunciation and improve their speaking skills.
+3. Communication: Transcription aids in communication across different platforms and media. From subtitles in videos to writing down names and addresses, transcription enables effective communication between native speakers and non-native speakers, as well as for people with hearing impairments.
+4. Linguistic Analysis: Transcription is crucial for linguistic analysis and research. It allows linguists to study the phonetic, phonological, and morphological aspects of the Catalan language more easily. Transcription also helps in creating dictionaries, compiling corpora, and analyzing language patterns.
+Overall, transcription plays a significant role in standardizing the Catalan language, facilitating learning and communication, and enabling linguistic analysis and research.</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Catalan  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>Catalan is a Romance language spoken primarily in Catalonia, Spain, as well as in other regions such as the Balearic Islands, Valencia, Andorra, and parts of France and Italy. As the need for transcription services in Catalan continues to grow, there are several reputable providers available to assist with this task.
+One such provider is Capital Typing, a company that specializes in transcription services and offers accurate and efficient transcriptions in Catalan. With their team of skilled transcriptionists, Capital Typing ensures high-quality results and a quick turnaround time.
+Transcription services are essential for a variety of reasons when it comes to the Catalan language. Firstly, transcription helps to standardize the language by providing a consistent way of writing and learning Catalan, especially considering the regional variations in pronunciation and spelling. This standardization is crucial for communication purposes, ensuring that written Catalan is universally understood across different platforms and media.
+Furthermore, transcription is beneficial for language learners and those teaching Catalan as a second language. By providing a phonetic representation of words and sentences, transcription aids in improving pronunciation and speaking skills. It allows learners to better understand the nuances of the language and effectively communicate with native speakers.
+Transcription also plays a key role in linguistic analysis and research. Linguists can study the phonetic, phonological, and morphological aspects of the Catalan language more easily through transcriptions. This facilitates the creation of dictionaries, the compilation of corpora, and the analysis of language patterns.
+When choosing a transcription service provider, it is important to consider factors such as accuracy, turnaround time, pricing, and customer reviews. Capital Typing, with their expertise in transcribing Catalan content, offers a reliable option for individuals and businesses in need of transcription services.
+To utilize Capital Typing's Catalan transcription services effectively, follow these steps:
+1. Research and contact Capital Typing: Reach out to Capital Typing to inquire about their Catalan transcription services. Discuss your transcription needs, including the type of content you require transcribed and any specific instructions or guidelines.
+2. Provide audio or video files: Gather the audio or video files that need transcribing and ensure they are of good quality with clear Catalan audio. Submit these files to Capital Typing along with any relevant information.
+3. Review and provide feedback: Once the transcriptions are delivered, review them for accuracy and formatting. If any revisions or changes are necessary, provide feedback to Capital Typing for adjustments.
+4. Complete payment: Once you are satisfied with the transcriptions, complete the payment process according to the agreed-upon terms with Capital Typing.
+By following these steps, you can take advantage of Capital Typing's Catalan transcription services and receive accurate and professional transcriptions in a timely manner.
+In conclusion, with the increasing need for transcription services in Catalan, companies like Capital Typing offer specialized and reliable solutions. Transcription is essential for standardizing the language, aiding in language learning and communication, and facilitating linguistic analysis. By utilizing the services of a reputable provider like Capital Typing, individuals and businesses can effectively meet their Catalan transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cebuano</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kumusta! Ako ang imong asistente diri nga dili kabalo molingaw ug tubag sa mga pangutana nga gitugotan sa inyong huna-huna. Unsa akong mahimo alang kanimo karon?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cebuano language transcription services</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>There are several Cebuano language transcription services available online. Here are a few options you can consider:
+1. Rev.com: Rev.com offers professional transcription services in various languages, including Cebuano. They have a large team of experienced transcribers and provide accurate and timely transcriptions.
+2. GoTranscript: GoTranscript is another popular online transcription service that offers Cebuano language transcription. They have a user-friendly platform and provide high-quality transcriptions at affordable rates.
+3. Transcribeme: Transcribeme is a well-known transcription service that also offers Cebuano language transcription. They have a quick turnaround time and use native Cebuano speakers for accurate transcriptions.
+When choosing a transcription service, it's important to consider factors such as turnaround time, accuracy, security, and pricing. You can visit the websites of these services to get more information and request a quote for your specific transcription needs.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cebuano regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cebuano is primarily spoken in the Philippines, particularly in the region of Central Visayas, which includes the provinces of Cebu, Bohol, Negros Oriental, and Siquijor. It is also widely spoken in the regions of Eastern Visayas, Western Visayas, and parts of Mindanao, including the provinces of Leyte, Samar, Negros Occidental, and Zamboanga del Norte.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cebuano dialects</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>The Cebuano dialect is one of the major languages spoken in the Philippines. It is primarily spoken in the Central Visayas region, specifically in Cebu, Bohol, Siquijor, and parts of Leyte and Negros Oriental. 
+Although there is a common base language called Cebuano, there are also different variations and dialects within the Cebuano-speaking areas. Some of these dialects include:
+1. Cebuano - This is the standard Cebuano dialect used in Cebu City and parts of the Cebu province. It serves as the basis for written Cebuano and is widely understood throughout the Cebuano-speaking regions.
+2. Boholano - Spoken in Bohol, this dialect has some distinctions in vocabulary, pronunciation, and grammar compared to the standard Cebuano dialect.
+3. Leyteño - This dialect is spoken in certain parts of Leyte and has variations influenced by Waray, another major language in the area.
+4. Negrense - This dialect is spoken in Negros Oriental and has some slight variations from the standard Cebuano dialect.
+These dialects have similarities in grammar and vocabulary, but certain words and phrases may differ in pronunciation and usage. It's interesting to note that even within these dialects, there can be additional variations from town to town or even within families.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>How can someone utilize Cebuano language transcription services</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>To utilize Cebuano language transcription services, follow these steps:
+1. Research and find reputable companies or transcription services that offer Cebuano language transcription. Look for providers with experience in transcribing Cebuano content.
+2. Contact the selected service providers and inquire about their Cebuano transcription services. Ask about their rates, turnaround time, and any specific requirements they may have for submitting audio or video content.
+3. Submit your audio or video files to the chosen service provider. Ensure that the files are clear, of high quality, and in the Cebuano language.
+4. Specify any specific instructions or requirements regarding the Cebuano transcription, such as desired formatting, timestamps, or any additional information that could assist the transcriber.
+5. Wait for the transcription service provider to complete the task within the agreed turnaround time.
+6. Once the transcription is delivered, review the document to ensure accuracy and quality. If there are any errors or discrepancies, communicate with the service provider for corrections or clarifications.
+7. If satisfied with the Cebuano transcription, make the necessary payment to the service provider according to their agreed terms.
+Remember, clear communication with the service provider is essential to ensure accurate and satisfactory Cebuano transcription services.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Countries where Cebuano is spoken</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Cebuano is primarily spoken in the Philippines, specifically in the regions of Central Visayas, parts of Eastern Visayas, and Mindanao. It is the native language of the people from the island of Cebu, as well as the surrounding provinces. Cebuano is also spoken in some parts of Luzon, particularly in the provinces of Bataan and Zambales.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Cebuano language</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Transcription is necessary for the Cebuano language, as it allows the language to be accurately represented using the Latin alphabet. Cebuano is primarily spoken in the Philippines and does not have its own unique writing system. Therefore, transcription helps to bridge the gap between the spoken and written forms of the language.
+Transcription is particularly important for language learners, researchers, and those looking to document or analyze the Cebuano language. It provides a standardized way to record and study the pronunciation, intonation, and other linguistic aspects of Cebuano speech.
+By transcribing Cebuano, it becomes more accessible and understandable to a wider audience, including non-native speakers who may not be familiar with the language's specific sounds and phonetic patterns. Additionally, transcription makes it easier to create educational materials, dictionaries, and language resources for Cebuano learners.
+Overall, transcription allows for greater clarity and consistency in representing the Cebuano language in written form, making it more accessible and usable in various contexts.</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Kumusta! Ako ang imong asistente diri nga dili kabalo molingaw ug tubag sa mga pangutana nga gitugotan sa inyong huna-huna. Unsa akong mahimo alang kanimo karon? There are several Cebuano language transcription services available online. Here are a few options you can consider:
+1. Rev.com: Rev.com offers professional transcription services in various languages, including Cebuano. They have a large team of experienced transcribers and provide accurate and timely transcriptions.
+2. GoTranscript: GoTranscript is another popular online transcription service that offers Cebuano language transcription. They have a user-friendly platform and provide high-quality transcriptions at affordable rates.
+3. Transcribeme: Transcribeme is a well-known transcription service that also offers Cebuano language transcription. They have a quick turnaround time and use native Cebuano speakers for accurate transcriptions.
+When choosing a transcription service, it's important to consider factors such as turnaround time, accuracy, security, and pricing. You can visit the websites of these services to get more information and request a quote for your specific transcription needs. Cebuano is primarily spoken in the Philippines, particularly in the region of Central Visayas, which includes the provinces of Cebu, Bohol, Negros Oriental, and Siquijor. It is also widely spoken in the regions of Eastern Visayas, Western Visayas, and parts of Mindanao, including the provinces of Leyte, Samar, Negros Occidental, and Zamboanga del Norte. The Cebuano dialect is one of the major languages spoken in the Philippines. It is primarily spoken in the Central Visayas region, specifically in Cebu, Bohol, Siquijor, and parts of Leyte and Negros Oriental. 
+Although there is a common base language called Cebuano, there are also different variations and dialects within the Cebuano-speaking areas. Some of these dialects include:
+1. Cebuano - This is the standard Cebuano dialect used in Cebu City and parts of the Cebu province. It serves as the basis for written Cebuano and is widely understood throughout the Cebuano-speaking regions.
+2. Boholano - Spoken in Bohol, this dialect has some distinctions in vocabulary, pronunciation, and grammar compared to the standard Cebuano dialect.
+3. Leyteño - This dialect is spoken in certain parts of Leyte and has variations influenced by Waray, another major language in the area.
+4. Negrense - This dialect is spoken in Negros Oriental and has some slight variations from the standard Cebuano dialect.
+These dialects have similarities in grammar and vocabulary, but certain words and phrases may differ in pronunciation and usage. It's interesting to note that even within these dialects, there can be additional variations from town to town or even within families. To utilize Cebuano language transcription services, follow these steps:
+1. Research and find reputable companies or transcription services that offer Cebuano language transcription. Look for providers with experience in transcribing Cebuano content.
+2. Contact the selected service providers and inquire about their Cebuano transcription services. Ask about their rates, turnaround time, and any specific requirements they may have for submitting audio or video content.
+3. Submit your audio or video files to the chosen service provider. Ensure that the files are clear, of high quality, and in the Cebuano language.
+4. Specify any specific instructions or requirements regarding the Cebuano transcription, such as desired formatting, timestamps, or any additional information that could assist the transcriber.
+5. Wait for the transcription service provider to complete the task within the agreed turnaround time.
+6. Once the transcription is delivered, review the document to ensure accuracy and quality. If there are any errors or discrepancies, communicate with the service provider for corrections or clarifications.
+7. If satisfied with the Cebuano transcription, make the necessary payment to the service provider according to their agreed terms.
+Remember, clear communication with the service provider is essential to ensure accurate and satisfactory Cebuano transcription services. Cebuano is primarily spoken in the Philippines, specifically in the regions of Central Visayas, parts of Eastern Visayas, and Mindanao. It is the native language of the people from the island of Cebu, as well as the surrounding provinces. Cebuano is also spoken in some parts of Luzon, particularly in the provinces of Bataan and Zambales. Transcription is necessary for the Cebuano language, as it allows the language to be accurately represented using the Latin alphabet. Cebuano is primarily spoken in the Philippines and does not have its own unique writing system. Therefore, transcription helps to bridge the gap between the spoken and written forms of the language.
+Transcription is particularly important for language learners, researchers, and those looking to document or analyze the Cebuano language. It provides a standardized way to record and study the pronunciation, intonation, and other linguistic aspects of Cebuano speech.
+By transcribing Cebuano, it becomes more accessible and understandable to a wider audience, including non-native speakers who may not be familiar with the language's specific sounds and phonetic patterns. Additionally, transcription makes it easier to create educational materials, dictionaries, and language resources for Cebuano learners.
+Overall, transcription allows for greater clarity and consistency in representing the Cebuano language in written form, making it more accessible and usable in various contexts.</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Cebuano  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>Capital Typing: Providing Cebuano Transcription Services
+Are you in need of Cebuano language transcription services? Look no further than Capital Typing. Our professional transcription team is experienced in transcribing Cebuano audio and video content accurately and efficiently.
+Cebuano, one of the major languages spoken in the Philippines, is primarily spoken in the regions of Central Visayas, parts of Eastern Visayas, and Mindanao. It is the native language of the people from the island of Cebu, as well as the surrounding provinces. At Capital Typing, we understand the importance of preserving and accurately representing this language.
+With our Cebuano transcription services, you can expect high-quality transcriptions that capture the nuances of the language. Our team consists of native Cebuano speakers who have a deep understanding of the language's grammar, vocabulary, and pronunciation. They have the necessary skills and expertise to transcribe your audio or video content with precision.
+We offer a hassle-free process when utilizing our Cebuano transcription services. Simply contact us and provide details about your transcription needs, such as the audio or video files you want transcribed and any specific instructions or formatting requirements. Our team will work closely with you to ensure that we meet your expectations.
+At Capital Typing, we value accuracy and timely delivery. Our skilled transcribers work diligently to provide you with fast turnaround times without compromising the quality of the transcriptions. We understand that you may have deadlines or time-sensitive projects, and we will do our best to accommodate your needs.
+Confidentiality is another aspect we take seriously. We recognize the importance of maintaining the privacy and security of your audio or video content. You can trust that your files will be handled with the utmost care, and all our team members adhere to strict confidentiality protocols.
+In addition to Cebuano transcription services, Capital Typing offers transcription services in various other languages. Whether you require transcription in English, Spanish, French, or any other language, our team is equipped to handle your needs.
+When it comes to pricing, we aim to provide fair and competitive rates for our services. We understand that every project is unique, and our pricing will depend on factors such as the length and complexity of your content. We will gladly provide you with a detailed quote for your specific transcription needs.
+If you're looking to transcribe Cebuano audio or video content, Capital Typing is your trusted partner. We are committed to delivering accurate transcriptions in a timely manner while maintaining strict confidentiality. Contact us today to discuss your Cebuano transcription requirements and let us assist you in accurately representing the Cebuano language in written form.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chechen</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chechen is a language spoken by the Chechen people, who primarily live in the Chechen Republic of Russia. It is a Northeast Caucasian language, and it belongs to the Nakh-Daghestanian language family. If you need any specific information or assistance regarding the Chechen language, I'll be more than happy to help!</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chechen language transcription services</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>There are several transcription services that offer Chechen language transcription services. Here are a few options:
+1. GoTranscript: They provide professional and quality transcription services for various languages, including Chechen.
+2. Rev: They offer Chechen transcription services at affordable rates and deliver accurate transcriptions.
+3. GMR Transcription: They have experienced transcriptionists who can transcribe audio or video files in Chechen.
+4. Translated: They provide transcription services in multiple languages, including Chechen, and ensure accuracy and confidentiality.
+5. Quick Transcription Service: They offer transcription services for various languages, and Chechen is among the languages they support.
+It's important to research each service and verify their expertise in Chechen transcription before making a decision.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chechen regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Chechen, a Northeast Caucasian language, is primarily spoken in the Chechen Republic, which is a part of the Russian Federation. It is also spoken by Chechen diaspora communities in other parts of Russia, as well as in neighboring countries such as Georgia, Kazakhstan, and Ukraine.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Chechen dialects</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chechen, a Northeast Caucasian language spoken by the Chechen people primarily in the Chechen Republic of the Russian Federation, has several dialects. The main dialects include:
+1. Northern Chechen: This is the standard variety of Chechen spoken in the northern areas of Chechnya, including the capital Grozny. It has the most speakers and is considered the prestige dialect.
+2. Southern Chechen: Spoken in the southern areas of Chechnya, including the city of Shali and surrounding villages. It has noticeable differences in pronunciation and vocabulary compared to the northern dialect.
+3. Eastern Chechen: This dialect is spoken in the eastern parts of Chechnya, including the districts of Kurchaloy, Shelkovskoy, and Vedeno. It has distinctive features like the use of retroflex consonants.
+4. Western Chechen: Spoken in the western areas of Chechnya, including the districts of Gudermes, Urus-Martan, and Argun. It has some variations in vocabulary and pronunciation compared to the other dialects.
+It's important to note that while there are distinct dialectal differences in Chechen, speakers of different dialects can generally understand each other with little difficulty.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>How can someone utilize Chechen language transcription services</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Someone can utilize Chechen language transcription services by following these steps:
+1. Identify a reputable transcription service provider that offers Chechen language transcription services. This could be through online research, asking for recommendations, or contacting transcription companies directly.
+2. Reach out to the chosen service provider and discuss the transcription requirements. Specify the file format of the audio or video that needs to be transcribed, the desired turnaround time, and any specific instructions or preferences.
+3. Provide the audio or video files to the transcription service. This can be done through file sharing platforms, email attachments, or any other method agreed upon with the service provider.
+4. Wait for the transcription to be completed within the agreed upon timeframe. Some providers offer expedited services for an additional fee if urgent delivery is required.
+5. Review the transcribed text for accuracy and message clarity. If any corrections or edits are needed, communicate them to the transcription service provider for prompt revisions.
+6. Pay the agreed upon fee for the transcription service, which is typically based on factors such as audio length, complexity, and turnaround time. Payment methods vary between service providers but often include options like online banking, credit/debit cards, or PayPal.
+7. Depending on the requirements, the transcribed text can be utilized in various ways, such as translating it into another language, incorporating it into a document, using it for research purposes, or providing subtitles for videos.
+Remember to maintain clear communication and collaboration with the chosen transcription service provider throughout the process to ensure a smooth and successful experience.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Countries where Chechen is spoken</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Chechen is predominantly spoken in the Chechen Republic, which is a federal subject of Russia. It is also spoken by the Chechen diaspora in various countries including Georgia, Kazakhstan, Ukraine, Turkey, and some Western European countries.</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Chechen language</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Chechen language, as well as for any other languages, for several reasons:
+1. Standardization: Chechen is traditionally an oral language with no standard written form. Transcription allows for the standardization of the language, enabling consistent representation of words and sounds across different written texts.
+2. Language Preservation: Chechen is an endangered language, and transcription helps in preserving and documenting the language for future generations. It allows linguists and researchers to accurately record and analyze the language's phonetic features, grammar, and vocabulary.
+3. Language Learning: Transcription is crucial for non-native speakers learning Chechen. It provides a guide for pronunciation and facilitates the learning process, as learners can visualize how words are written and pronounced.
+4. Accessibility: Transcription makes Chechen more accessible to a wider audience, including those who are not fluent in the language but might be interested in its literature, culture, or history. It allows for the translation of Chechen texts into other languages, making them accessible to a broader audience.
+Overall, transcription plays a vital role in standardizing and preserving the Chechen language, facilitating language learning, and promoting accessibility of Chechen texts to a wider audience.</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>Chechen is a language spoken by the Chechen people, who primarily live in the Chechen Republic of Russia. It is a Northeast Caucasian language, and it belongs to the Nakh-Daghestanian language family. If you need any specific information or assistance regarding the Chechen language, I'll be more than happy to help! There are several transcription services that offer Chechen language transcription services. Here are a few options:
+1. GoTranscript: They provide professional and quality transcription services for various languages, including Chechen.
+2. Rev: They offer Chechen transcription services at affordable rates and deliver accurate transcriptions.
+3. GMR Transcription: They have experienced transcriptionists who can transcribe audio or video files in Chechen.
+4. Translated: They provide transcription services in multiple languages, including Chechen, and ensure accuracy and confidentiality.
+5. Quick Transcription Service: They offer transcription services for various languages, and Chechen is among the languages they support.
+It's important to research each service and verify their expertise in Chechen transcription before making a decision. Chechen, a Northeast Caucasian language, is primarily spoken in the Chechen Republic, which is a part of the Russian Federation. It is also spoken by Chechen diaspora communities in other parts of Russia, as well as in neighboring countries such as Georgia, Kazakhstan, and Ukraine. Chechen, a Northeast Caucasian language spoken by the Chechen people primarily in the Chechen Republic of the Russian Federation, has several dialects. The main dialects include:
+1. Northern Chechen: This is the standard variety of Chechen spoken in the northern areas of Chechnya, including the capital Grozny. It has the most speakers and is considered the prestige dialect.
+2. Southern Chechen: Spoken in the southern areas of Chechnya, including the city of Shali and surrounding villages. It has noticeable differences in pronunciation and vocabulary compared to the northern dialect.
+3. Eastern Chechen: This dialect is spoken in the eastern parts of Chechnya, including the districts of Kurchaloy, Shelkovskoy, and Vedeno. It has distinctive features like the use of retroflex consonants.
+4. Western Chechen: Spoken in the western areas of Chechnya, including the districts of Gudermes, Urus-Martan, and Argun. It has some variations in vocabulary and pronunciation compared to the other dialects.
+It's important to note that while there are distinct dialectal differences in Chechen, speakers of different dialects can generally understand each other with little difficulty. Someone can utilize Chechen language transcription services by following these steps:
+1. Identify a reputable transcription service provider that offers Chechen language transcription services. This could be through online research, asking for recommendations, or contacting transcription companies directly.
+2. Reach out to the chosen service provider and discuss the transcription requirements. Specify the file format of the audio or video that needs to be transcribed, the desired turnaround time, and any specific instructions or preferences.
+3. Provide the audio or video files to the transcription service. This can be done through file sharing platforms, email attachments, or any other method agreed upon with the service provider.
+4. Wait for the transcription to be completed within the agreed upon timeframe. Some providers offer expedited services for an additional fee if urgent delivery is required.
+5. Review the transcribed text for accuracy and message clarity. If any corrections or edits are needed, communicate them to the transcription service provider for prompt revisions.
+6. Pay the agreed upon fee for the transcription service, which is typically based on factors such as audio length, complexity, and turnaround time. Payment methods vary between service providers but often include options like online banking, credit/debit cards, or PayPal.
+7. Depending on the requirements, the transcribed text can be utilized in various ways, such as translating it into another language, incorporating it into a document, using it for research purposes, or providing subtitles for videos.
+Remember to maintain clear communication and collaboration with the chosen transcription service provider throughout the process to ensure a smooth and successful experience. Chechen is predominantly spoken in the Chechen Republic, which is a federal subject of Russia. It is also spoken by the Chechen diaspora in various countries including Georgia, Kazakhstan, Ukraine, Turkey, and some Western European countries. Transcription is needed for the Chechen language, as well as for any other languages, for several reasons:
+1. Standardization: Chechen is traditionally an oral language with no standard written form. Transcription allows for the standardization of the language, enabling consistent representation of words and sounds across different written texts.
+2. Language Preservation: Chechen is an endangered language, and transcription helps in preserving and documenting the language for future generations. It allows linguists and researchers to accurately record and analyze the language's phonetic features, grammar, and vocabulary.
+3. Language Learning: Transcription is crucial for non-native speakers learning Chechen. It provides a guide for pronunciation and facilitates the learning process, as learners can visualize how words are written and pronounced.
+4. Accessibility: Transcription makes Chechen more accessible to a wider audience, including those who are not fluent in the language but might be interested in its literature, culture, or history. It allows for the translation of Chechen texts into other languages, making them accessible to a broader audience.
+Overall, transcription plays a vital role in standardizing and preserving the Chechen language, facilitating language learning, and promoting accessibility of Chechen texts to a wider audience.</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Chechen  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>Chechen Transcription Services: Ensuring Accuracy and Accessibility
+Chechen, a Northeast Caucasian language primarily spoken in the Chechen Republic of Russia, is a language that requires transcription services for various purposes. Whether it's for standardizing the language, preserving it for future generations, facilitating language learning, or promoting accessibility, transcription services play a crucial role in making Chechen more accessible and understandable.
+Capital Typing is one such transcription service provider that offers professional Chechen transcription services. With a team of experienced transcribers, Capital Typing ensures accurate and high-quality transcriptions in the Chechen language. By utilizing their services, you can have audio or video files transcribed into written text, allowing for a better understanding and dissemination of the information contained within.
+One of the significant advantages of using Capital Typing as your Chechen transcription partner is their expertise in handling the nuances and dialectal variations present in the Chechen language. Chechen has several dialects, including Northern Chechen, Southern Chechen, Eastern Chechen, and Western Chechen. Each dialect has its own distinct features, such as pronunciation, vocabulary, and grammar. The team at Capital Typing is well-versed in understanding and accurately transcribing these dialectal variations, ensuring that the transcriptions align with the specific dialect requested.
+Additionally, Capital Typing understands the importance of confidentiality and works diligently to ensure the privacy and security of your audio or video files. You can trust them to handle your sensitive content with utmost care and professionalism.
+To utilize Capital Typing's Chechen transcription services, simply reach out to them and discuss your transcription requirements. Provide them with the audio or video files that need to be transcribed and specify any specific instructions or preferences. The team will work diligently to transcribe the content within the agreed-upon timeframe. Once the transcription is completed, you can review the text for accuracy and clarity. If any edits or revisions are needed, Capital Typing will promptly address them.
+Capital Typing offers competitive pricing for their Chechen transcription services, considering factors such as audio length, complexity, and turnaround time. You can discuss the pricing with their team and choose a suitable payment method that works for you.
+By utilizing Chechen transcription services offered by Capital Typing, you can ensure accurate and accessible representation of your Chechen audio or video content. Whether you require transcriptions for research purposes, language learning, or translation into other languages, Capital Typing's expertise and professionalism will cater to your specific needs.
+Don't let the language barriers hinder your communication. With Capital Typing's Chechen transcription services, you can bridge the gap and effectively convey your message to a wider audience. Contact them today to experience their exceptional Chechen transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cherokee</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>The Cherokee are a Native American tribe historically located in the southeastern United States, primarily in present-day North Carolina, Tennessee, Georgia, and Alabama. They have a rich cultural and spiritual heritage, and are known for their contributions to agriculture, hunting, and trade. The Cherokee language is also widely spoken by members of the tribe. Today, the Cherokee Nation is a federally recognized sovereign nation with its own government, laws, and citizenship.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cherokee language transcription services</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>There are several professional transcription services available that can assist with Cherokee language transcription. Some popular options include:
+1. Rev.com: Rev offers transcription services for various languages, including Cherokee. They have experienced human transcribers that can accurately transcribe audio or video files.
+2. GoTranscript: GoTranscript is another platform that provides transcription services in multiple languages, including Cherokee. They have a team of trained transcribers who specialize in different languages.
+3. TranscribeMe: TranscribeMe is a transcription service that supports different languages, including Cherokee. They utilize a combination of human and automated transcription technology to ensure accuracy.
+When submitting your transcription request, be sure to specify that you need the transcription to be done in the Cherokee language. This will help ensure that you receive accurate results.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cherokee regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>The Cherokee language is primarily spoken in the Cherokee Nation, located in northeastern Oklahoma. However, there are also speakers of the Cherokee language in various other regions, including the Eastern Band of Cherokee Indians in North Carolina and the United Keetoowah Band of Cherokee Indians in Oklahoma. Additionally, there are Cherokee language speakers in different communities and households across the United States and even internationally.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cherokee dialects</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>The Cherokee language, known as Tsalagi, belongs to the Iroquoian language family. Within the Cherokee language, there are three major dialects: Eastern, Western, and Overhill. These dialects reflect regional variations in the way the language is spoken.
+1. Eastern dialect: The Eastern dialect was traditionally spoken by Cherokee communities in the Eastern part of the Cherokee Nation, which included areas in modern-day North Carolina, South Carolina, Georgia, and Tennessee. It is sometimes referred to as the Kituhwa dialect. Today, however, the Eastern dialect is considered endangered, with very few speakers remaining.
+2. Western dialect: The Western dialect of Cherokee is spoken by Cherokee communities located in the Western part of the Cherokee Nation, primarily in Oklahoma. This dialect is often considered the standard dialect of the Cherokee language and is the most widely spoken today.
+3. Overhill dialect: The Overhill dialect was historically spoken by Cherokee communities inhabiting the Overhill towns along the Little Tennessee River in present-day Tennessee. Like the Eastern dialect, the Overhill dialect is also endangered and has limited speakers today.
+It's worth noting that the Cherokee language has experienced a significant decline in speakers over the years, primarily due to historical events such as forced removal and assimilation policies. However, efforts are being made to revitalize and preserve the language through language programs and education initiatives.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>How can someone utilize Cherokee language transcription services</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>To utilize Cherokee language transcription services, follow these steps:
+1. Identify a reputable transcription service that specializes in Cherokee language transcriptions. You can search online or ask for recommendations from Native American language preservation organizations.
+2. Contact the transcription service and inquire about their Cherokee language transcription services. Confirm that they have experienced transcribers who are proficient in the Cherokee language.
+3. Discuss your specific needs and requirements with the transcription service. Specify the nature of the content you need transcribed, such as interviews, recordings, or documents.
+4. Provide the transcription service with the necessary files or materials to be transcribed in Cherokee. This could include audio or video recordings, documents, or any other relevant materials.
+5. Agree on the pricing, turnaround time, and any other terms and conditions with the transcription service. Make sure you understand the cost structure and payment methods.
+6. Once the transcription service has completed the Cherokee language transcription, review the work to ensure accuracy and quality. Communicate with the service if any revisions or edits are required.
+7. Once you are satisfied with the final transcription, make the necessary payment to the transcription service as per the agreed terms.
+8. If you require ongoing Cherokee language transcription services, discuss the possibility of a long-term partnership or arrangement with the transcription service.
+Remember, it is important to work with a reputable service that respects and understands the cultural importance of the Cherokee language.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Countries where Cherokee is spoken</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Cherokee is primarily spoken in the United States, particularly in the states of Oklahoma, North Carolina, and Arkansas. The Cherokee language is also spoken by some individuals in other parts of the United States, as well as in Canada. However, it is important to note that the number of fluent speakers has significantly declined over the years.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Cherokee language</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Cherokee language, like any other language because it helps to preserve and document the language. Cherokee is a complex language with its own unique alphabet and phonetic system, known as the Cherokee syllabary. 
+Transcription allows for the accurate representation of spoken Cherokee words and phrases using a writing system that can be easily shared and understood by others. It is also useful for language learners who may not be familiar with the intricacies of the Cherokee syllabary. 
+Transcription facilitates language documentation, teaching, and research, as it provides a standardized way to record and analyze the language. Additionally, transcription helps in the development of educational materials, dictionaries, and literature that can be used to preserve and promote the Cherokee language for future generations.</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>The Cherokee are a Native American tribe historically located in the southeastern United States, primarily in present-day North Carolina, Tennessee, Georgia, and Alabama. They have a rich cultural and spiritual heritage, and are known for their contributions to agriculture, hunting, and trade. The Cherokee language is also widely spoken by members of the tribe. Today, the Cherokee Nation is a federally recognized sovereign nation with its own government, laws, and citizenship. There are several professional transcription services available that can assist with Cherokee language transcription. Some popular options include:
+1. Rev.com: Rev offers transcription services for various languages, including Cherokee. They have experienced human transcribers that can accurately transcribe audio or video files.
+2. GoTranscript: GoTranscript is another platform that provides transcription services in multiple languages, including Cherokee. They have a team of trained transcribers who specialize in different languages.
+3. TranscribeMe: TranscribeMe is a transcription service that supports different languages, including Cherokee. They utilize a combination of human and automated transcription technology to ensure accuracy.
+When submitting your transcription request, be sure to specify that you need the transcription to be done in the Cherokee language. This will help ensure that you receive accurate results. The Cherokee language is primarily spoken in the Cherokee Nation, located in northeastern Oklahoma. However, there are also speakers of the Cherokee language in various other regions, including the Eastern Band of Cherokee Indians in North Carolina and the United Keetoowah Band of Cherokee Indians in Oklahoma. Additionally, there are Cherokee language speakers in different communities and households across the United States and even internationally. The Cherokee language, known as Tsalagi, belongs to the Iroquoian language family. Within the Cherokee language, there are three major dialects: Eastern, Western, and Overhill. These dialects reflect regional variations in the way the language is spoken.
+1. Eastern dialect: The Eastern dialect was traditionally spoken by Cherokee communities in the Eastern part of the Cherokee Nation, which included areas in modern-day North Carolina, South Carolina, Georgia, and Tennessee. It is sometimes referred to as the Kituhwa dialect. Today, however, the Eastern dialect is considered endangered, with very few speakers remaining.
+2. Western dialect: The Western dialect of Cherokee is spoken by Cherokee communities located in the Western part of the Cherokee Nation, primarily in Oklahoma. This dialect is often considered the standard dialect of the Cherokee language and is the most widely spoken today.
+3. Overhill dialect: The Overhill dialect was historically spoken by Cherokee communities inhabiting the Overhill towns along the Little Tennessee River in present-day Tennessee. Like the Eastern dialect, the Overhill dialect is also endangered and has limited speakers today.
+It's worth noting that the Cherokee language has experienced a significant decline in speakers over the years, primarily due to historical events such as forced removal and assimilation policies. However, efforts are being made to revitalize and preserve the language through language programs and education initiatives. To utilize Cherokee language transcription services, follow these steps:
+1. Identify a reputable transcription service that specializes in Cherokee language transcriptions. You can search online or ask for recommendations from Native American language preservation organizations.
+2. Contact the transcription service and inquire about their Cherokee language transcription services. Confirm that they have experienced transcribers who are proficient in the Cherokee language.
+3. Discuss your specific needs and requirements with the transcription service. Specify the nature of the content you need transcribed, such as interviews, recordings, or documents.
+4. Provide the transcription service with the necessary files or materials to be transcribed in Cherokee. This could include audio or video recordings, documents, or any other relevant materials.
+5. Agree on the pricing, turnaround time, and any other terms and conditions with the transcription service. Make sure you understand the cost structure and payment methods.
+6. Once the transcription service has completed the Cherokee language transcription, review the work to ensure accuracy and quality. Communicate with the service if any revisions or edits are required.
+7. Once you are satisfied with the final transcription, make the necessary payment to the transcription service as per the agreed terms.
+8. If you require ongoing Cherokee language transcription services, discuss the possibility of a long-term partnership or arrangement with the transcription service.
+Remember, it is important to work with a reputable service that respects and understands the cultural importance of the Cherokee language. Cherokee is primarily spoken in the United States, particularly in the states of Oklahoma, North Carolina, and Arkansas. The Cherokee language is also spoken by some individuals in other parts of the United States, as well as in Canada. However, it is important to note that the number of fluent speakers has significantly declined over the years. Transcription is needed for the Cherokee language, like any other language because it helps to preserve and document the language. Cherokee is a complex language with its own unique alphabet and phonetic system, known as the Cherokee syllabary. 
+Transcription allows for the accurate representation of spoken Cherokee words and phrases using a writing system that can be easily shared and understood by others. It is also useful for language learners who may not be familiar with the intricacies of the Cherokee syllabary. 
+Transcription facilitates language documentation, teaching, and research, as it provides a standardized way to record and analyze the language. Additionally, transcription helps in the development of educational materials, dictionaries, and literature that can be used to preserve and promote the Cherokee language for future generations.</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Cherokee  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>Cherokee Transcription Services: Ensuring Accuracy and Preservation of the Cherokee Language
+The Cherokee language, known as Tsalagi, is an integral part of the rich cultural and spiritual heritage of the Cherokee people. As a Native American tribe historically located in the southeastern United States, the Cherokee have made significant contributions to agriculture, hunting, and trade. Today, the Cherokee Nation is a federally recognized sovereign nation with its own government, laws, and citizenship. However, the Cherokee language has experienced a decline in speakers over the years, making transcription services essential for preserving and revitalizing the language.
+Capital Typing is a transcription service that understands the cultural importance of the Cherokee language and is committed to providing accurate and professional Cherokee transcription services. With a team of experienced transcribers proficient in the Cherokee language, Capital Typing ensures that audio or video files, documents, and other materials are transcribed with precision and cultural sensitivity.
+Cherokee language transcription services are essential for various reasons. Firstly, transcription provides a means to document and preserve the Cherokee language. It allows for accurate representation of spoken words and phrases using a standardized writing system, such as the Cherokee syllabary. Transcription plays a vital role in language documentation, teaching, and research, enabling the development of educational materials, dictionaries, and literature that can be used to promote and preserve the Cherokee language for future generations.
+Secondly, transcription assists language learners who may not be familiar with the intricacies of the Cherokee syllabary. By transcribing Cherokee audio or video files into a written form that follows the Latin alphabet, language learners can better understand and study the language. Transcription makes language learning more accessible and increases the opportunities for non-native speakers to engage with and appreciate the Cherokee language and culture.
+To utilize Capital Typing's Cherokee transcription services, clients can follow a simple process. Firstly, reach out to Capital Typing and discuss your specific needs and requirements, whether it's transcribing interviews, recordings, or documents. Capital Typing's experienced team will ensure that the transcribers working on your project are proficient in the Cherokee language and well-versed in its cultural nuances.
+Secondly, provide Capital Typing with the necessary audio or video files, documents, or any other relevant materials for transcription. Clear communication is essential during this stage to ensure accuracy in the final transcription. 
+Once the transcription is completed, Capital Typing will deliver the finished work for review. Their attention to detail ensures accuracy and quality in the transcribed documents. Clients can review the work and communicate with Capital Typing for any necessary revisions or edits.
+It's important to note that Capital Typing respects and understands the cultural significance of the Cherokee language. They are committed to providing a professional and culturally sensitive transcription service that meets the needs of their clients.
+Cherokee transcription services offered by Capital Typing contribute to the preservation, documentation, and promotion of the Cherokee language. By transcribing audio or video files, documents, and other materials, Capital Typing helps support the revitalization of the Cherokee language and ensures its accessibility for future generations.
+To engage with Capital Typing's Cherokee transcription services, reach out to them today and experience their commitment to accuracy, professionalism, and cultural sensitivity in transcribing the Cherokee language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Croatian</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bok! Kako vam mogu pomoći danas na hrvatskom jeziku?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Croatian language transcription services</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>I can assist you with Croatian language transcription services. There are various options available for Croatian transcription services, depending on your specific needs. You can consider using online platforms that offer transcription services, such as Rev or TranscribeMe. These platforms generally have a network of professional transcribers who can accurately transcribe audio or video content in Croatian. Alternatively, you can also search for freelance transcribers who specialize in Croatian transcription on websites like Upwork or Freelancer. Just make sure to communicate your requirements clearly and specify the deadline and format you need the transcription in.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Croatian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Croatian is the official language of Croatia and is primarily spoken throughout the country. However, there are also Croatian-speaking communities in neighboring countries such as Bosnia and Herzegovina, Serbia, Montenegro, and Slovenia. In Croatia, Croatian is spoken in all regions, including regions such as Istria, Dalmatia, Slavonia, Zagorje, and more.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Croatian dialects</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Croatian, as a South Slavic language, does have several dialects. Here are some of the main dialects spoken in Croatia:
+1. Kajkavian dialect: This dialect is primarily spoken in northern and northwestern Croatia, including the cities of Zagreb and Varazdin. It is characterized by the pronunciation of certain words, different grammar structures, and specific vocabulary.
+2. Chakavian dialect: This dialect is commonly spoken in regions along the Adriatic coast, including Istria and Dalmatia. It is known for its distinctive pronunciation features, like the use of the "ch" sound instead of the standard "ć" sound.
+3. Shtokavian dialect: This is the most widely spoken dialect in Croatia. It is the basis for the standard Croatian language and is spoken in central and eastern parts of the country, including the capital city, Zagreb. Shtokavian dialect has several sub-dialects, including Ekavian, Ikavian, and Ijekavian.
+It's worth noting that these dialects can further vary in pronunciation, vocabulary, and grammar within different regions of Croatia.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>How can someone utilize Croatian language transcription services</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>To utilize Croatian language transcription services, follow these steps:
+1. Research reliable transcription service providers: Look for companies or freelancers that specialize in providing Croatian language transcription services. Read reviews and testimonials to ensure their quality and accuracy.
+2. Contact the transcription service provider: Reach out to the chosen provider and inquire about their services, rates, and turnaround times. Provide them with details about the audio or video file you need transcribed, such as its length and format.
+3. Share the audio or video file: Depending on the provider's preference, you may need to upload the file to their platform, share it via email, or provide a link for download. Make sure the file is in a compatible format and properly labeled.
+4. Specify formatting requirements: If you have any specific formatting requirements, such as timestamps, speaker identification, or document layout, communicate them clearly to the provider.
+5. Confirm the pricing and payment method: Request a quote from the provider based on the length or complexity of the file. Clarify any additional charges, payment terms, and methods accepted.
+6. Discuss delivery options: Agree on the preferred delivery method for the transcribed document, such as email, secure file transfer, or cloud storage. Ensure that your chosen method is convenient and secure for both parties.
+7. Confirm the timeframe: Discuss the estimated turnaround time required for the transcription. Consider any urgency you may have and negotiate if necessary.
+8. Review and verify accuracy: Once you receive the transcribed document, review it carefully to ensure accuracy. If any errors or omissions are found, communicate them to the provider for correction.
+9. Pay for the services: Submit payment according to the agreed-upon terms and method. Keep a record of the transaction for future reference.
+Note: It is essential to maintain clear communication throughout the process to ensure a smooth and satisfactory experience with Croatian language transcription services.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Countries where Croatian is spoken</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Croatian is primarily spoken in Croatia, where it is the official language. However, it is also spoken in several other countries, including:
+1. Bosnia and Herzegovina
+2. Serbia
+3. Montenegro
+4. Austria
+5. Hungary
+6. Slovakia
+7. Slovenia
+8. Italy (specifically in the region of Molise)
+9. Germany
+10. Australia
+11. Canada
+12. United States
+These are just some examples of countries where Croatian is spoken, but there may be Croatian-speaking communities found in other parts of the world as well.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Croatian language</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Croatian language for several reasons:
+1. Standardization: Croatian has multiple regional dialects, and transcription helps to standardize the pronunciation and spelling of words across different regions. This ensures consistent communication and understanding among speakers of different dialects.
+2. Learning and Teaching: Transcription makes it easier for non-native speakers to learn and pronounce Croatian words accurately. It provides a visual representation of how words are pronounced, facilitating language acquisition for beginners.
+3. Language Documentation: Transcription helps linguists and researchers to accurately document and study the Croatian language. It allows them to analyze its phonetic and phonological aspects, understand linguistic patterns, and preserve cultural heritage.
+4. Accessibility: Transcription enhances accessibility for people with hearing impairments. By converting spoken language into written text, it enables them to read and understand Croatian content, such as videos, lectures, or conversations.
+Overall, transcription plays a crucial role in standardizing, learning, documenting, and making the Croatian language more accessible to different groups of people.</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Bok! Kako vam mogu pomoći danas na hrvatskom jeziku? I can assist you with Croatian language transcription services. There are various options available for Croatian transcription services, depending on your specific needs. You can consider using online platforms that offer transcription services, such as Rev or TranscribeMe. These platforms generally have a network of professional transcribers who can accurately transcribe audio or video content in Croatian. Alternatively, you can also search for freelance transcribers who specialize in Croatian transcription on websites like Upwork or Freelancer. Just make sure to communicate your requirements clearly and specify the deadline and format you need the transcription in. Croatian is the official language of Croatia and is primarily spoken throughout the country. However, there are also Croatian-speaking communities in neighboring countries such as Bosnia and Herzegovina, Serbia, Montenegro, and Slovenia. In Croatia, Croatian is spoken in all regions, including regions such as Istria, Dalmatia, Slavonia, Zagorje, and more. Croatian, as a South Slavic language, does have several dialects. Here are some of the main dialects spoken in Croatia:
+1. Kajkavian dialect: This dialect is primarily spoken in northern and northwestern Croatia, including the cities of Zagreb and Varazdin. It is characterized by the pronunciation of certain words, different grammar structures, and specific vocabulary.
+2. Chakavian dialect: This dialect is commonly spoken in regions along the Adriatic coast, including Istria and Dalmatia. It is known for its distinctive pronunciation features, like the use of the "ch" sound instead of the standard "ć" sound.
+3. Shtokavian dialect: This is the most widely spoken dialect in Croatia. It is the basis for the standard Croatian language and is spoken in central and eastern parts of the country, including the capital city, Zagreb. Shtokavian dialect has several sub-dialects, including Ekavian, Ikavian, and Ijekavian.
+It's worth noting that these dialects can further vary in pronunciation, vocabulary, and grammar within different regions of Croatia. To utilize Croatian language transcription services, follow these steps:
+1. Research reliable transcription service providers: Look for companies or freelancers that specialize in providing Croatian language transcription services. Read reviews and testimonials to ensure their quality and accuracy.
+2. Contact the transcription service provider: Reach out to the chosen provider and inquire about their services, rates, and turnaround times. Provide them with details about the audio or video file you need transcribed, such as its length and format.
+3. Share the audio or video file: Depending on the provider's preference, you may need to upload the file to their platform, share it via email, or provide a link for download. Make sure the file is in a compatible format and properly labeled.
+4. Specify formatting requirements: If you have any specific formatting requirements, such as timestamps, speaker identification, or document layout, communicate them clearly to the provider.
+5. Confirm the pricing and payment method: Request a quote from the provider based on the length or complexity of the file. Clarify any additional charges, payment terms, and methods accepted.
+6. Discuss delivery options: Agree on the preferred delivery method for the transcribed document, such as email, secure file transfer, or cloud storage. Ensure that your chosen method is convenient and secure for both parties.
+7. Confirm the timeframe: Discuss the estimated turnaround time required for the transcription. Consider any urgency you may have and negotiate if necessary.
+8. Review and verify accuracy: Once you receive the transcribed document, review it carefully to ensure accuracy. If any errors or omissions are found, communicate them to the provider for correction.
+9. Pay for the services: Submit payment according to the agreed-upon terms and method. Keep a record of the transaction for future reference.
+Note: It is essential to maintain clear communication throughout the process to ensure a smooth and satisfactory experience with Croatian language transcription services. Croatian is primarily spoken in Croatia, where it is the official language. However, it is also spoken in several other countries, including:
+1. Bosnia and Herzegovina
+2. Serbia
+3. Montenegro
+4. Austria
+5. Hungary
+6. Slovakia
+7. Slovenia
+8. Italy (specifically in the region of Molise)
+9. Germany
+10. Australia
+11. Canada
+12. United States
+These are just some examples of countries where Croatian is spoken, but there may be Croatian-speaking communities found in other parts of the world as well. Transcription is needed for the Croatian language for several reasons:
+1. Standardization: Croatian has multiple regional dialects, and transcription helps to standardize the pronunciation and spelling of words across different regions. This ensures consistent communication and understanding among speakers of different dialects.
+2. Learning and Teaching: Transcription makes it easier for non-native speakers to learn and pronounce Croatian words accurately. It provides a visual representation of how words are pronounced, facilitating language acquisition for beginners.
+3. Language Documentation: Transcription helps linguists and researchers to accurately document and study the Croatian language. It allows them to analyze its phonetic and phonological aspects, understand linguistic patterns, and preserve cultural heritage.
+4. Accessibility: Transcription enhances accessibility for people with hearing impairments. By converting spoken language into written text, it enables them to read and understand Croatian content, such as videos, lectures, or conversations.
+Overall, transcription plays a crucial role in standardizing, learning, documenting, and making the Croatian language more accessible to different groups of people.</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Croatian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today in Croatian? If you're in need of Croatian transcription services, you have several options to choose from. One option is to utilize online platforms such as Rev or TranscribeMe, which have a network of professional transcribers who can accurately transcribe audio or video content in Croatian. These platforms offer convenient and reliable services for all your transcription needs. 
+Alternatively, you can also find freelance transcribers who specialize in Croatian transcription on websites like Upwork or Freelancer. It's important to clearly communicate your requirements, including the deadline and desired format for the transcription, to ensure that the transcriber can meet your expectations. 
+Croatian is the official language of Croatia and is primarily spoken throughout the country. However, there are also Croatian-speaking communities in neighboring countries such as Bosnia and Herzegovina, Serbia, Montenegro, and Slovenia. The Croatian language has several dialects, including Kajkavian, Chakavian, and Shtokavian. These dialects vary in pronunciation, grammar, and vocabulary. 
+To utilize Croatian language transcription services, follow these steps: 
+1. Research reliable transcription service providers: Look for reputable companies or freelancers who specialize in providing Croatian language transcription services. Reading reviews and testimonials can help you ensure their quality and accuracy.
+2. Contact the transcription service provider: Get in touch with your chosen provider and inquire about their services, rates, and turnaround times. Provide them with details about the audio or video file you need transcribed, such as its length and format.
+3. Share the audio or video file: Depending on the provider's preference, you may need to upload the file to their platform, share it via email, or provide a download link. Make sure the file is in a compatible format and properly labeled.
+4. Specify formatting requirements: Communicate any specific formatting requirements, such as timestamps, speaker identification, or document layout, clearly to the provider.
+5. Confirm pricing and payment method: Request a quote from the provider based on the length or complexity of the file. Clarify any additional charges, payment terms, and accepted methods of payment.
+6. Discuss delivery options: Agree on the preferred delivery method for the transcribed document, such as email, secure file transfer, or cloud storage. Ensure the chosen method is convenient and secure for both parties.
+7. Confirm the timeframe: Discuss the estimated turnaround time required for the transcription. Take into consideration any urgency you may have, and negotiate if necessary.
+8. Review and verify accuracy: Once you receive the transcribed document, carefully review it to ensure its accuracy. If you find any errors or omissions, communicate them to the provider for correction.
+9. Make payment: Submit payment according to the agreed-upon terms and method. Keep a record of the transaction for future reference.
+Maintaining clear communication throughout the process is vital to ensure a smooth and satisfactory experience with Croatian language transcription services.
+Croatian is primarily spoken in Croatia, where it is the official language. However, it is also spoken in several other countries, including Bosnia and Herzegovina, Serbia, Montenegro, Austria, Hungary, Slovakia, Slovenia, Italy (specifically in the region of Molise), Germany, Australia, Canada, and the United States. Transcription is necessary for the Croatian language for various reasons.
+Transcription helps standardize the pronunciation and spelling of words across different dialects, facilitating consistent communication and understanding. It also aids non-native speakers in learning and pronouncing Croatian words accurately, making language acquisition easier. Additionally, transcription enables linguists and researchers to accurately document and study the Croatian language, preserving cultural heritage and promoting linguistic analysis. Lastly, transcription enhances accessibility for individuals with hearing impairments, enabling them to read and understand Croatian content.
+Overall, transcription plays a crucial role in standardizing, learning, documenting, and making the Croatian language more accessible to different groups of people. If you need any further assistance or information, please don't hesitate to let me know!</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Czech</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>How can I assist you with Czech?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Czech language transcription services</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>There are several reputable companies that offer Czech language transcription services. Some options include TranscriptionWing, GoTranscript, Rev, and GMR Transcription. These companies employ native Czech speakers and use advanced technology to ensure accurate and timely transcriptions. You can easily find their websites online and submit your audio or video files for transcription.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Czech regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Czech is primarily spoken in the Czech Republic, which is divided into 14 administrative regions. Czech is the official language of the entire country, and it is spoken by the majority of the population in all regions. These regions include:
+1. Prague
+2. Central Bohemia
+3. South Bohemia
+4. Plzeň
+5. Karlovy Vary
+6. Ústí nad Labem
+7. Liberec
+8. Hradec Králové
+9. Pardubice
+10. Vysočina
+11. South Moravia
+12. Olomouc
+13. Zlín
+14. Moravian-Silesian
+It's important to note that Czech is also spoken by some Czech communities living outside of the Czech Republic, particularly in neighboring countries like Slovakia, Austria, and Poland.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Czech dialects</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Czech dialects are regional variations of the Czech language spoken across different parts of the Czech Republic. These dialects differ in terms of vocabulary, pronunciation, and grammar. 
+The Czech language itself is divided into two main dialect groups: the Bohemian dialects spoken in the western and central parts of the country, and the Moravian dialects spoken in the eastern parts. The Bohemian dialects are further divided into Central Bohemian, Prague, and South Bohemian dialects, while the Moravian dialects can be categorized into Central Moravian, Eastern Moravian, and Silesian dialects.
+Each dialect group has its own distinct characteristics. For example, Central Bohemian dialects are considered the standard form of the language and are spoken in and around Prague. Moravian dialects, on the other hand, have some unique features, such as the pronunciation of certain sounds.
+It's important to note that Czech dialects are generally mutually intelligible, meaning that speakers of different dialects can understand each other. However, speakers of different dialects may use different vocabulary or have slightly different pronunciation, which can sometimes cause misunderstandings.
+Overall, Czech dialects add diversity to the Czech language and reflect the regional identities within the country.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>How can someone utilize Czech language transcription services</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>To utilize Czech language transcription services, follow these steps:
+1. Search for reputable transcription service providers that offer Czech language transcription. Look for companies with positive reviews and ratings.
+2. Contact the chosen transcription service provider and inquire about their pricing, turnaround time, and quality assurance processes.
+3. Share the audio or video files you want to transcribe with the transcription service provider. Make sure to provide clear instructions regarding your desired format, timestamps, and any specific requirements.
+4. Discuss any additional services you may require, such as translation or transcription of specific dialects or accents.
+5. Agree on the payment terms and method of delivery for the transcribed documents.
+6. Once the transcription is complete, review and proofread the transcribed files to ensure accuracy and completeness.
+7. If you require any revisions or corrections, communicate them to the transcription service provider promptly.
+8. Finally, pay the agreed-upon fee and receive the finalized transcription files in your desired format (e.g., Word document, PDF).
+By following these steps, you can efficiently utilize Czech language transcription services and obtain accurate and reliable transcriptions of your audio or video content.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Countries where Czech is spoken</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Czech is primarily spoken in the Czech Republic, which is located in Central Europe. However, there are also significant Czech-speaking communities in neighboring countries such as Slovakia, Austria, Germany, and Poland. Additionally, there are smaller communities of Czech speakers in other parts of the world, including the United States, Canada, and Australia.</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Czech language</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Czech language for several reasons:
+1. Pronunciation: Czech has a very specific phonetic system, and the written language does not always accurately reflect the pronunciation. Transcription helps to indicate the correct pronunciation of words, especially for learners of the language.
+2. Dialects and regional variations: There are various dialects and regional variations in the Czech language, which can lead to differences in pronunciation and vocabulary. Transcription can help to standardize the language and make it more accessible to all speakers.
+3. Foreign names and words: Transcription is often used for foreign names, words, and phrases in order to adapt them to the Czech phonetic system. This helps to make these words easier to read and understand for Czech speakers.
+4. Linguistic analysis: Transcription is also important for linguistic analysis and research purposes. It allows linguists and researchers to study the sounds and patterns of the Czech language more accurately.
+Overall, transcription plays a crucial role in ensuring clarity, consistency, and accessibility in the Czech language.</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>How can I assist you with Czech? There are several reputable companies that offer Czech language transcription services. Some options include TranscriptionWing, GoTranscript, Rev, and GMR Transcription. These companies employ native Czech speakers and use advanced technology to ensure accurate and timely transcriptions. You can easily find their websites online and submit your audio or video files for transcription. Czech is primarily spoken in the Czech Republic, which is divided into 14 administrative regions. Czech is the official language of the entire country, and it is spoken by the majority of the population in all regions. These regions include:
+1. Prague
+2. Central Bohemia
+3. South Bohemia
+4. Plzeň
+5. Karlovy Vary
+6. Ústí nad Labem
+7. Liberec
+8. Hradec Králové
+9. Pardubice
+10. Vysočina
+11. South Moravia
+12. Olomouc
+13. Zlín
+14. Moravian-Silesian
+It's important to note that Czech is also spoken by some Czech communities living outside of the Czech Republic, particularly in neighboring countries like Slovakia, Austria, and Poland. Czech dialects are regional variations of the Czech language spoken across different parts of the Czech Republic. These dialects differ in terms of vocabulary, pronunciation, and grammar. 
+The Czech language itself is divided into two main dialect groups: the Bohemian dialects spoken in the western and central parts of the country, and the Moravian dialects spoken in the eastern parts. The Bohemian dialects are further divided into Central Bohemian, Prague, and South Bohemian dialects, while the Moravian dialects can be categorized into Central Moravian, Eastern Moravian, and Silesian dialects.
+Each dialect group has its own distinct characteristics. For example, Central Bohemian dialects are considered the standard form of the language and are spoken in and around Prague. Moravian dialects, on the other hand, have some unique features, such as the pronunciation of certain sounds.
+It's important to note that Czech dialects are generally mutually intelligible, meaning that speakers of different dialects can understand each other. However, speakers of different dialects may use different vocabulary or have slightly different pronunciation, which can sometimes cause misunderstandings.
+Overall, Czech dialects add diversity to the Czech language and reflect the regional identities within the country. To utilize Czech language transcription services, follow these steps:
+1. Search for reputable transcription service providers that offer Czech language transcription. Look for companies with positive reviews and ratings.
+2. Contact the chosen transcription service provider and inquire about their pricing, turnaround time, and quality assurance processes.
+3. Share the audio or video files you want to transcribe with the transcription service provider. Make sure to provide clear instructions regarding your desired format, timestamps, and any specific requirements.
+4. Discuss any additional services you may require, such as translation or transcription of specific dialects or accents.
+5. Agree on the payment terms and method of delivery for the transcribed documents.
+6. Once the transcription is complete, review and proofread the transcribed files to ensure accuracy and completeness.
+7. If you require any revisions or corrections, communicate them to the transcription service provider promptly.
+8. Finally, pay the agreed-upon fee and receive the finalized transcription files in your desired format (e.g., Word document, PDF).
+By following these steps, you can efficiently utilize Czech language transcription services and obtain accurate and reliable transcriptions of your audio or video content. Czech is primarily spoken in the Czech Republic, which is located in Central Europe. However, there are also significant Czech-speaking communities in neighboring countries such as Slovakia, Austria, Germany, and Poland. Additionally, there are smaller communities of Czech speakers in other parts of the world, including the United States, Canada, and Australia. Transcription is needed for the Czech language for several reasons:
+1. Pronunciation: Czech has a very specific phonetic system, and the written language does not always accurately reflect the pronunciation. Transcription helps to indicate the correct pronunciation of words, especially for learners of the language.
+2. Dialects and regional variations: There are various dialects and regional variations in the Czech language, which can lead to differences in pronunciation and vocabulary. Transcription can help to standardize the language and make it more accessible to all speakers.
+3. Foreign names and words: Transcription is often used for foreign names, words, and phrases in order to adapt them to the Czech phonetic system. This helps to make these words easier to read and understand for Czech speakers.
+4. Linguistic analysis: Transcription is also important for linguistic analysis and research purposes. It allows linguists and researchers to study the sounds and patterns of the Czech language more accurately.
+Overall, transcription plays a crucial role in ensuring clarity, consistency, and accessibility in the Czech language.</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Czech  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>At Capital Typing, we understand the importance of accurate and reliable transcription services for the Czech language. Whether you have audio or video files that need to be transcribed, our team of experienced Czech transcriptionists is here to assist you.
+Czech is primarily spoken in the Czech Republic, but there are also significant Czech-speaking communities in neighboring countries such as Slovakia, Austria, Germany, and Poland. Additionally, smaller communities of Czech speakers can be found in other parts of the world, including the United States, Canada, and Australia. No matter where you are located, our Czech transcription services are available to meet your needs.
+Our team consists of native Czech speakers who are well-versed in the intricacies of the Czech language. They have a deep understanding of Czech grammar, vocabulary, and pronunciation, ensuring that your transcriptions are accurate and reflect the nuances of the language. We also use advanced technology and quality assurance processes to guarantee the highest level of accuracy and efficiency.
+Czech dialects and regional variations can pose challenges when it comes to transcription. However, our team is experienced in handling different dialects and accents, making sure that your transcriptions accurately represent the language spoken in your specific region. Whether you require transcriptions in Standard Czech or any of the regional dialects such as Bohemian or Moravian, our team can accommodate your needs.
+We offer a seamless and straightforward process for utilizing our Czech transcription services. Simply reach out to us with your requirements, whether it's a single audio file or a large volume of recordings. Our dedicated team will provide you with a quote tailored to your specific project, taking into account factors such as turnaround time, dialect requirements, and any additional services you may require, such as translation.
+Once we receive your audio or video files, our team will meticulously transcribe them, following your instructions regarding formatting, timestamps, and any other specific requirements. We understand the importance of accuracy and attention to detail, and we will deliver transcriptions that meet your expectations.
+After the transcription is complete, we provide you with the finalized files in your preferred format, whether it's a Word document, PDF, or any other format that suits your needs. We also offer revisions and corrections, ensuring that you are completely satisfied with the final results.
+At Capital Typing, we are committed to providing you with efficient and reliable Czech transcription services. Our team of skilled Czech transcriptionists, combined with our advanced technology and attention to detail, ensures that your transcriptions are accurate, timely, and of the highest quality. Contact us today to discuss your Czech transcription needs and let us assist you in converting your audio and video content into written form.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dakota</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today, Dakota?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dakota language transcription services</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>I'm sorry, but I'm not able to provide transcription services for the Dakota language.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dakota regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dakota is a Siouan language spoken by the Dakota people, also known as the Sioux. Historically, the Dakota language was spoken by several tribes in the Great Plains region of North America. Today, Dakota is predominantly spoken in a few regions:
+1. United States - The largest concentration of Dakota speakers is in the United States. The Dakota language is spoken by Dakota communities in the Dakotas (North Dakota and South Dakota), notably the Standing Rock Indian Reservation, Fort Peck Indian Reservation, Lower Brule Indian Reservation, and Sisseton-Wahpeton Oyate.
+2. Canada - Dakota is also spoken in parts of Canada by indigenous communities. It is mainly spoken in the Southern Manitoba region.
+These are the primary regions where the Dakota language is spoken, but please note that the number of speakers has decreased significantly over the years, and it is considered an endangered language.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dakota dialects</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>The Dakota language, also known as Sioux, is one of the indigenous languages spoken by the Dakota people, who are part of the larger Lakota-Dakota-Nakota people, also known as the Sioux. The Dakota language has several dialects, which are spoken by different Dakota communities. Some of the main Dakota dialects include:
+1. Santee: This dialect is spoken by the Santee Dakota people in Minnesota and Nebraska, and it is considered the most widely spoken Dakota dialect.
+2. Yankton-Yanktonai: This dialect is spoken by the Yankton and Yanktonai Dakota people in South Dakota and North Dakota. It is often classified as a separate dialect, although there is considerable overlap with the Santee dialect.
+3. Teton: This dialect is spoken by the Teton Dakota people, who are part of the Lakota-Dakota-Nakota people. The Teton dialect is spoken primarily in South Dakota, North Dakota, and Montana, and it shares many similarities with the Lakota language.
+It's important to note that these dialects are not mutually unintelligible, meaning speakers of different Dakota dialects can generally understand each other. However, there may be some differences in pronunciation, vocabulary, and grammar between the dialects.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>How can someone utilize Dakota language transcription services</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>To utilize Dakota language transcription services, follow these steps:
+1. Find a Professional Transcription Service: Look for a transcription service with experience in Dakota language transcription. You may search online or ask for recommendations from language organizations or community groups specializing in indigenous languages.
+2. Contact the Service Provider: Reach out to the transcription service and inquire about their Dakota language transcription services. Discuss your specific needs, such as the length of the audio or video file, turnaround time requirements, and any formatting instructions.
+3. Share the Audio or Video Content: Provide the transcription service with the audio or video content that needs to be transcribed. Make sure to provide clear instructions about the language (Dakota) and any specific vocabulary or terminology that the transcriptionist should be aware of.
+4. Specify Formatting and Output: Let the transcription service know how you would like the final transcription to be delivered to you. This could be in the form of a Word document, PDF, or another format. Additionally, specify any specific formatting requirements like timestamps or speaker identification if necessary.
+5. Discuss Payment and Turnaround Time: Agree on the payment terms with the transcription service. They may charge based on the length of the content or per hour of transcription. Discuss the turnaround time for the transcription and ensure it aligns with your expectations and deadlines.
+6. Review the Transcription: Once the transcription is delivered, carefully review it for accuracy. If there are any errors or omissions, provide feedback to the transcription service, so they can make necessary corrections.
+7. Payment and Feedback: Pay the transcription service promptly based on the agreed terms. Also, provide feedback on the quality of the transcription and the overall service experience, as this helps the service provider improve their services.
+Remember, it is essential to respect and support the indigenous language community while utilizing Dakota language transcription services.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Countries where Dakota is spoken</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Dakota is a Siouan language that is spoken primarily in the United States and Canada. It is one of the six languages of the Sioux people, which also include Lakota and Nakota. Dakota is spoken primarily in the following countries:
+1. United States: Dakota is spoken by Dakota, Lakota, and Nakota people in various states across the northern plains region, including North Dakota, South Dakota, Nebraska, Minnesota, and Montana.
+2. Canada: Dakota is also spoken by Dakota First Nations communities in the Canadian provinces of Manitoba and Saskatchewan.</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Dakota language</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Dakota language, as well as for any language, for several reasons:
+1. Preserving and documenting the language: Transcription allows for the preservation and documentation of the Dakota language. By transcribing spoken words into written form, valuable information about the language can be recorded and studied for future generations.
+2. Language revitalization efforts: The Dakota language, like many indigenous languages, has experienced a decline in speakers over the years. Transcription plays a crucial role in language revitalization efforts, as it helps in creating language resources such as dictionaries, textbooks, and online materials. These resources can aid in language teaching and learning, ensuring the language's survival and passing it on to new generations.
+3. Linguistic analysis and research: Transcription helps linguists and researchers analyze and study the different aspects of the Dakota language, such as its phonetics, phonology, grammar, and syntax. Transcription allows for a systematic representation of the language's speech sounds and structures, enabling researchers to gain insights into its linguistic properties.
+4. Accessibility and communication: Transcribing the Dakota language makes it accessible to a wider audience, including those who may not be proficient in speaking or understanding the language. Transcriptions can be used for creating subtitles, captions, or translations, enabling effective communication and inclusivity.
+Overall, transcription is necessary for the Dakota language to ensure its preservation, support language revitalization efforts, facilitate linguistic research, and enhance accessibility.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today, Dakota? I'm sorry, but I'm not able to provide transcription services for the Dakota language. Dakota is a Siouan language spoken by the Dakota people, also known as the Sioux. Historically, the Dakota language was spoken by several tribes in the Great Plains region of North America. Today, Dakota is predominantly spoken in a few regions:
+1. United States - The largest concentration of Dakota speakers is in the United States. The Dakota language is spoken by Dakota communities in the Dakotas (North Dakota and South Dakota), notably the Standing Rock Indian Reservation, Fort Peck Indian Reservation, Lower Brule Indian Reservation, and Sisseton-Wahpeton Oyate.
+2. Canada - Dakota is also spoken in parts of Canada by indigenous communities. It is mainly spoken in the Southern Manitoba region.
+These are the primary regions where the Dakota language is spoken, but please note that the number of speakers has decreased significantly over the years, and it is considered an endangered language. The Dakota language, also known as Sioux, is one of the indigenous languages spoken by the Dakota people, who are part of the larger Lakota-Dakota-Nakota people, also known as the Sioux. The Dakota language has several dialects, which are spoken by different Dakota communities. Some of the main Dakota dialects include:
+1. Santee: This dialect is spoken by the Santee Dakota people in Minnesota and Nebraska, and it is considered the most widely spoken Dakota dialect.
+2. Yankton-Yanktonai: This dialect is spoken by the Yankton and Yanktonai Dakota people in South Dakota and North Dakota. It is often classified as a separate dialect, although there is considerable overlap with the Santee dialect.
+3. Teton: This dialect is spoken by the Teton Dakota people, who are part of the Lakota-Dakota-Nakota people. The Teton dialect is spoken primarily in South Dakota, North Dakota, and Montana, and it shares many similarities with the Lakota language.
+It's important to note that these dialects are not mutually unintelligible, meaning speakers of different Dakota dialects can generally understand each other. However, there may be some differences in pronunciation, vocabulary, and grammar between the dialects. To utilize Dakota language transcription services, follow these steps:
+1. Find a Professional Transcription Service: Look for a transcription service with experience in Dakota language transcription. You may search online or ask for recommendations from language organizations or community groups specializing in indigenous languages.
+2. Contact the Service Provider: Reach out to the transcription service and inquire about their Dakota language transcription services. Discuss your specific needs, such as the length of the audio or video file, turnaround time requirements, and any formatting instructions.
+3. Share the Audio or Video Content: Provide the transcription service with the audio or video content that needs to be transcribed. Make sure to provide clear instructions about the language (Dakota) and any specific vocabulary or terminology that the transcriptionist should be aware of.
+4. Specify Formatting and Output: Let the transcription service know how you would like the final transcription to be delivered to you. This could be in the form of a Word document, PDF, or another format. Additionally, specify any specific formatting requirements like timestamps or speaker identification if necessary.
+5. Discuss Payment and Turnaround Time: Agree on the payment terms with the transcription service. They may charge based on the length of the content or per hour of transcription. Discuss the turnaround time for the transcription and ensure it aligns with your expectations and deadlines.
+6. Review the Transcription: Once the transcription is delivered, carefully review it for accuracy. If there are any errors or omissions, provide feedback to the transcription service, so they can make necessary corrections.
+7. Payment and Feedback: Pay the transcription service promptly based on the agreed terms. Also, provide feedback on the quality of the transcription and the overall service experience, as this helps the service provider improve their services.
+Remember, it is essential to respect and support the indigenous language community while utilizing Dakota language transcription services. Dakota is a Siouan language that is spoken primarily in the United States and Canada. It is one of the six languages of the Sioux people, which also include Lakota and Nakota. Dakota is spoken primarily in the following countries:
+1. United States: Dakota is spoken by Dakota, Lakota, and Nakota people in various states across the northern plains region, including North Dakota, South Dakota, Nebraska, Minnesota, and Montana.
+2. Canada: Dakota is also spoken by Dakota First Nations communities in the Canadian provinces of Manitoba and Saskatchewan. Transcription is needed for the Dakota language, as well as for any language, for several reasons:
+1. Preserving and documenting the language: Transcription allows for the preservation and documentation of the Dakota language. By transcribing spoken words into written form, valuable information about the language can be recorded and studied for future generations.
+2. Language revitalization efforts: The Dakota language, like many indigenous languages, has experienced a decline in speakers over the years. Transcription plays a crucial role in language revitalization efforts, as it helps in creating language resources such as dictionaries, textbooks, and online materials. These resources can aid in language teaching and learning, ensuring the language's survival and passing it on to new generations.
+3. Linguistic analysis and research: Transcription helps linguists and researchers analyze and study the different aspects of the Dakota language, such as its phonetics, phonology, grammar, and syntax. Transcription allows for a systematic representation of the language's speech sounds and structures, enabling researchers to gain insights into its linguistic properties.
+4. Accessibility and communication: Transcribing the Dakota language makes it accessible to a wider audience, including those who may not be proficient in speaking or understanding the language. Transcriptions can be used for creating subtitles, captions, or translations, enabling effective communication and inclusivity.
+Overall, transcription is necessary for the Dakota language to ensure its preservation, support language revitalization efforts, facilitate linguistic research, and enhance accessibility.</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Dakota  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>Capital Typing offers professional Dakota language transcription services to assist individuals and organizations in accurately transcribing audio or video content in the Dakota language. As a Siouan language spoken primarily in the United States and Canada, Dakota holds significant cultural and historical importance. Our transcription services aim to support the preservation, revitalization, and accessibility of the Dakota language.
+Dakota is spoken by the Dakota, Lakota, and Nakota people across various states in the northern plains region of the United States, including North Dakota, South Dakota, Nebraska, Minnesota, and Montana. It is also spoken by Dakota First Nations communities in the Canadian provinces of Manitoba and Saskatchewan. With a decline in Dakota language speakers over the years, transcription plays a critical role in preserving and documenting the language.
+By transcribing spoken Dakota words into written form, valuable linguistic information can be recorded and studied for future generations. Transcription aids in creating resources like dictionaries, textbooks, and online materials, which are essential for language teaching and learning. This supports language revitalization efforts and ensures the survival of the Dakota language, passing it on to new generations.
+The transcription of the Dakota language also assists linguists and researchers in conducting analysis and research on various aspects of the language. It enables the study of phonetics, phonology, grammar, and syntax, providing insights into the linguistic properties of Dakota. Furthermore, transcription helps create accessibility and communication by making the Dakota language available to a wider audience, including those who may not be proficient in speaking or understanding the language. Transcriptions can be used for creating subtitles, captions, or translations, thus facilitating effective communication and inclusivity.
+At Capital Typing, we understand the importance of providing accurate and reliable Dakota language transcription services. Our team of experienced transcriptionists has expertise in transcribing Dakota audio and video content, ensuring the highest level of quality and precision. We utilize advanced technology and a thorough quality assurance process to deliver transcriptions that meet your specific needs.
+To utilize our Dakota language transcription services, simply reach out to us with your requirements. We will discuss the details of your project, including the length of the content, turnaround time, and any specific formatting instructions. Once we have a clear understanding of your needs, you can share the audio or video content that requires transcription.
+Upon completion, we will deliver the transcription to you in the format of your choice, such as a Word document or PDF. We encourage you to review the transcription for accuracy, and any necessary corrections will be promptly made. Our payment terms are agreed upon prior to the commencement of the project, ensuring a transparent and hassle-free process.
+By choosing Capital Typing for your Dakota language transcription needs, you can trust that your content will be transcribed with precision, respect for the language, and a commitment to supporting the preservation and accessibility of the Dakota language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Danish</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sure, I'm here to help! What do you need assistance with?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Danish language transcription services</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>There are several professional transcription services that offer Danish language transcription. Here are a few options to consider:
+1. GMR Transcription: GMR Transcription provides accurate and reliable Danish transcription services. They have a team of experienced linguists who specialize in transcribing Danish audio and video files.
+2. Rev: Rev offers transcription services in over 30 languages, including Danish. They have a network of experienced transcribers who are native speakers of Danish and can provide high-quality and accurate transcriptions.
+3. TranscriptionStar: TranscriptionStar is another reputable company that offers Danish language transcription. They have a team of native Danish linguists who are well-versed in transcribing audio and video files accurately and efficiently.
+4. Way With Words: Way With Words is a global transcription service provider that offers Danish transcription services. They have a team of native Danish transcribers who can handle a variety of transcription needs.
+It's always recommended to research and compare different transcription services to find the one that best meets your specific requirements in terms of accuracy, turnaround time, pricing, and security.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Danish regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>In Denmark, Danish is the official language and is spoken throughout the entire country. However, there are no specific regions within Denmark where Danish is exclusively spoken. Danish is the primary language used in all parts of Denmark, including cities such as Copenhagen, Aarhus, Odense, Aalborg, and others.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Danish dialects</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Denmark has several dialects, each with its own unique characteristics. The main dialect, Standard Danish, is the official language and is spoken by the majority of the population. However, there are significant regional variations in pronunciation, vocabulary, and grammar.
+Some of the major Danish dialects include Jutlandic, spoken in the Jutland peninsula, which has a more guttural pronunciation and distinct vocabulary. Zealandic, spoken on the island of Zealand and in the capital city, Copenhagen, is considered to have the most "standard" Danish pronunciation.
+Other dialects include Funen dialect, spoken on the island of Funen, which is known for its sing-song quality and distinct pronunciation. Bornholmsk, spoken on the island of Bornholm, has more similarities to Swedish and is influenced by the island's proximity to Sweden.
+Furthermore, there are dialects spoken by minority groups such as the German-speaking community in the southern region of Denmark and the Danish-speaking communities in Greenland and the Faroe Islands.
+It's important to note that while regional dialects exist, most Danish people are able to understand and communicate with one another, regardless of the specific dialect spoken.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>How can someone utilize Danish language transcription services</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>To utilize Danish language transcription services effectively, follow these steps:
+1. Determine your need: Identify what type of transcription service you require. For example, is it for a business meeting, interview, conference, or legal proceeding? This will help you choose the right service provider.
+2. Choose a reputable service provider: Research and select a reliable Danish language transcription service. Look for providers with positive reviews, experienced transcriptionists, and accurate transcriptions.
+3. Specify your requirements: Clearly communicate your specific requirements to the service provider. Inform them of any specific formatting, timestamping, or verbatim requests you might have.
+4. Provide clear audio or video files: Ensure that the audio or video files you provide for transcription are of good quality. Clear and high-quality recordings will improve accuracy and reduce transcription time.
+5. Consider confidentiality: If your transcription contains sensitive or confidential information, discuss the service provider's data security measures and ensure they have appropriate protocols in place.
+6. Review pricing options: Understand the pricing structure before finalizing the service. Transcription service providers may charge per minute of audio/video, per word, or offer package rates. Compare different providers and choose the one that fits your budget.
+7. Review and proofread: Once you receive the transcription, thoroughly review it for accuracy, grammatical errors, and any missing information. If necessary, proofread the document or have a Danish-speaking individual check it.
+Remember, effective communication with the transcription service provider is crucial to get the desired results.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Countries where Danish is spoken</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Danish is the official language of Denmark and also has official status in the Faroe Islands and Greenland. While Danish is primarily spoken in these three regions, it is also spoken by Danish communities around the world, particularly in countries like the United States, Canada, Germany, Sweden, Norway, the United Kingdom, Australia, and New Zealand. Additionally, Danish is commonly taught as a foreign language in schools and universities in various countries.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Danish language</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Danish language for a few reasons:
+1. Danish has a unique pronunciation that is not immediately obvious from its written form. Transcription helps to clarify the correct pronunciation of Danish words, especially for non-native speakers or those who are unfamiliar with the language.
+2. Danish has several specific phonetic features that can be challenging for learners. Transcribing the language can help learners to better understand and internalize these features, such as the pronunciation of vowels or the reduction of certain sounds in certain contexts.
+3. Transcription is commonly used for language learning and teaching purposes. It allows language learners to practice their listening skills, as they can compare the transcription to the actual pronunciation and identify any differences or challenges they may encounter.
+4. Transcription is also useful in linguistic research and analysis. It allows linguists to study the phonetics and phonology of the Danish language in a more precise and systematic manner, helping to uncover patterns and rules that may not be immediately apparent.
+Overall, transcription helps to bridge the gap between the written and spoken forms of the Danish language, making it more accessible and facilitating better communication and understanding for both learners and researchers.</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>Sure, I'm here to help! What do you need assistance with? There are several professional transcription services that offer Danish language transcription. Here are a few options to consider:
+1. GMR Transcription: GMR Transcription provides accurate and reliable Danish transcription services. They have a team of experienced linguists who specialize in transcribing Danish audio and video files.
+2. Rev: Rev offers transcription services in over 30 languages, including Danish. They have a network of experienced transcribers who are native speakers of Danish and can provide high-quality and accurate transcriptions.
+3. TranscriptionStar: TranscriptionStar is another reputable company that offers Danish language transcription. They have a team of native Danish linguists who are well-versed in transcribing audio and video files accurately and efficiently.
+4. Way With Words: Way With Words is a global transcription service provider that offers Danish transcription services. They have a team of native Danish transcribers who can handle a variety of transcription needs.
+It's always recommended to research and compare different transcription services to find the one that best meets your specific requirements in terms of accuracy, turnaround time, pricing, and security. In Denmark, Danish is the official language and is spoken throughout the entire country. However, there are no specific regions within Denmark where Danish is exclusively spoken. Danish is the primary language used in all parts of Denmark, including cities such as Copenhagen, Aarhus, Odense, Aalborg, and others. Denmark has several dialects, each with its own unique characteristics. The main dialect, Standard Danish, is the official language and is spoken by the majority of the population. However, there are significant regional variations in pronunciation, vocabulary, and grammar.
+Some of the major Danish dialects include Jutlandic, spoken in the Jutland peninsula, which has a more guttural pronunciation and distinct vocabulary. Zealandic, spoken on the island of Zealand and in the capital city, Copenhagen, is considered to have the most "standard" Danish pronunciation.
+Other dialects include Funen dialect, spoken on the island of Funen, which is known for its sing-song quality and distinct pronunciation. Bornholmsk, spoken on the island of Bornholm, has more similarities to Swedish and is influenced by the island's proximity to Sweden.
+Furthermore, there are dialects spoken by minority groups such as the German-speaking community in the southern region of Denmark and the Danish-speaking communities in Greenland and the Faroe Islands.
+It's important to note that while regional dialects exist, most Danish people are able to understand and communicate with one another, regardless of the specific dialect spoken. To utilize Danish language transcription services effectively, follow these steps:
+1. Determine your need: Identify what type of transcription service you require. For example, is it for a business meeting, interview, conference, or legal proceeding? This will help you choose the right service provider.
+2. Choose a reputable service provider: Research and select a reliable Danish language transcription service. Look for providers with positive reviews, experienced transcriptionists, and accurate transcriptions.
+3. Specify your requirements: Clearly communicate your specific requirements to the service provider. Inform them of any specific formatting, timestamping, or verbatim requests you might have.
+4. Provide clear audio or video files: Ensure that the audio or video files you provide for transcription are of good quality. Clear and high-quality recordings will improve accuracy and reduce transcription time.
+5. Consider confidentiality: If your transcription contains sensitive or confidential information, discuss the service provider's data security measures and ensure they have appropriate protocols in place.
+6. Review pricing options: Understand the pricing structure before finalizing the service. Transcription service providers may charge per minute of audio/video, per word, or offer package rates. Compare different providers and choose the one that fits your budget.
+7. Review and proofread: Once you receive the transcription, thoroughly review it for accuracy, grammatical errors, and any missing information. If necessary, proofread the document or have a Danish-speaking individual check it.
+Remember, effective communication with the transcription service provider is crucial to get the desired results. Danish is the official language of Denmark and also has official status in the Faroe Islands and Greenland. While Danish is primarily spoken in these three regions, it is also spoken by Danish communities around the world, particularly in countries like the United States, Canada, Germany, Sweden, Norway, the United Kingdom, Australia, and New Zealand. Additionally, Danish is commonly taught as a foreign language in schools and universities in various countries. Transcription is needed for the Danish language for a few reasons:
+1. Danish has a unique pronunciation that is not immediately obvious from its written form. Transcription helps to clarify the correct pronunciation of Danish words, especially for non-native speakers or those who are unfamiliar with the language.
+2. Danish has several specific phonetic features that can be challenging for learners. Transcribing the language can help learners to better understand and internalize these features, such as the pronunciation of vowels or the reduction of certain sounds in certain contexts.
+3. Transcription is commonly used for language learning and teaching purposes. It allows language learners to practice their listening skills, as they can compare the transcription to the actual pronunciation and identify any differences or challenges they may encounter.
+4. Transcription is also useful in linguistic research and analysis. It allows linguists to study the phonetics and phonology of the Danish language in a more precise and systematic manner, helping to uncover patterns and rules that may not be immediately apparent.
+Overall, transcription helps to bridge the gap between the written and spoken forms of the Danish language, making it more accessible and facilitating better communication and understanding for both learners and researchers.</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Danish  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Reliable Choice for Danish Transcription Services
+If you are in need of accurate and reliable Danish transcription services, look no further than Capital Typing. With years of experience in providing transcription services in multiple languages, including Danish, Capital Typing is a reputable and reliable choice for all your transcription needs.
+Our team of experienced and highly skilled linguists specializes in transcribing Danish audio and video files with utmost accuracy and efficiency. We understand the importance of providing high-quality transcriptions that capture every nuance of the Danish language, ensuring that you receive an excellent end product that meets your specific requirements.
+At Capital Typing, we take pride in our network of native Danish transcribers who are well-versed in the intricacies of the Danish language. They are familiar with the various dialects and regional variations, allowing them to produce transcriptions that accurately reflect the nuances of the original content while ensuring it is easily understandable to a broader audience.
+Whether you need transcription services for business meetings, interviews, conferences, legal proceedings, or any other purpose, our team is equipped to handle the task efficiently. We offer a range of transcription services tailored to your specific needs, including verbatim or summarized transcriptions, timestamping, and formatting.
+When it comes to delivering high-quality transcriptions, audio or video file quality is essential. Clear and high-quality recordings improve accuracy and reduce transcription time. We recommend providing clear audio or video files to ensure the best possible transcription results.
+Confidentiality is of utmost importance to us. We understand that some transcriptions may contain sensitive or confidential information. Rest assured that we have robust data security measures in place to protect your information and confidentiality throughout the transcription process.
+Pricing is always an important consideration when selecting transcription services. At Capital Typing, we offer competitive pricing options to fit a variety of budgets. Our transparent pricing structure ensures that you only pay for the services you need, without any hidden costs or surprises.
+Before finalizing the service, we encourage you to thoroughly review the transcription for accuracy, grammatical errors, and any missing information. If necessary, you can have a Danish-speaking individual proofread the document or make further edits.
+Capital Typing understands the importance of effective communication with our clients. We are committed to providing exceptional customer service and ensuring that your specific requirements are met. Our dedicated team is always available to assist you and address any questions or concerns you may have throughout the transcription process.
+Choose Capital Typing for all your Danish transcription needs and experience the difference of high-quality transcriptions delivered with accuracy, efficiency, and professionalism. Contact us today to discuss your requirements and receive a personalized quote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dari</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dari is a language spoken in Afghanistan and some parts of Pakistan. It is one of the two official languages of Afghanistan, along with Pashto. Dari is an Indo-Iranian language and is also known as Afghan Persian. It shares many similarities with the Persian language spoken in Iran. Dari uses the Arabic script for writing. Is there something specific you would like to know or need help with Dari?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Dari language transcription services</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>I can assist you with Dari language transcription services.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dari regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dari, also known as Afghan Persian, is primarily spoken in Afghanistan and parts of Pakistan, Iran, and Tajikistan. It is one of the official languages of Afghanistan, alongside Pashto, and is widely understood in the capital city of Kabul as well as major cities and urban areas. In Pakistan, Dari is spoken by the Hazara community in areas such as Quetta and surrounding regions. In Iran, Dari is spoken by a large number of ethnic Tajiks, particularly in the eastern provinces. Additionally, Dari is also spoken by the Tajik population in Tajikistan.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Dari dialects</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Dari is one of the officially recognized languages in Afghanistan and is also spoken in parts of Iran, Tajikistan, and Pakistan. While Dari is considered a dialect of Persian, it has its own unique characteristics and variations. Here are some dialects of Dari:
+1. Kabul Dari: Also known as Afghan Persian, this dialect is widely spoken in the capital city of Kabul and its surrounding regions. It is considered the standard form of Dari and is widely understood throughout Afghanistan.
+2. Herati Dari: Spoken in the city of Herat and its surrounding areas in western Afghanistan, Herati Dari has its own distinct features in terms of vocabulary, pronunciation, and grammar.
+3. Kandahari Dari: This dialect is spoken in the southern city of Kandahar and its nearby regions. It has some similarities to the Pashto language, which is also widely spoken in the area.
+4. Northern Dari: This dialect is spoken in the northern regions of Afghanistan, particularly in cities like Mazar-i-Sharif and Kunduz. It bears some influences from Tajik and Uzbek languages.
+5. Eastern Dari: Spoken in the eastern regions of Afghanistan, such as Jalalabad and Khost, this dialect has its own unique variations and influences from neighboring languages.
+It's important to note that while these dialects exist, Dari speakers from different regions can generally understand and communicate with each other, as there is a high degree of mutual intelligibility among the dialects.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>How can someone utilize Dari language transcription services</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>To utilize Dari language transcription services, follow these steps:
+1. Research and select a reputable transcription service provider that offers Dari language transcription. Look for companies that specialize in Dari or have experience with the language.
+2. Contact the chosen service provider and discuss your specific transcription needs. Explain the purpose of transcription, whether it's for personal, academic, or professional use, and the format you require (verbatim, summarized, time-coded, etc.).
+3. Provide the audio or video file to the service provider. Ensure that the quality of the audio is clear and audible, as this will facilitate accurate transcription.
+4. Discuss any specific instructions or preferences you have regarding the transcription process. This could include formatting requirements, timestamping, or highlighting important sections of the transcription.
+5. Agree on a timeline for the completion of the transcription and discuss any urgency or deadline requirements you may have. Make sure the service provider is aware of your desired turnaround time.
+6. Consider discussing any additional services that may be available, such as translation or captioning, if needed.
+7. Once the transcription is complete, review the final product for accuracy and quality. Provide feedback to the service provider if necessary, ensuring any revisions or corrections are made.
+8. If you are satisfied with the transcription, make the required payment to the service provider according to the agreed-upon terms.
+Remember, clear communication with the service provider is essential to ensure accurate and satisfactory results.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Countries where Dari is spoken</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Dari, also known as Afghan Persian, is primarily spoken in the following countries:
+1. Afghanistan: Dari is one of Afghanistan's official languages and is spoken by over 50% of the population.
+2. Iran: Dari is spoken by the Afghan community in Iran, particularly in the Khorasan region.
+3. Tajikistan: Dari is spoken by a minority group in Tajikistan, primarily in the southern regions bordering Afghanistan.
+4. Pakistan: Dari is spoken by some Afghan refugees and their descendants in Pakistan.
+Please note that while Dari is predominantly spoken in these countries, there may be smaller diaspora communities in other parts of the world where the language is also used.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Dari language</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Dari language, as it helps to improve communication and understanding. Here are a few reasons for the importance of transcription in Dari:
+1. Dari is written in a modified form of the Arabic script with additional letters. Transcribing Dari into the Latin alphabet can make it easier for non-native speakers to learn and understand the language.
+2. Dari has various dialects, and transcription can help in standardizing the pronunciation across different regions. This allows for consistent communication and comprehension among Dari speakers.
+3. Transcription is crucial for language learning materials, language dictionaries, and academic research. It allows linguists, students, and researchers to study and analyze the language more effectively.
+4. In the digital age, transcription facilitates the use of Dari on computers and other devices that may not support the Arabic script. Transcribing Dari into the Latin alphabet enables easy typing and digital communication.
+5. Transcription also helps individuals with reading and writing difficulties, as it provides a phonetic representation of the language that can be easily deciphered.
+Overall, transcription plays a vital role in promoting effective communication, learning, and accessibility for the Dari language.</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>Dari is a language spoken in Afghanistan and some parts of Pakistan. It is one of the two official languages of Afghanistan, along with Pashto. Dari is an Indo-Iranian language and is also known as Afghan Persian. It shares many similarities with the Persian language spoken in Iran. Dari uses the Arabic script for writing. Is there something specific you would like to know or need help with Dari? I can assist you with Dari language transcription services. Dari, also known as Afghan Persian, is primarily spoken in Afghanistan and parts of Pakistan, Iran, and Tajikistan. It is one of the official languages of Afghanistan, alongside Pashto, and is widely understood in the capital city of Kabul as well as major cities and urban areas. In Pakistan, Dari is spoken by the Hazara community in areas such as Quetta and surrounding regions. In Iran, Dari is spoken by a large number of ethnic Tajiks, particularly in the eastern provinces. Additionally, Dari is also spoken by the Tajik population in Tajikistan. Dari is one of the officially recognized languages in Afghanistan and is also spoken in parts of Iran, Tajikistan, and Pakistan. While Dari is considered a dialect of Persian, it has its own unique characteristics and variations. Here are some dialects of Dari:
+1. Kabul Dari: Also known as Afghan Persian, this dialect is widely spoken in the capital city of Kabul and its surrounding regions. It is considered the standard form of Dari and is widely understood throughout Afghanistan.
+2. Herati Dari: Spoken in the city of Herat and its surrounding areas in western Afghanistan, Herati Dari has its own distinct features in terms of vocabulary, pronunciation, and grammar.
+3. Kandahari Dari: This dialect is spoken in the southern city of Kandahar and its nearby regions. It has some similarities to the Pashto language, which is also widely spoken in the area.
+4. Northern Dari: This dialect is spoken in the northern regions of Afghanistan, particularly in cities like Mazar-i-Sharif and Kunduz. It bears some influences from Tajik and Uzbek languages.
+5. Eastern Dari: Spoken in the eastern regions of Afghanistan, such as Jalalabad and Khost, this dialect has its own unique variations and influences from neighboring languages.
+It's important to note that while these dialects exist, Dari speakers from different regions can generally understand and communicate with each other, as there is a high degree of mutual intelligibility among the dialects. To utilize Dari language transcription services, follow these steps:
+1. Research and select a reputable transcription service provider that offers Dari language transcription. Look for companies that specialize in Dari or have experience with the language.
+2. Contact the chosen service provider and discuss your specific transcription needs. Explain the purpose of transcription, whether it's for personal, academic, or professional use, and the format you require (verbatim, summarized, time-coded, etc.).
+3. Provide the audio or video file to the service provider. Ensure that the quality of the audio is clear and audible, as this will facilitate accurate transcription.
+4. Discuss any specific instructions or preferences you have regarding the transcription process. This could include formatting requirements, timestamping, or highlighting important sections of the transcription.
+5. Agree on a timeline for the completion of the transcription and discuss any urgency or deadline requirements you may have. Make sure the service provider is aware of your desired turnaround time.
+6. Consider discussing any additional services that may be available, such as translation or captioning, if needed.
+7. Once the transcription is complete, review the final product for accuracy and quality. Provide feedback to the service provider if necessary, ensuring any revisions or corrections are made.
+8. If you are satisfied with the transcription, make the required payment to the service provider according to the agreed-upon terms.
+Remember, clear communication with the service provider is essential to ensure accurate and satisfactory results. Dari, also known as Afghan Persian, is primarily spoken in the following countries:
+1. Afghanistan: Dari is one of Afghanistan's official languages and is spoken by over 50% of the population.
+2. Iran: Dari is spoken by the Afghan community in Iran, particularly in the Khorasan region.
+3. Tajikistan: Dari is spoken by a minority group in Tajikistan, primarily in the southern regions bordering Afghanistan.
+4. Pakistan: Dari is spoken by some Afghan refugees and their descendants in Pakistan.
+Please note that while Dari is predominantly spoken in these countries, there may be smaller diaspora communities in other parts of the world where the language is also used. Transcription is needed for the Dari language, as it helps to improve communication and understanding. Here are a few reasons for the importance of transcription in Dari:
+1. Dari is written in a modified form of the Arabic script with additional letters. Transcribing Dari into the Latin alphabet can make it easier for non-native speakers to learn and understand the language.
+2. Dari has various dialects, and transcription can help in standardizing the pronunciation across different regions. This allows for consistent communication and comprehension among Dari speakers.
+3. Transcription is crucial for language learning materials, language dictionaries, and academic research. It allows linguists, students, and researchers to study and analyze the language more effectively.
+4. In the digital age, transcription facilitates the use of Dari on computers and other devices that may not support the Arabic script. Transcribing Dari into the Latin alphabet enables easy typing and digital communication.
+5. Transcription also helps individuals with reading and writing difficulties, as it provides a phonetic representation of the language that can be easily deciphered.
+Overall, transcription plays a vital role in promoting effective communication, learning, and accessibility for the Dari language.</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Dari  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>Dari transcription services are essential for effective communication and accessibility in the Dari language. Dari, also known as Afghan Persian, is primarily spoken in Afghanistan, Iran, Tajikistan, and Pakistan. It is one of the official languages of Afghanistan and is widely understood in major cities and urban areas, including the capital city of Kabul. Dari is written using a modified form of the Arabic script.
+When it comes to transcription services, it is crucial to choose a reputable provider that specializes in Dari or has experience with the language. Capital Typing, for example, offers professional Dari transcription services. With their expertise, they can accurately transcribe audio or video files, whether the transcription is needed for personal, academic, or professional use.
+To utilize Dari transcription services, follow these steps:
+1. Research and select a reputable transcription service provider like Capital Typing that specializes in Dari or has experience with the language.
+2. Contact the service provider and discuss your specific transcription needs. Explain the purpose of the transcription, such as whether it is for personal, academic, or professional use, and the format you require, such as verbatim, summarized, or time-coded.
+3. Provide the audio or video file to the service provider, ensuring that the quality is clear and audible to facilitate accurate transcription.
+4. Discuss any specific instructions or preferences you have regarding the transcription process. For example, you may have specific formatting requirements, timestamping needs, or important sections that you want to be highlighted in the transcription.
+5. Agree on a timeline for the completion of the transcription and discuss any urgency or deadline requirements you may have. It is important to communicate your desired turnaround time to the service provider.
+6. Consider discussing any additional services that may be available, such as translation or captioning, if needed. Capital Typing, for example, offers translation services in addition to transcription.
+7. Once the transcription is complete, review the final product for accuracy and quality. Provide feedback to the service provider if necessary, ensuring any revisions or corrections are made.
+8. If you are satisfied with the transcription, make the required payment to the service provider according to the agreed-upon terms.
+Transcription is crucial for the Dari language for various reasons. It helps to standardize pronunciation across different dialects and allows for consistent communication and comprehension among Dari speakers. Transcription also plays a role in language learning materials, dictionaries, and academic research, enabling effective study and analysis of the language.
+Moreover, transcription facilitates the use of Dari on digital platforms and devices that may not support the Arabic script. Transcribing Dari into the Latin alphabet allows for easy typing and digital communication. Additionally, transcription assists individuals with reading and writing difficulties, as it provides a phonetic representation of the language that can be easily deciphered.
+In conclusion, Dari transcription services are essential for promoting effective communication, learning, and accessibility in the Dari language. By choosing a reputable provider like Capital Typing, you can ensure accurate and high-quality transcription for your personal, academic, or professional needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dholuo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dholuo, also known as Luo, is a Nilotic language spoken by the Luo people of Kenya and Tanzania. How can I assist you with Dholuo?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Dholuo language transcription services</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>I'm sorry, but as a text-based AI assistant, I am unable to provide transcription services for the Dholuo language. However, there are professional transcription services available online that may be able to assist you.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Dholuo regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Dholuo, also known as Luo, is a Nilotic language primarily spoken in western Kenya. It is mainly spoken by the Luo people, but it can also be found in small communities in neighboring countries such as Tanzania and Uganda. In Kenya, Dholuo is primarily spoken in the following regions:
+1. Nyanza Province: This is the ancestral home of the Luo people and is considered the heartland of Dholuo. It includes counties such as Kisumu, Homa Bay, Siaya, and Migori.
+2. Nairobi: Due to urbanization and migration, there is a significant Luo population in the capital city, Nairobi. Many Luo people have migrated to Nairobi for employment and business opportunities.
+3. Western Province: While Dholuo is not the dominant language in western Kenya, it is spoken by some communities in parts of Busia and Bungoma counties, which are historically known to have some Luo presence.
+4. Rift Valley Province: Dholuo can also be found in some areas of the Rift Valley, particularly in Kericho and Bomet counties, where there are some Luo communities.
+It's important to note that while Dholuo is primarily spoken in these regions, there may be pockets of Luo speakers in other parts of Kenya as well.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dholuo dialects</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Dholuo (also spelled Dholo, Luo, or Luo-Kisumo) is a dialect spoken by the Luo people in Kenya and Tanzania. It is part of the larger Luo language family, which also includes other dialects like Acholi, Alur, Lango, and Adhola. 
+Within Dholuo itself, there are some variations in pronunciation and vocabulary between different regions where it is spoken. For example, Dholuo in Kenya may have slight differences compared to Dholuo spoken in Tanzania.
+Despite these variations, Dholuo speakers generally have mutual intelligibility and can understand each other with little difficulty. It is a tonal language, meaning that the meaning of words can change with differences in tone.
+Dholuo is primarily an oral language, but efforts have been made to develop a written form using the Latin alphabet. This has helped to preserve and promote the language through written literature, newspapers, and other media.
+Dholuo is also used as a lingua franca among different ethnic groups in western Kenya, and it is one of the national languages of Kenya, recognized alongside English and Swahili.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>How can someone utilize Dholuo language transcription services</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>To utilize Dholuo language transcription services effectively, you can follow these steps:
+1. Identify your needs: Determine the specific purpose for which you require Dholuo language transcription services. Is it for translating audio or video content, transcribing interviews or recordings, or any other specific task?
+2. Find a reliable service provider: Look for reputable transcription service providers that specialize in Dholuo language transcription. Conduct thorough research to ensure they have the necessary expertise and experience in transcribing Dholuo content accurately.
+3. Provide clear instructions: Clearly communicate your requirements to the service provider. Specify the format of the transcription (e.g., text document, timestamps), the level of accuracy needed, and any specific formatting guidelines.
+4. Submit the audio or video content: Provide the service provider with the audio or video file of the content you need transcribed. Ensure the file is of good quality and clearly audible for accurate transcription.
+5. Verify accuracy: Once the transcription is delivered, carefully review it to ensure accuracy. Verify that names, technical terms, and other specifics are transcribed correctly. If any changes or corrections are needed, promptly communicate with the service provider.
+6. Confidentiality and privacy: If your content requires confidentiality, ensure the service provider guarantees data security and confidentiality. This is particularly important when dealing with sensitive or personal information.
+7. Payment and finalization: Arrange payment as per the agreed terms and finalize the transaction. Provide feedback to the service provider about your experience and the quality of the transcription.
+By following these steps, you can effectively utilize Dholuo language transcription services and obtain accurate and reliable transcriptions for your specific needs.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Countries where Dholuo is spoken</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Dholuo, also known as Luo, is primarily spoken in Kenya, specifically in the western region of the country. It is the native language of the Luo people. Dholuo is also spoken in some parts of Tanzania, particularly in the Mara Region, as well as in Uganda, South Sudan, and Ethiopia, where there are Luo communities.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Dholuo language</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Transcription is needed for any language, including Dholuo, for several reasons:
+1. Standardization: Dholuo, like any other language, has multiple dialects and variations. Transcription helps to create a standardized way of representing the language, which is useful for educational materials, dictionaries, and communication across different regions where Dholuo is spoken.
+2. Documentation: Transcription allows for the preservation and documentation of the Dholuo language. By recording the spoken language in written form, linguists and researchers can study its structure, vocabulary, and grammar, and create valuable resources for future generations.
+3. Language Learning: Transcription is essential for teaching and learning the Dholuo language. It enables learners to study the language independently, practice pronunciation, and understand the written form of the language alongside the oral expression.
+4. Accessibility: Dholuo transcription makes the language more accessible to a wider audience. It allows non-native speakers to learn the language, and it also helps individuals with hearing impairments to access Dholuo audio content through written transcripts.
+5. Communication and Translation: Transcription facilitates translation between Dholuo and other languages. It enables translators to accurately transcribe spoken Dholuo into a written form, making it easier to translate the text into other languages or vice versa.
+Overall, transcription plays a crucial role in standardizing, documenting, learning, and translating the Dholuo language, making it more accessible and ensuring its preservation for future generations.</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>Dholuo, also known as Luo, is a Nilotic language spoken by the Luo people of Kenya and Tanzania. How can I assist you with Dholuo? I'm sorry, but as a text-based AI assistant, I am unable to provide transcription services for the Dholuo language. However, there are professional transcription services available online that may be able to assist you. Dholuo, also known as Luo, is a Nilotic language primarily spoken in western Kenya. It is mainly spoken by the Luo people, but it can also be found in small communities in neighboring countries such as Tanzania and Uganda. In Kenya, Dholuo is primarily spoken in the following regions:
+1. Nyanza Province: This is the ancestral home of the Luo people and is considered the heartland of Dholuo. It includes counties such as Kisumu, Homa Bay, Siaya, and Migori.
+2. Nairobi: Due to urbanization and migration, there is a significant Luo population in the capital city, Nairobi. Many Luo people have migrated to Nairobi for employment and business opportunities.
+3. Western Province: While Dholuo is not the dominant language in western Kenya, it is spoken by some communities in parts of Busia and Bungoma counties, which are historically known to have some Luo presence.
+4. Rift Valley Province: Dholuo can also be found in some areas of the Rift Valley, particularly in Kericho and Bomet counties, where there are some Luo communities.
+It's important to note that while Dholuo is primarily spoken in these regions, there may be pockets of Luo speakers in other parts of Kenya as well. Dholuo (also spelled Dholo, Luo, or Luo-Kisumo) is a dialect spoken by the Luo people in Kenya and Tanzania. It is part of the larger Luo language family, which also includes other dialects like Acholi, Alur, Lango, and Adhola. 
+Within Dholuo itself, there are some variations in pronunciation and vocabulary between different regions where it is spoken. For example, Dholuo in Kenya may have slight differences compared to Dholuo spoken in Tanzania.
+Despite these variations, Dholuo speakers generally have mutual intelligibility and can understand each other with little difficulty. It is a tonal language, meaning that the meaning of words can change with differences in tone.
+Dholuo is primarily an oral language, but efforts have been made to develop a written form using the Latin alphabet. This has helped to preserve and promote the language through written literature, newspapers, and other media.
+Dholuo is also used as a lingua franca among different ethnic groups in western Kenya, and it is one of the national languages of Kenya, recognized alongside English and Swahili. To utilize Dholuo language transcription services effectively, you can follow these steps:
+1. Identify your needs: Determine the specific purpose for which you require Dholuo language transcription services. Is it for translating audio or video content, transcribing interviews or recordings, or any other specific task?
+2. Find a reliable service provider: Look for reputable transcription service providers that specialize in Dholuo language transcription. Conduct thorough research to ensure they have the necessary expertise and experience in transcribing Dholuo content accurately.
+3. Provide clear instructions: Clearly communicate your requirements to the service provider. Specify the format of the transcription (e.g., text document, timestamps), the level of accuracy needed, and any specific formatting guidelines.
+4. Submit the audio or video content: Provide the service provider with the audio or video file of the content you need transcribed. Ensure the file is of good quality and clearly audible for accurate transcription.
+5. Verify accuracy: Once the transcription is delivered, carefully review it to ensure accuracy. Verify that names, technical terms, and other specifics are transcribed correctly. If any changes or corrections are needed, promptly communicate with the service provider.
+6. Confidentiality and privacy: If your content requires confidentiality, ensure the service provider guarantees data security and confidentiality. This is particularly important when dealing with sensitive or personal information.
+7. Payment and finalization: Arrange payment as per the agreed terms and finalize the transaction. Provide feedback to the service provider about your experience and the quality of the transcription.
+By following these steps, you can effectively utilize Dholuo language transcription services and obtain accurate and reliable transcriptions for your specific needs. Dholuo, also known as Luo, is primarily spoken in Kenya, specifically in the western region of the country. It is the native language of the Luo people. Dholuo is also spoken in some parts of Tanzania, particularly in the Mara Region, as well as in Uganda, South Sudan, and Ethiopia, where there are Luo communities. Transcription is needed for any language, including Dholuo, for several reasons:
+1. Standardization: Dholuo, like any other language, has multiple dialects and variations. Transcription helps to create a standardized way of representing the language, which is useful for educational materials, dictionaries, and communication across different regions where Dholuo is spoken.
+2. Documentation: Transcription allows for the preservation and documentation of the Dholuo language. By recording the spoken language in written form, linguists and researchers can study its structure, vocabulary, and grammar, and create valuable resources for future generations.
+3. Language Learning: Transcription is essential for teaching and learning the Dholuo language. It enables learners to study the language independently, practice pronunciation, and understand the written form of the language alongside the oral expression.
+4. Accessibility: Dholuo transcription makes the language more accessible to a wider audience. It allows non-native speakers to learn the language, and it also helps individuals with hearing impairments to access Dholuo audio content through written transcripts.
+5. Communication and Translation: Transcription facilitates translation between Dholuo and other languages. It enables translators to accurately transcribe spoken Dholuo into a written form, making it easier to translate the text into other languages or vice versa.
+Overall, transcription plays a crucial role in standardizing, documenting, learning, and translating the Dholuo language, making it more accessible and ensuring its preservation for future generations.</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Dholuo  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>Dholuo (also known as Luo) is a Nilotic language primarily spoken by the Luo people in Kenya and Tanzania. As a text-based AI assistant, I am unable to provide transcription services for the Dholuo language. However, if you're looking for professional Dholuo transcription services, there are companies like Capital Typing that can assist you.
+Capital Typing is a reputable transcription service provider that offers accurate and reliable Dholuo transcription services. With their expertise and experience in transcribing Dholuo content, they can effectively handle various transcription needs such as translating audio or video content, transcribing interviews or recordings, and more.
+Utilizing Dholuo transcription services can be a straightforward process when working with a reliable service provider like Capital Typing. Here's a step-by-step guide:
+1. Clearly communicate your needs and requirements to Capital Typing. Let them know the purpose of the transcription and specify any specific formatting guidelines or level of accuracy required.
+2. Provide the audio or video content that needs to be transcribed. Make sure the file is of good quality and clearly audible for accurate transcription.
+3. Capital Typing will assign experienced transcribers who are proficient in Dholuo to transcribe your content. Their transcribers are familiar with the variations in pronunciation and vocabulary between different regions where Dholuo is spoken.
+4. Once the transcription is completed, Capital Typing will deliver the transcript to you in the agreed format, whether it's a text document with or without timestamps.
+5. Review the transcription to ensure its accuracy. If any changes or corrections are needed, promptly communicate with Capital Typing, and they will make the necessary adjustments.
+6. Capital Typing guarantees data security and confidentiality, ensuring the privacy of your content, especially if it contains sensitive or personal information.
+7. Arrange payment as per the agreed terms and provide feedback to Capital Typing about your experience and the quality of the transcription.
+By partnering with a reputable service provider like Capital Typing, you can expect professional and accurate Dholuo transcription services that meet your specific needs. Their expertise and experience in transcribing Dholuo content will ensure that you receive reliable and high-quality transcripts.
+Dholuo transcription services are essential for standardizing, documenting, learning, and translating the Dholuo language. For educational materials, dictionaries, and communication purposes, transcription helps create a standardized representation of the language. It also facilitates language learning and accessibility for non-native speakers and individuals with hearing impairments.
+Additionally, transcription is crucial for preserving and documenting the Dholuo language, allowing linguists and researchers to study its structure, vocabulary, and grammar. Transcription also enables easy translation between Dholuo and other languages, making communication more accessible and ensuring the preservation of Dholuo for future generations.
+If you require Dholuo transcription services, consider working with Capital Typing for accurate and reliable results. They have the expertise and experience to handle your transcription needs professionally, helping to facilitate communication, learning, and preservation of the Dholuo language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dutch</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hoe kan ik je van dienst zijn in het Nederlands?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dutch language transcription services</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>There are several Dutch language transcription services available that can assist you with transcribing audio or video recordings in Dutch. Here are a few reputable options:
+1. Gglot: Gglot provides accurate and efficient Dutch transcription services. They offer a range of pricing options based on the duration of the audio or video file.
+2. Treinamento: Treinamento offers professional Dutch transcription services for a variety of industries. They have experienced Dutch transcribers who can deliver accurate and timely transcriptions.
+3. Rev: Rev is a popular transcription service that offers Dutch transcription services among many other languages. They have a pool of skilled transcribers who can handle different types of audio or video content.
+4. Scribie: Scribie provides fast and accurate Dutch transcription services. They offer a user-friendly platform where you can easily upload your files and receive the transcriptions within a specified time frame.
+When choosing a transcription service, consider factors such as turnaround time, pricing, and accuracy to find the best fit for your needs. It's also helpful to read customer reviews and compare the services before making a decision.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Dutch regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dutch is the official language of the Netherlands and one of the official languages of Belgium. In the Netherlands, Dutch is spoken in all regions, including major cities such as Amsterdam, Rotterdam, The Hague, and Utrecht. In Belgium, Dutch is primarily spoken in the Flemish region, which includes cities like Brussels, Antwerp, Ghent, and Bruges.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dutch dialects</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Dutch dialects refer to the regional variations of the Dutch language spoken in the Netherlands and Belgium. These dialects can differ significantly in terms of pronunciation, vocabulary, and grammar.
+In the Netherlands, there are several dialect groups, such as Low Franconian (spoken in the southern regions), Low Saxon (spoken in the eastern provinces), and Hollandic (spoken in the western regions, including Amsterdam and The Hague). Each of these groups has its own sub-dialects with further variations.
+In Belgium, Dutch dialects are more diverse due to the country's linguistic borders. In Flanders, the northern part of Belgium, dialects are mainly classified into Brabantian (spoken around Brussels), East Flemish (spoken in East Flanders), and West Flemish (spoken in West Flanders). In the southern region of Belgium, known as Wallonia, French is spoken predominantly, but some areas have transitional dialects influenced by both Dutch and French.
+Dutch dialects are characterized by differences in pronunciation, such as the use of different vowel sounds and consonant sounds. Vocabulary can also differ, with some dialects having unique words and expressions that are not commonly used in standard Dutch. Grammar differences exist as well, with variations in verb conjugation and sentence structure.
+It's important to note that while dialects are spoken in local communities, standard Dutch (or Standardized Netherlands) is the official language used in education, government, and media throughout the Dutch-speaking region. However, dialects still play a significant role in the cultural identity and heritage of the Dutch-speaking population.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>How can someone utilize Dutch language transcription services</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>To utilize Dutch language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Search online and compare different transcription service providers to find one that specializes in Dutch transcription and has positive customer reviews.
+2. Submit your audio or video file: Once you've chosen a service provider, visit their website and submit your audio or video file for transcription. Most providers have a simple upload system or allow you to share files through cloud-based services.
+3. Specify transcription requirements: Clearly communicate your transcription requirements to the service provider. Specify that you need the transcription in Dutch and provide any additional instructions, such as formatting preferences or timestamps.
+4. Estimated turnaround time and cost: The transcription service provider will usually provide an estimated turnaround time for the completion of the transcription. They will also inform you of the cost based on factors like the length of the audio/video file and any additional services required.
+5. Confidentiality agreement: Ensure that the transcription service provider guarantees the confidentiality and security of your audio/video content. This is especially important if the content contains sensitive or confidential information.
+6. Review and revise: Once you receive the Dutch transcription, review it for accuracy and clarity. If you come across any errors or inaccuracies, communicate them to the service provider for revision.
+7. Payment: After you're satisfied with the transcription, make the payment as agreed upon with the service provider. Most service providers offer various payment options, such as credit/debit card, bank transfer, or online payment platforms.
+By following these steps, you can effectively utilize Dutch language transcription services to convert your audio or video content into written text.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Countries where Dutch is spoken</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Dutch is primarily spoken in the following countries:
+1. Netherlands
+2. Belgium (Flanders region)
+3. Suriname (official language)
+4. Aruba (co-official language)
+5. Curaçao (co-official language)
+6. Sint Maarten (co-official language)
+7. Bonaire (co-official language)
+8. Saba (co-official language)
+9. Sint Eustatius (co-official language)
+In addition to these countries, there are also Dutch-speaking communities in countries like Germany, France, South Africa, and Indonesia, among others.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Dutch language</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Transcription is the process of converting spoken language into written form. It is useful for the Dutch language for several reasons:
+1. Standardization: Transcription helps to establish a standard system for representing spoken Dutch, ensuring consistency and clarity in written materials. This is particularly important in official documents, educational resources, and media.
+2. Accessibility: Transcription allows individuals with hearing impairments or language difficulties to access and understand spoken Dutch content. It enables them to read and comprehend spoken words, making information more inclusive and accessible.
+3. Language learning: Transcription assists in language learning by providing learners with written text that corresponds to the spoken language. It helps learners understand and practice accurate pronunciation, improve listening comprehension, and build vocabulary and grammar skills.
+4. Research and analysis: Transcription is valuable for linguistic research and analysis of the Dutch language. By transcribing spoken language, linguists and researchers can study phonetic and phonological patterns, analyze discourse and conversation structures, and investigate sociolinguistic variations.
+5. Translation and subtitling: Transcription is often a necessary step in translating spoken Dutch content into other languages or creating subtitles for videos and movies. Transcribing the spoken language provides a written source text that can be easily translated or subtitled for wider accessibility and understanding.</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>Hoe kan ik je van dienst zijn in het Nederlands? There are several Dutch language transcription services available that can assist you with transcribing audio or video recordings in Dutch. Here are a few reputable options:
+1. Gglot: Gglot provides accurate and efficient Dutch transcription services. They offer a range of pricing options based on the duration of the audio or video file.
+2. Treinamento: Treinamento offers professional Dutch transcription services for a variety of industries. They have experienced Dutch transcribers who can deliver accurate and timely transcriptions.
+3. Rev: Rev is a popular transcription service that offers Dutch transcription services among many other languages. They have a pool of skilled transcribers who can handle different types of audio or video content.
+4. Scribie: Scribie provides fast and accurate Dutch transcription services. They offer a user-friendly platform where you can easily upload your files and receive the transcriptions within a specified time frame.
+When choosing a transcription service, consider factors such as turnaround time, pricing, and accuracy to find the best fit for your needs. It's also helpful to read customer reviews and compare the services before making a decision. Dutch is the official language of the Netherlands and one of the official languages of Belgium. In the Netherlands, Dutch is spoken in all regions, including major cities such as Amsterdam, Rotterdam, The Hague, and Utrecht. In Belgium, Dutch is primarily spoken in the Flemish region, which includes cities like Brussels, Antwerp, Ghent, and Bruges. Dutch dialects refer to the regional variations of the Dutch language spoken in the Netherlands and Belgium. These dialects can differ significantly in terms of pronunciation, vocabulary, and grammar.
+In the Netherlands, there are several dialect groups, such as Low Franconian (spoken in the southern regions), Low Saxon (spoken in the eastern provinces), and Hollandic (spoken in the western regions, including Amsterdam and The Hague). Each of these groups has its own sub-dialects with further variations.
+In Belgium, Dutch dialects are more diverse due to the country's linguistic borders. In Flanders, the northern part of Belgium, dialects are mainly classified into Brabantian (spoken around Brussels), East Flemish (spoken in East Flanders), and West Flemish (spoken in West Flanders). In the southern region of Belgium, known as Wallonia, French is spoken predominantly, but some areas have transitional dialects influenced by both Dutch and French.
+Dutch dialects are characterized by differences in pronunciation, such as the use of different vowel sounds and consonant sounds. Vocabulary can also differ, with some dialects having unique words and expressions that are not commonly used in standard Dutch. Grammar differences exist as well, with variations in verb conjugation and sentence structure.
+It's important to note that while dialects are spoken in local communities, standard Dutch (or Standardized Netherlands) is the official language used in education, government, and media throughout the Dutch-speaking region. However, dialects still play a significant role in the cultural identity and heritage of the Dutch-speaking population. To utilize Dutch language transcription services, follow these steps:
+1. Find a reliable transcription service provider: Search online and compare different transcription service providers to find one that specializes in Dutch transcription and has positive customer reviews.
+2. Submit your audio or video file: Once you've chosen a service provider, visit their website and submit your audio or video file for transcription. Most providers have a simple upload system or allow you to share files through cloud-based services.
+3. Specify transcription requirements: Clearly communicate your transcription requirements to the service provider. Specify that you need the transcription in Dutch and provide any additional instructions, such as formatting preferences or timestamps.
+4. Estimated turnaround time and cost: The transcription service provider will usually provide an estimated turnaround time for the completion of the transcription. They will also inform you of the cost based on factors like the length of the audio/video file and any additional services required.
+5. Confidentiality agreement: Ensure that the transcription service provider guarantees the confidentiality and security of your audio/video content. This is especially important if the content contains sensitive or confidential information.
+6. Review and revise: Once you receive the Dutch transcription, review it for accuracy and clarity. If you come across any errors or inaccuracies, communicate them to the service provider for revision.
+7. Payment: After you're satisfied with the transcription, make the payment as agreed upon with the service provider. Most service providers offer various payment options, such as credit/debit card, bank transfer, or online payment platforms.
+By following these steps, you can effectively utilize Dutch language transcription services to convert your audio or video content into written text. Dutch is primarily spoken in the following countries:
+1. Netherlands
+2. Belgium (Flanders region)
+3. Suriname (official language)
+4. Aruba (co-official language)
+5. Curaçao (co-official language)
+6. Sint Maarten (co-official language)
+7. Bonaire (co-official language)
+8. Saba (co-official language)
+9. Sint Eustatius (co-official language)
+In addition to these countries, there are also Dutch-speaking communities in countries like Germany, France, South Africa, and Indonesia, among others. Transcription is the process of converting spoken language into written form. It is useful for the Dutch language for several reasons:
+1. Standardization: Transcription helps to establish a standard system for representing spoken Dutch, ensuring consistency and clarity in written materials. This is particularly important in official documents, educational resources, and media.
+2. Accessibility: Transcription allows individuals with hearing impairments or language difficulties to access and understand spoken Dutch content. It enables them to read and comprehend spoken words, making information more inclusive and accessible.
+3. Language learning: Transcription assists in language learning by providing learners with written text that corresponds to the spoken language. It helps learners understand and practice accurate pronunciation, improve listening comprehension, and build vocabulary and grammar skills.
+4. Research and analysis: Transcription is valuable for linguistic research and analysis of the Dutch language. By transcribing spoken language, linguists and researchers can study phonetic and phonological patterns, analyze discourse and conversation structures, and investigate sociolinguistic variations.
+5. Translation and subtitling: Transcription is often a necessary step in translating spoken Dutch content into other languages or creating subtitles for videos and movies. Transcribing the spoken language provides a written source text that can be easily translated or subtitled for wider accessibility and understanding.</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Dutch  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Partner for Dutch Transcription Services
+Are you in need of accurate and reliable Dutch transcription services? Look no further than Capital Typing. We are a reputable transcription service provider, offering high-quality transcription solutions for audio and video recordings in Dutch.
+At Capital Typing, we understand the importance of precise and timely transcriptions. Our team of experienced Dutch transcribers is skilled in capturing every word and nuance, ensuring an accurate representation of your audio or video content. Whether you require transcriptions for business meetings, interviews, academic research, or any other purpose, we have you covered.
+Why choose Capital Typing for your Dutch transcription needs? Let us walk you through the benefits:
+1. Accuracy: We pride ourselves on delivering accurate transcriptions. Our team of skilled Dutch transcribers pays attention to detail, ensuring that every word is captured correctly. We have extensive experience in transcribing diverse Dutch accents and dialects, ensuring clear and precise transcriptions.
+2. Timeliness: We understand that time is of the essence. That's why we prioritize timely delivery. We have a proven track record of meeting or exceeding our clients' deadlines, ensuring that you receive your transcriptions when you need them.
+3. Confidentiality: Your privacy is of paramount importance to us. We have strict confidentiality measures in place to safeguard your audio or video content. Our transcribers undergo rigorous training to ensure they adhere to confidentiality protocols, providing you with peace of mind.
+4. Competitive Pricing: We believe that quality transcription services should be accessible to all. That's why we offer competitive pricing options tailored to suit your specific requirements. Our transparent pricing structure ensures that you receive exceptional value for your investment.
+5. Customization: We understand that every transcription project is unique. That's why we offer customizable solutions to meet your specific needs. Whether you require verbatim transcriptions, time-stamped transcriptions, or any other specific formatting requests, we can accommodate your requirements.
+6. Wide Range of Industries: Our Dutch transcription services cater to various industries, including legal, medical, academic, market research, media, and more. With our expertise and industry knowledge, we provide tailored transcriptions that meet the specific terminology and requirements of your field.
+7. Excellent Customer Support: At Capital Typing, we prioritize customer satisfaction. Our friendly and knowledgeable customer support team is available to assist you throughout the transcription process. Whether you have questions, need updates, or require any clarifications, we are here to help.
+Partner with Capital Typing for your Dutch transcription needs, and experience the difference our services can make. Our commitment to accuracy, timeliness, confidentiality, and customer satisfaction sets us apart as a trusted transcription service provider.
+To get started, simply visit our website and submit your audio or video file. Our easy-to-use platform allows for seamless file uploads. Once we receive your file, our team will promptly begin transcribing it with meticulous attention to detail.
+Don't let language barriers hold you back. With Capital Typing's Dutch transcription services, you can effortlessly convert your audio or video content into written form. Contact us today and let us assist you in effectively communicating your Dutch content.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>How can I assist you with English?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>English language transcription services</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>English language transcription services are services that provide written transcripts of audio or video recordings in the English language. These services are useful for a variety of purposes, such as transcribing interviews, meetings, lectures, podcasts, videos, and more. Transcription services can be beneficial for individuals, businesses, researchers, content creators, and anyone who needs accurate and professionally formatted written documents. There are many transcription service providers available that offer different levels of accuracy, turnaround times, and pricing options. Some providers also offer additional services like translation or closed captioning. It is important to choose a reputable and reliable service that meets your specific needs.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>English regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>English is primarily spoken in several regions across the world. Here are some of the main regions where English is spoken:
+1. United Kingdom: English is the official language of the United Kingdom, and it is spoken throughout England, Scotland, Wales, and Northern Ireland.
+2. United States: English is the most widely spoken language in the United States, and it is the official language in most states.
+3. Canada: English is one of the two official languages of Canada, with the majority of Canadians speaking English, particularly in provinces like Ontario, British Columbia, and Alberta.
+4. Australia: English is the national language of Australia, and it is spoken by the majority of the population.
+5. New Zealand: English is the primary language spoken in New Zealand, and it is the country's official language.
+6. South Africa: English is one of the 11 official languages in South Africa and widely spoken throughout the country.
+7. Ireland: English is one of the two official languages in Ireland, with Irish also holding official status.
+8. India: English is one of the recognized languages in India and is widely spoken in urban areas, business settings, and educational institutions.
+9. Singapore: English is one of the official languages in Singapore and is commonly used in business, education, and government sectors.
+10. Caribbean: English is spoken in many countries and territories in the Caribbean, including Jamaica, Trinidad and Tobago, Barbados, and the Bahamas, among others.
+These are just a few examples, as English is also spoken as a second language in many other countries around the world.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>English dialects</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>English is a widely spoken language around the world, and as a result, it has several distinct dialects. These dialects vary in pronunciation, vocabulary, and grammar. Here are a few examples of the major English dialects:
+1. British English: This is the dialect spoken in the United Kingdom and is the foundation of standard English. Within British English, there are various regional accents, such as Cockney in London or Geordie in Newcastle.
+2. American English: This dialect is spoken in the United States and has several regional variations, including Southern English, New England English, and African American Vernacular English (AAVE).
+3. Canadian English: This dialect is spoken in Canada and is mainly influenced by British English, but also shows some influences from American English and French.
+4. Australian English: This dialect is spoken in Australia and has its distinct pronunciation and vocabulary. It has similarities to both British and American English.
+5. Indian English: This dialect is spoken in India and is heavily influenced by the country's native languages. It also has unique vocabulary and pronunciation.
+6. Jamaican Patois: This dialect is spoken in Jamaica and is a creole language that combines elements of English, West African languages, and Spanish.
+These are just a few examples of the many English dialects around the world. Each dialect has its unique characteristics and reflects the local culture and history of the region.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>How can someone utilize English language transcription services</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>English language transcription services can be utilized in various ways to benefit individuals and businesses. Here are a few key ways:
+1. Academic purposes: Students and researchers can use transcription services to convert recorded lectures, interviews, or research materials into written format for easy reference, note-taking, or inclusion in academic papers.
+2. Business needs: Companies and professionals can utilize transcription services for meeting minutes, conference calls, interviews, or important audio or video content. This helps with accurate documentation, content creation, and knowledge sharing within the organization.
+3. Language learning: Transcription services can be used by language learners to improve listening skills and understanding of spoken English. By transcribing audio materials, learners can analyze the language structure, vocabulary, and pronunciation, enhancing their overall proficiency.
+4. Accessibility: Transcription services can make content accessible to individuals with hearing impairments, allowing them to read and understand audio or video content.
+5. Content creation: Writers, bloggers, podcasters, and content creators can use transcription services to transcribe their recorded content. This makes it easier to repurpose the content into articles, blog posts, social media captions, or even books.
+6. Legal and medical documentation: Professionals in legal or medical fields can benefit from transcription services to accurately transcribe important records, reports, interviews, or dictations. This ensures thorough documentation and easy retrieval of information.
+To utilize English language transcription services, individuals or businesses can search for reputable online transcription platforms or hire professional transcriptionists who specialize in English language transcription.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Countries where English is spoken</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>There are several countries where English is spoken as either the official language or as a widely spoken second language. Some of these countries include:
+1. United States
+2. Canada
+3. United Kingdom (England, Scotland, Wales, and Northern Ireland)
+4. Australia
+5. New Zealand
+6. Ireland
+7. South Africa
+8. India
+9. Singapore
+10. Philippines
+Please note that the extent to which English is spoken in these countries may vary. In some places, it is the primary language, while in others it is spoken as a second language alongside other languages.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  English language</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the English language for several reasons:
+1. Accessibility: Transcription makes audio and video content accessible to individuals with hearing impairments or those who prefer reading over listening. It allows them to understand and engage with the content more effectively.
+2. Comprehension: Transcriptions can aid in understanding and comprehension, especially when dealing with complex or technical language. Reading along with the audio can help individuals fully grasp the content.
+3. Searchability: Transcriptions make content searchable. By converting spoken words into text, it becomes easier to find specific information or keywords within a document or a video.
+4. Language Learning: Transcriptions are valuable resources for language learners. They provide learners with the opportunity to follow along and understand spoken English more accurately, helping improve their vocabulary, comprehension, and pronunciation.
+5. Reference and Note-taking: Transcriptions serve as a reference tool for taking detailed notes or referencing specific information during meetings, lectures, or presentations. It helps individuals capture important details and easily review the information later.
+Overall, transcription is crucial to make English language content accessible, enhance comprehension, improve searchability, aid language learning, and facilitate reference and note-taking.</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>How can I assist you with English? English language transcription services are services that provide written transcripts of audio or video recordings in the English language. These services are useful for a variety of purposes, such as transcribing interviews, meetings, lectures, podcasts, videos, and more. Transcription services can be beneficial for individuals, businesses, researchers, content creators, and anyone who needs accurate and professionally formatted written documents. There are many transcription service providers available that offer different levels of accuracy, turnaround times, and pricing options. Some providers also offer additional services like translation or closed captioning. It is important to choose a reputable and reliable service that meets your specific needs. English is primarily spoken in several regions across the world. Here are some of the main regions where English is spoken:
+1. United Kingdom: English is the official language of the United Kingdom, and it is spoken throughout England, Scotland, Wales, and Northern Ireland.
+2. United States: English is the most widely spoken language in the United States, and it is the official language in most states.
+3. Canada: English is one of the two official languages of Canada, with the majority of Canadians speaking English, particularly in provinces like Ontario, British Columbia, and Alberta.
+4. Australia: English is the national language of Australia, and it is spoken by the majority of the population.
+5. New Zealand: English is the primary language spoken in New Zealand, and it is the country's official language.
+6. South Africa: English is one of the 11 official languages in South Africa and widely spoken throughout the country.
+7. Ireland: English is one of the two official languages in Ireland, with Irish also holding official status.
+8. India: English is one of the recognized languages in India and is widely spoken in urban areas, business settings, and educational institutions.
+9. Singapore: English is one of the official languages in Singapore and is commonly used in business, education, and government sectors.
+10. Caribbean: English is spoken in many countries and territories in the Caribbean, including Jamaica, Trinidad and Tobago, Barbados, and the Bahamas, among others.
+These are just a few examples, as English is also spoken as a second language in many other countries around the world. English is a widely spoken language around the world, and as a result, it has several distinct dialects. These dialects vary in pronunciation, vocabulary, and grammar. Here are a few examples of the major English dialects:
+1. British English: This is the dialect spoken in the United Kingdom and is the foundation of standard English. Within British English, there are various regional accents, such as Cockney in London or Geordie in Newcastle.
+2. American English: This dialect is spoken in the United States and has several regional variations, including Southern English, New England English, and African American Vernacular English (AAVE).
+3. Canadian English: This dialect is spoken in Canada and is mainly influenced by British English, but also shows some influences from American English and French.
+4. Australian English: This dialect is spoken in Australia and has its distinct pronunciation and vocabulary. It has similarities to both British and American English.
+5. Indian English: This dialect is spoken in India and is heavily influenced by the country's native languages. It also has unique vocabulary and pronunciation.
+6. Jamaican Patois: This dialect is spoken in Jamaica and is a creole language that combines elements of English, West African languages, and Spanish.
+These are just a few examples of the many English dialects around the world. Each dialect has its unique characteristics and reflects the local culture and history of the region. English language transcription services can be utilized in various ways to benefit individuals and businesses. Here are a few key ways:
+1. Academic purposes: Students and researchers can use transcription services to convert recorded lectures, interviews, or research materials into written format for easy reference, note-taking, or inclusion in academic papers.
+2. Business needs: Companies and professionals can utilize transcription services for meeting minutes, conference calls, interviews, or important audio or video content. This helps with accurate documentation, content creation, and knowledge sharing within the organization.
+3. Language learning: Transcription services can be used by language learners to improve listening skills and understanding of spoken English. By transcribing audio materials, learners can analyze the language structure, vocabulary, and pronunciation, enhancing their overall proficiency.
+4. Accessibility: Transcription services can make content accessible to individuals with hearing impairments, allowing them to read and understand audio or video content.
+5. Content creation: Writers, bloggers, podcasters, and content creators can use transcription services to transcribe their recorded content. This makes it easier to repurpose the content into articles, blog posts, social media captions, or even books.
+6. Legal and medical documentation: Professionals in legal or medical fields can benefit from transcription services to accurately transcribe important records, reports, interviews, or dictations. This ensures thorough documentation and easy retrieval of information.
+To utilize English language transcription services, individuals or businesses can search for reputable online transcription platforms or hire professional transcriptionists who specialize in English language transcription. There are several countries where English is spoken as either the official language or as a widely spoken second language. Some of these countries include:
+1. United States
+2. Canada
+3. United Kingdom (England, Scotland, Wales, and Northern Ireland)
+4. Australia
+5. New Zealand
+6. Ireland
+7. South Africa
+8. India
+9. Singapore
+10. Philippines
+Please note that the extent to which English is spoken in these countries may vary. In some places, it is the primary language, while in others it is spoken as a second language alongside other languages. Transcription is needed for the English language for several reasons:
+1. Accessibility: Transcription makes audio and video content accessible to individuals with hearing impairments or those who prefer reading over listening. It allows them to understand and engage with the content more effectively.
+2. Comprehension: Transcriptions can aid in understanding and comprehension, especially when dealing with complex or technical language. Reading along with the audio can help individuals fully grasp the content.
+3. Searchability: Transcriptions make content searchable. By converting spoken words into text, it becomes easier to find specific information or keywords within a document or a video.
+4. Language Learning: Transcriptions are valuable resources for language learners. They provide learners with the opportunity to follow along and understand spoken English more accurately, helping improve their vocabulary, comprehension, and pronunciation.
+5. Reference and Note-taking: Transcriptions serve as a reference tool for taking detailed notes or referencing specific information during meetings, lectures, or presentations. It helps individuals capture important details and easily review the information later.
+Overall, transcription is crucial to make English language content accessible, enhance comprehension, improve searchability, aid language learning, and facilitate reference and note-taking.</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing English  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
+        <is>
+          <t>English Transcription Services: Providing Accurate and Accessible Transcripts
+Capital Typing offers high-quality English transcription services that provide written transcripts of audio or video recordings. These expertly transcribed documents are suitable for various purposes, including interviews, meetings, lectures, podcasts, and videos. Whether you are an individual, business, researcher, or content creator, our transcription services can meet your specific needs by offering accurate and professionally formatted written documents.
+With a wide range of transcription service providers available, it is important to choose a reputable and reliable service that can deliver accurate transcripts within your desired turnaround time. Capital Typing understands the importance of accuracy and ensures that our team of professional transcriptionists follows stringent guidelines to provide error-free transcripts.
+Our English transcription services cater to clients across the globe because English is widely spoken in several regions. It serves as the official language in countries like the United Kingdom, the United States, Canada, Australia, New Zealand, South Africa, and Ireland. In addition to these countries, English is recognized as an important language in countries like India, Singapore, and many others.
+English, being a global language, has developed distinct dialects in different regions, each with its own unique characteristics. Dialects include British English, American English, Canadian English, Australian English, Indian English, and Jamaican Patois, among others. Our team of professional transcriptionists has a deep understanding of these dialects and can accurately transcribe audio or video content, capturing the nuances of language and dialect.
+The benefits of utilizing English transcription services are plentiful. Academic institutions can use transcription services to convert recorded lectures, interviews, or research materials into written format for easy reference and note-taking, while businesses can rely on accurate documentation of important meetings, conferences, or interviews. Language learners can improve their listening skills and comprehension by transcribing audio materials, while content creators can repurpose their recorded content for articles, blog posts, or social media captions. Transcriptions also aid in accessibility, making audio and video content more inclusive for individuals with hearing impairments. Furthermore, legal and medical professionals can rely on transcription services to accurately document important records, reports, or dictations.
+Capital Typing provides a user-friendly and efficient platform for English transcription services. Our team of professional transcriptionists is skilled in accurately transcribing audio or video files, and we guarantee quick turnaround times without compromising on quality. We understand the importance of confidentiality and ensure that all client files are handled securely and with the utmost professionalism.
+Choose Capital Typing for your English transcription needs and experience the convenience and accuracy of our services. We strive to deliver exceptional quality and provide our clients with transcripts that meet their specific requirements. Contact us today to discuss your English transcription needs and let our expert team assist you in converting your audio or video recordings into accurate and accessible written documents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Esperanto</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Esperanto is a constructed international auxiliary language created by L.L. Zamenhof in the late 19th century. It was designed to be an easy-to-learn language that would promote communication and understanding among people of different cultures. Esperanto has a vocabulary that draws from several European languages and a grammar that is relatively simple and regular. It is estimated that there are between 100,000 to 2 million speakers of Esperanto worldwide.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Esperanto language transcription services</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Esperanto language transcription services are available to help individuals or organizations who need assistance transcribing audio or video content in the Esperanto language. These services typically involve converting spoken Esperanto into written text, making it easier to understand and share.
+There are various providers and platforms that offer Esperanto transcription services. These services can be useful for different purposes, such as transcribing interviews, lectures, podcasts, or other spoken content.
+To access Esperanto language transcription services, you can search for transcription service providers online or use online marketplaces that connect clients with freelance transcriptionists. It's essential to ensure that the service you choose has experience and expertise in transcribing Esperanto accurately.
+When hiring a transcription service for Esperanto, be prepared to provide the audio or video file you need transcribed. The service will usually charge based on the length of the content, so it's helpful to have an estimate of the duration in minutes.
+Overall, Esperanto language transcription services can save time and effort in converting spoken Esperanto content into written text, making it more accessible to a wider audience or for various purposes.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Esperanto regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Esperanto is a constructed international auxiliary language, designed to be spoken by people from different linguistic backgrounds. While it is not associated with any particular geographic region, there are Esperanto speakers all around the world. Nevertheless, there are some countries and cities that are known for having a relatively large Esperanto-speaking community. Some notable regions where Esperanto is spoken include:
+1. France: The city of Paris has been a hub for Esperanto speakers for many years. It is home to annual Esperanto gatherings and has an active Esperanto association.
+2. China: The city of Beijing has a significant Esperanto presence and hosts the China Esperanto Congress regularly. There are also Esperanto courses offered in universities across the country.
+3. Brazil: The city of São Paulo is known for having one of the largest Esperanto-speaking communities in the world. There are many Esperanto clubs, events, and courses throughout the country.
+4. Hungary: Budapest, the capital city of Hungary, has a long-standing tradition of Esperanto use. The Universala Kongreso de Esperanto (World Esperanto Congress) has been held there several times.
+5. Germany: Berlin is home to a vibrant Esperanto community, with numerous events, courses, and clubs. Germany has a strong tradition of Esperanto use and has hosted multiple Esperanto congresses.
+It is worth noting that this list is not exhaustive, and Esperanto can be found in many other regions around the world. Additionally, with advancements in technology and online communication, the Esperanto community is becoming increasingly connected worldwide.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Esperanto dialects</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>In general, Esperanto is considered a constructed language with one standardized version instead of multiple dialects. However, it is worth noting that Esperanto has undergone some developments and variations over time due to its spread to different countries and regions.
+One of the earliest variants was called "Ido," which emerged in the early 20th century as a reform movement of Esperanto. Ido aimed to simplify the language further and address some perceived issues with the original Esperanto design. Despite having some adherents, Ido remains less widespread than Esperanto.
+Additionally, regional variations of spoken Esperanto have developed over time due to influences from local languages and cultures. These variations are not considered separate dialects in the strict sense, like in natural languages, but rather a form of "accents" or unique expressions within the broader Esperanto community.
+It's important to note that despite any variations, spoken and written Esperanto remains highly mutually intelligible, enabling speakers from different regions to understand each other. This mutual intelligibility is a crucial feature of constructed languages like Esperanto.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>How can someone utilize Esperanto language transcription services</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>To utilize Esperanto language transcription services, someone can follow these steps:
+1. Search for Esperanto language transcription services: Look for online platforms, professional transcription companies, or freelance transcribers who specifically mention Esperanto as one of the languages they can transcribe.
+2. Compare services and prices: Compare the services, pricing, and turnaround time of different transcription service providers. Consider factors such as the quality of transcripts, confidentiality, customer support, and any additional services offered.
+3. Submit audio or video files: Prepare the audio or video files that require transcription and upload them to the chosen transcription service provider's platform. Ensure that the file is clear and audible, as this will help in obtaining accurate transcriptions.
+4. Specify requirements: Provide specific instructions regarding the transcription requirements, such as desired formatting, timestamps, or any technical terminology that might require clarification.
+5. Review and edit: Once the transcriptions are delivered, review them for accuracy and applicability. If any edits or modifications are needed, provide feedback to the transcription service provider for necessary revisions.
+6. Payment and delivery: Make the necessary payment as per the agreed terms and receive the final transcriptions in the desired format, such as a text document or subtitle file.
+Remember that the availability and quality of Esperanto transcription services may vary, so it is essential to conduct thorough research and choose a reliable service provider that meets your requirements.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Countries where Esperanto is spoken</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Esperanto is not typically spoken as an official language in any country. However, there are Esperanto-speaking communities and organizations established in various countries around the world. These communities use Esperanto as a means of communication and cultural exchange. Some countries with active Esperanto communities include:
+1. France
+2. Germany
+3. Hungary
+4. Japan
+5. Brazil
+6. Poland
+7. Russia
+8. Sweden
+9. United States
+10. United Kingdom
+It's important to note that while Esperanto is not spoken as an official language in these countries, it is widely used and promoted by Esperanto speakers within these communities.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Esperanto language</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Transcription, or the representation of spoken language using a written system, can be useful for any language, including Esperanto. Here are some reasons why transcription may be needed for Esperanto:
+1. Consistency: While Esperanto has a phonetic spelling system, there may still be variations in pronunciation among speakers. Transcription can help create a standardized representation to ensure that the language is consistently understood and pronounced correctly.
+2. Learning and teaching: Transcription can be helpful for language learners and teachers who may be more familiar with phonetic systems or who want a visual representation of the pronunciation. It can make it easier to learn correct pronunciation by providing a guide.
+3. Accessibility: Some people may have visual impairments or other challenges that make it difficult to read or understand the written form of Esperanto. Transcription can help them access and understand the language more easily.
+4. Communication across languages: Transcription can assist in facilitating communication between speakers of different languages. By using a shared phonetic system, non-Esperanto speakers can better understand and communicate in Esperanto, even if they are not familiar with its written form.
+In summary, transcription can help enhance consistency, aid in language learning and teaching, improve accessibility, and facilitate communication in Esperanto, just as it can for any other language.</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>Esperanto is a constructed international auxiliary language created by L.L. Zamenhof in the late 19th century. It was designed to be an easy-to-learn language that would promote communication and understanding among people of different cultures. Esperanto has a vocabulary that draws from several European languages and a grammar that is relatively simple and regular. It is estimated that there are between 100,000 to 2 million speakers of Esperanto worldwide. Esperanto language transcription services are available to help individuals or organizations who need assistance transcribing audio or video content in the Esperanto language. These services typically involve converting spoken Esperanto into written text, making it easier to understand and share.
+There are various providers and platforms that offer Esperanto transcription services. These services can be useful for different purposes, such as transcribing interviews, lectures, podcasts, or other spoken content.
+To access Esperanto language transcription services, you can search for transcription service providers online or use online marketplaces that connect clients with freelance transcriptionists. It's essential to ensure that the service you choose has experience and expertise in transcribing Esperanto accurately.
+When hiring a transcription service for Esperanto, be prepared to provide the audio or video file you need transcribed. The service will usually charge based on the length of the content, so it's helpful to have an estimate of the duration in minutes.
+Overall, Esperanto language transcription services can save time and effort in converting spoken Esperanto content into written text, making it more accessible to a wider audience or for various purposes. Esperanto is a constructed international auxiliary language, designed to be spoken by people from different linguistic backgrounds. While it is not associated with any particular geographic region, there are Esperanto speakers all around the world. Nevertheless, there are some countries and cities that are known for having a relatively large Esperanto-speaking community. Some notable regions where Esperanto is spoken include:
+1. France: The city of Paris has been a hub for Esperanto speakers for many years. It is home to annual Esperanto gatherings and has an active Esperanto association.
+2. China: The city of Beijing has a significant Esperanto presence and hosts the China Esperanto Congress regularly. There are also Esperanto courses offered in universities across the country.
+3. Brazil: The city of São Paulo is known for having one of the largest Esperanto-speaking communities in the world. There are many Esperanto clubs, events, and courses throughout the country.
+4. Hungary: Budapest, the capital city of Hungary, has a long-standing tradition of Esperanto use. The Universala Kongreso de Esperanto (World Esperanto Congress) has been held there several times.
+5. Germany: Berlin is home to a vibrant Esperanto community, with numerous events, courses, and clubs. Germany has a strong tradition of Esperanto use and has hosted multiple Esperanto congresses.
+It is worth noting that this list is not exhaustive, and Esperanto can be found in many other regions around the world. Additionally, with advancements in technology and online communication, the Esperanto community is becoming increasingly connected worldwide. In general, Esperanto is considered a constructed language with one standardized version instead of multiple dialects. However, it is worth noting that Esperanto has undergone some developments and variations over time due to its spread to different countries and regions.
+One of the earliest variants was called "Ido," which emerged in the early 20th century as a reform movement of Esperanto. Ido aimed to simplify the language further and address some perceived issues with the original Esperanto design. Despite having some adherents, Ido remains less widespread than Esperanto.
+Additionally, regional variations of spoken Esperanto have developed over time due to influences from local languages and cultures. These variations are not considered separate dialects in the strict sense, like in natural languages, but rather a form of "accents" or unique expressions within the broader Esperanto community.
+It's important to note that despite any variations, spoken and written Esperanto remains highly mutually intelligible, enabling speakers from different regions to understand each other. This mutual intelligibility is a crucial feature of constructed languages like Esperanto. To utilize Esperanto language transcription services, someone can follow these steps:
+1. Search for Esperanto language transcription services: Look for online platforms, professional transcription companies, or freelance transcribers who specifically mention Esperanto as one of the languages they can transcribe.
+2. Compare services and prices: Compare the services, pricing, and turnaround time of different transcription service providers. Consider factors such as the quality of transcripts, confidentiality, customer support, and any additional services offered.
+3. Submit audio or video files: Prepare the audio or video files that require transcription and upload them to the chosen transcription service provider's platform. Ensure that the file is clear and audible, as this will help in obtaining accurate transcriptions.
+4. Specify requirements: Provide specific instructions regarding the transcription requirements, such as desired formatting, timestamps, or any technical terminology that might require clarification.
+5. Review and edit: Once the transcriptions are delivered, review them for accuracy and applicability. If any edits or modifications are needed, provide feedback to the transcription service provider for necessary revisions.
+6. Payment and delivery: Make the necessary payment as per the agreed terms and receive the final transcriptions in the desired format, such as a text document or subtitle file.
+Remember that the availability and quality of Esperanto transcription services may vary, so it is essential to conduct thorough research and choose a reliable service provider that meets your requirements. Esperanto is not typically spoken as an official language in any country. However, there are Esperanto-speaking communities and organizations established in various countries around the world. These communities use Esperanto as a means of communication and cultural exchange. Some countries with active Esperanto communities include:
+1. France
+2. Germany
+3. Hungary
+4. Japan
+5. Brazil
+6. Poland
+7. Russia
+8. Sweden
+9. United States
+10. United Kingdom
+It's important to note that while Esperanto is not spoken as an official language in these countries, it is widely used and promoted by Esperanto speakers within these communities. Transcription, or the representation of spoken language using a written system, can be useful for any language, including Esperanto. Here are some reasons why transcription may be needed for Esperanto:
+1. Consistency: While Esperanto has a phonetic spelling system, there may still be variations in pronunciation among speakers. Transcription can help create a standardized representation to ensure that the language is consistently understood and pronounced correctly.
+2. Learning and teaching: Transcription can be helpful for language learners and teachers who may be more familiar with phonetic systems or who want a visual representation of the pronunciation. It can make it easier to learn correct pronunciation by providing a guide.
+3. Accessibility: Some people may have visual impairments or other challenges that make it difficult to read or understand the written form of Esperanto. Transcription can help them access and understand the language more easily.
+4. Communication across languages: Transcription can assist in facilitating communication between speakers of different languages. By using a shared phonetic system, non-Esperanto speakers can better understand and communicate in Esperanto, even if they are not familiar with its written form.
+In summary, transcription can help enhance consistency, aid in language learning and teaching, improve accessibility, and facilitate communication in Esperanto, just as it can for any other language.</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Esperanto  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>Esperanto is a universal constructed language developed by L.L. Zamenhof in the late 19th century. Its purpose was to promote communication and understanding among individuals from different cultures. With a vocabulary derived from several European languages and straightforward grammar rules, Esperanto was designed to be an easy-to-learn auxiliary language.
+To cater to the needs of individuals or organizations requiring assistance in transcribing Esperanto audio or video content, there are Esperanto transcription services available. These services involve converting spoken Esperanto into written text, making it easily understood and shareable.
+Numerous providers and platforms offer Esperanto transcription services, catering to various requirements such as transcribing interviews, lectures, podcasts, and other spoken content.
+Utilizing Esperanto transcription services involves searching for transcription service providers online or utilizing online marketplaces that connect clients with freelance transcriptionists. It is important to choose a service with experience and expertise in accurately transcribing Esperanto.
+When hiring an Esperanto transcription service, you will typically need to provide the audio or video file that requires transcription. The service will charge based on the duration of the content, so having an estimate of the minutes is beneficial.
+Overall, Esperanto language transcription services save time and effort by converting spoken Esperanto content into written text, making it accessible to a wider audience and suitable for various purposes.
+Esperanto is spoken by individuals from diverse linguistic backgrounds and is not associated with any specific geographic region. However, there are regions known for having relatively large Esperanto-speaking communities:
+1. France: Paris has served as a hub for Esperanto speakers for many years, hosting annual Esperanto gatherings and maintaining an active Esperanto association.
+2. China: Beijing has a significant Esperanto presence, regularly hosting the China Esperanto Congress. Esperanto courses are also offered in universities across the country.
+3. Brazil: São Paulo is recognized for having one of the largest Esperanto-speaking communities globally, with numerous clubs, events, and courses throughout the country.
+4. Hungary: Budapest, the capital city, has a long-standing tradition of Esperanto use and has hosted the Universala Kongreso de Esperanto (World Esperanto Congress) multiple times.
+5. Germany: Berlin hosts a vibrant Esperanto community, with various events, courses, and clubs. Germany has a strong tradition of Esperanto use and has hosted several Esperanto congresses.
+Bear in mind that this list is not exhaustive, as Esperanto can be found in many other regions worldwide. With advancements in technology and online communication, the Esperanto community is increasingly interconnected.
+Esperanto is generally considered a constructed language with one standardized version. However, over time, some variations and developments have occurred, such as the emergence of "Ido" as a reform movement. Regional variations influenced by local languages and cultures have also arisen, resulting in unique expressions or "accents" within the broader Esperanto community.
+Despite these variations, spoken and written Esperanto remains highly mutually intelligible, enabling speakers from different regions to understand one another. This feature of mutual intelligibility is vital in constructed languages.
+To access Esperanto language transcription services, follow these steps:
+1. Search for Esperanto language transcription services online, keeping an eye out for platforms, professional transcription companies, or freelance transcribers who specifically offer Esperanto transcription.
+2. Compare different services in terms of pricing, turnaround time, transcript quality, confidentiality, customer support, and additional services offered.
+3. Submit the audio or video files that require transcription, ensuring they are clear and audible.
+4. Provide specific instructions regarding formatting, timestamps, or technical terminology.
+5. Review the transcriptions for accuracy and provide feedback for revisions if needed.
+6. Make the necessary payment and receive the final transcriptions in the desired format.
+When selecting an Esperanto transcription service, ensure thorough research is conducted to choose a reliable provider that meets your requirements.
+While Esperanto is not spoken as an official language in any country, active Esperanto communities exist globally to promote communication and cultural exchange. Esperanto transcription services can enhance consistency, aid in language learning and teaching, improve accessibility, and facilitate communication across languages, just as they can for any other language.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estonian</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tere! Kuidas ma saan teid aidata?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Estonian language transcription services</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>There are several Estonian language transcription service providers available online. Some popular ones include:
+1. Rev.com: They offer professional Estonian transcription services at an affordable price. Transcriptions are accurate and can be delivered within 24 hours.
+2. Gglot.com: Gglot provides Estonian transcription services using advanced automatic speech recognition technology. They offer quick turnaround times and competitive pricing.
+3. Waywithwords.net: Waywithwords provides high-quality Estonian transcription services by skilled transcribers. They offer different turnaround options and specialize in various industries.
+4. GoTranscript.com: GoTranscript offers Estonian transcription services with a quick turnaround time. They have native Estonian transcribers to ensure accurate and reliable transcriptions.
+5. Scribie.com: Scribie offers Estonian transcription services with a guaranteed accuracy rate of 99%. They provide different options for turnaround time and offer competitive pricing.
+It is important to note that the quality and accuracy of the transcriptions may vary between service providers. It is recommended to compare their services, customer reviews, and pricing before making a decision.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Estonian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Estonian, the official language of Estonia, is primarily spoken throughout the entire country. However, there are also several regions with significant Estonian-speaking populations. These regions include:
+1. Tallinn - The capital city and largest urban area in Estonia, where the majority of the population speaks Estonian.
+2. Tartu - The second-largest city in Estonia and a major cultural and educational center where Estonian is widely spoken.
+3. Pärnu - A coastal city known for its beaches and resorts, where Estonian is commonly spoken.
+4. Viljandi - A historical town in southern Estonia with a strong cultural heritage, where Estonian is the predominant language.
+5. Saaremaa - The largest island in Estonia, where Estonian is widely spoken alongside the local dialect.
+6. Hiiumaa - The second-largest island in Estonia, where Estonian is spoken by the majority of the population.
+7. Valga - A town situated on the border between Estonia and Latvia, where Estonian is the main language.
+8. Võru - A town in southern Estonia known for its unique dialect, Võro, which is considered a distinct variant of the Estonian language.
+These are just some of the regions where Estonian is prominently spoken, but it's important to note that Estonian is the primary language throughout the entire country.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Estonian dialects</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Estonian language, which is a Finno-Ugric language, has several dialects that vary slightly in terms of vocabulary, pronunciation, and grammar. The main dialects are:
+1. Northern Estonian dialect: This is considered the standard dialect and is spoken in the capital city of Tallinn and the surrounding areas. It is also the most widely spoken dialect in the country.
+2. Coastal Estonian dialect: This dialect is spoken along the Baltic Sea coast, including areas like Pärnu and Haapsalu. It has some distinct features, such as more Russian loanwords and slight variations in pronunciation.
+3. Southern Estonian dialect: This dialect is spoken in southern Estonia, particularly in the regions of Tartu and Viljandi. It is known for having some unique vocabulary and pronunciation differences compared to the standard dialect.
+4. Seto dialect: The Seto dialect is spoken by the Seto community in southeastern Estonia. It has some influence from Russian and Võro, another Finno-Ugric language spoken in Estonia.
+5. Võro dialect: The Võro dialect is spoken in the southeastern region of Võru. It is considered a separate language by some linguists but is also considered a dialect of Estonian by others. It has some distinct vocabulary and grammar features.
+These dialects can vary in different aspects, such as vocabulary, pronunciation, and even grammar. However, speakers of different dialects can still understand each other, as the differences are not significant. The Northern Estonian dialect, being the standard dialect, is the most commonly understood and widely used throughout the country.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>How can someone utilize Estonian language transcription services</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Someone can utilize Estonian language transcription services by following these steps:
+1. Research and select a reliable Estonian language transcription service provider. Look for providers that have experience and expertise in transcribing Estonian language content.
+2. Contact the chosen service provider and inquire about their transcription process, pricing, and turnaround time. It is also important to confirm if they have native Estonian speakers or experts on their transcription team.
+3. Provide the service provider with the audio or video files that need to be transcribed. Ensure that the audio quality is clear for accurate transcription.
+4. Specify the format and any specific instructions for the transcription. For example, indicate if timestamps are required, any formatting preferences, or if there are any specific terminologies to be used.
+5. Agree upon the payment terms and make the necessary arrangements. Some service providers may require upfront payment or offer different payment options.
+6. Wait for the completion of the transcription within the agreed timeframe. Most providers will deliver the transcribed files in a digital format via email or through their online platform.
+7. Review the completed transcript for accuracy and quality. If there are any discrepancies or issues, provide feedback to the service provider for adjustments or corrections.
+8. If satisfied with the transcribed content, utilize it for various purposes such as subtitling, translation, content analysis, or any other requirements.
+Remember to choose a reputable transcription service provider and communicate any specific requirements to ensure a high-quality and accurate transcription of the Estonian language content.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Countries where Estonian is spoken</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Estonian is mainly spoken in Estonia, a small country in Northern Europe. However, there are also smaller communities of Estonian speakers in neighboring countries such as Latvia, Russia, and Finland. Estonian is also recognized as a minority language in Sweden, where there is a small Estonian-speaking community.</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Estonian language</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Transcription, or the representation of spoken language using written symbols, can be useful for a few reasons when it comes to the Estonian language:
+1. Clarifying Pronunciation: Estonian is known for its complex phonetics, including vowel harmony and unique sounds. Transcription can help non-native speakers understand and pronounce words accurately.
+2. Language Learning: Transcription can aid learners in recognizing the sounds and patterns of Estonian words so they can improve their listening skills and pronunciation.
+3. Accessibility: Transcription allows people with hearing impairments or language difficulties to access spoken content in written form. It makes Estonian audiovisual materials more inclusive and can assist in various communication contexts.
+4. Language Analysis: Transcription helps linguists and researchers analyze the structure, syntax, and intonation patterns of Estonian speech, providing valuable insights into the language.
+Overall, transcription enhances communication, teaching, accessibility, and language analysis for the Estonian language.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>Tere! Kuidas ma saan teid aidata? There are several Estonian language transcription service providers available online. Some popular ones include:
+1. Rev.com: They offer professional Estonian transcription services at an affordable price. Transcriptions are accurate and can be delivered within 24 hours.
+2. Gglot.com: Gglot provides Estonian transcription services using advanced automatic speech recognition technology. They offer quick turnaround times and competitive pricing.
+3. Waywithwords.net: Waywithwords provides high-quality Estonian transcription services by skilled transcribers. They offer different turnaround options and specialize in various industries.
+4. GoTranscript.com: GoTranscript offers Estonian transcription services with a quick turnaround time. They have native Estonian transcribers to ensure accurate and reliable transcriptions.
+5. Scribie.com: Scribie offers Estonian transcription services with a guaranteed accuracy rate of 99%. They provide different options for turnaround time and offer competitive pricing.
+It is important to note that the quality and accuracy of the transcriptions may vary between service providers. It is recommended to compare their services, customer reviews, and pricing before making a decision. Estonian, the official language of Estonia, is primarily spoken throughout the entire country. However, there are also several regions with significant Estonian-speaking populations. These regions include:
+1. Tallinn - The capital city and largest urban area in Estonia, where the majority of the population speaks Estonian.
+2. Tartu - The second-largest city in Estonia and a major cultural and educational center where Estonian is widely spoken.
+3. Pärnu - A coastal city known for its beaches and resorts, where Estonian is commonly spoken.
+4. Viljandi - A historical town in southern Estonia with a strong cultural heritage, where Estonian is the predominant language.
+5. Saaremaa - The largest island in Estonia, where Estonian is widely spoken alongside the local dialect.
+6. Hiiumaa - The second-largest island in Estonia, where Estonian is spoken by the majority of the population.
+7. Valga - A town situated on the border between Estonia and Latvia, where Estonian is the main language.
+8. Võru - A town in southern Estonia known for its unique dialect, Võro, which is considered a distinct variant of the Estonian language.
+These are just some of the regions where Estonian is prominently spoken, but it's important to note that Estonian is the primary language throughout the entire country. Estonian language, which is a Finno-Ugric language, has several dialects that vary slightly in terms of vocabulary, pronunciation, and grammar. The main dialects are:
+1. Northern Estonian dialect: This is considered the standard dialect and is spoken in the capital city of Tallinn and the surrounding areas. It is also the most widely spoken dialect in the country.
+2. Coastal Estonian dialect: This dialect is spoken along the Baltic Sea coast, including areas like Pärnu and Haapsalu. It has some distinct features, such as more Russian loanwords and slight variations in pronunciation.
+3. Southern Estonian dialect: This dialect is spoken in southern Estonia, particularly in the regions of Tartu and Viljandi. It is known for having some unique vocabulary and pronunciation differences compared to the standard dialect.
+4. Seto dialect: The Seto dialect is spoken by the Seto community in southeastern Estonia. It has some influence from Russian and Võro, another Finno-Ugric language spoken in Estonia.
+5. Võro dialect: The Võro dialect is spoken in the southeastern region of Võru. It is considered a separate language by some linguists but is also considered a dialect of Estonian by others. It has some distinct vocabulary and grammar features.
+These dialects can vary in different aspects, such as vocabulary, pronunciation, and even grammar. However, speakers of different dialects can still understand each other, as the differences are not significant. The Northern Estonian dialect, being the standard dialect, is the most commonly understood and widely used throughout the country. Someone can utilize Estonian language transcription services by following these steps:
+1. Research and select a reliable Estonian language transcription service provider. Look for providers that have experience and expertise in transcribing Estonian language content.
+2. Contact the chosen service provider and inquire about their transcription process, pricing, and turnaround time. It is also important to confirm if they have native Estonian speakers or experts on their transcription team.
+3. Provide the service provider with the audio or video files that need to be transcribed. Ensure that the audio quality is clear for accurate transcription.
+4. Specify the format and any specific instructions for the transcription. For example, indicate if timestamps are required, any formatting preferences, or if there are any specific terminologies to be used.
+5. Agree upon the payment terms and make the necessary arrangements. Some service providers may require upfront payment or offer different payment options.
+6. Wait for the completion of the transcription within the agreed timeframe. Most providers will deliver the transcribed files in a digital format via email or through their online platform.
+7. Review the completed transcript for accuracy and quality. If there are any discrepancies or issues, provide feedback to the service provider for adjustments or corrections.
+8. If satisfied with the transcribed content, utilize it for various purposes such as subtitling, translation, content analysis, or any other requirements.
+Remember to choose a reputable transcription service provider and communicate any specific requirements to ensure a high-quality and accurate transcription of the Estonian language content. Estonian is mainly spoken in Estonia, a small country in Northern Europe. However, there are also smaller communities of Estonian speakers in neighboring countries such as Latvia, Russia, and Finland. Estonian is also recognized as a minority language in Sweden, where there is a small Estonian-speaking community. Transcription, or the representation of spoken language using written symbols, can be useful for a few reasons when it comes to the Estonian language:
+1. Clarifying Pronunciation: Estonian is known for its complex phonetics, including vowel harmony and unique sounds. Transcription can help non-native speakers understand and pronounce words accurately.
+2. Language Learning: Transcription can aid learners in recognizing the sounds and patterns of Estonian words so they can improve their listening skills and pronunciation.
+3. Accessibility: Transcription allows people with hearing impairments or language difficulties to access spoken content in written form. It makes Estonian audiovisual materials more inclusive and can assist in various communication contexts.
+4. Language Analysis: Transcription helps linguists and researchers analyze the structure, syntax, and intonation patterns of Estonian speech, providing valuable insights into the language.
+Overall, transcription enhances communication, teaching, accessibility, and language analysis for the Estonian language.</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Estonian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Partner for Estonian Transcription Services
+Are you in need of accurate and reliable Estonian transcription services? Look no further than Capital Typing. As a leading transcription service provider, we offer professional and high-quality transcription services for the Estonian language.
+At Capital Typing, we understand the importance of accurate transcriptions. Whether you have audio or video files that need to be transcribed, our team of experienced native Estonian speakers and expert transcribers are here to assist you. Our goal is to provide you with precise and timely transcriptions that meet your specific needs.
+Why choose Capital Typing for your Estonian transcription needs? Here are a few reasons:
+1. Expertise in Estonian Language: Our team comprises native Estonian speakers who are well-versed in the nuances of the language. This ensures that our transcriptions accurately capture the meaning and tone of the original content.
+2. Accuracy and Attention to Detail: We pride ourselves on delivering accurate and error-free transcriptions. Our team meticulously listens to the audio or video recordings, ensuring that every word and detail is transcribed with precision.
+3. Quick Turnaround Time: We understand the importance of efficiency in today's fast-paced world. That's why we strive to deliver your transcriptions within the agreed timeframe, without compromising on quality.
+4. Competitive Pricing: We believe that quality transcription services should be accessible to everyone. That's why we offer competitive pricing options that cater to different budgets, without compromising on the quality of our services.
+5. Customizable Solutions: At Capital Typing, we understand that each transcription project is unique. We work closely with our clients to understand their specific requirements and provide customized solutions to meet their needs.
+To take advantage of our Estonian transcription services, simply follow these easy steps:
+1. Contact us: Reach out to our friendly team either by phone or through our website to discuss your transcription needs. We'll provide you with a free quote and answer any questions you may have.
+2. Share Your Files: Once you've decided to proceed, securely share your audio or video files with us. We accept various file formats and take the utmost care in protecting your data and confidentiality.
+3. Specify Your Requirements: Let us know your specific requirements, such as formatting preferences, timestamps, or any other instructions. Our team will ensure that your transcriptions are delivered exactly the way you need them.
+4. Sit Back and Relax: Our skilled transcribers will get to work, carefully transcribing your audio or video files into written format. Rest assured that we will maintain the highest level of accuracy and professionalism throughout the process.
+5. Receive Your Transcriptions: Once your transcriptions are complete, we will deliver them to you in your preferred format. Whether you need them in Word, Excel, or any other format, we've got you covered.
+6. Review and Feedback: We value your satisfaction and appreciate your feedback. Take the time to review your transcriptions and let us know if any revisions or adjustments are required. We'll make sure to address any concerns promptly.
+At Capital Typing, we are committed to providing you with top-notch Estonian transcription services that exceed your expectations. Trust us to handle your transcription needs with professionalism, accuracy, and reliability. Contact us today to get started!</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Éwé</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bonjou! Kijan mwen ka ede ou jodi a?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Éwé language transcription services</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>I can help you with Éwé language transcription services. Please provide the audio file or specify the content you would like me to transcribe, and I'll do my best to assist you.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Éwé regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>The Éwé language is primarily spoken in the following regions:
+1. Togo: Éwé is one of the main languages in Togo and is spoken by the Éwé people who primarily reside in the southern regions such as Maritime Region, Plateaux Region, and Centrale Region.
+2. Ghana: Éwé is also spoken by the Éwé people in southeastern Ghana, particularly in the Volta Region.
+3. Benin: In Benin, the Éwé language is spoken by the Éwé people in the southern areas, including the Mono and Couffo departments.
+4. Nigeria: While spoken by a smaller population, there is also a community of Éwé speakers in Nigeria, particularly in the border areas with Togo and Benin.
+5. Diaspora: Due to migration and diaspora, Éwé is also spoken in various communities around the world, including in countries like the United States, Germany, France, and the United Kingdom.
+It's important to note that the Éwé language is recognized as one of the national languages of Togo and is taught in schools alongside French. Additionally, it is also used in religious and cultural ceremonies of the Éwé people.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Éwé dialects</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>The Éwé language is a dialect continuum spoken by the Éwé people in southeastern Ghana, southern Togo, and southwestern Benin. Within this dialect continuum, there are several distinct Éwé dialects. Some of the major dialects include:
+1. Southern Éwé: This is the most widely spoken dialect and is considered the standard Éwé. It is primarily spoken in southern Togo and southwestern Benin.
+2. Northern Éwé: This dialect is spoken in southeastern Ghana, particularly in the Volta Region. It has some variations in vocabulary, pronunciation, and grammar compared to Southern Éwé.
+3. Anlo Éwé: This dialect is spoken mainly in the Anlo area of southeastern Ghana, particularly around the town of Anloga. It is considered a distinct dialect within the Éwé language.
+4. Ho Éwé: This dialect is spoken in the Ho area of southeastern Ghana, particularly in the Volta Region. It has some variations in pronunciation and vocabulary compared to other Éwé dialects.
+5. Gbi Éwé: This dialect is spoken in the Gbi Traditional Area of southeastern Ghana, particularly in the Hohoe and Peki areas. It has some unique features compared to other Éwé dialects.
+These are just a few examples of the Éwé dialects. Each dialect has its own unique characteristics, but they are mutually intelligible, allowing speakers of different dialects to understand each other.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>How can someone utilize Éwé language transcription services</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>To utilize Éwé language transcription services, follow these steps:
+1. Find a reputable Éwé language transcription service provider: Look for companies or individuals that specialize in Éwé language transcription. Check their credentials, customer reviews, and experience in transcription projects.
+2. Contact the service provider: Reach out to the Éwé language transcription service provider through their website, email, or phone. Inquire about their services, pricing, turnaround times, and any specific requirements you may have.
+3. Provide the audio or video files: Once you have agreed upon the terms, submit the audio or video files that you want transcribed. Ensure the files are in a compatible format, such as MP3 or MP4, and of good quality for accurate transcription.
+4. Specify any formatting instructions: If you have any specific formatting requirements, such as timestamps, speaker identification, or inclusion of non-verbal sounds, communicate this to the transcription service provider.
+5. Review and proofread the transcript: Once you receive the transcribed document, carefully review and proofread it for accuracy. If you notice any errors or discrepancies, communicate them to the service provider for necessary revisions.
+6. Pay for the services: After you are satisfied with the transcription, settle the invoice according to the agreed-upon payment terms. Some companies may require upfront payment, while others offer flexible payment options.
+Note: It's important to ensure that the Éwé language transcription service provider maintains strict confidentiality and security protocols to protect your data.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Countries where Éwé is spoken</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Éwé is primarily spoken in Togo, a country located in West Africa. It is also spoken by populations in neighboring countries such as Ghana and Benin. In Togo, Éwé is one of the main languages and is widely used by the Éwé ethnic group. In Ghana and Benin, it is spoken by smaller Éwé communities.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Éwé language</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Éwé language, like any other language, for several reasons:
+1. Standardization: Éwé is spoken by millions of people in Togo, Ghana, and Benin. To ensure consistent understanding and communication, a standardized transcription system is necessary. This helps in teaching the language, creating language materials, and promoting literacy.
+2. Documentation: Transcription allows linguists, researchers, and language experts to accurately record and document the Éwé language. It helps in preserving the language for future generations and studying its linguistic features, grammar, and phonetics.
+3. Language learning and teaching: Transcription aids in language learning and teaching Éwé. It provides a written representation of sounds and pronunciation, enabling learners to validate their pronunciation and progress. Transcription also helps in creating textbooks, dictionaries, and language learning resources.
+4. Communication and accessibility: For Éwé speakers and learners, transcription provides a means of written communication and accessibility. It allows them to write texts, send messages, and communicate in the language using electronic devices or writing platforms.
+5. Translation and interpretation: Transcription assists in translation and interpretation services for the Éwé language. It allows translators and interpreters to accurately transcribe spoken Éwé into written form, making it easier to translate into other languages and interpret in various contexts.
+In summary, transcription plays a crucial role in standardizing, documenting, teaching, and preserving the Éwé language. It enables effective communication, language learning, and accessibility for its speakers and learners.</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>Bonjou! Kijan mwen ka ede ou jodi a? I can help you with Éwé language transcription services. Please provide the audio file or specify the content you would like me to transcribe, and I'll do my best to assist you. The Éwé language is primarily spoken in the following regions:
+1. Togo: Éwé is one of the main languages in Togo and is spoken by the Éwé people who primarily reside in the southern regions such as Maritime Region, Plateaux Region, and Centrale Region.
+2. Ghana: Éwé is also spoken by the Éwé people in southeastern Ghana, particularly in the Volta Region.
+3. Benin: In Benin, the Éwé language is spoken by the Éwé people in the southern areas, including the Mono and Couffo departments.
+4. Nigeria: While spoken by a smaller population, there is also a community of Éwé speakers in Nigeria, particularly in the border areas with Togo and Benin.
+5. Diaspora: Due to migration and diaspora, Éwé is also spoken in various communities around the world, including in countries like the United States, Germany, France, and the United Kingdom.
+It's important to note that the Éwé language is recognized as one of the national languages of Togo and is taught in schools alongside French. Additionally, it is also used in religious and cultural ceremonies of the Éwé people. The Éwé language is a dialect continuum spoken by the Éwé people in southeastern Ghana, southern Togo, and southwestern Benin. Within this dialect continuum, there are several distinct Éwé dialects. Some of the major dialects include:
+1. Southern Éwé: This is the most widely spoken dialect and is considered the standard Éwé. It is primarily spoken in southern Togo and southwestern Benin.
+2. Northern Éwé: This dialect is spoken in southeastern Ghana, particularly in the Volta Region. It has some variations in vocabulary, pronunciation, and grammar compared to Southern Éwé.
+3. Anlo Éwé: This dialect is spoken mainly in the Anlo area of southeastern Ghana, particularly around the town of Anloga. It is considered a distinct dialect within the Éwé language.
+4. Ho Éwé: This dialect is spoken in the Ho area of southeastern Ghana, particularly in the Volta Region. It has some variations in pronunciation and vocabulary compared to other Éwé dialects.
+5. Gbi Éwé: This dialect is spoken in the Gbi Traditional Area of southeastern Ghana, particularly in the Hohoe and Peki areas. It has some unique features compared to other Éwé dialects.
+These are just a few examples of the Éwé dialects. Each dialect has its own unique characteristics, but they are mutually intelligible, allowing speakers of different dialects to understand each other. To utilize Éwé language transcription services, follow these steps:
+1. Find a reputable Éwé language transcription service provider: Look for companies or individuals that specialize in Éwé language transcription. Check their credentials, customer reviews, and experience in transcription projects.
+2. Contact the service provider: Reach out to the Éwé language transcription service provider through their website, email, or phone. Inquire about their services, pricing, turnaround times, and any specific requirements you may have.
+3. Provide the audio or video files: Once you have agreed upon the terms, submit the audio or video files that you want transcribed. Ensure the files are in a compatible format, such as MP3 or MP4, and of good quality for accurate transcription.
+4. Specify any formatting instructions: If you have any specific formatting requirements, such as timestamps, speaker identification, or inclusion of non-verbal sounds, communicate this to the transcription service provider.
+5. Review and proofread the transcript: Once you receive the transcribed document, carefully review and proofread it for accuracy. If you notice any errors or discrepancies, communicate them to the service provider for necessary revisions.
+6. Pay for the services: After you are satisfied with the transcription, settle the invoice according to the agreed-upon payment terms. Some companies may require upfront payment, while others offer flexible payment options.
+Note: It's important to ensure that the Éwé language transcription service provider maintains strict confidentiality and security protocols to protect your data. Éwé is primarily spoken in Togo, a country located in West Africa. It is also spoken by populations in neighboring countries such as Ghana and Benin. In Togo, Éwé is one of the main languages and is widely used by the Éwé ethnic group. In Ghana and Benin, it is spoken by smaller Éwé communities. Transcription is needed for the Éwé language, like any other language, for several reasons:
+1. Standardization: Éwé is spoken by millions of people in Togo, Ghana, and Benin. To ensure consistent understanding and communication, a standardized transcription system is necessary. This helps in teaching the language, creating language materials, and promoting literacy.
+2. Documentation: Transcription allows linguists, researchers, and language experts to accurately record and document the Éwé language. It helps in preserving the language for future generations and studying its linguistic features, grammar, and phonetics.
+3. Language learning and teaching: Transcription aids in language learning and teaching Éwé. It provides a written representation of sounds and pronunciation, enabling learners to validate their pronunciation and progress. Transcription also helps in creating textbooks, dictionaries, and language learning resources.
+4. Communication and accessibility: For Éwé speakers and learners, transcription provides a means of written communication and accessibility. It allows them to write texts, send messages, and communicate in the language using electronic devices or writing platforms.
+5. Translation and interpretation: Transcription assists in translation and interpretation services for the Éwé language. It allows translators and interpreters to accurately transcribe spoken Éwé into written form, making it easier to translate into other languages and interpret in various contexts.
+In summary, transcription plays a crucial role in standardizing, documenting, teaching, and preserving the Éwé language. It enables effective communication, language learning, and accessibility for its speakers and learners.</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Éwé  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>Éwé Transcription Services: Accurate Transcription Specialists for the Éwé Language
+Éwé is a widely spoken language in West Africa, primarily in Togo, Ghana, Benin, and even in diaspora communities around the world. At Capital Typing, we recognize the importance of accurate transcription services for the Éwé language. Whether you need transcription for educational materials, research documentation, language learning resources, or any other purpose, our team of experts is here to assist you.
+Why Choose Capital Typing for Éwé Transcription Services?
+1. Experience and Expertise: We have a team of experienced linguists who specialize in Éwé transcription services. They are native speakers or fluent in the language, ensuring accurate and reliable transcriptions.
+2. Customized Solutions: We understand that each transcription project has unique requirements. That's why we offer customized solutions to cater to your specific needs. Whether you need timestamps, speaker identification, or formatting in a particular style, we can accommodate your preferences.
+3. Quality Assurance: At Capital Typing, we prioritize quality. Our team follows stringent quality control processes to ensure the highest level of accuracy in our transcriptions. We thoroughly review and proofread every transcript before delivering it to you.
+4. Confidentiality and Security: We understand the importance of keeping your data secure and confidential. Rest assured that your audio files and transcribed documents are protected through our strict security protocols.
+How to Get Started with Éwé Transcription Services from Capital Typing
+1. Reach out to us: Visit our website or contact us via email or phone to discuss your Éwé transcription needs. Our friendly team will be happy to assist you and provide any necessary information.
+2. Provide the audio files: Once we have the details of your project, you can simply upload the audio files to our secure platform. Ensure that the files are of good quality for accurate transcription.
+3. Specify your requirements: Let us know about any specific instructions or formatting requirements you have for the transcriptions. We will tailor our services to meet your expectations.
+4. Receive your transcriptions: Our team will transcribe your Éwé audio files with precision and deliver the completed transcriptions within the agreed-upon timeframe. You can expect reliable and high-quality results.
+5. Review and feedback: Take the time to review the transcribed documents. If you notice any errors or require revisions, simply provide us with your feedback, and we will make the necessary adjustments to ensure your satisfaction.
+6. Payment: Once you are satisfied with the transcriptions, settle the invoice according to the agreed-upon payment terms. We offer flexible payment options for your convenience.
+Experience the Benefits of Éwé Transcription Services
+By utilizing Éwé transcription services from Capital Typing, you can enjoy numerous benefits, including:
+1. Accurate representation: Our transcriptions provide an accurate written representation of spoken Éwé, allowing for standardized language use and clear communication.
+2. Language learning and teaching: Transcriptions play a vital role in language learning and teaching. They assist learners in understanding pronunciation, grammar, and vocabulary, enabling them to master the Éwé language more effectively.
+3. Preservation of the language: Transcribing the Éwé language is crucial for preserving its linguistic features, grammar, and vocabulary. It ensures that Éwé remains accessible and understood by future generations.
+4. Translation and interpretation: Transcriptions serve as a reliable base for translation and interpretation services. They facilitate the translation of Éwé into other languages and assist interpreters in accurately conveying spoken messages.
+Partner with Capital Typing for Your Éwé Transcription Needs
+At Capital Typing, we are committed to providing top-quality Éwé transcription services. As language specialists, we understand the value of accurate transcriptions and the importance of preserving and promoting the Éwé language. Contact us today to discuss your project and let our experts assist you in achieving your transcription goals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Farsi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>بله، من می‌توانم به شما در زبان فارسی کمک کنم. چگونه می‌توانم به شما کمک کنم؟</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Farsi language transcription services</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>There are many transcription services available for Farsi language. Here are a few options:
+1. GoTranscript: They offer high-quality Farsi transcription services with experienced native speakers.
+2. Rev: Rev provides Farsi transcription services for various industries like legal, medical, and general transcription.
+3. TranscriptionPro: They offer professional Farsi transcription services with affordable rates and quick turnaround times.
+4. TranscriptionWing: They provide transcription services for Farsi language, ensuring accuracy and confidentiality.
+5. GMR Transcription: GMR Transcription offers Farsi transcription services for audio and video files with a team of experienced native linguists.
+These are just a few options, and there are many more available. It is recommended to research and compare the services, rates, and reviews of different providers to find the one that best suits your specific needs.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Farsi regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Farsi, also known as Persian, is primarily spoken in the following regions:
+1. Iran: Farsi is the official language of Iran and is widely spoken throughout the country.
+2. Afghanistan: Farsi is one of the official languages of Afghanistan and is spoken predominantly by the Tajik ethnic minority.
+3. Tajikistan: Farsi, known as Tajiki, is one of the official languages of Tajikistan, and it is spoken by the majority of the population.
+4. Uzbekistan: Farsi, known as Dari, is still spoken by a significant number of people in Uzbekistan, especially in the Bukhara and Samarkand regions.
+5. Iraq: Farsi is spoken by the Kurdish population in certain regions of Iraq, particularly in northern Iraq.
+6. Pakistan: Farsi is spoken by a small population of individuals, mostly belonging to the Hazara community, in certain regions of Pakistan, such as Quetta.
+7. Bahrain: Farsi is spoken by the ethnic Persian community in Bahrain.
+8. Azerbaijan: Farsi is spoken by the Talysh people in certain regions of Azerbaijan, mainly in the southern part of the country.
+9. Kuwait: Farsi is spoken by a small community of Persian speakers in Kuwait.
+It is important to note that while Farsi/Persian is spoken in these regions, the dialects and accents may vary to some extent.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Farsi dialects</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Farsi, also known as Persian, is the official language of Iran. However, there are several dialects of Farsi spoken in different regions and among different communities. Some of the main dialects include:
+1. Tehran dialect: This is considered the standard Persian dialect spoken in the capital city and surrounding areas. It serves as the benchmark dialect for Farsi pronunciation and grammar.
+2. Mashhadi dialect: Spoken in the city of Mashhad, this dialect has variations in pronunciation and vocabulary compared to standard Farsi.
+3. Shirazi dialect: spoken in the city of Shiraz, it has distinct pronunciation patterns and vocabulary.
+4. Esfahani dialect: spoken in the city of Esfahan, it has its unique expressions, vocabulary, and pronunciation.
+5. Kermani dialect: spoken in the Kerman Province, it has its unique features, including vocabulary and accent.
+6. Yazdi dialect: spoken in the city of Yazd, it has its unique accent and vocabulary.
+These are just a few examples of the different dialects of Farsi. Each region often has its variations in pronunciation, vocabulary, and even grammar. It's important to note that while these dialects may differ, they are still mutually intelligible with each other.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>How can someone utilize Farsi language transcription services</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>To utilize Farsi language transcription services, follow these steps:
+1. Research and select a reliable Farsi transcription service provider: Look for a professional service provider with experience in Farsi transcription, ensuring they have native Farsi speakers on their team.
+2. Determine the type of transcription service needed: Identify the specific requirements for your project. For example, do you need verbatim transcription or a summarization of the content? Determine whether you require timestamps, speaker identification, or any other specific formatting.
+3. Collect the audio or video files: Gather the audio or video files that need to be transcribed. Make sure the files are of high quality and clearly audible.
+4. Contact the Farsi transcription service provider: Reach out to the service provider through their website or contact information. Provide them with all the necessary details, such as the length of the audio or video, your transcription requirements, and any other specific instructions.
+5. Get a quote and agree on terms: The transcription service provider will assess your project requirements and provide you with a quote. Discuss and agree upon the pricing, turnaround time, and any other terms and conditions before proceeding.
+6. Upload or share the files: Depending on the service provider's platform, you may need to upload your files directly onto their system or share them through a cloud storage service.
+7. Review and proofread the transcriptions: Once the transcriptions are delivered to you, review them for accuracy and quality. If any corrections are needed, communicate them to the service provider.
+8. Payment and completion: Upon satisfactory review, pay the agreed-upon amount to the service provider. This usually involves online payment methods, such as credit/debit cards, PayPal, or bank transfers. 
+By following these steps, you can effectively utilize Farsi language transcription services for various purposes, such as academic research, business meetings, interviews, or content localization.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Countries where Farsi is spoken</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Farsi, also known as Persian, is primarily spoken in Iran, where it is the official language. It is also spoken in other countries in the region, including Afghanistan and Tajikistan. Farsi is also spoken by minorities in Iraq, Pakistan, Bahrain, and the United Arab Emirates. Additionally, there are Iranian communities around the world, particularly in the United States, Canada, and Europe, where Farsi is also spoken.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Farsi language</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Farsi language for several reasons:
+1. Farsi is written in a different script: Farsi is written using the Arabic script, which can be challenging for non-native speakers to read. Transcription helps to convert Farsi text into a more familiar script, such as Latin or phonetic script, making it easier for learners or those unfamiliar with the Arabic script to read and understand.
+2. Pronunciation guidance: Farsi has a complex phonetic system, with different letters and sounds compared to English or other languages. Transcription provides a way to represent the pronunciation of Farsi words in a standardized and recognizable form, aiding in pronunciation learning and communication.
+3. Consistency and understanding: Transcribing Farsi words using a consistent system helps to avoid confusion, especially when different spellings or representation of sounds exist in various contexts or dialects. It ensures that there is a standardized way to represent Farsi words, improving clarity and understanding across different contexts or regions.
+4. Language learning and accessibility: Transcribing Farsi can assist learners in understanding and pronouncing Farsi words accurately. It also makes Farsi content more accessible to non-native speakers, as they can read and understand the text even if they are not proficient in reading the Arabic script.
+Overall, transcription is needed for the Farsi language to facilitate communication, aid in language learning, and improve accessibility for non-native speakers.</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>بله، من می‌توانم به شما در زبان فارسی کمک کنم. چگونه می‌توانم به شما کمک کنم؟ There are many transcription services available for Farsi language. Here are a few options:
+1. GoTranscript: They offer high-quality Farsi transcription services with experienced native speakers.
+2. Rev: Rev provides Farsi transcription services for various industries like legal, medical, and general transcription.
+3. TranscriptionPro: They offer professional Farsi transcription services with affordable rates and quick turnaround times.
+4. TranscriptionWing: They provide transcription services for Farsi language, ensuring accuracy and confidentiality.
+5. GMR Transcription: GMR Transcription offers Farsi transcription services for audio and video files with a team of experienced native linguists.
+These are just a few options, and there are many more available. It is recommended to research and compare the services, rates, and reviews of different providers to find the one that best suits your specific needs. Farsi, also known as Persian, is primarily spoken in the following regions:
+1. Iran: Farsi is the official language of Iran and is widely spoken throughout the country.
+2. Afghanistan: Farsi is one of the official languages of Afghanistan and is spoken predominantly by the Tajik ethnic minority.
+3. Tajikistan: Farsi, known as Tajiki, is one of the official languages of Tajikistan, and it is spoken by the majority of the population.
+4. Uzbekistan: Farsi, known as Dari, is still spoken by a significant number of people in Uzbekistan, especially in the Bukhara and Samarkand regions.
+5. Iraq: Farsi is spoken by the Kurdish population in certain regions of Iraq, particularly in northern Iraq.
+6. Pakistan: Farsi is spoken by a small population of individuals, mostly belonging to the Hazara community, in certain regions of Pakistan, such as Quetta.
+7. Bahrain: Farsi is spoken by the ethnic Persian community in Bahrain.
+8. Azerbaijan: Farsi is spoken by the Talysh people in certain regions of Azerbaijan, mainly in the southern part of the country.
+9. Kuwait: Farsi is spoken by a small community of Persian speakers in Kuwait.
+It is important to note that while Farsi/Persian is spoken in these regions, the dialects and accents may vary to some extent. Farsi, also known as Persian, is the official language of Iran. However, there are several dialects of Farsi spoken in different regions and among different communities. Some of the main dialects include:
+1. Tehran dialect: This is considered the standard Persian dialect spoken in the capital city and surrounding areas. It serves as the benchmark dialect for Farsi pronunciation and grammar.
+2. Mashhadi dialect: Spoken in the city of Mashhad, this dialect has variations in pronunciation and vocabulary compared to standard Farsi.
+3. Shirazi dialect: spoken in the city of Shiraz, it has distinct pronunciation patterns and vocabulary.
+4. Esfahani dialect: spoken in the city of Esfahan, it has its unique expressions, vocabulary, and pronunciation.
+5. Kermani dialect: spoken in the Kerman Province, it has its unique features, including vocabulary and accent.
+6. Yazdi dialect: spoken in the city of Yazd, it has its unique accent and vocabulary.
+These are just a few examples of the different dialects of Farsi. Each region often has its variations in pronunciation, vocabulary, and even grammar. It's important to note that while these dialects may differ, they are still mutually intelligible with each other. To utilize Farsi language transcription services, follow these steps:
+1. Research and select a reliable Farsi transcription service provider: Look for a professional service provider with experience in Farsi transcription, ensuring they have native Farsi speakers on their team.
+2. Determine the type of transcription service needed: Identify the specific requirements for your project. For example, do you need verbatim transcription or a summarization of the content? Determine whether you require timestamps, speaker identification, or any other specific formatting.
+3. Collect the audio or video files: Gather the audio or video files that need to be transcribed. Make sure the files are of high quality and clearly audible.
+4. Contact the Farsi transcription service provider: Reach out to the service provider through their website or contact information. Provide them with all the necessary details, such as the length of the audio or video, your transcription requirements, and any other specific instructions.
+5. Get a quote and agree on terms: The transcription service provider will assess your project requirements and provide you with a quote. Discuss and agree upon the pricing, turnaround time, and any other terms and conditions before proceeding.
+6. Upload or share the files: Depending on the service provider's platform, you may need to upload your files directly onto their system or share them through a cloud storage service.
+7. Review and proofread the transcriptions: Once the transcriptions are delivered to you, review them for accuracy and quality. If any corrections are needed, communicate them to the service provider.
+8. Payment and completion: Upon satisfactory review, pay the agreed-upon amount to the service provider. This usually involves online payment methods, such as credit/debit cards, PayPal, or bank transfers. 
+By following these steps, you can effectively utilize Farsi language transcription services for various purposes, such as academic research, business meetings, interviews, or content localization. Farsi, also known as Persian, is primarily spoken in Iran, where it is the official language. It is also spoken in other countries in the region, including Afghanistan and Tajikistan. Farsi is also spoken by minorities in Iraq, Pakistan, Bahrain, and the United Arab Emirates. Additionally, there are Iranian communities around the world, particularly in the United States, Canada, and Europe, where Farsi is also spoken. Transcription is needed for the Farsi language for several reasons:
+1. Farsi is written in a different script: Farsi is written using the Arabic script, which can be challenging for non-native speakers to read. Transcription helps to convert Farsi text into a more familiar script, such as Latin or phonetic script, making it easier for learners or those unfamiliar with the Arabic script to read and understand.
+2. Pronunciation guidance: Farsi has a complex phonetic system, with different letters and sounds compared to English or other languages. Transcription provides a way to represent the pronunciation of Farsi words in a standardized and recognizable form, aiding in pronunciation learning and communication.
+3. Consistency and understanding: Transcribing Farsi words using a consistent system helps to avoid confusion, especially when different spellings or representation of sounds exist in various contexts or dialects. It ensures that there is a standardized way to represent Farsi words, improving clarity and understanding across different contexts or regions.
+4. Language learning and accessibility: Transcribing Farsi can assist learners in understanding and pronouncing Farsi words accurately. It also makes Farsi content more accessible to non-native speakers, as they can read and understand the text even if they are not proficient in reading the Arabic script.
+Overall, transcription is needed for the Farsi language to facilitate communication, aid in language learning, and improve accessibility for non-native speakers.</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Farsi  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>Farsi Transcription Services: Providing Accurate Transcriptions for the Persian Language
+If you are in need of Farsi transcription services, Capital Typing can assist you. We offer high-quality transcription services for the Farsi language, ensuring accurate and reliable transcriptions for a wide range of industries and purposes.
+At Capital Typing, we understand the importance of providing accurate transcriptions that capture the essence of the original content. Our team of expert transcribers consists of native Farsi speakers who are highly skilled in their craft. They have a deep understanding of Farsi grammar, vocabulary, and pronunciation, ensuring that your transcriptions are flawless and of the highest quality.
+Why Choose Capital Typing for Farsi Transcription Services?
+1. Accuracy and Attention to Detail: Our transcribers pay close attention to detail to ensure that every word and phrase is transcribed accurately. We understand that even the slightest error can change the meaning of a sentence, so we take great care in delivering precise transcriptions.
+2. Industry Expertise: We have experience working with various industries, including legal, medical, academic, and general transcription. Our transcribers are knowledgeable in the specific terminology and jargon associated with these industries, ensuring that your transcriptions are accurate and contextually appropriate.
+3. Quick Turnaround Time: We understand that time is of the essence, and we strive to deliver your transcriptions within the agreed-upon timeframe. Our team works efficiently without compromising on quality, providing you with fast and reliable transcription services.
+4. Confidentiality and Security: At Capital Typing, we prioritize the security and confidentiality of your content. We have strict protocols in place to ensure that your files are handled with the utmost care and kept secure throughout the transcription process.
+How to Utilize Capital Typing's Farsi Transcription Services?
+1. Contact us: Get in touch with us through our website or contact information to discuss your specific transcription requirements. Our team will guide you through the process and answer any questions you may have.
+2. Provide the files: Share your audio or video files securely with us. We accept various file formats and ensure that your content remains confidential and protected.
+3. Specify your instructions: Let us know if you have any specific instructions or formatting requirements for your transcriptions. We can include timestamps, speaker identification, or any other details that are necessary for your project.
+4. Get a quote: Once we have reviewed your project requirements, we will provide you with a quote. We offer competitive rates for our Farsi transcription services, ensuring that you receive the best value for your investment.
+5. Review and Approve: Once your transcriptions are complete, we will deliver them to you for review. Take the time to go through the transcriptions and ensure that they meet your expectations. If any revisions are needed, we are happy to make them.
+6. Payment and Delivery: Once you are satisfied with the transcriptions, you can make the payment as per the agreed-upon terms. We accept various online payment methods for your convenience. Upon receiving the payment, we will provide you with the final transcriptions.
+Capital Typing is your trusted partner for accurate and reliable Farsi transcription services. With our team of native Farsi speakers and industry expertise, we can handle all your transcription needs. Contact us today to discuss your project requirements and experience the quality and professionalism of our services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Finnish</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Finnish language transcription services</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>There are several transcription services available for the Finnish language. Here are a few options you can consider:
+1. Gglot: Gglot offers professional transcription services for various languages, including Finnish. They have a user-friendly interface and affordable pricing options.
+2. TranscriptionStar: TranscriptionStar provides accurate transcription services for the Finnish language. They have experienced native-speaking professionals who can transcribe your audio or video files.
+3. Rev: Rev is a popular transcription service that also supports Finnish language transcriptions. They offer fast turnaround times and reliable accuracy.
+4. Way With Words: Way With Words is a transcription company that offers Finnish transcription services. They have a team of trained transcribers who can handle various types of content.
+When choosing a transcription service, consider factors like accuracy, turnaround time, pricing, and customer reviews to ensure you find the best option for your needs.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Finnish regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Finnish is spoken primarily in Finland, with roughly 5.5 million native speakers. While it is the official language of the entire country, there are some regional dialects and variations within Finland. Here are a few notable regions where Finnish is spoken:
+1. Uusimaa: This region includes the capital city of Helsinki and its surrounding areas, where Finnish is the predominant language.
+2. Pirkanmaa: Located in the southern part of Finland, Pirkanmaa is known for its major cities, such as Tampere, where Finnish is widely spoken.
+3. Ostrobothnia: Situated on the western coast, Ostrobothnia is home to cities like Vaasa and Kokkola, where Finnish is spoken alongside Swedish.
+4. North Karelia: Located in the eastern part of the country, North Karelia is known for its natural beauty and cities like Joensuu, where Finnish is spoken.
+5. Lapland: This northernmost region of Finland is home to the Sami people, who have their own indigenous language, but Finnish is also widely spoken among the local population.
+These are just a few examples, as Finnish is spoken throughout the country, but variations in dialects and accents can be found in different regions.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Finnish dialects</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Finnish dialects refer to the regional varieties of the Finnish language spoken in different parts of Finland. There are several main dialect groups within Finnish, including Western Finnish, Eastern Finnish, and Northern Finnish.
+Western Finnish dialects are spoken in the southwestern parts of Finland, including areas such as Turku and Helsinki. These dialects are known for their strong influences from Swedish and have similarities to the neighboring Swedish dialects.
+Eastern Finnish dialects are spoken in eastern and southeastern parts of Finland, including areas such as Kuopio and Joensuu. These dialects are characterized by their distinct rhythm and intonation, as well as several features that distinguish them from other Finnish dialects.
+Northern Finnish dialects are spoken in the northernmost parts of Finland, including areas such as Lapland and Kajaani. These dialects have their unique vocabulary, pronunciation, and grammar features. They also share some similarities with the Sami languages spoken by the indigenous Sami people in the region.
+It's important to note that dialects can vary greatly even within these main dialect groups, with each region having its own specific features and variations.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>How can someone utilize Finnish language transcription services</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Someone can utilize Finnish language transcription services by following these steps:
+1. Research and select a reliable Finnish language transcription service provider. Look for companies or freelancers with experience in transcribing content in Finnish.
+2. Contact the chosen service provider to discuss the transcription project details, such as the length and format of the audio/video files, desired turnaround time, and any specific requirements.
+3. Provide the audio/video files to be transcribed. Make sure the files are of good quality and clearly audible for accurate transcription.
+4. Discuss the pricing and payment terms with the service provider. Typically, transcription services are charged per minute or per hour of audio/video footage transcribed. It is important to clarify the final cost before proceeding.
+5. Depending on the service provider's guidelines, you may need to upload the files to a secure server or share them via file-sharing platforms.
+6. The transcription service provider will transcribe the Finnish audio/video content into text format. This process involves listening to the recordings and converting the speech into written text.
+7. Once the transcription is completed, the service provider will deliver the final transcript in the agreed-upon format (e.g., Word document, PDF, etc.). Ensure the transcript meets your quality expectations and accuracy requirements.
+8. If necessary, discuss any revisions or modifications needed with the service provider. Reputable providers often offer a revision policy in case any errors or inaccuracies are found.
+9. Make the payment to the service provider as per the agreed terms and conditions.
+By utilizing Finnish language transcription services, individuals can convert audio or video content into a written format, making it easier to refer back to, analyze, and share the information with others.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Countries where Finnish is spoken</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Finnish is the official language of Finland. However, it is also spoken by minority communities in the following countries:
+1. Sweden: Finnish is recognized as a minority language in Sweden, especially in the northern regions closer to the Finnish border.
+2. Norway: The Finnmark region in northern Norway has a significant Finnish-speaking population.
+3. Russia: Finnish is spoken in the Karelian Republic, which is a federal subject of Russia located on the Finnish-Russian border.
+4. Estonia: In parts of eastern Estonia, particularly in the areas close to the Lake Peipus, there are Finnish-speaking communities.
+5. Canada: Finnish is spoken by some Finnish Canadians, primarily in the Thunder Bay region of Ontario.
+6. United States: Finnish-speaking communities can also be found in certain areas of the United States, such as the Upper Peninsula of Michigan, Minnesota, and Wisconsin.
+7. Australia: Some Finnish speakers have emigrated to Australia and can be found in cities like Sydney and Melbourne.
+8. Argentina: A small number of Finnish-speaking communities can be found in Argentina, particularly in the Patagonia region.
+It is worth noting that while Finnish may be spoken in these countries, it is not widely spoken outside of Finland.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Finnish language</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Finnish language for several reasons:
+1. Finnish is a highly phonetic language: Finnish has a very consistent and predictable sound system, meaning that the written form of a word usually corresponds closely to its pronunciation. Transcription helps to accurately represent the spoken language and makes it easier for non-native speakers to learn and pronounce Finnish words correctly.
+2. Aid in language learning: Transcription can be a valuable tool for language learning, especially for beginners. By providing a written representation of the sounds in Finnish words, learners can better understand and practice the correct pronunciation.
+3. Standardization: Transcription helps in standardizing the spelling of Finnish words, particularly in cases where there may be dialectal or regional variations in pronunciation. Having a consistent transcription system ensures that Finnish words are understood and pronounced uniformly across different contexts.
+4. Accessibility and inclusivity: Transcription can make Finnish more accessible to individuals with hearing impairments or those who may struggle with oral comprehension. By providing a written representation of spoken Finnish, transcription enables a wider range of individuals to engage with and understand the language.
+Overall, transcription plays an essential role in accurately representing the Finnish language, aiding in language learning, standardizing the spelling, and promoting accessibility and inclusivity.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today? There are several transcription services available for the Finnish language. Here are a few options you can consider:
+1. Gglot: Gglot offers professional transcription services for various languages, including Finnish. They have a user-friendly interface and affordable pricing options.
+2. TranscriptionStar: TranscriptionStar provides accurate transcription services for the Finnish language. They have experienced native-speaking professionals who can transcribe your audio or video files.
+3. Rev: Rev is a popular transcription service that also supports Finnish language transcriptions. They offer fast turnaround times and reliable accuracy.
+4. Way With Words: Way With Words is a transcription company that offers Finnish transcription services. They have a team of trained transcribers who can handle various types of content.
+When choosing a transcription service, consider factors like accuracy, turnaround time, pricing, and customer reviews to ensure you find the best option for your needs. Finnish is spoken primarily in Finland, with roughly 5.5 million native speakers. While it is the official language of the entire country, there are some regional dialects and variations within Finland. Here are a few notable regions where Finnish is spoken:
+1. Uusimaa: This region includes the capital city of Helsinki and its surrounding areas, where Finnish is the predominant language.
+2. Pirkanmaa: Located in the southern part of Finland, Pirkanmaa is known for its major cities, such as Tampere, where Finnish is widely spoken.
+3. Ostrobothnia: Situated on the western coast, Ostrobothnia is home to cities like Vaasa and Kokkola, where Finnish is spoken alongside Swedish.
+4. North Karelia: Located in the eastern part of the country, North Karelia is known for its natural beauty and cities like Joensuu, where Finnish is spoken.
+5. Lapland: This northernmost region of Finland is home to the Sami people, who have their own indigenous language, but Finnish is also widely spoken among the local population.
+These are just a few examples, as Finnish is spoken throughout the country, but variations in dialects and accents can be found in different regions. Finnish dialects refer to the regional varieties of the Finnish language spoken in different parts of Finland. There are several main dialect groups within Finnish, including Western Finnish, Eastern Finnish, and Northern Finnish.
+Western Finnish dialects are spoken in the southwestern parts of Finland, including areas such as Turku and Helsinki. These dialects are known for their strong influences from Swedish and have similarities to the neighboring Swedish dialects.
+Eastern Finnish dialects are spoken in eastern and southeastern parts of Finland, including areas such as Kuopio and Joensuu. These dialects are characterized by their distinct rhythm and intonation, as well as several features that distinguish them from other Finnish dialects.
+Northern Finnish dialects are spoken in the northernmost parts of Finland, including areas such as Lapland and Kajaani. These dialects have their unique vocabulary, pronunciation, and grammar features. They also share some similarities with the Sami languages spoken by the indigenous Sami people in the region.
+It's important to note that dialects can vary greatly even within these main dialect groups, with each region having its own specific features and variations. Someone can utilize Finnish language transcription services by following these steps:
+1. Research and select a reliable Finnish language transcription service provider. Look for companies or freelancers with experience in transcribing content in Finnish.
+2. Contact the chosen service provider to discuss the transcription project details, such as the length and format of the audio/video files, desired turnaround time, and any specific requirements.
+3. Provide the audio/video files to be transcribed. Make sure the files are of good quality and clearly audible for accurate transcription.
+4. Discuss the pricing and payment terms with the service provider. Typically, transcription services are charged per minute or per hour of audio/video footage transcribed. It is important to clarify the final cost before proceeding.
+5. Depending on the service provider's guidelines, you may need to upload the files to a secure server or share them via file-sharing platforms.
+6. The transcription service provider will transcribe the Finnish audio/video content into text format. This process involves listening to the recordings and converting the speech into written text.
+7. Once the transcription is completed, the service provider will deliver the final transcript in the agreed-upon format (e.g., Word document, PDF, etc.). Ensure the transcript meets your quality expectations and accuracy requirements.
+8. If necessary, discuss any revisions or modifications needed with the service provider. Reputable providers often offer a revision policy in case any errors or inaccuracies are found.
+9. Make the payment to the service provider as per the agreed terms and conditions.
+By utilizing Finnish language transcription services, individuals can convert audio or video content into a written format, making it easier to refer back to, analyze, and share the information with others. Finnish is the official language of Finland. However, it is also spoken by minority communities in the following countries:
+1. Sweden: Finnish is recognized as a minority language in Sweden, especially in the northern regions closer to the Finnish border.
+2. Norway: The Finnmark region in northern Norway has a significant Finnish-speaking population.
+3. Russia: Finnish is spoken in the Karelian Republic, which is a federal subject of Russia located on the Finnish-Russian border.
+4. Estonia: In parts of eastern Estonia, particularly in the areas close to the Lake Peipus, there are Finnish-speaking communities.
+5. Canada: Finnish is spoken by some Finnish Canadians, primarily in the Thunder Bay region of Ontario.
+6. United States: Finnish-speaking communities can also be found in certain areas of the United States, such as the Upper Peninsula of Michigan, Minnesota, and Wisconsin.
+7. Australia: Some Finnish speakers have emigrated to Australia and can be found in cities like Sydney and Melbourne.
+8. Argentina: A small number of Finnish-speaking communities can be found in Argentina, particularly in the Patagonia region.
+It is worth noting that while Finnish may be spoken in these countries, it is not widely spoken outside of Finland. Transcription is needed for the Finnish language for several reasons:
+1. Finnish is a highly phonetic language: Finnish has a very consistent and predictable sound system, meaning that the written form of a word usually corresponds closely to its pronunciation. Transcription helps to accurately represent the spoken language and makes it easier for non-native speakers to learn and pronounce Finnish words correctly.
+2. Aid in language learning: Transcription can be a valuable tool for language learning, especially for beginners. By providing a written representation of the sounds in Finnish words, learners can better understand and practice the correct pronunciation.
+3. Standardization: Transcription helps in standardizing the spelling of Finnish words, particularly in cases where there may be dialectal or regional variations in pronunciation. Having a consistent transcription system ensures that Finnish words are understood and pronounced uniformly across different contexts.
+4. Accessibility and inclusivity: Transcription can make Finnish more accessible to individuals with hearing impairments or those who may struggle with oral comprehension. By providing a written representation of spoken Finnish, transcription enables a wider range of individuals to engage with and understand the language.
+Overall, transcription plays an essential role in accurately representing the Finnish language, aiding in language learning, standardizing the spelling, and promoting accessibility and inclusivity.</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Finnish  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Partner for Finnish Transcription Services
+Are you in need of professional Finnish transcription services? Look no further than Capital Typing! We are a reputable transcription company with extensive experience in transcribing content in a wide range of languages, including Finnish. Our team of skilled transcribers is dedicated to delivering accurate and high-quality transcriptions to meet your specific needs.
+Why Choose Capital Typing for Finnish Transcription Services?
+Accuracy: At Capital Typing, we understand the importance of accuracy in transcriptions. Our native-speaking Finnish transcribers have a deep understanding of the language and its nuances, ensuring that your transcribed content is precise and reflective of the original audio or video file.
+Expertise: Our team consists of experienced professionals who are well-versed in transcribing Finnish content. Whether you have interviews, meetings, podcasts, or any other type of audio or video material, our experts have the skills and knowledge to handle it effectively.
+Quality Assurance: We have a comprehensive quality control process in place to ensure the highest standards of accuracy and quality. Each transcription goes through multiple rounds of review to eliminate errors and inconsistencies, guaranteeing you a polished and error-free final transcript.
+Confidentiality: At Capital Typing, we prioritize the privacy and confidentiality of our clients. We follow strict security protocols and use secure file transfer methods to protect your sensitive information and ensure that it remains confidential throughout the transcription process.
+Timely Delivery: We understand that time is of the essence, and we are committed to providing prompt and efficient service. Our team works diligently to deliver your transcriptions within the agreed-upon timeframe, allowing you to meet your deadlines and stay on schedule.
+Competitive Pricing: We offer competitive pricing options that provide excellent value for your money. Our transparent pricing structure ensures that you know exactly what to expect, without any hidden fees or surprises.
+How to Get Started with Capital Typing for Finnish Transcription Services
+1. Contact Us: Reach out to Capital Typing and provide us with the details of your transcription project. Let us know the length and format of the audio or video files, as well as any specific requirements or instructions you may have.
+2. File Submission: Share your audio or video files with us securely. Our secure file transfer methods ensure that your files are safe throughout the process.
+3. Project Assessment: Our team will review your project and provide you with a detailed quote and turnaround time based on your specific requirements.
+4. Transcription Process: Our experienced Finnish transcribers will transcribe your content accurately and efficiently, ensuring that all important details are captured.
+5. Quality Assurance: Each transcription goes through a rigorous quality assurance process, where our team carefully reviews and edits the transcript for accuracy, consistency, and formatting.
+6. Delivery: Once the transcription is complete and passes our quality control checks, we will deliver the final transcript to you in the agreed-upon format.
+Experience the Benefits of Capital Typing's Finnish Transcription Services
+Finnish transcription services offered by Capital Typing provide a wide range of benefits, including:
+1. Easy accessibility to content: Transcriptions make it easier for individuals to access and understand Finnish content, regardless of their language proficiency or hearing impairments.
+2. Language learning: Transcriptions serve as valuable learning tools for individuals who are studying Finnish. By providing written representations of spoken Finnish, learners can improve their pronunciation and comprehension skills.
+3. Standardization: Transcription ensures consistent spelling and pronunciation across different dialects, making it easier for individuals to understand and communicate effectively in Finnish.
+4. Preservation of information: Transcriptions allow for the preservation of important information from audio or video recordings. It becomes easier to refer back to and analyze the content at a later time.
+Choose Capital Typing as your trusted partner for Finnish transcription services. Our expertise, precision, and commitment to excellence make us the ideal choice for all your transcription needs. Contact us today to get started!</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Bonjour! Comment puis-je vous aider aujourd'hui?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>French language transcription services</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>There are several online transcription services that offer French language transcription services. Here are a few options:
+1. Rev: Rev is a popular transcription service that offers French transcription services. They have a team of professional transcribers who can accurately transcribe audio and video files in French.
+2. GoTranscript: GoTranscript is another reliable transcription service that provides French language transcription services. They offer quick turnaround times and accurate transcriptions.
+3. TranscribeMe: TranscribeMe is a transcription service that offers French transcription services. They have a large pool of transcribers who are experienced in transcribing French audio and video files.
+4. GMR Transcription: GMR Transcription is a professional transcription service that offers French transcription services. They have a team of native French transcribers who can provide accurate transcriptions in a timely manner.
+5. Scribie: Scribie is an online transcription service that offers French transcription services. They have a user-friendly platform and offer high-quality transcriptions at affordable rates.
+Before choosing a transcription service, it's important to consider factors such as pricing, turnaround time, and the accuracy of transcriptions. It's also a good idea to review customer feedback and ratings to ensure that you choose a reliable and reputable service.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>French regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>French is widely spoken in many regions around the world, but the most significant region where it is the official language is France itself. In France, French is spoken in all 18 regions, including:
+1. Île-de-France (including Paris)
+2. Provence-Alpes-Côte d'Azur
+3. Auvergne-Rhône-Alpes
+4. Occitanie
+5. Nouvelle-Aquitaine
+6. Pays de la Loire
+7. Brittany
+8. Centre-Val de Loire
+9. Hauts-de-France
+10. Grand Est
+11. Normandy
+12. Bourgogne-Franche-Comté
+13. Corsica
+14. Guadeloupe
+15. Martinique
+16. Guyane
+17. Réunion
+18. Mayotte
+French is also spoken in other regions outside of France, such as in parts of Belgium, Switzerland, Luxembourg, Canada (particularly in the province of Quebec), and several countries in Africa, including Senegal, Ivory Coast, Morocco, and many others.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>French dialects</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>French, like many other languages, has several regional dialects that vary in pronunciation, vocabulary, and grammar. Here are some of the main French dialects:
+1. Parisian French (le français parisien): This is considered the standard dialect of French, typically spoken in and around Paris. It is the most widely understood and used variety of French.
+2. Quebec French (le français québécois): This dialect is spoken in Quebec, Canada. It has distinctive features such as a different pronunciation, vocabulary, and grammar compared to Parisian French.
+3. Acadian French (le français acadien): This dialect is spoken in the Maritime provinces of Canada, particularly in the region of New Brunswick and parts of Nova Scotia and Prince Edward Island. It has significant Celtic influences and can differ from Parisian French in terms of vocabulary, pronunciation, and grammar.
+4. Belgian French (le français belge): This dialect is spoken in Belgium. It shares many similarities with Parisian French but also has some distinct vocabulary and pronunciation features.
+5. Swiss French (le français suisse): This dialect is spoken in Switzerland. It has several local variations and is influenced by the neighboring countries of Germany and Italy.
+6. Louisiana French (le français louisianais): This dialect is spoken in Louisiana, USA. It evolved from the French spoken by the settlers of French origin who colonized the area in the 18th century. It has preserved many archaic features of French and is influenced by English and other local languages.
+These are just a few examples of the regional dialects within the French language. Each dialect has its own unique characteristics, but speakers from different regions can generally understand each other with some adjustment.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>How can someone utilize French language transcription services</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>There are several ways someone can utilize French language transcription services:
+1. Academic purposes: If you are a student studying French or conducting research in a French-speaking country, transcribing audio or video recordings can be helpful. Transcription services can assist in converting these recordings into written texts, which can be used for analysis, translation, or further study.
+2. Business meetings or conferences: If you participate in business meetings or attend conferences conducted in French, leveraging transcription services can facilitate better understanding and documentation. Transcripts can help review and retain important information, identify action points, and provide references for future discussions.
+3. Language learning: For individuals learning French as a second language, transcriptions can be a valuable resource. By providing written records of audio or video content, transcription services can help improve listening and comprehension skills, expand vocabulary, and reinforce grammatical structures.
+4. Legal proceedings: In the legal field, transcription services have significant value. Lawyers dealing with French-speaking clients or conducting legal proceedings in French can use these services to transcribe court hearings, client interviews, or recorded evidence. The resulting transcripts can be instrumental in reviewing and preparing legal documentation.
+5. Media and entertainment: Transcription services can support French-speaking content creators in the media and entertainment industry. Transcripts of interviews, podcasts, videos, or television shows allow for accurate subtitling, accurate translation, and easy reference for future content creation.
+When utilizing French language transcription services, it is important to choose a reputable provider with experience in French transcription. Clear communication, audio quality, and adherence to deadlines will ensure optimal utilization of these services.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Countries where French is spoken</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>French is spoken in several countries worldwide. Some of the main countries where French is an official language or widely spoken include:
+1. France
+2. Canada (particularly in Quebec)
+3. Belgium
+4. Switzerland
+5. Luxembourg
+6. Monaco
+7. Haiti
+8. Vanuatu
+9. Seychelles
+10. Democratic Republic of Congo
+11. Ivory Coast
+12. Senegal
+13. Madagascar
+14. Cameroon
+15. Rwanda
+16. Mauritius
+17. Lebanon
+18. Tunisia
+19. Morocco
+Keep in mind that while French is spoken in these countries, it may not be the only language spoken, and the level of French proficiency can vary.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  French language</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the French language for a few reasons:
+1. Standardization: French is spoken in many different regions, and there can be variations in pronunciation, accent, and regional vocabulary. Transcription helps to standardize the language by representing the sounds in a consistent way, making it easier for people from different regions to understand and communicate with each other.
+2. Learning and Teaching: Transcription is helpful for language learners and teachers as it provides a written representation of the sounds of the language. This allows learners to practice pronunciation accurately and helps teachers explain the phonetics of the language more effectively.
+3. Accessibility: Transcription is necessary to make French more accessible to individuals who are deaf or hard of hearing. By providing a written representation of spoken French, those individuals can understand and engage with the language.
+4. Language Analysis and Research: Transcription is used in linguistic research and analysis to study the phonological, syntactical, and prosodic features of the French language. It provides a reliable way to study the patterns and structures of spoken French, aiding in linguistic analysis and research.
+Overall, transcription plays a crucial role in standardizing, teaching, analyzing, and making French more accessible to a wider audience.</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>Bonjour! Comment puis-je vous aider aujourd'hui? There are several online transcription services that offer French language transcription services. Here are a few options:
+1. Rev: Rev is a popular transcription service that offers French transcription services. They have a team of professional transcribers who can accurately transcribe audio and video files in French.
+2. GoTranscript: GoTranscript is another reliable transcription service that provides French language transcription services. They offer quick turnaround times and accurate transcriptions.
+3. TranscribeMe: TranscribeMe is a transcription service that offers French transcription services. They have a large pool of transcribers who are experienced in transcribing French audio and video files.
+4. GMR Transcription: GMR Transcription is a professional transcription service that offers French transcription services. They have a team of native French transcribers who can provide accurate transcriptions in a timely manner.
+5. Scribie: Scribie is an online transcription service that offers French transcription services. They have a user-friendly platform and offer high-quality transcriptions at affordable rates.
+Before choosing a transcription service, it's important to consider factors such as pricing, turnaround time, and the accuracy of transcriptions. It's also a good idea to review customer feedback and ratings to ensure that you choose a reliable and reputable service. French is widely spoken in many regions around the world, but the most significant region where it is the official language is France itself. In France, French is spoken in all 18 regions, including:
+1. Île-de-France (including Paris)
+2. Provence-Alpes-Côte d'Azur
+3. Auvergne-Rhône-Alpes
+4. Occitanie
+5. Nouvelle-Aquitaine
+6. Pays de la Loire
+7. Brittany
+8. Centre-Val de Loire
+9. Hauts-de-France
+10. Grand Est
+11. Normandy
+12. Bourgogne-Franche-Comté
+13. Corsica
+14. Guadeloupe
+15. Martinique
+16. Guyane
+17. Réunion
+18. Mayotte
+French is also spoken in other regions outside of France, such as in parts of Belgium, Switzerland, Luxembourg, Canada (particularly in the province of Quebec), and several countries in Africa, including Senegal, Ivory Coast, Morocco, and many others. French, like many other languages, has several regional dialects that vary in pronunciation, vocabulary, and grammar. Here are some of the main French dialects:
+1. Parisian French (le français parisien): This is considered the standard dialect of French, typically spoken in and around Paris. It is the most widely understood and used variety of French.
+2. Quebec French (le français québécois): This dialect is spoken in Quebec, Canada. It has distinctive features such as a different pronunciation, vocabulary, and grammar compared to Parisian French.
+3. Acadian French (le français acadien): This dialect is spoken in the Maritime provinces of Canada, particularly in the region of New Brunswick and parts of Nova Scotia and Prince Edward Island. It has significant Celtic influences and can differ from Parisian French in terms of vocabulary, pronunciation, and grammar.
+4. Belgian French (le français belge): This dialect is spoken in Belgium. It shares many similarities with Parisian French but also has some distinct vocabulary and pronunciation features.
+5. Swiss French (le français suisse): This dialect is spoken in Switzerland. It has several local variations and is influenced by the neighboring countries of Germany and Italy.
+6. Louisiana French (le français louisianais): This dialect is spoken in Louisiana, USA. It evolved from the French spoken by the settlers of French origin who colonized the area in the 18th century. It has preserved many archaic features of French and is influenced by English and other local languages.
+These are just a few examples of the regional dialects within the French language. Each dialect has its own unique characteristics, but speakers from different regions can generally understand each other with some adjustment. There are several ways someone can utilize French language transcription services:
+1. Academic purposes: If you are a student studying French or conducting research in a French-speaking country, transcribing audio or video recordings can be helpful. Transcription services can assist in converting these recordings into written texts, which can be used for analysis, translation, or further study.
+2. Business meetings or conferences: If you participate in business meetings or attend conferences conducted in French, leveraging transcription services can facilitate better understanding and documentation. Transcripts can help review and retain important information, identify action points, and provide references for future discussions.
+3. Language learning: For individuals learning French as a second language, transcriptions can be a valuable resource. By providing written records of audio or video content, transcription services can help improve listening and comprehension skills, expand vocabulary, and reinforce grammatical structures.
+4. Legal proceedings: In the legal field, transcription services have significant value. Lawyers dealing with French-speaking clients or conducting legal proceedings in French can use these services to transcribe court hearings, client interviews, or recorded evidence. The resulting transcripts can be instrumental in reviewing and preparing legal documentation.
+5. Media and entertainment: Transcription services can support French-speaking content creators in the media and entertainment industry. Transcripts of interviews, podcasts, videos, or television shows allow for accurate subtitling, accurate translation, and easy reference for future content creation.
+When utilizing French language transcription services, it is important to choose a reputable provider with experience in French transcription. Clear communication, audio quality, and adherence to deadlines will ensure optimal utilization of these services. French is spoken in several countries worldwide. Some of the main countries where French is an official language or widely spoken include:
+1. France
+2. Canada (particularly in Quebec)
+3. Belgium
+4. Switzerland
+5. Luxembourg
+6. Monaco
+7. Haiti
+8. Vanuatu
+9. Seychelles
+10. Democratic Republic of Congo
+11. Ivory Coast
+12. Senegal
+13. Madagascar
+14. Cameroon
+15. Rwanda
+16. Mauritius
+17. Lebanon
+18. Tunisia
+19. Morocco
+Keep in mind that while French is spoken in these countries, it may not be the only language spoken, and the level of French proficiency can vary. Transcription is needed for the French language for a few reasons:
+1. Standardization: French is spoken in many different regions, and there can be variations in pronunciation, accent, and regional vocabulary. Transcription helps to standardize the language by representing the sounds in a consistent way, making it easier for people from different regions to understand and communicate with each other.
+2. Learning and Teaching: Transcription is helpful for language learners and teachers as it provides a written representation of the sounds of the language. This allows learners to practice pronunciation accurately and helps teachers explain the phonetics of the language more effectively.
+3. Accessibility: Transcription is necessary to make French more accessible to individuals who are deaf or hard of hearing. By providing a written representation of spoken French, those individuals can understand and engage with the language.
+4. Language Analysis and Research: Transcription is used in linguistic research and analysis to study the phonological, syntactical, and prosodic features of the French language. It provides a reliable way to study the patterns and structures of spoken French, aiding in linguistic analysis and research.
+Overall, transcription plays a crucial role in standardizing, teaching, analyzing, and making French more accessible to a wider audience.</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing French  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Provider for French Transcription Services
+Are you in need of accurate and reliable French transcription services? Look no further than Capital Typing. As a leading transcription service provider, we understand the importance of capturing every word and nuance of your French audio and video recordings. Our team of skilled transcribers specializes in French language transcriptions, ensuring the highest level of quality and accuracy.
+Capital Typing offers a wide range of transcription services tailored to your specific needs. Whether you require transcription for academic research, business meetings, legal proceedings, language learning, or media and entertainment purposes, our experienced team is ready to assist you.
+Why Choose Capital Typing for Your French Transcription Needs?
+1. Highly Skilled Transcribers: Our team of native French transcribers is well-versed in the intricacies of the French language, including regional dialects and variations. They possess an excellent command of French grammar, vocabulary, and pronunciation, enabling them to deliver accurate and contextually appropriate transcriptions.
+2. Quality and Accuracy: At Capital Typing, we prioritize quality and accuracy in every transcription project. Our transcribers meticulously listen to your audio or video recordings, capturing each word with precision. We understand the importance of maintaining the original meaning and intent of your content, and we strive to provide transcriptions that meet the highest standards.
+3. Timely Delivery: We recognize the importance of meeting deadlines. Capital Typing is committed to delivering your French transcriptions promptly, without compromising on quality. Our efficient workflow processes and dedicated team ensure that you receive your transcriptions within the agreed-upon timeframe.
+4. Confidentiality: At Capital Typing, we prioritize the security and confidentiality of your sensitive information. Our robust data protection measures and strict confidentiality policies ensure that your French transcriptions are handled with the utmost discretion and privacy.
+5. Competitive Pricing: We understand the importance of cost-efficiency. Capital Typing offers competitive pricing for our French transcription services, ensuring that you receive excellent value for your investment. Our pricing structure is transparent, with no hidden fees or surprises.
+How to Get Started with Capital Typing's French Transcription Services?
+1. Submit Your Audio/Video Files: Simply upload your French audio or video files to our secure online platform. We accept a wide range of file formats, including MP3, MP4, WAV, and more.
+2. Provide Guidelines and Requirements: Share any specific guidelines or requirements for your French transcription project. This could include formatting preferences, timestamps, speaker identifications, or any other relevant details.
+3. Receive a Quote: Once we have reviewed your project details, we will provide you with a quote tailored to your specific needs and requirements. Our transparent pricing ensures that you have a clear understanding of the costs involved.
+4. Transcription Process: Our skilled French transcribers will begin transcribing your audio or video recordings with meticulous attention to detail. Throughout the process, our quality assurance team will review the transcriptions for accuracy and consistency.
+5. Delivery of Transcriptions: Once the transcriptions are complete, we will deliver the final transcripts to you securely via our online platform or email, according to your preferences.
+Choose Capital Typing for Your French Transcription Needs
+When it comes to French transcription services, Capital Typing is your trusted partner. With our team of skilled transcribers, emphasis on quality and accuracy, timely delivery, strict confidentiality, and competitive pricing, we are dedicated to providing exceptional French transcription services tailored to your specific requirements.
+Contact Capital Typing today to discuss your French transcription needs and experience the benefits of partnering with a trusted transcription service provider. Bonne transcription!</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Georgian</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Georgian can refer to several things:
+1. The Georgian language: This is the official language of Georgia, a country in the Caucasus region. It is also spoken by Georgian diaspora communities around the world. If you need any assistance with the Georgian language, I'm here to help!
+2. Georgian culture: Georgian culture is rich and diverse, known for its traditional music, dance, cuisine, and arts. If you have any questions or need information about Georgian culture, feel free to ask!
+3. Georgian people: "Georgian" can also refer to the people of Georgia, who have a unique cultural identity and history. If you want to learn more about Georgian people or have any specific questions, I'm available to assist you.
+4. Georgian architecture: Georgian architecture is a style that originated in the 18th century in England and is characterized by symmetry and proportion. If you need any information or have specific queries related to Georgian architecture, I'm here to help!
+Is there anything specific you would like to know or discuss related to Georgian?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Georgian language transcription services</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>There are several transcription services available for the Georgian language. Here are a few options you can consider:
+1. Gengo: Gengo is a professional translation and transcription service that offers Georgian transcription services. They have a large network of experienced transcribers who can accurately transcribe audio or video files in the Georgian language.
+2. Rev: Rev is a popular transcription service that provides high-quality transcriptions in various languages, including Georgian. They have a team of skilled transcribers who can handle different types of audio or video content.
+3. Transcription Services US: Transcription Services US offers Georgian transcription services tailored to your specific requirements. Their team of native Georgian speakers ensures accurate and reliable transcriptions.
+4. GoTranscript: GoTranscript is an online transcription service that supports multiple languages, including Georgian. They have a user-friendly platform where you can easily upload audio or video files for transcription.
+When choosing a transcription service, consider factors such as accuracy, turnaround time, pricing, and customer reviews to find the best option that suits your needs.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Georgian regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>The Georgian language is primarily spoken in the country of Georgia, where it is the official language. It is also spoken by Georgian communities in certain regions of neighboring countries such as Russia, Turkey, Azerbaijan, and Iran. However, within Georgia itself, Georgian is spoken throughout the entire country as the main language of communication. Some of the major regions in Georgia where the majority of the population speaks Georgian include Tbilisi (the capital), Kutaisi, Batumi, Rustavi, and Gori.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Georgian dialects</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Georgian, or Kartvelian, is a language spoken in the country of Georgia. It has several dialects, which can be broadly classified into three main groups: Eastern, Western, and Southern dialects.
+1. Eastern Dialects: This group includes the dialects spoken in the regions of Kakheti, Kartli, and Kakheti-Artvin. The Kakhetian dialect, spoken in Kakheti region, is considered one of the most widespread and influential dialects in Georgia. It has distinct phonological and grammatical features, such as the pronunciation of 'v' as 'b' and 'g' as 'w'. The Kartlian dialect, spoken in the central region of Kartli, is another important dialect in this group.
+2. Western Dialects: This group includes the dialects spoken in the regions of Imereti, Guria, Racha-Lechkhumi, Svaneti, and Lechkhumi. The Imeretian dialect, spoken in Imereti region, is one of the most well-known dialects in Georgia. It differs from the standard Georgian in terms of vocabulary, pronunciation, and grammar. The Svan dialect, spoken in Svaneti region, is known for its complex verbal system and distinctive phonetic characteristics.
+3. Southern Dialects: This group includes the dialects spoken in the regions of Meskheti, Javakheti, and Samtskhe-Javakheti. The Meskhetian dialect, spoken in Meskheti region, has some unique linguistic features, such as the pronunciation of 'x' as 's'. The Javakhian dialect, spoken in Javakheti region, has a mixed influence of Georgian and Armenian due to the region's proximity to Armenia.
+It's important to note that these dialects have variations within them as well. While the standard Georgian language is widely understood and used throughout the country, the dialects continue to play an important role in preserving local cultural identities and traditions.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>How can someone utilize Georgian language transcription services</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Someone can utilize Georgian language transcription services by following these steps:
+1. Search for professional transcription service providers that offer Georgian language transcription services. Look for companies or individuals experienced in transcribing Georgian audio or video files.
+2. Choose a reputable service provider that offers accurate and high-quality transcriptions. Check their reviews, testimonials, and credentials to ensure their reliability.
+3. Contact the chosen transcription service provider and discuss your project requirements. Provide details such as the length and format of the audio/video file, specific instructions, and any deadlines.
+4. Send the audio or video file to the transcription service provider. They may provide options for file transfer, such as uploading to their website or using a secure file-sharing platform.
+5. The transcription service provider will assign a professional transcriber experienced in Georgian language transcription to your project. They will listen to the audio or watch the video and transcribe the spoken words into text.
+6. Once the transcription is complete, you will receive the transcribed document in the desired format. You can request the transcript to be delivered electronically via email or through a secure file transfer method.
+7. Review the transcription for accuracy and quality. If you find any mistakes or have any concerns, communicate with the service provider to make necessary revisions or clarifications.
+8. Pay the agreed-upon fees for the transcription service. Payment methods can vary among service providers, so make sure to discuss payment terms beforehand.
+By following these steps, someone can effectively utilize Georgian language transcription services and have their audio or video content accurately transcribed into written text.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Countries where Georgian is spoken</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Georgian is primarily spoken in the country of Georgia, where it is the official language. However, there are also significant Georgian-speaking populations in the following countries:
+1. Russia (particularly in the region of North Caucasus, where the majority of the Georgian diaspora resides)
+2. Turkey (particularly in the provinces of Artvin and Ardahan)
+3. Ukraine (mostly in the regions of Odessa, Transcarpathia, and Donetsk)
+4. Iran (primarily in and around the capital city of Tehran)
+5. Azerbaijan (mostly in the region of Qakh)
+6. United States (particularly in the states of New York, California, and New Jersey)
+7. Germany (particularly in Berlin, Hamburg, and Munich)
+8. Canada (particularly in the provinces of Ontario and British Columbia)
+9. United Kingdom (particularly in London)
+10. France (particularly in Paris and Lyon)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Georgian language</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Georgian language for several reasons:
+1. Non-native speakers: Transcription helps non-native speakers of Georgian to pronounce the words correctly. By providing a standardized representation of the sounds, it allows learners to grasp the pronunciation more easily.
+2. Language learning: Transcription is also useful for language learners who are starting to learn Georgian. It provides them with a phonetic guide to understand how words are pronounced, making it easier to build vocabulary and improve pronunciation.
+3. Linguistic analysis: Transcription is crucial for linguistic analysis and research. It allows linguists to study the phonetic and phonological aspects of the language and compare it to other languages. Transcription helps in identifying patterns, classifying sounds, and understanding the structure of the language.
+4. Text-to-Speech technology: Transcription is essential for developing text-to-speech technology, where written text is converted into spoken words. The transcription helps to accurately produce the sounds in the Georgian language, making it possible to convert written text into an audible format.
+Overall, transcription plays a crucial role in facilitating language learning, linguistic research, and technological advancements for the Georgian language.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>Georgian can refer to several things:
+1. The Georgian language: This is the official language of Georgia, a country in the Caucasus region. It is also spoken by Georgian diaspora communities around the world. If you need any assistance with the Georgian language, I'm here to help!
+2. Georgian culture: Georgian culture is rich and diverse, known for its traditional music, dance, cuisine, and arts. If you have any questions or need information about Georgian culture, feel free to ask!
+3. Georgian people: "Georgian" can also refer to the people of Georgia, who have a unique cultural identity and history. If you want to learn more about Georgian people or have any specific questions, I'm available to assist you.
+4. Georgian architecture: Georgian architecture is a style that originated in the 18th century in England and is characterized by symmetry and proportion. If you need any information or have specific queries related to Georgian architecture, I'm here to help!
+Is there anything specific you would like to know or discuss related to Georgian? There are several transcription services available for the Georgian language. Here are a few options you can consider:
+1. Gengo: Gengo is a professional translation and transcription service that offers Georgian transcription services. They have a large network of experienced transcribers who can accurately transcribe audio or video files in the Georgian language.
+2. Rev: Rev is a popular transcription service that provides high-quality transcriptions in various languages, including Georgian. They have a team of skilled transcribers who can handle different types of audio or video content.
+3. Transcription Services US: Transcription Services US offers Georgian transcription services tailored to your specific requirements. Their team of native Georgian speakers ensures accurate and reliable transcriptions.
+4. GoTranscript: GoTranscript is an online transcription service that supports multiple languages, including Georgian. They have a user-friendly platform where you can easily upload audio or video files for transcription.
+When choosing a transcription service, consider factors such as accuracy, turnaround time, pricing, and customer reviews to find the best option that suits your needs. The Georgian language is primarily spoken in the country of Georgia, where it is the official language. It is also spoken by Georgian communities in certain regions of neighboring countries such as Russia, Turkey, Azerbaijan, and Iran. However, within Georgia itself, Georgian is spoken throughout the entire country as the main language of communication. Some of the major regions in Georgia where the majority of the population speaks Georgian include Tbilisi (the capital), Kutaisi, Batumi, Rustavi, and Gori. Georgian, or Kartvelian, is a language spoken in the country of Georgia. It has several dialects, which can be broadly classified into three main groups: Eastern, Western, and Southern dialects.
+1. Eastern Dialects: This group includes the dialects spoken in the regions of Kakheti, Kartli, and Kakheti-Artvin. The Kakhetian dialect, spoken in Kakheti region, is considered one of the most widespread and influential dialects in Georgia. It has distinct phonological and grammatical features, such as the pronunciation of 'v' as 'b' and 'g' as 'w'. The Kartlian dialect, spoken in the central region of Kartli, is another important dialect in this group.
+2. Western Dialects: This group includes the dialects spoken in the regions of Imereti, Guria, Racha-Lechkhumi, Svaneti, and Lechkhumi. The Imeretian dialect, spoken in Imereti region, is one of the most well-known dialects in Georgia. It differs from the standard Georgian in terms of vocabulary, pronunciation, and grammar. The Svan dialect, spoken in Svaneti region, is known for its complex verbal system and distinctive phonetic characteristics.
+3. Southern Dialects: This group includes the dialects spoken in the regions of Meskheti, Javakheti, and Samtskhe-Javakheti. The Meskhetian dialect, spoken in Meskheti region, has some unique linguistic features, such as the pronunciation of 'x' as 's'. The Javakhian dialect, spoken in Javakheti region, has a mixed influence of Georgian and Armenian due to the region's proximity to Armenia.
+It's important to note that these dialects have variations within them as well. While the standard Georgian language is widely understood and used throughout the country, the dialects continue to play an important role in preserving local cultural identities and traditions. Someone can utilize Georgian language transcription services by following these steps:
+1. Search for professional transcription service providers that offer Georgian language transcription services. Look for companies or individuals experienced in transcribing Georgian audio or video files.
+2. Choose a reputable service provider that offers accurate and high-quality transcriptions. Check their reviews, testimonials, and credentials to ensure their reliability.
+3. Contact the chosen transcription service provider and discuss your project requirements. Provide details such as the length and format of the audio/video file, specific instructions, and any deadlines.
+4. Send the audio or video file to the transcription service provider. They may provide options for file transfer, such as uploading to their website or using a secure file-sharing platform.
+5. The transcription service provider will assign a professional transcriber experienced in Georgian language transcription to your project. They will listen to the audio or watch the video and transcribe the spoken words into text.
+6. Once the transcription is complete, you will receive the transcribed document in the desired format. You can request the transcript to be delivered electronically via email or through a secure file transfer method.
+7. Review the transcription for accuracy and quality. If you find any mistakes or have any concerns, communicate with the service provider to make necessary revisions or clarifications.
+8. Pay the agreed-upon fees for the transcription service. Payment methods can vary among service providers, so make sure to discuss payment terms beforehand.
+By following these steps, someone can effectively utilize Georgian language transcription services and have their audio or video content accurately transcribed into written text. Georgian is primarily spoken in the country of Georgia, where it is the official language. However, there are also significant Georgian-speaking populations in the following countries:
+1. Russia (particularly in the region of North Caucasus, where the majority of the Georgian diaspora resides)
+2. Turkey (particularly in the provinces of Artvin and Ardahan)
+3. Ukraine (mostly in the regions of Odessa, Transcarpathia, and Donetsk)
+4. Iran (primarily in and around the capital city of Tehran)
+5. Azerbaijan (mostly in the region of Qakh)
+6. United States (particularly in the states of New York, California, and New Jersey)
+7. Germany (particularly in Berlin, Hamburg, and Munich)
+8. Canada (particularly in the provinces of Ontario and British Columbia)
+9. United Kingdom (particularly in London)
+10. France (particularly in Paris and Lyon) Transcription is needed for the Georgian language for several reasons:
+1. Non-native speakers: Transcription helps non-native speakers of Georgian to pronounce the words correctly. By providing a standardized representation of the sounds, it allows learners to grasp the pronunciation more easily.
+2. Language learning: Transcription is also useful for language learners who are starting to learn Georgian. It provides them with a phonetic guide to understand how words are pronounced, making it easier to build vocabulary and improve pronunciation.
+3. Linguistic analysis: Transcription is crucial for linguistic analysis and research. It allows linguists to study the phonetic and phonological aspects of the language and compare it to other languages. Transcription helps in identifying patterns, classifying sounds, and understanding the structure of the language.
+4. Text-to-Speech technology: Transcription is essential for developing text-to-speech technology, where written text is converted into spoken words. The transcription helps to accurately produce the sounds in the Georgian language, making it possible to convert written text into an audible format.
+Overall, transcription plays a crucial role in facilitating language learning, linguistic research, and technological advancements for the Georgian language.</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Georgian  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>Georgian, a unique and vibrant language spoken primarily in the country of Georgia, is a language that may require professional transcription services for various purposes. Whether it is for language learners, non-native speakers, researchers, or technological advancements, accurate transcription of Georgian audio or video content is essential. For those in need of Georgian transcription services, Capital Typing offers reliable and high-quality solutions.
+Capital Typing is a reputable transcription service provider that caters to the diverse needs of clients. With their team of experienced transcribers who specialize in Georgian transcription, they ensure accurate and prompt delivery of transcribed documents. Their professionalism and attention to detail guarantee that clients receive transcriptions that meet their requirements.
+Using Capital Typing's Georgian transcription services is a straightforward and efficient process. Clients can rely on their secure and user-friendly platform to easily submit audio or video files for transcription. They will assign a professional transcriber who is knowledgeable in Georgian language and dialects to handle the project. The transcriber will carefully listen to the audio or watch the video, accurately transcribing the spoken words into text.
+Capital Typing understands the importance of personalized service, and that's why they work closely with clients to ensure their specific project requirements are met. Clients can discuss details such as file format, specific instructions, and deadlines. Capital Typing's commitment to customer satisfaction means that revisions and corrections can be made if necessary, resulting in transcriptions that meet the highest standards of accuracy.
+When it comes to pricing, Capital Typing provides competitive rates for their Georgian transcription services. They offer transparent pricing structures and flexible payment options, ensuring clients receive fair and affordable services. Additionally, their efficient turnaround times mean clients can rely on timely delivery of their transcriptions.
+Georgian transcription services from Capital Typing are not limited to a particular field or industry. Whether it is for academic research, legal documentation, business meetings, or any other context, Capital Typing has the expertise and resources to handle a wide range of transcription projects.
+In conclusion, Capital Typing provides reliable and accurate Georgian transcription services. With their team of experienced transcribers who specialize in the Georgian language, clients can expect high-quality transcriptions that meet their specific requirements. The ease of use, competitive pricing, and commitment to customer satisfaction make Capital Typing a top choice for anyone in need of Georgian transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wie kann ich Ihnen helfen?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>German language transcription services</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>There are several transcription services available for German language transcriptions. Some popular options include:
+1. Rev.com: Offers fast and accurate German transcription services by native German speakers.
+2. Gglot.com: Provides reliable and affordable German transcription services with quick turnaround times.
+3. GoTranscript.com: Offers professional German transcription services with options for verbatim or edited transcriptions.
+4. TranscribeMe.com: Provides high-quality German transcription services with options for specialized industry transcriptions.
+5. Scribie.com: Offers dependable German transcription services with options for clean verbatim or full verbatim transcriptions.
+It is recommended to research and compare these services to find the one that best suits your specific needs and budget.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>German regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>German is predominantly spoken in Germany, but it is also an official language in other countries such as Austria, Switzerland, Belgium (in the German-speaking community), Luxembourg, and Liechtenstein. In addition, it is spoken by smaller communities in various parts of Europe, including Italy, France (in Alsace and parts of Lorraine), Denmark (in South Schleswig), and Poland (in Silesia). Furthermore, German is one of the recognized regional languages in the Italian autonomous province of South Tyrol and the Slovenian municipality of Lendava.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>German dialects</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>German dialects are regional varieties of the German language that differ from the standard variety known as Hochdeutsch or Standard German. Germany has a rich history of dialect diversity due to its fragmented political and linguistic landscape in the past.
+Some major German dialect groups include:
+1. Low German (Plattdeutsch): spoken in the northern regions, especially in areas such as Lower Saxony and Schleswig-Holstein. Low German has many sub-dialects and is influenced by Dutch.
+2. Alsatian: spoken in the Alsace region of France, along the German border. It is influenced by both French and German.
+3. Bavarian: spoken in Bavaria, Austria, and South Tyrol (Italy). Bavarian has many distinct variations, and its speakers can often have difficulty understanding standard High German.
+4. Swabian: spoken in Swabia, a region in southwestern Germany. It has unique vocabulary and pronunciation features, and speakers often identify strongly with their dialect.
+5. Hessian: spoken in the state of Hesse and surrounding areas. It has distinct features such as the "s" sound being pronounced as "sch" and is sometimes considered a bridge between Low German and High German.
+6. Saxon: spoken in Saxony and adjacent regions. Saxon dialects have some differences in vocabulary and pronunciation compared to standard High German.
+Please note that these are just a few examples of German dialects, and there are many more regional variations throughout Germany and neighboring regions.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>How can someone utilize German language transcription services</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>To utilize German language transcription services effectively, follow these steps:
+1. Determine your needs: Identify the purpose of the transcription and the specific requirements you have. Specify the format (audio, video) and any additional instructions, such as timestamps, verbatim transcription, or any sensitive information.
+2. Research transcription services: Look for reputable German language transcription services online. Read reviews, compare prices, and consider their turnaround time and customer support.
+3. Contact the transcription service: Reach out to the chosen service provider and communicate your project details. Ensure they offer German transcription services and discuss any specific requirements.
+4. Share files: Provide the service with the necessary audio or video files to be transcribed. Ensure the files are clear, of high quality, and accessible for the transcription team.
+5. Agree on the terms: Clarify pricing, turnaround time, confidentiality agreements, and any other arrangements regarding the transcript delivery. It's important to have a clear agreement before proceeding.
+6. Review the transcript: Once the transcription is complete, carefully review the transcript for accuracy. Compare it to the original source to ensure all content has been captured correctly. If you find any discrepancies, communicate with the service provider for corrections.
+7. Payment: Complete the payment process as agreed with the transcription service. Different providers may have various payment methods, so make sure you are aware of the payment terms in advance.
+Remember, communication and proper collaboration are essential to obtain accurate and high-quality transcription services. Be clear about your expectations, ask questions if anything is unclear, and provide feedback for improvement if necessary.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Countries where German is spoken</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>German is primarily spoken in the following countries:
+1. Germany
+2. Austria
+3. Switzerland
+4. Liechtenstein
+5. Luxembourg
+6. Belgium (specifically in the German-speaking community)
+7. Italy (in the South Tyrol region)
+8. Namibia (as a minority language)
+German is also spoken as a minority language in some regions of other countries, such as France, Denmark, Poland, Romania, Russia, Brazil, and the United States.</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  German language</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Transcription is useful for the German language for several reasons:
+1. Pronunciation assistance: German has a complex phonetic system with various sounds and letter combinations. Transcription helps learners and non-native speakers understand and accurately pronounce words and phrases.
+2. Language learning: Transcriptions are commonly used in German language learning materials and textbooks to facilitate the comprehension of texts and facilitate reading practice.
+3. Accessibility: Transcriptions can make German audio or video content accessible to individuals with hearing impairments or those who prefer to read along while listening.
+4. Standardization: German dialects and regional variations can vary significantly in pronunciation. Transcriptions can provide a standardized representation of the language, making it easier to understand and learn for speakers of different dialects.
+5. Clarity in communication: Transcribing German content can ensure clarity and accuracy in communication, especially in recordings, interviews, or podcasts where the audio quality may be distorted or unclear.
+Overall, transcription in the German language is beneficial for learners, non-native speakers, individuals with hearing impairments, as well as for ensuring clear and accurate communication.</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>Wie kann ich Ihnen helfen? There are several transcription services available for German language transcriptions. Some popular options include:
+1. Rev.com: Offers fast and accurate German transcription services by native German speakers.
+2. Gglot.com: Provides reliable and affordable German transcription services with quick turnaround times.
+3. GoTranscript.com: Offers professional German transcription services with options for verbatim or edited transcriptions.
+4. TranscribeMe.com: Provides high-quality German transcription services with options for specialized industry transcriptions.
+5. Scribie.com: Offers dependable German transcription services with options for clean verbatim or full verbatim transcriptions.
+It is recommended to research and compare these services to find the one that best suits your specific needs and budget. German is predominantly spoken in Germany, but it is also an official language in other countries such as Austria, Switzerland, Belgium (in the German-speaking community), Luxembourg, and Liechtenstein. In addition, it is spoken by smaller communities in various parts of Europe, including Italy, France (in Alsace and parts of Lorraine), Denmark (in South Schleswig), and Poland (in Silesia). Furthermore, German is one of the recognized regional languages in the Italian autonomous province of South Tyrol and the Slovenian municipality of Lendava. German dialects are regional varieties of the German language that differ from the standard variety known as Hochdeutsch or Standard German. Germany has a rich history of dialect diversity due to its fragmented political and linguistic landscape in the past.
+Some major German dialect groups include:
+1. Low German (Plattdeutsch): spoken in the northern regions, especially in areas such as Lower Saxony and Schleswig-Holstein. Low German has many sub-dialects and is influenced by Dutch.
+2. Alsatian: spoken in the Alsace region of France, along the German border. It is influenced by both French and German.
+3. Bavarian: spoken in Bavaria, Austria, and South Tyrol (Italy). Bavarian has many distinct variations, and its speakers can often have difficulty understanding standard High German.
+4. Swabian: spoken in Swabia, a region in southwestern Germany. It has unique vocabulary and pronunciation features, and speakers often identify strongly with their dialect.
+5. Hessian: spoken in the state of Hesse and surrounding areas. It has distinct features such as the "s" sound being pronounced as "sch" and is sometimes considered a bridge between Low German and High German.
+6. Saxon: spoken in Saxony and adjacent regions. Saxon dialects have some differences in vocabulary and pronunciation compared to standard High German.
+Please note that these are just a few examples of German dialects, and there are many more regional variations throughout Germany and neighboring regions. To utilize German language transcription services effectively, follow these steps:
+1. Determine your needs: Identify the purpose of the transcription and the specific requirements you have. Specify the format (audio, video) and any additional instructions, such as timestamps, verbatim transcription, or any sensitive information.
+2. Research transcription services: Look for reputable German language transcription services online. Read reviews, compare prices, and consider their turnaround time and customer support.
+3. Contact the transcription service: Reach out to the chosen service provider and communicate your project details. Ensure they offer German transcription services and discuss any specific requirements.
+4. Share files: Provide the service with the necessary audio or video files to be transcribed. Ensure the files are clear, of high quality, and accessible for the transcription team.
+5. Agree on the terms: Clarify pricing, turnaround time, confidentiality agreements, and any other arrangements regarding the transcript delivery. It's important to have a clear agreement before proceeding.
+6. Review the transcript: Once the transcription is complete, carefully review the transcript for accuracy. Compare it to the original source to ensure all content has been captured correctly. If you find any discrepancies, communicate with the service provider for corrections.
+7. Payment: Complete the payment process as agreed with the transcription service. Different providers may have various payment methods, so make sure you are aware of the payment terms in advance.
+Remember, communication and proper collaboration are essential to obtain accurate and high-quality transcription services. Be clear about your expectations, ask questions if anything is unclear, and provide feedback for improvement if necessary. German is primarily spoken in the following countries:
+1. Germany
+2. Austria
+3. Switzerland
+4. Liechtenstein
+5. Luxembourg
+6. Belgium (specifically in the German-speaking community)
+7. Italy (in the South Tyrol region)
+8. Namibia (as a minority language)
+German is also spoken as a minority language in some regions of other countries, such as France, Denmark, Poland, Romania, Russia, Brazil, and the United States. Transcription is useful for the German language for several reasons:
+1. Pronunciation assistance: German has a complex phonetic system with various sounds and letter combinations. Transcription helps learners and non-native speakers understand and accurately pronounce words and phrases.
+2. Language learning: Transcriptions are commonly used in German language learning materials and textbooks to facilitate the comprehension of texts and facilitate reading practice.
+3. Accessibility: Transcriptions can make German audio or video content accessible to individuals with hearing impairments or those who prefer to read along while listening.
+4. Standardization: German dialects and regional variations can vary significantly in pronunciation. Transcriptions can provide a standardized representation of the language, making it easier to understand and learn for speakers of different dialects.
+5. Clarity in communication: Transcribing German content can ensure clarity and accuracy in communication, especially in recordings, interviews, or podcasts where the audio quality may be distorted or unclear.
+Overall, transcription in the German language is beneficial for learners, non-native speakers, individuals with hearing impairments, as well as for ensuring clear and accurate communication.</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing German  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Reliable Solution for German Transcription Services
+Finding accurate and reliable German transcription services can be a challenge, but Capital Typing is here to help. With our team of experienced professionals, we are dedicated to delivering top-notch transcription services tailored to your specific needs. Whether you require transcriptions for audio or video files, we have the expertise and resources to handle it all.
+At Capital Typing, we understand the importance of accuracy when it comes to transcribing German content. That is why we ensure that our team consists of native German speakers who have a deep understanding of the language and its nuances. With their expertise, they can accurately capture the content and convey it in a well-formatted transcript.
+What sets Capital Typing apart is our commitment to delivering high-quality transcriptions in a timely manner. We understand that time is of the essence, and you can rely on us to provide quick turnaround times without compromising on accuracy. Our team is equipped with the necessary tools and technology to efficiently transcribe your German audio or video files, delivering the results you need when you need them.
+Confidentiality is also a top priority for us at Capital Typing. We understand that your content may contain sensitive information, and we take the necessary measures to ensure its security. Our team signs non-disclosure agreements and follows strict protocols to protect your privacy and maintain the confidentiality of your data.
+To get started with our German transcription services, simply reach out to us with your project details. We will work closely with you to understand your requirements, including any specific instructions or formatting preferences you may have. Whether you need verbatim transcriptions or edited versions, we can accommodate your needs.
+Once we have all the necessary information, you can securely upload your audio or video files to our platform. Our team will then get to work, transcribing your content with the utmost care and attention to detail. We double-check the accuracy of our transcriptions to ensure that they reflect the original content as faithfully as possible.
+Once the transcriptions are complete, you will have the opportunity to review them and provide any feedback or corrections if needed. We value your satisfaction and will make any necessary adjustments to ensure that the final transcript meets your expectations.
+When it comes to payment, we strive to provide transparent and competitive pricing for our German transcription services. We offer flexible payment options and will work with you to find the most convenient arrangement.
+At Capital Typing, we are proud to offer German transcription services that are accurate, reliable, and delivered with exceptional customer service. With our team of native German speakers and our commitment to quality, you can trust us to handle all your transcription needs.
+So, whether you need German transcriptions for language learning materials, accessibility purposes, or any other reason, Capital Typing is here to assist you. Contact us today to find out how we can help you with your German transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Gikuyu</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Gikuyu, also known as Kikuyu, is a Bantu language spoken by the Kikuyu people of Kenya. It is one of the largest ethnic groups in Kenya, and Gikuyu is widely spoken in Central Kenya, particularly around Nairobi. Gikuyu has its own unique alphabet, known as the Gikuyu script, which was developed by Jomo Kenyatta, the first president of Kenya. If you have any specific questions about the Gikuyu language or culture, I'll be happy to assist you further.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gikuyu language transcription services</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes, I can assist you with Gikuyu language transcription services. Please provide me with the audio or video file that you would like transcribed, and I will be happy to help you.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Gikuyu regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>The Gikuyu language, also known as Kikuyu, is primarily spoken in the Central Highlands region of Kenya. This region includes counties such as Kiambu, Murang'a, Nyeri, Kirinyaga, Nyandarua, and parts of Nairobi County. Gikuyu is the most widely spoken ethnic language in Kenya, and it is also spoken by smaller communities in other parts of the country.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Gikuyu dialects</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>The Gikuyu language, also known as Kikuyu, is spoken by the Gikuyu people of Kenya. There are several dialects of Gikuyu, which can vary slightly in pronunciation, vocabulary, and grammar. Some of the main dialects include:
+1. Thika: This dialect is spoken in Thika town and the surrounding areas.
+2. Muranga: Spoken in Muranga County, this dialect is influenced by the Kamba language and has some unique vocabulary.
+3. Limuru: This dialect is spoken in Limuru area and is known for its distinctive pronunciation and intonation patterns.
+4. Nairobi: The Gikuyu spoken in Nairobi, the capital city of Kenya, is influenced by other languages and shows some variations in vocabulary and pronunciation.
+5. Nyeri: This dialect is spoken in Nyeri County and is considered the standard Gikuyu dialect due to its central location.
+It's important to note that these dialects are mutually intelligible, meaning that speakers of different dialects can generally understand each other without much difficulty.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>How can someone utilize Gikuyu language transcription services</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>To utilize Gikuyu language transcription services effectively, follow these steps:
+1. Identify your specific transcription needs: Determine the purpose and scope of your transcription project. Are you transcribing audio or video content? Is it for personal or professional use?
+2. Research Gikuyu language transcription services: Look for transcription service providers that specialize in Gikuyu language transcription. Check their online presence, client reviews, and ratings to ensure their proficiency and reliability.
+3. Contact selected service providers: Reach out to the selected Gikuyu transcription service providers and communicate your project requirements. Provide them with relevant details such as the duration of the audio/video, any specific instructions, and deadline.
+4. Provide the audio/video files: Share the audio/video files that need to be transcribed. Ensure the quality of the files is good enough to allow accurate transcription. If the files are too large, discuss file transfer options with the service provider.
+5. Specify transcription format: Decide on the desired transcription format. Do you need a verbatim transcription with every single word and utterance, or do you prefer a more concise summary? Inform the service provider so they can tailor their transcription accordingly.
+6. Coordinate the transcription process: Discuss the timeline and estimated cost for the transcription. Ensure clear communication throughout the process and provide any necessary clarifications or additional information requested by the service provider.
+7. Review and approve the transcriptions: Once the transcriptions are completed, review them carefully for accuracy. If you notice any mistakes or discrepancies, communicate them to the service provider for corrections.
+8. Ensure confidentiality: If the content is sensitive or confidential, discuss confidentiality agreements with the service provider before sharing any files.
+9. Make payment and receive deliverables: Upon approval of the transcriptions, make the agreed-upon payment to the service provider. They will then deliver the final transcriptions to you in the specified format.
+By following these steps, you can effectively utilize Gikuyu language transcription services to fulfill your specific needs.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Countries where Gikuyu is spoken</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Gikuyu, also known as Kikuyu, is primarily spoken in Kenya. It is the native language of the Gikuyu people who are one of the largest ethnic groups in Kenya. Apart from Kenya, Gikuyu is also spoken by smaller communities in neighboring countries such as Uganda and Tanzania, where Gikuyu migrants or their descendants may reside. However, it is important to note that the majority of Gikuyu speakers are found in Kenya.</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Gikuyu language</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Gikuyu language, as it is for any other language, for several reasons:
+1. Standardization: Gikuyu, like many other languages, has multiple regional dialects and variations. Transcription helps to create a standardized written form that can be used across different regions and by different speakers. This promotes consistency and ease of communication.
+2. Documentation: Transcription allows for the documentation and preservation of the Gikuyu language. It helps linguists, researchers, and native speakers to study and analyze the language, its sounds, grammar, and vocabulary.
+3. Learning and Teaching: Transcription enables the development of educational materials, such as textbooks and dictionaries, for learning and teaching Gikuyu as a second language. It provides a written reference for learners to study and practice.
+4. Accessibility and Inclusivity: Transcription makes the Gikuyu language more accessible to a wider range of people. It allows non-native speakers, individuals with hearing or speech impairments, and those with different levels of proficiency to engage with the language.
+5. Technology and Digital Applications: Transcription facilitates the use of Gikuyu language in various digital platforms, such as computers, smartphones, and voice recognition software. It enables the development of Gikuyu language resources, translation services, and voice-based applications.
+In summary, transcription is needed for the Gikuyu language to promote standardization, documentation, learning and teaching, accessibility, and technological advancements.</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>Gikuyu, also known as Kikuyu, is a Bantu language spoken by the Kikuyu people of Kenya. It is one of the largest ethnic groups in Kenya, and Gikuyu is widely spoken in Central Kenya, particularly around Nairobi. Gikuyu has its own unique alphabet, known as the Gikuyu script, which was developed by Jomo Kenyatta, the first president of Kenya. If you have any specific questions about the Gikuyu language or culture, I'll be happy to assist you further. Yes, I can assist you with Gikuyu language transcription services. Please provide me with the audio or video file that you would like transcribed, and I will be happy to help you. The Gikuyu language, also known as Kikuyu, is primarily spoken in the Central Highlands region of Kenya. This region includes counties such as Kiambu, Murang'a, Nyeri, Kirinyaga, Nyandarua, and parts of Nairobi County. Gikuyu is the most widely spoken ethnic language in Kenya, and it is also spoken by smaller communities in other parts of the country. The Gikuyu language, also known as Kikuyu, is spoken by the Gikuyu people of Kenya. There are several dialects of Gikuyu, which can vary slightly in pronunciation, vocabulary, and grammar. Some of the main dialects include:
+1. Thika: This dialect is spoken in Thika town and the surrounding areas.
+2. Muranga: Spoken in Muranga County, this dialect is influenced by the Kamba language and has some unique vocabulary.
+3. Limuru: This dialect is spoken in Limuru area and is known for its distinctive pronunciation and intonation patterns.
+4. Nairobi: The Gikuyu spoken in Nairobi, the capital city of Kenya, is influenced by other languages and shows some variations in vocabulary and pronunciation.
+5. Nyeri: This dialect is spoken in Nyeri County and is considered the standard Gikuyu dialect due to its central location.
+It's important to note that these dialects are mutually intelligible, meaning that speakers of different dialects can generally understand each other without much difficulty. To utilize Gikuyu language transcription services effectively, follow these steps:
+1. Identify your specific transcription needs: Determine the purpose and scope of your transcription project. Are you transcribing audio or video content? Is it for personal or professional use?
+2. Research Gikuyu language transcription services: Look for transcription service providers that specialize in Gikuyu language transcription. Check their online presence, client reviews, and ratings to ensure their proficiency and reliability.
+3. Contact selected service providers: Reach out to the selected Gikuyu transcription service providers and communicate your project requirements. Provide them with relevant details such as the duration of the audio/video, any specific instructions, and deadline.
+4. Provide the audio/video files: Share the audio/video files that need to be transcribed. Ensure the quality of the files is good enough to allow accurate transcription. If the files are too large, discuss file transfer options with the service provider.
+5. Specify transcription format: Decide on the desired transcription format. Do you need a verbatim transcription with every single word and utterance, or do you prefer a more concise summary? Inform the service provider so they can tailor their transcription accordingly.
+6. Coordinate the transcription process: Discuss the timeline and estimated cost for the transcription. Ensure clear communication throughout the process and provide any necessary clarifications or additional information requested by the service provider.
+7. Review and approve the transcriptions: Once the transcriptions are completed, review them carefully for accuracy. If you notice any mistakes or discrepancies, communicate them to the service provider for corrections.
+8. Ensure confidentiality: If the content is sensitive or confidential, discuss confidentiality agreements with the service provider before sharing any files.
+9. Make payment and receive deliverables: Upon approval of the transcriptions, make the agreed-upon payment to the service provider. They will then deliver the final transcriptions to you in the specified format.
+By following these steps, you can effectively utilize Gikuyu language transcription services to fulfill your specific needs. Gikuyu, also known as Kikuyu, is primarily spoken in Kenya. It is the native language of the Gikuyu people who are one of the largest ethnic groups in Kenya. Apart from Kenya, Gikuyu is also spoken by smaller communities in neighboring countries such as Uganda and Tanzania, where Gikuyu migrants or their descendants may reside. However, it is important to note that the majority of Gikuyu speakers are found in Kenya. Transcription is needed for the Gikuyu language, as it is for any other language, for several reasons:
+1. Standardization: Gikuyu, like many other languages, has multiple regional dialects and variations. Transcription helps to create a standardized written form that can be used across different regions and by different speakers. This promotes consistency and ease of communication.
+2. Documentation: Transcription allows for the documentation and preservation of the Gikuyu language. It helps linguists, researchers, and native speakers to study and analyze the language, its sounds, grammar, and vocabulary.
+3. Learning and Teaching: Transcription enables the development of educational materials, such as textbooks and dictionaries, for learning and teaching Gikuyu as a second language. It provides a written reference for learners to study and practice.
+4. Accessibility and Inclusivity: Transcription makes the Gikuyu language more accessible to a wider range of people. It allows non-native speakers, individuals with hearing or speech impairments, and those with different levels of proficiency to engage with the language.
+5. Technology and Digital Applications: Transcription facilitates the use of Gikuyu language in various digital platforms, such as computers, smartphones, and voice recognition software. It enables the development of Gikuyu language resources, translation services, and voice-based applications.
+In summary, transcription is needed for the Gikuyu language to promote standardization, documentation, learning and teaching, accessibility, and technological advancements.</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Gikuyu  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>Gikuyu, also known as Kikuyu, is a Bantu language spoken by the Kikuyu people in Kenya. It is one of the largest ethnic groups in the country, and Gikuyu is widely spoken in Central Kenya, particularly around Nairobi. The language has multiple dialects, including Thika, Muranga, Limuru, Nairobi, and Nyeri, each with its own unique characteristics. These dialects are mutually intelligible, meaning that speakers of different dialects can generally understand each other without much difficulty.
+Gikuyu has its own unique alphabet, known as the Gikuyu script, which was developed by Jomo Kenyatta, the first president of Kenya. The script was designed to accurately represent the sounds and tones of the Gikuyu language. This script is used for writing and transcription of Gikuyu content.
+If you require Gikuyu language transcription services, Capital Typing can assist you. Capital Typing is a renowned transcription service provider that specializes in transcribing various languages, including Gikuyu. With a team of skilled and experienced transcriptionists, we can accurately transcribe your audio or video files in Gikuyu.
+To utilize our Gikuyu language transcription services effectively, follow these steps:
+1. Identify your specific transcription needs: Determine the purpose and scope of your transcription project. Are you transcribing audio or video content? Is it for personal or professional use?
+2. Research transcription service providers: Look for transcription service providers like Capital Typing that specialize in Gikuyu language transcription. Keep an eye out for their online presence, client reviews, and ratings to ensure their proficiency and reliability.
+3. Contact Capital Typing: Reach out to Capital Typing and communicate your project requirements. Provide us with relevant details such as the duration of the audio/video, any specific instructions, and the desired deadline.
+4. Provide the audio/video files: Share the Gikuyu audio/video files that need to be transcribed. Ensure the quality of the files is good enough to allow accurate transcription. If the files are too large, discuss file transfer options with us.
+5. Specify transcription format: Decide on the desired transcription format. Do you need a verbatim transcription with every single word and utterance, or do you prefer a more concise summary? Inform us, and we will tailor our transcription accordingly.
+6. Coordinate the transcription process: Discuss the timeline and estimated cost for the transcription. Ensure clear communication throughout the process and provide any necessary clarifications or additional information requested by our team.
+7. Review and approve the transcriptions: Once the transcriptions are completed, review them carefully for accuracy. If you notice any mistakes or discrepancies, communicate them to us for corrections.
+8. Ensure confidentiality: If the content is sensitive or confidential, discuss confidentiality agreements with us before sharing any files.
+9. Make payment and receive deliverables: Upon approval of the transcriptions, make the agreed-upon payment to Capital Typing. We will then deliver the final transcriptions to you in the specified format.
+By following these steps and utilizing Capital Typing's Gikuyu language transcription services, you can ensure accurate and reliable transcriptions for your specific needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Greek</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Greek refers to Greece or the Greek people, culture, language, or anything related to Greece. The Greek language is an Indo-European language spoken by approximately 13 million people in Greece, Cyprus, and other Greek communities around the world. Greek civilization is one of the oldest in the world and has made significant contributions to various areas such as philosophy, literature, mathematics, and democracy. Some famous ancient Greek philosophers include Socrates, Plato, and Aristotle. Greek mythology is also well-known, with gods and goddesses like Zeus, Athena, and Aphrodite. Greek cuisine is popular for dishes like moussaka, souvlaki, and baklava.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Greek language transcription services</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>There are several Greek language transcription services available online. Some popular options include:
+1. Rev.com: Rev offers high-quality Greek transcription services with 99% accuracy. They have a large network of professional native Greek speakers who can transcribe your audio or video files quickly.
+2. CastingWords: CastingWords also provides Greek transcription services. They have a team of experienced transcribers who can accurately transcribe your Greek audio or video content.
+3. TranscriptionStar: TranscriptionStar offers Greek transcription services for various industries, including academic, legal, and medical. They provide accurate and timely transcripts while maintaining confidentiality.
+4. Gotranscript: Gotranscript is another option for Greek language transcription services. They have a user-friendly platform and a team of experienced transcribers who deliver high-quality transcripts.
+5. Scribie: Scribie is a transcription company that offers Greek transcription services as well. They have a straightforward pricing structure and provide accurate transcripts with a fast turnaround time.
+When choosing a service, consider factors such as turnaround time, accuracy, pricing, and the specific requirements of your project. It is also helpful to review customer feedback and ratings to ensure you are selecting a reputable service.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Greek regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Greek is primarily spoken in Greece, where it is the official language. However, it is also spoken in other regions and countries. Here are some regions and countries outside of Greece where Greek is spoken:
+1. Cyprus: Greek is one of the official languages in Cyprus, along with Turkish.
+2. Albania: Greek is spoken by the ethnic Greek minority in southern Albania, particularly in the regions of Himara, Saranda, and Delvina.
+3. Turkey: There is a small Greek-speaking minority in Turkey, mainly concentrated in Istanbul, Imbros, and Tenedos.
+4. Italy: In the region of Calabria, in southern Italy, there is a small Greek-speaking community known as the Griko people.
+5. Egypt: Greek is spoken by the Greek community in Egypt, particularly in Alexandria and Cairo.
+6. Ukraine: Greek is spoken by the Greek community in the Mariupol region, located in eastern Ukraine.
+It is worth noting that Greek also has a significant diaspora community around the world, particularly in countries such as the United States, Australia, Canada, and Germany, among others.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Greek dialects</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Greek dialects refer to the various regional forms of the Greek language spoken throughout Greece and its neighboring countries. The three main dialect groups include:
+1. Attic-Ionic: This dialect group is based on the language spoken in ancient Athens and is considered the standard form of the Greek language. It includes the Attic dialect and the Ionic dialect, which was spoken in Ionia (modern-day western Turkey).
+2. Aeolic: The Aeolic dialect group was spoken in ancient Aeolis (western Asia Minor) and the island of Lesbos. It is known for its distinctive features, such as vowel changes and the use of an "s" sound instead of "r."
+3. Doric: The Doric dialect group was spoken in ancient Doris (central Greece) and in various colonies in Sicily and southern Italy. It is characterized by its more conservative features compared to Attic-Ionic dialects.
+Each dialect group has numerous variations within it, and these dialects have influenced the development of modern Greek. However, Standard Modern Greek, based on the Attic-Ionic dialect, is the official language of Greece today.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>How can someone utilize Greek language transcription services</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>To utilize Greek language transcription services, follow these steps:
+1. Find a reputable transcription service provider that specializes in Greek language transcription. Look for companies or platforms with positive reviews and a track record of accurate transcription.
+2. Contact the service provider to discuss your specific transcription needs. Explain the content, audio quality, and any specific requirements you may have. Provide them with sample audio or details about the project to get an accurate estimate and timeline.
+3. Share your audio files securely with the transcription service provider. Many companies offer online platforms or secure file-sharing options for easy and private transfer of files. Make sure to comply with any privacy or confidentiality requirements.
+4. The service provider will assign a qualified Greek language transcriber to your project. They will listen to the audio and transcribe it into written text, capturing all spoken words, including punctuation and formatting as per your instructions.
+5. Once the transcription is completed, the service provider will deliver the transcript to you in the preferred format. This can be a Word document, PDF, or any other specified file format. Review the transcript carefully to ensure accuracy and make any necessary corrections or edits.
+6. If you require additional services such as translation, time-stamping, or subtitle creation, discuss it with the service provider beforehand. They may offer these services or have recommendations for additional resources.
+7. After reviewing the final transcript and making any necessary changes, keep a backup copy of the file. Store it securely for future reference or use.
+Remember to communicate clearly with the transcription service provider, provide context as needed, and provide feedback if necessary to ensure the highest quality of transcription.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Countries where Greek is spoken</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Greek is the official language in the following countries:
+1. Greece
+2. Cyprus
+In addition to these, Greek is also spoken as a minority language in the following countries and regions:
+1. Albania
+2. Armenia
+3. Bulgaria
+4. Egypt
+5. Italy (regions of Calabria, Campania, and Apulia)
+6. Romania
+7. Turkey (particularly in the regions of Eastern Thrace, Istanbul, and Imbros)
+8. Ukraine (regions of Mariupol and Donetsk)
+9. United States (due to Greek diaspora)
+Please note that Greek may also be spoken by Greek diaspora communities in various other countries around the world.</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Greek language</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Greek language, as it helps to better represent the pronunciation of words and phrases in a written form. Greek has a complex phonetic system with different sounds and combinations that may not have direct equivalents in other languages. Using transcription allows non-native speakers or those unfamiliar with the Greek alphabet to understand and pronounce words correctly. It also helps in areas like language learning, linguistic research, and cross-cultural communication.</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>Greek refers to Greece or the Greek people, culture, language, or anything related to Greece. The Greek language is an Indo-European language spoken by approximately 13 million people in Greece, Cyprus, and other Greek communities around the world. Greek civilization is one of the oldest in the world and has made significant contributions to various areas such as philosophy, literature, mathematics, and democracy. Some famous ancient Greek philosophers include Socrates, Plato, and Aristotle. Greek mythology is also well-known, with gods and goddesses like Zeus, Athena, and Aphrodite. Greek cuisine is popular for dishes like moussaka, souvlaki, and baklava. There are several Greek language transcription services available online. Some popular options include:
+1. Rev.com: Rev offers high-quality Greek transcription services with 99% accuracy. They have a large network of professional native Greek speakers who can transcribe your audio or video files quickly.
+2. CastingWords: CastingWords also provides Greek transcription services. They have a team of experienced transcribers who can accurately transcribe your Greek audio or video content.
+3. TranscriptionStar: TranscriptionStar offers Greek transcription services for various industries, including academic, legal, and medical. They provide accurate and timely transcripts while maintaining confidentiality.
+4. Gotranscript: Gotranscript is another option for Greek language transcription services. They have a user-friendly platform and a team of experienced transcribers who deliver high-quality transcripts.
+5. Scribie: Scribie is a transcription company that offers Greek transcription services as well. They have a straightforward pricing structure and provide accurate transcripts with a fast turnaround time.
+When choosing a service, consider factors such as turnaround time, accuracy, pricing, and the specific requirements of your project. It is also helpful to review customer feedback and ratings to ensure you are selecting a reputable service. Greek is primarily spoken in Greece, where it is the official language. However, it is also spoken in other regions and countries. Here are some regions and countries outside of Greece where Greek is spoken:
+1. Cyprus: Greek is one of the official languages in Cyprus, along with Turkish.
+2. Albania: Greek is spoken by the ethnic Greek minority in southern Albania, particularly in the regions of Himara, Saranda, and Delvina.
+3. Turkey: There is a small Greek-speaking minority in Turkey, mainly concentrated in Istanbul, Imbros, and Tenedos.
+4. Italy: In the region of Calabria, in southern Italy, there is a small Greek-speaking community known as the Griko people.
+5. Egypt: Greek is spoken by the Greek community in Egypt, particularly in Alexandria and Cairo.
+6. Ukraine: Greek is spoken by the Greek community in the Mariupol region, located in eastern Ukraine.
+It is worth noting that Greek also has a significant diaspora community around the world, particularly in countries such as the United States, Australia, Canada, and Germany, among others. Greek dialects refer to the various regional forms of the Greek language spoken throughout Greece and its neighboring countries. The three main dialect groups include:
+1. Attic-Ionic: This dialect group is based on the language spoken in ancient Athens and is considered the standard form of the Greek language. It includes the Attic dialect and the Ionic dialect, which was spoken in Ionia (modern-day western Turkey).
+2. Aeolic: The Aeolic dialect group was spoken in ancient Aeolis (western Asia Minor) and the island of Lesbos. It is known for its distinctive features, such as vowel changes and the use of an "s" sound instead of "r."
+3. Doric: The Doric dialect group was spoken in ancient Doris (central Greece) and in various colonies in Sicily and southern Italy. It is characterized by its more conservative features compared to Attic-Ionic dialects.
+Each dialect group has numerous variations within it, and these dialects have influenced the development of modern Greek. However, Standard Modern Greek, based on the Attic-Ionic dialect, is the official language of Greece today. To utilize Greek language transcription services, follow these steps:
+1. Find a reputable transcription service provider that specializes in Greek language transcription. Look for companies or platforms with positive reviews and a track record of accurate transcription.
+2. Contact the service provider to discuss your specific transcription needs. Explain the content, audio quality, and any specific requirements you may have. Provide them with sample audio or details about the project to get an accurate estimate and timeline.
+3. Share your audio files securely with the transcription service provider. Many companies offer online platforms or secure file-sharing options for easy and private transfer of files. Make sure to comply with any privacy or confidentiality requirements.
+4. The service provider will assign a qualified Greek language transcriber to your project. They will listen to the audio and transcribe it into written text, capturing all spoken words, including punctuation and formatting as per your instructions.
+5. Once the transcription is completed, the service provider will deliver the transcript to you in the preferred format. This can be a Word document, PDF, or any other specified file format. Review the transcript carefully to ensure accuracy and make any necessary corrections or edits.
+6. If you require additional services such as translation, time-stamping, or subtitle creation, discuss it with the service provider beforehand. They may offer these services or have recommendations for additional resources.
+7. After reviewing the final transcript and making any necessary changes, keep a backup copy of the file. Store it securely for future reference or use.
+Remember to communicate clearly with the transcription service provider, provide context as needed, and provide feedback if necessary to ensure the highest quality of transcription. Greek is the official language in the following countries:
+1. Greece
+2. Cyprus
+In addition to these, Greek is also spoken as a minority language in the following countries and regions:
+1. Albania
+2. Armenia
+3. Bulgaria
+4. Egypt
+5. Italy (regions of Calabria, Campania, and Apulia)
+6. Romania
+7. Turkey (particularly in the regions of Eastern Thrace, Istanbul, and Imbros)
+8. Ukraine (regions of Mariupol and Donetsk)
+9. United States (due to Greek diaspora)
+Please note that Greek may also be spoken by Greek diaspora communities in various other countries around the world. Transcription is needed for the Greek language, as it helps to better represent the pronunciation of words and phrases in a written form. Greek has a complex phonetic system with different sounds and combinations that may not have direct equivalents in other languages. Using transcription allows non-native speakers or those unfamiliar with the Greek alphabet to understand and pronounce words correctly. It also helps in areas like language learning, linguistic research, and cross-cultural communication.</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Greek  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>Capital Typing: Your Trusted Provider for Greek Transcription Services
+When it comes to Greek transcription services, look no further than Capital Typing. With our team of expert transcribers and years of experience, we are committed to delivering accurate and timely transcripts for your audio and video files in the Greek language.
+Greek is an Indo-European language spoken by approximately 13 million people around the world, including in Greece, Cyprus, and various Greek communities. As one of the oldest civilizations in the world, Greece has made significant contributions to philosophy, literature, mathematics, and democracy. The Greek language carries a rich cultural heritage and is integral to understanding the ancient Greek civilization and its mythology.
+At Capital Typing, we understand the importance of preserving the authenticity and accuracy of the Greek language. Our team of professional native Greek speakers is well-equipped to transcribe your audio or video files with precision and efficiency. We strive to maintain a 99% accuracy rate, ensuring that every word and nuance is captured in the transcription process.
+Our Greek transcription services cater to a wide range of industries, including academic, legal, and medical. Whether you require transcriptions for research interviews, court hearings, or medical conferences, our experienced transcribers can handle it all. We value confidentiality and ensure that your sensitive information remains secure throughout the transcription process.
+Choosing Capital Typing as your Greek transcription service provider offers numerous benefits. Our user-friendly platform allows for easy file transfer, and our pricing structure is transparent and competitive. We understand the importance of timely delivery, and our team works diligently to meet your deadlines without compromising on quality.
+Additionally, Capital Typing offers additional services such as translation, time-stamping, and subtitle creation to meet your specific needs. Our team of professionals is dedicated to providing comprehensive language solutions to facilitate effective communication and understanding.
+To utilize our Greek transcription services, simply follow these steps:
+1. Contact our team and discuss your specific transcription needs, providing details about your project, including audio quality, content, and any specific requirements you may have.
+2. Safely share your audio files with us through our secure file-sharing options or online platform.
+3. Our qualified Greek language transcribers will diligently transcribe your audio or video files, capturing every spoken word accurately and following any formatting or punctuation instructions.
+4. Once completed, we will deliver the transcript to you in your preferred format, be it a Word document, PDF, or any other specified file format.
+5. Review the transcript carefully and provide any necessary feedback or corrections. We value your satisfaction and are committed to ensuring the highest quality and accuracy.
+By partnering with Capital Typing for your Greek transcription needs, you can trust that your content is in capable hands. Our focus on accuracy, efficiency, and professionalism sets us apart as a leading provider in the industry.
+Contact Capital Typing today to learn more about our Greek transcription services and how we can support your language needs. We are here to help you successfully navigate the world of Greek transcription and language services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The Guarani are the indigenous peoples of South America, primarily inhabiting Paraguay, northeastern Argentina, and parts of Bolivia and Brazil. They have a rich cultural heritage, with their own language, traditions, and beliefs. The Guarani people have faced challenges over the years, including colonization, displacement, and encroachment on their lands. However, they continue to strive to preserve and protect their cultural identity, language, and way of life. Guarani communities often have a strong connection to the land and are known for their agricultural practices, particularly the cultivation of yerba mate and other crops.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Guarani language transcription services</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>I'd be happy to help! Guarani is an indigenous language spoken in Paraguay and parts of neighboring countries. How can I assist you with Guarani language transcription services?</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Guarani regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Guarani is an indigenous language spoken in several countries, mostly in South America. Here are the main Guarani-speaking regions:
+1. Paraguay: Guarani is an official language in Paraguay, alongside Spanish. It is widely spoken by the majority of the population and is even used in government and education.
+2. Argentina: Guarani is spoken in the northern provinces of Argentina, including Misiones, Corrientes, and Formosa. It is primarily spoken by indigenous communities and is recognized as a regional language in these areas.
+3. Brazil: Guarani is spoken by indigenous groups in some parts of Brazil, mainly in the states of Mato Grosso do Sul, Paraná, and São Paulo. It is considered one of the official languages of the country within indigenous territories.
+4. Bolivia: Guarani is spoken by indigenous groups in certain regions of Bolivia, especially in the departments of Santa Cruz, Chuquisaca, and Tarija. It is recognized as one of the country's official languages within indigenous territories.
+5. Uruguay: Guarani is spoken by a small number of indigenous communities in the northern regions of Uruguay, particularly in the department of Artigas.
+Please note that Guarani dialects and variations may exist within these regions, reflecting the diversity of the language across different indigenous communities.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Guarani dialects</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Guarani, also known as Avañe'ẽ, is an indigenous language spoken by the Guarani people in South America. It is an official language in Paraguay and is also spoken in parts of Argentina, Brazil, and Bolivia. 
+There are several dialects of Guarani, which can vary slightly in pronunciation, vocabulary, and grammar. Some of the main dialects include:
+1. Eastern Guarani: This dialect is spoken in the eastern region of Paraguay and is considered the standard variety of Guarani. It is also the most widely spoken dialect and is used in formal settings, such as education and media.
+2. Western Guarani: Spoken in the western region of Paraguay, this dialect has some variations in vocabulary and pronunciation compared to Eastern Guarani.
+3. Mbya Guarani: This dialect is spoken by the Mbya Guarani people in Paraguay, Argentina, and Brazil. It has some unique features and variations compared to other Guarani dialects.
+4. Ava Guaraní: Also known as Avañe'ẽ de chupe, this dialect is spoken by the Ava people in Paraguay and Brazil. It has some distinct features and is considered a separate branch of the Guarani language.
+These are just a few examples of the different Guarani dialects. Each dialect has its own unique characteristics and may have some differences in vocabulary and grammar. However, speakers of different dialects can generally understand each other, as the core structure and vocabulary of Guarani remain consistent across dialects.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>How can someone utilize Guarani language transcription services</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>To utilize Guarani language transcription services, follow these steps:
+1. Research Guarani language transcription services: Look for reputable companies or freelance professionals that offer Guarani transcription services. Read reviews and consider their experience and expertise in Guarani transcription.
+2. Contact the service provider: Reach out to the chosen Guarani language transcription service provider. Inquire about their availability, pricing, turnaround times, and any specific requirements or guidelines they may have.
+3. Share audio/video files: Once you have agreed to work with a Guarani language transcription service provider, provide them with the audio or video files that need transcription. Ensure that the files are in a compatible format and of good quality.
+4. Specify transcription requirements: Clearly communicate your specific transcription requirements to the service provider. This could include formatting preferences, timestamps, or any other instructions.
+5. Confirm pricing and turnaround time: Discuss and confirm the cost of the Guarani transcription services, as well as the estimated turnaround time for completion. Ensure that both parties agree on these terms.
+6. Review and approve the transcription: Once the Guarani transcription is delivered, review the document for accuracy and completeness. If any revisions are needed, provide detailed feedback to the service provider.
+7. Pay and receive final transcription: Once you are satisfied with the Guarani transcription, proceed to make the payment as agreed with the service provider. Upon confirmation of payment, you will receive the final transcribed document.
+Remember to maintain open communication with the Guarani language transcription service provider throughout the process to ensure a seamless experience.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Countries where Guarani is spoken</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Guarani is primarily spoken in the following countries:
+1. Paraguay: Guarani is one of the official languages of Paraguay, along with Spanish.
+2. Argentina: In the northeastern regions of Argentina, particularly in the province of Misiones, Guarani is spoken by a significant number of people.
+3. Brazil: Guarani is also spoken in some parts of Brazil, particularly in the states of Mato Grosso do Sul, São Paulo, Paraná, and Rio Grande do Sul.
+While Guarani may not be the dominant language in these countries, it still holds significant cultural and linguistic importance.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Guarani language</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Guarani language, like any other language, for multiple reasons:
+1. Standardization: Guarani is an indigenous language native to South America, primarily spoken in Paraguay. Transcription helps in standardizing the language by providing a consistent and uniform way of representing Guarani words and sounds, making it easier for learners and speakers to communicate and understand each other.
+2. Documentation and preservation: Transcription allows the Guarani language to be documented in written form, which is crucial for its preservation and future study. By transcribing spoken Guarani into written text, it becomes possible to create dictionaries, grammars, literature, and educational materials that can help keep the language alive for future generations.
+3. Accessible learning resources: Transcription helps in creating accessible learning resources, such as textbooks, language courses, and online tools, that can aid individuals in learning and studying Guarani. These resources become invaluable for both native speakers and learners who want to become proficient in the language.
+4. Communication with non-speakers: Transcription makes it possible for Guarani speakers to communicate with those who do not understand the language. By writing Guarani in a universally understandable script, such as the Latin alphabet, it becomes easier for non-speakers to read and understand the language, facilitating communication and cultural exchange.
+Overall, transcription plays a crucial role in the standardization, documentation, preservation, and accessibility of the Guarani language. It helps ensure the continued usage and appreciation of the language within its native community and beyond.</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>The Guarani are the indigenous peoples of South America, primarily inhabiting Paraguay, northeastern Argentina, and parts of Bolivia and Brazil. They have a rich cultural heritage, with their own language, traditions, and beliefs. The Guarani people have faced challenges over the years, including colonization, displacement, and encroachment on their lands. However, they continue to strive to preserve and protect their cultural identity, language, and way of life. Guarani communities often have a strong connection to the land and are known for their agricultural practices, particularly the cultivation of yerba mate and other crops. I'd be happy to help! Guarani is an indigenous language spoken in Paraguay and parts of neighboring countries. How can I assist you with Guarani language transcription services? Guarani is an indigenous language spoken in several countries, mostly in South America. Here are the main Guarani-speaking regions:
+1. Paraguay: Guarani is an official language in Paraguay, alongside Spanish. It is widely spoken by the majority of the population and is even used in government and education.
+2. Argentina: Guarani is spoken in the northern provinces of Argentina, including Misiones, Corrientes, and Formosa. It is primarily spoken by indigenous communities and is recognized as a regional language in these areas.
+3. Brazil: Guarani is spoken by indigenous groups in some parts of Brazil, mainly in the states of Mato Grosso do Sul, Paraná, and São Paulo. It is considered one of the official languages of the country within indigenous territories.
+4. Bolivia: Guarani is spoken by indigenous groups in certain regions of Bolivia, especially in the departments of Santa Cruz, Chuquisaca, and Tarija. It is recognized as one of the country's official languages within indigenous territories.
+5. Uruguay: Guarani is spoken by a small number of indigenous communities in the northern regions of Uruguay, particularly in the department of Artigas.
+Please note that Guarani dialects and variations may exist within these regions, reflecting the diversity of the language across different indigenous communities. Guarani, also known as Avañe'ẽ, is an indigenous language spoken by the Guarani people in South America. It is an official language in Paraguay and is also spoken in parts of Argentina, Brazil, and Bolivia. 
+There are several dialects of Guarani, which can vary slightly in pronunciation, vocabulary, and grammar. Some of the main dialects include:
+1. Eastern Guarani: This dialect is spoken in the eastern region of Paraguay and is considered the standard variety of Guarani. It is also the most widely spoken dialect and is used in formal settings, such as education and media.
+2. Western Guarani: Spoken in the western region of Paraguay, this dialect has some variations in vocabulary and pronunciation compared to Eastern Guarani.
+3. Mbya Guarani: This dialect is spoken by the Mbya Guarani people in Paraguay, Argentina, and Brazil. It has some unique features and variations compared to other Guarani dialects.
+4. Ava Guaraní: Also known as Avañe'ẽ de chupe, this dialect is spoken by the Ava people in Paraguay and Brazil. It has some distinct features and is considered a separate branch of the Guarani language.
+These are just a few examples of the different Guarani dialects. Each dialect has its own unique characteristics and may have some differences in vocabulary and grammar. However, speakers of different dialects can generally understand each other, as the core structure and vocabulary of Guarani remain consistent across dialects. To utilize Guarani language transcription services, follow these steps:
+1. Research Guarani language transcription services: Look for reputable companies or freelance professionals that offer Guarani transcription services. Read reviews and consider their experience and expertise in Guarani transcription.
+2. Contact the service provider: Reach out to the chosen Guarani language transcription service provider. Inquire about their availability, pricing, turnaround times, and any specific requirements or guidelines they may have.
+3. Share audio/video files: Once you have agreed to work with a Guarani language transcription service provider, provide them with the audio or video files that need transcription. Ensure that the files are in a compatible format and of good quality.
+4. Specify transcription requirements: Clearly communicate your specific transcription requirements to the service provider. This could include formatting preferences, timestamps, or any other instructions.
+5. Confirm pricing and turnaround time: Discuss and confirm the cost of the Guarani transcription services, as well as the estimated turnaround time for completion. Ensure that both parties agree on these terms.
+6. Review and approve the transcription: Once the Guarani transcription is delivered, review the document for accuracy and completeness. If any revisions are needed, provide detailed feedback to the service provider.
+7. Pay and receive final transcription: Once you are satisfied with the Guarani transcription, proceed to make the payment as agreed with the service provider. Upon confirmation of payment, you will receive the final transcribed document.
+Remember to maintain open communication with the Guarani language transcription service provider throughout the process to ensure a seamless experience. Guarani is primarily spoken in the following countries:
+1. Paraguay: Guarani is one of the official languages of Paraguay, along with Spanish.
+2. Argentina: In the northeastern regions of Argentina, particularly in the province of Misiones, Guarani is spoken by a significant number of people.
+3. Brazil: Guarani is also spoken in some parts of Brazil, particularly in the states of Mato Grosso do Sul, São Paulo, Paraná, and Rio Grande do Sul.
+While Guarani may not be the dominant language in these countries, it still holds significant cultural and linguistic importance. Transcription is needed for the Guarani language, like any other language, for multiple reasons:
+1. Standardization: Guarani is an indigenous language native to South America, primarily spoken in Paraguay. Transcription helps in standardizing the language by providing a consistent and uniform way of representing Guarani words and sounds, making it easier for learners and speakers to communicate and understand each other.
+2. Documentation and preservation: Transcription allows the Guarani language to be documented in written form, which is crucial for its preservation and future study. By transcribing spoken Guarani into written text, it becomes possible to create dictionaries, grammars, literature, and educational materials that can help keep the language alive for future generations.
+3. Accessible learning resources: Transcription helps in creating accessible learning resources, such as textbooks, language courses, and online tools, that can aid individuals in learning and studying Guarani. These resources become invaluable for both native speakers and learners who want to become proficient in the language.
+4. Communication with non-speakers: Transcription makes it possible for Guarani speakers to communicate with those who do not understand the language. By writing Guarani in a universally understandable script, such as the Latin alphabet, it becomes easier for non-speakers to read and understand the language, facilitating communication and cultural exchange.
+Overall, transcription plays a crucial role in the standardization, documentation, preservation, and accessibility of the Guarani language. It helps ensure the continued usage and appreciation of the language within its native community and beyond.</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Guarani  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>Capital Typing: Supporting Guarani Transcription Services for Communication and Preservation
+Capital Typing is committed to providing professional Guarani transcription services, focusing on supporting communication and preserving the rich cultural heritage of the Guarani language. Guarani is an indigenous language spoken in various South American countries, including Paraguay, Argentina, Brazil, Bolivia, and Uruguay. Our transcription services aim to standardize, document, and make Guarani accessible to wider audiences, promoting cultural understanding and facilitating communication between Guarani speakers and non-speakers.
+With a team of experienced linguists and transcriptionists, Capital Typing ensures accurate and high-quality Guarani transcriptions. Our experts are fluent in Guarani and have a deep understanding of its unique dialects, enabling them to capture the richness and nuances of the language in written form. We work closely with Guarani speakers, communities, and organizations to provide tailored transcription solutions that meet their specific needs and requirements.
+At Capital Typing, we recognize the significance of Guarani as an integral part of the cultural identity of the Guarani people. Through our transcription services, we contribute to the preservation and documentation of the Guarani language, helping to safeguard it for future generations. By transcribing Guarani into written text, we facilitate the creation of dictionaries, grammars, educational materials, and other resources that foster language learning and promote the spread of Guarani worldwide.
+Our Guarani transcription services also play a vital role in communication. Transcriptions provide non-Guarani speakers with the ability to understand and engage with the language. By converting spoken Guarani into written text using a universally understandable script, such as the Latin alphabet, we break down language barriers, enabling effective cross-cultural communication and promoting cultural exchange.
+Capital Typing understands the importance of accessibility in language learning. We work to create inclusive learning resources, such as textbooks, language courses, and online tools, that make Guarani more accessible to both native speakers and learners. These resources enhance the learning experience, allowing individuals to acquire and develop their Guarani language skills with ease.
+When partnering with Capital Typing for Guarani transcription services, clients can expect professionalism, accuracy, and timely delivery. We value open communication and collaboration, ensuring that our clients' specific transcription requirements are met. Our competitive pricing and commitment to exceptional customer service make us a reliable choice for all Guarani transcription needs.
+By choosing Capital Typing as your Guarani transcription provider, you contribute to the support and preservation of the Guarani language and its cultural heritage. Let us help you bridge language gaps, facilitate cultural exchange, and promote the thriving and continued use of the Guarani language.
+Contact Capital Typing today to explore our Guarani transcription services and embark on a journey of communication, preservation, and cultural appreciation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gujarati</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gujarati is an Indo-Aryan language spoken by people in the Indian state of Gujarat and other parts of western India. It is the 26th most widely spoken language in the world, with over 46 million speakers. Gujarati has its own script, known as the Gujarati script, which is derived from the Devanagari script. It is known for its rich literary traditions, including plays, poetry, and novels. Gujarati is also widely spoken by the Gujarati diaspora around the world.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gujarati language transcription services</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gujarati Language Transcription Services are professional services that transcribe audio or video recordings into a written format in the Gujarati language. These services help individuals or businesses who have audio or video content in Gujarati to accurately convert that content into text, which can be useful for various purposes such as creating subtitles, translating content, or analyzing recordings. Gujarati language transcription services ensure that the transcriptions are done by native Gujarati speakers who are proficient in both spoken and written Gujarati, ensuring accuracy and quality in the final transcripts. These services can be found online or through transcription service providers who specialize in language-specific transcription services.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gujarati regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Gujarati is primarily spoken in the Indian state of Gujarat and the Union Territory of Dadra and Nagar Haveli and Daman and Diu. It is also spoken by the Gujarati diaspora in different parts of the world, including the United Kingdom, United States, Canada, Australia, and East Africa.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Gujarati dialects</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Gujarati, a language primarily spoken in the western Indian state of Gujarat, has several dialects. Some of the prominent Gujarati dialects are:
+1. Kathiawadi: Spoken in the Saurashtra region of Gujarat, this dialect is known for its distinct pronunciation and vocabulary. It is considered one of the oldest dialects of Gujarati.
+2. Charotari: This dialect is spoken in the Charotar region of Gujarat, specifically in areas like Anand, Kheda, and Nadiad. It has unique linguistic features and vocabulary that differentiate it from other dialects.
+3. Bhili: Although technically classified as a separate language, Bhili is closely related to Gujarati and shares many similarities. It is primarily spoken by the Bhil community in parts of Gujarat, Rajasthan, Madhya Pradesh, and Maharashtra.
+4. Kutchi: This dialect is spoken in the Kutch region of Gujarat, adjoining the border with Pakistan. It has notable influences from Sindhi and Sindhi script is also followed to write Kutchi.
+5. Parsi Gujarati: Spoken by the Parsi community in Gujarat, this variant of Gujarati has distinct characteristics influenced by Persian and English languages.
+These are just a few examples of the dialects that exist within the Gujarati language. Each dialect has its own unique vocabulary, pronunciation, and cultural elements, contributing to the linguistic diversity of the region.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>How can someone utilize Gujarati language transcription services</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>To utilize Gujarati language transcription services, follow these steps:
+1. Search for reliable transcription service providers: Look for companies or professionals offering Gujarati transcription services. Check their reputation, client reviews, and the quality of their work.
+2. Assess your transcription needs: Determine the type and volume of content you need to be transcribed in Gujarati. This can include audio or video recordings, interviews, lectures, conferences, or any other language material.
+3. Contact the transcription service provider: Reach out to your chosen service provider and provide them with detailed information about your transcription requirements. Include the length and format of the content, any specific instructions, and the desired turnaround time.
+4. Share the audio or video files: Provide the service provider with the audio or video files that need to be transcribed. Ensure that the files are of good quality to ensure accurate transcription.
+5. Discuss any specific formatting requirements: If you have any specific formatting guidelines, such as timestamps or speaker identification, communicate them to the service provider.
+6. Review the transcription: Once the transcription is complete, review the output for accuracy and quality. Make sure it meets your expectations and guidelines.
+7. Request revisions if necessary: If you find any errors or require revisions, communicate your feedback to the service provider. Reputable providers usually offer a revision process to ensure client satisfaction.
+8. Make the necessary payments: Once you are satisfied with the transcription, proceed with making the required payment as per the service provider's terms and conditions.
+By following these steps, you can effectively utilize Gujarati language transcription services to convert your audio or video content into written form.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Countries where Gujarati is spoken</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Gujarati is primarily spoken in the Indian state of Gujarat. However, Gujarati is also spoken by significant communities in several other countries, including:
+1. India: Gujarati is one of the official languages of the state of Gujarat and is widely spoken by the Gujarati-speaking population across India.
+2. United Kingdom: Gujarati is spoken by a significant Gujarati diaspora in the UK, particularly in cities like London, Leicester, and Birmingham.
+3. United States: Gujarati is spoken by Gujarati diaspora communities in the US, especially in cities like New Jersey, New York, and California.
+4. Canada: Gujarati is spoken by Gujarati communities in cities like Toronto and Vancouver.
+5. South Africa: Gujarati is spoken by the Indian community in South Africa, with significant Gujarati-speaking populations in cities like Durban and Johannesburg.
+6. Kenya: Gujarati is spoken by the Indian community in Kenya, particularly in cities like Nairobi and Mombasa.
+7. Tanzania: Gujarati is spoken by the Indian community in Tanzania, with significant Gujarati-speaking populations in cities like Dar es Salaam.
+8. Uganda: Gujarati is spoken by the Indian community in Uganda, primarily in the capital city, Kampala.
+9. Singapore: Gujarati is spoken by the Gujarati community in Singapore, primarily among the Indian diaspora.
+10. Australia: Gujarati is spoken by the Gujarati community in Australia, particularly in cities like Melbourne and Sydney.
+Please note that while Gujarati is spoken in these countries, its usage and prevalence may vary.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Gujarati language</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Gujarati language for several reasons:
+1. Standardization: Gujarati is a phonetic language, which means that words are pronounced as they are written. However, there are different dialects and variations in pronunciation. Transcription helps in standardizing the language by providing a written representation that can be universally understood.
+2. Learning and Teaching: Transcription is useful for learners and teachers of Gujarati, especially those who are not native speakers. It helps them understand the pronunciation and phonetic elements of words, making the learning process easier.
+3. Communication: Transcription aids in clear communication within the Gujarati-speaking community. It allows individuals to write and share information accurately, ensuring that the intended message is understood by others.
+4. Accessibility: Transcription is essential for people with hearing impairments or those who use assistive technologies. It allows them to access and understand spoken Gujarati content in written form.
+5. Language Preservation: Transcription plays a crucial role in preserving and documenting the Gujarati language. It helps in creating written records of spoken language, ensuring that it can be studied, analyzed, and passed down to future generations.
+Overall, transcription is vital for the Gujarati language as it enhances communication, aids in learning, standardizes pronunciation, and preserves the language for future generations.</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>Gujarati is an Indo-Aryan language spoken by people in the Indian state of Gujarat and other parts of western India. It is the 26th most widely spoken language in the world, with over 46 million speakers. Gujarati has its own script, known as the Gujarati script, which is derived from the Devanagari script. It is known for its rich literary traditions, including plays, poetry, and novels. Gujarati is also widely spoken by the Gujarati diaspora around the world. Gujarati Language Transcription Services are professional services that transcribe audio or video recordings into a written format in the Gujarati language. These services help individuals or businesses who have audio or video content in Gujarati to accurately convert that content into text, which can be useful for various purposes such as creating subtitles, translating content, or analyzing recordings. Gujarati language transcription services ensure that the transcriptions are done by native Gujarati speakers who are proficient in both spoken and written Gujarati, ensuring accuracy and quality in the final transcripts. These services can be found online or through transcription service providers who specialize in language-specific transcription services. Gujarati is primarily spoken in the Indian state of Gujarat and the Union Territory of Dadra and Nagar Haveli and Daman and Diu. It is also spoken by the Gujarati diaspora in different parts of the world, including the United Kingdom, United States, Canada, Australia, and East Africa. Gujarati, a language primarily spoken in the western Indian state of Gujarat, has several dialects. Some of the prominent Gujarati dialects are:
+1. Kathiawadi: Spoken in the Saurashtra region of Gujarat, this dialect is known for its distinct pronunciation and vocabulary. It is considered one of the oldest dialects of Gujarati.
+2. Charotari: This dialect is spoken in the Charotar region of Gujarat, specifically in areas like Anand, Kheda, and Nadiad. It has unique linguistic features and vocabulary that differentiate it from other dialects.
+3. Bhili: Although technically classified as a separate language, Bhili is closely related to Gujarati and shares many similarities. It is primarily spoken by the Bhil community in parts of Gujarat, Rajasthan, Madhya Pradesh, and Maharashtra.
+4. Kutchi: This dialect is spoken in the Kutch region of Gujarat, adjoining the border with Pakistan. It has notable influences from Sindhi and Sindhi script is also followed to write Kutchi.
+5. Parsi Gujarati: Spoken by the Parsi community in Gujarat, this variant of Gujarati has distinct characteristics influenced by Persian and English languages.
+These are just a few examples of the dialects that exist within the Gujarati language. Each dialect has its own unique vocabulary, pronunciation, and cultural elements, contributing to the linguistic diversity of the region. To utilize Gujarati language transcription services, follow these steps:
+1. Search for reliable transcription service providers: Look for companies or professionals offering Gujarati transcription services. Check their reputation, client reviews, and the quality of their work.
+2. Assess your transcription needs: Determine the type and volume of content you need to be transcribed in Gujarati. This can include audio or video recordings, interviews, lectures, conferences, or any other language material.
+3. Contact the transcription service provider: Reach out to your chosen service provider and provide them with detailed information about your transcription requirements. Include the length and format of the content, any specific instructions, and the desired turnaround time.
+4. Share the audio or video files: Provide the service provider with the audio or video files that need to be transcribed. Ensure that the files are of good quality to ensure accurate transcription.
+5. Discuss any specific formatting requirements: If you have any specific formatting guidelines, such as timestamps or speaker identification, communicate them to the service provider.
+6. Review the transcription: Once the transcription is complete, review the output for accuracy and quality. Make sure it meets your expectations and guidelines.
+7. Request revisions if necessary: If you find any errors or require revisions, communicate your feedback to the service provider. Reputable providers usually offer a revision process to ensure client satisfaction.
+8. Make the necessary payments: Once you are satisfied with the transcription, proceed with making the required payment as per the service provider's terms and conditions.
+By following these steps, you can effectively utilize Gujarati language transcription services to convert your audio or video content into written form. Gujarati is primarily spoken in the Indian state of Gujarat. However, Gujarati is also spoken by significant communities in several other countries, including:
+1. India: Gujarati is one of the official languages of the state of Gujarat and is widely spoken by the Gujarati-speaking population across India.
+2. United Kingdom: Gujarati is spoken by a significant Gujarati diaspora in the UK, particularly in cities like London, Leicester, and Birmingham.
+3. United States: Gujarati is spoken by Gujarati diaspora communities in the US, especially in cities like New Jersey, New York, and California.
+4. Canada: Gujarati is spoken by Gujarati communities in cities like Toronto and Vancouver.
+5. South Africa: Gujarati is spoken by the Indian community in South Africa, with significant Gujarati-speaking populations in cities like Durban and Johannesburg.
+6. Kenya: Gujarati is spoken by the Indian community in Kenya, particularly in cities like Nairobi and Mombasa.
+7. Tanzania: Gujarati is spoken by the Indian community in Tanzania, with significant Gujarati-speaking populations in cities like Dar es Salaam.
+8. Uganda: Gujarati is spoken by the Indian community in Uganda, primarily in the capital city, Kampala.
+9. Singapore: Gujarati is spoken by the Gujarati community in Singapore, primarily among the Indian diaspora.
+10. Australia: Gujarati is spoken by the Gujarati community in Australia, particularly in cities like Melbourne and Sydney.
+Please note that while Gujarati is spoken in these countries, its usage and prevalence may vary. Transcription is needed for the Gujarati language for several reasons:
+1. Standardization: Gujarati is a phonetic language, which means that words are pronounced as they are written. However, there are different dialects and variations in pronunciation. Transcription helps in standardizing the language by providing a written representation that can be universally understood.
+2. Learning and Teaching: Transcription is useful for learners and teachers of Gujarati, especially those who are not native speakers. It helps them understand the pronunciation and phonetic elements of words, making the learning process easier.
+3. Communication: Transcription aids in clear communication within the Gujarati-speaking community. It allows individuals to write and share information accurately, ensuring that the intended message is understood by others.
+4. Accessibility: Transcription is essential for people with hearing impairments or those who use assistive technologies. It allows them to access and understand spoken Gujarati content in written form.
+5. Language Preservation: Transcription plays a crucial role in preserving and documenting the Gujarati language. It helps in creating written records of spoken language, ensuring that it can be studied, analyzed, and passed down to future generations.
+Overall, transcription is vital for the Gujarati language as it enhances communication, aids in learning, standardizes pronunciation, and preserves the language for future generations.</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Gujarati  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>Gujarati is a widely spoken Indo-Aryan language in India, specifically in the state of Gujarat and other parts of western India. With over 46 million speakers, it ranks as the 26th most widely spoken language in the world. Gujarati has its own unique script derived from the Devanagari script, and it is known for its rich literary traditions in plays, poetry, and novels. Additionally, the Gujarati language has made its mark worldwide through the Gujarati diaspora.
+If you have audio or video content in Gujarati that you need to convert into written text, Gujarati Language Transcription Services can assist you. These professional services accurately transcribe your audio or video recordings into written Gujarati text. This enables you to utilize the content for various purposes such as creating subtitles, translating the content, or analyzing the recordings. To ensure accuracy and quality, native Gujarati speakers proficient in both spoken and written Gujarati complete the transcriptions.
+Gujarati is primarily spoken in Gujarat and the Union Territory of Dadra and Nagar Haveli and Daman and Diu. However, it also has a significant presence among the Gujarati diaspora in countries like the United Kingdom, United States, Canada, Australia, and East Africa.
+Gujarati has various dialects that reflect the regional diversity of the language. Some prominent dialects include Kathiawadi, spoken in the Saurashtra region and considered one of the oldest dialects; Charotari, spoken in the Charotar region; Bhili, related to Gujarati and spoken by the Bhil community; Kutchi, spoken in the Kutch region with influences from Sindhi; and Parsi Gujarati, spoken by the Parsi community with Persian and English influences. These dialects contribute to the linguistic diversity of the Gujarati language.
+To make use of Gujarati Language Transcription Services, follow these steps:
+1. Search for reliable transcription service providers specialized in Gujarati transcription services. Check their reputation, client reviews, and quality of work.
+2. Assess your transcription needs, considering the type and volume of content you require to be transcribed.
+3. Contact the chosen service provider and provide detailed information about your transcription requirements, including content length, format, specific instructions, and desired turnaround time.
+4. Share the audio or video files that need to be transcribed, ensuring their good quality to ensure accurate transcription.
+5. Discuss any specific formatting requirements with the service provider, such as timestamps or speaker identification.
+6. Review the transcription once it is complete, ensuring it meets your expectations and guidelines in terms of accuracy and quality.
+7. If necessary, communicate any required revisions or changes to the service provider. Reputable providers usually offer a revision process to ensure client satisfaction.
+8. Make the necessary payments according to the service provider's terms and conditions.
+By following these steps, you can effectively utilize Gujarati Language Transcription Services to convert your audio or video content into written form, making it accessible and usable in various ways.
+Gujarati, with its unique script and rich literary traditions, is not only important in Gujarat and western India but also extends its influence globally through its diaspora communities. The availability of Gujarati Language Transcription Services ensures that the language and its content can be accurately transcribed, preserved, and utilized for various purposes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Haitian Creole</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Haitian Creole, also known as Kreyòl ayisyen, is a creole language spoken by the majority of the population in Haiti. It is a mixture of French, West African languages, Indigenous Taino, and other languages. Haitian Creole has a unique grammar and vocabulary, different from both French and other creole languages. If you need any assistance with Haitian Creole translations or phrases, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Haitian Creole language transcription services</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Yes, I can assist you with Haitian Creole language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will help you with that.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Haitian Creole regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Haitian Creole, also known as Kreyòl Ayisyen, is primarily spoken in Haiti. It is the country's official language and is widely spoken by the majority of the population. Additionally, it is also spoken by Haitian diaspora communities in countries such as the United States, Canada, the Dominican Republic, and France.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Haitian Creole dialects</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Haitian Creole is a language primarily spoken in Haiti. However, it is worth noting that there are multiple dialects of Haitian Creole across different regions of the country. These dialects can differ in terms of vocabulary, pronunciation, and grammar. Some commonly recognized dialects include:
+1. Northern Haitian Creole: Spoken in the northern part of Haiti, including the cities of Cap-Haitien and Gonaives. This dialect is often considered the standard or prestige dialect of Haitian Creole.
+2. Central Haitian Creole: Spoken in the central part of Haiti, including the capital city Port-au-Prince. This dialect is heavily influenced by French, especially in urban areas.
+3. Southern Haitian Creole: Spoken in the southern part of Haiti. This dialect has a distinct pronunciation and vocabulary compared to the other dialects.
+4. Artibonite Haitian Creole: Spoken in the Artibonite region of Haiti. This dialect has some unique vocabulary and pronunciation features.
+5. Jacmel Haitian Creole: Spoken in the city of Jacmel and surrounding areas in the southern part of Haiti. This dialect is known for its distinctive pronunciation and rhythm.
+These are just a few examples of the dialects that exist within the Haitian Creole language. It's important to note that there is no strict division between these dialects, and there is a considerable amount of variation and overlap between them.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>How can someone utilize Haitian Creole language transcription services</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>To utilize Haitian Creole language transcription services, follow these steps:
+1. Research service providers: Look for companies or freelancers who offer Haitian Creole language transcription services. Consider their experience, reputation, and customer reviews.
+2. Contact the service provider: Reach out to the chosen provider through email, phone, or their website. Inquire about their services, rates, turnaround time, and any other relevant details.
+3. Share your files: Send the audio or video files requiring transcription to the service provider securely. Most providers have platforms or systems for file-sharing purposes.
+4. Specify requirements: Clearly communicate your expectations, formatting preferences, timestamps, and any other specific instructions. This will help ensure accurate and tailored transcriptions.
+5. Confirm rates and turnaround time: Discuss pricing and turnaround time with the provider. Make sure you understand their pricing structure and payment methods before proceeding.
+6. Review the transcription: Once the transcriptions are delivered, carefully review each document to ensure accuracy, completeness, and adherence to your requirements.
+7. Provide feedback: If necessary, provide feedback to the service provider for any revisions or improvements needed. Good communication helps maintain a positive working relationship.
+8. Payment and future collaboration: After ensuring your satisfaction, make the necessary payment according to the agreed-upon terms and conditions. If you are pleased with the service, consider establishing a long-term collaboration.
+Remember to choose a reliable and professional service provider who can deliver accurate transcriptions in a timely manner.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Countries where Haitian Creole is spoken</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Haitian Creole is primarily spoken in Haiti, which is its main language. However, there are also smaller communities of Haitian Creole speakers in other countries. Some countries where Haitian Creole is spoken include:
+1. United States: Due to migration, there is a significant Haitian Creole-speaking population in cities like Miami, New York, and Boston.
+2. Dominican Republic: There is a Haitian Creole-speaking minority in the border regions and areas with Haitian migrant workers.
+3. Canada: Montreal has a sizable Haitian Creole-speaking community.
+4. France: Following migration from its former colony, there are some Haitian Creole speakers in major French cities like Paris.
+5. Bahamas: Haitian Creole is spoken by the Haitian immigrant community.
+6. Turks and Caicos Islands: There is a small Haitian Creole-speaking population due to Haitian migration.
+Please note that these countries may have speakers of Haitian Creole, but it is not widely spoken or recognized as an official language in most of them.</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Haitian Creole language</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Haitian Creole language for several reasons:
+1. Standardization: Haitian Creole is primarily an oral language, with no standardized writing system. Transcription helps to standardize the language and provide a consistent way of representing its sounds and words.
+2. Education: Transcription allows Haitian Creole to be taught in schools and educational settings. It enables students to learn the language's vocabulary, grammar, and pronunciation systematically.
+3. Communication: Transcription facilitates communication between speakers of Haitian Creole and speakers of other languages. It helps in translating written materials, interpreting speeches, and conveying messages accurately.
+4. Preservation: Transcription plays a crucial role in preserving the language for future generations. By documenting the language in writing, it can be studied, researched, and documented, ensuring its survival and continued development.
+5. Accessibility: Transcription makes Haitian Creole more accessible to individuals who are deaf or hard of hearing. Transcribing the language in written form allows them to understand and communicate using written texts.
+Overall, transcription provides a written representation of the Haitian Creole language, aiding in education, communication, preservation, and accessibility.</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>Haitian Creole, also known as Kreyòl ayisyen, is a creole language spoken by the majority of the population in Haiti. It is a mixture of French, West African languages, Indigenous Taino, and other languages. Haitian Creole has a unique grammar and vocabulary, different from both French and other creole languages. If you need any assistance with Haitian Creole translations or phrases, feel free to ask! Yes, I can assist you with Haitian Creole language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will help you with that. Haitian Creole, also known as Kreyòl Ayisyen, is primarily spoken in Haiti. It is the country's official language and is widely spoken by the majority of the population. Additionally, it is also spoken by Haitian diaspora communities in countries such as the United States, Canada, the Dominican Republic, and France. Haitian Creole is a language primarily spoken in Haiti. However, it is worth noting that there are multiple dialects of Haitian Creole across different regions of the country. These dialects can differ in terms of vocabulary, pronunciation, and grammar. Some commonly recognized dialects include:
+1. Northern Haitian Creole: Spoken in the northern part of Haiti, including the cities of Cap-Haitien and Gonaives. This dialect is often considered the standard or prestige dialect of Haitian Creole.
+2. Central Haitian Creole: Spoken in the central part of Haiti, including the capital city Port-au-Prince. This dialect is heavily influenced by French, especially in urban areas.
+3. Southern Haitian Creole: Spoken in the southern part of Haiti. This dialect has a distinct pronunciation and vocabulary compared to the other dialects.
+4. Artibonite Haitian Creole: Spoken in the Artibonite region of Haiti. This dialect has some unique vocabulary and pronunciation features.
+5. Jacmel Haitian Creole: Spoken in the city of Jacmel and surrounding areas in the southern part of Haiti. This dialect is known for its distinctive pronunciation and rhythm.
+These are just a few examples of the dialects that exist within the Haitian Creole language. It's important to note that there is no strict division between these dialects, and there is a considerable amount of variation and overlap between them. To utilize Haitian Creole language transcription services, follow these steps:
+1. Research service providers: Look for companies or freelancers who offer Haitian Creole language transcription services. Consider their experience, reputation, and customer reviews.
+2. Contact the service provider: Reach out to the chosen provider through email, phone, or their website. Inquire about their services, rates, turnaround time, and any other relevant details.
+3. Share your files: Send the audio or video files requiring transcription to the service provider securely. Most providers have platforms or systems for file-sharing purposes.
+4. Specify requirements: Clearly communicate your expectations, formatting preferences, timestamps, and any other specific instructions. This will help ensure accurate and tailored transcriptions.
+5. Confirm rates and turnaround time: Discuss pricing and turnaround time with the provider. Make sure you understand their pricing structure and payment methods before proceeding.
+6. Review the transcription: Once the transcriptions are delivered, carefully review each document to ensure accuracy, completeness, and adherence to your requirements.
+7. Provide feedback: If necessary, provide feedback to the service provider for any revisions or improvements needed. Good communication helps maintain a positive working relationship.
+8. Payment and future collaboration: After ensuring your satisfaction, make the necessary payment according to the agreed-upon terms and conditions. If you are pleased with the service, consider establishing a long-term collaboration.
+Remember to choose a reliable and professional service provider who can deliver accurate transcriptions in a timely manner. Haitian Creole is primarily spoken in Haiti, which is its main language. However, there are also smaller communities of Haitian Creole speakers in other countries. Some countries where Haitian Creole is spoken include:
+1. United States: Due to migration, there is a significant Haitian Creole-speaking population in cities like Miami, New York, and Boston.
+2. Dominican Republic: There is a Haitian Creole-speaking minority in the border regions and areas with Haitian migrant workers.
+3. Canada: Montreal has a sizable Haitian Creole-speaking community.
+4. France: Following migration from its former colony, there are some Haitian Creole speakers in major French cities like Paris.
+5. Bahamas: Haitian Creole is spoken by the Haitian immigrant community.
+6. Turks and Caicos Islands: There is a small Haitian Creole-speaking population due to Haitian migration.
+Please note that these countries may have speakers of Haitian Creole, but it is not widely spoken or recognized as an official language in most of them. Transcription is needed for the Haitian Creole language for several reasons:
+1. Standardization: Haitian Creole is primarily an oral language, with no standardized writing system. Transcription helps to standardize the language and provide a consistent way of representing its sounds and words.
+2. Education: Transcription allows Haitian Creole to be taught in schools and educational settings. It enables students to learn the language's vocabulary, grammar, and pronunciation systematically.
+3. Communication: Transcription facilitates communication between speakers of Haitian Creole and speakers of other languages. It helps in translating written materials, interpreting speeches, and conveying messages accurately.
+4. Preservation: Transcription plays a crucial role in preserving the language for future generations. By documenting the language in writing, it can be studied, researched, and documented, ensuring its survival and continued development.
+5. Accessibility: Transcription makes Haitian Creole more accessible to individuals who are deaf or hard of hearing. Transcribing the language in written form allows them to understand and communicate using written texts.
+Overall, transcription provides a written representation of the Haitian Creole language, aiding in education, communication, preservation, and accessibility.</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Haitian Creole  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>Haitian Creole is a unique and vibrant language spoken by the majority of the population in Haiti. It is a blend of French, West African languages, Indigenous Taino, and other languages, creating a rich linguistic tapestry. At Capital Typing, we are proud to offer Haitian Creole transcription services to meet the needs of businesses, organizations, and individuals who require accurate transcriptions of audio or video files in this language.
+Whether you have interviews, meetings, focus groups, or any other type of audio or video content in Haitian Creole that needs to be transcribed, our team of experienced transcriptionists can help. We understand the linguistic nuances of Haitian Creole, including its unique grammar, vocabulary, and dialect variations. Our transcriptionists are native speakers or fluent in Haitian Creole, ensuring accurate and culturally appropriate transcriptions.
+To benefit from our Haitian Creole transcription services, simply provide us with the audio or video file that needs to be transcribed. We have secure and efficient platforms for file sharing, making the process convenient and hassle-free. You can also specify any formatting preferences, timestamps, or other specific instructions to tailor the transcriptions to your needs.
+Once we receive your files, our team will work diligently to transcribe the content accurately and efficiently. We pay close attention to details, ensuring that every word is captured and faithfully represented in the transcripts. We also understand the importance of timely delivery, and we strive to meet your deadlines without compromising the quality of our work.
+Upon completion, we will deliver the transcriptions to you for review. We encourage you to carefully review each document to ensure that it meets your expectations in terms of accuracy and completeness. If any revisions or improvements are needed, we are more than happy to accommodate your feedback.
+At Capital Typing, we take pride in providing reliable and professional transcription services. We value clear communication, exceptional customer service, and a commitment to meeting our clients' needs. Our goal is to make Haitian Creole accessible through transcription, enabling effective communication, education, and the preservation of the language.
+Whether you require transcription services for legal, medical, academic, corporate, or personal purposes, we are here to assist you. Our experienced team is well-versed in a wide range of industries and subjects, ensuring that we can handle any project with accuracy and professionalism.
+Don't let language barriers hinder your progress. Trust our Haitian Creole transcription services to deliver accurate and reliable transcriptions, allowing you to understand and analyze your audio or video content effectively. Reach out to us today and let us assist you in your transcription needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hausa</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hausa is a language primarily spoken in West Africa, particularly in Nigeria and Niger. It is a member of the Afro-Asiatic language family and has more than 70 million speakers worldwide. It is the first language of the Hausa people and serves as a lingua franca in the region.
+Hausa has a complex phonological system with tones and vowel length distinctions. It is written in a modified version of the Latin alphabet. The language has a rich literary tradition, with Hausa poetry and prose being highly regarded in West Africa.
+If you have any specific questions about Hausa or need assistance with anything related to the language, feel free to ask!</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Hausa language transcription services</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Yes, transcription services for the Hausa language are available. Transcription involves converting audio or video recordings into written text. There are professional transcription services that specialize in various languages, including Hausa. These services can accurately transcribe your Hausa recordings, making them more accessible and easier to understand.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Hausa regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Hausa is primarily spoken in several regions in Nigeria, Niger, Ghana, Cameroon, and other West African countries. In Nigeria, it is widely spoken in the northern states, including Kano, Kaduna, Sokoto, Katsina, and Bauchi. In Niger, it is spoken in regions such as Tahoua, Maradi, and Zinder. In Ghana, Hausa is spoken in the northern regions, including the Northern Region, the Upper East Region, and the Upper West Region. In Cameroon, it is spoken in the Far North Region, and in Chad, it is spoken in the Logone Occidental and Logone Oriental regions.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hausa dialects</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Hausa is a major Afro-Asiatic language spoken in West Africa, primarily in countries such as Nigeria, Niger, Ghana, and Cameroon. It is also one of the largest languages in Africa, with various dialects spoken among different communities. Some of the main dialects of Hausa include:
+1. Standard Hausa: This is the standardized form of Hausa used in broadcasting, education, and official communication. It is based on the dialect spoken in the city of Kano, Nigeria, and is considered the prestige dialect.
+2. Kanuri Hausa: Spoken primarily in northeastern Nigeria and parts of Niger, this dialect has influences from the Kanuri language, which is also spoken in the region.
+3. Sokoto Hausa: Spoken in the Sokoto Caliphate region of Nigeria, this dialect has some distinct features and vocabulary influenced by the historical Islamic influence in the area.
+4. Northern Hausa: This dialect is spoken in northern Nigeria, including the states of Katsina, Kaduna, and Zaria. It has some variations in pronunciation and vocabulary compared to Standard Hausa.
+5. Eastern Hausa: Spoken in regions such as Bauchi, Gombe, and parts of Niger, this dialect has influences from the Gwoza dialect and has some unique features.
+6. Western Hausa: Spoken primarily in the Sokoto state of Nigeria, this dialect has regional variations and is influenced by neighboring languages like Fulfulde.
+It's important to note that these dialects may vary in terms of pronunciation, vocabulary, and grammar, but they are generally mutually intelligible to Hausa speakers.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>How can someone utilize Hausa language transcription services</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>To utilize Hausa language transcription services, follow these steps:
+1. Research: Look for reputable transcription service providers that offer Hausa language transcription services. Consider factors such as accuracy, turnaround time, confidentiality, and customer reviews.
+2. Contact the provider: Get in touch with the transcription service provider and inquire about their Hausa language transcription services. Confirm if they have experienced Hausa language transcribers who are fluent in the language and understand the culture.
+3. Provide project details: Share the details of your transcription project with the service provider. Include the audio or video file that needs to be transcribed and specify the required turnaround time.
+4. Agree on terms: Determine the pricing and payment terms for the transcription services. Some providers charge per minute or per hour of audio/video, while others have different pricing models.
+5. Confidentiality agreement: Ensure that the transcription service provider has a confidentiality agreement to protect your sensitive information. This is crucial if the audio or video content contains sensitive or confidential information.
+6. Quality check: Once the transcription is completed, review the transcript for accuracy and quality. Check for any missing or incorrect words, punctuation, or formatting issues.
+7. Feedback: If you have any feedback or revisions, provide them to the transcription service provider. Reputed providers will have a feedback loop to address any issues or concerns.
+8. Payment: Complete the payment process as agreed with the transcription service provider.
+By following these steps, individuals or businesses can effectively utilize Hausa language transcription services to transcribe audio or video content accurately and efficiently.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Countries where Hausa is spoken</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Hausa is primarily spoken in the following countries:
+1. Nigeria: Hausa is widely spoken in Nigeria, especially in the northern part of the country. It is one of the country's major languages, with millions of speakers.
+2. Niger: Hausa is also spoken in Niger, particularly in the regions bordering Nigeria. It is one of the national languages of Niger and is used in government, education, and media.
+3. Ghana: Hausa is spoken by a significant number of people in Ghana, mainly in the northern parts of the country. It is considered one of the minority languages in Ghana.
+4. Cameroon: Hausa is spoken in some communities in northern Cameroon, particularly in the Far North Region. The language is used among the Hausa ethnic group living in the region.
+5. Benin: There is a small Hausa-speaking community in Benin, primarily in the northern parts of the country.
+6. Togo: In Togo, Hausa is spoken by a minority group living in the northern regions, close to the border with Niger.
+7. Chad: Hausa is spoken in parts of Chad, mainly in the Lake Chad region.
+8. Sudan: In Sudan, there is a Hausa-speaking community, particularly in the western states bordering Niger.
+In addition to these countries, there are also Hausa-speaking communities in diaspora, particularly in countries with significant populations of Nigerian or West African descent.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Hausa language</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Transcription is needed for the Hausa language, as well as for any other language, for a few reasons:
+1. Understanding and documentation: Transcription helps in understanding and documenting the spoken language. Hausa is a tonal language, meaning that changes in pitch can change the meaning of words. By transcribing spoken Hausa into a written form, it becomes easier for others to understand and study the language.
+2. Language learning: Transcription is crucial for language learners who are not familiar with the phonetics and pronunciation of the Hausa language. It allows them to see the words and sounds written out, helping them to practice and improve their pronunciation.
+3. Accessibility and inclusivity: Transcription makes Hausa content more accessible to people with hearing impairments or those who prefer written materials over audio. By providing written transcripts for audio or video content in Hausa, more people can engage with and benefit from the information.
+4. Translation and localization: Transcription is often a necessary step when translating content from Hausa to other languages. By having the spoken words transcribed, it becomes easier for translators to accurately convey the meaning and intent of the original message.
+Overall, transcription is needed for the Hausa language, as it assists with understanding, documentation, language learning, accessibility, and translation.</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>Hausa is a language primarily spoken in West Africa, particularly in Nigeria and Niger. It is a member of the Afro-Asiatic language family and has more than 70 million speakers worldwide. It is the first language of the Hausa people and serves as a lingua franca in the region.
+Hausa has a complex phonological system with tones and vowel length distinctions. It is written in a modified version of the Latin alphabet. The language has a rich literary tradition, with Hausa poetry and prose being highly regarded in West Africa.
+If you have any specific questions about Hausa or need assistance with anything related to the language, feel free to ask! Yes, transcription services for the Hausa language are available. Transcription involves converting audio or video recordings into written text. There are professional transcription services that specialize in various languages, including Hausa. These services can accurately transcribe your Hausa recordings, making them more accessible and easier to understand. Hausa is primarily spoken in several regions in Nigeria, Niger, Ghana, Cameroon, and other West African countries. In Nigeria, it is widely spoken in the northern states, including Kano, Kaduna, Sokoto, Katsina, and Bauchi. In Niger, it is spoken in regions such as Tahoua, Maradi, and Zinder. In Ghana, Hausa is spoken in the northern regions, including the Northern Region, the Upper East Region, and the Upper West Region. In Cameroon, it is spoken in the Far North Region, and in Chad, it is spoken in the Logone Occidental and Logone Oriental regions. Hausa is a major Afro-Asiatic language spoken in West Africa, primarily in countries such as Nigeria, Niger, Ghana, and Cameroon. It is also one of the largest languages in Africa, with various dialects spoken among different communities. Some of the main dialects of Hausa include:
+1. Standard Hausa: This is the standardized form of Hausa used in broadcasting, education, and official communication. It is based on the dialect spoken in the city of Kano, Nigeria, and is considered the prestige dialect.
+2. Kanuri Hausa: Spoken primarily in northeastern Nigeria and parts of Niger, this dialect has influences from the Kanuri language, which is also spoken in the region.
+3. Sokoto Hausa: Spoken in the Sokoto Caliphate region of Nigeria, this dialect has some distinct features and vocabulary influenced by the historical Islamic influence in the area.
+4. Northern Hausa: This dialect is spoken in northern Nigeria, including the states of Katsina, Kaduna, and Zaria. It has some variations in pronunciation and vocabulary compared to Standard Hausa.
+5. Eastern Hausa: Spoken in regions such as Bauchi, Gombe, and parts of Niger, this dialect has influences from the Gwoza dialect and has some unique features.
+6. Western Hausa: Spoken primarily in the Sokoto state of Nigeria, this dialect has regional variations and is influenced by neighboring languages like Fulfulde.
+It's important to note that these dialects may vary in terms of pronunciation, vocabulary, and grammar, but they are generally mutually intelligible to Hausa speakers. To utilize Hausa language transcription services, follow these steps:
+1. Research: Look for reputable transcription service providers that offer Hausa language transcription services. Consider factors such as accuracy, turnaround time, confidentiality, and customer reviews.
+2. Contact the provider: Get in touch with the transcription service provider and inquire about their Hausa language transcription services. Confirm if they have experienced Hausa language transcribers who are fluent in the language and understand the culture.
+3. Provide project details: Share the details of your transcription project with the service provider. Include the audio or video file that needs to be transcribed and specify the required turnaround time.
+4. Agree on terms: Determine the pricing and payment terms for the transcription services. Some providers charge per minute or per hour of audio/video, while others have different pricing models.
+5. Confidentiality agreement: Ensure that the transcription service provider has a confidentiality agreement to protect your sensitive information. This is crucial if the audio or video content contains sensitive or confidential information.
+6. Quality check: Once the transcription is completed, review the transcript for accuracy and quality. Check for any missing or incorrect words, punctuation, or formatting issues.
+7. Feedback: If you have any feedback or revisions, provide them to the transcription service provider. Reputed providers will have a feedback loop to address any issues or concerns.
+8. Payment: Complete the payment process as agreed with the transcription service provider.
+By following these steps, individuals or businesses can effectively utilize Hausa language transcription services to transcribe audio or video content accurately and efficiently. Hausa is primarily spoken in the following countries:
+1. Nigeria: Hausa is widely spoken in Nigeria, especially in the northern part of the country. It is one of the country's major languages, with millions of speakers.
+2. Niger: Hausa is also spoken in Niger, particularly in the regions bordering Nigeria. It is one of the national languages of Niger and is used in government, education, and media.
+3. Ghana: Hausa is spoken by a significant number of people in Ghana, mainly in the northern parts of the country. It is considered one of the minority languages in Ghana.
+4. Cameroon: Hausa is spoken in some communities in northern Cameroon, particularly in the Far North Region. The language is used among the Hausa ethnic group living in the region.
+5. Benin: There is a small Hausa-speaking community in Benin, primarily in the northern parts of the country.
+6. Togo: In Togo, Hausa is spoken by a minority group living in the northern regions, close to the border with Niger.
+7. Chad: Hausa is spoken in parts of Chad, mainly in the Lake Chad region.
+8. Sudan: In Sudan, there is a Hausa-speaking community, particularly in the western states bordering Niger.
+In addition to these countries, there are also Hausa-speaking communities in diaspora, particularly in countries with significant populations of Nigerian or West African descent. Transcription is needed for the Hausa language, as well as for any other language, for a few reasons:
+1. Understanding and documentation: Transcription helps in understanding and documenting the spoken language. Hausa is a tonal language, meaning that changes in pitch can change the meaning of words. By transcribing spoken Hausa into a written form, it becomes easier for others to understand and study the language.
+2. Language learning: Transcription is crucial for language learners who are not familiar with the phonetics and pronunciation of the Hausa language. It allows them to see the words and sounds written out, helping them to practice and improve their pronunciation.
+3. Accessibility and inclusivity: Transcription makes Hausa content more accessible to people with hearing impairments or those who prefer written materials over audio. By providing written transcripts for audio or video content in Hausa, more people can engage with and benefit from the information.
+4. Translation and localization: Transcription is often a necessary step when translating content from Hausa to other languages. By having the spoken words transcribed, it becomes easier for translators to accurately convey the meaning and intent of the original message.
+Overall, transcription is needed for the Hausa language, as it assists with understanding, documentation, language learning, accessibility, and translation.</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Hausa  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>Hausa Transcription Services: Accurate and Efficient Transcriptions for the Hausa Language
+Capital Typing is pleased to offer professional Hausa transcription services, catering to individuals and businesses looking to transcribe audio or video content in the Hausa language. With a team of experienced and skilled transcribers who are fluent in Hausa and understand the nuances of the language, we ensure accurate and efficient transcription services.
+Hausa is a language primarily spoken in West Africa, particularly in Nigeria and Niger. It belongs to the Afro-Asiatic language family and has over 70 million speakers worldwide. As the first language of the Hausa people, it also serves as a lingua franca in the region.
+Hausa has a complex phonological system, including tones and vowel length distinctions. It is written in a modified version of the Latin alphabet. The language boasts a rich literary tradition, with Hausa poetry and prose highly regarded in West Africa.
+Our Hausa transcription services cater to a range of needs. Whether you have interviews, conferences, lectures, or any other audio or video recordings that need to be converted into written form, we have you covered. Our skilled transcribers will ensure accurate representation of the spoken words, capturing every detail, including intonation, tone, and rhythm.
+Transcription services for the Hausa language are crucial for several reasons. Firstly, transcription aids in understanding and documenting the spoken language. Hausa's tonal nature can make it challenging for non-speakers to fully comprehend the spoken words. Through transcription, the language becomes more accessible and easier to study.
+Secondly, transcription is vital for language learners who want to improve their pronunciation and familiarity with Hausa. Seeing the written words alongside the audio helps learners practice and enhances their language skills.
+Furthermore, transcription promotes accessibility and inclusivity. By providing written transcripts of Hausa audio or video content, individuals with hearing impairments can engage with the information. Additionally, those who prefer written materials can refer to the transcript to better understand the content.
+Transcription also facilitates translation and localization efforts. By transcribing the spoken words, translators can accurately convey the meaning and intent of the original message when translating Hausa content into other languages.
+At Capital Typing, we follow a structured process to ensure the highest quality Hausa transcriptions. Upon contacting us, we will discuss your specific needs and project details. Our team of experienced transcribers, fluent in Hausa and knowledgeable about the culture, will work diligently to deliver accurate and timely transcriptions.
+Confidentiality is of utmost importance to us, especially if your audio or video content contains sensitive or confidential information. We have a strict confidentiality agreement in place to protect your privacy.
+Once the transcription is complete, we conduct a thorough quality check to ensure accuracy. If any revisions or feedback are required, we provide a dedicated feedback loop to address your concerns promptly.
+We offer competitive pricing and flexible payment options for our Hausa transcription services. Our goal is to provide you with reliable and professional services tailored to your specific requirements.
+When it comes to transcription services for the Hausa language, Capital Typing is your trusted partner. Contact us today to discuss your transcription needs and experience the convenience and accuracy of our Hausa transcription services.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as Pidgin, is a creole language derived from English, Hawaiian, and various other languages spoken in Hawaii. It developed as a means of communication among different ethnic groups in Hawaii, including Native Hawaiians, immigrants from Asia, and European Americans. Here are a few key features and phrases of Hawaiian Creole:
+1. Vocabulary: Hawaiian Creole incorporates words and expressions from different languages including English, Hawaiian, Filipino, Portuguese, Japanese, and Chinese, among others.
+2. Pronunciation: Hawaiian Creole often features distinct pronunciations, such as the "d" sound being replaced with "j," and the "th" sound being substituted with "d" or "f."
+3. Greetings:
+- "Howzit?" is a common way to say "Hello" or "How are you?"
+- "Aloha" is also widely used as a greeting.
+4. Food-related phrases:
+- "Grind" means "to eat" or "food."
+- "Plate lunch" refers to a popular Hawaiian meal consisting of rice, meat, and macaroni salad.
+5. Local customs and phrases:
+- "Da kine" is a versatile phrase used to refer to something when you can't remember or don't know the actual word.
+- "Brah" or "braddah" means "brother" and is often used as a friendly term of address.
+Remember, Hawaiian Creole has its own linguistic patterns and cultural significance in Hawaii. It is important to use it with respect and understanding of the local context.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole language transcription services</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>I can assist you with Hawaiian Creole language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will transcribe it into written text for you.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole regions where it's spoken</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as "Pidgin," is primarily spoken in the state of Hawaii in the United States. It originated as a simplified form of English that developed among workers on plantations that used different languages, such as English, Hawaiian, Japanese, Portuguese, Filipino, and Chinese. While it is widely spoken throughout the Hawaiian Islands, it is most heavily concentrated on the island of Oahu, where the capital city of Honolulu is located. It is also spoken on the other major islands of Maui, Kauai, and the Big Island of Hawaii. Additionally, Hawaiian Creole is spoken in various communities with a significant Hawaiian diaspora, such as parts of California and Nevada.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole dialects</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as "Pidgin" or "Hawai'i Creole English," is a unique dialect that developed in Hawaii. It emerged in the late 19th and early 20th centuries as a way for different ethnic groups in Hawaii, such as Hawaiian, Chinese, Portuguese, and Japanese, to communicate with each other and with English-speaking settlers.
+Hawaiian Creole takes influence from various languages, including English, Hawaiian, and the languages of the different immigrant groups. It has its own grammar, vocabulary, and pronunciation, which set it apart from standard English.
+Some features of Hawaiian Creole include:
+1. Grammar: Hawaiian Creole often simplifies grammar, using shorter sentences and omitting unnecessary words or conjugations.
+2. Vocabulary: The vocabulary of Hawaiian Creole is a blend of words from English, Hawaiian, and other languages. It also includes unique Hawaiian Creole words and phrases.
+3. Pronunciation: Pronunciation in Hawaiian Creole differs from standard English pronunciation. For example, "th" sounds may be replaced with "d" or "f," and certain vowel sounds may be pronounced differently.
+Hawaiian Creole is widely spoken and understood in Hawaii, especially in informal settings. While it is not considered a standardized language, it holds cultural significance and is an essential part of the local identity in Hawaii.
+It's important to note that Hawaiian Creole is distinct from the Hawaiian language, which is a Polynesian language native to the Hawaiian Islands. Hawaiian is currently undergoing revitalization efforts and is recognized as an official language of the state of Hawaii.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>How can someone utilize Hawaiian Creole language transcription services</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>To utilize Hawaiian Creole language transcription services, follow these steps:
+1. Research transcription service providers: Look for companies or freelancers that specialize in Hawaiian Creole language transcription. Read reviews and compare pricing to ensure you find a reliable and affordable option.
+2. Contact the service provider: Reach out to the chosen transcription service provider to discuss your needs. Provide them with information on the length and complexity of the audio or video files you need transcribed, as well as any specific formatting requirements.
+3. Get a quote: Request a quote for the transcription services, including an estimated turnaround time. This will help you determine if their pricing fits within your budget and if their timeline aligns with your needs.
+4. Provide the audio or video files: Once you've agreed to the terms and pricing, share the audio or video files in Hawaiian Creole language with the service provider securely. Avoid using untrusted file-sharing methods, and consider using encrypted platforms or secure cloud storage options.
+5. Monitor progress: If the service provider offers a platform to track the progress of your transcription, utilize it to stay updated on the status. This lets you stay informed and helps you plan for receiving the completed transcription.
+6. Review and provide feedback: Once the transcription is delivered, review it carefully to ensure accuracy and quality. If any errors or issues are found, communicate them promptly and clearly to the service provider for rectification.
+7. Payment: Once you are satisfied with the transcription, pay the service provider as per the agreed terms and methods.
+By following these steps, you can effectively utilize Hawaiian Creole language transcription services and obtain accurate written records of your audio or video content.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Countries where Hawaiian Creole is spoken</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as Pidgin, is primarily spoken in the state of Hawaii in the United States. However, due to migration and military presence, Hawaiian Creole can also be found in other parts of the U.S., such as California, Nevada, and Washington. Additionally, it may be present to a limited extent in other countries where there is a Hawaiian diaspora, such as Japan and the Philippines, mainly among descendants of immigrants from Hawaii.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Why is transcription needed for  Hawaiian Creole language</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Transcription is useful for the Hawaiian Creole language, also known as Pidgin, for several reasons:
+1. Standardization: Hawaiian Creole is a primarily spoken language and does not have an official written standard. Transcribing it can help establish a standardized spelling system, making it easier for learners and speakers to communicate in writing.
+2. Documentation: Transcribing Hawaiian Creole allows linguists, researchers, and scholars to document and study the language. This helps in preserving the language for future generations and understanding its linguistic characteristics, history, and development.
+3. Education: Having a written form of Hawaiian Creole can aid in the teaching and learning of the language. It enables the creation of textbooks, dictionaries, and other educational materials, making it more accessible to both native speakers and non-native learners.
+4. Communication and Integration: Transcription can bridge the gap between different languages and enable communication between speakers of Hawaiian Creole and speakers of other languages. It also helps in integrating Hawaiian Creole into formal settings such as government, education, and media.
+Overall, transcription plays a crucial role in supporting the recognition and development of Hawaiian Creole as a distinct language.</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as Pidgin, is a creole language derived from English, Hawaiian, and various other languages spoken in Hawaii. It developed as a means of communication among different ethnic groups in Hawaii, including Native Hawaiians, immigrants from Asia, and European Americans. Here are a few key features and phrases of Hawaiian Creole:
+1. Vocabulary: Hawaiian Creole incorporates words and expressions from different languages including English, Hawaiian, Filipino, Portuguese, Japanese, and Chinese, among others.
+2. Pronunciation: Hawaiian Creole often features distinct pronunciations, such as the "d" sound being replaced with "j," and the "th" sound being substituted with "d" or "f."
+3. Greetings:
+- "Howzit?" is a common way to say "Hello" or "How are you?"
+- "Aloha" is also widely used as a greeting.
+4. Food-related phrases:
+- "Grind" means "to eat" or "food."
+- "Plate lunch" refers to a popular Hawaiian meal consisting of rice, meat, and macaroni salad.
+5. Local customs and phrases:
+- "Da kine" is a versatile phrase used to refer to something when you can't remember or don't know the actual word.
+- "Brah" or "braddah" means "brother" and is often used as a friendly term of address.
+Remember, Hawaiian Creole has its own linguistic patterns and cultural significance in Hawaii. It is important to use it with respect and understanding of the local context. I can assist you with Hawaiian Creole language transcription services. Please provide me with the audio or video file that needs to be transcribed, and I will transcribe it into written text for you. Hawaiian Creole, also known as "Pidgin," is primarily spoken in the state of Hawaii in the United States. It originated as a simplified form of English that developed among workers on plantations that used different languages, such as English, Hawaiian, Japanese, Portuguese, Filipino, and Chinese. While it is widely spoken throughout the Hawaiian Islands, it is most heavily concentrated on the island of Oahu, where the capital city of Honolulu is located. It is also spoken on the other major islands of Maui, Kauai, and the Big Island of Hawaii. Additionally, Hawaiian Creole is spoken in various communities with a significant Hawaiian diaspora, such as parts of California and Nevada. Hawaiian Creole, also known as "Pidgin" or "Hawai'i Creole English," is a unique dialect that developed in Hawaii. It emerged in the late 19th and early 20th centuries as a way for different ethnic groups in Hawaii, such as Hawaiian, Chinese, Portuguese, and Japanese, to communicate with each other and with English-speaking settlers.
+Hawaiian Creole takes influence from various languages, including English, Hawaiian, and the languages of the different immigrant groups. It has its own grammar, vocabulary, and pronunciation, which set it apart from standard English.
+Some features of Hawaiian Creole include:
+1. Grammar: Hawaiian Creole often simplifies grammar, using shorter sentences and omitting unnecessary words or conjugations.
+2. Vocabulary: The vocabulary of Hawaiian Creole is a blend of words from English, Hawaiian, and other languages. It also includes unique Hawaiian Creole words and phrases.
+3. Pronunciation: Pronunciation in Hawaiian Creole differs from standard English pronunciation. For example, "th" sounds may be replaced with "d" or "f," and certain vowel sounds may be pronounced differently.
+Hawaiian Creole is widely spoken and understood in Hawaii, especially in informal settings. While it is not considered a standardized language, it holds cultural significance and is an essential part of the local identity in Hawaii.
+It's important to note that Hawaiian Creole is distinct from the Hawaiian language, which is a Polynesian language native to the Hawaiian Islands. Hawaiian is currently undergoing revitalization efforts and is recognized as an official language of the state of Hawaii. To utilize Hawaiian Creole language transcription services, follow these steps:
+1. Research transcription service providers: Look for companies or freelancers that specialize in Hawaiian Creole language transcription. Read reviews and compare pricing to ensure you find a reliable and affordable option.
+2. Contact the service provider: Reach out to the chosen transcription service provider to discuss your needs. Provide them with information on the length and complexity of the audio or video files you need transcribed, as well as any specific formatting requirements.
+3. Get a quote: Request a quote for the transcription services, including an estimated turnaround time. This will help you determine if their pricing fits within your budget and if their timeline aligns with your needs.
+4. Provide the audio or video files: Once you've agreed to the terms and pricing, share the audio or video files in Hawaiian Creole language with the service provider securely. Avoid using untrusted file-sharing methods, and consider using encrypted platforms or secure cloud storage options.
+5. Monitor progress: If the service provider offers a platform to track the progress of your transcription, utilize it to stay updated on the status. This lets you stay informed and helps you plan for receiving the completed transcription.
+6. Review and provide feedback: Once the transcription is delivered, review it carefully to ensure accuracy and quality. If any errors or issues are found, communicate them promptly and clearly to the service provider for rectification.
+7. Payment: Once you are satisfied with the transcription, pay the service provider as per the agreed terms and methods.
+By following these steps, you can effectively utilize Hawaiian Creole language transcription services and obtain accurate written records of your audio or video content. Hawaiian Creole, also known as Pidgin, is primarily spoken in the state of Hawaii in the United States. However, due to migration and military presence, Hawaiian Creole can also be found in other parts of the U.S., such as California, Nevada, and Washington. Additionally, it may be present to a limited extent in other countries where there is a Hawaiian diaspora, such as Japan and the Philippines, mainly among descendants of immigrants from Hawaii. Transcription is useful for the Hawaiian Creole language, also known as Pidgin, for several reasons:
+1. Standardization: Hawaiian Creole is a primarily spoken language and does not have an official written standard. Transcribing it can help establish a standardized spelling system, making it easier for learners and speakers to communicate in writing.
+2. Documentation: Transcribing Hawaiian Creole allows linguists, researchers, and scholars to document and study the language. This helps in preserving the language for future generations and understanding its linguistic characteristics, history, and development.
+3. Education: Having a written form of Hawaiian Creole can aid in the teaching and learning of the language. It enables the creation of textbooks, dictionaries, and other educational materials, making it more accessible to both native speakers and non-native learners.
+4. Communication and Integration: Transcription can bridge the gap between different languages and enable communication between speakers of Hawaiian Creole and speakers of other languages. It also helps in integrating Hawaiian Creole into formal settings such as government, education, and media.
+Overall, transcription plays a crucial role in supporting the recognition and development of Hawaiian Creole as a distinct language.</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Write 300-500 word article based on the combined content for Capital Typing providing Hawaiian Creole  Transcription services. </t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>Hawaiian Creole, also known as Pidgin, is a unique and distinct language that developed in Hawaii as a means of communication among different ethnic groups. It incorporates words and expressions from English, Hawaiian, Filipino, Portuguese, Japanese, and Chinese, among others. Hawaiian Creole has its own grammar, vocabulary, and pronunciation, setting it apart from standard English.
+As a transcription service provider, Capital Typing understands the linguistic patterns and cultural significance of Hawaiian Creole. We offer high-quality Hawaiian Creole transcription services to help individuals and businesses accurately transcribe their audio or video content in this unique language.
+Our team of experienced transcribers is well-versed in the nuances and intricacies of Hawaiian Creole. Whether you have interviews, meetings, lectures, or any other type of audio or video material in Hawaiian Creole, we can transcribe it into written text with precision and efficiency.
+At Capital Typing, we understand the importance of maintaining accuracy and cultural sensitivity when transcribing Hawaiian Creole. We pay close attention to the distinct pronunciations, vocabulary, and grammar of this language, ensuring that the transcribed text reflects the original content accurately.
+To utilize our Hawaiian Creole transcription services, simply provide us with the audio or video files you need transcribed. Our secure and confidential file-sharing platform ensures the safety and privacy of your content. We ensure that your files are protected throughout the transcription process.
+Our team works diligently to provide you with a fast turnaround time without compromising on quality. We understand that timing is crucial, and we strive to meet your deadlines while maintaining the highest standard of accuracy.
+Upon completion, we deliver the transcribed text in your preferred format, whether it's a Word document, PDF, or any other specified format. We also offer optional additional services, such as time-stamping, if required.
+With our Hawaiian Creole transcription services, you can easily access written records of your audio or video content in this unique language. Whether you need transcriptions for personal, academic, or professional purposes, Capital Typing is here to assist you.
+Choose Capital Typing for accurate and reliable Hawaiian Creole transcription services. We are committed to providing exceptional service and ensuring your satisfaction. Contact us today to discuss your specific transcription requirements and receive a personalized quote.</t>
         </is>
       </c>
     </row>
